--- a/DATA/SOURCE/TradeHistory/trade_2425.xlsx
+++ b/DATA/SOURCE/TradeHistory/trade_2425.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prashant.tripathi\Code\Upstox\DATA\SOURCE\TradeHistory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prashant.tripathi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5F2E03-B311-4E82-B2AC-1FE265DAE09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA4937F-C473-455C-AB9A-30DFF4368BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="332">
   <si>
     <t>UPSTOX SECURITIES PRIVATE LIMITED</t>
   </si>
@@ -97,24 +97,207 @@
     <t>FO</t>
   </si>
   <si>
+    <t>European Put</t>
+  </si>
+  <si>
+    <t>08-08-2024</t>
+  </si>
+  <si>
+    <t>722796247</t>
+  </si>
+  <si>
+    <t>12:21:59</t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
+    <t>723739017</t>
+  </si>
+  <si>
+    <t>14:07:07</t>
+  </si>
+  <si>
+    <t>723930970</t>
+  </si>
+  <si>
+    <t>14:21:35</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
     <t>European Call</t>
   </si>
   <si>
+    <t>74513776</t>
+  </si>
+  <si>
+    <t>15:07:27</t>
+  </si>
+  <si>
+    <t>723045193</t>
+  </si>
+  <si>
+    <t>12:36:48</t>
+  </si>
+  <si>
     <t>01-08-2024</t>
   </si>
   <si>
+    <t>804411169</t>
+  </si>
+  <si>
+    <t>14:34:46</t>
+  </si>
+  <si>
+    <t>27171054</t>
+  </si>
+  <si>
+    <t>15:20:10</t>
+  </si>
+  <si>
+    <t>27171056</t>
+  </si>
+  <si>
+    <t>19476734</t>
+  </si>
+  <si>
+    <t>14:35:26</t>
+  </si>
+  <si>
+    <t>807945454</t>
+  </si>
+  <si>
+    <t>27171055</t>
+  </si>
+  <si>
+    <t>792255384</t>
+  </si>
+  <si>
+    <t>11:19:46</t>
+  </si>
+  <si>
+    <t>723553329</t>
+  </si>
+  <si>
+    <t>14:32:42</t>
+  </si>
+  <si>
+    <t>794379260</t>
+  </si>
+  <si>
+    <t>14:45:44</t>
+  </si>
+  <si>
+    <t>723844793</t>
+  </si>
+  <si>
+    <t>14:59:38</t>
+  </si>
+  <si>
+    <t>818285939</t>
+  </si>
+  <si>
+    <t>15:28:35</t>
+  </si>
+  <si>
+    <t>818285940</t>
+  </si>
+  <si>
+    <t>85738066</t>
+  </si>
+  <si>
+    <t>13:19:08</t>
+  </si>
+  <si>
+    <t>79594358</t>
+  </si>
+  <si>
+    <t>11:14:37</t>
+  </si>
+  <si>
+    <t>84937258</t>
+  </si>
+  <si>
+    <t>13:11:20</t>
+  </si>
+  <si>
+    <t>84937257</t>
+  </si>
+  <si>
+    <t>81006934</t>
+  </si>
+  <si>
+    <t>11:45:42</t>
+  </si>
+  <si>
+    <t>813701062</t>
+  </si>
+  <si>
+    <t>15:09:20</t>
+  </si>
+  <si>
+    <t>5972358</t>
+  </si>
+  <si>
+    <t>13:15:18</t>
+  </si>
+  <si>
+    <t>722225834</t>
+  </si>
+  <si>
+    <t>11:00:02</t>
+  </si>
+  <si>
+    <t>792659383</t>
+  </si>
+  <si>
+    <t>11:23:25</t>
+  </si>
+  <si>
+    <t>2595023</t>
+  </si>
+  <si>
+    <t>11:04:10</t>
+  </si>
+  <si>
+    <t>722225833</t>
+  </si>
+  <si>
+    <t>791956376</t>
+  </si>
+  <si>
+    <t>10:38:24</t>
+  </si>
+  <si>
+    <t>4039758</t>
+  </si>
+  <si>
+    <t>12:10:20</t>
+  </si>
+  <si>
+    <t>792659382</t>
+  </si>
+  <si>
+    <t>722834343</t>
+  </si>
+  <si>
+    <t>11:42:42</t>
+  </si>
+  <si>
+    <t>3926417</t>
+  </si>
+  <si>
+    <t>12:06:50</t>
+  </si>
+  <si>
     <t>4217907</t>
   </si>
   <si>
     <t>13:22:36</t>
   </si>
   <si>
-    <t>Sell</t>
-  </si>
-  <si>
-    <t>European Put</t>
-  </si>
-  <si>
     <t>722380207</t>
   </si>
   <si>
@@ -127,9 +310,6 @@
     <t>12:20:50</t>
   </si>
   <si>
-    <t>Buy</t>
-  </si>
-  <si>
     <t>721927809</t>
   </si>
   <si>
@@ -749,9 +929,6 @@
   </si>
   <si>
     <t>3288934</t>
-  </si>
-  <si>
-    <t>11:42:42</t>
   </si>
   <si>
     <t>720539128</t>
@@ -878,11 +1055,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1217,10 +1396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N151"/>
+  <dimension ref="A1:N185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="H148" sqref="H148"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1324,14 +1503,14 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>45499</v>
+      <c r="A10" s="4">
+        <v>45509</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="2">
-        <v>7125</v>
+        <v>750</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1343,39 +1522,39 @@
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H10">
-        <v>24600</v>
+        <v>24700</v>
       </c>
       <c r="I10" t="s">
         <v>26</v>
       </c>
-      <c r="J10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" t="s">
-        <v>28</v>
+      <c r="J10">
+        <v>240805000039351</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0.3972222222222222</v>
       </c>
       <c r="L10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M10">
         <v>25</v>
       </c>
       <c r="N10" s="2">
-        <v>285</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="2">
-        <v>2653.75</v>
+        <v>4000</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1387,19 +1566,19 @@
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H11">
-        <v>24650</v>
+        <v>24800</v>
       </c>
       <c r="I11" t="s">
         <v>26</v>
       </c>
       <c r="J11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L11" t="s">
         <v>29</v>
@@ -1408,18 +1587,18 @@
         <v>25</v>
       </c>
       <c r="N11" s="2">
-        <v>106.15</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="2">
-        <v>4767.5</v>
+        <v>4150</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
@@ -1434,36 +1613,36 @@
         <v>25</v>
       </c>
       <c r="H12">
-        <v>24600</v>
+        <v>24800</v>
       </c>
       <c r="I12" t="s">
         <v>26</v>
       </c>
       <c r="J12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M12">
         <v>25</v>
       </c>
       <c r="N12" s="2">
-        <v>190.7</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="2">
-        <v>3450</v>
+        <v>4196.25</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
@@ -1475,39 +1654,39 @@
         <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H13">
-        <v>24650</v>
+        <v>24800</v>
       </c>
       <c r="I13" t="s">
         <v>26</v>
       </c>
       <c r="J13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M13">
         <v>25</v>
       </c>
       <c r="N13" s="2">
-        <v>138</v>
+        <v>167.85</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>45496</v>
+        <v>45506</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="2">
-        <v>5445</v>
+        <v>3500</v>
       </c>
       <c r="D14" t="s">
         <v>23</v>
@@ -1519,39 +1698,39 @@
         <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H14">
-        <v>24500</v>
+        <v>24700</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L14" t="s">
         <v>29</v>
       </c>
       <c r="M14">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N14" s="2">
-        <v>108.9</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>45496</v>
+        <v>45506</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="2">
-        <v>2722.5</v>
+        <v>4443.75</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -1566,36 +1745,36 @@
         <v>25</v>
       </c>
       <c r="H15">
-        <v>24500</v>
+        <v>24800</v>
       </c>
       <c r="I15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" t="s">
         <v>38</v>
       </c>
-      <c r="J15" t="s">
-        <v>41</v>
-      </c>
       <c r="K15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M15">
         <v>25</v>
       </c>
       <c r="N15" s="2">
-        <v>108.9</v>
+        <v>177.75</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>45496</v>
+        <v>45505</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="2">
-        <v>10265</v>
+        <v>875</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
@@ -1610,36 +1789,36 @@
         <v>25</v>
       </c>
       <c r="H16">
-        <v>24500</v>
+        <v>24950</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" t="s">
         <v>42</v>
       </c>
-      <c r="K16" t="s">
-        <v>43</v>
-      </c>
       <c r="L16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M16">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="N16" s="2">
-        <v>205.3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>45496</v>
+        <v>45505</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="2">
-        <v>2723.75</v>
+        <v>320</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1651,39 +1830,39 @@
         <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H17">
-        <v>24500</v>
+        <v>25000</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J17" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" t="s">
         <v>44</v>
       </c>
-      <c r="K17" t="s">
-        <v>40</v>
-      </c>
       <c r="L17" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M17">
         <v>25</v>
       </c>
       <c r="N17" s="2">
-        <v>108.95</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>45496</v>
+        <v>45505</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="2">
-        <v>10267.5</v>
+        <v>960</v>
       </c>
       <c r="D18" t="s">
         <v>23</v>
@@ -1695,39 +1874,39 @@
         <v>22</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H18">
-        <v>24500</v>
+        <v>25000</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J18" t="s">
         <v>45</v>
       </c>
       <c r="K18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M18">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N18" s="2">
-        <v>205.35</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>45495</v>
+        <v>45505</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="2">
-        <v>19020</v>
+        <v>875</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
@@ -1739,13 +1918,13 @@
         <v>22</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H19">
-        <v>24600</v>
+        <v>25000</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J19" t="s">
         <v>46</v>
@@ -1757,21 +1936,21 @@
         <v>29</v>
       </c>
       <c r="M19">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="N19" s="2">
-        <v>253.6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>45495</v>
+        <v>45505</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="2">
-        <v>18911.25</v>
+        <v>6.25</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1783,39 +1962,39 @@
         <v>22</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H20">
-        <v>24600</v>
+        <v>24950</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J20" t="s">
         <v>48</v>
       </c>
       <c r="K20" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="L20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M20">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="N20" s="2">
-        <v>252.15</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>45491</v>
+        <v>45505</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="2">
-        <v>4000</v>
+        <v>320</v>
       </c>
       <c r="D21" t="s">
         <v>23</v>
@@ -1827,39 +2006,39 @@
         <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H21">
-        <v>24650</v>
+        <v>25000</v>
       </c>
       <c r="I21" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K21" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="L21" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M21">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N21" s="2">
-        <v>40</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>45491</v>
+        <v>45504</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="2">
-        <v>8710</v>
+        <v>2471.25</v>
       </c>
       <c r="D22" t="s">
         <v>23</v>
@@ -1874,36 +2053,36 @@
         <v>25</v>
       </c>
       <c r="H22">
-        <v>24600</v>
+        <v>24950</v>
       </c>
       <c r="I22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" t="s">
         <v>50</v>
       </c>
-      <c r="J22" t="s">
-        <v>53</v>
-      </c>
       <c r="K22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L22" t="s">
         <v>29</v>
       </c>
       <c r="M22">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N22" s="2">
-        <v>87.1</v>
+        <v>98.85</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>45491</v>
+        <v>45504</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="2">
-        <v>5000</v>
+        <v>2436.25</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1918,36 +2097,36 @@
         <v>25</v>
       </c>
       <c r="H23">
-        <v>24650</v>
+        <v>25000</v>
       </c>
       <c r="I23" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L23" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N23" s="2">
-        <v>50</v>
+        <v>97.45</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>45491</v>
+        <v>45504</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="2">
-        <v>300</v>
+        <v>2136.25</v>
       </c>
       <c r="D24" t="s">
         <v>23</v>
@@ -1959,39 +2138,39 @@
         <v>22</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H24">
-        <v>24650</v>
+        <v>24950</v>
       </c>
       <c r="I24" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M24">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N24" s="2">
-        <v>3</v>
+        <v>85.45</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>45491</v>
+        <v>45504</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="2">
-        <v>2822.5</v>
+        <v>2613.75</v>
       </c>
       <c r="D25" t="s">
         <v>23</v>
@@ -2006,36 +2185,36 @@
         <v>25</v>
       </c>
       <c r="H25">
-        <v>24650</v>
+        <v>25000</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J25" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K25" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L25" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M25">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N25" s="2">
-        <v>56.45</v>
+        <v>104.55</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>45491</v>
+        <v>45503</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="2">
-        <v>4965</v>
+        <v>2568.75</v>
       </c>
       <c r="D26" t="s">
         <v>23</v>
@@ -2050,36 +2229,36 @@
         <v>25</v>
       </c>
       <c r="H26">
-        <v>24600</v>
+        <v>24900</v>
       </c>
       <c r="I26" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J26" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K26" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M26">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N26" s="2">
-        <v>49.65</v>
+        <v>102.75</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>45491</v>
+        <v>45503</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="2">
-        <v>3512.5</v>
+        <v>2568.75</v>
       </c>
       <c r="D27" t="s">
         <v>23</v>
@@ -2091,39 +2270,39 @@
         <v>22</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H27">
-        <v>24650</v>
+        <v>24900</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J27" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K27" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L27" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M27">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N27" s="2">
-        <v>70.25</v>
+        <v>102.75</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>45491</v>
+        <v>45503</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="2">
-        <v>5100</v>
+        <v>4250</v>
       </c>
       <c r="D28" t="s">
         <v>23</v>
@@ -2135,39 +2314,39 @@
         <v>22</v>
       </c>
       <c r="G28" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H28">
-        <v>24650</v>
+        <v>24950</v>
       </c>
       <c r="I28" t="s">
+        <v>40</v>
+      </c>
+      <c r="J28" t="s">
+        <v>61</v>
+      </c>
+      <c r="K28" t="s">
+        <v>62</v>
+      </c>
+      <c r="L28" t="s">
+        <v>34</v>
+      </c>
+      <c r="M28">
         <v>50</v>
       </c>
-      <c r="J28" t="s">
-        <v>65</v>
-      </c>
-      <c r="K28" t="s">
-        <v>66</v>
-      </c>
-      <c r="L28" t="s">
-        <v>29</v>
-      </c>
-      <c r="M28">
-        <v>100</v>
-      </c>
       <c r="N28" s="2">
-        <v>51</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>45491</v>
+        <v>45503</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="2">
-        <v>1715</v>
+        <v>1400</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
@@ -2179,39 +2358,39 @@
         <v>22</v>
       </c>
       <c r="G29" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H29">
-        <v>24650</v>
+        <v>25150</v>
       </c>
       <c r="I29" t="s">
+        <v>40</v>
+      </c>
+      <c r="J29" t="s">
+        <v>63</v>
+      </c>
+      <c r="K29" t="s">
+        <v>64</v>
+      </c>
+      <c r="L29" t="s">
+        <v>29</v>
+      </c>
+      <c r="M29">
         <v>50</v>
       </c>
-      <c r="J29" t="s">
-        <v>67</v>
-      </c>
-      <c r="K29" t="s">
-        <v>68</v>
-      </c>
-      <c r="L29" t="s">
-        <v>35</v>
-      </c>
-      <c r="M29">
-        <v>100</v>
-      </c>
       <c r="N29" s="2">
-        <v>17.149999999999999</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>45489</v>
+        <v>45503</v>
       </c>
       <c r="B30" t="s">
         <v>22</v>
       </c>
       <c r="C30" s="2">
-        <v>1752.5</v>
+        <v>2625</v>
       </c>
       <c r="D30" t="s">
         <v>23</v>
@@ -2223,39 +2402,39 @@
         <v>22</v>
       </c>
       <c r="G30" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H30">
-        <v>24650</v>
+        <v>24950</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J30" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K30" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L30" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M30">
         <v>25</v>
       </c>
       <c r="N30" s="2">
-        <v>70.099999999999994</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>45489</v>
+        <v>45503</v>
       </c>
       <c r="B31" t="s">
         <v>22</v>
       </c>
       <c r="C31" s="2">
-        <v>1941.25</v>
+        <v>2625</v>
       </c>
       <c r="D31" t="s">
         <v>23</v>
@@ -2267,39 +2446,39 @@
         <v>22</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H31">
-        <v>24650</v>
+        <v>24950</v>
       </c>
       <c r="I31" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J31" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K31" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L31" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M31">
         <v>25</v>
       </c>
       <c r="N31" s="2">
-        <v>77.650000000000006</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>45489</v>
+        <v>45503</v>
       </c>
       <c r="B32" t="s">
         <v>22</v>
       </c>
       <c r="C32" s="2">
-        <v>1942.5</v>
+        <v>1435</v>
       </c>
       <c r="D32" t="s">
         <v>23</v>
@@ -2311,39 +2490,39 @@
         <v>22</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H32">
-        <v>24650</v>
+        <v>25150</v>
       </c>
       <c r="I32" t="s">
+        <v>40</v>
+      </c>
+      <c r="J32" t="s">
+        <v>68</v>
+      </c>
+      <c r="K32" t="s">
+        <v>69</v>
+      </c>
+      <c r="L32" t="s">
+        <v>34</v>
+      </c>
+      <c r="M32">
         <v>50</v>
       </c>
-      <c r="J32" t="s">
-        <v>72</v>
-      </c>
-      <c r="K32" t="s">
-        <v>70</v>
-      </c>
-      <c r="L32" t="s">
-        <v>35</v>
-      </c>
-      <c r="M32">
-        <v>25</v>
-      </c>
       <c r="N32" s="2">
-        <v>77.7</v>
+        <v>28.7</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>45489</v>
+        <v>45503</v>
       </c>
       <c r="B33" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="2">
-        <v>1751.25</v>
+        <v>5097.5</v>
       </c>
       <c r="D33" t="s">
         <v>23</v>
@@ -2358,36 +2537,36 @@
         <v>25</v>
       </c>
       <c r="H33">
-        <v>24650</v>
+        <v>24900</v>
       </c>
       <c r="I33" t="s">
+        <v>40</v>
+      </c>
+      <c r="J33" t="s">
+        <v>70</v>
+      </c>
+      <c r="K33" t="s">
+        <v>71</v>
+      </c>
+      <c r="L33" t="s">
+        <v>29</v>
+      </c>
+      <c r="M33">
         <v>50</v>
       </c>
-      <c r="J33" t="s">
-        <v>73</v>
-      </c>
-      <c r="K33" t="s">
-        <v>70</v>
-      </c>
-      <c r="L33" t="s">
-        <v>35</v>
-      </c>
-      <c r="M33">
-        <v>25</v>
-      </c>
       <c r="N33" s="2">
-        <v>70.05</v>
+        <v>101.95</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>45488</v>
+        <v>45502</v>
       </c>
       <c r="B34" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="2">
-        <v>5787.5</v>
+        <v>4950</v>
       </c>
       <c r="D34" t="s">
         <v>23</v>
@@ -2399,39 +2578,39 @@
         <v>22</v>
       </c>
       <c r="G34" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H34">
-        <v>24650</v>
+        <v>25000</v>
       </c>
       <c r="I34" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K34" t="s">
+        <v>73</v>
+      </c>
+      <c r="L34" t="s">
+        <v>34</v>
+      </c>
+      <c r="M34">
         <v>75</v>
       </c>
-      <c r="L34" t="s">
-        <v>29</v>
-      </c>
-      <c r="M34">
-        <v>50</v>
-      </c>
       <c r="N34" s="2">
-        <v>115.75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>45488</v>
+        <v>45502</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
       </c>
       <c r="C35" s="2">
-        <v>5762.5</v>
+        <v>600</v>
       </c>
       <c r="D35" t="s">
         <v>23</v>
@@ -2443,39 +2622,39 @@
         <v>22</v>
       </c>
       <c r="G35" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H35">
-        <v>24650</v>
+        <v>24450</v>
       </c>
       <c r="I35" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L35" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M35">
         <v>50</v>
       </c>
       <c r="N35" s="2">
-        <v>115.25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>45484</v>
+        <v>45502</v>
       </c>
       <c r="B36" t="s">
         <v>22</v>
       </c>
       <c r="C36" s="2">
-        <v>1601.25</v>
+        <v>4192.5</v>
       </c>
       <c r="D36" t="s">
         <v>23</v>
@@ -2490,36 +2669,36 @@
         <v>25</v>
       </c>
       <c r="H36">
-        <v>24350</v>
+        <v>24900</v>
       </c>
       <c r="I36" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="J36" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K36" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L36" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M36">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N36" s="2">
-        <v>21.35</v>
+        <v>83.85</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>45484</v>
+        <v>45502</v>
       </c>
       <c r="B37" t="s">
         <v>22</v>
       </c>
       <c r="C37" s="2">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="D37" t="s">
         <v>23</v>
@@ -2531,39 +2710,39 @@
         <v>22</v>
       </c>
       <c r="G37" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H37">
-        <v>24350</v>
+        <v>25400</v>
       </c>
       <c r="I37" t="s">
+        <v>40</v>
+      </c>
+      <c r="J37" t="s">
         <v>78</v>
       </c>
-      <c r="J37" t="s">
-        <v>81</v>
-      </c>
       <c r="K37" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L37" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M37">
         <v>100</v>
       </c>
       <c r="N37" s="2">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>45484</v>
+        <v>45502</v>
       </c>
       <c r="B38" t="s">
         <v>22</v>
       </c>
       <c r="C38" s="2">
-        <v>107.5</v>
+        <v>300</v>
       </c>
       <c r="D38" t="s">
         <v>23</v>
@@ -2578,16 +2757,16 @@
         <v>25</v>
       </c>
       <c r="H38">
-        <v>24400</v>
+        <v>24450</v>
       </c>
       <c r="I38" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="J38" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K38" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L38" t="s">
         <v>29</v>
@@ -2596,18 +2775,18 @@
         <v>25</v>
       </c>
       <c r="N38" s="2">
-        <v>4.3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>45484</v>
+        <v>45502</v>
       </c>
       <c r="B39" t="s">
         <v>22</v>
       </c>
       <c r="C39" s="2">
-        <v>351.25</v>
+        <v>9375</v>
       </c>
       <c r="D39" t="s">
         <v>23</v>
@@ -2622,36 +2801,36 @@
         <v>25</v>
       </c>
       <c r="H39">
-        <v>24300</v>
+        <v>24900</v>
       </c>
       <c r="I39" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="J39" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L39" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M39">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N39" s="2">
-        <v>14.05</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>45484</v>
+        <v>45502</v>
       </c>
       <c r="B40" t="s">
         <v>22</v>
       </c>
       <c r="C40" s="2">
-        <v>62.5</v>
+        <v>7500</v>
       </c>
       <c r="D40" t="s">
         <v>23</v>
@@ -2663,39 +2842,39 @@
         <v>22</v>
       </c>
       <c r="G40" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H40">
-        <v>24400</v>
+        <v>25000</v>
       </c>
       <c r="I40" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="J40" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K40" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L40" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M40">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N40" s="2">
-        <v>2.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>45484</v>
+        <v>45502</v>
       </c>
       <c r="B41" t="s">
         <v>22</v>
       </c>
       <c r="C41" s="2">
-        <v>2668.75</v>
+        <v>2097.5</v>
       </c>
       <c r="D41" t="s">
         <v>23</v>
@@ -2710,36 +2889,36 @@
         <v>25</v>
       </c>
       <c r="H41">
-        <v>24350</v>
+        <v>24900</v>
       </c>
       <c r="I41" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="J41" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K41" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L41" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M41">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="N41" s="2">
-        <v>21.35</v>
+        <v>83.9</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>45484</v>
+        <v>45502</v>
       </c>
       <c r="B42" t="s">
         <v>22</v>
       </c>
       <c r="C42" s="2">
-        <v>498.75</v>
+        <v>783.75</v>
       </c>
       <c r="D42" t="s">
         <v>23</v>
@@ -2754,36 +2933,36 @@
         <v>25</v>
       </c>
       <c r="H42">
-        <v>24300</v>
+        <v>24450</v>
       </c>
       <c r="I42" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="J42" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K42" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L42" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M42">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N42" s="2">
-        <v>19.95</v>
+        <v>10.45</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>45484</v>
+        <v>45502</v>
       </c>
       <c r="B43" t="s">
         <v>22</v>
       </c>
       <c r="C43" s="2">
-        <v>1493.75</v>
+        <v>1035</v>
       </c>
       <c r="D43" t="s">
         <v>23</v>
@@ -2795,39 +2974,39 @@
         <v>22</v>
       </c>
       <c r="G43" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H43">
-        <v>24350</v>
+        <v>25400</v>
       </c>
       <c r="I43" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="J43" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K43" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M43">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N43" s="2">
-        <v>59.75</v>
+        <v>10.35</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>45484</v>
+        <v>45499</v>
       </c>
       <c r="B44" t="s">
         <v>22</v>
       </c>
       <c r="C44" s="2">
-        <v>2987.5</v>
+        <v>7125</v>
       </c>
       <c r="D44" t="s">
         <v>23</v>
@@ -2839,39 +3018,39 @@
         <v>22</v>
       </c>
       <c r="G44" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H44">
-        <v>24350</v>
+        <v>24600</v>
       </c>
       <c r="I44" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="J44" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M44">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N44" s="2">
-        <v>59.75</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>45484</v>
+        <v>45499</v>
       </c>
       <c r="B45" t="s">
         <v>22</v>
       </c>
       <c r="C45" s="2">
-        <v>1493.75</v>
+        <v>2653.75</v>
       </c>
       <c r="D45" t="s">
         <v>23</v>
@@ -2886,36 +3065,36 @@
         <v>25</v>
       </c>
       <c r="H45">
-        <v>24350</v>
+        <v>24650</v>
       </c>
       <c r="I45" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="J45" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K45" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M45">
         <v>25</v>
       </c>
       <c r="N45" s="2">
-        <v>59.75</v>
+        <v>106.15</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>45483</v>
+        <v>45499</v>
       </c>
       <c r="B46" t="s">
         <v>22</v>
       </c>
       <c r="C46" s="2">
-        <v>13792.5</v>
+        <v>4767.5</v>
       </c>
       <c r="D46" t="s">
         <v>23</v>
@@ -2927,39 +3106,39 @@
         <v>22</v>
       </c>
       <c r="G46" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H46">
-        <v>24100</v>
+        <v>24600</v>
       </c>
       <c r="I46" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="J46" t="s">
+        <v>94</v>
+      </c>
+      <c r="K46" t="s">
         <v>95</v>
-      </c>
-      <c r="K46" t="s">
-        <v>96</v>
       </c>
       <c r="L46" t="s">
         <v>29</v>
       </c>
       <c r="M46">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N46" s="2">
-        <v>183.9</v>
+        <v>190.7</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>45483</v>
+        <v>45499</v>
       </c>
       <c r="B47" t="s">
         <v>22</v>
       </c>
       <c r="C47" s="2">
-        <v>16700</v>
+        <v>3450</v>
       </c>
       <c r="D47" t="s">
         <v>23</v>
@@ -2974,36 +3153,36 @@
         <v>25</v>
       </c>
       <c r="H47">
-        <v>24100</v>
+        <v>24650</v>
       </c>
       <c r="I47" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="J47" t="s">
+        <v>96</v>
+      </c>
+      <c r="K47" t="s">
         <v>97</v>
       </c>
-      <c r="K47" t="s">
-        <v>98</v>
-      </c>
       <c r="L47" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M47">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N47" s="2">
-        <v>167</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>45483</v>
+        <v>45496</v>
       </c>
       <c r="B48" t="s">
         <v>22</v>
       </c>
       <c r="C48" s="2">
-        <v>4596.25</v>
+        <v>5445</v>
       </c>
       <c r="D48" t="s">
         <v>23</v>
@@ -3015,39 +3194,39 @@
         <v>22</v>
       </c>
       <c r="G48" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H48">
-        <v>24100</v>
+        <v>24500</v>
       </c>
       <c r="I48" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="J48" t="s">
         <v>99</v>
       </c>
       <c r="K48" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L48" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M48">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N48" s="2">
-        <v>183.85</v>
+        <v>108.9</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>45482</v>
+        <v>45496</v>
       </c>
       <c r="B49" t="s">
         <v>22</v>
       </c>
       <c r="C49" s="2">
-        <v>6041.25</v>
+        <v>2722.5</v>
       </c>
       <c r="D49" t="s">
         <v>23</v>
@@ -3059,39 +3238,39 @@
         <v>22</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H49">
-        <v>24350</v>
+        <v>24500</v>
       </c>
       <c r="I49" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="J49" t="s">
+        <v>101</v>
+      </c>
+      <c r="K49" t="s">
         <v>100</v>
       </c>
-      <c r="K49" t="s">
-        <v>101</v>
-      </c>
       <c r="L49" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M49">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N49" s="2">
-        <v>80.55</v>
+        <v>108.9</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>45482</v>
+        <v>45496</v>
       </c>
       <c r="B50" t="s">
         <v>22</v>
       </c>
       <c r="C50" s="2">
-        <v>3437.5</v>
+        <v>10265</v>
       </c>
       <c r="D50" t="s">
         <v>23</v>
@@ -3103,13 +3282,13 @@
         <v>22</v>
       </c>
       <c r="G50" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H50">
-        <v>24300</v>
+        <v>24500</v>
       </c>
       <c r="I50" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="J50" t="s">
         <v>102</v>
@@ -3121,21 +3300,21 @@
         <v>29</v>
       </c>
       <c r="M50">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N50" s="2">
-        <v>137.5</v>
+        <v>205.3</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>45482</v>
+        <v>45496</v>
       </c>
       <c r="B51" t="s">
         <v>22</v>
       </c>
       <c r="C51" s="2">
-        <v>5855</v>
+        <v>2723.75</v>
       </c>
       <c r="D51" t="s">
         <v>23</v>
@@ -3147,39 +3326,39 @@
         <v>22</v>
       </c>
       <c r="G51" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H51">
-        <v>24400</v>
+        <v>24500</v>
       </c>
       <c r="I51" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="J51" t="s">
         <v>104</v>
       </c>
       <c r="K51" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L51" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M51">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N51" s="2">
-        <v>117.1</v>
+        <v>108.95</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>45482</v>
+        <v>45496</v>
       </c>
       <c r="B52" t="s">
         <v>22</v>
       </c>
       <c r="C52" s="2">
-        <v>2225</v>
+        <v>10267.5</v>
       </c>
       <c r="D52" t="s">
         <v>23</v>
@@ -3191,39 +3370,39 @@
         <v>22</v>
       </c>
       <c r="G52" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H52">
-        <v>24400</v>
+        <v>24500</v>
       </c>
       <c r="I52" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="J52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K52" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L52" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M52">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N52" s="2">
-        <v>89</v>
+        <v>205.35</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>45482</v>
+        <v>45495</v>
       </c>
       <c r="B53" t="s">
         <v>22</v>
       </c>
       <c r="C53" s="2">
-        <v>8030</v>
+        <v>19020</v>
       </c>
       <c r="D53" t="s">
         <v>23</v>
@@ -3235,39 +3414,39 @@
         <v>22</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H53">
-        <v>24350</v>
+        <v>24600</v>
       </c>
       <c r="I53" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="J53" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K53" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M53">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="N53" s="2">
-        <v>80.3</v>
+        <v>253.6</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>45482</v>
+        <v>45495</v>
       </c>
       <c r="B54" t="s">
         <v>22</v>
       </c>
       <c r="C54" s="2">
-        <v>2013.75</v>
+        <v>18911.25</v>
       </c>
       <c r="D54" t="s">
         <v>23</v>
@@ -3279,39 +3458,39 @@
         <v>22</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H54">
-        <v>24350</v>
+        <v>24600</v>
       </c>
       <c r="I54" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="J54" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K54" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="L54" t="s">
         <v>29</v>
       </c>
       <c r="M54">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N54" s="2">
-        <v>80.55</v>
+        <v>252.15</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>45482</v>
+        <v>45491</v>
       </c>
       <c r="B55" t="s">
         <v>22</v>
       </c>
       <c r="C55" s="2">
-        <v>14545</v>
+        <v>4000</v>
       </c>
       <c r="D55" t="s">
         <v>23</v>
@@ -3323,13 +3502,13 @@
         <v>22</v>
       </c>
       <c r="G55" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H55">
-        <v>24300</v>
+        <v>24650</v>
       </c>
       <c r="I55" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="J55" t="s">
         <v>111</v>
@@ -3338,24 +3517,24 @@
         <v>112</v>
       </c>
       <c r="L55" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M55">
         <v>100</v>
       </c>
       <c r="N55" s="2">
-        <v>145.44999999999999</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>45482</v>
+        <v>45491</v>
       </c>
       <c r="B56" t="s">
         <v>22</v>
       </c>
       <c r="C56" s="2">
-        <v>3436.25</v>
+        <v>8710</v>
       </c>
       <c r="D56" t="s">
         <v>23</v>
@@ -3367,39 +3546,39 @@
         <v>22</v>
       </c>
       <c r="G56" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H56">
-        <v>24300</v>
+        <v>24600</v>
       </c>
       <c r="I56" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="J56" t="s">
         <v>113</v>
       </c>
       <c r="K56" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="L56" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M56">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N56" s="2">
-        <v>137.44999999999999</v>
+        <v>87.1</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>45482</v>
+        <v>45491</v>
       </c>
       <c r="B57" t="s">
         <v>22</v>
       </c>
       <c r="C57" s="2">
-        <v>11710</v>
+        <v>5000</v>
       </c>
       <c r="D57" t="s">
         <v>23</v>
@@ -3411,19 +3590,19 @@
         <v>22</v>
       </c>
       <c r="G57" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H57">
-        <v>24400</v>
+        <v>24650</v>
       </c>
       <c r="I57" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="J57" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K57" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="L57" t="s">
         <v>29</v>
@@ -3432,18 +3611,18 @@
         <v>100</v>
       </c>
       <c r="N57" s="2">
-        <v>117.1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>45482</v>
+        <v>45491</v>
       </c>
       <c r="B58" t="s">
         <v>22</v>
       </c>
       <c r="C58" s="2">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="D58" t="s">
         <v>23</v>
@@ -3458,36 +3637,36 @@
         <v>25</v>
       </c>
       <c r="H58">
-        <v>24300</v>
+        <v>24650</v>
       </c>
       <c r="I58" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="J58" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K58" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L58" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M58">
         <v>100</v>
       </c>
       <c r="N58" s="2">
-        <v>140</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>45482</v>
+        <v>45491</v>
       </c>
       <c r="B59" t="s">
         <v>22</v>
       </c>
       <c r="C59" s="2">
-        <v>11125</v>
+        <v>2822.5</v>
       </c>
       <c r="D59" t="s">
         <v>23</v>
@@ -3499,39 +3678,39 @@
         <v>22</v>
       </c>
       <c r="G59" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H59">
-        <v>24400</v>
+        <v>24650</v>
       </c>
       <c r="I59" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="J59" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K59" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="L59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M59">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="N59" s="2">
-        <v>89</v>
+        <v>56.45</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>45482</v>
+        <v>45491</v>
       </c>
       <c r="B60" t="s">
         <v>22</v>
       </c>
       <c r="C60" s="2">
-        <v>6877.5</v>
+        <v>4965</v>
       </c>
       <c r="D60" t="s">
         <v>23</v>
@@ -3543,39 +3722,39 @@
         <v>22</v>
       </c>
       <c r="G60" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H60">
-        <v>24300</v>
+        <v>24600</v>
       </c>
       <c r="I60" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="J60" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K60" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="L60" t="s">
         <v>29</v>
       </c>
       <c r="M60">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N60" s="2">
-        <v>137.55000000000001</v>
+        <v>49.65</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>45481</v>
+        <v>45491</v>
       </c>
       <c r="B61" t="s">
         <v>22</v>
       </c>
       <c r="C61" s="2">
-        <v>12000</v>
+        <v>3512.5</v>
       </c>
       <c r="D61" t="s">
         <v>23</v>
@@ -3590,36 +3769,36 @@
         <v>25</v>
       </c>
       <c r="H61">
-        <v>24300</v>
+        <v>24650</v>
       </c>
       <c r="I61" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="J61" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K61" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M61">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N61" s="2">
-        <v>120</v>
+        <v>70.25</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>45478</v>
+        <v>45491</v>
       </c>
       <c r="B62" t="s">
         <v>22</v>
       </c>
       <c r="C62" s="2">
-        <v>6000</v>
+        <v>5100</v>
       </c>
       <c r="D62" t="s">
         <v>23</v>
@@ -3631,39 +3810,39 @@
         <v>22</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H62">
-        <v>24300</v>
+        <v>24650</v>
       </c>
       <c r="I62" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="J62" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K62" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M62">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N62" s="2">
-        <v>120</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>45478</v>
+        <v>45491</v>
       </c>
       <c r="B63" t="s">
         <v>22</v>
       </c>
       <c r="C63" s="2">
-        <v>3028.75</v>
+        <v>1715</v>
       </c>
       <c r="D63" t="s">
         <v>23</v>
@@ -3675,39 +3854,39 @@
         <v>22</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H63">
-        <v>24300</v>
+        <v>24650</v>
       </c>
       <c r="I63" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="J63" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="K63" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="L63" t="s">
         <v>29</v>
       </c>
       <c r="M63">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N63" s="2">
-        <v>121.15</v>
+        <v>17.149999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>45478</v>
+        <v>45489</v>
       </c>
       <c r="B64" t="s">
         <v>22</v>
       </c>
       <c r="C64" s="2">
-        <v>9250</v>
+        <v>1752.5</v>
       </c>
       <c r="D64" t="s">
         <v>23</v>
@@ -3719,39 +3898,39 @@
         <v>22</v>
       </c>
       <c r="G64" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H64">
-        <v>24250</v>
+        <v>24650</v>
       </c>
       <c r="I64" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="J64" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K64" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L64" t="s">
         <v>29</v>
       </c>
       <c r="M64">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N64" s="2">
-        <v>185</v>
+        <v>70.099999999999994</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>45478</v>
+        <v>45489</v>
       </c>
       <c r="B65" t="s">
         <v>22</v>
       </c>
       <c r="C65" s="2">
-        <v>3028.75</v>
+        <v>1941.25</v>
       </c>
       <c r="D65" t="s">
         <v>23</v>
@@ -3763,19 +3942,19 @@
         <v>22</v>
       </c>
       <c r="G65" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H65">
-        <v>24300</v>
+        <v>24650</v>
       </c>
       <c r="I65" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="J65" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K65" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="L65" t="s">
         <v>29</v>
@@ -3784,18 +3963,18 @@
         <v>25</v>
       </c>
       <c r="N65" s="2">
-        <v>121.15</v>
+        <v>77.650000000000006</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>45478</v>
+        <v>45489</v>
       </c>
       <c r="B66" t="s">
         <v>22</v>
       </c>
       <c r="C66" s="2">
-        <v>8812.5</v>
+        <v>1942.5</v>
       </c>
       <c r="D66" t="s">
         <v>23</v>
@@ -3810,36 +3989,36 @@
         <v>25</v>
       </c>
       <c r="H66">
-        <v>24200</v>
+        <v>24650</v>
       </c>
       <c r="I66" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="J66" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K66" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L66" t="s">
         <v>29</v>
       </c>
       <c r="M66">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N66" s="2">
-        <v>176.25</v>
+        <v>77.7</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>45478</v>
+        <v>45489</v>
       </c>
       <c r="B67" t="s">
         <v>22</v>
       </c>
       <c r="C67" s="2">
-        <v>2978.75</v>
+        <v>1751.25</v>
       </c>
       <c r="D67" t="s">
         <v>23</v>
@@ -3851,39 +4030,39 @@
         <v>22</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H67">
-        <v>24300</v>
+        <v>24650</v>
       </c>
       <c r="I67" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="J67" t="s">
+        <v>133</v>
+      </c>
+      <c r="K67" t="s">
         <v>130</v>
       </c>
-      <c r="K67" t="s">
-        <v>131</v>
-      </c>
       <c r="L67" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M67">
         <v>25</v>
       </c>
       <c r="N67" s="2">
-        <v>119.15</v>
+        <v>70.05</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>45478</v>
+        <v>45488</v>
       </c>
       <c r="B68" t="s">
         <v>22</v>
       </c>
       <c r="C68" s="2">
-        <v>6057.5</v>
+        <v>5787.5</v>
       </c>
       <c r="D68" t="s">
         <v>23</v>
@@ -3895,39 +4074,39 @@
         <v>22</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H68">
-        <v>24300</v>
+        <v>24650</v>
       </c>
       <c r="I68" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="J68" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K68" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="L68" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M68">
         <v>50</v>
       </c>
       <c r="N68" s="2">
-        <v>121.15</v>
+        <v>115.75</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>45478</v>
+        <v>45488</v>
       </c>
       <c r="B69" t="s">
         <v>22</v>
       </c>
       <c r="C69" s="2">
-        <v>8415</v>
+        <v>5762.5</v>
       </c>
       <c r="D69" t="s">
         <v>23</v>
@@ -3942,36 +4121,36 @@
         <v>25</v>
       </c>
       <c r="H69">
-        <v>24200</v>
+        <v>24650</v>
       </c>
       <c r="I69" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="J69" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K69" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L69" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M69">
         <v>50</v>
       </c>
       <c r="N69" s="2">
-        <v>168.3</v>
+        <v>115.25</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>45478</v>
+        <v>45484</v>
       </c>
       <c r="B70" t="s">
         <v>22</v>
       </c>
       <c r="C70" s="2">
-        <v>1258.75</v>
+        <v>1601.25</v>
       </c>
       <c r="D70" t="s">
         <v>23</v>
@@ -3983,39 +4162,39 @@
         <v>22</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H70">
-        <v>24000</v>
+        <v>24350</v>
       </c>
       <c r="I70" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="J70" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K70" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="L70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M70">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N70" s="2">
-        <v>50.35</v>
+        <v>21.35</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>45478</v>
+        <v>45484</v>
       </c>
       <c r="B71" t="s">
         <v>22</v>
       </c>
       <c r="C71" s="2">
-        <v>4625</v>
+        <v>4000</v>
       </c>
       <c r="D71" t="s">
         <v>23</v>
@@ -4027,39 +4206,39 @@
         <v>22</v>
       </c>
       <c r="G71" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H71">
-        <v>24250</v>
+        <v>24350</v>
       </c>
       <c r="I71" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="J71" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K71" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="L71" t="s">
         <v>29</v>
       </c>
       <c r="M71">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N71" s="2">
-        <v>185</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>45478</v>
+        <v>45484</v>
       </c>
       <c r="B72" t="s">
         <v>22</v>
       </c>
       <c r="C72" s="2">
-        <v>2978.75</v>
+        <v>107.5</v>
       </c>
       <c r="D72" t="s">
         <v>23</v>
@@ -4071,39 +4250,39 @@
         <v>22</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H72">
-        <v>24300</v>
+        <v>24400</v>
       </c>
       <c r="I72" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="J72" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="K72" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="L72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M72">
         <v>25</v>
       </c>
       <c r="N72" s="2">
-        <v>119.15</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>45478</v>
+        <v>45484</v>
       </c>
       <c r="B73" t="s">
         <v>22</v>
       </c>
       <c r="C73" s="2">
-        <v>12195</v>
+        <v>351.25</v>
       </c>
       <c r="D73" t="s">
         <v>23</v>
@@ -4115,39 +4294,39 @@
         <v>22</v>
       </c>
       <c r="G73" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H73">
-        <v>24250</v>
+        <v>24300</v>
       </c>
       <c r="I73" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="J73" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="K73" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L73" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M73">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N73" s="2">
-        <v>162.6</v>
+        <v>14.05</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>45478</v>
+        <v>45484</v>
       </c>
       <c r="B74" t="s">
         <v>22</v>
       </c>
       <c r="C74" s="2">
-        <v>1437.5</v>
+        <v>62.5</v>
       </c>
       <c r="D74" t="s">
         <v>23</v>
@@ -4159,19 +4338,19 @@
         <v>22</v>
       </c>
       <c r="G74" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H74">
-        <v>24000</v>
+        <v>24400</v>
       </c>
       <c r="I74" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="J74" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K74" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L74" t="s">
         <v>29</v>
@@ -4180,18 +4359,18 @@
         <v>25</v>
       </c>
       <c r="N74" s="2">
-        <v>57.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>45477</v>
+        <v>45484</v>
       </c>
       <c r="B75" t="s">
         <v>22</v>
       </c>
       <c r="C75" s="2">
-        <v>1317.5</v>
+        <v>2668.75</v>
       </c>
       <c r="D75" t="s">
         <v>23</v>
@@ -4203,39 +4382,39 @@
         <v>22</v>
       </c>
       <c r="G75" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H75">
-        <v>24300</v>
+        <v>24350</v>
       </c>
       <c r="I75" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="J75" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K75" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="L75" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M75">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="N75" s="2">
-        <v>52.7</v>
+        <v>21.35</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>45477</v>
+        <v>45484</v>
       </c>
       <c r="B76" t="s">
         <v>22</v>
       </c>
       <c r="C76" s="2">
-        <v>1250</v>
+        <v>498.75</v>
       </c>
       <c r="D76" t="s">
         <v>23</v>
@@ -4247,39 +4426,39 @@
         <v>22</v>
       </c>
       <c r="G76" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H76">
         <v>24300</v>
       </c>
       <c r="I76" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="J76" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K76" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M76">
         <v>25</v>
       </c>
       <c r="N76" s="2">
-        <v>50</v>
+        <v>19.95</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>45476</v>
+        <v>45484</v>
       </c>
       <c r="B77" t="s">
         <v>22</v>
       </c>
       <c r="C77" s="2">
-        <v>10455</v>
+        <v>1493.75</v>
       </c>
       <c r="D77" t="s">
         <v>23</v>
@@ -4291,39 +4470,39 @@
         <v>22</v>
       </c>
       <c r="G77" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H77">
-        <v>24250</v>
+        <v>24350</v>
       </c>
       <c r="I77" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="J77" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K77" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L77" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M77">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N77" s="2">
-        <v>104.55</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>45476</v>
+        <v>45484</v>
       </c>
       <c r="B78" t="s">
         <v>22</v>
       </c>
       <c r="C78" s="2">
-        <v>1412.5</v>
+        <v>2987.5</v>
       </c>
       <c r="D78" t="s">
         <v>23</v>
@@ -4335,39 +4514,39 @@
         <v>22</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H78">
-        <v>24250</v>
+        <v>24350</v>
       </c>
       <c r="I78" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="J78" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K78" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L78" t="s">
         <v>29</v>
       </c>
       <c r="M78">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N78" s="2">
-        <v>56.5</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>45476</v>
+        <v>45484</v>
       </c>
       <c r="B79" t="s">
         <v>22</v>
       </c>
       <c r="C79" s="2">
-        <v>3150</v>
+        <v>1493.75</v>
       </c>
       <c r="D79" t="s">
         <v>23</v>
@@ -4379,39 +4558,39 @@
         <v>22</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H79">
-        <v>24250</v>
+        <v>24350</v>
       </c>
       <c r="I79" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="J79" t="s">
+        <v>154</v>
+      </c>
+      <c r="K79" t="s">
         <v>152</v>
       </c>
-      <c r="K79" t="s">
-        <v>153</v>
-      </c>
       <c r="L79" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M79">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N79" s="2">
-        <v>63</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>45476</v>
+        <v>45483</v>
       </c>
       <c r="B80" t="s">
         <v>22</v>
       </c>
       <c r="C80" s="2">
-        <v>1412.5</v>
+        <v>13792.5</v>
       </c>
       <c r="D80" t="s">
         <v>23</v>
@@ -4423,39 +4602,39 @@
         <v>22</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H80">
-        <v>24250</v>
+        <v>24100</v>
       </c>
       <c r="I80" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="J80" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K80" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L80" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M80">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N80" s="2">
-        <v>56.5</v>
+        <v>183.9</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>45476</v>
+        <v>45483</v>
       </c>
       <c r="B81" t="s">
         <v>22</v>
       </c>
       <c r="C81" s="2">
-        <v>1412.5</v>
+        <v>16700</v>
       </c>
       <c r="D81" t="s">
         <v>23</v>
@@ -4467,39 +4646,39 @@
         <v>22</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H81">
-        <v>24250</v>
+        <v>24100</v>
       </c>
       <c r="I81" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="J81" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K81" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="L81" t="s">
         <v>29</v>
       </c>
       <c r="M81">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N81" s="2">
-        <v>56.5</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>45476</v>
+        <v>45483</v>
       </c>
       <c r="B82" t="s">
         <v>22</v>
       </c>
       <c r="C82" s="2">
-        <v>1412.5</v>
+        <v>4596.25</v>
       </c>
       <c r="D82" t="s">
         <v>23</v>
@@ -4511,39 +4690,39 @@
         <v>22</v>
       </c>
       <c r="G82" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H82">
-        <v>24250</v>
+        <v>24100</v>
       </c>
       <c r="I82" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="J82" t="s">
+        <v>159</v>
+      </c>
+      <c r="K82" t="s">
         <v>156</v>
       </c>
-      <c r="K82" t="s">
-        <v>151</v>
-      </c>
       <c r="L82" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M82">
         <v>25</v>
       </c>
       <c r="N82" s="2">
-        <v>56.5</v>
+        <v>183.85</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>45476</v>
+        <v>45482</v>
       </c>
       <c r="B83" t="s">
         <v>22</v>
       </c>
       <c r="C83" s="2">
-        <v>1412.5</v>
+        <v>6041.25</v>
       </c>
       <c r="D83" t="s">
         <v>23</v>
@@ -4555,39 +4734,39 @@
         <v>22</v>
       </c>
       <c r="G83" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H83">
-        <v>24250</v>
+        <v>24350</v>
       </c>
       <c r="I83" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="J83" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K83" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="L83" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M83">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N83" s="2">
-        <v>56.5</v>
+        <v>80.55</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>45476</v>
+        <v>45482</v>
       </c>
       <c r="B84" t="s">
         <v>22</v>
       </c>
       <c r="C84" s="2">
-        <v>1412.5</v>
+        <v>3437.5</v>
       </c>
       <c r="D84" t="s">
         <v>23</v>
@@ -4599,39 +4778,39 @@
         <v>22</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H84">
-        <v>24250</v>
+        <v>24300</v>
       </c>
       <c r="I84" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="J84" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K84" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="L84" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M84">
         <v>25</v>
       </c>
       <c r="N84" s="2">
-        <v>56.5</v>
+        <v>137.5</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>45475</v>
+        <v>45482</v>
       </c>
       <c r="B85" t="s">
         <v>22</v>
       </c>
       <c r="C85" s="2">
-        <v>5027.5</v>
+        <v>5855</v>
       </c>
       <c r="D85" t="s">
         <v>23</v>
@@ -4643,39 +4822,39 @@
         <v>22</v>
       </c>
       <c r="G85" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H85">
-        <v>24000</v>
+        <v>24400</v>
       </c>
       <c r="I85" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="J85" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="K85" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L85" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M85">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N85" s="2">
-        <v>201.1</v>
+        <v>117.1</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>45475</v>
+        <v>45482</v>
       </c>
       <c r="B86" t="s">
         <v>22</v>
       </c>
       <c r="C86" s="2">
-        <v>3508.75</v>
+        <v>2225</v>
       </c>
       <c r="D86" t="s">
         <v>23</v>
@@ -4687,19 +4866,19 @@
         <v>22</v>
       </c>
       <c r="G86" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H86">
-        <v>24150</v>
+        <v>24400</v>
       </c>
       <c r="I86" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="J86" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="K86" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L86" t="s">
         <v>29</v>
@@ -4708,18 +4887,18 @@
         <v>25</v>
       </c>
       <c r="N86" s="2">
-        <v>140.35</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>45475</v>
+        <v>45482</v>
       </c>
       <c r="B87" t="s">
         <v>22</v>
       </c>
       <c r="C87" s="2">
-        <v>3125</v>
+        <v>8030</v>
       </c>
       <c r="D87" t="s">
         <v>23</v>
@@ -4731,39 +4910,39 @@
         <v>22</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H87">
-        <v>24150</v>
+        <v>24350</v>
       </c>
       <c r="I87" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="J87" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="K87" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="L87" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M87">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N87" s="2">
-        <v>125</v>
+        <v>80.3</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>45475</v>
+        <v>45482</v>
       </c>
       <c r="B88" t="s">
         <v>22</v>
       </c>
       <c r="C88" s="2">
-        <v>18155</v>
+        <v>2013.75</v>
       </c>
       <c r="D88" t="s">
         <v>23</v>
@@ -4778,36 +4957,36 @@
         <v>25</v>
       </c>
       <c r="H88">
-        <v>24000</v>
+        <v>24350</v>
       </c>
       <c r="I88" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="J88" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K88" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="L88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M88">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N88" s="2">
-        <v>181.55</v>
+        <v>80.55</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>45475</v>
+        <v>45482</v>
       </c>
       <c r="B89" t="s">
         <v>22</v>
       </c>
       <c r="C89" s="2">
-        <v>5027.5</v>
+        <v>14545</v>
       </c>
       <c r="D89" t="s">
         <v>23</v>
@@ -4819,39 +4998,39 @@
         <v>22</v>
       </c>
       <c r="G89" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H89">
-        <v>24000</v>
+        <v>24300</v>
       </c>
       <c r="I89" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="J89" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="K89" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="L89" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M89">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N89" s="2">
-        <v>201.1</v>
+        <v>145.44999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>45475</v>
+        <v>45482</v>
       </c>
       <c r="B90" t="s">
         <v>22</v>
       </c>
       <c r="C90" s="2">
-        <v>10052.5</v>
+        <v>3436.25</v>
       </c>
       <c r="D90" t="s">
         <v>23</v>
@@ -4863,109 +5042,127 @@
         <v>22</v>
       </c>
       <c r="G90" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H90">
-        <v>24000</v>
+        <v>24300</v>
       </c>
       <c r="I90" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="J90" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="K90" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L90" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M90">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N90" s="2">
-        <v>201.05</v>
+        <v>137.44999999999999</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>45475</v>
+        <v>45482</v>
       </c>
       <c r="B91" t="s">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="C91" s="2">
-        <v>999.89</v>
+        <v>11710</v>
       </c>
       <c r="D91" t="s">
-        <v>170</v>
+        <v>23</v>
       </c>
       <c r="E91" t="s">
-        <v>171</v>
+        <v>24</v>
       </c>
       <c r="F91" t="s">
-        <v>172</v>
+        <v>22</v>
       </c>
       <c r="G91" t="s">
-        <v>171</v>
+        <v>35</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>24400</v>
+      </c>
+      <c r="I91" t="s">
+        <v>138</v>
+      </c>
+      <c r="J91" t="s">
+        <v>174</v>
+      </c>
+      <c r="K91" t="s">
+        <v>165</v>
       </c>
       <c r="L91" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M91">
-        <v>2.2000000000000002</v>
+        <v>100</v>
       </c>
       <c r="N91" s="2">
-        <v>455.11</v>
+        <v>117.1</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>45475</v>
+        <v>45482</v>
       </c>
       <c r="B92" t="s">
-        <v>173</v>
+        <v>22</v>
       </c>
       <c r="C92" s="2">
-        <v>999.95</v>
+        <v>14000</v>
       </c>
       <c r="D92" t="s">
-        <v>170</v>
+        <v>23</v>
       </c>
       <c r="E92" t="s">
-        <v>171</v>
+        <v>24</v>
       </c>
       <c r="F92" t="s">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="G92" t="s">
-        <v>171</v>
+        <v>35</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>24300</v>
+      </c>
+      <c r="I92" t="s">
+        <v>138</v>
+      </c>
+      <c r="J92" t="s">
+        <v>175</v>
+      </c>
+      <c r="K92" t="s">
+        <v>176</v>
       </c>
       <c r="L92" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M92">
-        <v>19.29</v>
+        <v>100</v>
       </c>
       <c r="N92" s="2">
-        <v>51.84</v>
+        <v>140</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>45474</v>
+        <v>45482</v>
       </c>
       <c r="B93" t="s">
         <v>22</v>
       </c>
       <c r="C93" s="2">
-        <v>14373.75</v>
+        <v>11125</v>
       </c>
       <c r="D93" t="s">
         <v>23</v>
@@ -4977,39 +5174,39 @@
         <v>22</v>
       </c>
       <c r="G93" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H93">
-        <v>24050</v>
+        <v>24400</v>
       </c>
       <c r="I93" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="J93" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K93" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="L93" t="s">
         <v>29</v>
       </c>
       <c r="M93">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="N93" s="2">
-        <v>191.65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>45474</v>
+        <v>45482</v>
       </c>
       <c r="B94" t="s">
         <v>22</v>
       </c>
       <c r="C94" s="2">
-        <v>4792.5</v>
+        <v>6877.5</v>
       </c>
       <c r="D94" t="s">
         <v>23</v>
@@ -5021,39 +5218,39 @@
         <v>22</v>
       </c>
       <c r="G94" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H94">
-        <v>24050</v>
+        <v>24300</v>
       </c>
       <c r="I94" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="J94" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K94" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="L94" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M94">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N94" s="2">
-        <v>191.7</v>
+        <v>137.55000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>45474</v>
+        <v>45481</v>
       </c>
       <c r="B95" t="s">
         <v>22</v>
       </c>
       <c r="C95" s="2">
-        <v>18285</v>
+        <v>12000</v>
       </c>
       <c r="D95" t="s">
         <v>23</v>
@@ -5065,39 +5262,39 @@
         <v>22</v>
       </c>
       <c r="G95" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H95">
-        <v>24050</v>
+        <v>24300</v>
       </c>
       <c r="I95" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="J95" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K95" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L95" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M95">
         <v>100</v>
       </c>
       <c r="N95" s="2">
-        <v>182.85</v>
+        <v>120</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="B96" t="s">
         <v>22</v>
       </c>
       <c r="C96" s="2">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="D96" t="s">
         <v>23</v>
@@ -5112,36 +5309,36 @@
         <v>25</v>
       </c>
       <c r="H96">
-        <v>24100</v>
+        <v>24300</v>
       </c>
       <c r="I96" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="J96" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K96" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L96" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M96">
         <v>50</v>
       </c>
       <c r="N96" s="2">
-        <v>170</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="B97" t="s">
         <v>22</v>
       </c>
       <c r="C97" s="2">
-        <v>8500</v>
+        <v>3028.75</v>
       </c>
       <c r="D97" t="s">
         <v>23</v>
@@ -5156,36 +5353,36 @@
         <v>25</v>
       </c>
       <c r="H97">
-        <v>24100</v>
+        <v>24300</v>
       </c>
       <c r="I97" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="J97" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K97" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L97" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M97">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N97" s="2">
-        <v>170</v>
+        <v>121.15</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="B98" t="s">
         <v>22</v>
       </c>
       <c r="C98" s="2">
-        <v>7250</v>
+        <v>9250</v>
       </c>
       <c r="D98" t="s">
         <v>23</v>
@@ -5197,39 +5394,39 @@
         <v>22</v>
       </c>
       <c r="G98" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H98">
-        <v>24100</v>
+        <v>24250</v>
       </c>
       <c r="I98" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="J98" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K98" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L98" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M98">
         <v>50</v>
       </c>
       <c r="N98" s="2">
-        <v>145</v>
+        <v>185</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="B99" t="s">
         <v>22</v>
       </c>
       <c r="C99" s="2">
-        <v>8500</v>
+        <v>3028.75</v>
       </c>
       <c r="D99" t="s">
         <v>23</v>
@@ -5244,36 +5441,36 @@
         <v>25</v>
       </c>
       <c r="H99">
-        <v>24100</v>
+        <v>24300</v>
       </c>
       <c r="I99" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="J99" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K99" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L99" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M99">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N99" s="2">
-        <v>170</v>
+        <v>121.15</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>45470</v>
+        <v>45478</v>
       </c>
       <c r="B100" t="s">
         <v>22</v>
       </c>
       <c r="C100" s="2">
-        <v>8842.5</v>
+        <v>8812.5</v>
       </c>
       <c r="D100" t="s">
         <v>23</v>
@@ -5285,13 +5482,13 @@
         <v>22</v>
       </c>
       <c r="G100" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H100">
-        <v>23800</v>
+        <v>24200</v>
       </c>
       <c r="I100" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="J100" t="s">
         <v>188</v>
@@ -5300,24 +5497,24 @@
         <v>189</v>
       </c>
       <c r="L100" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M100">
         <v>50</v>
       </c>
       <c r="N100" s="2">
-        <v>176.85</v>
+        <v>176.25</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <v>45470</v>
+        <v>45478</v>
       </c>
       <c r="B101" t="s">
         <v>22</v>
       </c>
       <c r="C101" s="2">
-        <v>8750</v>
+        <v>2978.75</v>
       </c>
       <c r="D101" t="s">
         <v>23</v>
@@ -5332,10 +5529,10 @@
         <v>25</v>
       </c>
       <c r="H101">
-        <v>23800</v>
+        <v>24300</v>
       </c>
       <c r="I101" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="J101" t="s">
         <v>190</v>
@@ -5347,21 +5544,21 @@
         <v>29</v>
       </c>
       <c r="M101">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N101" s="2">
-        <v>175</v>
+        <v>119.15</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
-        <v>45469</v>
+        <v>45478</v>
       </c>
       <c r="B102" t="s">
         <v>22</v>
       </c>
       <c r="C102" s="2">
-        <v>6050</v>
+        <v>6057.5</v>
       </c>
       <c r="D102" t="s">
         <v>23</v>
@@ -5376,36 +5573,36 @@
         <v>25</v>
       </c>
       <c r="H102">
-        <v>23800</v>
+        <v>24300</v>
       </c>
       <c r="I102" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="J102" t="s">
         <v>192</v>
       </c>
       <c r="K102" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="L102" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M102">
         <v>50</v>
       </c>
       <c r="N102" s="2">
-        <v>121</v>
+        <v>121.15</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <v>45469</v>
+        <v>45478</v>
       </c>
       <c r="B103" t="s">
         <v>22</v>
       </c>
       <c r="C103" s="2">
-        <v>10910</v>
+        <v>8415</v>
       </c>
       <c r="D103" t="s">
         <v>23</v>
@@ -5417,39 +5614,39 @@
         <v>22</v>
       </c>
       <c r="G103" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H103">
-        <v>23800</v>
+        <v>24200</v>
       </c>
       <c r="I103" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="J103" t="s">
+        <v>193</v>
+      </c>
+      <c r="K103" t="s">
         <v>194</v>
       </c>
-      <c r="K103" t="s">
-        <v>195</v>
-      </c>
       <c r="L103" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M103">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N103" s="2">
-        <v>109.1</v>
+        <v>168.3</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
-        <v>45469</v>
+        <v>45478</v>
       </c>
       <c r="B104" t="s">
         <v>22</v>
       </c>
       <c r="C104" s="2">
-        <v>3025</v>
+        <v>1258.75</v>
       </c>
       <c r="D104" t="s">
         <v>23</v>
@@ -5464,16 +5661,16 @@
         <v>25</v>
       </c>
       <c r="H104">
-        <v>23800</v>
+        <v>24000</v>
       </c>
       <c r="I104" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="J104" t="s">
+        <v>195</v>
+      </c>
+      <c r="K104" t="s">
         <v>196</v>
-      </c>
-      <c r="K104" t="s">
-        <v>193</v>
       </c>
       <c r="L104" t="s">
         <v>29</v>
@@ -5482,18 +5679,18 @@
         <v>25</v>
       </c>
       <c r="N104" s="2">
-        <v>121</v>
+        <v>50.35</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
-        <v>45469</v>
+        <v>45478</v>
       </c>
       <c r="B105" t="s">
         <v>22</v>
       </c>
       <c r="C105" s="2">
-        <v>12100</v>
+        <v>4625</v>
       </c>
       <c r="D105" t="s">
         <v>23</v>
@@ -5505,39 +5702,39 @@
         <v>22</v>
       </c>
       <c r="G105" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H105">
-        <v>23800</v>
+        <v>24250</v>
       </c>
       <c r="I105" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="J105" t="s">
         <v>197</v>
       </c>
       <c r="K105" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="L105" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M105">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N105" s="2">
-        <v>121</v>
+        <v>185</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
-        <v>45469</v>
+        <v>45478</v>
       </c>
       <c r="B106" t="s">
         <v>22</v>
       </c>
       <c r="C106" s="2">
-        <v>3025</v>
+        <v>2978.75</v>
       </c>
       <c r="D106" t="s">
         <v>23</v>
@@ -5552,16 +5749,16 @@
         <v>25</v>
       </c>
       <c r="H106">
-        <v>23800</v>
+        <v>24300</v>
       </c>
       <c r="I106" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="J106" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K106" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L106" t="s">
         <v>29</v>
@@ -5570,18 +5767,18 @@
         <v>25</v>
       </c>
       <c r="N106" s="2">
-        <v>121</v>
+        <v>119.15</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
-        <v>45468</v>
+        <v>45478</v>
       </c>
       <c r="B107" t="s">
         <v>22</v>
       </c>
       <c r="C107" s="2">
-        <v>12620</v>
+        <v>12195</v>
       </c>
       <c r="D107" t="s">
         <v>23</v>
@@ -5593,39 +5790,39 @@
         <v>22</v>
       </c>
       <c r="G107" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H107">
-        <v>23550</v>
+        <v>24250</v>
       </c>
       <c r="I107" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="J107" t="s">
+        <v>199</v>
+      </c>
+      <c r="K107" t="s">
         <v>200</v>
       </c>
-      <c r="K107" t="s">
-        <v>201</v>
-      </c>
       <c r="L107" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M107">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="N107" s="2">
-        <v>126.2</v>
+        <v>162.6</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
-        <v>45468</v>
+        <v>45478</v>
       </c>
       <c r="B108" t="s">
         <v>22</v>
       </c>
       <c r="C108" s="2">
-        <v>12830</v>
+        <v>1437.5</v>
       </c>
       <c r="D108" t="s">
         <v>23</v>
@@ -5640,36 +5837,36 @@
         <v>25</v>
       </c>
       <c r="H108">
-        <v>23550</v>
+        <v>24000</v>
       </c>
       <c r="I108" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="J108" t="s">
+        <v>201</v>
+      </c>
+      <c r="K108" t="s">
         <v>202</v>
       </c>
-      <c r="K108" t="s">
-        <v>203</v>
-      </c>
       <c r="L108" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M108">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N108" s="2">
-        <v>128.30000000000001</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
-        <v>45467</v>
+        <v>45477</v>
       </c>
       <c r="B109" t="s">
         <v>22</v>
       </c>
       <c r="C109" s="2">
-        <v>3440</v>
+        <v>1317.5</v>
       </c>
       <c r="D109" t="s">
         <v>23</v>
@@ -5681,13 +5878,13 @@
         <v>22</v>
       </c>
       <c r="G109" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H109">
-        <v>23550</v>
+        <v>24300</v>
       </c>
       <c r="I109" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="J109" t="s">
         <v>204</v>
@@ -5696,24 +5893,24 @@
         <v>205</v>
       </c>
       <c r="L109" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M109">
         <v>25</v>
       </c>
       <c r="N109" s="2">
-        <v>137.6</v>
+        <v>52.7</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
-        <v>45467</v>
+        <v>45477</v>
       </c>
       <c r="B110" t="s">
         <v>22</v>
       </c>
       <c r="C110" s="2">
-        <v>3442.5</v>
+        <v>1250</v>
       </c>
       <c r="D110" t="s">
         <v>23</v>
@@ -5725,39 +5922,39 @@
         <v>22</v>
       </c>
       <c r="G110" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H110">
-        <v>23550</v>
+        <v>24300</v>
       </c>
       <c r="I110" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="J110" t="s">
         <v>206</v>
       </c>
       <c r="K110" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L110" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M110">
         <v>25</v>
       </c>
       <c r="N110" s="2">
-        <v>137.69999999999999</v>
+        <v>50</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
-        <v>45467</v>
+        <v>45476</v>
       </c>
       <c r="B111" t="s">
         <v>22</v>
       </c>
       <c r="C111" s="2">
-        <v>3440</v>
+        <v>10455</v>
       </c>
       <c r="D111" t="s">
         <v>23</v>
@@ -5769,39 +5966,39 @@
         <v>22</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H111">
-        <v>23550</v>
+        <v>24250</v>
       </c>
       <c r="I111" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="J111" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K111" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L111" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M111">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N111" s="2">
-        <v>137.6</v>
+        <v>104.55</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
-        <v>45467</v>
+        <v>45476</v>
       </c>
       <c r="B112" t="s">
         <v>22</v>
       </c>
       <c r="C112" s="2">
-        <v>14095</v>
+        <v>1412.5</v>
       </c>
       <c r="D112" t="s">
         <v>23</v>
@@ -5813,39 +6010,39 @@
         <v>22</v>
       </c>
       <c r="G112" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H112">
-        <v>23550</v>
+        <v>24250</v>
       </c>
       <c r="I112" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="J112" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K112" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L112" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M112">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N112" s="2">
-        <v>140.94999999999999</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
-        <v>45467</v>
+        <v>45476</v>
       </c>
       <c r="B113" t="s">
         <v>22</v>
       </c>
       <c r="C113" s="2">
-        <v>3440</v>
+        <v>3150</v>
       </c>
       <c r="D113" t="s">
         <v>23</v>
@@ -5857,39 +6054,39 @@
         <v>22</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H113">
-        <v>23550</v>
+        <v>24250</v>
       </c>
       <c r="I113" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="J113" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K113" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="L113" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M113">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N113" s="2">
-        <v>137.6</v>
+        <v>63</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
-        <v>45464</v>
+        <v>45476</v>
       </c>
       <c r="B114" t="s">
         <v>22</v>
       </c>
       <c r="C114" s="2">
-        <v>3125</v>
+        <v>1412.5</v>
       </c>
       <c r="D114" t="s">
         <v>23</v>
@@ -5904,36 +6101,36 @@
         <v>25</v>
       </c>
       <c r="H114">
-        <v>23500</v>
+        <v>24250</v>
       </c>
       <c r="I114" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="J114" t="s">
+        <v>214</v>
+      </c>
+      <c r="K114" t="s">
         <v>211</v>
       </c>
-      <c r="K114" t="s">
-        <v>212</v>
-      </c>
       <c r="L114" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M114">
         <v>25</v>
       </c>
       <c r="N114" s="2">
-        <v>125</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
-        <v>45464</v>
+        <v>45476</v>
       </c>
       <c r="B115" t="s">
         <v>22</v>
       </c>
       <c r="C115" s="2">
-        <v>11325</v>
+        <v>1412.5</v>
       </c>
       <c r="D115" t="s">
         <v>23</v>
@@ -5948,36 +6145,36 @@
         <v>25</v>
       </c>
       <c r="H115">
-        <v>23500</v>
+        <v>24250</v>
       </c>
       <c r="I115" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="J115" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K115" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L115" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M115">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N115" s="2">
-        <v>151</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
-        <v>45464</v>
+        <v>45476</v>
       </c>
       <c r="B116" t="s">
         <v>22</v>
       </c>
       <c r="C116" s="2">
-        <v>3775</v>
+        <v>1412.5</v>
       </c>
       <c r="D116" t="s">
         <v>23</v>
@@ -5992,36 +6189,36 @@
         <v>25</v>
       </c>
       <c r="H116">
-        <v>23500</v>
+        <v>24250</v>
       </c>
       <c r="I116" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="J116" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K116" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L116" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M116">
         <v>25</v>
       </c>
       <c r="N116" s="2">
-        <v>151</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
-        <v>45464</v>
+        <v>45476</v>
       </c>
       <c r="B117" t="s">
         <v>22</v>
       </c>
       <c r="C117" s="2">
-        <v>9375</v>
+        <v>1412.5</v>
       </c>
       <c r="D117" t="s">
         <v>23</v>
@@ -6036,36 +6233,36 @@
         <v>25</v>
       </c>
       <c r="H117">
-        <v>23500</v>
+        <v>24250</v>
       </c>
       <c r="I117" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="J117" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K117" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M117">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N117" s="2">
-        <v>125</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
-        <v>45463</v>
+        <v>45476</v>
       </c>
       <c r="B118" t="s">
         <v>22</v>
       </c>
       <c r="C118" s="2">
-        <v>3500</v>
+        <v>1412.5</v>
       </c>
       <c r="D118" t="s">
         <v>23</v>
@@ -6080,36 +6277,36 @@
         <v>25</v>
       </c>
       <c r="H118">
-        <v>23450</v>
+        <v>24250</v>
       </c>
       <c r="I118" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="J118" t="s">
         <v>218</v>
       </c>
       <c r="K118" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="L118" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M118">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N118" s="2">
-        <v>70</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
-        <v>45463</v>
+        <v>45475</v>
       </c>
       <c r="B119" t="s">
         <v>22</v>
       </c>
       <c r="C119" s="2">
-        <v>750</v>
+        <v>5027.5</v>
       </c>
       <c r="D119" t="s">
         <v>23</v>
@@ -6121,39 +6318,39 @@
         <v>22</v>
       </c>
       <c r="G119" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H119">
-        <v>23650</v>
+        <v>24000</v>
       </c>
       <c r="I119" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="J119" t="s">
+        <v>219</v>
+      </c>
+      <c r="K119" t="s">
         <v>220</v>
       </c>
-      <c r="K119" t="s">
-        <v>221</v>
-      </c>
       <c r="L119" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M119">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N119" s="2">
-        <v>15</v>
+        <v>201.1</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
-        <v>45463</v>
+        <v>45475</v>
       </c>
       <c r="B120" t="s">
         <v>22</v>
       </c>
       <c r="C120" s="2">
-        <v>375</v>
+        <v>3508.75</v>
       </c>
       <c r="D120" t="s">
         <v>23</v>
@@ -6168,36 +6365,36 @@
         <v>25</v>
       </c>
       <c r="H120">
-        <v>23650</v>
+        <v>24150</v>
       </c>
       <c r="I120" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="J120" t="s">
+        <v>221</v>
+      </c>
+      <c r="K120" t="s">
         <v>222</v>
       </c>
-      <c r="K120" t="s">
-        <v>223</v>
-      </c>
       <c r="L120" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M120">
         <v>25</v>
       </c>
       <c r="N120" s="2">
-        <v>15</v>
+        <v>140.35</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
-        <v>45463</v>
+        <v>45475</v>
       </c>
       <c r="B121" t="s">
         <v>22</v>
       </c>
       <c r="C121" s="2">
-        <v>450</v>
+        <v>3125</v>
       </c>
       <c r="D121" t="s">
         <v>23</v>
@@ -6212,36 +6409,36 @@
         <v>25</v>
       </c>
       <c r="H121">
-        <v>23650</v>
+        <v>24150</v>
       </c>
       <c r="I121" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="J121" t="s">
+        <v>223</v>
+      </c>
+      <c r="K121" t="s">
         <v>224</v>
-      </c>
-      <c r="K121" t="s">
-        <v>225</v>
       </c>
       <c r="L121" t="s">
         <v>29</v>
       </c>
       <c r="M121">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N121" s="2">
-        <v>6</v>
+        <v>125</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
-        <v>45463</v>
+        <v>45475</v>
       </c>
       <c r="B122" t="s">
         <v>22</v>
       </c>
       <c r="C122" s="2">
-        <v>1938.75</v>
+        <v>18155</v>
       </c>
       <c r="D122" t="s">
         <v>23</v>
@@ -6253,39 +6450,39 @@
         <v>22</v>
       </c>
       <c r="G122" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H122">
-        <v>23450</v>
+        <v>24000</v>
       </c>
       <c r="I122" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="J122" t="s">
+        <v>225</v>
+      </c>
+      <c r="K122" t="s">
         <v>226</v>
-      </c>
-      <c r="K122" t="s">
-        <v>227</v>
       </c>
       <c r="L122" t="s">
         <v>29</v>
       </c>
       <c r="M122">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N122" s="2">
-        <v>77.55</v>
+        <v>181.55</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
-        <v>45463</v>
+        <v>45475</v>
       </c>
       <c r="B123" t="s">
         <v>22</v>
       </c>
       <c r="C123" s="2">
-        <v>368.75</v>
+        <v>5027.5</v>
       </c>
       <c r="D123" t="s">
         <v>23</v>
@@ -6297,39 +6494,39 @@
         <v>22</v>
       </c>
       <c r="G123" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H123">
-        <v>23650</v>
+        <v>24000</v>
       </c>
       <c r="I123" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="J123" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K123" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="L123" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M123">
         <v>25</v>
       </c>
       <c r="N123" s="2">
-        <v>14.75</v>
+        <v>201.1</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
-        <v>45463</v>
+        <v>45475</v>
       </c>
       <c r="B124" t="s">
         <v>22</v>
       </c>
       <c r="C124" s="2">
-        <v>1106.25</v>
+        <v>10052.5</v>
       </c>
       <c r="D124" t="s">
         <v>23</v>
@@ -6341,127 +6538,109 @@
         <v>22</v>
       </c>
       <c r="G124" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H124">
-        <v>23650</v>
+        <v>24000</v>
       </c>
       <c r="I124" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="J124" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K124" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="L124" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M124">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N124" s="2">
-        <v>14.75</v>
+        <v>201.05</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
-        <v>45463</v>
+        <v>45475</v>
       </c>
       <c r="B125" t="s">
-        <v>22</v>
+        <v>229</v>
       </c>
       <c r="C125" s="2">
-        <v>627.5</v>
+        <v>999.89</v>
       </c>
       <c r="D125" t="s">
-        <v>23</v>
+        <v>230</v>
       </c>
       <c r="E125" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="F125" t="s">
-        <v>22</v>
+        <v>232</v>
       </c>
       <c r="G125" t="s">
-        <v>25</v>
+        <v>231</v>
       </c>
       <c r="H125">
-        <v>23650</v>
-      </c>
-      <c r="I125" t="s">
-        <v>217</v>
-      </c>
-      <c r="J125" t="s">
-        <v>231</v>
-      </c>
-      <c r="K125" t="s">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="L125" t="s">
         <v>29</v>
       </c>
       <c r="M125">
-        <v>50</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N125" s="2">
-        <v>12.55</v>
+        <v>455.11</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
-        <v>45463</v>
+        <v>45475</v>
       </c>
       <c r="B126" t="s">
-        <v>22</v>
+        <v>233</v>
       </c>
       <c r="C126" s="2">
-        <v>682.5</v>
+        <v>999.95</v>
       </c>
       <c r="D126" t="s">
-        <v>23</v>
+        <v>230</v>
       </c>
       <c r="E126" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="F126" t="s">
-        <v>22</v>
+        <v>234</v>
       </c>
       <c r="G126" t="s">
-        <v>25</v>
+        <v>231</v>
       </c>
       <c r="H126">
-        <v>23650</v>
-      </c>
-      <c r="I126" t="s">
-        <v>217</v>
-      </c>
-      <c r="J126" t="s">
-        <v>233</v>
-      </c>
-      <c r="K126" t="s">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="L126" t="s">
         <v>29</v>
       </c>
       <c r="M126">
-        <v>50</v>
+        <v>19.29</v>
       </c>
       <c r="N126" s="2">
-        <v>13.65</v>
+        <v>51.84</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
-        <v>45463</v>
+        <v>45474</v>
       </c>
       <c r="B127" t="s">
         <v>22</v>
       </c>
       <c r="C127" s="2">
-        <v>1938.75</v>
+        <v>14373.75</v>
       </c>
       <c r="D127" t="s">
         <v>23</v>
@@ -6473,39 +6652,39 @@
         <v>22</v>
       </c>
       <c r="G127" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H127">
-        <v>23450</v>
+        <v>24050</v>
       </c>
       <c r="I127" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="J127" t="s">
         <v>235</v>
       </c>
       <c r="K127" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="L127" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M127">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N127" s="2">
-        <v>77.55</v>
+        <v>191.65</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
-        <v>45463</v>
+        <v>45474</v>
       </c>
       <c r="B128" t="s">
         <v>22</v>
       </c>
       <c r="C128" s="2">
-        <v>375</v>
+        <v>4792.5</v>
       </c>
       <c r="D128" t="s">
         <v>23</v>
@@ -6517,39 +6696,39 @@
         <v>22</v>
       </c>
       <c r="G128" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H128">
-        <v>23650</v>
+        <v>24050</v>
       </c>
       <c r="I128" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="J128" t="s">
+        <v>237</v>
+      </c>
+      <c r="K128" t="s">
         <v>236</v>
       </c>
-      <c r="K128" t="s">
-        <v>223</v>
-      </c>
       <c r="L128" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M128">
         <v>25</v>
       </c>
       <c r="N128" s="2">
-        <v>15</v>
+        <v>191.7</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
-        <v>45463</v>
+        <v>45474</v>
       </c>
       <c r="B129" t="s">
         <v>22</v>
       </c>
       <c r="C129" s="2">
-        <v>150</v>
+        <v>18285</v>
       </c>
       <c r="D129" t="s">
         <v>23</v>
@@ -6561,39 +6740,39 @@
         <v>22</v>
       </c>
       <c r="G129" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H129">
-        <v>23650</v>
+        <v>24050</v>
       </c>
       <c r="I129" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="J129" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K129" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="L129" t="s">
         <v>29</v>
       </c>
       <c r="M129">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N129" s="2">
-        <v>6</v>
+        <v>182.85</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
-        <v>45462</v>
+        <v>45471</v>
       </c>
       <c r="B130" t="s">
         <v>22</v>
       </c>
       <c r="C130" s="2">
-        <v>1875</v>
+        <v>8500</v>
       </c>
       <c r="D130" t="s">
         <v>23</v>
@@ -6605,39 +6784,39 @@
         <v>22</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H130">
-        <v>23600</v>
+        <v>24100</v>
       </c>
       <c r="I130" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="J130" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K130" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L130" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M130">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N130" s="2">
-        <v>75</v>
+        <v>170</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
-        <v>45462</v>
+        <v>45471</v>
       </c>
       <c r="B131" t="s">
         <v>22</v>
       </c>
       <c r="C131" s="2">
-        <v>750</v>
+        <v>8500</v>
       </c>
       <c r="D131" t="s">
         <v>23</v>
@@ -6649,39 +6828,39 @@
         <v>22</v>
       </c>
       <c r="G131" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H131">
-        <v>23600</v>
+        <v>24100</v>
       </c>
       <c r="I131" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="J131" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K131" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L131" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M131">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N131" s="2">
-        <v>30</v>
+        <v>170</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
-        <v>45462</v>
+        <v>45471</v>
       </c>
       <c r="B132" t="s">
         <v>22</v>
       </c>
       <c r="C132" s="2">
-        <v>2400</v>
+        <v>7250</v>
       </c>
       <c r="D132" t="s">
         <v>23</v>
@@ -6693,19 +6872,19 @@
         <v>22</v>
       </c>
       <c r="G132" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H132">
-        <v>23600</v>
+        <v>24100</v>
       </c>
       <c r="I132" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="J132" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K132" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L132" t="s">
         <v>29</v>
@@ -6714,18 +6893,18 @@
         <v>50</v>
       </c>
       <c r="N132" s="2">
-        <v>48</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
-        <v>45462</v>
+        <v>45471</v>
       </c>
       <c r="B133" t="s">
         <v>22</v>
       </c>
       <c r="C133" s="2">
-        <v>2500</v>
+        <v>8500</v>
       </c>
       <c r="D133" t="s">
         <v>23</v>
@@ -6737,39 +6916,39 @@
         <v>22</v>
       </c>
       <c r="G133" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H133">
-        <v>23600</v>
+        <v>24100</v>
       </c>
       <c r="I133" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="J133" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K133" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L133" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M133">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N133" s="2">
-        <v>100</v>
+        <v>170</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
-        <v>45462</v>
+        <v>45470</v>
       </c>
       <c r="B134" t="s">
         <v>22</v>
       </c>
       <c r="C134" s="2">
-        <v>1248.75</v>
+        <v>8842.5</v>
       </c>
       <c r="D134" t="s">
         <v>23</v>
@@ -6781,39 +6960,39 @@
         <v>22</v>
       </c>
       <c r="G134" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H134">
-        <v>23600</v>
+        <v>23800</v>
       </c>
       <c r="I134" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="J134" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K134" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L134" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M134">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N134" s="2">
-        <v>49.95</v>
+        <v>176.85</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
-        <v>45461</v>
+        <v>45470</v>
       </c>
       <c r="B135" t="s">
         <v>22</v>
       </c>
       <c r="C135" s="2">
-        <v>3000</v>
+        <v>8750</v>
       </c>
       <c r="D135" t="s">
         <v>23</v>
@@ -6825,39 +7004,39 @@
         <v>22</v>
       </c>
       <c r="G135" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H135">
-        <v>23500</v>
+        <v>23800</v>
       </c>
       <c r="I135" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="J135" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K135" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L135" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M135">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N135" s="2">
-        <v>120</v>
+        <v>175</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
-        <v>45461</v>
+        <v>45469</v>
       </c>
       <c r="B136" t="s">
         <v>22</v>
       </c>
       <c r="C136" s="2">
-        <v>3391.25</v>
+        <v>6050</v>
       </c>
       <c r="D136" t="s">
         <v>23</v>
@@ -6869,39 +7048,39 @@
         <v>22</v>
       </c>
       <c r="G136" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H136">
-        <v>23500</v>
+        <v>23800</v>
       </c>
       <c r="I136" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="J136" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K136" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L136" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M136">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N136" s="2">
-        <v>135.65</v>
+        <v>121</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
-        <v>45457</v>
+        <v>45469</v>
       </c>
       <c r="B137" t="s">
         <v>22</v>
       </c>
       <c r="C137" s="2">
-        <v>3117.5</v>
+        <v>10910</v>
       </c>
       <c r="D137" t="s">
         <v>23</v>
@@ -6913,39 +7092,39 @@
         <v>22</v>
       </c>
       <c r="G137" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H137">
-        <v>23450</v>
+        <v>23800</v>
       </c>
       <c r="I137" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="J137" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K137" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L137" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M137">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N137" s="2">
-        <v>124.7</v>
+        <v>109.1</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
-        <v>45457</v>
+        <v>45469</v>
       </c>
       <c r="B138" t="s">
         <v>22</v>
       </c>
       <c r="C138" s="2">
-        <v>3200</v>
+        <v>3025</v>
       </c>
       <c r="D138" t="s">
         <v>23</v>
@@ -6957,80 +7136,83 @@
         <v>22</v>
       </c>
       <c r="G138" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H138">
-        <v>23450</v>
+        <v>23800</v>
       </c>
       <c r="I138" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="J138" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K138" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L138" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M138">
         <v>25</v>
       </c>
       <c r="N138" s="2">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
-        <v>45456</v>
+        <v>45469</v>
       </c>
       <c r="B139" t="s">
-        <v>256</v>
+        <v>22</v>
       </c>
       <c r="C139" s="2">
-        <v>3000</v>
+        <v>12100</v>
       </c>
       <c r="D139" t="s">
+        <v>23</v>
+      </c>
+      <c r="E139" t="s">
+        <v>24</v>
+      </c>
+      <c r="F139" t="s">
+        <v>22</v>
+      </c>
+      <c r="G139" t="s">
+        <v>35</v>
+      </c>
+      <c r="H139">
+        <v>23800</v>
+      </c>
+      <c r="I139" t="s">
+        <v>247</v>
+      </c>
+      <c r="J139" t="s">
         <v>257</v>
       </c>
-      <c r="E139" t="s">
+      <c r="K139" t="s">
         <v>258</v>
       </c>
-      <c r="F139" t="s">
-        <v>259</v>
-      </c>
-      <c r="G139" t="s">
-        <v>260</v>
-      </c>
-      <c r="H139">
-        <v>0</v>
-      </c>
-      <c r="J139" t="s">
-        <v>261</v>
-      </c>
-      <c r="K139" t="s">
-        <v>262</v>
-      </c>
       <c r="L139" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M139">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="N139" s="2">
-        <v>1500</v>
+        <v>121</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
-        <v>45456</v>
+        <v>45469</v>
       </c>
       <c r="B140" t="s">
         <v>22</v>
       </c>
       <c r="C140" s="2">
-        <v>1547.5</v>
+        <v>3025</v>
       </c>
       <c r="D140" t="s">
         <v>23</v>
@@ -7042,39 +7224,39 @@
         <v>22</v>
       </c>
       <c r="G140" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H140">
-        <v>23350</v>
+        <v>23800</v>
       </c>
       <c r="I140" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="J140" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="K140" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="L140" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M140">
         <v>25</v>
       </c>
       <c r="N140" s="2">
-        <v>61.9</v>
+        <v>121</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
-        <v>45456</v>
+        <v>45468</v>
       </c>
       <c r="B141" t="s">
         <v>22</v>
       </c>
       <c r="C141" s="2">
-        <v>1475</v>
+        <v>12620</v>
       </c>
       <c r="D141" t="s">
         <v>23</v>
@@ -7086,162 +7268,1655 @@
         <v>22</v>
       </c>
       <c r="G141" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H141">
-        <v>23350</v>
+        <v>23550</v>
       </c>
       <c r="I141" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="J141" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K141" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="L141" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M141">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N141" s="2">
-        <v>59</v>
+        <v>126.2</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
-        <v>45447</v>
+        <v>45468</v>
       </c>
       <c r="B142" t="s">
-        <v>268</v>
+        <v>22</v>
       </c>
       <c r="C142" s="2">
-        <v>2688.6</v>
+        <v>12830</v>
       </c>
       <c r="D142" t="s">
-        <v>257</v>
+        <v>23</v>
       </c>
       <c r="E142" t="s">
-        <v>258</v>
+        <v>24</v>
       </c>
       <c r="F142" t="s">
-        <v>269</v>
+        <v>22</v>
       </c>
       <c r="G142" t="s">
-        <v>260</v>
+        <v>35</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>23550</v>
+      </c>
+      <c r="I142" t="s">
+        <v>247</v>
       </c>
       <c r="J142" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="K142" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="L142" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M142">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="N142" s="2">
-        <v>896.2</v>
+        <v>128.30000000000001</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
-        <v>45436</v>
+        <v>45467</v>
       </c>
       <c r="B143" t="s">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="C143" s="2">
-        <v>999.75</v>
+        <v>3440</v>
       </c>
       <c r="D143" t="s">
-        <v>170</v>
+        <v>23</v>
       </c>
       <c r="E143" t="s">
-        <v>171</v>
+        <v>24</v>
       </c>
       <c r="F143" t="s">
-        <v>172</v>
+        <v>22</v>
       </c>
       <c r="G143" t="s">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>23550</v>
+      </c>
+      <c r="I143" t="s">
+        <v>247</v>
+      </c>
+      <c r="J143" t="s">
+        <v>264</v>
+      </c>
+      <c r="K143" t="s">
+        <v>265</v>
       </c>
       <c r="L143" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M143">
-        <v>2.33</v>
+        <v>25</v>
       </c>
       <c r="N143" s="2">
-        <v>428.89</v>
+        <v>137.6</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
+        <v>45467</v>
+      </c>
+      <c r="B144" t="s">
+        <v>22</v>
+      </c>
+      <c r="C144" s="2">
+        <v>3442.5</v>
+      </c>
+      <c r="D144" t="s">
+        <v>23</v>
+      </c>
+      <c r="E144" t="s">
+        <v>24</v>
+      </c>
+      <c r="F144" t="s">
+        <v>22</v>
+      </c>
+      <c r="G144" t="s">
+        <v>25</v>
+      </c>
+      <c r="H144">
+        <v>23550</v>
+      </c>
+      <c r="I144" t="s">
+        <v>247</v>
+      </c>
+      <c r="J144" t="s">
+        <v>266</v>
+      </c>
+      <c r="K144" t="s">
+        <v>265</v>
+      </c>
+      <c r="L144" t="s">
+        <v>29</v>
+      </c>
+      <c r="M144">
+        <v>25</v>
+      </c>
+      <c r="N144" s="2">
+        <v>137.69999999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A145" s="1">
+        <v>45467</v>
+      </c>
+      <c r="B145" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145" s="2">
+        <v>3440</v>
+      </c>
+      <c r="D145" t="s">
+        <v>23</v>
+      </c>
+      <c r="E145" t="s">
+        <v>24</v>
+      </c>
+      <c r="F145" t="s">
+        <v>22</v>
+      </c>
+      <c r="G145" t="s">
+        <v>25</v>
+      </c>
+      <c r="H145">
+        <v>23550</v>
+      </c>
+      <c r="I145" t="s">
+        <v>247</v>
+      </c>
+      <c r="J145" t="s">
+        <v>267</v>
+      </c>
+      <c r="K145" t="s">
+        <v>265</v>
+      </c>
+      <c r="L145" t="s">
+        <v>29</v>
+      </c>
+      <c r="M145">
+        <v>25</v>
+      </c>
+      <c r="N145" s="2">
+        <v>137.6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A146" s="1">
+        <v>45467</v>
+      </c>
+      <c r="B146" t="s">
+        <v>22</v>
+      </c>
+      <c r="C146" s="2">
+        <v>14095</v>
+      </c>
+      <c r="D146" t="s">
+        <v>23</v>
+      </c>
+      <c r="E146" t="s">
+        <v>24</v>
+      </c>
+      <c r="F146" t="s">
+        <v>22</v>
+      </c>
+      <c r="G146" t="s">
+        <v>25</v>
+      </c>
+      <c r="H146">
+        <v>23550</v>
+      </c>
+      <c r="I146" t="s">
+        <v>247</v>
+      </c>
+      <c r="J146" t="s">
+        <v>268</v>
+      </c>
+      <c r="K146" t="s">
+        <v>269</v>
+      </c>
+      <c r="L146" t="s">
+        <v>34</v>
+      </c>
+      <c r="M146">
+        <v>100</v>
+      </c>
+      <c r="N146" s="2">
+        <v>140.94999999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A147" s="1">
+        <v>45467</v>
+      </c>
+      <c r="B147" t="s">
+        <v>22</v>
+      </c>
+      <c r="C147" s="2">
+        <v>3440</v>
+      </c>
+      <c r="D147" t="s">
+        <v>23</v>
+      </c>
+      <c r="E147" t="s">
+        <v>24</v>
+      </c>
+      <c r="F147" t="s">
+        <v>22</v>
+      </c>
+      <c r="G147" t="s">
+        <v>25</v>
+      </c>
+      <c r="H147">
+        <v>23550</v>
+      </c>
+      <c r="I147" t="s">
+        <v>247</v>
+      </c>
+      <c r="J147" t="s">
+        <v>270</v>
+      </c>
+      <c r="K147" t="s">
+        <v>265</v>
+      </c>
+      <c r="L147" t="s">
+        <v>29</v>
+      </c>
+      <c r="M147">
+        <v>25</v>
+      </c>
+      <c r="N147" s="2">
+        <v>137.6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A148" s="1">
+        <v>45464</v>
+      </c>
+      <c r="B148" t="s">
+        <v>22</v>
+      </c>
+      <c r="C148" s="2">
+        <v>3125</v>
+      </c>
+      <c r="D148" t="s">
+        <v>23</v>
+      </c>
+      <c r="E148" t="s">
+        <v>24</v>
+      </c>
+      <c r="F148" t="s">
+        <v>22</v>
+      </c>
+      <c r="G148" t="s">
+        <v>35</v>
+      </c>
+      <c r="H148">
+        <v>23500</v>
+      </c>
+      <c r="I148" t="s">
+        <v>247</v>
+      </c>
+      <c r="J148" t="s">
+        <v>271</v>
+      </c>
+      <c r="K148" t="s">
+        <v>272</v>
+      </c>
+      <c r="L148" t="s">
+        <v>29</v>
+      </c>
+      <c r="M148">
+        <v>25</v>
+      </c>
+      <c r="N148" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A149" s="1">
+        <v>45464</v>
+      </c>
+      <c r="B149" t="s">
+        <v>22</v>
+      </c>
+      <c r="C149" s="2">
+        <v>11325</v>
+      </c>
+      <c r="D149" t="s">
+        <v>23</v>
+      </c>
+      <c r="E149" t="s">
+        <v>24</v>
+      </c>
+      <c r="F149" t="s">
+        <v>22</v>
+      </c>
+      <c r="G149" t="s">
+        <v>35</v>
+      </c>
+      <c r="H149">
+        <v>23500</v>
+      </c>
+      <c r="I149" t="s">
+        <v>247</v>
+      </c>
+      <c r="J149" t="s">
+        <v>273</v>
+      </c>
+      <c r="K149" t="s">
+        <v>274</v>
+      </c>
+      <c r="L149" t="s">
+        <v>34</v>
+      </c>
+      <c r="M149">
+        <v>75</v>
+      </c>
+      <c r="N149" s="2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A150" s="1">
+        <v>45464</v>
+      </c>
+      <c r="B150" t="s">
+        <v>22</v>
+      </c>
+      <c r="C150" s="2">
+        <v>3775</v>
+      </c>
+      <c r="D150" t="s">
+        <v>23</v>
+      </c>
+      <c r="E150" t="s">
+        <v>24</v>
+      </c>
+      <c r="F150" t="s">
+        <v>22</v>
+      </c>
+      <c r="G150" t="s">
+        <v>35</v>
+      </c>
+      <c r="H150">
+        <v>23500</v>
+      </c>
+      <c r="I150" t="s">
+        <v>247</v>
+      </c>
+      <c r="J150" t="s">
+        <v>275</v>
+      </c>
+      <c r="K150" t="s">
+        <v>274</v>
+      </c>
+      <c r="L150" t="s">
+        <v>34</v>
+      </c>
+      <c r="M150">
+        <v>25</v>
+      </c>
+      <c r="N150" s="2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A151" s="1">
+        <v>45464</v>
+      </c>
+      <c r="B151" t="s">
+        <v>22</v>
+      </c>
+      <c r="C151" s="2">
+        <v>9375</v>
+      </c>
+      <c r="D151" t="s">
+        <v>23</v>
+      </c>
+      <c r="E151" t="s">
+        <v>24</v>
+      </c>
+      <c r="F151" t="s">
+        <v>22</v>
+      </c>
+      <c r="G151" t="s">
+        <v>35</v>
+      </c>
+      <c r="H151">
+        <v>23500</v>
+      </c>
+      <c r="I151" t="s">
+        <v>247</v>
+      </c>
+      <c r="J151" t="s">
+        <v>276</v>
+      </c>
+      <c r="K151" t="s">
+        <v>272</v>
+      </c>
+      <c r="L151" t="s">
+        <v>29</v>
+      </c>
+      <c r="M151">
+        <v>75</v>
+      </c>
+      <c r="N151" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A152" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B152" t="s">
+        <v>22</v>
+      </c>
+      <c r="C152" s="2">
+        <v>3500</v>
+      </c>
+      <c r="D152" t="s">
+        <v>23</v>
+      </c>
+      <c r="E152" t="s">
+        <v>24</v>
+      </c>
+      <c r="F152" t="s">
+        <v>22</v>
+      </c>
+      <c r="G152" t="s">
+        <v>35</v>
+      </c>
+      <c r="H152">
+        <v>23450</v>
+      </c>
+      <c r="I152" t="s">
+        <v>277</v>
+      </c>
+      <c r="J152" t="s">
+        <v>278</v>
+      </c>
+      <c r="K152" t="s">
+        <v>279</v>
+      </c>
+      <c r="L152" t="s">
+        <v>29</v>
+      </c>
+      <c r="M152">
+        <v>50</v>
+      </c>
+      <c r="N152" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A153" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B153" t="s">
+        <v>22</v>
+      </c>
+      <c r="C153" s="2">
+        <v>750</v>
+      </c>
+      <c r="D153" t="s">
+        <v>23</v>
+      </c>
+      <c r="E153" t="s">
+        <v>24</v>
+      </c>
+      <c r="F153" t="s">
+        <v>22</v>
+      </c>
+      <c r="G153" t="s">
+        <v>35</v>
+      </c>
+      <c r="H153">
+        <v>23650</v>
+      </c>
+      <c r="I153" t="s">
+        <v>277</v>
+      </c>
+      <c r="J153" t="s">
+        <v>280</v>
+      </c>
+      <c r="K153" t="s">
+        <v>281</v>
+      </c>
+      <c r="L153" t="s">
+        <v>29</v>
+      </c>
+      <c r="M153">
+        <v>50</v>
+      </c>
+      <c r="N153" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A154" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B154" t="s">
+        <v>22</v>
+      </c>
+      <c r="C154" s="2">
+        <v>375</v>
+      </c>
+      <c r="D154" t="s">
+        <v>23</v>
+      </c>
+      <c r="E154" t="s">
+        <v>24</v>
+      </c>
+      <c r="F154" t="s">
+        <v>22</v>
+      </c>
+      <c r="G154" t="s">
+        <v>35</v>
+      </c>
+      <c r="H154">
+        <v>23650</v>
+      </c>
+      <c r="I154" t="s">
+        <v>277</v>
+      </c>
+      <c r="J154" t="s">
+        <v>282</v>
+      </c>
+      <c r="K154" t="s">
+        <v>283</v>
+      </c>
+      <c r="L154" t="s">
+        <v>29</v>
+      </c>
+      <c r="M154">
+        <v>25</v>
+      </c>
+      <c r="N154" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A155" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B155" t="s">
+        <v>22</v>
+      </c>
+      <c r="C155" s="2">
+        <v>450</v>
+      </c>
+      <c r="D155" t="s">
+        <v>23</v>
+      </c>
+      <c r="E155" t="s">
+        <v>24</v>
+      </c>
+      <c r="F155" t="s">
+        <v>22</v>
+      </c>
+      <c r="G155" t="s">
+        <v>35</v>
+      </c>
+      <c r="H155">
+        <v>23650</v>
+      </c>
+      <c r="I155" t="s">
+        <v>277</v>
+      </c>
+      <c r="J155" t="s">
+        <v>284</v>
+      </c>
+      <c r="K155" t="s">
+        <v>285</v>
+      </c>
+      <c r="L155" t="s">
+        <v>34</v>
+      </c>
+      <c r="M155">
+        <v>75</v>
+      </c>
+      <c r="N155" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A156" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B156" t="s">
+        <v>22</v>
+      </c>
+      <c r="C156" s="2">
+        <v>1938.75</v>
+      </c>
+      <c r="D156" t="s">
+        <v>23</v>
+      </c>
+      <c r="E156" t="s">
+        <v>24</v>
+      </c>
+      <c r="F156" t="s">
+        <v>22</v>
+      </c>
+      <c r="G156" t="s">
+        <v>35</v>
+      </c>
+      <c r="H156">
+        <v>23450</v>
+      </c>
+      <c r="I156" t="s">
+        <v>277</v>
+      </c>
+      <c r="J156" t="s">
+        <v>286</v>
+      </c>
+      <c r="K156" t="s">
+        <v>287</v>
+      </c>
+      <c r="L156" t="s">
+        <v>34</v>
+      </c>
+      <c r="M156">
+        <v>25</v>
+      </c>
+      <c r="N156" s="2">
+        <v>77.55</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A157" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B157" t="s">
+        <v>22</v>
+      </c>
+      <c r="C157" s="2">
+        <v>368.75</v>
+      </c>
+      <c r="D157" t="s">
+        <v>23</v>
+      </c>
+      <c r="E157" t="s">
+        <v>24</v>
+      </c>
+      <c r="F157" t="s">
+        <v>22</v>
+      </c>
+      <c r="G157" t="s">
+        <v>35</v>
+      </c>
+      <c r="H157">
+        <v>23650</v>
+      </c>
+      <c r="I157" t="s">
+        <v>277</v>
+      </c>
+      <c r="J157" t="s">
+        <v>288</v>
+      </c>
+      <c r="K157" t="s">
+        <v>289</v>
+      </c>
+      <c r="L157" t="s">
+        <v>29</v>
+      </c>
+      <c r="M157">
+        <v>25</v>
+      </c>
+      <c r="N157" s="2">
+        <v>14.75</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A158" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B158" t="s">
+        <v>22</v>
+      </c>
+      <c r="C158" s="2">
+        <v>1106.25</v>
+      </c>
+      <c r="D158" t="s">
+        <v>23</v>
+      </c>
+      <c r="E158" t="s">
+        <v>24</v>
+      </c>
+      <c r="F158" t="s">
+        <v>22</v>
+      </c>
+      <c r="G158" t="s">
+        <v>35</v>
+      </c>
+      <c r="H158">
+        <v>23650</v>
+      </c>
+      <c r="I158" t="s">
+        <v>277</v>
+      </c>
+      <c r="J158" t="s">
+        <v>290</v>
+      </c>
+      <c r="K158" t="s">
+        <v>289</v>
+      </c>
+      <c r="L158" t="s">
+        <v>29</v>
+      </c>
+      <c r="M158">
+        <v>75</v>
+      </c>
+      <c r="N158" s="2">
+        <v>14.75</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A159" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B159" t="s">
+        <v>22</v>
+      </c>
+      <c r="C159" s="2">
+        <v>627.5</v>
+      </c>
+      <c r="D159" t="s">
+        <v>23</v>
+      </c>
+      <c r="E159" t="s">
+        <v>24</v>
+      </c>
+      <c r="F159" t="s">
+        <v>22</v>
+      </c>
+      <c r="G159" t="s">
+        <v>35</v>
+      </c>
+      <c r="H159">
+        <v>23650</v>
+      </c>
+      <c r="I159" t="s">
+        <v>277</v>
+      </c>
+      <c r="J159" t="s">
+        <v>291</v>
+      </c>
+      <c r="K159" t="s">
+        <v>292</v>
+      </c>
+      <c r="L159" t="s">
+        <v>34</v>
+      </c>
+      <c r="M159">
+        <v>50</v>
+      </c>
+      <c r="N159" s="2">
+        <v>12.55</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A160" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B160" t="s">
+        <v>22</v>
+      </c>
+      <c r="C160" s="2">
+        <v>682.5</v>
+      </c>
+      <c r="D160" t="s">
+        <v>23</v>
+      </c>
+      <c r="E160" t="s">
+        <v>24</v>
+      </c>
+      <c r="F160" t="s">
+        <v>22</v>
+      </c>
+      <c r="G160" t="s">
+        <v>35</v>
+      </c>
+      <c r="H160">
+        <v>23650</v>
+      </c>
+      <c r="I160" t="s">
+        <v>277</v>
+      </c>
+      <c r="J160" t="s">
+        <v>293</v>
+      </c>
+      <c r="K160" t="s">
+        <v>294</v>
+      </c>
+      <c r="L160" t="s">
+        <v>34</v>
+      </c>
+      <c r="M160">
+        <v>50</v>
+      </c>
+      <c r="N160" s="2">
+        <v>13.65</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A161" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B161" t="s">
+        <v>22</v>
+      </c>
+      <c r="C161" s="2">
+        <v>1938.75</v>
+      </c>
+      <c r="D161" t="s">
+        <v>23</v>
+      </c>
+      <c r="E161" t="s">
+        <v>24</v>
+      </c>
+      <c r="F161" t="s">
+        <v>22</v>
+      </c>
+      <c r="G161" t="s">
+        <v>35</v>
+      </c>
+      <c r="H161">
+        <v>23450</v>
+      </c>
+      <c r="I161" t="s">
+        <v>277</v>
+      </c>
+      <c r="J161" t="s">
+        <v>295</v>
+      </c>
+      <c r="K161" t="s">
+        <v>287</v>
+      </c>
+      <c r="L161" t="s">
+        <v>34</v>
+      </c>
+      <c r="M161">
+        <v>25</v>
+      </c>
+      <c r="N161" s="2">
+        <v>77.55</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A162" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B162" t="s">
+        <v>22</v>
+      </c>
+      <c r="C162" s="2">
+        <v>375</v>
+      </c>
+      <c r="D162" t="s">
+        <v>23</v>
+      </c>
+      <c r="E162" t="s">
+        <v>24</v>
+      </c>
+      <c r="F162" t="s">
+        <v>22</v>
+      </c>
+      <c r="G162" t="s">
+        <v>35</v>
+      </c>
+      <c r="H162">
+        <v>23650</v>
+      </c>
+      <c r="I162" t="s">
+        <v>277</v>
+      </c>
+      <c r="J162" t="s">
+        <v>296</v>
+      </c>
+      <c r="K162" t="s">
+        <v>283</v>
+      </c>
+      <c r="L162" t="s">
+        <v>29</v>
+      </c>
+      <c r="M162">
+        <v>25</v>
+      </c>
+      <c r="N162" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A163" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B163" t="s">
+        <v>22</v>
+      </c>
+      <c r="C163" s="2">
+        <v>150</v>
+      </c>
+      <c r="D163" t="s">
+        <v>23</v>
+      </c>
+      <c r="E163" t="s">
+        <v>24</v>
+      </c>
+      <c r="F163" t="s">
+        <v>22</v>
+      </c>
+      <c r="G163" t="s">
+        <v>35</v>
+      </c>
+      <c r="H163">
+        <v>23650</v>
+      </c>
+      <c r="I163" t="s">
+        <v>277</v>
+      </c>
+      <c r="J163" t="s">
+        <v>297</v>
+      </c>
+      <c r="K163" t="s">
+        <v>285</v>
+      </c>
+      <c r="L163" t="s">
+        <v>34</v>
+      </c>
+      <c r="M163">
+        <v>25</v>
+      </c>
+      <c r="N163" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A164" s="1">
+        <v>45462</v>
+      </c>
+      <c r="B164" t="s">
+        <v>22</v>
+      </c>
+      <c r="C164" s="2">
+        <v>1875</v>
+      </c>
+      <c r="D164" t="s">
+        <v>23</v>
+      </c>
+      <c r="E164" t="s">
+        <v>24</v>
+      </c>
+      <c r="F164" t="s">
+        <v>22</v>
+      </c>
+      <c r="G164" t="s">
+        <v>25</v>
+      </c>
+      <c r="H164">
+        <v>23600</v>
+      </c>
+      <c r="I164" t="s">
+        <v>277</v>
+      </c>
+      <c r="J164" t="s">
+        <v>298</v>
+      </c>
+      <c r="K164" t="s">
+        <v>299</v>
+      </c>
+      <c r="L164" t="s">
+        <v>29</v>
+      </c>
+      <c r="M164">
+        <v>25</v>
+      </c>
+      <c r="N164" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A165" s="1">
+        <v>45462</v>
+      </c>
+      <c r="B165" t="s">
+        <v>22</v>
+      </c>
+      <c r="C165" s="2">
+        <v>750</v>
+      </c>
+      <c r="D165" t="s">
+        <v>23</v>
+      </c>
+      <c r="E165" t="s">
+        <v>24</v>
+      </c>
+      <c r="F165" t="s">
+        <v>22</v>
+      </c>
+      <c r="G165" t="s">
+        <v>35</v>
+      </c>
+      <c r="H165">
+        <v>23600</v>
+      </c>
+      <c r="I165" t="s">
+        <v>277</v>
+      </c>
+      <c r="J165" t="s">
+        <v>300</v>
+      </c>
+      <c r="K165" t="s">
+        <v>301</v>
+      </c>
+      <c r="L165" t="s">
+        <v>29</v>
+      </c>
+      <c r="M165">
+        <v>25</v>
+      </c>
+      <c r="N165" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A166" s="1">
+        <v>45462</v>
+      </c>
+      <c r="B166" t="s">
+        <v>22</v>
+      </c>
+      <c r="C166" s="2">
+        <v>2400</v>
+      </c>
+      <c r="D166" t="s">
+        <v>23</v>
+      </c>
+      <c r="E166" t="s">
+        <v>24</v>
+      </c>
+      <c r="F166" t="s">
+        <v>22</v>
+      </c>
+      <c r="G166" t="s">
+        <v>35</v>
+      </c>
+      <c r="H166">
+        <v>23600</v>
+      </c>
+      <c r="I166" t="s">
+        <v>277</v>
+      </c>
+      <c r="J166" t="s">
+        <v>302</v>
+      </c>
+      <c r="K166" t="s">
+        <v>87</v>
+      </c>
+      <c r="L166" t="s">
+        <v>34</v>
+      </c>
+      <c r="M166">
+        <v>50</v>
+      </c>
+      <c r="N166" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A167" s="1">
+        <v>45462</v>
+      </c>
+      <c r="B167" t="s">
+        <v>22</v>
+      </c>
+      <c r="C167" s="2">
+        <v>2500</v>
+      </c>
+      <c r="D167" t="s">
+        <v>23</v>
+      </c>
+      <c r="E167" t="s">
+        <v>24</v>
+      </c>
+      <c r="F167" t="s">
+        <v>22</v>
+      </c>
+      <c r="G167" t="s">
+        <v>25</v>
+      </c>
+      <c r="H167">
+        <v>23600</v>
+      </c>
+      <c r="I167" t="s">
+        <v>277</v>
+      </c>
+      <c r="J167" t="s">
+        <v>303</v>
+      </c>
+      <c r="K167" t="s">
+        <v>304</v>
+      </c>
+      <c r="L167" t="s">
+        <v>34</v>
+      </c>
+      <c r="M167">
+        <v>25</v>
+      </c>
+      <c r="N167" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A168" s="1">
+        <v>45462</v>
+      </c>
+      <c r="B168" t="s">
+        <v>22</v>
+      </c>
+      <c r="C168" s="2">
+        <v>1248.75</v>
+      </c>
+      <c r="D168" t="s">
+        <v>23</v>
+      </c>
+      <c r="E168" t="s">
+        <v>24</v>
+      </c>
+      <c r="F168" t="s">
+        <v>22</v>
+      </c>
+      <c r="G168" t="s">
+        <v>35</v>
+      </c>
+      <c r="H168">
+        <v>23600</v>
+      </c>
+      <c r="I168" t="s">
+        <v>277</v>
+      </c>
+      <c r="J168" t="s">
+        <v>305</v>
+      </c>
+      <c r="K168" t="s">
+        <v>306</v>
+      </c>
+      <c r="L168" t="s">
+        <v>29</v>
+      </c>
+      <c r="M168">
+        <v>25</v>
+      </c>
+      <c r="N168" s="2">
+        <v>49.95</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A169" s="1">
+        <v>45461</v>
+      </c>
+      <c r="B169" t="s">
+        <v>22</v>
+      </c>
+      <c r="C169" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D169" t="s">
+        <v>23</v>
+      </c>
+      <c r="E169" t="s">
+        <v>24</v>
+      </c>
+      <c r="F169" t="s">
+        <v>22</v>
+      </c>
+      <c r="G169" t="s">
+        <v>35</v>
+      </c>
+      <c r="H169">
+        <v>23500</v>
+      </c>
+      <c r="I169" t="s">
+        <v>277</v>
+      </c>
+      <c r="J169" t="s">
+        <v>307</v>
+      </c>
+      <c r="K169" t="s">
+        <v>308</v>
+      </c>
+      <c r="L169" t="s">
+        <v>29</v>
+      </c>
+      <c r="M169">
+        <v>25</v>
+      </c>
+      <c r="N169" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A170" s="1">
+        <v>45461</v>
+      </c>
+      <c r="B170" t="s">
+        <v>22</v>
+      </c>
+      <c r="C170" s="2">
+        <v>3391.25</v>
+      </c>
+      <c r="D170" t="s">
+        <v>23</v>
+      </c>
+      <c r="E170" t="s">
+        <v>24</v>
+      </c>
+      <c r="F170" t="s">
+        <v>22</v>
+      </c>
+      <c r="G170" t="s">
+        <v>35</v>
+      </c>
+      <c r="H170">
+        <v>23500</v>
+      </c>
+      <c r="I170" t="s">
+        <v>277</v>
+      </c>
+      <c r="J170" t="s">
+        <v>309</v>
+      </c>
+      <c r="K170" t="s">
+        <v>310</v>
+      </c>
+      <c r="L170" t="s">
+        <v>34</v>
+      </c>
+      <c r="M170">
+        <v>25</v>
+      </c>
+      <c r="N170" s="2">
+        <v>135.65</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A171" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B171" t="s">
+        <v>22</v>
+      </c>
+      <c r="C171" s="2">
+        <v>3117.5</v>
+      </c>
+      <c r="D171" t="s">
+        <v>23</v>
+      </c>
+      <c r="E171" t="s">
+        <v>24</v>
+      </c>
+      <c r="F171" t="s">
+        <v>22</v>
+      </c>
+      <c r="G171" t="s">
+        <v>25</v>
+      </c>
+      <c r="H171">
+        <v>23450</v>
+      </c>
+      <c r="I171" t="s">
+        <v>277</v>
+      </c>
+      <c r="J171" t="s">
+        <v>311</v>
+      </c>
+      <c r="K171" t="s">
+        <v>312</v>
+      </c>
+      <c r="L171" t="s">
+        <v>29</v>
+      </c>
+      <c r="M171">
+        <v>25</v>
+      </c>
+      <c r="N171" s="2">
+        <v>124.7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A172" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B172" t="s">
+        <v>22</v>
+      </c>
+      <c r="C172" s="2">
+        <v>3200</v>
+      </c>
+      <c r="D172" t="s">
+        <v>23</v>
+      </c>
+      <c r="E172" t="s">
+        <v>24</v>
+      </c>
+      <c r="F172" t="s">
+        <v>22</v>
+      </c>
+      <c r="G172" t="s">
+        <v>25</v>
+      </c>
+      <c r="H172">
+        <v>23450</v>
+      </c>
+      <c r="I172" t="s">
+        <v>277</v>
+      </c>
+      <c r="J172" t="s">
+        <v>313</v>
+      </c>
+      <c r="K172" t="s">
+        <v>314</v>
+      </c>
+      <c r="L172" t="s">
+        <v>34</v>
+      </c>
+      <c r="M172">
+        <v>25</v>
+      </c>
+      <c r="N172" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A173" s="1">
+        <v>45456</v>
+      </c>
+      <c r="B173" t="s">
+        <v>315</v>
+      </c>
+      <c r="C173" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D173" t="s">
+        <v>316</v>
+      </c>
+      <c r="E173" t="s">
+        <v>317</v>
+      </c>
+      <c r="F173" t="s">
+        <v>318</v>
+      </c>
+      <c r="G173" t="s">
+        <v>319</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="J173" t="s">
+        <v>320</v>
+      </c>
+      <c r="K173" t="s">
+        <v>321</v>
+      </c>
+      <c r="L173" t="s">
+        <v>29</v>
+      </c>
+      <c r="M173">
+        <v>2</v>
+      </c>
+      <c r="N173" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A174" s="1">
+        <v>45456</v>
+      </c>
+      <c r="B174" t="s">
+        <v>22</v>
+      </c>
+      <c r="C174" s="2">
+        <v>1547.5</v>
+      </c>
+      <c r="D174" t="s">
+        <v>23</v>
+      </c>
+      <c r="E174" t="s">
+        <v>24</v>
+      </c>
+      <c r="F174" t="s">
+        <v>22</v>
+      </c>
+      <c r="G174" t="s">
+        <v>35</v>
+      </c>
+      <c r="H174">
+        <v>23350</v>
+      </c>
+      <c r="I174" t="s">
+        <v>322</v>
+      </c>
+      <c r="J174" t="s">
+        <v>323</v>
+      </c>
+      <c r="K174" t="s">
+        <v>324</v>
+      </c>
+      <c r="L174" t="s">
+        <v>34</v>
+      </c>
+      <c r="M174">
+        <v>25</v>
+      </c>
+      <c r="N174" s="2">
+        <v>61.9</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A175" s="1">
+        <v>45456</v>
+      </c>
+      <c r="B175" t="s">
+        <v>22</v>
+      </c>
+      <c r="C175" s="2">
+        <v>1475</v>
+      </c>
+      <c r="D175" t="s">
+        <v>23</v>
+      </c>
+      <c r="E175" t="s">
+        <v>24</v>
+      </c>
+      <c r="F175" t="s">
+        <v>22</v>
+      </c>
+      <c r="G175" t="s">
+        <v>35</v>
+      </c>
+      <c r="H175">
+        <v>23350</v>
+      </c>
+      <c r="I175" t="s">
+        <v>322</v>
+      </c>
+      <c r="J175" t="s">
+        <v>325</v>
+      </c>
+      <c r="K175" t="s">
+        <v>326</v>
+      </c>
+      <c r="L175" t="s">
+        <v>29</v>
+      </c>
+      <c r="M175">
+        <v>25</v>
+      </c>
+      <c r="N175" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A176" s="1">
+        <v>45447</v>
+      </c>
+      <c r="B176" t="s">
+        <v>327</v>
+      </c>
+      <c r="C176" s="2">
+        <v>2688.6</v>
+      </c>
+      <c r="D176" t="s">
+        <v>316</v>
+      </c>
+      <c r="E176" t="s">
+        <v>317</v>
+      </c>
+      <c r="F176" t="s">
+        <v>328</v>
+      </c>
+      <c r="G176" t="s">
+        <v>319</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="J176" t="s">
+        <v>329</v>
+      </c>
+      <c r="K176" t="s">
+        <v>330</v>
+      </c>
+      <c r="L176" t="s">
+        <v>29</v>
+      </c>
+      <c r="M176">
+        <v>3</v>
+      </c>
+      <c r="N176" s="2">
+        <v>896.2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A177" s="1">
         <v>45436</v>
       </c>
-      <c r="B144" t="s">
-        <v>173</v>
-      </c>
-      <c r="C144" s="2">
+      <c r="B177" t="s">
+        <v>229</v>
+      </c>
+      <c r="C177" s="2">
+        <v>999.75</v>
+      </c>
+      <c r="D177" t="s">
+        <v>230</v>
+      </c>
+      <c r="E177" t="s">
+        <v>231</v>
+      </c>
+      <c r="F177" t="s">
+        <v>232</v>
+      </c>
+      <c r="G177" t="s">
+        <v>231</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="L177" t="s">
+        <v>29</v>
+      </c>
+      <c r="M177">
+        <v>2.33</v>
+      </c>
+      <c r="N177" s="2">
+        <v>428.89</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A178" s="1">
+        <v>45436</v>
+      </c>
+      <c r="B178" t="s">
+        <v>233</v>
+      </c>
+      <c r="C178" s="2">
         <v>999.95</v>
       </c>
-      <c r="D144" t="s">
-        <v>170</v>
-      </c>
-      <c r="E144" t="s">
-        <v>171</v>
-      </c>
-      <c r="F144" t="s">
-        <v>174</v>
-      </c>
-      <c r="G144" t="s">
-        <v>171</v>
-      </c>
-      <c r="H144">
+      <c r="D178" t="s">
+        <v>230</v>
+      </c>
+      <c r="E178" t="s">
+        <v>231</v>
+      </c>
+      <c r="F178" t="s">
+        <v>234</v>
+      </c>
+      <c r="G178" t="s">
+        <v>231</v>
+      </c>
+      <c r="H178">
         <v>0</v>
       </c>
-      <c r="L144" t="s">
-        <v>35</v>
-      </c>
-      <c r="M144">
+      <c r="L178" t="s">
+        <v>29</v>
+      </c>
+      <c r="M178">
         <v>20.51</v>
       </c>
-      <c r="N144" s="2">
+      <c r="N178" s="2">
         <v>48.77</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A150" s="3"/>
-      <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="3"/>
-      <c r="G150" s="3"/>
-      <c r="H150" s="3"/>
-      <c r="I150" s="3"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
-        <v>272</v>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A184" s="3"/>
+      <c r="B184" s="3"/>
+      <c r="C184" s="3"/>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3"/>
+      <c r="F184" s="3"/>
+      <c r="G184" s="3"/>
+      <c r="H184" s="3"/>
+      <c r="I184" s="3"/>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A150:I150"/>
+    <mergeCell ref="A184:I184"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DATA/SOURCE/TradeHistory/trade_2425.xlsx
+++ b/DATA/SOURCE/TradeHistory/trade_2425.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prashant.tripathi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA4937F-C473-455C-AB9A-30DFF4368BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267DB8E2-469A-4AEB-88EA-A607EBB80B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="334">
   <si>
     <t>UPSTOX SECURITIES PRIVATE LIMITED</t>
   </si>
@@ -97,12 +97,24 @@
     <t>FO</t>
   </si>
   <si>
+    <t>European Call</t>
+  </si>
+  <si>
+    <t>08-08-2024</t>
+  </si>
+  <si>
+    <t>81049361</t>
+  </si>
+  <si>
+    <t>09:32:11</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
     <t>European Put</t>
   </si>
   <si>
-    <t>08-08-2024</t>
-  </si>
-  <si>
     <t>722796247</t>
   </si>
   <si>
@@ -124,12 +136,6 @@
     <t>14:21:35</t>
   </si>
   <si>
-    <t>Sell</t>
-  </si>
-  <si>
-    <t>European Call</t>
-  </si>
-  <si>
     <t>74513776</t>
   </si>
   <si>
@@ -142,6 +148,24 @@
     <t>12:36:48</t>
   </si>
   <si>
+    <t>SBI Magnum Tax Gain Scheme - D</t>
+  </si>
+  <si>
+    <t>BMF</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>F200K01UM9</t>
+  </si>
+  <si>
+    <t>MIRAE ASSET TAX SAVER FUND - D</t>
+  </si>
+  <si>
+    <t>F769K01DM9</t>
+  </si>
+  <si>
     <t>01-08-2024</t>
   </si>
   <si>
@@ -707,24 +731,6 @@
   </si>
   <si>
     <t>16763278</t>
-  </si>
-  <si>
-    <t>SBI Magnum Tax Gain Scheme - D</t>
-  </si>
-  <si>
-    <t>BMF</t>
-  </si>
-  <si>
-    <t>MF</t>
-  </si>
-  <si>
-    <t>F200K01UM9</t>
-  </si>
-  <si>
-    <t>MIRAE ASSET TAX SAVER FUND - D</t>
-  </si>
-  <si>
-    <t>F769K01DM9</t>
   </si>
   <si>
     <t>4170069</t>
@@ -1055,13 +1061,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1396,10 +1400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N185"/>
+  <dimension ref="A1:N187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E184" sqref="E184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1503,7 +1507,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
+      <c r="A10" s="1">
         <v>45509</v>
       </c>
       <c r="B10" t="s">
@@ -1522,7 +1526,7 @@
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H10">
         <v>24700</v>
@@ -1530,14 +1534,14 @@
       <c r="I10" t="s">
         <v>26</v>
       </c>
-      <c r="J10">
-        <v>240805000039351</v>
-      </c>
-      <c r="K10" s="5">
-        <v>0.3972222222222222</v>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" t="s">
+        <v>28</v>
       </c>
       <c r="L10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M10">
         <v>25</v>
@@ -1566,7 +1570,7 @@
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>24800</v>
@@ -1575,13 +1579,13 @@
         <v>26</v>
       </c>
       <c r="J11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M11">
         <v>25</v>
@@ -1610,7 +1614,7 @@
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H12">
         <v>24800</v>
@@ -1619,13 +1623,13 @@
         <v>26</v>
       </c>
       <c r="J12" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M12">
         <v>25</v>
@@ -1654,7 +1658,7 @@
         <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H13">
         <v>24800</v>
@@ -1663,13 +1667,13 @@
         <v>26</v>
       </c>
       <c r="J13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M13">
         <v>25</v>
@@ -1698,7 +1702,7 @@
         <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H14">
         <v>24700</v>
@@ -1707,13 +1711,13 @@
         <v>26</v>
       </c>
       <c r="J14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M14">
         <v>25</v>
@@ -1742,7 +1746,7 @@
         <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H15">
         <v>24800</v>
@@ -1751,13 +1755,13 @@
         <v>26</v>
       </c>
       <c r="J15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M15">
         <v>25</v>
@@ -1768,90 +1772,72 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>45505</v>
+        <v>45506</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2">
-        <v>875</v>
+        <v>999.86</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="H16">
-        <v>24950</v>
-      </c>
-      <c r="I16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M16">
-        <v>125</v>
+        <v>2.11</v>
       </c>
       <c r="N16" s="2">
-        <v>7</v>
+        <v>474.32</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>45505</v>
+        <v>45506</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2">
-        <v>320</v>
+        <v>999.94</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H17">
-        <v>25000</v>
-      </c>
-      <c r="I17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J17" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M17">
-        <v>25</v>
+        <v>18.61</v>
       </c>
       <c r="N17" s="2">
-        <v>12.8</v>
+        <v>53.74</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
@@ -1862,7 +1848,7 @@
         <v>22</v>
       </c>
       <c r="C18" s="2">
-        <v>960</v>
+        <v>875</v>
       </c>
       <c r="D18" t="s">
         <v>23</v>
@@ -1874,28 +1860,28 @@
         <v>22</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H18">
-        <v>25000</v>
+        <v>24950</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J18" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K18" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="L18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M18">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="N18" s="2">
-        <v>12.8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
@@ -1906,7 +1892,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="2">
-        <v>875</v>
+        <v>320</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
@@ -1918,28 +1904,28 @@
         <v>22</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H19">
         <v>25000</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K19" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L19" t="s">
         <v>29</v>
       </c>
       <c r="M19">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="N19" s="2">
-        <v>7</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
@@ -1950,7 +1936,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="2">
-        <v>6.25</v>
+        <v>960</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1965,25 +1951,25 @@
         <v>25</v>
       </c>
       <c r="H20">
-        <v>24950</v>
+        <v>25000</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J20" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K20" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="L20" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="N20" s="2">
-        <v>0.05</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
@@ -1994,7 +1980,7 @@
         <v>22</v>
       </c>
       <c r="C21" s="2">
-        <v>320</v>
+        <v>875</v>
       </c>
       <c r="D21" t="s">
         <v>23</v>
@@ -2006,39 +1992,39 @@
         <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H21">
         <v>25000</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K21" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="L21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M21">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="N21" s="2">
-        <v>12.8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>45504</v>
+        <v>45505</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="2">
-        <v>2471.25</v>
+        <v>6.25</v>
       </c>
       <c r="D22" t="s">
         <v>23</v>
@@ -2050,39 +2036,39 @@
         <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H22">
         <v>24950</v>
       </c>
       <c r="I22" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J22" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L22" t="s">
         <v>29</v>
       </c>
       <c r="M22">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="N22" s="2">
-        <v>98.85</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>45504</v>
+        <v>45505</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="2">
-        <v>2436.25</v>
+        <v>320</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -2100,13 +2086,13 @@
         <v>25000</v>
       </c>
       <c r="I23" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J23" t="s">
+        <v>57</v>
+      </c>
+      <c r="K23" t="s">
         <v>52</v>
-      </c>
-      <c r="K23" t="s">
-        <v>53</v>
       </c>
       <c r="L23" t="s">
         <v>29</v>
@@ -2115,7 +2101,7 @@
         <v>25</v>
       </c>
       <c r="N23" s="2">
-        <v>97.45</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
@@ -2126,7 +2112,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="2">
-        <v>2136.25</v>
+        <v>2471.25</v>
       </c>
       <c r="D24" t="s">
         <v>23</v>
@@ -2138,28 +2124,28 @@
         <v>22</v>
       </c>
       <c r="G24" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H24">
         <v>24950</v>
       </c>
       <c r="I24" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J24" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K24" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M24">
         <v>25</v>
       </c>
       <c r="N24" s="2">
-        <v>85.45</v>
+        <v>98.85</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
@@ -2170,7 +2156,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="2">
-        <v>2613.75</v>
+        <v>2436.25</v>
       </c>
       <c r="D25" t="s">
         <v>23</v>
@@ -2182,39 +2168,39 @@
         <v>22</v>
       </c>
       <c r="G25" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H25">
         <v>25000</v>
       </c>
       <c r="I25" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J25" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K25" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M25">
         <v>25</v>
       </c>
       <c r="N25" s="2">
-        <v>104.55</v>
+        <v>97.45</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>45503</v>
+        <v>45504</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="2">
-        <v>2568.75</v>
+        <v>2136.25</v>
       </c>
       <c r="D26" t="s">
         <v>23</v>
@@ -2226,39 +2212,39 @@
         <v>22</v>
       </c>
       <c r="G26" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H26">
-        <v>24900</v>
+        <v>24950</v>
       </c>
       <c r="I26" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J26" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K26" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L26" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M26">
         <v>25</v>
       </c>
       <c r="N26" s="2">
-        <v>102.75</v>
+        <v>85.45</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>45503</v>
+        <v>45504</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="2">
-        <v>2568.75</v>
+        <v>2613.75</v>
       </c>
       <c r="D27" t="s">
         <v>23</v>
@@ -2270,28 +2256,28 @@
         <v>22</v>
       </c>
       <c r="G27" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H27">
-        <v>24900</v>
+        <v>25000</v>
       </c>
       <c r="I27" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J27" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K27" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L27" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M27">
         <v>25</v>
       </c>
       <c r="N27" s="2">
-        <v>102.75</v>
+        <v>104.55</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
@@ -2302,7 +2288,7 @@
         <v>22</v>
       </c>
       <c r="C28" s="2">
-        <v>4250</v>
+        <v>2568.75</v>
       </c>
       <c r="D28" t="s">
         <v>23</v>
@@ -2314,28 +2300,28 @@
         <v>22</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H28">
-        <v>24950</v>
+        <v>24900</v>
       </c>
       <c r="I28" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J28" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K28" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="L28" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N28" s="2">
-        <v>85</v>
+        <v>102.75</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
@@ -2346,7 +2332,7 @@
         <v>22</v>
       </c>
       <c r="C29" s="2">
-        <v>1400</v>
+        <v>2568.75</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
@@ -2358,28 +2344,28 @@
         <v>22</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H29">
-        <v>25150</v>
+        <v>24900</v>
       </c>
       <c r="I29" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J29" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K29" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L29" t="s">
         <v>29</v>
       </c>
       <c r="M29">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N29" s="2">
-        <v>28</v>
+        <v>102.75</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
@@ -2390,7 +2376,7 @@
         <v>22</v>
       </c>
       <c r="C30" s="2">
-        <v>2625</v>
+        <v>4250</v>
       </c>
       <c r="D30" t="s">
         <v>23</v>
@@ -2402,28 +2388,28 @@
         <v>22</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H30">
         <v>24950</v>
       </c>
       <c r="I30" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J30" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K30" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L30" t="s">
         <v>29</v>
       </c>
       <c r="M30">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N30" s="2">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
@@ -2434,7 +2420,7 @@
         <v>22</v>
       </c>
       <c r="C31" s="2">
-        <v>2625</v>
+        <v>1400</v>
       </c>
       <c r="D31" t="s">
         <v>23</v>
@@ -2446,28 +2432,28 @@
         <v>22</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H31">
-        <v>24950</v>
+        <v>25150</v>
       </c>
       <c r="I31" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J31" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K31" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L31" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M31">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N31" s="2">
-        <v>105</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
@@ -2478,7 +2464,7 @@
         <v>22</v>
       </c>
       <c r="C32" s="2">
-        <v>1435</v>
+        <v>2625</v>
       </c>
       <c r="D32" t="s">
         <v>23</v>
@@ -2490,28 +2476,28 @@
         <v>22</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H32">
-        <v>25150</v>
+        <v>24950</v>
       </c>
       <c r="I32" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J32" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K32" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M32">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N32" s="2">
-        <v>28.7</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
@@ -2522,7 +2508,7 @@
         <v>22</v>
       </c>
       <c r="C33" s="2">
-        <v>5097.5</v>
+        <v>2625</v>
       </c>
       <c r="D33" t="s">
         <v>23</v>
@@ -2537,36 +2523,36 @@
         <v>25</v>
       </c>
       <c r="H33">
-        <v>24900</v>
+        <v>24950</v>
       </c>
       <c r="I33" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J33" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K33" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L33" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M33">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N33" s="2">
-        <v>101.95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>45502</v>
+        <v>45503</v>
       </c>
       <c r="B34" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="2">
-        <v>4950</v>
+        <v>1435</v>
       </c>
       <c r="D34" t="s">
         <v>23</v>
@@ -2578,39 +2564,39 @@
         <v>22</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H34">
-        <v>25000</v>
+        <v>25150</v>
       </c>
       <c r="I34" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J34" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K34" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L34" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M34">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N34" s="2">
-        <v>66</v>
+        <v>28.7</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>45502</v>
+        <v>45503</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
       </c>
       <c r="C35" s="2">
-        <v>600</v>
+        <v>5097.5</v>
       </c>
       <c r="D35" t="s">
         <v>23</v>
@@ -2622,28 +2608,28 @@
         <v>22</v>
       </c>
       <c r="G35" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H35">
-        <v>24450</v>
+        <v>24900</v>
       </c>
       <c r="I35" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J35" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K35" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L35" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M35">
         <v>50</v>
       </c>
       <c r="N35" s="2">
-        <v>12</v>
+        <v>101.95</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
@@ -2654,7 +2640,7 @@
         <v>22</v>
       </c>
       <c r="C36" s="2">
-        <v>4192.5</v>
+        <v>4950</v>
       </c>
       <c r="D36" t="s">
         <v>23</v>
@@ -2669,25 +2655,25 @@
         <v>25</v>
       </c>
       <c r="H36">
-        <v>24900</v>
+        <v>25000</v>
       </c>
       <c r="I36" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J36" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L36" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M36">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N36" s="2">
-        <v>83.85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
@@ -2698,7 +2684,7 @@
         <v>22</v>
       </c>
       <c r="C37" s="2">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="D37" t="s">
         <v>23</v>
@@ -2710,28 +2696,28 @@
         <v>22</v>
       </c>
       <c r="G37" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H37">
-        <v>25400</v>
+        <v>24450</v>
       </c>
       <c r="I37" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J37" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K37" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L37" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M37">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N37" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
@@ -2742,7 +2728,7 @@
         <v>22</v>
       </c>
       <c r="C38" s="2">
-        <v>300</v>
+        <v>4192.5</v>
       </c>
       <c r="D38" t="s">
         <v>23</v>
@@ -2754,28 +2740,28 @@
         <v>22</v>
       </c>
       <c r="G38" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H38">
-        <v>24450</v>
+        <v>24900</v>
       </c>
       <c r="I38" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J38" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K38" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="L38" t="s">
         <v>29</v>
       </c>
       <c r="M38">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N38" s="2">
-        <v>12</v>
+        <v>83.85</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
@@ -2786,7 +2772,7 @@
         <v>22</v>
       </c>
       <c r="C39" s="2">
-        <v>9375</v>
+        <v>900</v>
       </c>
       <c r="D39" t="s">
         <v>23</v>
@@ -2801,25 +2787,25 @@
         <v>25</v>
       </c>
       <c r="H39">
-        <v>24900</v>
+        <v>25400</v>
       </c>
       <c r="I39" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J39" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K39" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L39" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M39">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="N39" s="2">
-        <v>125</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
@@ -2830,7 +2816,7 @@
         <v>22</v>
       </c>
       <c r="C40" s="2">
-        <v>7500</v>
+        <v>300</v>
       </c>
       <c r="D40" t="s">
         <v>23</v>
@@ -2842,28 +2828,28 @@
         <v>22</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H40">
-        <v>25000</v>
+        <v>24450</v>
       </c>
       <c r="I40" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J40" t="s">
+        <v>88</v>
+      </c>
+      <c r="K40" t="s">
         <v>83</v>
       </c>
-      <c r="K40" t="s">
-        <v>84</v>
-      </c>
       <c r="L40" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M40">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N40" s="2">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
@@ -2874,7 +2860,7 @@
         <v>22</v>
       </c>
       <c r="C41" s="2">
-        <v>2097.5</v>
+        <v>9375</v>
       </c>
       <c r="D41" t="s">
         <v>23</v>
@@ -2886,28 +2872,28 @@
         <v>22</v>
       </c>
       <c r="G41" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H41">
         <v>24900</v>
       </c>
       <c r="I41" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J41" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K41" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="L41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M41">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N41" s="2">
-        <v>83.9</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
@@ -2918,7 +2904,7 @@
         <v>22</v>
       </c>
       <c r="C42" s="2">
-        <v>783.75</v>
+        <v>7500</v>
       </c>
       <c r="D42" t="s">
         <v>23</v>
@@ -2933,25 +2919,25 @@
         <v>25</v>
       </c>
       <c r="H42">
-        <v>24450</v>
+        <v>25000</v>
       </c>
       <c r="I42" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J42" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K42" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M42">
         <v>75</v>
       </c>
       <c r="N42" s="2">
-        <v>10.45</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
@@ -2962,7 +2948,7 @@
         <v>22</v>
       </c>
       <c r="C43" s="2">
-        <v>1035</v>
+        <v>2097.5</v>
       </c>
       <c r="D43" t="s">
         <v>23</v>
@@ -2974,39 +2960,39 @@
         <v>22</v>
       </c>
       <c r="G43" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H43">
-        <v>25400</v>
+        <v>24900</v>
       </c>
       <c r="I43" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J43" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K43" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L43" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M43">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N43" s="2">
-        <v>10.35</v>
+        <v>83.9</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>45499</v>
+        <v>45502</v>
       </c>
       <c r="B44" t="s">
         <v>22</v>
       </c>
       <c r="C44" s="2">
-        <v>7125</v>
+        <v>783.75</v>
       </c>
       <c r="D44" t="s">
         <v>23</v>
@@ -3018,39 +3004,39 @@
         <v>22</v>
       </c>
       <c r="G44" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H44">
-        <v>24600</v>
+        <v>24450</v>
       </c>
       <c r="I44" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J44" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K44" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="L44" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M44">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N44" s="2">
-        <v>285</v>
+        <v>10.45</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>45499</v>
+        <v>45502</v>
       </c>
       <c r="B45" t="s">
         <v>22</v>
       </c>
       <c r="C45" s="2">
-        <v>2653.75</v>
+        <v>1035</v>
       </c>
       <c r="D45" t="s">
         <v>23</v>
@@ -3065,25 +3051,25 @@
         <v>25</v>
       </c>
       <c r="H45">
-        <v>24650</v>
+        <v>25400</v>
       </c>
       <c r="I45" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J45" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K45" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="L45" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M45">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N45" s="2">
-        <v>106.15</v>
+        <v>10.35</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
@@ -3094,7 +3080,7 @@
         <v>22</v>
       </c>
       <c r="C46" s="2">
-        <v>4767.5</v>
+        <v>7125</v>
       </c>
       <c r="D46" t="s">
         <v>23</v>
@@ -3106,19 +3092,19 @@
         <v>22</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H46">
         <v>24600</v>
       </c>
       <c r="I46" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J46" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K46" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L46" t="s">
         <v>29</v>
@@ -3127,7 +3113,7 @@
         <v>25</v>
       </c>
       <c r="N46" s="2">
-        <v>190.7</v>
+        <v>285</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
@@ -3138,7 +3124,7 @@
         <v>22</v>
       </c>
       <c r="C47" s="2">
-        <v>3450</v>
+        <v>2653.75</v>
       </c>
       <c r="D47" t="s">
         <v>23</v>
@@ -3150,19 +3136,19 @@
         <v>22</v>
       </c>
       <c r="G47" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H47">
         <v>24650</v>
       </c>
       <c r="I47" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J47" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K47" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L47" t="s">
         <v>29</v>
@@ -3171,18 +3157,18 @@
         <v>25</v>
       </c>
       <c r="N47" s="2">
-        <v>138</v>
+        <v>106.15</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>45496</v>
+        <v>45499</v>
       </c>
       <c r="B48" t="s">
         <v>22</v>
       </c>
       <c r="C48" s="2">
-        <v>5445</v>
+        <v>4767.5</v>
       </c>
       <c r="D48" t="s">
         <v>23</v>
@@ -3194,39 +3180,39 @@
         <v>22</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H48">
-        <v>24500</v>
+        <v>24600</v>
       </c>
       <c r="I48" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="J48" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K48" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M48">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N48" s="2">
-        <v>108.9</v>
+        <v>190.7</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>45496</v>
+        <v>45499</v>
       </c>
       <c r="B49" t="s">
         <v>22</v>
       </c>
       <c r="C49" s="2">
-        <v>2722.5</v>
+        <v>3450</v>
       </c>
       <c r="D49" t="s">
         <v>23</v>
@@ -3238,28 +3224,28 @@
         <v>22</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H49">
-        <v>24500</v>
+        <v>24650</v>
       </c>
       <c r="I49" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="J49" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K49" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="L49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M49">
         <v>25</v>
       </c>
       <c r="N49" s="2">
-        <v>108.9</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
@@ -3270,7 +3256,7 @@
         <v>22</v>
       </c>
       <c r="C50" s="2">
-        <v>10265</v>
+        <v>5445</v>
       </c>
       <c r="D50" t="s">
         <v>23</v>
@@ -3282,19 +3268,19 @@
         <v>22</v>
       </c>
       <c r="G50" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H50">
         <v>24500</v>
       </c>
       <c r="I50" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J50" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K50" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="L50" t="s">
         <v>29</v>
@@ -3303,7 +3289,7 @@
         <v>50</v>
       </c>
       <c r="N50" s="2">
-        <v>205.3</v>
+        <v>108.9</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
@@ -3314,7 +3300,7 @@
         <v>22</v>
       </c>
       <c r="C51" s="2">
-        <v>2723.75</v>
+        <v>2722.5</v>
       </c>
       <c r="D51" t="s">
         <v>23</v>
@@ -3326,28 +3312,28 @@
         <v>22</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H51">
         <v>24500</v>
       </c>
       <c r="I51" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J51" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="K51" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="L51" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M51">
         <v>25</v>
       </c>
       <c r="N51" s="2">
-        <v>108.95</v>
+        <v>108.9</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
@@ -3358,7 +3344,7 @@
         <v>22</v>
       </c>
       <c r="C52" s="2">
-        <v>10267.5</v>
+        <v>10265</v>
       </c>
       <c r="D52" t="s">
         <v>23</v>
@@ -3370,39 +3356,39 @@
         <v>22</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H52">
         <v>24500</v>
       </c>
       <c r="I52" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J52" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K52" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="L52" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M52">
         <v>50</v>
       </c>
       <c r="N52" s="2">
-        <v>205.35</v>
+        <v>205.3</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>45495</v>
+        <v>45496</v>
       </c>
       <c r="B53" t="s">
         <v>22</v>
       </c>
       <c r="C53" s="2">
-        <v>19020</v>
+        <v>2723.75</v>
       </c>
       <c r="D53" t="s">
         <v>23</v>
@@ -3417,36 +3403,36 @@
         <v>25</v>
       </c>
       <c r="H53">
-        <v>24600</v>
+        <v>24500</v>
       </c>
       <c r="I53" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J53" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K53" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L53" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M53">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N53" s="2">
-        <v>253.6</v>
+        <v>108.95</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>45495</v>
+        <v>45496</v>
       </c>
       <c r="B54" t="s">
         <v>22</v>
       </c>
       <c r="C54" s="2">
-        <v>18911.25</v>
+        <v>10267.5</v>
       </c>
       <c r="D54" t="s">
         <v>23</v>
@@ -3461,36 +3447,36 @@
         <v>25</v>
       </c>
       <c r="H54">
-        <v>24600</v>
+        <v>24500</v>
       </c>
       <c r="I54" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J54" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K54" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L54" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M54">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N54" s="2">
-        <v>252.15</v>
+        <v>205.35</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>45491</v>
+        <v>45495</v>
       </c>
       <c r="B55" t="s">
         <v>22</v>
       </c>
       <c r="C55" s="2">
-        <v>4000</v>
+        <v>19020</v>
       </c>
       <c r="D55" t="s">
         <v>23</v>
@@ -3502,39 +3488,39 @@
         <v>22</v>
       </c>
       <c r="G55" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H55">
-        <v>24650</v>
+        <v>24600</v>
       </c>
       <c r="I55" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J55" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K55" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L55" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M55">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="N55" s="2">
-        <v>40</v>
+        <v>253.6</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>45491</v>
+        <v>45495</v>
       </c>
       <c r="B56" t="s">
         <v>22</v>
       </c>
       <c r="C56" s="2">
-        <v>8710</v>
+        <v>18911.25</v>
       </c>
       <c r="D56" t="s">
         <v>23</v>
@@ -3546,28 +3532,28 @@
         <v>22</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H56">
         <v>24600</v>
       </c>
       <c r="I56" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J56" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K56" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M56">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="N56" s="2">
-        <v>87.1</v>
+        <v>252.15</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
@@ -3578,7 +3564,7 @@
         <v>22</v>
       </c>
       <c r="C57" s="2">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="D57" t="s">
         <v>23</v>
@@ -3590,19 +3576,19 @@
         <v>22</v>
       </c>
       <c r="G57" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H57">
         <v>24650</v>
       </c>
       <c r="I57" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="J57" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K57" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L57" t="s">
         <v>29</v>
@@ -3611,7 +3597,7 @@
         <v>100</v>
       </c>
       <c r="N57" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
@@ -3622,7 +3608,7 @@
         <v>22</v>
       </c>
       <c r="C58" s="2">
-        <v>300</v>
+        <v>8710</v>
       </c>
       <c r="D58" t="s">
         <v>23</v>
@@ -3637,16 +3623,16 @@
         <v>25</v>
       </c>
       <c r="H58">
-        <v>24650</v>
+        <v>24600</v>
       </c>
       <c r="I58" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="J58" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="K58" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="L58" t="s">
         <v>29</v>
@@ -3655,7 +3641,7 @@
         <v>100</v>
       </c>
       <c r="N58" s="2">
-        <v>3</v>
+        <v>87.1</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
@@ -3666,7 +3652,7 @@
         <v>22</v>
       </c>
       <c r="C59" s="2">
-        <v>2822.5</v>
+        <v>5000</v>
       </c>
       <c r="D59" t="s">
         <v>23</v>
@@ -3678,28 +3664,28 @@
         <v>22</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H59">
         <v>24650</v>
       </c>
       <c r="I59" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="J59" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K59" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M59">
+        <v>100</v>
+      </c>
+      <c r="N59" s="2">
         <v>50</v>
-      </c>
-      <c r="N59" s="2">
-        <v>56.45</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
@@ -3710,7 +3696,7 @@
         <v>22</v>
       </c>
       <c r="C60" s="2">
-        <v>4965</v>
+        <v>300</v>
       </c>
       <c r="D60" t="s">
         <v>23</v>
@@ -3722,28 +3708,28 @@
         <v>22</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H60">
-        <v>24600</v>
+        <v>24650</v>
       </c>
       <c r="I60" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="J60" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K60" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L60" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M60">
         <v>100</v>
       </c>
       <c r="N60" s="2">
-        <v>49.65</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.35">
@@ -3754,7 +3740,7 @@
         <v>22</v>
       </c>
       <c r="C61" s="2">
-        <v>3512.5</v>
+        <v>2822.5</v>
       </c>
       <c r="D61" t="s">
         <v>23</v>
@@ -3772,22 +3758,22 @@
         <v>24650</v>
       </c>
       <c r="I61" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="J61" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="K61" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="L61" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M61">
         <v>50</v>
       </c>
       <c r="N61" s="2">
-        <v>70.25</v>
+        <v>56.45</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.35">
@@ -3798,7 +3784,7 @@
         <v>22</v>
       </c>
       <c r="C62" s="2">
-        <v>5100</v>
+        <v>4965</v>
       </c>
       <c r="D62" t="s">
         <v>23</v>
@@ -3810,28 +3796,28 @@
         <v>22</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H62">
-        <v>24650</v>
+        <v>24600</v>
       </c>
       <c r="I62" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="J62" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K62" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M62">
         <v>100</v>
       </c>
       <c r="N62" s="2">
-        <v>51</v>
+        <v>49.65</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.35">
@@ -3842,7 +3828,7 @@
         <v>22</v>
       </c>
       <c r="C63" s="2">
-        <v>1715</v>
+        <v>3512.5</v>
       </c>
       <c r="D63" t="s">
         <v>23</v>
@@ -3854,39 +3840,39 @@
         <v>22</v>
       </c>
       <c r="G63" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H63">
         <v>24650</v>
       </c>
       <c r="I63" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="J63" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K63" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="L63" t="s">
         <v>29</v>
       </c>
       <c r="M63">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N63" s="2">
-        <v>17.149999999999999</v>
+        <v>70.25</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>45489</v>
+        <v>45491</v>
       </c>
       <c r="B64" t="s">
         <v>22</v>
       </c>
       <c r="C64" s="2">
-        <v>1752.5</v>
+        <v>5100</v>
       </c>
       <c r="D64" t="s">
         <v>23</v>
@@ -3898,39 +3884,39 @@
         <v>22</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H64">
         <v>24650</v>
       </c>
       <c r="I64" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="J64" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K64" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="L64" t="s">
         <v>29</v>
       </c>
       <c r="M64">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N64" s="2">
-        <v>70.099999999999994</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>45489</v>
+        <v>45491</v>
       </c>
       <c r="B65" t="s">
         <v>22</v>
       </c>
       <c r="C65" s="2">
-        <v>1941.25</v>
+        <v>1715</v>
       </c>
       <c r="D65" t="s">
         <v>23</v>
@@ -3948,22 +3934,22 @@
         <v>24650</v>
       </c>
       <c r="I65" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="J65" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="K65" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="L65" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M65">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N65" s="2">
-        <v>77.650000000000006</v>
+        <v>17.149999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.35">
@@ -3974,7 +3960,7 @@
         <v>22</v>
       </c>
       <c r="C66" s="2">
-        <v>1942.5</v>
+        <v>1752.5</v>
       </c>
       <c r="D66" t="s">
         <v>23</v>
@@ -3992,22 +3978,22 @@
         <v>24650</v>
       </c>
       <c r="I66" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="J66" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="K66" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="L66" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M66">
         <v>25</v>
       </c>
       <c r="N66" s="2">
-        <v>77.7</v>
+        <v>70.099999999999994</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.35">
@@ -4018,7 +4004,7 @@
         <v>22</v>
       </c>
       <c r="C67" s="2">
-        <v>1751.25</v>
+        <v>1941.25</v>
       </c>
       <c r="D67" t="s">
         <v>23</v>
@@ -4030,39 +4016,39 @@
         <v>22</v>
       </c>
       <c r="G67" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H67">
         <v>24650</v>
       </c>
       <c r="I67" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="J67" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="K67" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="L67" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M67">
         <v>25</v>
       </c>
       <c r="N67" s="2">
-        <v>70.05</v>
+        <v>77.650000000000006</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>45488</v>
+        <v>45489</v>
       </c>
       <c r="B68" t="s">
         <v>22</v>
       </c>
       <c r="C68" s="2">
-        <v>5787.5</v>
+        <v>1942.5</v>
       </c>
       <c r="D68" t="s">
         <v>23</v>
@@ -4074,39 +4060,39 @@
         <v>22</v>
       </c>
       <c r="G68" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H68">
         <v>24650</v>
       </c>
       <c r="I68" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="J68" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K68" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M68">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N68" s="2">
-        <v>115.75</v>
+        <v>77.7</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>45488</v>
+        <v>45489</v>
       </c>
       <c r="B69" t="s">
         <v>22</v>
       </c>
       <c r="C69" s="2">
-        <v>5762.5</v>
+        <v>1751.25</v>
       </c>
       <c r="D69" t="s">
         <v>23</v>
@@ -4124,33 +4110,33 @@
         <v>24650</v>
       </c>
       <c r="I69" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="J69" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="K69" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L69" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M69">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N69" s="2">
-        <v>115.25</v>
+        <v>70.05</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>45484</v>
+        <v>45488</v>
       </c>
       <c r="B70" t="s">
         <v>22</v>
       </c>
       <c r="C70" s="2">
-        <v>1601.25</v>
+        <v>5787.5</v>
       </c>
       <c r="D70" t="s">
         <v>23</v>
@@ -4162,39 +4148,39 @@
         <v>22</v>
       </c>
       <c r="G70" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H70">
-        <v>24350</v>
+        <v>24650</v>
       </c>
       <c r="I70" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="J70" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K70" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L70" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M70">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N70" s="2">
-        <v>21.35</v>
+        <v>115.75</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>45484</v>
+        <v>45488</v>
       </c>
       <c r="B71" t="s">
         <v>22</v>
       </c>
       <c r="C71" s="2">
-        <v>4000</v>
+        <v>5762.5</v>
       </c>
       <c r="D71" t="s">
         <v>23</v>
@@ -4206,28 +4192,28 @@
         <v>22</v>
       </c>
       <c r="G71" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H71">
-        <v>24350</v>
+        <v>24650</v>
       </c>
       <c r="I71" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="J71" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K71" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L71" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M71">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N71" s="2">
-        <v>40</v>
+        <v>115.25</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.35">
@@ -4238,7 +4224,7 @@
         <v>22</v>
       </c>
       <c r="C72" s="2">
-        <v>107.5</v>
+        <v>1601.25</v>
       </c>
       <c r="D72" t="s">
         <v>23</v>
@@ -4250,28 +4236,28 @@
         <v>22</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H72">
-        <v>24400</v>
+        <v>24350</v>
       </c>
       <c r="I72" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J72" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K72" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L72" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M72">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N72" s="2">
-        <v>4.3</v>
+        <v>21.35</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.35">
@@ -4282,7 +4268,7 @@
         <v>22</v>
       </c>
       <c r="C73" s="2">
-        <v>351.25</v>
+        <v>4000</v>
       </c>
       <c r="D73" t="s">
         <v>23</v>
@@ -4294,28 +4280,28 @@
         <v>22</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H73">
-        <v>24300</v>
+        <v>24350</v>
       </c>
       <c r="I73" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J73" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K73" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="L73" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M73">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N73" s="2">
-        <v>14.05</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.35">
@@ -4326,7 +4312,7 @@
         <v>22</v>
       </c>
       <c r="C74" s="2">
-        <v>62.5</v>
+        <v>107.5</v>
       </c>
       <c r="D74" t="s">
         <v>23</v>
@@ -4338,19 +4324,19 @@
         <v>22</v>
       </c>
       <c r="G74" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H74">
         <v>24400</v>
       </c>
       <c r="I74" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J74" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="K74" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="L74" t="s">
         <v>29</v>
@@ -4359,7 +4345,7 @@
         <v>25</v>
       </c>
       <c r="N74" s="2">
-        <v>2.5</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.35">
@@ -4370,7 +4356,7 @@
         <v>22</v>
       </c>
       <c r="C75" s="2">
-        <v>2668.75</v>
+        <v>351.25</v>
       </c>
       <c r="D75" t="s">
         <v>23</v>
@@ -4382,28 +4368,28 @@
         <v>22</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H75">
-        <v>24350</v>
+        <v>24300</v>
       </c>
       <c r="I75" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J75" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="K75" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="L75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M75">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="N75" s="2">
-        <v>21.35</v>
+        <v>14.05</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.35">
@@ -4414,7 +4400,7 @@
         <v>22</v>
       </c>
       <c r="C76" s="2">
-        <v>498.75</v>
+        <v>62.5</v>
       </c>
       <c r="D76" t="s">
         <v>23</v>
@@ -4426,28 +4412,28 @@
         <v>22</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H76">
-        <v>24300</v>
+        <v>24400</v>
       </c>
       <c r="I76" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J76" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="K76" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="L76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M76">
         <v>25</v>
       </c>
       <c r="N76" s="2">
-        <v>19.95</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.35">
@@ -4458,7 +4444,7 @@
         <v>22</v>
       </c>
       <c r="C77" s="2">
-        <v>1493.75</v>
+        <v>2668.75</v>
       </c>
       <c r="D77" t="s">
         <v>23</v>
@@ -4470,28 +4456,28 @@
         <v>22</v>
       </c>
       <c r="G77" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H77">
         <v>24350</v>
       </c>
       <c r="I77" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J77" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="K77" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L77" t="s">
         <v>29</v>
       </c>
       <c r="M77">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="N77" s="2">
-        <v>59.75</v>
+        <v>21.35</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.35">
@@ -4502,7 +4488,7 @@
         <v>22</v>
       </c>
       <c r="C78" s="2">
-        <v>2987.5</v>
+        <v>498.75</v>
       </c>
       <c r="D78" t="s">
         <v>23</v>
@@ -4514,28 +4500,28 @@
         <v>22</v>
       </c>
       <c r="G78" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H78">
-        <v>24350</v>
+        <v>24300</v>
       </c>
       <c r="I78" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J78" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K78" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="L78" t="s">
         <v>29</v>
       </c>
       <c r="M78">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N78" s="2">
-        <v>59.75</v>
+        <v>19.95</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.35">
@@ -4558,22 +4544,22 @@
         <v>22</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H79">
         <v>24350</v>
       </c>
       <c r="I79" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J79" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="K79" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="L79" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M79">
         <v>25</v>
@@ -4584,13 +4570,13 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>45483</v>
+        <v>45484</v>
       </c>
       <c r="B80" t="s">
         <v>22</v>
       </c>
       <c r="C80" s="2">
-        <v>13792.5</v>
+        <v>2987.5</v>
       </c>
       <c r="D80" t="s">
         <v>23</v>
@@ -4602,39 +4588,39 @@
         <v>22</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H80">
-        <v>24100</v>
+        <v>24350</v>
       </c>
       <c r="I80" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J80" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="K80" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M80">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N80" s="2">
-        <v>183.9</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>45483</v>
+        <v>45484</v>
       </c>
       <c r="B81" t="s">
         <v>22</v>
       </c>
       <c r="C81" s="2">
-        <v>16700</v>
+        <v>1493.75</v>
       </c>
       <c r="D81" t="s">
         <v>23</v>
@@ -4646,28 +4632,28 @@
         <v>22</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H81">
-        <v>24100</v>
+        <v>24350</v>
       </c>
       <c r="I81" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J81" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K81" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L81" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M81">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N81" s="2">
-        <v>167</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.35">
@@ -4678,7 +4664,7 @@
         <v>22</v>
       </c>
       <c r="C82" s="2">
-        <v>4596.25</v>
+        <v>13792.5</v>
       </c>
       <c r="D82" t="s">
         <v>23</v>
@@ -4690,39 +4676,39 @@
         <v>22</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H82">
         <v>24100</v>
       </c>
       <c r="I82" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J82" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K82" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="L82" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M82">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N82" s="2">
-        <v>183.85</v>
+        <v>183.9</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>45482</v>
+        <v>45483</v>
       </c>
       <c r="B83" t="s">
         <v>22</v>
       </c>
       <c r="C83" s="2">
-        <v>6041.25</v>
+        <v>16700</v>
       </c>
       <c r="D83" t="s">
         <v>23</v>
@@ -4737,36 +4723,36 @@
         <v>25</v>
       </c>
       <c r="H83">
-        <v>24350</v>
+        <v>24100</v>
       </c>
       <c r="I83" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J83" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="K83" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="L83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M83">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="N83" s="2">
-        <v>80.55</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>45482</v>
+        <v>45483</v>
       </c>
       <c r="B84" t="s">
         <v>22</v>
       </c>
       <c r="C84" s="2">
-        <v>3437.5</v>
+        <v>4596.25</v>
       </c>
       <c r="D84" t="s">
         <v>23</v>
@@ -4778,28 +4764,28 @@
         <v>22</v>
       </c>
       <c r="G84" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H84">
-        <v>24300</v>
+        <v>24100</v>
       </c>
       <c r="I84" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J84" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="K84" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L84" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M84">
         <v>25</v>
       </c>
       <c r="N84" s="2">
-        <v>137.5</v>
+        <v>183.85</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.35">
@@ -4810,7 +4796,7 @@
         <v>22</v>
       </c>
       <c r="C85" s="2">
-        <v>5855</v>
+        <v>6041.25</v>
       </c>
       <c r="D85" t="s">
         <v>23</v>
@@ -4822,28 +4808,28 @@
         <v>22</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H85">
-        <v>24400</v>
+        <v>24350</v>
       </c>
       <c r="I85" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J85" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K85" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L85" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M85">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N85" s="2">
-        <v>117.1</v>
+        <v>80.55</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.35">
@@ -4854,7 +4840,7 @@
         <v>22</v>
       </c>
       <c r="C86" s="2">
-        <v>2225</v>
+        <v>3437.5</v>
       </c>
       <c r="D86" t="s">
         <v>23</v>
@@ -4866,19 +4852,19 @@
         <v>22</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H86">
-        <v>24400</v>
+        <v>24300</v>
       </c>
       <c r="I86" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J86" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K86" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L86" t="s">
         <v>29</v>
@@ -4887,7 +4873,7 @@
         <v>25</v>
       </c>
       <c r="N86" s="2">
-        <v>89</v>
+        <v>137.5</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.35">
@@ -4898,7 +4884,7 @@
         <v>22</v>
       </c>
       <c r="C87" s="2">
-        <v>8030</v>
+        <v>5855</v>
       </c>
       <c r="D87" t="s">
         <v>23</v>
@@ -4913,25 +4899,25 @@
         <v>25</v>
       </c>
       <c r="H87">
-        <v>24350</v>
+        <v>24400</v>
       </c>
       <c r="I87" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J87" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K87" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L87" t="s">
         <v>29</v>
       </c>
       <c r="M87">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N87" s="2">
-        <v>80.3</v>
+        <v>117.1</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.35">
@@ -4942,7 +4928,7 @@
         <v>22</v>
       </c>
       <c r="C88" s="2">
-        <v>2013.75</v>
+        <v>2225</v>
       </c>
       <c r="D88" t="s">
         <v>23</v>
@@ -4957,25 +4943,25 @@
         <v>25</v>
       </c>
       <c r="H88">
-        <v>24350</v>
+        <v>24400</v>
       </c>
       <c r="I88" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J88" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K88" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="L88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M88">
         <v>25</v>
       </c>
       <c r="N88" s="2">
-        <v>80.55</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.35">
@@ -4986,7 +4972,7 @@
         <v>22</v>
       </c>
       <c r="C89" s="2">
-        <v>14545</v>
+        <v>8030</v>
       </c>
       <c r="D89" t="s">
         <v>23</v>
@@ -4998,28 +4984,28 @@
         <v>22</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H89">
-        <v>24300</v>
+        <v>24350</v>
       </c>
       <c r="I89" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J89" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="K89" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="L89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M89">
         <v>100</v>
       </c>
       <c r="N89" s="2">
-        <v>145.44999999999999</v>
+        <v>80.3</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.35">
@@ -5030,7 +5016,7 @@
         <v>22</v>
       </c>
       <c r="C90" s="2">
-        <v>3436.25</v>
+        <v>2013.75</v>
       </c>
       <c r="D90" t="s">
         <v>23</v>
@@ -5042,28 +5028,28 @@
         <v>22</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H90">
-        <v>24300</v>
+        <v>24350</v>
       </c>
       <c r="I90" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J90" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K90" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="L90" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M90">
         <v>25</v>
       </c>
       <c r="N90" s="2">
-        <v>137.44999999999999</v>
+        <v>80.55</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.35">
@@ -5074,7 +5060,7 @@
         <v>22</v>
       </c>
       <c r="C91" s="2">
-        <v>11710</v>
+        <v>14545</v>
       </c>
       <c r="D91" t="s">
         <v>23</v>
@@ -5086,28 +5072,28 @@
         <v>22</v>
       </c>
       <c r="G91" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H91">
-        <v>24400</v>
+        <v>24300</v>
       </c>
       <c r="I91" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J91" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="K91" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="L91" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M91">
         <v>100</v>
       </c>
       <c r="N91" s="2">
-        <v>117.1</v>
+        <v>145.44999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.35">
@@ -5118,7 +5104,7 @@
         <v>22</v>
       </c>
       <c r="C92" s="2">
-        <v>14000</v>
+        <v>3436.25</v>
       </c>
       <c r="D92" t="s">
         <v>23</v>
@@ -5130,28 +5116,28 @@
         <v>22</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H92">
         <v>24300</v>
       </c>
       <c r="I92" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J92" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="K92" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L92" t="s">
         <v>29</v>
       </c>
       <c r="M92">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N92" s="2">
-        <v>140</v>
+        <v>137.44999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.35">
@@ -5162,7 +5148,7 @@
         <v>22</v>
       </c>
       <c r="C93" s="2">
-        <v>11125</v>
+        <v>11710</v>
       </c>
       <c r="D93" t="s">
         <v>23</v>
@@ -5174,28 +5160,28 @@
         <v>22</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H93">
         <v>24400</v>
       </c>
       <c r="I93" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J93" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="K93" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="L93" t="s">
         <v>29</v>
       </c>
       <c r="M93">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="N93" s="2">
-        <v>89</v>
+        <v>117.1</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.35">
@@ -5206,7 +5192,7 @@
         <v>22</v>
       </c>
       <c r="C94" s="2">
-        <v>6877.5</v>
+        <v>14000</v>
       </c>
       <c r="D94" t="s">
         <v>23</v>
@@ -5218,39 +5204,39 @@
         <v>22</v>
       </c>
       <c r="G94" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H94">
         <v>24300</v>
       </c>
       <c r="I94" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J94" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="K94" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="L94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M94">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N94" s="2">
-        <v>137.55000000000001</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>45481</v>
+        <v>45482</v>
       </c>
       <c r="B95" t="s">
         <v>22</v>
       </c>
       <c r="C95" s="2">
-        <v>12000</v>
+        <v>11125</v>
       </c>
       <c r="D95" t="s">
         <v>23</v>
@@ -5262,39 +5248,39 @@
         <v>22</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H95">
-        <v>24300</v>
+        <v>24400</v>
       </c>
       <c r="I95" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J95" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="K95" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L95" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M95">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="N95" s="2">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>45478</v>
+        <v>45482</v>
       </c>
       <c r="B96" t="s">
         <v>22</v>
       </c>
       <c r="C96" s="2">
-        <v>6000</v>
+        <v>6877.5</v>
       </c>
       <c r="D96" t="s">
         <v>23</v>
@@ -5312,13 +5298,13 @@
         <v>24300</v>
       </c>
       <c r="I96" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J96" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="K96" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="L96" t="s">
         <v>29</v>
@@ -5327,18 +5313,18 @@
         <v>50</v>
       </c>
       <c r="N96" s="2">
-        <v>120</v>
+        <v>137.55000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>45478</v>
+        <v>45481</v>
       </c>
       <c r="B97" t="s">
         <v>22</v>
       </c>
       <c r="C97" s="2">
-        <v>3028.75</v>
+        <v>12000</v>
       </c>
       <c r="D97" t="s">
         <v>23</v>
@@ -5356,22 +5342,22 @@
         <v>24300</v>
       </c>
       <c r="I97" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J97" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K97" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M97">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N97" s="2">
-        <v>121.15</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.35">
@@ -5382,7 +5368,7 @@
         <v>22</v>
       </c>
       <c r="C98" s="2">
-        <v>9250</v>
+        <v>6000</v>
       </c>
       <c r="D98" t="s">
         <v>23</v>
@@ -5394,28 +5380,28 @@
         <v>22</v>
       </c>
       <c r="G98" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H98">
-        <v>24250</v>
+        <v>24300</v>
       </c>
       <c r="I98" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J98" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K98" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M98">
         <v>50</v>
       </c>
       <c r="N98" s="2">
-        <v>185</v>
+        <v>120</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.35">
@@ -5438,22 +5424,22 @@
         <v>22</v>
       </c>
       <c r="G99" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H99">
         <v>24300</v>
       </c>
       <c r="I99" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J99" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K99" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="L99" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M99">
         <v>25</v>
@@ -5470,7 +5456,7 @@
         <v>22</v>
       </c>
       <c r="C100" s="2">
-        <v>8812.5</v>
+        <v>9250</v>
       </c>
       <c r="D100" t="s">
         <v>23</v>
@@ -5482,28 +5468,28 @@
         <v>22</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H100">
-        <v>24200</v>
+        <v>24250</v>
       </c>
       <c r="I100" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J100" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="K100" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="L100" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M100">
         <v>50</v>
       </c>
       <c r="N100" s="2">
-        <v>176.25</v>
+        <v>185</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.35">
@@ -5514,7 +5500,7 @@
         <v>22</v>
       </c>
       <c r="C101" s="2">
-        <v>2978.75</v>
+        <v>3028.75</v>
       </c>
       <c r="D101" t="s">
         <v>23</v>
@@ -5526,19 +5512,19 @@
         <v>22</v>
       </c>
       <c r="G101" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H101">
         <v>24300</v>
       </c>
       <c r="I101" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J101" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="K101" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L101" t="s">
         <v>29</v>
@@ -5547,7 +5533,7 @@
         <v>25</v>
       </c>
       <c r="N101" s="2">
-        <v>119.15</v>
+        <v>121.15</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.35">
@@ -5558,7 +5544,7 @@
         <v>22</v>
       </c>
       <c r="C102" s="2">
-        <v>6057.5</v>
+        <v>8812.5</v>
       </c>
       <c r="D102" t="s">
         <v>23</v>
@@ -5573,25 +5559,25 @@
         <v>25</v>
       </c>
       <c r="H102">
-        <v>24300</v>
+        <v>24200</v>
       </c>
       <c r="I102" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J102" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K102" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="L102" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M102">
         <v>50</v>
       </c>
       <c r="N102" s="2">
-        <v>121.15</v>
+        <v>176.25</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.35">
@@ -5602,7 +5588,7 @@
         <v>22</v>
       </c>
       <c r="C103" s="2">
-        <v>8415</v>
+        <v>2978.75</v>
       </c>
       <c r="D103" t="s">
         <v>23</v>
@@ -5614,28 +5600,28 @@
         <v>22</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H103">
-        <v>24200</v>
+        <v>24300</v>
       </c>
       <c r="I103" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J103" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="K103" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="L103" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M103">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N103" s="2">
-        <v>168.3</v>
+        <v>119.15</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.35">
@@ -5646,7 +5632,7 @@
         <v>22</v>
       </c>
       <c r="C104" s="2">
-        <v>1258.75</v>
+        <v>6057.5</v>
       </c>
       <c r="D104" t="s">
         <v>23</v>
@@ -5658,28 +5644,28 @@
         <v>22</v>
       </c>
       <c r="G104" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H104">
-        <v>24000</v>
+        <v>24300</v>
       </c>
       <c r="I104" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J104" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="K104" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L104" t="s">
         <v>29</v>
       </c>
       <c r="M104">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N104" s="2">
-        <v>50.35</v>
+        <v>121.15</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.35">
@@ -5690,7 +5676,7 @@
         <v>22</v>
       </c>
       <c r="C105" s="2">
-        <v>4625</v>
+        <v>8415</v>
       </c>
       <c r="D105" t="s">
         <v>23</v>
@@ -5702,28 +5688,28 @@
         <v>22</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H105">
-        <v>24250</v>
+        <v>24200</v>
       </c>
       <c r="I105" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J105" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K105" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="L105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M105">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N105" s="2">
-        <v>185</v>
+        <v>168.3</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.35">
@@ -5734,7 +5720,7 @@
         <v>22</v>
       </c>
       <c r="C106" s="2">
-        <v>2978.75</v>
+        <v>1258.75</v>
       </c>
       <c r="D106" t="s">
         <v>23</v>
@@ -5746,28 +5732,28 @@
         <v>22</v>
       </c>
       <c r="G106" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H106">
-        <v>24300</v>
+        <v>24000</v>
       </c>
       <c r="I106" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J106" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="K106" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="L106" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M106">
         <v>25</v>
       </c>
       <c r="N106" s="2">
-        <v>119.15</v>
+        <v>50.35</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.35">
@@ -5778,7 +5764,7 @@
         <v>22</v>
       </c>
       <c r="C107" s="2">
-        <v>12195</v>
+        <v>4625</v>
       </c>
       <c r="D107" t="s">
         <v>23</v>
@@ -5790,28 +5776,28 @@
         <v>22</v>
       </c>
       <c r="G107" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H107">
         <v>24250</v>
       </c>
       <c r="I107" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J107" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="K107" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="L107" t="s">
         <v>29</v>
       </c>
       <c r="M107">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N107" s="2">
-        <v>162.6</v>
+        <v>185</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.35">
@@ -5822,7 +5808,7 @@
         <v>22</v>
       </c>
       <c r="C108" s="2">
-        <v>1437.5</v>
+        <v>2978.75</v>
       </c>
       <c r="D108" t="s">
         <v>23</v>
@@ -5834,39 +5820,39 @@
         <v>22</v>
       </c>
       <c r="G108" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H108">
-        <v>24000</v>
+        <v>24300</v>
       </c>
       <c r="I108" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J108" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K108" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L108" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M108">
         <v>25</v>
       </c>
       <c r="N108" s="2">
-        <v>57.5</v>
+        <v>119.15</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
-        <v>45477</v>
+        <v>45478</v>
       </c>
       <c r="B109" t="s">
         <v>22</v>
       </c>
       <c r="C109" s="2">
-        <v>1317.5</v>
+        <v>12195</v>
       </c>
       <c r="D109" t="s">
         <v>23</v>
@@ -5878,39 +5864,39 @@
         <v>22</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H109">
-        <v>24300</v>
+        <v>24250</v>
       </c>
       <c r="I109" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="J109" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K109" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L109" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M109">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N109" s="2">
-        <v>52.7</v>
+        <v>162.6</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
-        <v>45477</v>
+        <v>45478</v>
       </c>
       <c r="B110" t="s">
         <v>22</v>
       </c>
       <c r="C110" s="2">
-        <v>1250</v>
+        <v>1437.5</v>
       </c>
       <c r="D110" t="s">
         <v>23</v>
@@ -5922,19 +5908,19 @@
         <v>22</v>
       </c>
       <c r="G110" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H110">
-        <v>24300</v>
+        <v>24000</v>
       </c>
       <c r="I110" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="J110" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K110" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L110" t="s">
         <v>29</v>
@@ -5943,18 +5929,18 @@
         <v>25</v>
       </c>
       <c r="N110" s="2">
-        <v>50</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
-        <v>45476</v>
+        <v>45477</v>
       </c>
       <c r="B111" t="s">
         <v>22</v>
       </c>
       <c r="C111" s="2">
-        <v>10455</v>
+        <v>1317.5</v>
       </c>
       <c r="D111" t="s">
         <v>23</v>
@@ -5969,36 +5955,36 @@
         <v>25</v>
       </c>
       <c r="H111">
-        <v>24250</v>
+        <v>24300</v>
       </c>
       <c r="I111" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="J111" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="K111" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L111" t="s">
         <v>29</v>
       </c>
       <c r="M111">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N111" s="2">
-        <v>104.55</v>
+        <v>52.7</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
-        <v>45476</v>
+        <v>45477</v>
       </c>
       <c r="B112" t="s">
         <v>22</v>
       </c>
       <c r="C112" s="2">
-        <v>1412.5</v>
+        <v>1250</v>
       </c>
       <c r="D112" t="s">
         <v>23</v>
@@ -6013,25 +5999,25 @@
         <v>25</v>
       </c>
       <c r="H112">
-        <v>24250</v>
+        <v>24300</v>
       </c>
       <c r="I112" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="J112" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K112" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L112" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M112">
         <v>25</v>
       </c>
       <c r="N112" s="2">
-        <v>56.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.35">
@@ -6042,7 +6028,7 @@
         <v>22</v>
       </c>
       <c r="C113" s="2">
-        <v>3150</v>
+        <v>10455</v>
       </c>
       <c r="D113" t="s">
         <v>23</v>
@@ -6054,28 +6040,28 @@
         <v>22</v>
       </c>
       <c r="G113" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H113">
         <v>24250</v>
       </c>
       <c r="I113" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="J113" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K113" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L113" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M113">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N113" s="2">
-        <v>63</v>
+        <v>104.55</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.35">
@@ -6098,22 +6084,22 @@
         <v>22</v>
       </c>
       <c r="G114" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H114">
         <v>24250</v>
       </c>
       <c r="I114" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="J114" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K114" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="L114" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M114">
         <v>25</v>
@@ -6130,7 +6116,7 @@
         <v>22</v>
       </c>
       <c r="C115" s="2">
-        <v>1412.5</v>
+        <v>3150</v>
       </c>
       <c r="D115" t="s">
         <v>23</v>
@@ -6142,28 +6128,28 @@
         <v>22</v>
       </c>
       <c r="G115" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H115">
         <v>24250</v>
       </c>
       <c r="I115" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="J115" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="K115" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L115" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M115">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N115" s="2">
-        <v>56.5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.35">
@@ -6186,22 +6172,22 @@
         <v>22</v>
       </c>
       <c r="G116" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H116">
         <v>24250</v>
       </c>
       <c r="I116" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="J116" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="K116" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="L116" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M116">
         <v>25</v>
@@ -6230,22 +6216,22 @@
         <v>22</v>
       </c>
       <c r="G117" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H117">
         <v>24250</v>
       </c>
       <c r="I117" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="J117" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="K117" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="L117" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M117">
         <v>25</v>
@@ -6274,22 +6260,22 @@
         <v>22</v>
       </c>
       <c r="G118" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H118">
         <v>24250</v>
       </c>
       <c r="I118" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="J118" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="K118" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="L118" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M118">
         <v>25</v>
@@ -6300,13 +6286,13 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
-        <v>45475</v>
+        <v>45476</v>
       </c>
       <c r="B119" t="s">
         <v>22</v>
       </c>
       <c r="C119" s="2">
-        <v>5027.5</v>
+        <v>1412.5</v>
       </c>
       <c r="D119" t="s">
         <v>23</v>
@@ -6318,39 +6304,39 @@
         <v>22</v>
       </c>
       <c r="G119" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H119">
-        <v>24000</v>
+        <v>24250</v>
       </c>
       <c r="I119" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="J119" t="s">
+        <v>225</v>
+      </c>
+      <c r="K119" t="s">
         <v>219</v>
       </c>
-      <c r="K119" t="s">
-        <v>220</v>
-      </c>
       <c r="L119" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M119">
         <v>25</v>
       </c>
       <c r="N119" s="2">
-        <v>201.1</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
-        <v>45475</v>
+        <v>45476</v>
       </c>
       <c r="B120" t="s">
         <v>22</v>
       </c>
       <c r="C120" s="2">
-        <v>3508.75</v>
+        <v>1412.5</v>
       </c>
       <c r="D120" t="s">
         <v>23</v>
@@ -6362,28 +6348,28 @@
         <v>22</v>
       </c>
       <c r="G120" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H120">
-        <v>24150</v>
+        <v>24250</v>
       </c>
       <c r="I120" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="J120" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="K120" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L120" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M120">
         <v>25</v>
       </c>
       <c r="N120" s="2">
-        <v>140.35</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.35">
@@ -6394,7 +6380,7 @@
         <v>22</v>
       </c>
       <c r="C121" s="2">
-        <v>3125</v>
+        <v>5027.5</v>
       </c>
       <c r="D121" t="s">
         <v>23</v>
@@ -6409,16 +6395,16 @@
         <v>25</v>
       </c>
       <c r="H121">
-        <v>24150</v>
+        <v>24000</v>
       </c>
       <c r="I121" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="J121" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K121" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L121" t="s">
         <v>29</v>
@@ -6427,7 +6413,7 @@
         <v>25</v>
       </c>
       <c r="N121" s="2">
-        <v>125</v>
+        <v>201.1</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.35">
@@ -6438,7 +6424,7 @@
         <v>22</v>
       </c>
       <c r="C122" s="2">
-        <v>18155</v>
+        <v>3508.75</v>
       </c>
       <c r="D122" t="s">
         <v>23</v>
@@ -6450,28 +6436,28 @@
         <v>22</v>
       </c>
       <c r="G122" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H122">
-        <v>24000</v>
+        <v>24150</v>
       </c>
       <c r="I122" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="J122" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K122" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L122" t="s">
         <v>29</v>
       </c>
       <c r="M122">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N122" s="2">
-        <v>181.55</v>
+        <v>140.35</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.35">
@@ -6482,7 +6468,7 @@
         <v>22</v>
       </c>
       <c r="C123" s="2">
-        <v>5027.5</v>
+        <v>3125</v>
       </c>
       <c r="D123" t="s">
         <v>23</v>
@@ -6494,28 +6480,28 @@
         <v>22</v>
       </c>
       <c r="G123" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H123">
-        <v>24000</v>
+        <v>24150</v>
       </c>
       <c r="I123" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="J123" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K123" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="L123" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M123">
         <v>25</v>
       </c>
       <c r="N123" s="2">
-        <v>201.1</v>
+        <v>125</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.35">
@@ -6526,7 +6512,7 @@
         <v>22</v>
       </c>
       <c r="C124" s="2">
-        <v>10052.5</v>
+        <v>18155</v>
       </c>
       <c r="D124" t="s">
         <v>23</v>
@@ -6538,28 +6524,28 @@
         <v>22</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H124">
         <v>24000</v>
       </c>
       <c r="I124" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="J124" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="K124" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="L124" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M124">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N124" s="2">
-        <v>201.05</v>
+        <v>181.55</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.35">
@@ -6567,34 +6553,43 @@
         <v>45475</v>
       </c>
       <c r="B125" t="s">
-        <v>229</v>
+        <v>22</v>
       </c>
       <c r="C125" s="2">
-        <v>999.89</v>
+        <v>5027.5</v>
       </c>
       <c r="D125" t="s">
-        <v>230</v>
+        <v>23</v>
       </c>
       <c r="E125" t="s">
-        <v>231</v>
+        <v>24</v>
       </c>
       <c r="F125" t="s">
-        <v>232</v>
+        <v>22</v>
       </c>
       <c r="G125" t="s">
-        <v>231</v>
+        <v>25</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>24000</v>
+      </c>
+      <c r="I125" t="s">
+        <v>211</v>
+      </c>
+      <c r="J125" t="s">
+        <v>235</v>
+      </c>
+      <c r="K125" t="s">
+        <v>228</v>
       </c>
       <c r="L125" t="s">
         <v>29</v>
       </c>
       <c r="M125">
-        <v>2.2000000000000002</v>
+        <v>25</v>
       </c>
       <c r="N125" s="2">
-        <v>455.11</v>
+        <v>201.1</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.35">
@@ -6602,122 +6597,113 @@
         <v>45475</v>
       </c>
       <c r="B126" t="s">
-        <v>233</v>
+        <v>22</v>
       </c>
       <c r="C126" s="2">
-        <v>999.95</v>
+        <v>10052.5</v>
       </c>
       <c r="D126" t="s">
-        <v>230</v>
+        <v>23</v>
       </c>
       <c r="E126" t="s">
-        <v>231</v>
+        <v>24</v>
       </c>
       <c r="F126" t="s">
-        <v>234</v>
+        <v>22</v>
       </c>
       <c r="G126" t="s">
-        <v>231</v>
+        <v>25</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>24000</v>
+      </c>
+      <c r="I126" t="s">
+        <v>211</v>
+      </c>
+      <c r="J126" t="s">
+        <v>236</v>
+      </c>
+      <c r="K126" t="s">
+        <v>228</v>
       </c>
       <c r="L126" t="s">
         <v>29</v>
       </c>
       <c r="M126">
-        <v>19.29</v>
+        <v>50</v>
       </c>
       <c r="N126" s="2">
-        <v>51.84</v>
+        <v>201.05</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
-        <v>45474</v>
+        <v>45475</v>
       </c>
       <c r="B127" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C127" s="2">
-        <v>14373.75</v>
+        <v>999.89</v>
       </c>
       <c r="D127" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E127" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="F127" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="G127" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H127">
-        <v>24050</v>
-      </c>
-      <c r="I127" t="s">
-        <v>203</v>
-      </c>
-      <c r="J127" t="s">
-        <v>235</v>
-      </c>
-      <c r="K127" t="s">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="L127" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M127">
-        <v>75</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N127" s="2">
-        <v>191.65</v>
+        <v>455.11</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
-        <v>45474</v>
+        <v>45475</v>
       </c>
       <c r="B128" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C128" s="2">
-        <v>4792.5</v>
+        <v>999.95</v>
       </c>
       <c r="D128" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E128" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="F128" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="G128" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H128">
-        <v>24050</v>
-      </c>
-      <c r="I128" t="s">
-        <v>203</v>
-      </c>
-      <c r="J128" t="s">
-        <v>237</v>
-      </c>
-      <c r="K128" t="s">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="L128" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M128">
-        <v>25</v>
+        <v>19.29</v>
       </c>
       <c r="N128" s="2">
-        <v>191.7</v>
+        <v>51.84</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.35">
@@ -6728,7 +6714,7 @@
         <v>22</v>
       </c>
       <c r="C129" s="2">
-        <v>18285</v>
+        <v>14373.75</v>
       </c>
       <c r="D129" t="s">
         <v>23</v>
@@ -6740,39 +6726,39 @@
         <v>22</v>
       </c>
       <c r="G129" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H129">
         <v>24050</v>
       </c>
       <c r="I129" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="J129" t="s">
+        <v>237</v>
+      </c>
+      <c r="K129" t="s">
         <v>238</v>
-      </c>
-      <c r="K129" t="s">
-        <v>239</v>
       </c>
       <c r="L129" t="s">
         <v>29</v>
       </c>
       <c r="M129">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="N129" s="2">
-        <v>182.85</v>
+        <v>191.65</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
-        <v>45471</v>
+        <v>45474</v>
       </c>
       <c r="B130" t="s">
         <v>22</v>
       </c>
       <c r="C130" s="2">
-        <v>8500</v>
+        <v>4792.5</v>
       </c>
       <c r="D130" t="s">
         <v>23</v>
@@ -6784,39 +6770,39 @@
         <v>22</v>
       </c>
       <c r="G130" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H130">
-        <v>24100</v>
+        <v>24050</v>
       </c>
       <c r="I130" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="J130" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K130" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L130" t="s">
         <v>29</v>
       </c>
       <c r="M130">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N130" s="2">
-        <v>170</v>
+        <v>191.7</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
-        <v>45471</v>
+        <v>45474</v>
       </c>
       <c r="B131" t="s">
         <v>22</v>
       </c>
       <c r="C131" s="2">
-        <v>8500</v>
+        <v>18285</v>
       </c>
       <c r="D131" t="s">
         <v>23</v>
@@ -6828,28 +6814,28 @@
         <v>22</v>
       </c>
       <c r="G131" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H131">
-        <v>24100</v>
+        <v>24050</v>
       </c>
       <c r="I131" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="J131" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K131" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L131" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M131">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N131" s="2">
-        <v>170</v>
+        <v>182.85</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.35">
@@ -6860,7 +6846,7 @@
         <v>22</v>
       </c>
       <c r="C132" s="2">
-        <v>7250</v>
+        <v>8500</v>
       </c>
       <c r="D132" t="s">
         <v>23</v>
@@ -6872,28 +6858,28 @@
         <v>22</v>
       </c>
       <c r="G132" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H132">
         <v>24100</v>
       </c>
       <c r="I132" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="J132" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K132" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L132" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M132">
         <v>50</v>
       </c>
       <c r="N132" s="2">
-        <v>145</v>
+        <v>170</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.35">
@@ -6916,22 +6902,22 @@
         <v>22</v>
       </c>
       <c r="G133" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H133">
         <v>24100</v>
       </c>
       <c r="I133" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="J133" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K133" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L133" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M133">
         <v>50</v>
@@ -6942,13 +6928,13 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
-        <v>45470</v>
+        <v>45471</v>
       </c>
       <c r="B134" t="s">
         <v>22</v>
       </c>
       <c r="C134" s="2">
-        <v>8842.5</v>
+        <v>7250</v>
       </c>
       <c r="D134" t="s">
         <v>23</v>
@@ -6960,39 +6946,39 @@
         <v>22</v>
       </c>
       <c r="G134" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H134">
-        <v>23800</v>
+        <v>24100</v>
       </c>
       <c r="I134" t="s">
+        <v>211</v>
+      </c>
+      <c r="J134" t="s">
+        <v>246</v>
+      </c>
+      <c r="K134" t="s">
         <v>247</v>
       </c>
-      <c r="J134" t="s">
-        <v>248</v>
-      </c>
-      <c r="K134" t="s">
-        <v>249</v>
-      </c>
       <c r="L134" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M134">
         <v>50</v>
       </c>
       <c r="N134" s="2">
-        <v>176.85</v>
+        <v>145</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
-        <v>45470</v>
+        <v>45471</v>
       </c>
       <c r="B135" t="s">
         <v>22</v>
       </c>
       <c r="C135" s="2">
-        <v>8750</v>
+        <v>8500</v>
       </c>
       <c r="D135" t="s">
         <v>23</v>
@@ -7004,39 +6990,39 @@
         <v>22</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H135">
-        <v>23800</v>
+        <v>24100</v>
       </c>
       <c r="I135" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="J135" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K135" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L135" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M135">
         <v>50</v>
       </c>
       <c r="N135" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="B136" t="s">
         <v>22</v>
       </c>
       <c r="C136" s="2">
-        <v>6050</v>
+        <v>8842.5</v>
       </c>
       <c r="D136" t="s">
         <v>23</v>
@@ -7048,39 +7034,39 @@
         <v>22</v>
       </c>
       <c r="G136" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H136">
         <v>23800</v>
       </c>
       <c r="I136" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J136" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K136" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="L136" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M136">
         <v>50</v>
       </c>
       <c r="N136" s="2">
-        <v>121</v>
+        <v>176.85</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="B137" t="s">
         <v>22</v>
       </c>
       <c r="C137" s="2">
-        <v>10910</v>
+        <v>8750</v>
       </c>
       <c r="D137" t="s">
         <v>23</v>
@@ -7092,28 +7078,28 @@
         <v>22</v>
       </c>
       <c r="G137" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H137">
         <v>23800</v>
       </c>
       <c r="I137" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J137" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K137" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L137" t="s">
         <v>29</v>
       </c>
       <c r="M137">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N137" s="2">
-        <v>109.1</v>
+        <v>175</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.35">
@@ -7124,7 +7110,7 @@
         <v>22</v>
       </c>
       <c r="C138" s="2">
-        <v>3025</v>
+        <v>6050</v>
       </c>
       <c r="D138" t="s">
         <v>23</v>
@@ -7136,25 +7122,25 @@
         <v>22</v>
       </c>
       <c r="G138" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H138">
         <v>23800</v>
       </c>
       <c r="I138" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J138" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K138" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L138" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M138">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N138" s="2">
         <v>121</v>
@@ -7168,7 +7154,7 @@
         <v>22</v>
       </c>
       <c r="C139" s="2">
-        <v>12100</v>
+        <v>10910</v>
       </c>
       <c r="D139" t="s">
         <v>23</v>
@@ -7180,28 +7166,28 @@
         <v>22</v>
       </c>
       <c r="G139" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H139">
         <v>23800</v>
       </c>
       <c r="I139" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J139" t="s">
+        <v>256</v>
+      </c>
+      <c r="K139" t="s">
         <v>257</v>
       </c>
-      <c r="K139" t="s">
-        <v>258</v>
-      </c>
       <c r="L139" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M139">
         <v>100</v>
       </c>
       <c r="N139" s="2">
-        <v>121</v>
+        <v>109.1</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.35">
@@ -7224,22 +7210,22 @@
         <v>22</v>
       </c>
       <c r="G140" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H140">
         <v>23800</v>
       </c>
       <c r="I140" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J140" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K140" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L140" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M140">
         <v>25</v>
@@ -7250,13 +7236,13 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
-        <v>45468</v>
+        <v>45469</v>
       </c>
       <c r="B141" t="s">
         <v>22</v>
       </c>
       <c r="C141" s="2">
-        <v>12620</v>
+        <v>12100</v>
       </c>
       <c r="D141" t="s">
         <v>23</v>
@@ -7268,39 +7254,39 @@
         <v>22</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H141">
-        <v>23550</v>
+        <v>23800</v>
       </c>
       <c r="I141" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J141" t="s">
+        <v>259</v>
+      </c>
+      <c r="K141" t="s">
         <v>260</v>
       </c>
-      <c r="K141" t="s">
-        <v>261</v>
-      </c>
       <c r="L141" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M141">
         <v>100</v>
       </c>
       <c r="N141" s="2">
-        <v>126.2</v>
+        <v>121</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
-        <v>45468</v>
+        <v>45469</v>
       </c>
       <c r="B142" t="s">
         <v>22</v>
       </c>
       <c r="C142" s="2">
-        <v>12830</v>
+        <v>3025</v>
       </c>
       <c r="D142" t="s">
         <v>23</v>
@@ -7312,39 +7298,39 @@
         <v>22</v>
       </c>
       <c r="G142" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H142">
-        <v>23550</v>
+        <v>23800</v>
       </c>
       <c r="I142" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J142" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K142" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="L142" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M142">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N142" s="2">
-        <v>128.30000000000001</v>
+        <v>121</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
-        <v>45467</v>
+        <v>45468</v>
       </c>
       <c r="B143" t="s">
         <v>22</v>
       </c>
       <c r="C143" s="2">
-        <v>3440</v>
+        <v>12620</v>
       </c>
       <c r="D143" t="s">
         <v>23</v>
@@ -7362,33 +7348,33 @@
         <v>23550</v>
       </c>
       <c r="I143" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J143" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K143" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L143" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M143">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N143" s="2">
-        <v>137.6</v>
+        <v>126.2</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
-        <v>45467</v>
+        <v>45468</v>
       </c>
       <c r="B144" t="s">
         <v>22</v>
       </c>
       <c r="C144" s="2">
-        <v>3442.5</v>
+        <v>12830</v>
       </c>
       <c r="D144" t="s">
         <v>23</v>
@@ -7406,10 +7392,10 @@
         <v>23550</v>
       </c>
       <c r="I144" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J144" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K144" t="s">
         <v>265</v>
@@ -7418,10 +7404,10 @@
         <v>29</v>
       </c>
       <c r="M144">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N144" s="2">
-        <v>137.69999999999999</v>
+        <v>128.30000000000001</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.35">
@@ -7444,22 +7430,22 @@
         <v>22</v>
       </c>
       <c r="G145" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H145">
         <v>23550</v>
       </c>
       <c r="I145" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J145" t="s">
+        <v>266</v>
+      </c>
+      <c r="K145" t="s">
         <v>267</v>
       </c>
-      <c r="K145" t="s">
-        <v>265</v>
-      </c>
       <c r="L145" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M145">
         <v>25</v>
@@ -7476,7 +7462,7 @@
         <v>22</v>
       </c>
       <c r="C146" s="2">
-        <v>14095</v>
+        <v>3442.5</v>
       </c>
       <c r="D146" t="s">
         <v>23</v>
@@ -7488,28 +7474,28 @@
         <v>22</v>
       </c>
       <c r="G146" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H146">
         <v>23550</v>
       </c>
       <c r="I146" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J146" t="s">
         <v>268</v>
       </c>
       <c r="K146" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L146" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M146">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N146" s="2">
-        <v>140.94999999999999</v>
+        <v>137.69999999999999</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.35">
@@ -7532,22 +7518,22 @@
         <v>22</v>
       </c>
       <c r="G147" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H147">
         <v>23550</v>
       </c>
       <c r="I147" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J147" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K147" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L147" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M147">
         <v>25</v>
@@ -7558,13 +7544,13 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
-        <v>45464</v>
+        <v>45467</v>
       </c>
       <c r="B148" t="s">
         <v>22</v>
       </c>
       <c r="C148" s="2">
-        <v>3125</v>
+        <v>14095</v>
       </c>
       <c r="D148" t="s">
         <v>23</v>
@@ -7576,39 +7562,39 @@
         <v>22</v>
       </c>
       <c r="G148" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H148">
-        <v>23500</v>
+        <v>23550</v>
       </c>
       <c r="I148" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J148" t="s">
+        <v>270</v>
+      </c>
+      <c r="K148" t="s">
         <v>271</v>
-      </c>
-      <c r="K148" t="s">
-        <v>272</v>
       </c>
       <c r="L148" t="s">
         <v>29</v>
       </c>
       <c r="M148">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N148" s="2">
-        <v>125</v>
+        <v>140.94999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
-        <v>45464</v>
+        <v>45467</v>
       </c>
       <c r="B149" t="s">
         <v>22</v>
       </c>
       <c r="C149" s="2">
-        <v>11325</v>
+        <v>3440</v>
       </c>
       <c r="D149" t="s">
         <v>23</v>
@@ -7620,28 +7606,28 @@
         <v>22</v>
       </c>
       <c r="G149" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H149">
-        <v>23500</v>
+        <v>23550</v>
       </c>
       <c r="I149" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J149" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K149" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="L149" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M149">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N149" s="2">
-        <v>151</v>
+        <v>137.6</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.35">
@@ -7652,7 +7638,7 @@
         <v>22</v>
       </c>
       <c r="C150" s="2">
-        <v>3775</v>
+        <v>3125</v>
       </c>
       <c r="D150" t="s">
         <v>23</v>
@@ -7664,28 +7650,28 @@
         <v>22</v>
       </c>
       <c r="G150" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H150">
         <v>23500</v>
       </c>
       <c r="I150" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J150" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K150" t="s">
         <v>274</v>
       </c>
       <c r="L150" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M150">
         <v>25</v>
       </c>
       <c r="N150" s="2">
-        <v>151</v>
+        <v>125</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.35">
@@ -7696,7 +7682,7 @@
         <v>22</v>
       </c>
       <c r="C151" s="2">
-        <v>9375</v>
+        <v>11325</v>
       </c>
       <c r="D151" t="s">
         <v>23</v>
@@ -7708,19 +7694,19 @@
         <v>22</v>
       </c>
       <c r="G151" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H151">
         <v>23500</v>
       </c>
       <c r="I151" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J151" t="s">
+        <v>275</v>
+      </c>
+      <c r="K151" t="s">
         <v>276</v>
-      </c>
-      <c r="K151" t="s">
-        <v>272</v>
       </c>
       <c r="L151" t="s">
         <v>29</v>
@@ -7729,18 +7715,18 @@
         <v>75</v>
       </c>
       <c r="N151" s="2">
-        <v>125</v>
+        <v>151</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
-        <v>45463</v>
+        <v>45464</v>
       </c>
       <c r="B152" t="s">
         <v>22</v>
       </c>
       <c r="C152" s="2">
-        <v>3500</v>
+        <v>3775</v>
       </c>
       <c r="D152" t="s">
         <v>23</v>
@@ -7752,39 +7738,39 @@
         <v>22</v>
       </c>
       <c r="G152" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H152">
-        <v>23450</v>
+        <v>23500</v>
       </c>
       <c r="I152" t="s">
+        <v>249</v>
+      </c>
+      <c r="J152" t="s">
         <v>277</v>
       </c>
-      <c r="J152" t="s">
-        <v>278</v>
-      </c>
       <c r="K152" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L152" t="s">
         <v>29</v>
       </c>
       <c r="M152">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N152" s="2">
-        <v>70</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
-        <v>45463</v>
+        <v>45464</v>
       </c>
       <c r="B153" t="s">
         <v>22</v>
       </c>
       <c r="C153" s="2">
-        <v>750</v>
+        <v>9375</v>
       </c>
       <c r="D153" t="s">
         <v>23</v>
@@ -7796,28 +7782,28 @@
         <v>22</v>
       </c>
       <c r="G153" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H153">
-        <v>23650</v>
+        <v>23500</v>
       </c>
       <c r="I153" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="J153" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K153" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="L153" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M153">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N153" s="2">
-        <v>15</v>
+        <v>125</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.35">
@@ -7828,7 +7814,7 @@
         <v>22</v>
       </c>
       <c r="C154" s="2">
-        <v>375</v>
+        <v>3500</v>
       </c>
       <c r="D154" t="s">
         <v>23</v>
@@ -7840,28 +7826,28 @@
         <v>22</v>
       </c>
       <c r="G154" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H154">
-        <v>23650</v>
+        <v>23450</v>
       </c>
       <c r="I154" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J154" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K154" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L154" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M154">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N154" s="2">
-        <v>15</v>
+        <v>70</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.35">
@@ -7872,7 +7858,7 @@
         <v>22</v>
       </c>
       <c r="C155" s="2">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="D155" t="s">
         <v>23</v>
@@ -7884,28 +7870,28 @@
         <v>22</v>
       </c>
       <c r="G155" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H155">
         <v>23650</v>
       </c>
       <c r="I155" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J155" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K155" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L155" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M155">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N155" s="2">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.35">
@@ -7916,7 +7902,7 @@
         <v>22</v>
       </c>
       <c r="C156" s="2">
-        <v>1938.75</v>
+        <v>375</v>
       </c>
       <c r="D156" t="s">
         <v>23</v>
@@ -7928,28 +7914,28 @@
         <v>22</v>
       </c>
       <c r="G156" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H156">
-        <v>23450</v>
+        <v>23650</v>
       </c>
       <c r="I156" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J156" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K156" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="L156" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M156">
         <v>25</v>
       </c>
       <c r="N156" s="2">
-        <v>77.55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.35">
@@ -7960,7 +7946,7 @@
         <v>22</v>
       </c>
       <c r="C157" s="2">
-        <v>368.75</v>
+        <v>450</v>
       </c>
       <c r="D157" t="s">
         <v>23</v>
@@ -7972,28 +7958,28 @@
         <v>22</v>
       </c>
       <c r="G157" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H157">
         <v>23650</v>
       </c>
       <c r="I157" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J157" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K157" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L157" t="s">
         <v>29</v>
       </c>
       <c r="M157">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N157" s="2">
-        <v>14.75</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.35">
@@ -8004,7 +7990,7 @@
         <v>22</v>
       </c>
       <c r="C158" s="2">
-        <v>1106.25</v>
+        <v>1938.75</v>
       </c>
       <c r="D158" t="s">
         <v>23</v>
@@ -8016,16 +8002,16 @@
         <v>22</v>
       </c>
       <c r="G158" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H158">
-        <v>23650</v>
+        <v>23450</v>
       </c>
       <c r="I158" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J158" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K158" t="s">
         <v>289</v>
@@ -8034,10 +8020,10 @@
         <v>29</v>
       </c>
       <c r="M158">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N158" s="2">
-        <v>14.75</v>
+        <v>77.55</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.35">
@@ -8048,7 +8034,7 @@
         <v>22</v>
       </c>
       <c r="C159" s="2">
-        <v>627.5</v>
+        <v>368.75</v>
       </c>
       <c r="D159" t="s">
         <v>23</v>
@@ -8060,28 +8046,28 @@
         <v>22</v>
       </c>
       <c r="G159" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H159">
         <v>23650</v>
       </c>
       <c r="I159" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J159" t="s">
+        <v>290</v>
+      </c>
+      <c r="K159" t="s">
         <v>291</v>
       </c>
-      <c r="K159" t="s">
-        <v>292</v>
-      </c>
       <c r="L159" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M159">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N159" s="2">
-        <v>12.55</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.35">
@@ -8092,7 +8078,7 @@
         <v>22</v>
       </c>
       <c r="C160" s="2">
-        <v>682.5</v>
+        <v>1106.25</v>
       </c>
       <c r="D160" t="s">
         <v>23</v>
@@ -8104,28 +8090,28 @@
         <v>22</v>
       </c>
       <c r="G160" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H160">
         <v>23650</v>
       </c>
       <c r="I160" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J160" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K160" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="L160" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M160">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N160" s="2">
-        <v>13.65</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.35">
@@ -8136,7 +8122,7 @@
         <v>22</v>
       </c>
       <c r="C161" s="2">
-        <v>1938.75</v>
+        <v>627.5</v>
       </c>
       <c r="D161" t="s">
         <v>23</v>
@@ -8148,28 +8134,28 @@
         <v>22</v>
       </c>
       <c r="G161" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H161">
-        <v>23450</v>
+        <v>23650</v>
       </c>
       <c r="I161" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J161" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K161" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L161" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M161">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N161" s="2">
-        <v>77.55</v>
+        <v>12.55</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.35">
@@ -8180,7 +8166,7 @@
         <v>22</v>
       </c>
       <c r="C162" s="2">
-        <v>375</v>
+        <v>682.5</v>
       </c>
       <c r="D162" t="s">
         <v>23</v>
@@ -8192,28 +8178,28 @@
         <v>22</v>
       </c>
       <c r="G162" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H162">
         <v>23650</v>
       </c>
       <c r="I162" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J162" t="s">
+        <v>295</v>
+      </c>
+      <c r="K162" t="s">
         <v>296</v>
-      </c>
-      <c r="K162" t="s">
-        <v>283</v>
       </c>
       <c r="L162" t="s">
         <v>29</v>
       </c>
       <c r="M162">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N162" s="2">
-        <v>15</v>
+        <v>13.65</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.35">
@@ -8224,7 +8210,7 @@
         <v>22</v>
       </c>
       <c r="C163" s="2">
-        <v>150</v>
+        <v>1938.75</v>
       </c>
       <c r="D163" t="s">
         <v>23</v>
@@ -8236,39 +8222,39 @@
         <v>22</v>
       </c>
       <c r="G163" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H163">
-        <v>23650</v>
+        <v>23450</v>
       </c>
       <c r="I163" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J163" t="s">
         <v>297</v>
       </c>
       <c r="K163" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L163" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M163">
         <v>25</v>
       </c>
       <c r="N163" s="2">
-        <v>6</v>
+        <v>77.55</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
-        <v>45462</v>
+        <v>45463</v>
       </c>
       <c r="B164" t="s">
         <v>22</v>
       </c>
       <c r="C164" s="2">
-        <v>1875</v>
+        <v>375</v>
       </c>
       <c r="D164" t="s">
         <v>23</v>
@@ -8283,36 +8269,36 @@
         <v>25</v>
       </c>
       <c r="H164">
-        <v>23600</v>
+        <v>23650</v>
       </c>
       <c r="I164" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J164" t="s">
         <v>298</v>
       </c>
       <c r="K164" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="L164" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M164">
         <v>25</v>
       </c>
       <c r="N164" s="2">
-        <v>75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
-        <v>45462</v>
+        <v>45463</v>
       </c>
       <c r="B165" t="s">
         <v>22</v>
       </c>
       <c r="C165" s="2">
-        <v>750</v>
+        <v>150</v>
       </c>
       <c r="D165" t="s">
         <v>23</v>
@@ -8324,19 +8310,19 @@
         <v>22</v>
       </c>
       <c r="G165" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H165">
-        <v>23600</v>
+        <v>23650</v>
       </c>
       <c r="I165" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J165" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K165" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="L165" t="s">
         <v>29</v>
@@ -8345,7 +8331,7 @@
         <v>25</v>
       </c>
       <c r="N165" s="2">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.35">
@@ -8356,7 +8342,7 @@
         <v>22</v>
       </c>
       <c r="C166" s="2">
-        <v>2400</v>
+        <v>1875</v>
       </c>
       <c r="D166" t="s">
         <v>23</v>
@@ -8368,28 +8354,28 @@
         <v>22</v>
       </c>
       <c r="G166" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H166">
         <v>23600</v>
       </c>
       <c r="I166" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J166" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K166" t="s">
-        <v>87</v>
+        <v>301</v>
       </c>
       <c r="L166" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M166">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N166" s="2">
-        <v>48</v>
+        <v>75</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.35">
@@ -8400,7 +8386,7 @@
         <v>22</v>
       </c>
       <c r="C167" s="2">
-        <v>2500</v>
+        <v>750</v>
       </c>
       <c r="D167" t="s">
         <v>23</v>
@@ -8418,22 +8404,22 @@
         <v>23600</v>
       </c>
       <c r="I167" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J167" t="s">
+        <v>302</v>
+      </c>
+      <c r="K167" t="s">
         <v>303</v>
       </c>
-      <c r="K167" t="s">
-        <v>304</v>
-      </c>
       <c r="L167" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M167">
         <v>25</v>
       </c>
       <c r="N167" s="2">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.35">
@@ -8444,7 +8430,7 @@
         <v>22</v>
       </c>
       <c r="C168" s="2">
-        <v>1248.75</v>
+        <v>2400</v>
       </c>
       <c r="D168" t="s">
         <v>23</v>
@@ -8456,39 +8442,39 @@
         <v>22</v>
       </c>
       <c r="G168" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H168">
         <v>23600</v>
       </c>
       <c r="I168" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J168" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K168" t="s">
-        <v>306</v>
+        <v>95</v>
       </c>
       <c r="L168" t="s">
         <v>29</v>
       </c>
       <c r="M168">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N168" s="2">
-        <v>49.95</v>
+        <v>48</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
-        <v>45461</v>
+        <v>45462</v>
       </c>
       <c r="B169" t="s">
         <v>22</v>
       </c>
       <c r="C169" s="2">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="D169" t="s">
         <v>23</v>
@@ -8500,19 +8486,19 @@
         <v>22</v>
       </c>
       <c r="G169" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H169">
-        <v>23500</v>
+        <v>23600</v>
       </c>
       <c r="I169" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J169" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K169" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L169" t="s">
         <v>29</v>
@@ -8521,18 +8507,18 @@
         <v>25</v>
       </c>
       <c r="N169" s="2">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
-        <v>45461</v>
+        <v>45462</v>
       </c>
       <c r="B170" t="s">
         <v>22</v>
       </c>
       <c r="C170" s="2">
-        <v>3391.25</v>
+        <v>1248.75</v>
       </c>
       <c r="D170" t="s">
         <v>23</v>
@@ -8544,39 +8530,39 @@
         <v>22</v>
       </c>
       <c r="G170" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H170">
-        <v>23500</v>
+        <v>23600</v>
       </c>
       <c r="I170" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J170" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K170" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L170" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M170">
         <v>25</v>
       </c>
       <c r="N170" s="2">
-        <v>135.65</v>
+        <v>49.95</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
-        <v>45457</v>
+        <v>45461</v>
       </c>
       <c r="B171" t="s">
         <v>22</v>
       </c>
       <c r="C171" s="2">
-        <v>3117.5</v>
+        <v>3000</v>
       </c>
       <c r="D171" t="s">
         <v>23</v>
@@ -8591,36 +8577,36 @@
         <v>25</v>
       </c>
       <c r="H171">
-        <v>23450</v>
+        <v>23500</v>
       </c>
       <c r="I171" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J171" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K171" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="L171" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M171">
         <v>25</v>
       </c>
       <c r="N171" s="2">
-        <v>124.7</v>
+        <v>120</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
-        <v>45457</v>
+        <v>45461</v>
       </c>
       <c r="B172" t="s">
         <v>22</v>
       </c>
       <c r="C172" s="2">
-        <v>3200</v>
+        <v>3391.25</v>
       </c>
       <c r="D172" t="s">
         <v>23</v>
@@ -8635,77 +8621,80 @@
         <v>25</v>
       </c>
       <c r="H172">
-        <v>23450</v>
+        <v>23500</v>
       </c>
       <c r="I172" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J172" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K172" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="L172" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M172">
         <v>25</v>
       </c>
       <c r="N172" s="2">
-        <v>128</v>
+        <v>135.65</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
-        <v>45456</v>
+        <v>45457</v>
       </c>
       <c r="B173" t="s">
-        <v>315</v>
+        <v>22</v>
       </c>
       <c r="C173" s="2">
-        <v>3000</v>
+        <v>3117.5</v>
       </c>
       <c r="D173" t="s">
-        <v>316</v>
+        <v>23</v>
       </c>
       <c r="E173" t="s">
-        <v>317</v>
+        <v>24</v>
       </c>
       <c r="F173" t="s">
-        <v>318</v>
+        <v>22</v>
       </c>
       <c r="G173" t="s">
-        <v>319</v>
+        <v>30</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>23450</v>
+      </c>
+      <c r="I173" t="s">
+        <v>279</v>
       </c>
       <c r="J173" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="K173" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="L173" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M173">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="N173" s="2">
-        <v>1500</v>
+        <v>124.7</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
-        <v>45456</v>
+        <v>45457</v>
       </c>
       <c r="B174" t="s">
         <v>22</v>
       </c>
       <c r="C174" s="2">
-        <v>1547.5</v>
+        <v>3200</v>
       </c>
       <c r="D174" t="s">
         <v>23</v>
@@ -8717,28 +8706,28 @@
         <v>22</v>
       </c>
       <c r="G174" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H174">
-        <v>23350</v>
+        <v>23450</v>
       </c>
       <c r="I174" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="J174" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="K174" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="L174" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M174">
         <v>25</v>
       </c>
       <c r="N174" s="2">
-        <v>61.9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.35">
@@ -8746,177 +8735,262 @@
         <v>45456</v>
       </c>
       <c r="B175" t="s">
-        <v>22</v>
+        <v>317</v>
       </c>
       <c r="C175" s="2">
-        <v>1475</v>
+        <v>3000</v>
       </c>
       <c r="D175" t="s">
-        <v>23</v>
+        <v>318</v>
       </c>
       <c r="E175" t="s">
-        <v>24</v>
+        <v>319</v>
       </c>
       <c r="F175" t="s">
-        <v>22</v>
+        <v>320</v>
       </c>
       <c r="G175" t="s">
-        <v>35</v>
+        <v>321</v>
       </c>
       <c r="H175">
-        <v>23350</v>
-      </c>
-      <c r="I175" t="s">
+        <v>0</v>
+      </c>
+      <c r="J175" t="s">
         <v>322</v>
       </c>
-      <c r="J175" t="s">
-        <v>325</v>
-      </c>
       <c r="K175" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="L175" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M175">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="N175" s="2">
-        <v>59</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
-        <v>45447</v>
+        <v>45456</v>
       </c>
       <c r="B176" t="s">
-        <v>327</v>
+        <v>22</v>
       </c>
       <c r="C176" s="2">
-        <v>2688.6</v>
+        <v>1547.5</v>
       </c>
       <c r="D176" t="s">
-        <v>316</v>
+        <v>23</v>
       </c>
       <c r="E176" t="s">
-        <v>317</v>
+        <v>24</v>
       </c>
       <c r="F176" t="s">
-        <v>328</v>
+        <v>22</v>
       </c>
       <c r="G176" t="s">
-        <v>319</v>
+        <v>25</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>23350</v>
+      </c>
+      <c r="I176" t="s">
+        <v>324</v>
       </c>
       <c r="J176" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K176" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L176" t="s">
         <v>29</v>
       </c>
       <c r="M176">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="N176" s="2">
-        <v>896.2</v>
+        <v>61.9</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
-        <v>45436</v>
+        <v>45456</v>
       </c>
       <c r="B177" t="s">
-        <v>229</v>
+        <v>22</v>
       </c>
       <c r="C177" s="2">
-        <v>999.75</v>
+        <v>1475</v>
       </c>
       <c r="D177" t="s">
-        <v>230</v>
+        <v>23</v>
       </c>
       <c r="E177" t="s">
-        <v>231</v>
+        <v>24</v>
       </c>
       <c r="F177" t="s">
-        <v>232</v>
+        <v>22</v>
       </c>
       <c r="G177" t="s">
-        <v>231</v>
+        <v>25</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>23350</v>
+      </c>
+      <c r="I177" t="s">
+        <v>324</v>
+      </c>
+      <c r="J177" t="s">
+        <v>327</v>
+      </c>
+      <c r="K177" t="s">
+        <v>328</v>
       </c>
       <c r="L177" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M177">
-        <v>2.33</v>
+        <v>25</v>
       </c>
       <c r="N177" s="2">
-        <v>428.89</v>
+        <v>59</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
-        <v>45436</v>
+        <v>45447</v>
       </c>
       <c r="B178" t="s">
-        <v>233</v>
+        <v>329</v>
       </c>
       <c r="C178" s="2">
-        <v>999.95</v>
+        <v>2688.6</v>
       </c>
       <c r="D178" t="s">
-        <v>230</v>
+        <v>318</v>
       </c>
       <c r="E178" t="s">
-        <v>231</v>
+        <v>319</v>
       </c>
       <c r="F178" t="s">
-        <v>234</v>
+        <v>330</v>
       </c>
       <c r="G178" t="s">
-        <v>231</v>
+        <v>321</v>
       </c>
       <c r="H178">
         <v>0</v>
       </c>
+      <c r="J178" t="s">
+        <v>331</v>
+      </c>
+      <c r="K178" t="s">
+        <v>332</v>
+      </c>
       <c r="L178" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M178">
+        <v>3</v>
+      </c>
+      <c r="N178" s="2">
+        <v>896.2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A179" s="1">
+        <v>45436</v>
+      </c>
+      <c r="B179" t="s">
+        <v>42</v>
+      </c>
+      <c r="C179" s="2">
+        <v>999.75</v>
+      </c>
+      <c r="D179" t="s">
+        <v>43</v>
+      </c>
+      <c r="E179" t="s">
+        <v>44</v>
+      </c>
+      <c r="F179" t="s">
+        <v>45</v>
+      </c>
+      <c r="G179" t="s">
+        <v>44</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="L179" t="s">
+        <v>33</v>
+      </c>
+      <c r="M179">
+        <v>2.33</v>
+      </c>
+      <c r="N179" s="2">
+        <v>428.89</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A180" s="1">
+        <v>45436</v>
+      </c>
+      <c r="B180" t="s">
+        <v>46</v>
+      </c>
+      <c r="C180" s="2">
+        <v>999.95</v>
+      </c>
+      <c r="D180" t="s">
+        <v>43</v>
+      </c>
+      <c r="E180" t="s">
+        <v>44</v>
+      </c>
+      <c r="F180" t="s">
+        <v>47</v>
+      </c>
+      <c r="G180" t="s">
+        <v>44</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="L180" t="s">
+        <v>33</v>
+      </c>
+      <c r="M180">
         <v>20.51</v>
       </c>
-      <c r="N178" s="2">
+      <c r="N180" s="2">
         <v>48.77</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A184" s="3"/>
-      <c r="B184" s="3"/>
-      <c r="C184" s="3"/>
-      <c r="D184" s="3"/>
-      <c r="E184" s="3"/>
-      <c r="F184" s="3"/>
-      <c r="G184" s="3"/>
-      <c r="H184" s="3"/>
-      <c r="I184" s="3"/>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
-        <v>331</v>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A186" s="3"/>
+      <c r="B186" s="3"/>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3"/>
+      <c r="E186" s="3"/>
+      <c r="F186" s="3"/>
+      <c r="G186" s="3"/>
+      <c r="H186" s="3"/>
+      <c r="I186" s="3"/>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A184:I184"/>
+    <mergeCell ref="A186:I186"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DATA/SOURCE/TradeHistory/trade_2425.xlsx
+++ b/DATA/SOURCE/TradeHistory/trade_2425.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prashant.tripathi\Code\Upstox\DATA\SOURCE\TradeHistory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prashant.tripathi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5F2E03-B311-4E82-B2AC-1FE265DAE09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267DB8E2-469A-4AEB-88EA-A607EBB80B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="334">
   <si>
     <t>UPSTOX SECURITIES PRIVATE LIMITED</t>
   </si>
@@ -100,21 +100,228 @@
     <t>European Call</t>
   </si>
   <si>
+    <t>08-08-2024</t>
+  </si>
+  <si>
+    <t>81049361</t>
+  </si>
+  <si>
+    <t>09:32:11</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>European Put</t>
+  </si>
+  <si>
+    <t>722796247</t>
+  </si>
+  <si>
+    <t>12:21:59</t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
+    <t>723739017</t>
+  </si>
+  <si>
+    <t>14:07:07</t>
+  </si>
+  <si>
+    <t>723930970</t>
+  </si>
+  <si>
+    <t>14:21:35</t>
+  </si>
+  <si>
+    <t>74513776</t>
+  </si>
+  <si>
+    <t>15:07:27</t>
+  </si>
+  <si>
+    <t>723045193</t>
+  </si>
+  <si>
+    <t>12:36:48</t>
+  </si>
+  <si>
+    <t>SBI Magnum Tax Gain Scheme - D</t>
+  </si>
+  <si>
+    <t>BMF</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>F200K01UM9</t>
+  </si>
+  <si>
+    <t>MIRAE ASSET TAX SAVER FUND - D</t>
+  </si>
+  <si>
+    <t>F769K01DM9</t>
+  </si>
+  <si>
     <t>01-08-2024</t>
   </si>
   <si>
+    <t>804411169</t>
+  </si>
+  <si>
+    <t>14:34:46</t>
+  </si>
+  <si>
+    <t>27171054</t>
+  </si>
+  <si>
+    <t>15:20:10</t>
+  </si>
+  <si>
+    <t>27171056</t>
+  </si>
+  <si>
+    <t>19476734</t>
+  </si>
+  <si>
+    <t>14:35:26</t>
+  </si>
+  <si>
+    <t>807945454</t>
+  </si>
+  <si>
+    <t>27171055</t>
+  </si>
+  <si>
+    <t>792255384</t>
+  </si>
+  <si>
+    <t>11:19:46</t>
+  </si>
+  <si>
+    <t>723553329</t>
+  </si>
+  <si>
+    <t>14:32:42</t>
+  </si>
+  <si>
+    <t>794379260</t>
+  </si>
+  <si>
+    <t>14:45:44</t>
+  </si>
+  <si>
+    <t>723844793</t>
+  </si>
+  <si>
+    <t>14:59:38</t>
+  </si>
+  <si>
+    <t>818285939</t>
+  </si>
+  <si>
+    <t>15:28:35</t>
+  </si>
+  <si>
+    <t>818285940</t>
+  </si>
+  <si>
+    <t>85738066</t>
+  </si>
+  <si>
+    <t>13:19:08</t>
+  </si>
+  <si>
+    <t>79594358</t>
+  </si>
+  <si>
+    <t>11:14:37</t>
+  </si>
+  <si>
+    <t>84937258</t>
+  </si>
+  <si>
+    <t>13:11:20</t>
+  </si>
+  <si>
+    <t>84937257</t>
+  </si>
+  <si>
+    <t>81006934</t>
+  </si>
+  <si>
+    <t>11:45:42</t>
+  </si>
+  <si>
+    <t>813701062</t>
+  </si>
+  <si>
+    <t>15:09:20</t>
+  </si>
+  <si>
+    <t>5972358</t>
+  </si>
+  <si>
+    <t>13:15:18</t>
+  </si>
+  <si>
+    <t>722225834</t>
+  </si>
+  <si>
+    <t>11:00:02</t>
+  </si>
+  <si>
+    <t>792659383</t>
+  </si>
+  <si>
+    <t>11:23:25</t>
+  </si>
+  <si>
+    <t>2595023</t>
+  </si>
+  <si>
+    <t>11:04:10</t>
+  </si>
+  <si>
+    <t>722225833</t>
+  </si>
+  <si>
+    <t>791956376</t>
+  </si>
+  <si>
+    <t>10:38:24</t>
+  </si>
+  <si>
+    <t>4039758</t>
+  </si>
+  <si>
+    <t>12:10:20</t>
+  </si>
+  <si>
+    <t>792659382</t>
+  </si>
+  <si>
+    <t>722834343</t>
+  </si>
+  <si>
+    <t>11:42:42</t>
+  </si>
+  <si>
+    <t>3926417</t>
+  </si>
+  <si>
+    <t>12:06:50</t>
+  </si>
+  <si>
     <t>4217907</t>
   </si>
   <si>
     <t>13:22:36</t>
   </si>
   <si>
-    <t>Sell</t>
-  </si>
-  <si>
-    <t>European Put</t>
-  </si>
-  <si>
     <t>722380207</t>
   </si>
   <si>
@@ -127,9 +334,6 @@
     <t>12:20:50</t>
   </si>
   <si>
-    <t>Buy</t>
-  </si>
-  <si>
     <t>721927809</t>
   </si>
   <si>
@@ -529,24 +733,6 @@
     <t>16763278</t>
   </si>
   <si>
-    <t>SBI Magnum Tax Gain Scheme - D</t>
-  </si>
-  <si>
-    <t>BMF</t>
-  </si>
-  <si>
-    <t>MF</t>
-  </si>
-  <si>
-    <t>F200K01UM9</t>
-  </si>
-  <si>
-    <t>MIRAE ASSET TAX SAVER FUND - D</t>
-  </si>
-  <si>
-    <t>F769K01DM9</t>
-  </si>
-  <si>
     <t>4170069</t>
   </si>
   <si>
@@ -749,9 +935,6 @@
   </si>
   <si>
     <t>3288934</t>
-  </si>
-  <si>
-    <t>11:42:42</t>
   </si>
   <si>
     <t>720539128</t>
@@ -1217,10 +1400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N151"/>
+  <dimension ref="A1:N187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="H148" sqref="H148"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E184" sqref="E184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1325,13 +1508,13 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>45499</v>
+        <v>45509</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="2">
-        <v>7125</v>
+        <v>750</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1346,7 +1529,7 @@
         <v>25</v>
       </c>
       <c r="H10">
-        <v>24600</v>
+        <v>24700</v>
       </c>
       <c r="I10" t="s">
         <v>26</v>
@@ -1364,18 +1547,18 @@
         <v>25</v>
       </c>
       <c r="N10" s="2">
-        <v>285</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="2">
-        <v>2653.75</v>
+        <v>4000</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1390,7 +1573,7 @@
         <v>30</v>
       </c>
       <c r="H11">
-        <v>24650</v>
+        <v>24800</v>
       </c>
       <c r="I11" t="s">
         <v>26</v>
@@ -1402,24 +1585,24 @@
         <v>32</v>
       </c>
       <c r="L11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M11">
         <v>25</v>
       </c>
       <c r="N11" s="2">
-        <v>106.15</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="2">
-        <v>4767.5</v>
+        <v>4150</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
@@ -1431,39 +1614,39 @@
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H12">
-        <v>24600</v>
+        <v>24800</v>
       </c>
       <c r="I12" t="s">
         <v>26</v>
       </c>
       <c r="J12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" t="s">
         <v>33</v>
       </c>
-      <c r="K12" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" t="s">
-        <v>35</v>
-      </c>
       <c r="M12">
         <v>25</v>
       </c>
       <c r="N12" s="2">
-        <v>190.7</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="2">
-        <v>3450</v>
+        <v>4196.25</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
@@ -1478,7 +1661,7 @@
         <v>30</v>
       </c>
       <c r="H13">
-        <v>24650</v>
+        <v>24800</v>
       </c>
       <c r="I13" t="s">
         <v>26</v>
@@ -1490,24 +1673,24 @@
         <v>37</v>
       </c>
       <c r="L13" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M13">
         <v>25</v>
       </c>
       <c r="N13" s="2">
-        <v>138</v>
+        <v>167.85</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>45496</v>
+        <v>45506</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="2">
-        <v>5445</v>
+        <v>3500</v>
       </c>
       <c r="D14" t="s">
         <v>23</v>
@@ -1522,36 +1705,36 @@
         <v>25</v>
       </c>
       <c r="H14">
-        <v>24500</v>
+        <v>24700</v>
       </c>
       <c r="I14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" t="s">
         <v>38</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>39</v>
       </c>
-      <c r="K14" t="s">
-        <v>40</v>
-      </c>
       <c r="L14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M14">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N14" s="2">
-        <v>108.9</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>45496</v>
+        <v>45506</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="2">
-        <v>2722.5</v>
+        <v>4443.75</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -1563,19 +1746,19 @@
         <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H15">
-        <v>24500</v>
+        <v>24800</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" t="s">
         <v>41</v>
-      </c>
-      <c r="K15" t="s">
-        <v>40</v>
       </c>
       <c r="L15" t="s">
         <v>29</v>
@@ -1584,106 +1767,88 @@
         <v>25</v>
       </c>
       <c r="N15" s="2">
-        <v>108.9</v>
+        <v>177.75</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>45496</v>
+        <v>45506</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2">
-        <v>10265</v>
+        <v>999.86</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="H16">
-        <v>24500</v>
-      </c>
-      <c r="I16" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" t="s">
-        <v>42</v>
-      </c>
-      <c r="K16" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M16">
-        <v>50</v>
+        <v>2.11</v>
       </c>
       <c r="N16" s="2">
-        <v>205.3</v>
+        <v>474.32</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>45496</v>
+        <v>45506</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2">
-        <v>2723.75</v>
+        <v>999.94</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="H17">
-        <v>24500</v>
-      </c>
-      <c r="I17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J17" t="s">
-        <v>44</v>
-      </c>
-      <c r="K17" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M17">
-        <v>25</v>
+        <v>18.61</v>
       </c>
       <c r="N17" s="2">
-        <v>108.95</v>
+        <v>53.74</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>45496</v>
+        <v>45505</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="2">
-        <v>10267.5</v>
+        <v>875</v>
       </c>
       <c r="D18" t="s">
         <v>23</v>
@@ -1695,39 +1860,39 @@
         <v>22</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H18">
-        <v>24500</v>
+        <v>24950</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J18" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K18" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M18">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="N18" s="2">
-        <v>205.35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>45495</v>
+        <v>45505</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="2">
-        <v>19020</v>
+        <v>320</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
@@ -1739,39 +1904,39 @@
         <v>22</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H19">
-        <v>24600</v>
+        <v>25000</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K19" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L19" t="s">
         <v>29</v>
       </c>
       <c r="M19">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N19" s="2">
-        <v>253.6</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>45495</v>
+        <v>45505</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="2">
-        <v>18911.25</v>
+        <v>960</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1783,39 +1948,39 @@
         <v>22</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H20">
-        <v>24600</v>
+        <v>25000</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J20" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K20" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M20">
         <v>75</v>
       </c>
       <c r="N20" s="2">
-        <v>252.15</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>45491</v>
+        <v>45505</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="2">
-        <v>4000</v>
+        <v>875</v>
       </c>
       <c r="D21" t="s">
         <v>23</v>
@@ -1830,36 +1995,36 @@
         <v>25</v>
       </c>
       <c r="H21">
-        <v>24650</v>
+        <v>25000</v>
       </c>
       <c r="I21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J21" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K21" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M21">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="N21" s="2">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>45491</v>
+        <v>45505</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="2">
-        <v>8710</v>
+        <v>6.25</v>
       </c>
       <c r="D22" t="s">
         <v>23</v>
@@ -1871,39 +2036,39 @@
         <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H22">
-        <v>24600</v>
+        <v>24950</v>
       </c>
       <c r="I22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J22" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L22" t="s">
         <v>29</v>
       </c>
       <c r="M22">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="N22" s="2">
-        <v>87.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>45491</v>
+        <v>45505</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="2">
-        <v>5000</v>
+        <v>320</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1918,36 +2083,36 @@
         <v>25</v>
       </c>
       <c r="H23">
-        <v>24650</v>
+        <v>25000</v>
       </c>
       <c r="I23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L23" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N23" s="2">
-        <v>50</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>45491</v>
+        <v>45504</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="2">
-        <v>300</v>
+        <v>2471.25</v>
       </c>
       <c r="D24" t="s">
         <v>23</v>
@@ -1962,36 +2127,36 @@
         <v>30</v>
       </c>
       <c r="H24">
-        <v>24650</v>
+        <v>24950</v>
       </c>
       <c r="I24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M24">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N24" s="2">
-        <v>3</v>
+        <v>98.85</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>45491</v>
+        <v>45504</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="2">
-        <v>2822.5</v>
+        <v>2436.25</v>
       </c>
       <c r="D25" t="s">
         <v>23</v>
@@ -2003,39 +2168,39 @@
         <v>22</v>
       </c>
       <c r="G25" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H25">
-        <v>24650</v>
+        <v>25000</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L25" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M25">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N25" s="2">
-        <v>56.45</v>
+        <v>97.45</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>45491</v>
+        <v>45504</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="2">
-        <v>4965</v>
+        <v>2136.25</v>
       </c>
       <c r="D26" t="s">
         <v>23</v>
@@ -2047,39 +2212,39 @@
         <v>22</v>
       </c>
       <c r="G26" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H26">
-        <v>24600</v>
+        <v>24950</v>
       </c>
       <c r="I26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L26" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N26" s="2">
-        <v>49.65</v>
+        <v>85.45</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>45491</v>
+        <v>45504</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="2">
-        <v>3512.5</v>
+        <v>2613.75</v>
       </c>
       <c r="D27" t="s">
         <v>23</v>
@@ -2094,36 +2259,36 @@
         <v>30</v>
       </c>
       <c r="H27">
-        <v>24650</v>
+        <v>25000</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L27" t="s">
         <v>29</v>
       </c>
       <c r="M27">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N27" s="2">
-        <v>70.25</v>
+        <v>104.55</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>45491</v>
+        <v>45503</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="2">
-        <v>5100</v>
+        <v>2568.75</v>
       </c>
       <c r="D28" t="s">
         <v>23</v>
@@ -2135,39 +2300,39 @@
         <v>22</v>
       </c>
       <c r="G28" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H28">
-        <v>24650</v>
+        <v>24900</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L28" t="s">
         <v>29</v>
       </c>
       <c r="M28">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N28" s="2">
-        <v>51</v>
+        <v>102.75</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>45491</v>
+        <v>45503</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="2">
-        <v>1715</v>
+        <v>2568.75</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
@@ -2179,39 +2344,39 @@
         <v>22</v>
       </c>
       <c r="G29" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H29">
-        <v>24650</v>
+        <v>24900</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J29" t="s">
+        <v>68</v>
+      </c>
+      <c r="K29" t="s">
         <v>67</v>
       </c>
-      <c r="K29" t="s">
-        <v>68</v>
-      </c>
       <c r="L29" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N29" s="2">
-        <v>17.149999999999999</v>
+        <v>102.75</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>45489</v>
+        <v>45503</v>
       </c>
       <c r="B30" t="s">
         <v>22</v>
       </c>
       <c r="C30" s="2">
-        <v>1752.5</v>
+        <v>4250</v>
       </c>
       <c r="D30" t="s">
         <v>23</v>
@@ -2226,10 +2391,10 @@
         <v>25</v>
       </c>
       <c r="H30">
-        <v>24650</v>
+        <v>24950</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J30" t="s">
         <v>69</v>
@@ -2238,24 +2403,24 @@
         <v>70</v>
       </c>
       <c r="L30" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N30" s="2">
-        <v>70.099999999999994</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>45489</v>
+        <v>45503</v>
       </c>
       <c r="B31" t="s">
         <v>22</v>
       </c>
       <c r="C31" s="2">
-        <v>1941.25</v>
+        <v>1400</v>
       </c>
       <c r="D31" t="s">
         <v>23</v>
@@ -2267,39 +2432,39 @@
         <v>22</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H31">
-        <v>24650</v>
+        <v>25150</v>
       </c>
       <c r="I31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J31" t="s">
         <v>71</v>
       </c>
       <c r="K31" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M31">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N31" s="2">
-        <v>77.650000000000006</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>45489</v>
+        <v>45503</v>
       </c>
       <c r="B32" t="s">
         <v>22</v>
       </c>
       <c r="C32" s="2">
-        <v>1942.5</v>
+        <v>2625</v>
       </c>
       <c r="D32" t="s">
         <v>23</v>
@@ -2311,39 +2476,39 @@
         <v>22</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H32">
-        <v>24650</v>
+        <v>24950</v>
       </c>
       <c r="I32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K32" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M32">
         <v>25</v>
       </c>
       <c r="N32" s="2">
-        <v>77.7</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>45489</v>
+        <v>45503</v>
       </c>
       <c r="B33" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="2">
-        <v>1751.25</v>
+        <v>2625</v>
       </c>
       <c r="D33" t="s">
         <v>23</v>
@@ -2358,36 +2523,36 @@
         <v>25</v>
       </c>
       <c r="H33">
-        <v>24650</v>
+        <v>24950</v>
       </c>
       <c r="I33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J33" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K33" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M33">
         <v>25</v>
       </c>
       <c r="N33" s="2">
-        <v>70.05</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>45488</v>
+        <v>45503</v>
       </c>
       <c r="B34" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="2">
-        <v>5787.5</v>
+        <v>1435</v>
       </c>
       <c r="D34" t="s">
         <v>23</v>
@@ -2399,19 +2564,19 @@
         <v>22</v>
       </c>
       <c r="G34" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H34">
-        <v>24650</v>
+        <v>25150</v>
       </c>
       <c r="I34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J34" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K34" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L34" t="s">
         <v>29</v>
@@ -2420,18 +2585,18 @@
         <v>50</v>
       </c>
       <c r="N34" s="2">
-        <v>115.75</v>
+        <v>28.7</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>45488</v>
+        <v>45503</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
       </c>
       <c r="C35" s="2">
-        <v>5762.5</v>
+        <v>5097.5</v>
       </c>
       <c r="D35" t="s">
         <v>23</v>
@@ -2446,36 +2611,36 @@
         <v>30</v>
       </c>
       <c r="H35">
-        <v>24650</v>
+        <v>24900</v>
       </c>
       <c r="I35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J35" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K35" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M35">
         <v>50</v>
       </c>
       <c r="N35" s="2">
-        <v>115.25</v>
+        <v>101.95</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>45484</v>
+        <v>45502</v>
       </c>
       <c r="B36" t="s">
         <v>22</v>
       </c>
       <c r="C36" s="2">
-        <v>1601.25</v>
+        <v>4950</v>
       </c>
       <c r="D36" t="s">
         <v>23</v>
@@ -2490,16 +2655,16 @@
         <v>25</v>
       </c>
       <c r="H36">
-        <v>24350</v>
+        <v>25000</v>
       </c>
       <c r="I36" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="J36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L36" t="s">
         <v>29</v>
@@ -2508,18 +2673,18 @@
         <v>75</v>
       </c>
       <c r="N36" s="2">
-        <v>21.35</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>45484</v>
+        <v>45502</v>
       </c>
       <c r="B37" t="s">
         <v>22</v>
       </c>
       <c r="C37" s="2">
-        <v>4000</v>
+        <v>600</v>
       </c>
       <c r="D37" t="s">
         <v>23</v>
@@ -2531,39 +2696,39 @@
         <v>22</v>
       </c>
       <c r="G37" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H37">
-        <v>24350</v>
+        <v>24450</v>
       </c>
       <c r="I37" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="J37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M37">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N37" s="2">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>45484</v>
+        <v>45502</v>
       </c>
       <c r="B38" t="s">
         <v>22</v>
       </c>
       <c r="C38" s="2">
-        <v>107.5</v>
+        <v>4192.5</v>
       </c>
       <c r="D38" t="s">
         <v>23</v>
@@ -2575,39 +2740,39 @@
         <v>22</v>
       </c>
       <c r="G38" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H38">
-        <v>24400</v>
+        <v>24900</v>
       </c>
       <c r="I38" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="J38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L38" t="s">
         <v>29</v>
       </c>
       <c r="M38">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N38" s="2">
-        <v>4.3</v>
+        <v>83.85</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>45484</v>
+        <v>45502</v>
       </c>
       <c r="B39" t="s">
         <v>22</v>
       </c>
       <c r="C39" s="2">
-        <v>351.25</v>
+        <v>900</v>
       </c>
       <c r="D39" t="s">
         <v>23</v>
@@ -2622,36 +2787,36 @@
         <v>25</v>
       </c>
       <c r="H39">
-        <v>24300</v>
+        <v>25400</v>
       </c>
       <c r="I39" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="J39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K39" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M39">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N39" s="2">
-        <v>14.05</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>45484</v>
+        <v>45502</v>
       </c>
       <c r="B40" t="s">
         <v>22</v>
       </c>
       <c r="C40" s="2">
-        <v>62.5</v>
+        <v>300</v>
       </c>
       <c r="D40" t="s">
         <v>23</v>
@@ -2663,39 +2828,39 @@
         <v>22</v>
       </c>
       <c r="G40" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H40">
-        <v>24400</v>
+        <v>24450</v>
       </c>
       <c r="I40" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="J40" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K40" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L40" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M40">
         <v>25</v>
       </c>
       <c r="N40" s="2">
-        <v>2.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>45484</v>
+        <v>45502</v>
       </c>
       <c r="B41" t="s">
         <v>22</v>
       </c>
       <c r="C41" s="2">
-        <v>2668.75</v>
+        <v>9375</v>
       </c>
       <c r="D41" t="s">
         <v>23</v>
@@ -2707,39 +2872,39 @@
         <v>22</v>
       </c>
       <c r="G41" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H41">
-        <v>24350</v>
+        <v>24900</v>
       </c>
       <c r="I41" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="J41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K41" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="L41" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M41">
+        <v>75</v>
+      </c>
+      <c r="N41" s="2">
         <v>125</v>
-      </c>
-      <c r="N41" s="2">
-        <v>21.35</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>45484</v>
+        <v>45502</v>
       </c>
       <c r="B42" t="s">
         <v>22</v>
       </c>
       <c r="C42" s="2">
-        <v>498.75</v>
+        <v>7500</v>
       </c>
       <c r="D42" t="s">
         <v>23</v>
@@ -2754,36 +2919,36 @@
         <v>25</v>
       </c>
       <c r="H42">
-        <v>24300</v>
+        <v>25000</v>
       </c>
       <c r="I42" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="J42" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K42" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L42" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M42">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N42" s="2">
-        <v>19.95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>45484</v>
+        <v>45502</v>
       </c>
       <c r="B43" t="s">
         <v>22</v>
       </c>
       <c r="C43" s="2">
-        <v>1493.75</v>
+        <v>2097.5</v>
       </c>
       <c r="D43" t="s">
         <v>23</v>
@@ -2795,39 +2960,39 @@
         <v>22</v>
       </c>
       <c r="G43" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H43">
-        <v>24350</v>
+        <v>24900</v>
       </c>
       <c r="I43" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="J43" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K43" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L43" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M43">
         <v>25</v>
       </c>
       <c r="N43" s="2">
-        <v>59.75</v>
+        <v>83.9</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>45484</v>
+        <v>45502</v>
       </c>
       <c r="B44" t="s">
         <v>22</v>
       </c>
       <c r="C44" s="2">
-        <v>2987.5</v>
+        <v>783.75</v>
       </c>
       <c r="D44" t="s">
         <v>23</v>
@@ -2839,39 +3004,39 @@
         <v>22</v>
       </c>
       <c r="G44" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H44">
-        <v>24350</v>
+        <v>24450</v>
       </c>
       <c r="I44" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="J44" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K44" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L44" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M44">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N44" s="2">
-        <v>59.75</v>
+        <v>10.45</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>45484</v>
+        <v>45502</v>
       </c>
       <c r="B45" t="s">
         <v>22</v>
       </c>
       <c r="C45" s="2">
-        <v>1493.75</v>
+        <v>1035</v>
       </c>
       <c r="D45" t="s">
         <v>23</v>
@@ -2886,36 +3051,36 @@
         <v>25</v>
       </c>
       <c r="H45">
-        <v>24350</v>
+        <v>25400</v>
       </c>
       <c r="I45" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="J45" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K45" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="L45" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M45">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N45" s="2">
-        <v>59.75</v>
+        <v>10.35</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>45483</v>
+        <v>45499</v>
       </c>
       <c r="B46" t="s">
         <v>22</v>
       </c>
       <c r="C46" s="2">
-        <v>13792.5</v>
+        <v>7125</v>
       </c>
       <c r="D46" t="s">
         <v>23</v>
@@ -2930,36 +3095,36 @@
         <v>25</v>
       </c>
       <c r="H46">
-        <v>24100</v>
+        <v>24600</v>
       </c>
       <c r="I46" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="J46" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K46" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L46" t="s">
         <v>29</v>
       </c>
       <c r="M46">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N46" s="2">
-        <v>183.9</v>
+        <v>285</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>45483</v>
+        <v>45499</v>
       </c>
       <c r="B47" t="s">
         <v>22</v>
       </c>
       <c r="C47" s="2">
-        <v>16700</v>
+        <v>2653.75</v>
       </c>
       <c r="D47" t="s">
         <v>23</v>
@@ -2971,39 +3136,39 @@
         <v>22</v>
       </c>
       <c r="G47" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H47">
-        <v>24100</v>
+        <v>24650</v>
       </c>
       <c r="I47" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="J47" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K47" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L47" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M47">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N47" s="2">
-        <v>167</v>
+        <v>106.15</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>45483</v>
+        <v>45499</v>
       </c>
       <c r="B48" t="s">
         <v>22</v>
       </c>
       <c r="C48" s="2">
-        <v>4596.25</v>
+        <v>4767.5</v>
       </c>
       <c r="D48" t="s">
         <v>23</v>
@@ -3018,36 +3183,36 @@
         <v>25</v>
       </c>
       <c r="H48">
-        <v>24100</v>
+        <v>24600</v>
       </c>
       <c r="I48" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="J48" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K48" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L48" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M48">
         <v>25</v>
       </c>
       <c r="N48" s="2">
-        <v>183.85</v>
+        <v>190.7</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>45482</v>
+        <v>45499</v>
       </c>
       <c r="B49" t="s">
         <v>22</v>
       </c>
       <c r="C49" s="2">
-        <v>6041.25</v>
+        <v>3450</v>
       </c>
       <c r="D49" t="s">
         <v>23</v>
@@ -3062,36 +3227,36 @@
         <v>30</v>
       </c>
       <c r="H49">
-        <v>24350</v>
+        <v>24650</v>
       </c>
       <c r="I49" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="J49" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K49" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L49" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M49">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N49" s="2">
-        <v>80.55</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>45482</v>
+        <v>45496</v>
       </c>
       <c r="B50" t="s">
         <v>22</v>
       </c>
       <c r="C50" s="2">
-        <v>3437.5</v>
+        <v>5445</v>
       </c>
       <c r="D50" t="s">
         <v>23</v>
@@ -3106,36 +3271,36 @@
         <v>25</v>
       </c>
       <c r="H50">
-        <v>24300</v>
+        <v>24500</v>
       </c>
       <c r="I50" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="J50" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K50" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="L50" t="s">
         <v>29</v>
       </c>
       <c r="M50">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N50" s="2">
-        <v>137.5</v>
+        <v>108.9</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>45482</v>
+        <v>45496</v>
       </c>
       <c r="B51" t="s">
         <v>22</v>
       </c>
       <c r="C51" s="2">
-        <v>5855</v>
+        <v>2722.5</v>
       </c>
       <c r="D51" t="s">
         <v>23</v>
@@ -3150,36 +3315,36 @@
         <v>25</v>
       </c>
       <c r="H51">
-        <v>24400</v>
+        <v>24500</v>
       </c>
       <c r="I51" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="J51" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="K51" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L51" t="s">
         <v>29</v>
       </c>
       <c r="M51">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N51" s="2">
-        <v>117.1</v>
+        <v>108.9</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>45482</v>
+        <v>45496</v>
       </c>
       <c r="B52" t="s">
         <v>22</v>
       </c>
       <c r="C52" s="2">
-        <v>2225</v>
+        <v>10265</v>
       </c>
       <c r="D52" t="s">
         <v>23</v>
@@ -3194,36 +3359,36 @@
         <v>25</v>
       </c>
       <c r="H52">
-        <v>24400</v>
+        <v>24500</v>
       </c>
       <c r="I52" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="J52" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K52" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L52" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M52">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N52" s="2">
-        <v>89</v>
+        <v>205.3</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>45482</v>
+        <v>45496</v>
       </c>
       <c r="B53" t="s">
         <v>22</v>
       </c>
       <c r="C53" s="2">
-        <v>8030</v>
+        <v>2723.75</v>
       </c>
       <c r="D53" t="s">
         <v>23</v>
@@ -3235,39 +3400,39 @@
         <v>22</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H53">
-        <v>24350</v>
+        <v>24500</v>
       </c>
       <c r="I53" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="J53" t="s">
+        <v>112</v>
+      </c>
+      <c r="K53" t="s">
         <v>108</v>
       </c>
-      <c r="K53" t="s">
-        <v>109</v>
-      </c>
       <c r="L53" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M53">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N53" s="2">
-        <v>80.3</v>
+        <v>108.95</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>45482</v>
+        <v>45496</v>
       </c>
       <c r="B54" t="s">
         <v>22</v>
       </c>
       <c r="C54" s="2">
-        <v>2013.75</v>
+        <v>10267.5</v>
       </c>
       <c r="D54" t="s">
         <v>23</v>
@@ -3279,39 +3444,39 @@
         <v>22</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H54">
-        <v>24350</v>
+        <v>24500</v>
       </c>
       <c r="I54" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="J54" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K54" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="L54" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M54">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N54" s="2">
-        <v>80.55</v>
+        <v>205.35</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>45482</v>
+        <v>45495</v>
       </c>
       <c r="B55" t="s">
         <v>22</v>
       </c>
       <c r="C55" s="2">
-        <v>14545</v>
+        <v>19020</v>
       </c>
       <c r="D55" t="s">
         <v>23</v>
@@ -3323,39 +3488,39 @@
         <v>22</v>
       </c>
       <c r="G55" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H55">
-        <v>24300</v>
+        <v>24600</v>
       </c>
       <c r="I55" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="J55" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K55" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L55" t="s">
         <v>29</v>
       </c>
       <c r="M55">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="N55" s="2">
-        <v>145.44999999999999</v>
+        <v>253.6</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>45482</v>
+        <v>45495</v>
       </c>
       <c r="B56" t="s">
         <v>22</v>
       </c>
       <c r="C56" s="2">
-        <v>3436.25</v>
+        <v>18911.25</v>
       </c>
       <c r="D56" t="s">
         <v>23</v>
@@ -3367,39 +3532,39 @@
         <v>22</v>
       </c>
       <c r="G56" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H56">
-        <v>24300</v>
+        <v>24600</v>
       </c>
       <c r="I56" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="J56" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K56" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="L56" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M56">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N56" s="2">
-        <v>137.44999999999999</v>
+        <v>252.15</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>45482</v>
+        <v>45491</v>
       </c>
       <c r="B57" t="s">
         <v>22</v>
       </c>
       <c r="C57" s="2">
-        <v>11710</v>
+        <v>4000</v>
       </c>
       <c r="D57" t="s">
         <v>23</v>
@@ -3414,16 +3579,16 @@
         <v>25</v>
       </c>
       <c r="H57">
-        <v>24400</v>
+        <v>24650</v>
       </c>
       <c r="I57" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="J57" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K57" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="L57" t="s">
         <v>29</v>
@@ -3432,18 +3597,18 @@
         <v>100</v>
       </c>
       <c r="N57" s="2">
-        <v>117.1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>45482</v>
+        <v>45491</v>
       </c>
       <c r="B58" t="s">
         <v>22</v>
       </c>
       <c r="C58" s="2">
-        <v>14000</v>
+        <v>8710</v>
       </c>
       <c r="D58" t="s">
         <v>23</v>
@@ -3458,36 +3623,36 @@
         <v>25</v>
       </c>
       <c r="H58">
-        <v>24300</v>
+        <v>24600</v>
       </c>
       <c r="I58" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="J58" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="K58" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="L58" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M58">
         <v>100</v>
       </c>
       <c r="N58" s="2">
-        <v>140</v>
+        <v>87.1</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>45482</v>
+        <v>45491</v>
       </c>
       <c r="B59" t="s">
         <v>22</v>
       </c>
       <c r="C59" s="2">
-        <v>11125</v>
+        <v>5000</v>
       </c>
       <c r="D59" t="s">
         <v>23</v>
@@ -3502,36 +3667,36 @@
         <v>25</v>
       </c>
       <c r="H59">
-        <v>24400</v>
+        <v>24650</v>
       </c>
       <c r="I59" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="J59" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K59" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="L59" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M59">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="N59" s="2">
-        <v>89</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>45482</v>
+        <v>45491</v>
       </c>
       <c r="B60" t="s">
         <v>22</v>
       </c>
       <c r="C60" s="2">
-        <v>6877.5</v>
+        <v>300</v>
       </c>
       <c r="D60" t="s">
         <v>23</v>
@@ -3543,39 +3708,39 @@
         <v>22</v>
       </c>
       <c r="G60" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H60">
-        <v>24300</v>
+        <v>24650</v>
       </c>
       <c r="I60" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="J60" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="K60" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="L60" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M60">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N60" s="2">
-        <v>137.55000000000001</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>45481</v>
+        <v>45491</v>
       </c>
       <c r="B61" t="s">
         <v>22</v>
       </c>
       <c r="C61" s="2">
-        <v>12000</v>
+        <v>2822.5</v>
       </c>
       <c r="D61" t="s">
         <v>23</v>
@@ -3590,36 +3755,36 @@
         <v>25</v>
       </c>
       <c r="H61">
-        <v>24300</v>
+        <v>24650</v>
       </c>
       <c r="I61" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="J61" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="K61" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="L61" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M61">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N61" s="2">
-        <v>120</v>
+        <v>56.45</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>45478</v>
+        <v>45491</v>
       </c>
       <c r="B62" t="s">
         <v>22</v>
       </c>
       <c r="C62" s="2">
-        <v>6000</v>
+        <v>4965</v>
       </c>
       <c r="D62" t="s">
         <v>23</v>
@@ -3631,39 +3796,39 @@
         <v>22</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H62">
-        <v>24300</v>
+        <v>24600</v>
       </c>
       <c r="I62" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="J62" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="K62" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="L62" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M62">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N62" s="2">
-        <v>120</v>
+        <v>49.65</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>45478</v>
+        <v>45491</v>
       </c>
       <c r="B63" t="s">
         <v>22</v>
       </c>
       <c r="C63" s="2">
-        <v>3028.75</v>
+        <v>3512.5</v>
       </c>
       <c r="D63" t="s">
         <v>23</v>
@@ -3678,36 +3843,36 @@
         <v>30</v>
       </c>
       <c r="H63">
-        <v>24300</v>
+        <v>24650</v>
       </c>
       <c r="I63" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="J63" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="K63" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="L63" t="s">
         <v>29</v>
       </c>
       <c r="M63">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N63" s="2">
-        <v>121.15</v>
+        <v>70.25</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>45478</v>
+        <v>45491</v>
       </c>
       <c r="B64" t="s">
         <v>22</v>
       </c>
       <c r="C64" s="2">
-        <v>9250</v>
+        <v>5100</v>
       </c>
       <c r="D64" t="s">
         <v>23</v>
@@ -3722,36 +3887,36 @@
         <v>25</v>
       </c>
       <c r="H64">
-        <v>24250</v>
+        <v>24650</v>
       </c>
       <c r="I64" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="J64" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="K64" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="L64" t="s">
         <v>29</v>
       </c>
       <c r="M64">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N64" s="2">
-        <v>185</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>45478</v>
+        <v>45491</v>
       </c>
       <c r="B65" t="s">
         <v>22</v>
       </c>
       <c r="C65" s="2">
-        <v>3028.75</v>
+        <v>1715</v>
       </c>
       <c r="D65" t="s">
         <v>23</v>
@@ -3763,39 +3928,39 @@
         <v>22</v>
       </c>
       <c r="G65" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H65">
-        <v>24300</v>
+        <v>24650</v>
       </c>
       <c r="I65" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="J65" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="K65" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="L65" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M65">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N65" s="2">
-        <v>121.15</v>
+        <v>17.149999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>45478</v>
+        <v>45489</v>
       </c>
       <c r="B66" t="s">
         <v>22</v>
       </c>
       <c r="C66" s="2">
-        <v>8812.5</v>
+        <v>1752.5</v>
       </c>
       <c r="D66" t="s">
         <v>23</v>
@@ -3810,36 +3975,36 @@
         <v>25</v>
       </c>
       <c r="H66">
-        <v>24200</v>
+        <v>24650</v>
       </c>
       <c r="I66" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="J66" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="K66" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="L66" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M66">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N66" s="2">
-        <v>176.25</v>
+        <v>70.099999999999994</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>45478</v>
+        <v>45489</v>
       </c>
       <c r="B67" t="s">
         <v>22</v>
       </c>
       <c r="C67" s="2">
-        <v>2978.75</v>
+        <v>1941.25</v>
       </c>
       <c r="D67" t="s">
         <v>23</v>
@@ -3854,36 +4019,36 @@
         <v>30</v>
       </c>
       <c r="H67">
-        <v>24300</v>
+        <v>24650</v>
       </c>
       <c r="I67" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="J67" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="K67" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="L67" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M67">
         <v>25</v>
       </c>
       <c r="N67" s="2">
-        <v>119.15</v>
+        <v>77.650000000000006</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>45478</v>
+        <v>45489</v>
       </c>
       <c r="B68" t="s">
         <v>22</v>
       </c>
       <c r="C68" s="2">
-        <v>6057.5</v>
+        <v>1942.5</v>
       </c>
       <c r="D68" t="s">
         <v>23</v>
@@ -3898,36 +4063,36 @@
         <v>30</v>
       </c>
       <c r="H68">
-        <v>24300</v>
+        <v>24650</v>
       </c>
       <c r="I68" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="J68" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="K68" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="L68" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M68">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N68" s="2">
-        <v>121.15</v>
+        <v>77.7</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>45478</v>
+        <v>45489</v>
       </c>
       <c r="B69" t="s">
         <v>22</v>
       </c>
       <c r="C69" s="2">
-        <v>8415</v>
+        <v>1751.25</v>
       </c>
       <c r="D69" t="s">
         <v>23</v>
@@ -3942,36 +4107,36 @@
         <v>25</v>
       </c>
       <c r="H69">
-        <v>24200</v>
+        <v>24650</v>
       </c>
       <c r="I69" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="J69" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="K69" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L69" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M69">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N69" s="2">
-        <v>168.3</v>
+        <v>70.05</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>45478</v>
+        <v>45488</v>
       </c>
       <c r="B70" t="s">
         <v>22</v>
       </c>
       <c r="C70" s="2">
-        <v>1258.75</v>
+        <v>5787.5</v>
       </c>
       <c r="D70" t="s">
         <v>23</v>
@@ -3986,36 +4151,36 @@
         <v>30</v>
       </c>
       <c r="H70">
-        <v>24000</v>
+        <v>24650</v>
       </c>
       <c r="I70" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="J70" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="K70" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="L70" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M70">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N70" s="2">
-        <v>50.35</v>
+        <v>115.75</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>45478</v>
+        <v>45488</v>
       </c>
       <c r="B71" t="s">
         <v>22</v>
       </c>
       <c r="C71" s="2">
-        <v>4625</v>
+        <v>5762.5</v>
       </c>
       <c r="D71" t="s">
         <v>23</v>
@@ -4027,39 +4192,39 @@
         <v>22</v>
       </c>
       <c r="G71" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H71">
-        <v>24250</v>
+        <v>24650</v>
       </c>
       <c r="I71" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="J71" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="K71" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="L71" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M71">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N71" s="2">
-        <v>185</v>
+        <v>115.25</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>45478</v>
+        <v>45484</v>
       </c>
       <c r="B72" t="s">
         <v>22</v>
       </c>
       <c r="C72" s="2">
-        <v>2978.75</v>
+        <v>1601.25</v>
       </c>
       <c r="D72" t="s">
         <v>23</v>
@@ -4071,39 +4236,39 @@
         <v>22</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H72">
-        <v>24300</v>
+        <v>24350</v>
       </c>
       <c r="I72" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="J72" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="K72" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="L72" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M72">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N72" s="2">
-        <v>119.15</v>
+        <v>21.35</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>45478</v>
+        <v>45484</v>
       </c>
       <c r="B73" t="s">
         <v>22</v>
       </c>
       <c r="C73" s="2">
-        <v>12195</v>
+        <v>4000</v>
       </c>
       <c r="D73" t="s">
         <v>23</v>
@@ -4118,36 +4283,36 @@
         <v>25</v>
       </c>
       <c r="H73">
-        <v>24250</v>
+        <v>24350</v>
       </c>
       <c r="I73" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="J73" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="K73" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="L73" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M73">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="N73" s="2">
-        <v>162.6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>45478</v>
+        <v>45484</v>
       </c>
       <c r="B74" t="s">
         <v>22</v>
       </c>
       <c r="C74" s="2">
-        <v>1437.5</v>
+        <v>107.5</v>
       </c>
       <c r="D74" t="s">
         <v>23</v>
@@ -4159,19 +4324,19 @@
         <v>22</v>
       </c>
       <c r="G74" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H74">
-        <v>24000</v>
+        <v>24400</v>
       </c>
       <c r="I74" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="J74" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="K74" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="L74" t="s">
         <v>29</v>
@@ -4180,18 +4345,18 @@
         <v>25</v>
       </c>
       <c r="N74" s="2">
-        <v>57.5</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>45477</v>
+        <v>45484</v>
       </c>
       <c r="B75" t="s">
         <v>22</v>
       </c>
       <c r="C75" s="2">
-        <v>1317.5</v>
+        <v>351.25</v>
       </c>
       <c r="D75" t="s">
         <v>23</v>
@@ -4209,33 +4374,33 @@
         <v>24300</v>
       </c>
       <c r="I75" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J75" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="K75" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="L75" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M75">
         <v>25</v>
       </c>
       <c r="N75" s="2">
-        <v>52.7</v>
+        <v>14.05</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>45477</v>
+        <v>45484</v>
       </c>
       <c r="B76" t="s">
         <v>22</v>
       </c>
       <c r="C76" s="2">
-        <v>1250</v>
+        <v>62.5</v>
       </c>
       <c r="D76" t="s">
         <v>23</v>
@@ -4250,36 +4415,36 @@
         <v>25</v>
       </c>
       <c r="H76">
-        <v>24300</v>
+        <v>24400</v>
       </c>
       <c r="I76" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J76" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="K76" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="L76" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M76">
         <v>25</v>
       </c>
       <c r="N76" s="2">
-        <v>50</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>45476</v>
+        <v>45484</v>
       </c>
       <c r="B77" t="s">
         <v>22</v>
       </c>
       <c r="C77" s="2">
-        <v>10455</v>
+        <v>2668.75</v>
       </c>
       <c r="D77" t="s">
         <v>23</v>
@@ -4291,39 +4456,39 @@
         <v>22</v>
       </c>
       <c r="G77" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H77">
-        <v>24250</v>
+        <v>24350</v>
       </c>
       <c r="I77" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J77" t="s">
+        <v>156</v>
+      </c>
+      <c r="K77" t="s">
         <v>148</v>
       </c>
-      <c r="K77" t="s">
-        <v>149</v>
-      </c>
       <c r="L77" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M77">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="N77" s="2">
-        <v>104.55</v>
+        <v>21.35</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>45476</v>
+        <v>45484</v>
       </c>
       <c r="B78" t="s">
         <v>22</v>
       </c>
       <c r="C78" s="2">
-        <v>1412.5</v>
+        <v>498.75</v>
       </c>
       <c r="D78" t="s">
         <v>23</v>
@@ -4335,19 +4500,19 @@
         <v>22</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H78">
-        <v>24250</v>
+        <v>24300</v>
       </c>
       <c r="I78" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J78" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="K78" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="L78" t="s">
         <v>29</v>
@@ -4356,18 +4521,18 @@
         <v>25</v>
       </c>
       <c r="N78" s="2">
-        <v>56.5</v>
+        <v>19.95</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>45476</v>
+        <v>45484</v>
       </c>
       <c r="B79" t="s">
         <v>22</v>
       </c>
       <c r="C79" s="2">
-        <v>3150</v>
+        <v>1493.75</v>
       </c>
       <c r="D79" t="s">
         <v>23</v>
@@ -4379,39 +4544,39 @@
         <v>22</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H79">
-        <v>24250</v>
+        <v>24350</v>
       </c>
       <c r="I79" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J79" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="K79" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="L79" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M79">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N79" s="2">
-        <v>63</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>45476</v>
+        <v>45484</v>
       </c>
       <c r="B80" t="s">
         <v>22</v>
       </c>
       <c r="C80" s="2">
-        <v>1412.5</v>
+        <v>2987.5</v>
       </c>
       <c r="D80" t="s">
         <v>23</v>
@@ -4423,39 +4588,39 @@
         <v>22</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H80">
-        <v>24250</v>
+        <v>24350</v>
       </c>
       <c r="I80" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J80" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="K80" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L80" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M80">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N80" s="2">
-        <v>56.5</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>45476</v>
+        <v>45484</v>
       </c>
       <c r="B81" t="s">
         <v>22</v>
       </c>
       <c r="C81" s="2">
-        <v>1412.5</v>
+        <v>1493.75</v>
       </c>
       <c r="D81" t="s">
         <v>23</v>
@@ -4467,39 +4632,39 @@
         <v>22</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H81">
-        <v>24250</v>
+        <v>24350</v>
       </c>
       <c r="I81" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J81" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="K81" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L81" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M81">
         <v>25</v>
       </c>
       <c r="N81" s="2">
-        <v>56.5</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>45476</v>
+        <v>45483</v>
       </c>
       <c r="B82" t="s">
         <v>22</v>
       </c>
       <c r="C82" s="2">
-        <v>1412.5</v>
+        <v>13792.5</v>
       </c>
       <c r="D82" t="s">
         <v>23</v>
@@ -4511,39 +4676,39 @@
         <v>22</v>
       </c>
       <c r="G82" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H82">
-        <v>24250</v>
+        <v>24100</v>
       </c>
       <c r="I82" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J82" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="K82" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="L82" t="s">
         <v>29</v>
       </c>
       <c r="M82">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N82" s="2">
-        <v>56.5</v>
+        <v>183.9</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>45476</v>
+        <v>45483</v>
       </c>
       <c r="B83" t="s">
         <v>22</v>
       </c>
       <c r="C83" s="2">
-        <v>1412.5</v>
+        <v>16700</v>
       </c>
       <c r="D83" t="s">
         <v>23</v>
@@ -4555,39 +4720,39 @@
         <v>22</v>
       </c>
       <c r="G83" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H83">
-        <v>24250</v>
+        <v>24100</v>
       </c>
       <c r="I83" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J83" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K83" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="L83" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M83">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N83" s="2">
-        <v>56.5</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>45476</v>
+        <v>45483</v>
       </c>
       <c r="B84" t="s">
         <v>22</v>
       </c>
       <c r="C84" s="2">
-        <v>1412.5</v>
+        <v>4596.25</v>
       </c>
       <c r="D84" t="s">
         <v>23</v>
@@ -4599,19 +4764,19 @@
         <v>22</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H84">
-        <v>24250</v>
+        <v>24100</v>
       </c>
       <c r="I84" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J84" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="K84" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="L84" t="s">
         <v>29</v>
@@ -4620,18 +4785,18 @@
         <v>25</v>
       </c>
       <c r="N84" s="2">
-        <v>56.5</v>
+        <v>183.85</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>45475</v>
+        <v>45482</v>
       </c>
       <c r="B85" t="s">
         <v>22</v>
       </c>
       <c r="C85" s="2">
-        <v>5027.5</v>
+        <v>6041.25</v>
       </c>
       <c r="D85" t="s">
         <v>23</v>
@@ -4643,39 +4808,39 @@
         <v>22</v>
       </c>
       <c r="G85" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H85">
-        <v>24000</v>
+        <v>24350</v>
       </c>
       <c r="I85" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J85" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="K85" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L85" t="s">
         <v>29</v>
       </c>
       <c r="M85">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N85" s="2">
-        <v>201.1</v>
+        <v>80.55</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>45475</v>
+        <v>45482</v>
       </c>
       <c r="B86" t="s">
         <v>22</v>
       </c>
       <c r="C86" s="2">
-        <v>3508.75</v>
+        <v>3437.5</v>
       </c>
       <c r="D86" t="s">
         <v>23</v>
@@ -4687,19 +4852,19 @@
         <v>22</v>
       </c>
       <c r="G86" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H86">
-        <v>24150</v>
+        <v>24300</v>
       </c>
       <c r="I86" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J86" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="K86" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="L86" t="s">
         <v>29</v>
@@ -4708,18 +4873,18 @@
         <v>25</v>
       </c>
       <c r="N86" s="2">
-        <v>140.35</v>
+        <v>137.5</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>45475</v>
+        <v>45482</v>
       </c>
       <c r="B87" t="s">
         <v>22</v>
       </c>
       <c r="C87" s="2">
-        <v>3125</v>
+        <v>5855</v>
       </c>
       <c r="D87" t="s">
         <v>23</v>
@@ -4731,39 +4896,39 @@
         <v>22</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H87">
-        <v>24150</v>
+        <v>24400</v>
       </c>
       <c r="I87" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J87" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="K87" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="L87" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M87">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N87" s="2">
-        <v>125</v>
+        <v>117.1</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>45475</v>
+        <v>45482</v>
       </c>
       <c r="B88" t="s">
         <v>22</v>
       </c>
       <c r="C88" s="2">
-        <v>18155</v>
+        <v>2225</v>
       </c>
       <c r="D88" t="s">
         <v>23</v>
@@ -4778,36 +4943,36 @@
         <v>25</v>
       </c>
       <c r="H88">
-        <v>24000</v>
+        <v>24400</v>
       </c>
       <c r="I88" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J88" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="K88" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="L88" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M88">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N88" s="2">
-        <v>181.55</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>45475</v>
+        <v>45482</v>
       </c>
       <c r="B89" t="s">
         <v>22</v>
       </c>
       <c r="C89" s="2">
-        <v>5027.5</v>
+        <v>8030</v>
       </c>
       <c r="D89" t="s">
         <v>23</v>
@@ -4819,39 +4984,39 @@
         <v>22</v>
       </c>
       <c r="G89" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H89">
-        <v>24000</v>
+        <v>24350</v>
       </c>
       <c r="I89" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J89" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="K89" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="L89" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M89">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N89" s="2">
-        <v>201.1</v>
+        <v>80.3</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>45475</v>
+        <v>45482</v>
       </c>
       <c r="B90" t="s">
         <v>22</v>
       </c>
       <c r="C90" s="2">
-        <v>10052.5</v>
+        <v>2013.75</v>
       </c>
       <c r="D90" t="s">
         <v>23</v>
@@ -4863,109 +5028,127 @@
         <v>22</v>
       </c>
       <c r="G90" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H90">
-        <v>24000</v>
+        <v>24350</v>
       </c>
       <c r="I90" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J90" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="K90" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L90" t="s">
         <v>29</v>
       </c>
       <c r="M90">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N90" s="2">
-        <v>201.05</v>
+        <v>80.55</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>45475</v>
+        <v>45482</v>
       </c>
       <c r="B91" t="s">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="C91" s="2">
-        <v>999.89</v>
+        <v>14545</v>
       </c>
       <c r="D91" t="s">
-        <v>170</v>
+        <v>23</v>
       </c>
       <c r="E91" t="s">
-        <v>171</v>
+        <v>24</v>
       </c>
       <c r="F91" t="s">
-        <v>172</v>
+        <v>22</v>
       </c>
       <c r="G91" t="s">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>24300</v>
+      </c>
+      <c r="I91" t="s">
+        <v>146</v>
+      </c>
+      <c r="J91" t="s">
+        <v>179</v>
+      </c>
+      <c r="K91" t="s">
+        <v>180</v>
       </c>
       <c r="L91" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M91">
-        <v>2.2000000000000002</v>
+        <v>100</v>
       </c>
       <c r="N91" s="2">
-        <v>455.11</v>
+        <v>145.44999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>45475</v>
+        <v>45482</v>
       </c>
       <c r="B92" t="s">
-        <v>173</v>
+        <v>22</v>
       </c>
       <c r="C92" s="2">
-        <v>999.95</v>
+        <v>3436.25</v>
       </c>
       <c r="D92" t="s">
-        <v>170</v>
+        <v>23</v>
       </c>
       <c r="E92" t="s">
+        <v>24</v>
+      </c>
+      <c r="F92" t="s">
+        <v>22</v>
+      </c>
+      <c r="G92" t="s">
+        <v>25</v>
+      </c>
+      <c r="H92">
+        <v>24300</v>
+      </c>
+      <c r="I92" t="s">
+        <v>146</v>
+      </c>
+      <c r="J92" t="s">
+        <v>181</v>
+      </c>
+      <c r="K92" t="s">
         <v>171</v>
       </c>
-      <c r="F92" t="s">
-        <v>174</v>
-      </c>
-      <c r="G92" t="s">
-        <v>171</v>
-      </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
       <c r="L92" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M92">
-        <v>19.29</v>
+        <v>25</v>
       </c>
       <c r="N92" s="2">
-        <v>51.84</v>
+        <v>137.44999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>45474</v>
+        <v>45482</v>
       </c>
       <c r="B93" t="s">
         <v>22</v>
       </c>
       <c r="C93" s="2">
-        <v>14373.75</v>
+        <v>11710</v>
       </c>
       <c r="D93" t="s">
         <v>23</v>
@@ -4980,36 +5163,36 @@
         <v>25</v>
       </c>
       <c r="H93">
-        <v>24050</v>
+        <v>24400</v>
       </c>
       <c r="I93" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J93" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="K93" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L93" t="s">
         <v>29</v>
       </c>
       <c r="M93">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="N93" s="2">
-        <v>191.65</v>
+        <v>117.1</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>45474</v>
+        <v>45482</v>
       </c>
       <c r="B94" t="s">
         <v>22</v>
       </c>
       <c r="C94" s="2">
-        <v>4792.5</v>
+        <v>14000</v>
       </c>
       <c r="D94" t="s">
         <v>23</v>
@@ -5024,36 +5207,36 @@
         <v>25</v>
       </c>
       <c r="H94">
-        <v>24050</v>
+        <v>24300</v>
       </c>
       <c r="I94" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J94" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="K94" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="L94" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M94">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N94" s="2">
-        <v>191.7</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>45474</v>
+        <v>45482</v>
       </c>
       <c r="B95" t="s">
         <v>22</v>
       </c>
       <c r="C95" s="2">
-        <v>18285</v>
+        <v>11125</v>
       </c>
       <c r="D95" t="s">
         <v>23</v>
@@ -5068,36 +5251,36 @@
         <v>25</v>
       </c>
       <c r="H95">
-        <v>24050</v>
+        <v>24400</v>
       </c>
       <c r="I95" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J95" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="K95" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L95" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M95">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="N95" s="2">
-        <v>182.85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>45471</v>
+        <v>45482</v>
       </c>
       <c r="B96" t="s">
         <v>22</v>
       </c>
       <c r="C96" s="2">
-        <v>8500</v>
+        <v>6877.5</v>
       </c>
       <c r="D96" t="s">
         <v>23</v>
@@ -5112,36 +5295,36 @@
         <v>25</v>
       </c>
       <c r="H96">
-        <v>24100</v>
+        <v>24300</v>
       </c>
       <c r="I96" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J96" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="K96" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="L96" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M96">
         <v>50</v>
       </c>
       <c r="N96" s="2">
-        <v>170</v>
+        <v>137.55000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>45471</v>
+        <v>45481</v>
       </c>
       <c r="B97" t="s">
         <v>22</v>
       </c>
       <c r="C97" s="2">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="D97" t="s">
         <v>23</v>
@@ -5156,36 +5339,36 @@
         <v>25</v>
       </c>
       <c r="H97">
-        <v>24100</v>
+        <v>24300</v>
       </c>
       <c r="I97" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J97" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="K97" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="L97" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M97">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N97" s="2">
-        <v>170</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="B98" t="s">
         <v>22</v>
       </c>
       <c r="C98" s="2">
-        <v>7250</v>
+        <v>6000</v>
       </c>
       <c r="D98" t="s">
         <v>23</v>
@@ -5197,39 +5380,39 @@
         <v>22</v>
       </c>
       <c r="G98" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H98">
-        <v>24100</v>
+        <v>24300</v>
       </c>
       <c r="I98" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J98" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="K98" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L98" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M98">
         <v>50</v>
       </c>
       <c r="N98" s="2">
-        <v>145</v>
+        <v>120</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="B99" t="s">
         <v>22</v>
       </c>
       <c r="C99" s="2">
-        <v>8500</v>
+        <v>3028.75</v>
       </c>
       <c r="D99" t="s">
         <v>23</v>
@@ -5241,39 +5424,39 @@
         <v>22</v>
       </c>
       <c r="G99" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H99">
-        <v>24100</v>
+        <v>24300</v>
       </c>
       <c r="I99" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J99" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="K99" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="L99" t="s">
         <v>29</v>
       </c>
       <c r="M99">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N99" s="2">
-        <v>170</v>
+        <v>121.15</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>45470</v>
+        <v>45478</v>
       </c>
       <c r="B100" t="s">
         <v>22</v>
       </c>
       <c r="C100" s="2">
-        <v>8842.5</v>
+        <v>9250</v>
       </c>
       <c r="D100" t="s">
         <v>23</v>
@@ -5288,16 +5471,16 @@
         <v>25</v>
       </c>
       <c r="H100">
-        <v>23800</v>
+        <v>24250</v>
       </c>
       <c r="I100" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="J100" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="K100" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="L100" t="s">
         <v>29</v>
@@ -5306,18 +5489,18 @@
         <v>50</v>
       </c>
       <c r="N100" s="2">
-        <v>176.85</v>
+        <v>185</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <v>45470</v>
+        <v>45478</v>
       </c>
       <c r="B101" t="s">
         <v>22</v>
       </c>
       <c r="C101" s="2">
-        <v>8750</v>
+        <v>3028.75</v>
       </c>
       <c r="D101" t="s">
         <v>23</v>
@@ -5329,39 +5512,39 @@
         <v>22</v>
       </c>
       <c r="G101" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H101">
-        <v>23800</v>
+        <v>24300</v>
       </c>
       <c r="I101" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="J101" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="K101" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L101" t="s">
         <v>29</v>
       </c>
       <c r="M101">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N101" s="2">
-        <v>175</v>
+        <v>121.15</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
-        <v>45469</v>
+        <v>45478</v>
       </c>
       <c r="B102" t="s">
         <v>22</v>
       </c>
       <c r="C102" s="2">
-        <v>6050</v>
+        <v>8812.5</v>
       </c>
       <c r="D102" t="s">
         <v>23</v>
@@ -5376,16 +5559,16 @@
         <v>25</v>
       </c>
       <c r="H102">
-        <v>23800</v>
+        <v>24200</v>
       </c>
       <c r="I102" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="J102" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K102" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L102" t="s">
         <v>29</v>
@@ -5394,18 +5577,18 @@
         <v>50</v>
       </c>
       <c r="N102" s="2">
-        <v>121</v>
+        <v>176.25</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <v>45469</v>
+        <v>45478</v>
       </c>
       <c r="B103" t="s">
         <v>22</v>
       </c>
       <c r="C103" s="2">
-        <v>10910</v>
+        <v>2978.75</v>
       </c>
       <c r="D103" t="s">
         <v>23</v>
@@ -5417,39 +5600,39 @@
         <v>22</v>
       </c>
       <c r="G103" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H103">
-        <v>23800</v>
+        <v>24300</v>
       </c>
       <c r="I103" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="J103" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K103" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L103" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M103">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N103" s="2">
-        <v>109.1</v>
+        <v>119.15</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
-        <v>45469</v>
+        <v>45478</v>
       </c>
       <c r="B104" t="s">
         <v>22</v>
       </c>
       <c r="C104" s="2">
-        <v>3025</v>
+        <v>6057.5</v>
       </c>
       <c r="D104" t="s">
         <v>23</v>
@@ -5461,39 +5644,39 @@
         <v>22</v>
       </c>
       <c r="G104" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H104">
-        <v>23800</v>
+        <v>24300</v>
       </c>
       <c r="I104" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="J104" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K104" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L104" t="s">
         <v>29</v>
       </c>
       <c r="M104">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N104" s="2">
-        <v>121</v>
+        <v>121.15</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
-        <v>45469</v>
+        <v>45478</v>
       </c>
       <c r="B105" t="s">
         <v>22</v>
       </c>
       <c r="C105" s="2">
-        <v>12100</v>
+        <v>8415</v>
       </c>
       <c r="D105" t="s">
         <v>23</v>
@@ -5508,36 +5691,36 @@
         <v>25</v>
       </c>
       <c r="H105">
-        <v>23800</v>
+        <v>24200</v>
       </c>
       <c r="I105" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="J105" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K105" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L105" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M105">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N105" s="2">
-        <v>121</v>
+        <v>168.3</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
-        <v>45469</v>
+        <v>45478</v>
       </c>
       <c r="B106" t="s">
         <v>22</v>
       </c>
       <c r="C106" s="2">
-        <v>3025</v>
+        <v>1258.75</v>
       </c>
       <c r="D106" t="s">
         <v>23</v>
@@ -5549,39 +5732,39 @@
         <v>22</v>
       </c>
       <c r="G106" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H106">
-        <v>23800</v>
+        <v>24000</v>
       </c>
       <c r="I106" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="J106" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K106" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="L106" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M106">
         <v>25</v>
       </c>
       <c r="N106" s="2">
-        <v>121</v>
+        <v>50.35</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
-        <v>45468</v>
+        <v>45478</v>
       </c>
       <c r="B107" t="s">
         <v>22</v>
       </c>
       <c r="C107" s="2">
-        <v>12620</v>
+        <v>4625</v>
       </c>
       <c r="D107" t="s">
         <v>23</v>
@@ -5596,36 +5779,36 @@
         <v>25</v>
       </c>
       <c r="H107">
-        <v>23550</v>
+        <v>24250</v>
       </c>
       <c r="I107" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="J107" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="K107" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="L107" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M107">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N107" s="2">
-        <v>126.2</v>
+        <v>185</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
-        <v>45468</v>
+        <v>45478</v>
       </c>
       <c r="B108" t="s">
         <v>22</v>
       </c>
       <c r="C108" s="2">
-        <v>12830</v>
+        <v>2978.75</v>
       </c>
       <c r="D108" t="s">
         <v>23</v>
@@ -5637,39 +5820,39 @@
         <v>22</v>
       </c>
       <c r="G108" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H108">
-        <v>23550</v>
+        <v>24300</v>
       </c>
       <c r="I108" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="J108" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K108" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L108" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M108">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N108" s="2">
-        <v>128.30000000000001</v>
+        <v>119.15</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
-        <v>45467</v>
+        <v>45478</v>
       </c>
       <c r="B109" t="s">
         <v>22</v>
       </c>
       <c r="C109" s="2">
-        <v>3440</v>
+        <v>12195</v>
       </c>
       <c r="D109" t="s">
         <v>23</v>
@@ -5681,39 +5864,39 @@
         <v>22</v>
       </c>
       <c r="G109" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H109">
-        <v>23550</v>
+        <v>24250</v>
       </c>
       <c r="I109" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="J109" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K109" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L109" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M109">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N109" s="2">
-        <v>137.6</v>
+        <v>162.6</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
-        <v>45467</v>
+        <v>45478</v>
       </c>
       <c r="B110" t="s">
         <v>22</v>
       </c>
       <c r="C110" s="2">
-        <v>3442.5</v>
+        <v>1437.5</v>
       </c>
       <c r="D110" t="s">
         <v>23</v>
@@ -5728,36 +5911,36 @@
         <v>30</v>
       </c>
       <c r="H110">
-        <v>23550</v>
+        <v>24000</v>
       </c>
       <c r="I110" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="J110" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K110" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L110" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M110">
         <v>25</v>
       </c>
       <c r="N110" s="2">
-        <v>137.69999999999999</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
-        <v>45467</v>
+        <v>45477</v>
       </c>
       <c r="B111" t="s">
         <v>22</v>
       </c>
       <c r="C111" s="2">
-        <v>3440</v>
+        <v>1317.5</v>
       </c>
       <c r="D111" t="s">
         <v>23</v>
@@ -5769,39 +5952,39 @@
         <v>22</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H111">
-        <v>23550</v>
+        <v>24300</v>
       </c>
       <c r="I111" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="J111" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="K111" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="L111" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M111">
         <v>25</v>
       </c>
       <c r="N111" s="2">
-        <v>137.6</v>
+        <v>52.7</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
-        <v>45467</v>
+        <v>45477</v>
       </c>
       <c r="B112" t="s">
         <v>22</v>
       </c>
       <c r="C112" s="2">
-        <v>14095</v>
+        <v>1250</v>
       </c>
       <c r="D112" t="s">
         <v>23</v>
@@ -5813,39 +5996,39 @@
         <v>22</v>
       </c>
       <c r="G112" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H112">
-        <v>23550</v>
+        <v>24300</v>
       </c>
       <c r="I112" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="J112" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="K112" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="L112" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M112">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N112" s="2">
-        <v>140.94999999999999</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
-        <v>45467</v>
+        <v>45476</v>
       </c>
       <c r="B113" t="s">
         <v>22</v>
       </c>
       <c r="C113" s="2">
-        <v>3440</v>
+        <v>10455</v>
       </c>
       <c r="D113" t="s">
         <v>23</v>
@@ -5860,36 +6043,36 @@
         <v>30</v>
       </c>
       <c r="H113">
-        <v>23550</v>
+        <v>24250</v>
       </c>
       <c r="I113" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="J113" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="K113" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="L113" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M113">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N113" s="2">
-        <v>137.6</v>
+        <v>104.55</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
-        <v>45464</v>
+        <v>45476</v>
       </c>
       <c r="B114" t="s">
         <v>22</v>
       </c>
       <c r="C114" s="2">
-        <v>3125</v>
+        <v>1412.5</v>
       </c>
       <c r="D114" t="s">
         <v>23</v>
@@ -5901,39 +6084,39 @@
         <v>22</v>
       </c>
       <c r="G114" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H114">
-        <v>23500</v>
+        <v>24250</v>
       </c>
       <c r="I114" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="J114" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="K114" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="L114" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M114">
         <v>25</v>
       </c>
       <c r="N114" s="2">
-        <v>125</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
-        <v>45464</v>
+        <v>45476</v>
       </c>
       <c r="B115" t="s">
         <v>22</v>
       </c>
       <c r="C115" s="2">
-        <v>11325</v>
+        <v>3150</v>
       </c>
       <c r="D115" t="s">
         <v>23</v>
@@ -5945,39 +6128,39 @@
         <v>22</v>
       </c>
       <c r="G115" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H115">
-        <v>23500</v>
+        <v>24250</v>
       </c>
       <c r="I115" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="J115" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="K115" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="L115" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M115">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N115" s="2">
-        <v>151</v>
+        <v>63</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
-        <v>45464</v>
+        <v>45476</v>
       </c>
       <c r="B116" t="s">
         <v>22</v>
       </c>
       <c r="C116" s="2">
-        <v>3775</v>
+        <v>1412.5</v>
       </c>
       <c r="D116" t="s">
         <v>23</v>
@@ -5989,19 +6172,19 @@
         <v>22</v>
       </c>
       <c r="G116" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H116">
-        <v>23500</v>
+        <v>24250</v>
       </c>
       <c r="I116" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="J116" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="K116" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="L116" t="s">
         <v>29</v>
@@ -6010,18 +6193,18 @@
         <v>25</v>
       </c>
       <c r="N116" s="2">
-        <v>151</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
-        <v>45464</v>
+        <v>45476</v>
       </c>
       <c r="B117" t="s">
         <v>22</v>
       </c>
       <c r="C117" s="2">
-        <v>9375</v>
+        <v>1412.5</v>
       </c>
       <c r="D117" t="s">
         <v>23</v>
@@ -6033,39 +6216,39 @@
         <v>22</v>
       </c>
       <c r="G117" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H117">
-        <v>23500</v>
+        <v>24250</v>
       </c>
       <c r="I117" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="J117" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="K117" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="L117" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M117">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N117" s="2">
-        <v>125</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
-        <v>45463</v>
+        <v>45476</v>
       </c>
       <c r="B118" t="s">
         <v>22</v>
       </c>
       <c r="C118" s="2">
-        <v>3500</v>
+        <v>1412.5</v>
       </c>
       <c r="D118" t="s">
         <v>23</v>
@@ -6077,39 +6260,39 @@
         <v>22</v>
       </c>
       <c r="G118" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H118">
-        <v>23450</v>
+        <v>24250</v>
       </c>
       <c r="I118" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="J118" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="K118" t="s">
         <v>219</v>
       </c>
       <c r="L118" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M118">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N118" s="2">
-        <v>70</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
-        <v>45463</v>
+        <v>45476</v>
       </c>
       <c r="B119" t="s">
         <v>22</v>
       </c>
       <c r="C119" s="2">
-        <v>750</v>
+        <v>1412.5</v>
       </c>
       <c r="D119" t="s">
         <v>23</v>
@@ -6121,39 +6304,39 @@
         <v>22</v>
       </c>
       <c r="G119" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H119">
-        <v>23650</v>
+        <v>24250</v>
       </c>
       <c r="I119" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="J119" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="K119" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L119" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M119">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N119" s="2">
-        <v>15</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
-        <v>45463</v>
+        <v>45476</v>
       </c>
       <c r="B120" t="s">
         <v>22</v>
       </c>
       <c r="C120" s="2">
-        <v>375</v>
+        <v>1412.5</v>
       </c>
       <c r="D120" t="s">
         <v>23</v>
@@ -6165,39 +6348,39 @@
         <v>22</v>
       </c>
       <c r="G120" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H120">
-        <v>23650</v>
+        <v>24250</v>
       </c>
       <c r="I120" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="J120" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K120" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L120" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M120">
         <v>25</v>
       </c>
       <c r="N120" s="2">
-        <v>15</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
-        <v>45463</v>
+        <v>45475</v>
       </c>
       <c r="B121" t="s">
         <v>22</v>
       </c>
       <c r="C121" s="2">
-        <v>450</v>
+        <v>5027.5</v>
       </c>
       <c r="D121" t="s">
         <v>23</v>
@@ -6212,36 +6395,36 @@
         <v>25</v>
       </c>
       <c r="H121">
-        <v>23650</v>
+        <v>24000</v>
       </c>
       <c r="I121" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="J121" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K121" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L121" t="s">
         <v>29</v>
       </c>
       <c r="M121">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N121" s="2">
-        <v>6</v>
+        <v>201.1</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
-        <v>45463</v>
+        <v>45475</v>
       </c>
       <c r="B122" t="s">
         <v>22</v>
       </c>
       <c r="C122" s="2">
-        <v>1938.75</v>
+        <v>3508.75</v>
       </c>
       <c r="D122" t="s">
         <v>23</v>
@@ -6253,19 +6436,19 @@
         <v>22</v>
       </c>
       <c r="G122" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H122">
-        <v>23450</v>
+        <v>24150</v>
       </c>
       <c r="I122" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="J122" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K122" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L122" t="s">
         <v>29</v>
@@ -6274,18 +6457,18 @@
         <v>25</v>
       </c>
       <c r="N122" s="2">
-        <v>77.55</v>
+        <v>140.35</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
-        <v>45463</v>
+        <v>45475</v>
       </c>
       <c r="B123" t="s">
         <v>22</v>
       </c>
       <c r="C123" s="2">
-        <v>368.75</v>
+        <v>3125</v>
       </c>
       <c r="D123" t="s">
         <v>23</v>
@@ -6297,39 +6480,39 @@
         <v>22</v>
       </c>
       <c r="G123" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H123">
-        <v>23650</v>
+        <v>24150</v>
       </c>
       <c r="I123" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="J123" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="K123" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L123" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M123">
         <v>25</v>
       </c>
       <c r="N123" s="2">
-        <v>14.75</v>
+        <v>125</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
-        <v>45463</v>
+        <v>45475</v>
       </c>
       <c r="B124" t="s">
         <v>22</v>
       </c>
       <c r="C124" s="2">
-        <v>1106.25</v>
+        <v>18155</v>
       </c>
       <c r="D124" t="s">
         <v>23</v>
@@ -6344,36 +6527,36 @@
         <v>25</v>
       </c>
       <c r="H124">
-        <v>23650</v>
+        <v>24000</v>
       </c>
       <c r="I124" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="J124" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K124" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="L124" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M124">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="N124" s="2">
-        <v>14.75</v>
+        <v>181.55</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
-        <v>45463</v>
+        <v>45475</v>
       </c>
       <c r="B125" t="s">
         <v>22</v>
       </c>
       <c r="C125" s="2">
-        <v>627.5</v>
+        <v>5027.5</v>
       </c>
       <c r="D125" t="s">
         <v>23</v>
@@ -6388,36 +6571,36 @@
         <v>25</v>
       </c>
       <c r="H125">
-        <v>23650</v>
+        <v>24000</v>
       </c>
       <c r="I125" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="J125" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="K125" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="L125" t="s">
         <v>29</v>
       </c>
       <c r="M125">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N125" s="2">
-        <v>12.55</v>
+        <v>201.1</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
-        <v>45463</v>
+        <v>45475</v>
       </c>
       <c r="B126" t="s">
         <v>22</v>
       </c>
       <c r="C126" s="2">
-        <v>682.5</v>
+        <v>10052.5</v>
       </c>
       <c r="D126" t="s">
         <v>23</v>
@@ -6432,16 +6615,16 @@
         <v>25</v>
       </c>
       <c r="H126">
-        <v>23650</v>
+        <v>24000</v>
       </c>
       <c r="I126" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="J126" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="K126" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="L126" t="s">
         <v>29</v>
@@ -6450,106 +6633,88 @@
         <v>50</v>
       </c>
       <c r="N126" s="2">
-        <v>13.65</v>
+        <v>201.05</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
-        <v>45463</v>
+        <v>45475</v>
       </c>
       <c r="B127" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C127" s="2">
-        <v>1938.75</v>
+        <v>999.89</v>
       </c>
       <c r="D127" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E127" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="F127" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="G127" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="H127">
-        <v>23450</v>
-      </c>
-      <c r="I127" t="s">
-        <v>217</v>
-      </c>
-      <c r="J127" t="s">
-        <v>235</v>
-      </c>
-      <c r="K127" t="s">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="L127" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M127">
-        <v>25</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N127" s="2">
-        <v>77.55</v>
+        <v>455.11</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
-        <v>45463</v>
+        <v>45475</v>
       </c>
       <c r="B128" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C128" s="2">
-        <v>375</v>
+        <v>999.95</v>
       </c>
       <c r="D128" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E128" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="F128" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="G128" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="H128">
-        <v>23650</v>
-      </c>
-      <c r="I128" t="s">
-        <v>217</v>
-      </c>
-      <c r="J128" t="s">
-        <v>236</v>
-      </c>
-      <c r="K128" t="s">
-        <v>223</v>
+        <v>0</v>
       </c>
       <c r="L128" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M128">
-        <v>25</v>
+        <v>19.29</v>
       </c>
       <c r="N128" s="2">
-        <v>15</v>
+        <v>51.84</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
-        <v>45463</v>
+        <v>45474</v>
       </c>
       <c r="B129" t="s">
         <v>22</v>
       </c>
       <c r="C129" s="2">
-        <v>150</v>
+        <v>14373.75</v>
       </c>
       <c r="D129" t="s">
         <v>23</v>
@@ -6564,36 +6729,36 @@
         <v>25</v>
       </c>
       <c r="H129">
-        <v>23650</v>
+        <v>24050</v>
       </c>
       <c r="I129" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="J129" t="s">
         <v>237</v>
       </c>
       <c r="K129" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="L129" t="s">
         <v>29</v>
       </c>
       <c r="M129">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N129" s="2">
-        <v>6</v>
+        <v>191.65</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
-        <v>45462</v>
+        <v>45474</v>
       </c>
       <c r="B130" t="s">
         <v>22</v>
       </c>
       <c r="C130" s="2">
-        <v>1875</v>
+        <v>4792.5</v>
       </c>
       <c r="D130" t="s">
         <v>23</v>
@@ -6605,39 +6770,39 @@
         <v>22</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H130">
-        <v>23600</v>
+        <v>24050</v>
       </c>
       <c r="I130" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="J130" t="s">
+        <v>239</v>
+      </c>
+      <c r="K130" t="s">
         <v>238</v>
       </c>
-      <c r="K130" t="s">
-        <v>239</v>
-      </c>
       <c r="L130" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M130">
         <v>25</v>
       </c>
       <c r="N130" s="2">
-        <v>75</v>
+        <v>191.7</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
-        <v>45462</v>
+        <v>45474</v>
       </c>
       <c r="B131" t="s">
         <v>22</v>
       </c>
       <c r="C131" s="2">
-        <v>750</v>
+        <v>18285</v>
       </c>
       <c r="D131" t="s">
         <v>23</v>
@@ -6652,10 +6817,10 @@
         <v>25</v>
       </c>
       <c r="H131">
-        <v>23600</v>
+        <v>24050</v>
       </c>
       <c r="I131" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="J131" t="s">
         <v>240</v>
@@ -6664,24 +6829,24 @@
         <v>241</v>
       </c>
       <c r="L131" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M131">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N131" s="2">
-        <v>30</v>
+        <v>182.85</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
-        <v>45462</v>
+        <v>45471</v>
       </c>
       <c r="B132" t="s">
         <v>22</v>
       </c>
       <c r="C132" s="2">
-        <v>2400</v>
+        <v>8500</v>
       </c>
       <c r="D132" t="s">
         <v>23</v>
@@ -6696,10 +6861,10 @@
         <v>25</v>
       </c>
       <c r="H132">
-        <v>23600</v>
+        <v>24100</v>
       </c>
       <c r="I132" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="J132" t="s">
         <v>242</v>
@@ -6708,24 +6873,24 @@
         <v>243</v>
       </c>
       <c r="L132" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M132">
         <v>50</v>
       </c>
       <c r="N132" s="2">
-        <v>48</v>
+        <v>170</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
-        <v>45462</v>
+        <v>45471</v>
       </c>
       <c r="B133" t="s">
         <v>22</v>
       </c>
       <c r="C133" s="2">
-        <v>2500</v>
+        <v>8500</v>
       </c>
       <c r="D133" t="s">
         <v>23</v>
@@ -6737,13 +6902,13 @@
         <v>22</v>
       </c>
       <c r="G133" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H133">
-        <v>23600</v>
+        <v>24100</v>
       </c>
       <c r="I133" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="J133" t="s">
         <v>244</v>
@@ -6755,21 +6920,21 @@
         <v>29</v>
       </c>
       <c r="M133">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N133" s="2">
-        <v>100</v>
+        <v>170</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
-        <v>45462</v>
+        <v>45471</v>
       </c>
       <c r="B134" t="s">
         <v>22</v>
       </c>
       <c r="C134" s="2">
-        <v>1248.75</v>
+        <v>7250</v>
       </c>
       <c r="D134" t="s">
         <v>23</v>
@@ -6784,10 +6949,10 @@
         <v>25</v>
       </c>
       <c r="H134">
-        <v>23600</v>
+        <v>24100</v>
       </c>
       <c r="I134" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="J134" t="s">
         <v>246</v>
@@ -6796,24 +6961,24 @@
         <v>247</v>
       </c>
       <c r="L134" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M134">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N134" s="2">
-        <v>49.95</v>
+        <v>145</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
-        <v>45461</v>
+        <v>45471</v>
       </c>
       <c r="B135" t="s">
         <v>22</v>
       </c>
       <c r="C135" s="2">
-        <v>3000</v>
+        <v>8500</v>
       </c>
       <c r="D135" t="s">
         <v>23</v>
@@ -6828,36 +6993,36 @@
         <v>25</v>
       </c>
       <c r="H135">
-        <v>23500</v>
+        <v>24100</v>
       </c>
       <c r="I135" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="J135" t="s">
         <v>248</v>
       </c>
       <c r="K135" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L135" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M135">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N135" s="2">
-        <v>120</v>
+        <v>170</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
-        <v>45461</v>
+        <v>45470</v>
       </c>
       <c r="B136" t="s">
         <v>22</v>
       </c>
       <c r="C136" s="2">
-        <v>3391.25</v>
+        <v>8842.5</v>
       </c>
       <c r="D136" t="s">
         <v>23</v>
@@ -6872,10 +7037,10 @@
         <v>25</v>
       </c>
       <c r="H136">
-        <v>23500</v>
+        <v>23800</v>
       </c>
       <c r="I136" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="J136" t="s">
         <v>250</v>
@@ -6887,21 +7052,21 @@
         <v>29</v>
       </c>
       <c r="M136">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N136" s="2">
-        <v>135.65</v>
+        <v>176.85</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
-        <v>45457</v>
+        <v>45470</v>
       </c>
       <c r="B137" t="s">
         <v>22</v>
       </c>
       <c r="C137" s="2">
-        <v>3117.5</v>
+        <v>8750</v>
       </c>
       <c r="D137" t="s">
         <v>23</v>
@@ -6913,13 +7078,13 @@
         <v>22</v>
       </c>
       <c r="G137" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H137">
-        <v>23450</v>
+        <v>23800</v>
       </c>
       <c r="I137" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="J137" t="s">
         <v>252</v>
@@ -6928,24 +7093,24 @@
         <v>253</v>
       </c>
       <c r="L137" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M137">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N137" s="2">
-        <v>124.7</v>
+        <v>175</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
-        <v>45457</v>
+        <v>45469</v>
       </c>
       <c r="B138" t="s">
         <v>22</v>
       </c>
       <c r="C138" s="2">
-        <v>3200</v>
+        <v>6050</v>
       </c>
       <c r="D138" t="s">
         <v>23</v>
@@ -6957,13 +7122,13 @@
         <v>22</v>
       </c>
       <c r="G138" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H138">
-        <v>23450</v>
+        <v>23800</v>
       </c>
       <c r="I138" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="J138" t="s">
         <v>254</v>
@@ -6975,62 +7140,65 @@
         <v>29</v>
       </c>
       <c r="M138">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N138" s="2">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
-        <v>45456</v>
+        <v>45469</v>
       </c>
       <c r="B139" t="s">
+        <v>22</v>
+      </c>
+      <c r="C139" s="2">
+        <v>10910</v>
+      </c>
+      <c r="D139" t="s">
+        <v>23</v>
+      </c>
+      <c r="E139" t="s">
+        <v>24</v>
+      </c>
+      <c r="F139" t="s">
+        <v>22</v>
+      </c>
+      <c r="G139" t="s">
+        <v>25</v>
+      </c>
+      <c r="H139">
+        <v>23800</v>
+      </c>
+      <c r="I139" t="s">
+        <v>249</v>
+      </c>
+      <c r="J139" t="s">
         <v>256</v>
       </c>
-      <c r="C139" s="2">
-        <v>3000</v>
-      </c>
-      <c r="D139" t="s">
+      <c r="K139" t="s">
         <v>257</v>
       </c>
-      <c r="E139" t="s">
-        <v>258</v>
-      </c>
-      <c r="F139" t="s">
-        <v>259</v>
-      </c>
-      <c r="G139" t="s">
-        <v>260</v>
-      </c>
-      <c r="H139">
-        <v>0</v>
-      </c>
-      <c r="J139" t="s">
-        <v>261</v>
-      </c>
-      <c r="K139" t="s">
-        <v>262</v>
-      </c>
       <c r="L139" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M139">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="N139" s="2">
-        <v>1500</v>
+        <v>109.1</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
-        <v>45456</v>
+        <v>45469</v>
       </c>
       <c r="B140" t="s">
         <v>22</v>
       </c>
       <c r="C140" s="2">
-        <v>1547.5</v>
+        <v>3025</v>
       </c>
       <c r="D140" t="s">
         <v>23</v>
@@ -7045,16 +7213,16 @@
         <v>25</v>
       </c>
       <c r="H140">
-        <v>23350</v>
+        <v>23800</v>
       </c>
       <c r="I140" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="J140" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="K140" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="L140" t="s">
         <v>29</v>
@@ -7063,18 +7231,18 @@
         <v>25</v>
       </c>
       <c r="N140" s="2">
-        <v>61.9</v>
+        <v>121</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
-        <v>45456</v>
+        <v>45469</v>
       </c>
       <c r="B141" t="s">
         <v>22</v>
       </c>
       <c r="C141" s="2">
-        <v>1475</v>
+        <v>12100</v>
       </c>
       <c r="D141" t="s">
         <v>23</v>
@@ -7089,159 +7257,1740 @@
         <v>25</v>
       </c>
       <c r="H141">
-        <v>23350</v>
+        <v>23800</v>
       </c>
       <c r="I141" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="J141" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="K141" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="L141" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M141">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N141" s="2">
-        <v>59</v>
+        <v>121</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
-        <v>45447</v>
+        <v>45469</v>
       </c>
       <c r="B142" t="s">
-        <v>268</v>
+        <v>22</v>
       </c>
       <c r="C142" s="2">
-        <v>2688.6</v>
+        <v>3025</v>
       </c>
       <c r="D142" t="s">
-        <v>257</v>
+        <v>23</v>
       </c>
       <c r="E142" t="s">
-        <v>258</v>
+        <v>24</v>
       </c>
       <c r="F142" t="s">
-        <v>269</v>
+        <v>22</v>
       </c>
       <c r="G142" t="s">
-        <v>260</v>
+        <v>25</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>23800</v>
+      </c>
+      <c r="I142" t="s">
+        <v>249</v>
       </c>
       <c r="J142" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="K142" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="L142" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M142">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="N142" s="2">
-        <v>896.2</v>
+        <v>121</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
-        <v>45436</v>
+        <v>45468</v>
       </c>
       <c r="B143" t="s">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="C143" s="2">
-        <v>999.75</v>
+        <v>12620</v>
       </c>
       <c r="D143" t="s">
-        <v>170</v>
+        <v>23</v>
       </c>
       <c r="E143" t="s">
-        <v>171</v>
+        <v>24</v>
       </c>
       <c r="F143" t="s">
-        <v>172</v>
+        <v>22</v>
       </c>
       <c r="G143" t="s">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>23550</v>
+      </c>
+      <c r="I143" t="s">
+        <v>249</v>
+      </c>
+      <c r="J143" t="s">
+        <v>262</v>
+      </c>
+      <c r="K143" t="s">
+        <v>263</v>
       </c>
       <c r="L143" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M143">
-        <v>2.33</v>
+        <v>100</v>
       </c>
       <c r="N143" s="2">
-        <v>428.89</v>
+        <v>126.2</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
+        <v>45468</v>
+      </c>
+      <c r="B144" t="s">
+        <v>22</v>
+      </c>
+      <c r="C144" s="2">
+        <v>12830</v>
+      </c>
+      <c r="D144" t="s">
+        <v>23</v>
+      </c>
+      <c r="E144" t="s">
+        <v>24</v>
+      </c>
+      <c r="F144" t="s">
+        <v>22</v>
+      </c>
+      <c r="G144" t="s">
+        <v>25</v>
+      </c>
+      <c r="H144">
+        <v>23550</v>
+      </c>
+      <c r="I144" t="s">
+        <v>249</v>
+      </c>
+      <c r="J144" t="s">
+        <v>264</v>
+      </c>
+      <c r="K144" t="s">
+        <v>265</v>
+      </c>
+      <c r="L144" t="s">
+        <v>29</v>
+      </c>
+      <c r="M144">
+        <v>100</v>
+      </c>
+      <c r="N144" s="2">
+        <v>128.30000000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A145" s="1">
+        <v>45467</v>
+      </c>
+      <c r="B145" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145" s="2">
+        <v>3440</v>
+      </c>
+      <c r="D145" t="s">
+        <v>23</v>
+      </c>
+      <c r="E145" t="s">
+        <v>24</v>
+      </c>
+      <c r="F145" t="s">
+        <v>22</v>
+      </c>
+      <c r="G145" t="s">
+        <v>30</v>
+      </c>
+      <c r="H145">
+        <v>23550</v>
+      </c>
+      <c r="I145" t="s">
+        <v>249</v>
+      </c>
+      <c r="J145" t="s">
+        <v>266</v>
+      </c>
+      <c r="K145" t="s">
+        <v>267</v>
+      </c>
+      <c r="L145" t="s">
+        <v>33</v>
+      </c>
+      <c r="M145">
+        <v>25</v>
+      </c>
+      <c r="N145" s="2">
+        <v>137.6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A146" s="1">
+        <v>45467</v>
+      </c>
+      <c r="B146" t="s">
+        <v>22</v>
+      </c>
+      <c r="C146" s="2">
+        <v>3442.5</v>
+      </c>
+      <c r="D146" t="s">
+        <v>23</v>
+      </c>
+      <c r="E146" t="s">
+        <v>24</v>
+      </c>
+      <c r="F146" t="s">
+        <v>22</v>
+      </c>
+      <c r="G146" t="s">
+        <v>30</v>
+      </c>
+      <c r="H146">
+        <v>23550</v>
+      </c>
+      <c r="I146" t="s">
+        <v>249</v>
+      </c>
+      <c r="J146" t="s">
+        <v>268</v>
+      </c>
+      <c r="K146" t="s">
+        <v>267</v>
+      </c>
+      <c r="L146" t="s">
+        <v>33</v>
+      </c>
+      <c r="M146">
+        <v>25</v>
+      </c>
+      <c r="N146" s="2">
+        <v>137.69999999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A147" s="1">
+        <v>45467</v>
+      </c>
+      <c r="B147" t="s">
+        <v>22</v>
+      </c>
+      <c r="C147" s="2">
+        <v>3440</v>
+      </c>
+      <c r="D147" t="s">
+        <v>23</v>
+      </c>
+      <c r="E147" t="s">
+        <v>24</v>
+      </c>
+      <c r="F147" t="s">
+        <v>22</v>
+      </c>
+      <c r="G147" t="s">
+        <v>30</v>
+      </c>
+      <c r="H147">
+        <v>23550</v>
+      </c>
+      <c r="I147" t="s">
+        <v>249</v>
+      </c>
+      <c r="J147" t="s">
+        <v>269</v>
+      </c>
+      <c r="K147" t="s">
+        <v>267</v>
+      </c>
+      <c r="L147" t="s">
+        <v>33</v>
+      </c>
+      <c r="M147">
+        <v>25</v>
+      </c>
+      <c r="N147" s="2">
+        <v>137.6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A148" s="1">
+        <v>45467</v>
+      </c>
+      <c r="B148" t="s">
+        <v>22</v>
+      </c>
+      <c r="C148" s="2">
+        <v>14095</v>
+      </c>
+      <c r="D148" t="s">
+        <v>23</v>
+      </c>
+      <c r="E148" t="s">
+        <v>24</v>
+      </c>
+      <c r="F148" t="s">
+        <v>22</v>
+      </c>
+      <c r="G148" t="s">
+        <v>30</v>
+      </c>
+      <c r="H148">
+        <v>23550</v>
+      </c>
+      <c r="I148" t="s">
+        <v>249</v>
+      </c>
+      <c r="J148" t="s">
+        <v>270</v>
+      </c>
+      <c r="K148" t="s">
+        <v>271</v>
+      </c>
+      <c r="L148" t="s">
+        <v>29</v>
+      </c>
+      <c r="M148">
+        <v>100</v>
+      </c>
+      <c r="N148" s="2">
+        <v>140.94999999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A149" s="1">
+        <v>45467</v>
+      </c>
+      <c r="B149" t="s">
+        <v>22</v>
+      </c>
+      <c r="C149" s="2">
+        <v>3440</v>
+      </c>
+      <c r="D149" t="s">
+        <v>23</v>
+      </c>
+      <c r="E149" t="s">
+        <v>24</v>
+      </c>
+      <c r="F149" t="s">
+        <v>22</v>
+      </c>
+      <c r="G149" t="s">
+        <v>30</v>
+      </c>
+      <c r="H149">
+        <v>23550</v>
+      </c>
+      <c r="I149" t="s">
+        <v>249</v>
+      </c>
+      <c r="J149" t="s">
+        <v>272</v>
+      </c>
+      <c r="K149" t="s">
+        <v>267</v>
+      </c>
+      <c r="L149" t="s">
+        <v>33</v>
+      </c>
+      <c r="M149">
+        <v>25</v>
+      </c>
+      <c r="N149" s="2">
+        <v>137.6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A150" s="1">
+        <v>45464</v>
+      </c>
+      <c r="B150" t="s">
+        <v>22</v>
+      </c>
+      <c r="C150" s="2">
+        <v>3125</v>
+      </c>
+      <c r="D150" t="s">
+        <v>23</v>
+      </c>
+      <c r="E150" t="s">
+        <v>24</v>
+      </c>
+      <c r="F150" t="s">
+        <v>22</v>
+      </c>
+      <c r="G150" t="s">
+        <v>25</v>
+      </c>
+      <c r="H150">
+        <v>23500</v>
+      </c>
+      <c r="I150" t="s">
+        <v>249</v>
+      </c>
+      <c r="J150" t="s">
+        <v>273</v>
+      </c>
+      <c r="K150" t="s">
+        <v>274</v>
+      </c>
+      <c r="L150" t="s">
+        <v>33</v>
+      </c>
+      <c r="M150">
+        <v>25</v>
+      </c>
+      <c r="N150" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A151" s="1">
+        <v>45464</v>
+      </c>
+      <c r="B151" t="s">
+        <v>22</v>
+      </c>
+      <c r="C151" s="2">
+        <v>11325</v>
+      </c>
+      <c r="D151" t="s">
+        <v>23</v>
+      </c>
+      <c r="E151" t="s">
+        <v>24</v>
+      </c>
+      <c r="F151" t="s">
+        <v>22</v>
+      </c>
+      <c r="G151" t="s">
+        <v>25</v>
+      </c>
+      <c r="H151">
+        <v>23500</v>
+      </c>
+      <c r="I151" t="s">
+        <v>249</v>
+      </c>
+      <c r="J151" t="s">
+        <v>275</v>
+      </c>
+      <c r="K151" t="s">
+        <v>276</v>
+      </c>
+      <c r="L151" t="s">
+        <v>29</v>
+      </c>
+      <c r="M151">
+        <v>75</v>
+      </c>
+      <c r="N151" s="2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A152" s="1">
+        <v>45464</v>
+      </c>
+      <c r="B152" t="s">
+        <v>22</v>
+      </c>
+      <c r="C152" s="2">
+        <v>3775</v>
+      </c>
+      <c r="D152" t="s">
+        <v>23</v>
+      </c>
+      <c r="E152" t="s">
+        <v>24</v>
+      </c>
+      <c r="F152" t="s">
+        <v>22</v>
+      </c>
+      <c r="G152" t="s">
+        <v>25</v>
+      </c>
+      <c r="H152">
+        <v>23500</v>
+      </c>
+      <c r="I152" t="s">
+        <v>249</v>
+      </c>
+      <c r="J152" t="s">
+        <v>277</v>
+      </c>
+      <c r="K152" t="s">
+        <v>276</v>
+      </c>
+      <c r="L152" t="s">
+        <v>29</v>
+      </c>
+      <c r="M152">
+        <v>25</v>
+      </c>
+      <c r="N152" s="2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A153" s="1">
+        <v>45464</v>
+      </c>
+      <c r="B153" t="s">
+        <v>22</v>
+      </c>
+      <c r="C153" s="2">
+        <v>9375</v>
+      </c>
+      <c r="D153" t="s">
+        <v>23</v>
+      </c>
+      <c r="E153" t="s">
+        <v>24</v>
+      </c>
+      <c r="F153" t="s">
+        <v>22</v>
+      </c>
+      <c r="G153" t="s">
+        <v>25</v>
+      </c>
+      <c r="H153">
+        <v>23500</v>
+      </c>
+      <c r="I153" t="s">
+        <v>249</v>
+      </c>
+      <c r="J153" t="s">
+        <v>278</v>
+      </c>
+      <c r="K153" t="s">
+        <v>274</v>
+      </c>
+      <c r="L153" t="s">
+        <v>33</v>
+      </c>
+      <c r="M153">
+        <v>75</v>
+      </c>
+      <c r="N153" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A154" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B154" t="s">
+        <v>22</v>
+      </c>
+      <c r="C154" s="2">
+        <v>3500</v>
+      </c>
+      <c r="D154" t="s">
+        <v>23</v>
+      </c>
+      <c r="E154" t="s">
+        <v>24</v>
+      </c>
+      <c r="F154" t="s">
+        <v>22</v>
+      </c>
+      <c r="G154" t="s">
+        <v>25</v>
+      </c>
+      <c r="H154">
+        <v>23450</v>
+      </c>
+      <c r="I154" t="s">
+        <v>279</v>
+      </c>
+      <c r="J154" t="s">
+        <v>280</v>
+      </c>
+      <c r="K154" t="s">
+        <v>281</v>
+      </c>
+      <c r="L154" t="s">
+        <v>33</v>
+      </c>
+      <c r="M154">
+        <v>50</v>
+      </c>
+      <c r="N154" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A155" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B155" t="s">
+        <v>22</v>
+      </c>
+      <c r="C155" s="2">
+        <v>750</v>
+      </c>
+      <c r="D155" t="s">
+        <v>23</v>
+      </c>
+      <c r="E155" t="s">
+        <v>24</v>
+      </c>
+      <c r="F155" t="s">
+        <v>22</v>
+      </c>
+      <c r="G155" t="s">
+        <v>25</v>
+      </c>
+      <c r="H155">
+        <v>23650</v>
+      </c>
+      <c r="I155" t="s">
+        <v>279</v>
+      </c>
+      <c r="J155" t="s">
+        <v>282</v>
+      </c>
+      <c r="K155" t="s">
+        <v>283</v>
+      </c>
+      <c r="L155" t="s">
+        <v>33</v>
+      </c>
+      <c r="M155">
+        <v>50</v>
+      </c>
+      <c r="N155" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A156" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B156" t="s">
+        <v>22</v>
+      </c>
+      <c r="C156" s="2">
+        <v>375</v>
+      </c>
+      <c r="D156" t="s">
+        <v>23</v>
+      </c>
+      <c r="E156" t="s">
+        <v>24</v>
+      </c>
+      <c r="F156" t="s">
+        <v>22</v>
+      </c>
+      <c r="G156" t="s">
+        <v>25</v>
+      </c>
+      <c r="H156">
+        <v>23650</v>
+      </c>
+      <c r="I156" t="s">
+        <v>279</v>
+      </c>
+      <c r="J156" t="s">
+        <v>284</v>
+      </c>
+      <c r="K156" t="s">
+        <v>285</v>
+      </c>
+      <c r="L156" t="s">
+        <v>33</v>
+      </c>
+      <c r="M156">
+        <v>25</v>
+      </c>
+      <c r="N156" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A157" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B157" t="s">
+        <v>22</v>
+      </c>
+      <c r="C157" s="2">
+        <v>450</v>
+      </c>
+      <c r="D157" t="s">
+        <v>23</v>
+      </c>
+      <c r="E157" t="s">
+        <v>24</v>
+      </c>
+      <c r="F157" t="s">
+        <v>22</v>
+      </c>
+      <c r="G157" t="s">
+        <v>25</v>
+      </c>
+      <c r="H157">
+        <v>23650</v>
+      </c>
+      <c r="I157" t="s">
+        <v>279</v>
+      </c>
+      <c r="J157" t="s">
+        <v>286</v>
+      </c>
+      <c r="K157" t="s">
+        <v>287</v>
+      </c>
+      <c r="L157" t="s">
+        <v>29</v>
+      </c>
+      <c r="M157">
+        <v>75</v>
+      </c>
+      <c r="N157" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A158" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B158" t="s">
+        <v>22</v>
+      </c>
+      <c r="C158" s="2">
+        <v>1938.75</v>
+      </c>
+      <c r="D158" t="s">
+        <v>23</v>
+      </c>
+      <c r="E158" t="s">
+        <v>24</v>
+      </c>
+      <c r="F158" t="s">
+        <v>22</v>
+      </c>
+      <c r="G158" t="s">
+        <v>25</v>
+      </c>
+      <c r="H158">
+        <v>23450</v>
+      </c>
+      <c r="I158" t="s">
+        <v>279</v>
+      </c>
+      <c r="J158" t="s">
+        <v>288</v>
+      </c>
+      <c r="K158" t="s">
+        <v>289</v>
+      </c>
+      <c r="L158" t="s">
+        <v>29</v>
+      </c>
+      <c r="M158">
+        <v>25</v>
+      </c>
+      <c r="N158" s="2">
+        <v>77.55</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A159" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B159" t="s">
+        <v>22</v>
+      </c>
+      <c r="C159" s="2">
+        <v>368.75</v>
+      </c>
+      <c r="D159" t="s">
+        <v>23</v>
+      </c>
+      <c r="E159" t="s">
+        <v>24</v>
+      </c>
+      <c r="F159" t="s">
+        <v>22</v>
+      </c>
+      <c r="G159" t="s">
+        <v>25</v>
+      </c>
+      <c r="H159">
+        <v>23650</v>
+      </c>
+      <c r="I159" t="s">
+        <v>279</v>
+      </c>
+      <c r="J159" t="s">
+        <v>290</v>
+      </c>
+      <c r="K159" t="s">
+        <v>291</v>
+      </c>
+      <c r="L159" t="s">
+        <v>33</v>
+      </c>
+      <c r="M159">
+        <v>25</v>
+      </c>
+      <c r="N159" s="2">
+        <v>14.75</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A160" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B160" t="s">
+        <v>22</v>
+      </c>
+      <c r="C160" s="2">
+        <v>1106.25</v>
+      </c>
+      <c r="D160" t="s">
+        <v>23</v>
+      </c>
+      <c r="E160" t="s">
+        <v>24</v>
+      </c>
+      <c r="F160" t="s">
+        <v>22</v>
+      </c>
+      <c r="G160" t="s">
+        <v>25</v>
+      </c>
+      <c r="H160">
+        <v>23650</v>
+      </c>
+      <c r="I160" t="s">
+        <v>279</v>
+      </c>
+      <c r="J160" t="s">
+        <v>292</v>
+      </c>
+      <c r="K160" t="s">
+        <v>291</v>
+      </c>
+      <c r="L160" t="s">
+        <v>33</v>
+      </c>
+      <c r="M160">
+        <v>75</v>
+      </c>
+      <c r="N160" s="2">
+        <v>14.75</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A161" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B161" t="s">
+        <v>22</v>
+      </c>
+      <c r="C161" s="2">
+        <v>627.5</v>
+      </c>
+      <c r="D161" t="s">
+        <v>23</v>
+      </c>
+      <c r="E161" t="s">
+        <v>24</v>
+      </c>
+      <c r="F161" t="s">
+        <v>22</v>
+      </c>
+      <c r="G161" t="s">
+        <v>25</v>
+      </c>
+      <c r="H161">
+        <v>23650</v>
+      </c>
+      <c r="I161" t="s">
+        <v>279</v>
+      </c>
+      <c r="J161" t="s">
+        <v>293</v>
+      </c>
+      <c r="K161" t="s">
+        <v>294</v>
+      </c>
+      <c r="L161" t="s">
+        <v>29</v>
+      </c>
+      <c r="M161">
+        <v>50</v>
+      </c>
+      <c r="N161" s="2">
+        <v>12.55</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A162" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B162" t="s">
+        <v>22</v>
+      </c>
+      <c r="C162" s="2">
+        <v>682.5</v>
+      </c>
+      <c r="D162" t="s">
+        <v>23</v>
+      </c>
+      <c r="E162" t="s">
+        <v>24</v>
+      </c>
+      <c r="F162" t="s">
+        <v>22</v>
+      </c>
+      <c r="G162" t="s">
+        <v>25</v>
+      </c>
+      <c r="H162">
+        <v>23650</v>
+      </c>
+      <c r="I162" t="s">
+        <v>279</v>
+      </c>
+      <c r="J162" t="s">
+        <v>295</v>
+      </c>
+      <c r="K162" t="s">
+        <v>296</v>
+      </c>
+      <c r="L162" t="s">
+        <v>29</v>
+      </c>
+      <c r="M162">
+        <v>50</v>
+      </c>
+      <c r="N162" s="2">
+        <v>13.65</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A163" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B163" t="s">
+        <v>22</v>
+      </c>
+      <c r="C163" s="2">
+        <v>1938.75</v>
+      </c>
+      <c r="D163" t="s">
+        <v>23</v>
+      </c>
+      <c r="E163" t="s">
+        <v>24</v>
+      </c>
+      <c r="F163" t="s">
+        <v>22</v>
+      </c>
+      <c r="G163" t="s">
+        <v>25</v>
+      </c>
+      <c r="H163">
+        <v>23450</v>
+      </c>
+      <c r="I163" t="s">
+        <v>279</v>
+      </c>
+      <c r="J163" t="s">
+        <v>297</v>
+      </c>
+      <c r="K163" t="s">
+        <v>289</v>
+      </c>
+      <c r="L163" t="s">
+        <v>29</v>
+      </c>
+      <c r="M163">
+        <v>25</v>
+      </c>
+      <c r="N163" s="2">
+        <v>77.55</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A164" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B164" t="s">
+        <v>22</v>
+      </c>
+      <c r="C164" s="2">
+        <v>375</v>
+      </c>
+      <c r="D164" t="s">
+        <v>23</v>
+      </c>
+      <c r="E164" t="s">
+        <v>24</v>
+      </c>
+      <c r="F164" t="s">
+        <v>22</v>
+      </c>
+      <c r="G164" t="s">
+        <v>25</v>
+      </c>
+      <c r="H164">
+        <v>23650</v>
+      </c>
+      <c r="I164" t="s">
+        <v>279</v>
+      </c>
+      <c r="J164" t="s">
+        <v>298</v>
+      </c>
+      <c r="K164" t="s">
+        <v>285</v>
+      </c>
+      <c r="L164" t="s">
+        <v>33</v>
+      </c>
+      <c r="M164">
+        <v>25</v>
+      </c>
+      <c r="N164" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A165" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B165" t="s">
+        <v>22</v>
+      </c>
+      <c r="C165" s="2">
+        <v>150</v>
+      </c>
+      <c r="D165" t="s">
+        <v>23</v>
+      </c>
+      <c r="E165" t="s">
+        <v>24</v>
+      </c>
+      <c r="F165" t="s">
+        <v>22</v>
+      </c>
+      <c r="G165" t="s">
+        <v>25</v>
+      </c>
+      <c r="H165">
+        <v>23650</v>
+      </c>
+      <c r="I165" t="s">
+        <v>279</v>
+      </c>
+      <c r="J165" t="s">
+        <v>299</v>
+      </c>
+      <c r="K165" t="s">
+        <v>287</v>
+      </c>
+      <c r="L165" t="s">
+        <v>29</v>
+      </c>
+      <c r="M165">
+        <v>25</v>
+      </c>
+      <c r="N165" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A166" s="1">
+        <v>45462</v>
+      </c>
+      <c r="B166" t="s">
+        <v>22</v>
+      </c>
+      <c r="C166" s="2">
+        <v>1875</v>
+      </c>
+      <c r="D166" t="s">
+        <v>23</v>
+      </c>
+      <c r="E166" t="s">
+        <v>24</v>
+      </c>
+      <c r="F166" t="s">
+        <v>22</v>
+      </c>
+      <c r="G166" t="s">
+        <v>30</v>
+      </c>
+      <c r="H166">
+        <v>23600</v>
+      </c>
+      <c r="I166" t="s">
+        <v>279</v>
+      </c>
+      <c r="J166" t="s">
+        <v>300</v>
+      </c>
+      <c r="K166" t="s">
+        <v>301</v>
+      </c>
+      <c r="L166" t="s">
+        <v>33</v>
+      </c>
+      <c r="M166">
+        <v>25</v>
+      </c>
+      <c r="N166" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A167" s="1">
+        <v>45462</v>
+      </c>
+      <c r="B167" t="s">
+        <v>22</v>
+      </c>
+      <c r="C167" s="2">
+        <v>750</v>
+      </c>
+      <c r="D167" t="s">
+        <v>23</v>
+      </c>
+      <c r="E167" t="s">
+        <v>24</v>
+      </c>
+      <c r="F167" t="s">
+        <v>22</v>
+      </c>
+      <c r="G167" t="s">
+        <v>25</v>
+      </c>
+      <c r="H167">
+        <v>23600</v>
+      </c>
+      <c r="I167" t="s">
+        <v>279</v>
+      </c>
+      <c r="J167" t="s">
+        <v>302</v>
+      </c>
+      <c r="K167" t="s">
+        <v>303</v>
+      </c>
+      <c r="L167" t="s">
+        <v>33</v>
+      </c>
+      <c r="M167">
+        <v>25</v>
+      </c>
+      <c r="N167" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A168" s="1">
+        <v>45462</v>
+      </c>
+      <c r="B168" t="s">
+        <v>22</v>
+      </c>
+      <c r="C168" s="2">
+        <v>2400</v>
+      </c>
+      <c r="D168" t="s">
+        <v>23</v>
+      </c>
+      <c r="E168" t="s">
+        <v>24</v>
+      </c>
+      <c r="F168" t="s">
+        <v>22</v>
+      </c>
+      <c r="G168" t="s">
+        <v>25</v>
+      </c>
+      <c r="H168">
+        <v>23600</v>
+      </c>
+      <c r="I168" t="s">
+        <v>279</v>
+      </c>
+      <c r="J168" t="s">
+        <v>304</v>
+      </c>
+      <c r="K168" t="s">
+        <v>95</v>
+      </c>
+      <c r="L168" t="s">
+        <v>29</v>
+      </c>
+      <c r="M168">
+        <v>50</v>
+      </c>
+      <c r="N168" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A169" s="1">
+        <v>45462</v>
+      </c>
+      <c r="B169" t="s">
+        <v>22</v>
+      </c>
+      <c r="C169" s="2">
+        <v>2500</v>
+      </c>
+      <c r="D169" t="s">
+        <v>23</v>
+      </c>
+      <c r="E169" t="s">
+        <v>24</v>
+      </c>
+      <c r="F169" t="s">
+        <v>22</v>
+      </c>
+      <c r="G169" t="s">
+        <v>30</v>
+      </c>
+      <c r="H169">
+        <v>23600</v>
+      </c>
+      <c r="I169" t="s">
+        <v>279</v>
+      </c>
+      <c r="J169" t="s">
+        <v>305</v>
+      </c>
+      <c r="K169" t="s">
+        <v>306</v>
+      </c>
+      <c r="L169" t="s">
+        <v>29</v>
+      </c>
+      <c r="M169">
+        <v>25</v>
+      </c>
+      <c r="N169" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A170" s="1">
+        <v>45462</v>
+      </c>
+      <c r="B170" t="s">
+        <v>22</v>
+      </c>
+      <c r="C170" s="2">
+        <v>1248.75</v>
+      </c>
+      <c r="D170" t="s">
+        <v>23</v>
+      </c>
+      <c r="E170" t="s">
+        <v>24</v>
+      </c>
+      <c r="F170" t="s">
+        <v>22</v>
+      </c>
+      <c r="G170" t="s">
+        <v>25</v>
+      </c>
+      <c r="H170">
+        <v>23600</v>
+      </c>
+      <c r="I170" t="s">
+        <v>279</v>
+      </c>
+      <c r="J170" t="s">
+        <v>307</v>
+      </c>
+      <c r="K170" t="s">
+        <v>308</v>
+      </c>
+      <c r="L170" t="s">
+        <v>33</v>
+      </c>
+      <c r="M170">
+        <v>25</v>
+      </c>
+      <c r="N170" s="2">
+        <v>49.95</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A171" s="1">
+        <v>45461</v>
+      </c>
+      <c r="B171" t="s">
+        <v>22</v>
+      </c>
+      <c r="C171" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D171" t="s">
+        <v>23</v>
+      </c>
+      <c r="E171" t="s">
+        <v>24</v>
+      </c>
+      <c r="F171" t="s">
+        <v>22</v>
+      </c>
+      <c r="G171" t="s">
+        <v>25</v>
+      </c>
+      <c r="H171">
+        <v>23500</v>
+      </c>
+      <c r="I171" t="s">
+        <v>279</v>
+      </c>
+      <c r="J171" t="s">
+        <v>309</v>
+      </c>
+      <c r="K171" t="s">
+        <v>310</v>
+      </c>
+      <c r="L171" t="s">
+        <v>33</v>
+      </c>
+      <c r="M171">
+        <v>25</v>
+      </c>
+      <c r="N171" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A172" s="1">
+        <v>45461</v>
+      </c>
+      <c r="B172" t="s">
+        <v>22</v>
+      </c>
+      <c r="C172" s="2">
+        <v>3391.25</v>
+      </c>
+      <c r="D172" t="s">
+        <v>23</v>
+      </c>
+      <c r="E172" t="s">
+        <v>24</v>
+      </c>
+      <c r="F172" t="s">
+        <v>22</v>
+      </c>
+      <c r="G172" t="s">
+        <v>25</v>
+      </c>
+      <c r="H172">
+        <v>23500</v>
+      </c>
+      <c r="I172" t="s">
+        <v>279</v>
+      </c>
+      <c r="J172" t="s">
+        <v>311</v>
+      </c>
+      <c r="K172" t="s">
+        <v>312</v>
+      </c>
+      <c r="L172" t="s">
+        <v>29</v>
+      </c>
+      <c r="M172">
+        <v>25</v>
+      </c>
+      <c r="N172" s="2">
+        <v>135.65</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A173" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B173" t="s">
+        <v>22</v>
+      </c>
+      <c r="C173" s="2">
+        <v>3117.5</v>
+      </c>
+      <c r="D173" t="s">
+        <v>23</v>
+      </c>
+      <c r="E173" t="s">
+        <v>24</v>
+      </c>
+      <c r="F173" t="s">
+        <v>22</v>
+      </c>
+      <c r="G173" t="s">
+        <v>30</v>
+      </c>
+      <c r="H173">
+        <v>23450</v>
+      </c>
+      <c r="I173" t="s">
+        <v>279</v>
+      </c>
+      <c r="J173" t="s">
+        <v>313</v>
+      </c>
+      <c r="K173" t="s">
+        <v>314</v>
+      </c>
+      <c r="L173" t="s">
+        <v>33</v>
+      </c>
+      <c r="M173">
+        <v>25</v>
+      </c>
+      <c r="N173" s="2">
+        <v>124.7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A174" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B174" t="s">
+        <v>22</v>
+      </c>
+      <c r="C174" s="2">
+        <v>3200</v>
+      </c>
+      <c r="D174" t="s">
+        <v>23</v>
+      </c>
+      <c r="E174" t="s">
+        <v>24</v>
+      </c>
+      <c r="F174" t="s">
+        <v>22</v>
+      </c>
+      <c r="G174" t="s">
+        <v>30</v>
+      </c>
+      <c r="H174">
+        <v>23450</v>
+      </c>
+      <c r="I174" t="s">
+        <v>279</v>
+      </c>
+      <c r="J174" t="s">
+        <v>315</v>
+      </c>
+      <c r="K174" t="s">
+        <v>316</v>
+      </c>
+      <c r="L174" t="s">
+        <v>29</v>
+      </c>
+      <c r="M174">
+        <v>25</v>
+      </c>
+      <c r="N174" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A175" s="1">
+        <v>45456</v>
+      </c>
+      <c r="B175" t="s">
+        <v>317</v>
+      </c>
+      <c r="C175" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D175" t="s">
+        <v>318</v>
+      </c>
+      <c r="E175" t="s">
+        <v>319</v>
+      </c>
+      <c r="F175" t="s">
+        <v>320</v>
+      </c>
+      <c r="G175" t="s">
+        <v>321</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="J175" t="s">
+        <v>322</v>
+      </c>
+      <c r="K175" t="s">
+        <v>323</v>
+      </c>
+      <c r="L175" t="s">
+        <v>33</v>
+      </c>
+      <c r="M175">
+        <v>2</v>
+      </c>
+      <c r="N175" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A176" s="1">
+        <v>45456</v>
+      </c>
+      <c r="B176" t="s">
+        <v>22</v>
+      </c>
+      <c r="C176" s="2">
+        <v>1547.5</v>
+      </c>
+      <c r="D176" t="s">
+        <v>23</v>
+      </c>
+      <c r="E176" t="s">
+        <v>24</v>
+      </c>
+      <c r="F176" t="s">
+        <v>22</v>
+      </c>
+      <c r="G176" t="s">
+        <v>25</v>
+      </c>
+      <c r="H176">
+        <v>23350</v>
+      </c>
+      <c r="I176" t="s">
+        <v>324</v>
+      </c>
+      <c r="J176" t="s">
+        <v>325</v>
+      </c>
+      <c r="K176" t="s">
+        <v>326</v>
+      </c>
+      <c r="L176" t="s">
+        <v>29</v>
+      </c>
+      <c r="M176">
+        <v>25</v>
+      </c>
+      <c r="N176" s="2">
+        <v>61.9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A177" s="1">
+        <v>45456</v>
+      </c>
+      <c r="B177" t="s">
+        <v>22</v>
+      </c>
+      <c r="C177" s="2">
+        <v>1475</v>
+      </c>
+      <c r="D177" t="s">
+        <v>23</v>
+      </c>
+      <c r="E177" t="s">
+        <v>24</v>
+      </c>
+      <c r="F177" t="s">
+        <v>22</v>
+      </c>
+      <c r="G177" t="s">
+        <v>25</v>
+      </c>
+      <c r="H177">
+        <v>23350</v>
+      </c>
+      <c r="I177" t="s">
+        <v>324</v>
+      </c>
+      <c r="J177" t="s">
+        <v>327</v>
+      </c>
+      <c r="K177" t="s">
+        <v>328</v>
+      </c>
+      <c r="L177" t="s">
+        <v>33</v>
+      </c>
+      <c r="M177">
+        <v>25</v>
+      </c>
+      <c r="N177" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A178" s="1">
+        <v>45447</v>
+      </c>
+      <c r="B178" t="s">
+        <v>329</v>
+      </c>
+      <c r="C178" s="2">
+        <v>2688.6</v>
+      </c>
+      <c r="D178" t="s">
+        <v>318</v>
+      </c>
+      <c r="E178" t="s">
+        <v>319</v>
+      </c>
+      <c r="F178" t="s">
+        <v>330</v>
+      </c>
+      <c r="G178" t="s">
+        <v>321</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="J178" t="s">
+        <v>331</v>
+      </c>
+      <c r="K178" t="s">
+        <v>332</v>
+      </c>
+      <c r="L178" t="s">
+        <v>33</v>
+      </c>
+      <c r="M178">
+        <v>3</v>
+      </c>
+      <c r="N178" s="2">
+        <v>896.2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A179" s="1">
         <v>45436</v>
       </c>
-      <c r="B144" t="s">
-        <v>173</v>
-      </c>
-      <c r="C144" s="2">
+      <c r="B179" t="s">
+        <v>42</v>
+      </c>
+      <c r="C179" s="2">
+        <v>999.75</v>
+      </c>
+      <c r="D179" t="s">
+        <v>43</v>
+      </c>
+      <c r="E179" t="s">
+        <v>44</v>
+      </c>
+      <c r="F179" t="s">
+        <v>45</v>
+      </c>
+      <c r="G179" t="s">
+        <v>44</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="L179" t="s">
+        <v>33</v>
+      </c>
+      <c r="M179">
+        <v>2.33</v>
+      </c>
+      <c r="N179" s="2">
+        <v>428.89</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A180" s="1">
+        <v>45436</v>
+      </c>
+      <c r="B180" t="s">
+        <v>46</v>
+      </c>
+      <c r="C180" s="2">
         <v>999.95</v>
       </c>
-      <c r="D144" t="s">
-        <v>170</v>
-      </c>
-      <c r="E144" t="s">
-        <v>171</v>
-      </c>
-      <c r="F144" t="s">
-        <v>174</v>
-      </c>
-      <c r="G144" t="s">
-        <v>171</v>
-      </c>
-      <c r="H144">
+      <c r="D180" t="s">
+        <v>43</v>
+      </c>
+      <c r="E180" t="s">
+        <v>44</v>
+      </c>
+      <c r="F180" t="s">
+        <v>47</v>
+      </c>
+      <c r="G180" t="s">
+        <v>44</v>
+      </c>
+      <c r="H180">
         <v>0</v>
       </c>
-      <c r="L144" t="s">
-        <v>35</v>
-      </c>
-      <c r="M144">
+      <c r="L180" t="s">
+        <v>33</v>
+      </c>
+      <c r="M180">
         <v>20.51</v>
       </c>
-      <c r="N144" s="2">
+      <c r="N180" s="2">
         <v>48.77</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A150" s="3"/>
-      <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="3"/>
-      <c r="G150" s="3"/>
-      <c r="H150" s="3"/>
-      <c r="I150" s="3"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
-        <v>272</v>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A186" s="3"/>
+      <c r="B186" s="3"/>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3"/>
+      <c r="E186" s="3"/>
+      <c r="F186" s="3"/>
+      <c r="G186" s="3"/>
+      <c r="H186" s="3"/>
+      <c r="I186" s="3"/>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A150:I150"/>
+    <mergeCell ref="A186:I186"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DATA/SOURCE/TradeHistory/trade_2425.xlsx
+++ b/DATA/SOURCE/TradeHistory/trade_2425.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prashant.tripathi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prashant.tripathi\Code\Upstox\DATA\SOURCE\TradeHistory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267DB8E2-469A-4AEB-88EA-A607EBB80B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C43143-2C34-42F2-92EA-3F93C79558A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="363">
   <si>
     <t>UPSTOX SECURITIES PRIVATE LIMITED</t>
   </si>
@@ -100,28 +100,115 @@
     <t>European Call</t>
   </si>
   <si>
+    <t>14-08-2024</t>
+  </si>
+  <si>
+    <t>155765668</t>
+  </si>
+  <si>
+    <t>15:28:33</t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
+    <t>European Put</t>
+  </si>
+  <si>
     <t>08-08-2024</t>
   </si>
   <si>
+    <t>737479472</t>
+  </si>
+  <si>
+    <t>10:43:59</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>737361400</t>
+  </si>
+  <si>
+    <t>15:08:24</t>
+  </si>
+  <si>
+    <t>86008345</t>
+  </si>
+  <si>
+    <t>14:32:12</t>
+  </si>
+  <si>
+    <t>2827494</t>
+  </si>
+  <si>
+    <t>10:40:30</t>
+  </si>
+  <si>
+    <t>82871869</t>
+  </si>
+  <si>
+    <t>10:45:11</t>
+  </si>
+  <si>
+    <t>736248185</t>
+  </si>
+  <si>
+    <t>10:23:59</t>
+  </si>
+  <si>
+    <t>824446017</t>
+  </si>
+  <si>
+    <t>12:35:05</t>
+  </si>
+  <si>
+    <t>98687106</t>
+  </si>
+  <si>
+    <t>14:10:58</t>
+  </si>
+  <si>
+    <t>91383965</t>
+  </si>
+  <si>
+    <t>11:53:31</t>
+  </si>
+  <si>
+    <t>736467937</t>
+  </si>
+  <si>
+    <t>10:25:48</t>
+  </si>
+  <si>
+    <t>825300332</t>
+  </si>
+  <si>
+    <t>12:53:33</t>
+  </si>
+  <si>
+    <t>92572051</t>
+  </si>
+  <si>
+    <t>12:26:04</t>
+  </si>
+  <si>
+    <t>98172057</t>
+  </si>
+  <si>
+    <t>14:00:50</t>
+  </si>
+  <si>
     <t>81049361</t>
   </si>
   <si>
     <t>09:32:11</t>
   </si>
   <si>
-    <t>Sell</t>
-  </si>
-  <si>
-    <t>European Put</t>
-  </si>
-  <si>
     <t>722796247</t>
   </si>
   <si>
     <t>12:21:59</t>
-  </si>
-  <si>
-    <t>Buy</t>
   </si>
   <si>
     <t>723739017</t>
@@ -1400,10 +1487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N187"/>
+  <dimension ref="A1:N201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E184" sqref="E184"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1508,13 +1595,13 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>45509</v>
+        <v>45512</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="2">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1529,7 +1616,7 @@
         <v>25</v>
       </c>
       <c r="H10">
-        <v>24700</v>
+        <v>25000</v>
       </c>
       <c r="I10" t="s">
         <v>26</v>
@@ -1544,21 +1631,21 @@
         <v>29</v>
       </c>
       <c r="M10">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N10" s="2">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>45506</v>
+        <v>45512</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="2">
-        <v>4000</v>
+        <v>1875</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1573,36 +1660,36 @@
         <v>30</v>
       </c>
       <c r="H11">
-        <v>24800</v>
+        <v>24000</v>
       </c>
       <c r="I11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M11">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N11" s="2">
-        <v>160</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="2">
-        <v>4150</v>
+        <v>1125</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
@@ -1617,36 +1704,36 @@
         <v>30</v>
       </c>
       <c r="H12">
-        <v>24800</v>
+        <v>24000</v>
       </c>
       <c r="I12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N12" s="2">
-        <v>166</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="2">
-        <v>4196.25</v>
+        <v>1561.25</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
@@ -1658,39 +1745,39 @@
         <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H13">
-        <v>24800</v>
+        <v>24350</v>
       </c>
       <c r="I13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M13">
         <v>25</v>
       </c>
       <c r="N13" s="2">
-        <v>167.85</v>
+        <v>62.45</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="2">
-        <v>3500</v>
+        <v>47.5</v>
       </c>
       <c r="D14" t="s">
         <v>23</v>
@@ -1705,36 +1792,36 @@
         <v>25</v>
       </c>
       <c r="H14">
-        <v>24700</v>
+        <v>25000</v>
       </c>
       <c r="I14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M14">
         <v>25</v>
       </c>
       <c r="N14" s="2">
-        <v>140</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="2">
-        <v>4443.75</v>
+        <v>2460</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -1746,19 +1833,19 @@
         <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H15">
-        <v>24800</v>
+        <v>24350</v>
       </c>
       <c r="I15" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L15" t="s">
         <v>29</v>
@@ -1767,88 +1854,106 @@
         <v>25</v>
       </c>
       <c r="N15" s="2">
-        <v>177.75</v>
+        <v>98.4</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>45506</v>
+        <v>45510</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2">
-        <v>999.86</v>
+        <v>2800</v>
       </c>
       <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16">
+        <v>24200</v>
+      </c>
+      <c r="I16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" t="s">
         <v>43</v>
       </c>
-      <c r="E16" t="s">
+      <c r="K16" t="s">
         <v>44</v>
       </c>
-      <c r="F16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
       <c r="L16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M16">
-        <v>2.11</v>
+        <v>25</v>
       </c>
       <c r="N16" s="2">
-        <v>474.32</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>45506</v>
+        <v>45510</v>
       </c>
       <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3250</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17">
+        <v>24150</v>
+      </c>
+      <c r="I17" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="2">
-        <v>999.94</v>
-      </c>
-      <c r="D17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
       <c r="L17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M17">
-        <v>18.61</v>
+        <v>25</v>
       </c>
       <c r="N17" s="2">
-        <v>53.74</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>45505</v>
+        <v>45510</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="2">
-        <v>875</v>
+        <v>2257.5</v>
       </c>
       <c r="D18" t="s">
         <v>23</v>
@@ -1860,39 +1965,39 @@
         <v>22</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H18">
-        <v>24950</v>
+        <v>24150</v>
       </c>
       <c r="I18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" t="s">
         <v>48</v>
       </c>
-      <c r="J18" t="s">
-        <v>49</v>
-      </c>
-      <c r="K18" t="s">
-        <v>50</v>
-      </c>
       <c r="L18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M18">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="N18" s="2">
-        <v>7</v>
+        <v>90.3</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>45505</v>
+        <v>45510</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="2">
-        <v>320</v>
+        <v>2500</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
@@ -1907,16 +2012,16 @@
         <v>25</v>
       </c>
       <c r="H19">
-        <v>25000</v>
+        <v>24300</v>
       </c>
       <c r="I19" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="J19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L19" t="s">
         <v>29</v>
@@ -1925,18 +2030,18 @@
         <v>25</v>
       </c>
       <c r="N19" s="2">
-        <v>12.8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>45505</v>
+        <v>45510</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="2">
-        <v>960</v>
+        <v>3167.5</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1948,39 +2053,39 @@
         <v>22</v>
       </c>
       <c r="G20" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H20">
-        <v>25000</v>
+        <v>24200</v>
       </c>
       <c r="I20" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="J20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K20" t="s">
         <v>52</v>
       </c>
       <c r="L20" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M20">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N20" s="2">
-        <v>12.8</v>
+        <v>126.7</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>45505</v>
+        <v>45510</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="2">
-        <v>875</v>
+        <v>2971.25</v>
       </c>
       <c r="D21" t="s">
         <v>23</v>
@@ -1992,39 +2097,39 @@
         <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H21">
-        <v>25000</v>
+        <v>24150</v>
       </c>
       <c r="I21" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="J21" t="s">
+        <v>53</v>
+      </c>
+      <c r="K21" t="s">
         <v>54</v>
       </c>
-      <c r="K21" t="s">
-        <v>55</v>
-      </c>
       <c r="L21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M21">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="N21" s="2">
-        <v>7</v>
+        <v>118.85</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>45505</v>
+        <v>45510</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="2">
-        <v>6.25</v>
+        <v>2337.5</v>
       </c>
       <c r="D22" t="s">
         <v>23</v>
@@ -2036,39 +2141,39 @@
         <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H22">
-        <v>24950</v>
+        <v>24300</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="J22" t="s">
+        <v>55</v>
+      </c>
+      <c r="K22" t="s">
         <v>56</v>
       </c>
-      <c r="K22" t="s">
-        <v>52</v>
-      </c>
       <c r="L22" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M22">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="N22" s="2">
-        <v>0.05</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>45505</v>
+        <v>45510</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="2">
-        <v>320</v>
+        <v>2843.75</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -2083,16 +2188,16 @@
         <v>25</v>
       </c>
       <c r="H23">
-        <v>25000</v>
+        <v>24150</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="J23" t="s">
         <v>57</v>
       </c>
       <c r="K23" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L23" t="s">
         <v>29</v>
@@ -2101,18 +2206,18 @@
         <v>25</v>
       </c>
       <c r="N23" s="2">
-        <v>12.8</v>
+        <v>113.75</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>45504</v>
+        <v>45509</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="2">
-        <v>2471.25</v>
+        <v>750</v>
       </c>
       <c r="D24" t="s">
         <v>23</v>
@@ -2124,39 +2229,39 @@
         <v>22</v>
       </c>
       <c r="G24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24">
+        <v>24700</v>
+      </c>
+      <c r="I24" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" t="s">
+        <v>59</v>
+      </c>
+      <c r="K24" t="s">
+        <v>60</v>
+      </c>
+      <c r="L24" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24">
+        <v>25</v>
+      </c>
+      <c r="N24" s="2">
         <v>30</v>
-      </c>
-      <c r="H24">
-        <v>24950</v>
-      </c>
-      <c r="I24" t="s">
-        <v>48</v>
-      </c>
-      <c r="J24" t="s">
-        <v>58</v>
-      </c>
-      <c r="K24" t="s">
-        <v>59</v>
-      </c>
-      <c r="L24" t="s">
-        <v>33</v>
-      </c>
-      <c r="M24">
-        <v>25</v>
-      </c>
-      <c r="N24" s="2">
-        <v>98.85</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>45504</v>
+        <v>45506</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="2">
-        <v>2436.25</v>
+        <v>4000</v>
       </c>
       <c r="D25" t="s">
         <v>23</v>
@@ -2171,36 +2276,36 @@
         <v>30</v>
       </c>
       <c r="H25">
-        <v>25000</v>
+        <v>24800</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="J25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L25" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M25">
         <v>25</v>
       </c>
       <c r="N25" s="2">
-        <v>97.45</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>45504</v>
+        <v>45506</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="2">
-        <v>2136.25</v>
+        <v>4150</v>
       </c>
       <c r="D26" t="s">
         <v>23</v>
@@ -2215,16 +2320,16 @@
         <v>30</v>
       </c>
       <c r="H26">
-        <v>24950</v>
+        <v>24800</v>
       </c>
       <c r="I26" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="J26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L26" t="s">
         <v>29</v>
@@ -2233,18 +2338,18 @@
         <v>25</v>
       </c>
       <c r="N26" s="2">
-        <v>85.45</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>45504</v>
+        <v>45506</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="2">
-        <v>2613.75</v>
+        <v>4196.25</v>
       </c>
       <c r="D27" t="s">
         <v>23</v>
@@ -2259,36 +2364,36 @@
         <v>30</v>
       </c>
       <c r="H27">
-        <v>25000</v>
+        <v>24800</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="J27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L27" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M27">
         <v>25</v>
       </c>
       <c r="N27" s="2">
-        <v>104.55</v>
+        <v>167.85</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>45503</v>
+        <v>45506</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="2">
-        <v>2568.75</v>
+        <v>3500</v>
       </c>
       <c r="D28" t="s">
         <v>23</v>
@@ -2300,19 +2405,19 @@
         <v>22</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H28">
-        <v>24900</v>
+        <v>24700</v>
       </c>
       <c r="I28" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="J28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L28" t="s">
         <v>29</v>
@@ -2321,18 +2426,18 @@
         <v>25</v>
       </c>
       <c r="N28" s="2">
-        <v>102.75</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>45503</v>
+        <v>45506</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="2">
-        <v>2568.75</v>
+        <v>4443.75</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
@@ -2347,124 +2452,106 @@
         <v>30</v>
       </c>
       <c r="H29">
-        <v>24900</v>
+        <v>24800</v>
       </c>
       <c r="I29" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="J29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K29" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L29" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M29">
         <v>25</v>
       </c>
       <c r="N29" s="2">
-        <v>102.75</v>
+        <v>177.75</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>45503</v>
+        <v>45506</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2">
-        <v>4250</v>
+        <v>999.86</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="E30" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="G30" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="H30">
-        <v>24950</v>
-      </c>
-      <c r="I30" t="s">
-        <v>48</v>
-      </c>
-      <c r="J30" t="s">
-        <v>69</v>
-      </c>
-      <c r="K30" t="s">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="L30" t="s">
         <v>29</v>
       </c>
       <c r="M30">
-        <v>50</v>
+        <v>2.11</v>
       </c>
       <c r="N30" s="2">
-        <v>85</v>
+        <v>474.32</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>45503</v>
+        <v>45506</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="C31" s="2">
-        <v>1400</v>
+        <v>999.94</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="H31">
-        <v>25150</v>
-      </c>
-      <c r="I31" t="s">
-        <v>48</v>
-      </c>
-      <c r="J31" t="s">
-        <v>71</v>
-      </c>
-      <c r="K31" t="s">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>50</v>
+        <v>18.61</v>
       </c>
       <c r="N31" s="2">
-        <v>28</v>
+        <v>53.74</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>45503</v>
+        <v>45505</v>
       </c>
       <c r="B32" t="s">
         <v>22</v>
       </c>
       <c r="C32" s="2">
-        <v>2625</v>
+        <v>875</v>
       </c>
       <c r="D32" t="s">
         <v>23</v>
@@ -2476,39 +2563,39 @@
         <v>22</v>
       </c>
       <c r="G32" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H32">
         <v>24950</v>
       </c>
       <c r="I32" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="J32" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K32" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L32" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="N32" s="2">
-        <v>105</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>45503</v>
+        <v>45505</v>
       </c>
       <c r="B33" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="2">
-        <v>2625</v>
+        <v>320</v>
       </c>
       <c r="D33" t="s">
         <v>23</v>
@@ -2523,36 +2610,36 @@
         <v>25</v>
       </c>
       <c r="H33">
-        <v>24950</v>
+        <v>25000</v>
       </c>
       <c r="I33" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="J33" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K33" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="L33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M33">
         <v>25</v>
       </c>
       <c r="N33" s="2">
-        <v>105</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>45503</v>
+        <v>45505</v>
       </c>
       <c r="B34" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="2">
-        <v>1435</v>
+        <v>960</v>
       </c>
       <c r="D34" t="s">
         <v>23</v>
@@ -2567,36 +2654,36 @@
         <v>25</v>
       </c>
       <c r="H34">
-        <v>25150</v>
+        <v>25000</v>
       </c>
       <c r="I34" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="J34" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K34" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L34" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M34">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N34" s="2">
-        <v>28.7</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>45503</v>
+        <v>45505</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
       </c>
       <c r="C35" s="2">
-        <v>5097.5</v>
+        <v>875</v>
       </c>
       <c r="D35" t="s">
         <v>23</v>
@@ -2608,39 +2695,39 @@
         <v>22</v>
       </c>
       <c r="G35" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H35">
-        <v>24900</v>
+        <v>25000</v>
       </c>
       <c r="I35" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K35" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L35" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M35">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="N35" s="2">
-        <v>101.95</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>45502</v>
+        <v>45505</v>
       </c>
       <c r="B36" t="s">
         <v>22</v>
       </c>
       <c r="C36" s="2">
-        <v>4950</v>
+        <v>6.25</v>
       </c>
       <c r="D36" t="s">
         <v>23</v>
@@ -2652,39 +2739,39 @@
         <v>22</v>
       </c>
       <c r="G36" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H36">
-        <v>25000</v>
+        <v>24950</v>
       </c>
       <c r="I36" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="J36" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K36" t="s">
         <v>81</v>
       </c>
       <c r="L36" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M36">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="N36" s="2">
-        <v>66</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>45502</v>
+        <v>45505</v>
       </c>
       <c r="B37" t="s">
         <v>22</v>
       </c>
       <c r="C37" s="2">
-        <v>600</v>
+        <v>320</v>
       </c>
       <c r="D37" t="s">
         <v>23</v>
@@ -2696,39 +2783,39 @@
         <v>22</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H37">
-        <v>24450</v>
+        <v>25000</v>
       </c>
       <c r="I37" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="J37" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M37">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N37" s="2">
-        <v>12</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>45502</v>
+        <v>45504</v>
       </c>
       <c r="B38" t="s">
         <v>22</v>
       </c>
       <c r="C38" s="2">
-        <v>4192.5</v>
+        <v>2471.25</v>
       </c>
       <c r="D38" t="s">
         <v>23</v>
@@ -2743,36 +2830,36 @@
         <v>30</v>
       </c>
       <c r="H38">
-        <v>24900</v>
+        <v>24950</v>
       </c>
       <c r="I38" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="J38" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K38" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L38" t="s">
         <v>29</v>
       </c>
       <c r="M38">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N38" s="2">
-        <v>83.85</v>
+        <v>98.85</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>45502</v>
+        <v>45504</v>
       </c>
       <c r="B39" t="s">
         <v>22</v>
       </c>
       <c r="C39" s="2">
-        <v>900</v>
+        <v>2436.25</v>
       </c>
       <c r="D39" t="s">
         <v>23</v>
@@ -2784,39 +2871,39 @@
         <v>22</v>
       </c>
       <c r="G39" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H39">
-        <v>25400</v>
+        <v>25000</v>
       </c>
       <c r="I39" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="J39" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K39" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L39" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M39">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N39" s="2">
-        <v>9</v>
+        <v>97.45</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>45502</v>
+        <v>45504</v>
       </c>
       <c r="B40" t="s">
         <v>22</v>
       </c>
       <c r="C40" s="2">
-        <v>300</v>
+        <v>2136.25</v>
       </c>
       <c r="D40" t="s">
         <v>23</v>
@@ -2831,36 +2918,36 @@
         <v>30</v>
       </c>
       <c r="H40">
-        <v>24450</v>
+        <v>24950</v>
       </c>
       <c r="I40" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="J40" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K40" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="L40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M40">
         <v>25</v>
       </c>
       <c r="N40" s="2">
-        <v>12</v>
+        <v>85.45</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>45502</v>
+        <v>45504</v>
       </c>
       <c r="B41" t="s">
         <v>22</v>
       </c>
       <c r="C41" s="2">
-        <v>9375</v>
+        <v>2613.75</v>
       </c>
       <c r="D41" t="s">
         <v>23</v>
@@ -2875,36 +2962,36 @@
         <v>30</v>
       </c>
       <c r="H41">
-        <v>24900</v>
+        <v>25000</v>
       </c>
       <c r="I41" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="J41" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K41" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M41">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N41" s="2">
-        <v>125</v>
+        <v>104.55</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>45502</v>
+        <v>45503</v>
       </c>
       <c r="B42" t="s">
         <v>22</v>
       </c>
       <c r="C42" s="2">
-        <v>7500</v>
+        <v>2568.75</v>
       </c>
       <c r="D42" t="s">
         <v>23</v>
@@ -2916,39 +3003,39 @@
         <v>22</v>
       </c>
       <c r="G42" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H42">
-        <v>25000</v>
+        <v>24900</v>
       </c>
       <c r="I42" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="J42" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K42" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="L42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M42">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N42" s="2">
-        <v>100</v>
+        <v>102.75</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>45502</v>
+        <v>45503</v>
       </c>
       <c r="B43" t="s">
         <v>22</v>
       </c>
       <c r="C43" s="2">
-        <v>2097.5</v>
+        <v>2568.75</v>
       </c>
       <c r="D43" t="s">
         <v>23</v>
@@ -2966,33 +3053,33 @@
         <v>24900</v>
       </c>
       <c r="I43" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="J43" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K43" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="L43" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M43">
         <v>25</v>
       </c>
       <c r="N43" s="2">
-        <v>83.9</v>
+        <v>102.75</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>45502</v>
+        <v>45503</v>
       </c>
       <c r="B44" t="s">
         <v>22</v>
       </c>
       <c r="C44" s="2">
-        <v>783.75</v>
+        <v>4250</v>
       </c>
       <c r="D44" t="s">
         <v>23</v>
@@ -3004,39 +3091,39 @@
         <v>22</v>
       </c>
       <c r="G44" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H44">
-        <v>24450</v>
+        <v>24950</v>
       </c>
       <c r="I44" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="J44" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K44" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L44" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M44">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N44" s="2">
-        <v>10.45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>45502</v>
+        <v>45503</v>
       </c>
       <c r="B45" t="s">
         <v>22</v>
       </c>
       <c r="C45" s="2">
-        <v>1035</v>
+        <v>1400</v>
       </c>
       <c r="D45" t="s">
         <v>23</v>
@@ -3051,36 +3138,36 @@
         <v>25</v>
       </c>
       <c r="H45">
-        <v>25400</v>
+        <v>25150</v>
       </c>
       <c r="I45" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K45" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L45" t="s">
         <v>29</v>
       </c>
       <c r="M45">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N45" s="2">
-        <v>10.35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>45499</v>
+        <v>45503</v>
       </c>
       <c r="B46" t="s">
         <v>22</v>
       </c>
       <c r="C46" s="2">
-        <v>7125</v>
+        <v>2625</v>
       </c>
       <c r="D46" t="s">
         <v>23</v>
@@ -3095,16 +3182,16 @@
         <v>25</v>
       </c>
       <c r="H46">
-        <v>24600</v>
+        <v>24950</v>
       </c>
       <c r="I46" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="J46" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="K46" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="L46" t="s">
         <v>29</v>
@@ -3113,18 +3200,18 @@
         <v>25</v>
       </c>
       <c r="N46" s="2">
-        <v>285</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>45499</v>
+        <v>45503</v>
       </c>
       <c r="B47" t="s">
         <v>22</v>
       </c>
       <c r="C47" s="2">
-        <v>2653.75</v>
+        <v>2625</v>
       </c>
       <c r="D47" t="s">
         <v>23</v>
@@ -3136,19 +3223,19 @@
         <v>22</v>
       </c>
       <c r="G47" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H47">
-        <v>24650</v>
+        <v>24950</v>
       </c>
       <c r="I47" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="J47" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K47" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L47" t="s">
         <v>29</v>
@@ -3157,18 +3244,18 @@
         <v>25</v>
       </c>
       <c r="N47" s="2">
-        <v>106.15</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>45499</v>
+        <v>45503</v>
       </c>
       <c r="B48" t="s">
         <v>22</v>
       </c>
       <c r="C48" s="2">
-        <v>4767.5</v>
+        <v>1435</v>
       </c>
       <c r="D48" t="s">
         <v>23</v>
@@ -3183,36 +3270,36 @@
         <v>25</v>
       </c>
       <c r="H48">
-        <v>24600</v>
+        <v>25150</v>
       </c>
       <c r="I48" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="J48" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K48" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M48">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N48" s="2">
-        <v>190.7</v>
+        <v>28.7</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>45499</v>
+        <v>45503</v>
       </c>
       <c r="B49" t="s">
         <v>22</v>
       </c>
       <c r="C49" s="2">
-        <v>3450</v>
+        <v>5097.5</v>
       </c>
       <c r="D49" t="s">
         <v>23</v>
@@ -3227,36 +3314,36 @@
         <v>30</v>
       </c>
       <c r="H49">
-        <v>24650</v>
+        <v>24900</v>
       </c>
       <c r="I49" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="J49" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K49" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L49" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M49">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N49" s="2">
-        <v>138</v>
+        <v>101.95</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>45496</v>
+        <v>45502</v>
       </c>
       <c r="B50" t="s">
         <v>22</v>
       </c>
       <c r="C50" s="2">
-        <v>5445</v>
+        <v>4950</v>
       </c>
       <c r="D50" t="s">
         <v>23</v>
@@ -3271,36 +3358,36 @@
         <v>25</v>
       </c>
       <c r="H50">
-        <v>24500</v>
+        <v>25000</v>
       </c>
       <c r="I50" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="J50" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K50" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L50" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M50">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N50" s="2">
-        <v>108.9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>45496</v>
+        <v>45502</v>
       </c>
       <c r="B51" t="s">
         <v>22</v>
       </c>
       <c r="C51" s="2">
-        <v>2722.5</v>
+        <v>600</v>
       </c>
       <c r="D51" t="s">
         <v>23</v>
@@ -3312,39 +3399,39 @@
         <v>22</v>
       </c>
       <c r="G51" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H51">
-        <v>24500</v>
+        <v>24450</v>
       </c>
       <c r="I51" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="J51" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K51" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L51" t="s">
         <v>29</v>
       </c>
       <c r="M51">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N51" s="2">
-        <v>108.9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>45496</v>
+        <v>45502</v>
       </c>
       <c r="B52" t="s">
         <v>22</v>
       </c>
       <c r="C52" s="2">
-        <v>10265</v>
+        <v>4192.5</v>
       </c>
       <c r="D52" t="s">
         <v>23</v>
@@ -3356,39 +3443,39 @@
         <v>22</v>
       </c>
       <c r="G52" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H52">
-        <v>24500</v>
+        <v>24900</v>
       </c>
       <c r="I52" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="J52" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="L52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M52">
         <v>50</v>
       </c>
       <c r="N52" s="2">
-        <v>205.3</v>
+        <v>83.85</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>45496</v>
+        <v>45502</v>
       </c>
       <c r="B53" t="s">
         <v>22</v>
       </c>
       <c r="C53" s="2">
-        <v>2723.75</v>
+        <v>900</v>
       </c>
       <c r="D53" t="s">
         <v>23</v>
@@ -3403,36 +3490,36 @@
         <v>25</v>
       </c>
       <c r="H53">
-        <v>24500</v>
+        <v>25400</v>
       </c>
       <c r="I53" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="J53" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K53" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="L53" t="s">
         <v>29</v>
       </c>
       <c r="M53">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N53" s="2">
-        <v>108.95</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>45496</v>
+        <v>45502</v>
       </c>
       <c r="B54" t="s">
         <v>22</v>
       </c>
       <c r="C54" s="2">
-        <v>10267.5</v>
+        <v>300</v>
       </c>
       <c r="D54" t="s">
         <v>23</v>
@@ -3444,39 +3531,39 @@
         <v>22</v>
       </c>
       <c r="G54" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H54">
-        <v>24500</v>
+        <v>24450</v>
       </c>
       <c r="I54" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="J54" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K54" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L54" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M54">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N54" s="2">
-        <v>205.35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>45495</v>
+        <v>45502</v>
       </c>
       <c r="B55" t="s">
         <v>22</v>
       </c>
       <c r="C55" s="2">
-        <v>19020</v>
+        <v>9375</v>
       </c>
       <c r="D55" t="s">
         <v>23</v>
@@ -3491,16 +3578,16 @@
         <v>30</v>
       </c>
       <c r="H55">
-        <v>24600</v>
+        <v>24900</v>
       </c>
       <c r="I55" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="J55" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K55" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L55" t="s">
         <v>29</v>
@@ -3509,18 +3596,18 @@
         <v>75</v>
       </c>
       <c r="N55" s="2">
-        <v>253.6</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>45495</v>
+        <v>45502</v>
       </c>
       <c r="B56" t="s">
         <v>22</v>
       </c>
       <c r="C56" s="2">
-        <v>18911.25</v>
+        <v>7500</v>
       </c>
       <c r="D56" t="s">
         <v>23</v>
@@ -3532,39 +3619,39 @@
         <v>22</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H56">
-        <v>24600</v>
+        <v>25000</v>
       </c>
       <c r="I56" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="J56" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K56" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L56" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M56">
         <v>75</v>
       </c>
       <c r="N56" s="2">
-        <v>252.15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>45491</v>
+        <v>45502</v>
       </c>
       <c r="B57" t="s">
         <v>22</v>
       </c>
       <c r="C57" s="2">
-        <v>4000</v>
+        <v>2097.5</v>
       </c>
       <c r="D57" t="s">
         <v>23</v>
@@ -3576,39 +3663,39 @@
         <v>22</v>
       </c>
       <c r="G57" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H57">
-        <v>24650</v>
+        <v>24900</v>
       </c>
       <c r="I57" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="J57" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K57" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="L57" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M57">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N57" s="2">
-        <v>40</v>
+        <v>83.9</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>45491</v>
+        <v>45502</v>
       </c>
       <c r="B58" t="s">
         <v>22</v>
       </c>
       <c r="C58" s="2">
-        <v>8710</v>
+        <v>783.75</v>
       </c>
       <c r="D58" t="s">
         <v>23</v>
@@ -3620,39 +3707,39 @@
         <v>22</v>
       </c>
       <c r="G58" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H58">
-        <v>24600</v>
+        <v>24450</v>
       </c>
       <c r="I58" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="J58" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K58" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L58" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M58">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="N58" s="2">
-        <v>87.1</v>
+        <v>10.45</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>45491</v>
+        <v>45502</v>
       </c>
       <c r="B59" t="s">
         <v>22</v>
       </c>
       <c r="C59" s="2">
-        <v>5000</v>
+        <v>1035</v>
       </c>
       <c r="D59" t="s">
         <v>23</v>
@@ -3667,36 +3754,36 @@
         <v>25</v>
       </c>
       <c r="H59">
-        <v>24650</v>
+        <v>25400</v>
       </c>
       <c r="I59" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="J59" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K59" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L59" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M59">
         <v>100</v>
       </c>
       <c r="N59" s="2">
-        <v>50</v>
+        <v>10.35</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>45491</v>
+        <v>45499</v>
       </c>
       <c r="B60" t="s">
         <v>22</v>
       </c>
       <c r="C60" s="2">
-        <v>300</v>
+        <v>7125</v>
       </c>
       <c r="D60" t="s">
         <v>23</v>
@@ -3708,39 +3795,39 @@
         <v>22</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H60">
-        <v>24650</v>
+        <v>24600</v>
       </c>
       <c r="I60" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="J60" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K60" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M60">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N60" s="2">
-        <v>3</v>
+        <v>285</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>45491</v>
+        <v>45499</v>
       </c>
       <c r="B61" t="s">
         <v>22</v>
       </c>
       <c r="C61" s="2">
-        <v>2822.5</v>
+        <v>2653.75</v>
       </c>
       <c r="D61" t="s">
         <v>23</v>
@@ -3752,39 +3839,39 @@
         <v>22</v>
       </c>
       <c r="G61" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H61">
         <v>24650</v>
       </c>
       <c r="I61" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="J61" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K61" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L61" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M61">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N61" s="2">
-        <v>56.45</v>
+        <v>106.15</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>45491</v>
+        <v>45499</v>
       </c>
       <c r="B62" t="s">
         <v>22</v>
       </c>
       <c r="C62" s="2">
-        <v>4965</v>
+        <v>4767.5</v>
       </c>
       <c r="D62" t="s">
         <v>23</v>
@@ -3802,33 +3889,33 @@
         <v>24600</v>
       </c>
       <c r="I62" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="J62" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K62" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L62" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M62">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N62" s="2">
-        <v>49.65</v>
+        <v>190.7</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>45491</v>
+        <v>45499</v>
       </c>
       <c r="B63" t="s">
         <v>22</v>
       </c>
       <c r="C63" s="2">
-        <v>3512.5</v>
+        <v>3450</v>
       </c>
       <c r="D63" t="s">
         <v>23</v>
@@ -3846,33 +3933,33 @@
         <v>24650</v>
       </c>
       <c r="I63" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="J63" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K63" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L63" t="s">
         <v>29</v>
       </c>
       <c r="M63">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N63" s="2">
-        <v>70.25</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>45491</v>
+        <v>45496</v>
       </c>
       <c r="B64" t="s">
         <v>22</v>
       </c>
       <c r="C64" s="2">
-        <v>5100</v>
+        <v>5445</v>
       </c>
       <c r="D64" t="s">
         <v>23</v>
@@ -3887,36 +3974,36 @@
         <v>25</v>
       </c>
       <c r="H64">
-        <v>24650</v>
+        <v>24500</v>
       </c>
       <c r="I64" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="J64" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K64" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L64" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M64">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N64" s="2">
-        <v>51</v>
+        <v>108.9</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>45491</v>
+        <v>45496</v>
       </c>
       <c r="B65" t="s">
         <v>22</v>
       </c>
       <c r="C65" s="2">
-        <v>1715</v>
+        <v>2722.5</v>
       </c>
       <c r="D65" t="s">
         <v>23</v>
@@ -3931,36 +4018,36 @@
         <v>25</v>
       </c>
       <c r="H65">
-        <v>24650</v>
+        <v>24500</v>
       </c>
       <c r="I65" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="J65" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K65" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L65" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M65">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N65" s="2">
-        <v>17.149999999999999</v>
+        <v>108.9</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>45489</v>
+        <v>45496</v>
       </c>
       <c r="B66" t="s">
         <v>22</v>
       </c>
       <c r="C66" s="2">
-        <v>1752.5</v>
+        <v>10265</v>
       </c>
       <c r="D66" t="s">
         <v>23</v>
@@ -3975,36 +4062,36 @@
         <v>25</v>
       </c>
       <c r="H66">
-        <v>24650</v>
+        <v>24500</v>
       </c>
       <c r="I66" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="J66" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K66" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L66" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M66">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N66" s="2">
-        <v>70.099999999999994</v>
+        <v>205.3</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>45489</v>
+        <v>45496</v>
       </c>
       <c r="B67" t="s">
         <v>22</v>
       </c>
       <c r="C67" s="2">
-        <v>1941.25</v>
+        <v>2723.75</v>
       </c>
       <c r="D67" t="s">
         <v>23</v>
@@ -4016,39 +4103,39 @@
         <v>22</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H67">
-        <v>24650</v>
+        <v>24500</v>
       </c>
       <c r="I67" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="J67" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K67" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M67">
         <v>25</v>
       </c>
       <c r="N67" s="2">
-        <v>77.650000000000006</v>
+        <v>108.95</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>45489</v>
+        <v>45496</v>
       </c>
       <c r="B68" t="s">
         <v>22</v>
       </c>
       <c r="C68" s="2">
-        <v>1942.5</v>
+        <v>10267.5</v>
       </c>
       <c r="D68" t="s">
         <v>23</v>
@@ -4060,39 +4147,39 @@
         <v>22</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H68">
-        <v>24650</v>
+        <v>24500</v>
       </c>
       <c r="I68" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="J68" t="s">
+        <v>142</v>
+      </c>
+      <c r="K68" t="s">
         <v>140</v>
       </c>
-      <c r="K68" t="s">
-        <v>138</v>
-      </c>
       <c r="L68" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M68">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N68" s="2">
-        <v>77.7</v>
+        <v>205.35</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>45489</v>
+        <v>45495</v>
       </c>
       <c r="B69" t="s">
         <v>22</v>
       </c>
       <c r="C69" s="2">
-        <v>1751.25</v>
+        <v>19020</v>
       </c>
       <c r="D69" t="s">
         <v>23</v>
@@ -4104,39 +4191,39 @@
         <v>22</v>
       </c>
       <c r="G69" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H69">
-        <v>24650</v>
+        <v>24600</v>
       </c>
       <c r="I69" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="J69" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K69" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="L69" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M69">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N69" s="2">
-        <v>70.05</v>
+        <v>253.6</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>45488</v>
+        <v>45495</v>
       </c>
       <c r="B70" t="s">
         <v>22</v>
       </c>
       <c r="C70" s="2">
-        <v>5787.5</v>
+        <v>18911.25</v>
       </c>
       <c r="D70" t="s">
         <v>23</v>
@@ -4151,36 +4238,36 @@
         <v>30</v>
       </c>
       <c r="H70">
-        <v>24650</v>
+        <v>24600</v>
       </c>
       <c r="I70" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="J70" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K70" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L70" t="s">
         <v>29</v>
       </c>
       <c r="M70">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N70" s="2">
-        <v>115.75</v>
+        <v>252.15</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>45488</v>
+        <v>45491</v>
       </c>
       <c r="B71" t="s">
         <v>22</v>
       </c>
       <c r="C71" s="2">
-        <v>5762.5</v>
+        <v>4000</v>
       </c>
       <c r="D71" t="s">
         <v>23</v>
@@ -4192,39 +4279,39 @@
         <v>22</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H71">
         <v>24650</v>
       </c>
       <c r="I71" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="J71" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K71" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L71" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M71">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N71" s="2">
-        <v>115.25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>45484</v>
+        <v>45491</v>
       </c>
       <c r="B72" t="s">
         <v>22</v>
       </c>
       <c r="C72" s="2">
-        <v>1601.25</v>
+        <v>8710</v>
       </c>
       <c r="D72" t="s">
         <v>23</v>
@@ -4239,36 +4326,36 @@
         <v>25</v>
       </c>
       <c r="H72">
-        <v>24350</v>
+        <v>24600</v>
       </c>
       <c r="I72" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J72" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K72" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L72" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M72">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="N72" s="2">
-        <v>21.35</v>
+        <v>87.1</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>45484</v>
+        <v>45491</v>
       </c>
       <c r="B73" t="s">
         <v>22</v>
       </c>
       <c r="C73" s="2">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="D73" t="s">
         <v>23</v>
@@ -4283,36 +4370,36 @@
         <v>25</v>
       </c>
       <c r="H73">
-        <v>24350</v>
+        <v>24650</v>
       </c>
       <c r="I73" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J73" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K73" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L73" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M73">
         <v>100</v>
       </c>
       <c r="N73" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>45484</v>
+        <v>45491</v>
       </c>
       <c r="B74" t="s">
         <v>22</v>
       </c>
       <c r="C74" s="2">
-        <v>107.5</v>
+        <v>300</v>
       </c>
       <c r="D74" t="s">
         <v>23</v>
@@ -4324,39 +4411,39 @@
         <v>22</v>
       </c>
       <c r="G74" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H74">
-        <v>24400</v>
+        <v>24650</v>
       </c>
       <c r="I74" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J74" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K74" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L74" t="s">
         <v>29</v>
       </c>
       <c r="M74">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N74" s="2">
-        <v>4.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>45484</v>
+        <v>45491</v>
       </c>
       <c r="B75" t="s">
         <v>22</v>
       </c>
       <c r="C75" s="2">
-        <v>351.25</v>
+        <v>2822.5</v>
       </c>
       <c r="D75" t="s">
         <v>23</v>
@@ -4371,36 +4458,36 @@
         <v>25</v>
       </c>
       <c r="H75">
-        <v>24300</v>
+        <v>24650</v>
       </c>
       <c r="I75" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J75" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K75" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="L75" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M75">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N75" s="2">
-        <v>14.05</v>
+        <v>56.45</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>45484</v>
+        <v>45491</v>
       </c>
       <c r="B76" t="s">
         <v>22</v>
       </c>
       <c r="C76" s="2">
-        <v>62.5</v>
+        <v>4965</v>
       </c>
       <c r="D76" t="s">
         <v>23</v>
@@ -4415,36 +4502,36 @@
         <v>25</v>
       </c>
       <c r="H76">
-        <v>24400</v>
+        <v>24600</v>
       </c>
       <c r="I76" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J76" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K76" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L76" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M76">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N76" s="2">
-        <v>2.5</v>
+        <v>49.65</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>45484</v>
+        <v>45491</v>
       </c>
       <c r="B77" t="s">
         <v>22</v>
       </c>
       <c r="C77" s="2">
-        <v>2668.75</v>
+        <v>3512.5</v>
       </c>
       <c r="D77" t="s">
         <v>23</v>
@@ -4456,39 +4543,39 @@
         <v>22</v>
       </c>
       <c r="G77" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H77">
-        <v>24350</v>
+        <v>24650</v>
       </c>
       <c r="I77" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J77" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K77" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="L77" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M77">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="N77" s="2">
-        <v>21.35</v>
+        <v>70.25</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>45484</v>
+        <v>45491</v>
       </c>
       <c r="B78" t="s">
         <v>22</v>
       </c>
       <c r="C78" s="2">
-        <v>498.75</v>
+        <v>5100</v>
       </c>
       <c r="D78" t="s">
         <v>23</v>
@@ -4503,36 +4590,36 @@
         <v>25</v>
       </c>
       <c r="H78">
-        <v>24300</v>
+        <v>24650</v>
       </c>
       <c r="I78" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J78" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K78" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L78" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M78">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N78" s="2">
-        <v>19.95</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>45484</v>
+        <v>45491</v>
       </c>
       <c r="B79" t="s">
         <v>22</v>
       </c>
       <c r="C79" s="2">
-        <v>1493.75</v>
+        <v>1715</v>
       </c>
       <c r="D79" t="s">
         <v>23</v>
@@ -4547,36 +4634,36 @@
         <v>25</v>
       </c>
       <c r="H79">
-        <v>24350</v>
+        <v>24650</v>
       </c>
       <c r="I79" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J79" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="K79" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L79" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M79">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N79" s="2">
-        <v>59.75</v>
+        <v>17.149999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>45484</v>
+        <v>45489</v>
       </c>
       <c r="B80" t="s">
         <v>22</v>
       </c>
       <c r="C80" s="2">
-        <v>2987.5</v>
+        <v>1752.5</v>
       </c>
       <c r="D80" t="s">
         <v>23</v>
@@ -4591,36 +4678,36 @@
         <v>25</v>
       </c>
       <c r="H80">
-        <v>24350</v>
+        <v>24650</v>
       </c>
       <c r="I80" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J80" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="K80" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="L80" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M80">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N80" s="2">
-        <v>59.75</v>
+        <v>70.099999999999994</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>45484</v>
+        <v>45489</v>
       </c>
       <c r="B81" t="s">
         <v>22</v>
       </c>
       <c r="C81" s="2">
-        <v>1493.75</v>
+        <v>1941.25</v>
       </c>
       <c r="D81" t="s">
         <v>23</v>
@@ -4632,39 +4719,39 @@
         <v>22</v>
       </c>
       <c r="G81" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H81">
-        <v>24350</v>
+        <v>24650</v>
       </c>
       <c r="I81" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J81" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="K81" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="L81" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M81">
         <v>25</v>
       </c>
       <c r="N81" s="2">
-        <v>59.75</v>
+        <v>77.650000000000006</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>45483</v>
+        <v>45489</v>
       </c>
       <c r="B82" t="s">
         <v>22</v>
       </c>
       <c r="C82" s="2">
-        <v>13792.5</v>
+        <v>1942.5</v>
       </c>
       <c r="D82" t="s">
         <v>23</v>
@@ -4676,39 +4763,39 @@
         <v>22</v>
       </c>
       <c r="G82" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H82">
-        <v>24100</v>
+        <v>24650</v>
       </c>
       <c r="I82" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J82" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="K82" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L82" t="s">
         <v>29</v>
       </c>
       <c r="M82">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N82" s="2">
-        <v>183.9</v>
+        <v>77.7</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>45483</v>
+        <v>45489</v>
       </c>
       <c r="B83" t="s">
         <v>22</v>
       </c>
       <c r="C83" s="2">
-        <v>16700</v>
+        <v>1751.25</v>
       </c>
       <c r="D83" t="s">
         <v>23</v>
@@ -4723,36 +4810,36 @@
         <v>25</v>
       </c>
       <c r="H83">
-        <v>24100</v>
+        <v>24650</v>
       </c>
       <c r="I83" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J83" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K83" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L83" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M83">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N83" s="2">
-        <v>167</v>
+        <v>70.05</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="B84" t="s">
         <v>22</v>
       </c>
       <c r="C84" s="2">
-        <v>4596.25</v>
+        <v>5787.5</v>
       </c>
       <c r="D84" t="s">
         <v>23</v>
@@ -4764,39 +4851,39 @@
         <v>22</v>
       </c>
       <c r="G84" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H84">
-        <v>24100</v>
+        <v>24650</v>
       </c>
       <c r="I84" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J84" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="K84" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="L84" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M84">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N84" s="2">
-        <v>183.85</v>
+        <v>115.75</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>45482</v>
+        <v>45488</v>
       </c>
       <c r="B85" t="s">
         <v>22</v>
       </c>
       <c r="C85" s="2">
-        <v>6041.25</v>
+        <v>5762.5</v>
       </c>
       <c r="D85" t="s">
         <v>23</v>
@@ -4811,36 +4898,36 @@
         <v>30</v>
       </c>
       <c r="H85">
-        <v>24350</v>
+        <v>24650</v>
       </c>
       <c r="I85" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J85" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="K85" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L85" t="s">
         <v>29</v>
       </c>
       <c r="M85">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N85" s="2">
-        <v>80.55</v>
+        <v>115.25</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>45482</v>
+        <v>45484</v>
       </c>
       <c r="B86" t="s">
         <v>22</v>
       </c>
       <c r="C86" s="2">
-        <v>3437.5</v>
+        <v>1601.25</v>
       </c>
       <c r="D86" t="s">
         <v>23</v>
@@ -4855,36 +4942,36 @@
         <v>25</v>
       </c>
       <c r="H86">
-        <v>24300</v>
+        <v>24350</v>
       </c>
       <c r="I86" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="J86" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K86" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="L86" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M86">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N86" s="2">
-        <v>137.5</v>
+        <v>21.35</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>45482</v>
+        <v>45484</v>
       </c>
       <c r="B87" t="s">
         <v>22</v>
       </c>
       <c r="C87" s="2">
-        <v>5855</v>
+        <v>4000</v>
       </c>
       <c r="D87" t="s">
         <v>23</v>
@@ -4899,36 +4986,36 @@
         <v>25</v>
       </c>
       <c r="H87">
-        <v>24400</v>
+        <v>24350</v>
       </c>
       <c r="I87" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="J87" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="K87" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="L87" t="s">
         <v>29</v>
       </c>
       <c r="M87">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N87" s="2">
-        <v>117.1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>45482</v>
+        <v>45484</v>
       </c>
       <c r="B88" t="s">
         <v>22</v>
       </c>
       <c r="C88" s="2">
-        <v>2225</v>
+        <v>107.5</v>
       </c>
       <c r="D88" t="s">
         <v>23</v>
@@ -4946,33 +5033,33 @@
         <v>24400</v>
       </c>
       <c r="I88" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="J88" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K88" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="L88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M88">
         <v>25</v>
       </c>
       <c r="N88" s="2">
-        <v>89</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>45482</v>
+        <v>45484</v>
       </c>
       <c r="B89" t="s">
         <v>22</v>
       </c>
       <c r="C89" s="2">
-        <v>8030</v>
+        <v>351.25</v>
       </c>
       <c r="D89" t="s">
         <v>23</v>
@@ -4984,39 +5071,39 @@
         <v>22</v>
       </c>
       <c r="G89" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H89">
-        <v>24350</v>
+        <v>24300</v>
       </c>
       <c r="I89" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="J89" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="K89" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="L89" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M89">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N89" s="2">
-        <v>80.3</v>
+        <v>14.05</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>45482</v>
+        <v>45484</v>
       </c>
       <c r="B90" t="s">
         <v>22</v>
       </c>
       <c r="C90" s="2">
-        <v>2013.75</v>
+        <v>62.5</v>
       </c>
       <c r="D90" t="s">
         <v>23</v>
@@ -5028,19 +5115,19 @@
         <v>22</v>
       </c>
       <c r="G90" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H90">
-        <v>24350</v>
+        <v>24400</v>
       </c>
       <c r="I90" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="J90" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="K90" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="L90" t="s">
         <v>29</v>
@@ -5049,18 +5136,18 @@
         <v>25</v>
       </c>
       <c r="N90" s="2">
-        <v>80.55</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>45482</v>
+        <v>45484</v>
       </c>
       <c r="B91" t="s">
         <v>22</v>
       </c>
       <c r="C91" s="2">
-        <v>14545</v>
+        <v>2668.75</v>
       </c>
       <c r="D91" t="s">
         <v>23</v>
@@ -5075,36 +5162,36 @@
         <v>25</v>
       </c>
       <c r="H91">
-        <v>24300</v>
+        <v>24350</v>
       </c>
       <c r="I91" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="J91" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="K91" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L91" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M91">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="N91" s="2">
-        <v>145.44999999999999</v>
+        <v>21.35</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>45482</v>
+        <v>45484</v>
       </c>
       <c r="B92" t="s">
         <v>22</v>
       </c>
       <c r="C92" s="2">
-        <v>3436.25</v>
+        <v>498.75</v>
       </c>
       <c r="D92" t="s">
         <v>23</v>
@@ -5122,33 +5209,33 @@
         <v>24300</v>
       </c>
       <c r="I92" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="J92" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="K92" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="L92" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M92">
         <v>25</v>
       </c>
       <c r="N92" s="2">
-        <v>137.44999999999999</v>
+        <v>19.95</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>45482</v>
+        <v>45484</v>
       </c>
       <c r="B93" t="s">
         <v>22</v>
       </c>
       <c r="C93" s="2">
-        <v>11710</v>
+        <v>1493.75</v>
       </c>
       <c r="D93" t="s">
         <v>23</v>
@@ -5163,36 +5250,36 @@
         <v>25</v>
       </c>
       <c r="H93">
-        <v>24400</v>
+        <v>24350</v>
       </c>
       <c r="I93" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="J93" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="K93" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="L93" t="s">
         <v>29</v>
       </c>
       <c r="M93">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N93" s="2">
-        <v>117.1</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>45482</v>
+        <v>45484</v>
       </c>
       <c r="B94" t="s">
         <v>22</v>
       </c>
       <c r="C94" s="2">
-        <v>14000</v>
+        <v>2987.5</v>
       </c>
       <c r="D94" t="s">
         <v>23</v>
@@ -5207,36 +5294,36 @@
         <v>25</v>
       </c>
       <c r="H94">
-        <v>24300</v>
+        <v>24350</v>
       </c>
       <c r="I94" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="J94" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="K94" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="L94" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M94">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N94" s="2">
-        <v>140</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>45482</v>
+        <v>45484</v>
       </c>
       <c r="B95" t="s">
         <v>22</v>
       </c>
       <c r="C95" s="2">
-        <v>11125</v>
+        <v>1493.75</v>
       </c>
       <c r="D95" t="s">
         <v>23</v>
@@ -5251,36 +5338,36 @@
         <v>25</v>
       </c>
       <c r="H95">
-        <v>24400</v>
+        <v>24350</v>
       </c>
       <c r="I95" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="J95" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="K95" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="L95" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M95">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="N95" s="2">
-        <v>89</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>45482</v>
+        <v>45483</v>
       </c>
       <c r="B96" t="s">
         <v>22</v>
       </c>
       <c r="C96" s="2">
-        <v>6877.5</v>
+        <v>13792.5</v>
       </c>
       <c r="D96" t="s">
         <v>23</v>
@@ -5295,36 +5382,36 @@
         <v>25</v>
       </c>
       <c r="H96">
-        <v>24300</v>
+        <v>24100</v>
       </c>
       <c r="I96" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="J96" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="K96" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="L96" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M96">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N96" s="2">
-        <v>137.55000000000001</v>
+        <v>183.9</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>45481</v>
+        <v>45483</v>
       </c>
       <c r="B97" t="s">
         <v>22</v>
       </c>
       <c r="C97" s="2">
-        <v>12000</v>
+        <v>16700</v>
       </c>
       <c r="D97" t="s">
         <v>23</v>
@@ -5339,36 +5426,36 @@
         <v>25</v>
       </c>
       <c r="H97">
-        <v>24300</v>
+        <v>24100</v>
       </c>
       <c r="I97" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="J97" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="K97" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="L97" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M97">
         <v>100</v>
       </c>
       <c r="N97" s="2">
-        <v>120</v>
+        <v>167</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>45478</v>
+        <v>45483</v>
       </c>
       <c r="B98" t="s">
         <v>22</v>
       </c>
       <c r="C98" s="2">
-        <v>6000</v>
+        <v>4596.25</v>
       </c>
       <c r="D98" t="s">
         <v>23</v>
@@ -5380,39 +5467,39 @@
         <v>22</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H98">
-        <v>24300</v>
+        <v>24100</v>
       </c>
       <c r="I98" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="J98" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="K98" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M98">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N98" s="2">
-        <v>120</v>
+        <v>183.85</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>45478</v>
+        <v>45482</v>
       </c>
       <c r="B99" t="s">
         <v>22</v>
       </c>
       <c r="C99" s="2">
-        <v>3028.75</v>
+        <v>6041.25</v>
       </c>
       <c r="D99" t="s">
         <v>23</v>
@@ -5427,36 +5514,36 @@
         <v>30</v>
       </c>
       <c r="H99">
-        <v>24300</v>
+        <v>24350</v>
       </c>
       <c r="I99" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="J99" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="K99" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="L99" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M99">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N99" s="2">
-        <v>121.15</v>
+        <v>80.55</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>45478</v>
+        <v>45482</v>
       </c>
       <c r="B100" t="s">
         <v>22</v>
       </c>
       <c r="C100" s="2">
-        <v>9250</v>
+        <v>3437.5</v>
       </c>
       <c r="D100" t="s">
         <v>23</v>
@@ -5471,36 +5558,36 @@
         <v>25</v>
       </c>
       <c r="H100">
-        <v>24250</v>
+        <v>24300</v>
       </c>
       <c r="I100" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="J100" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="K100" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L100" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M100">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N100" s="2">
-        <v>185</v>
+        <v>137.5</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <v>45478</v>
+        <v>45482</v>
       </c>
       <c r="B101" t="s">
         <v>22</v>
       </c>
       <c r="C101" s="2">
-        <v>3028.75</v>
+        <v>5855</v>
       </c>
       <c r="D101" t="s">
         <v>23</v>
@@ -5512,39 +5599,39 @@
         <v>22</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H101">
-        <v>24300</v>
+        <v>24400</v>
       </c>
       <c r="I101" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="J101" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="K101" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="L101" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M101">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N101" s="2">
-        <v>121.15</v>
+        <v>117.1</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
-        <v>45478</v>
+        <v>45482</v>
       </c>
       <c r="B102" t="s">
         <v>22</v>
       </c>
       <c r="C102" s="2">
-        <v>8812.5</v>
+        <v>2225</v>
       </c>
       <c r="D102" t="s">
         <v>23</v>
@@ -5559,36 +5646,36 @@
         <v>25</v>
       </c>
       <c r="H102">
-        <v>24200</v>
+        <v>24400</v>
       </c>
       <c r="I102" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="J102" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="K102" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="L102" t="s">
         <v>29</v>
       </c>
       <c r="M102">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N102" s="2">
-        <v>176.25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <v>45478</v>
+        <v>45482</v>
       </c>
       <c r="B103" t="s">
         <v>22</v>
       </c>
       <c r="C103" s="2">
-        <v>2978.75</v>
+        <v>8030</v>
       </c>
       <c r="D103" t="s">
         <v>23</v>
@@ -5603,36 +5690,36 @@
         <v>30</v>
       </c>
       <c r="H103">
-        <v>24300</v>
+        <v>24350</v>
       </c>
       <c r="I103" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="J103" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="K103" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="L103" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M103">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N103" s="2">
-        <v>119.15</v>
+        <v>80.3</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
-        <v>45478</v>
+        <v>45482</v>
       </c>
       <c r="B104" t="s">
         <v>22</v>
       </c>
       <c r="C104" s="2">
-        <v>6057.5</v>
+        <v>2013.75</v>
       </c>
       <c r="D104" t="s">
         <v>23</v>
@@ -5647,36 +5734,36 @@
         <v>30</v>
       </c>
       <c r="H104">
-        <v>24300</v>
+        <v>24350</v>
       </c>
       <c r="I104" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="J104" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K104" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="L104" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M104">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N104" s="2">
-        <v>121.15</v>
+        <v>80.55</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
-        <v>45478</v>
+        <v>45482</v>
       </c>
       <c r="B105" t="s">
         <v>22</v>
       </c>
       <c r="C105" s="2">
-        <v>8415</v>
+        <v>14545</v>
       </c>
       <c r="D105" t="s">
         <v>23</v>
@@ -5691,36 +5778,36 @@
         <v>25</v>
       </c>
       <c r="H105">
-        <v>24200</v>
+        <v>24300</v>
       </c>
       <c r="I105" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="J105" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="K105" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="L105" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M105">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N105" s="2">
-        <v>168.3</v>
+        <v>145.44999999999999</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
-        <v>45478</v>
+        <v>45482</v>
       </c>
       <c r="B106" t="s">
         <v>22</v>
       </c>
       <c r="C106" s="2">
-        <v>1258.75</v>
+        <v>3436.25</v>
       </c>
       <c r="D106" t="s">
         <v>23</v>
@@ -5732,39 +5819,39 @@
         <v>22</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H106">
-        <v>24000</v>
+        <v>24300</v>
       </c>
       <c r="I106" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="J106" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="K106" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L106" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M106">
         <v>25</v>
       </c>
       <c r="N106" s="2">
-        <v>50.35</v>
+        <v>137.44999999999999</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
-        <v>45478</v>
+        <v>45482</v>
       </c>
       <c r="B107" t="s">
         <v>22</v>
       </c>
       <c r="C107" s="2">
-        <v>4625</v>
+        <v>11710</v>
       </c>
       <c r="D107" t="s">
         <v>23</v>
@@ -5779,36 +5866,36 @@
         <v>25</v>
       </c>
       <c r="H107">
-        <v>24250</v>
+        <v>24400</v>
       </c>
       <c r="I107" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="J107" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="K107" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="L107" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M107">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N107" s="2">
-        <v>185</v>
+        <v>117.1</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
-        <v>45478</v>
+        <v>45482</v>
       </c>
       <c r="B108" t="s">
         <v>22</v>
       </c>
       <c r="C108" s="2">
-        <v>2978.75</v>
+        <v>14000</v>
       </c>
       <c r="D108" t="s">
         <v>23</v>
@@ -5820,39 +5907,39 @@
         <v>22</v>
       </c>
       <c r="G108" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H108">
         <v>24300</v>
       </c>
       <c r="I108" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="J108" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="K108" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="L108" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M108">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N108" s="2">
-        <v>119.15</v>
+        <v>140</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
-        <v>45478</v>
+        <v>45482</v>
       </c>
       <c r="B109" t="s">
         <v>22</v>
       </c>
       <c r="C109" s="2">
-        <v>12195</v>
+        <v>11125</v>
       </c>
       <c r="D109" t="s">
         <v>23</v>
@@ -5867,36 +5954,36 @@
         <v>25</v>
       </c>
       <c r="H109">
-        <v>24250</v>
+        <v>24400</v>
       </c>
       <c r="I109" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="J109" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="K109" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L109" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M109">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="N109" s="2">
-        <v>162.6</v>
+        <v>89</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
-        <v>45478</v>
+        <v>45482</v>
       </c>
       <c r="B110" t="s">
         <v>22</v>
       </c>
       <c r="C110" s="2">
-        <v>1437.5</v>
+        <v>6877.5</v>
       </c>
       <c r="D110" t="s">
         <v>23</v>
@@ -5908,39 +5995,39 @@
         <v>22</v>
       </c>
       <c r="G110" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H110">
-        <v>24000</v>
+        <v>24300</v>
       </c>
       <c r="I110" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="J110" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="K110" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="L110" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M110">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N110" s="2">
-        <v>57.5</v>
+        <v>137.55000000000001</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
-        <v>45477</v>
+        <v>45481</v>
       </c>
       <c r="B111" t="s">
         <v>22</v>
       </c>
       <c r="C111" s="2">
-        <v>1317.5</v>
+        <v>12000</v>
       </c>
       <c r="D111" t="s">
         <v>23</v>
@@ -5958,33 +6045,33 @@
         <v>24300</v>
       </c>
       <c r="I111" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="J111" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K111" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L111" t="s">
         <v>29</v>
       </c>
       <c r="M111">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N111" s="2">
-        <v>52.7</v>
+        <v>120</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
-        <v>45477</v>
+        <v>45478</v>
       </c>
       <c r="B112" t="s">
         <v>22</v>
       </c>
       <c r="C112" s="2">
-        <v>1250</v>
+        <v>6000</v>
       </c>
       <c r="D112" t="s">
         <v>23</v>
@@ -5996,39 +6083,39 @@
         <v>22</v>
       </c>
       <c r="G112" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H112">
         <v>24300</v>
       </c>
       <c r="I112" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="J112" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K112" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L112" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M112">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N112" s="2">
-        <v>50</v>
+        <v>120</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
-        <v>45476</v>
+        <v>45478</v>
       </c>
       <c r="B113" t="s">
         <v>22</v>
       </c>
       <c r="C113" s="2">
-        <v>10455</v>
+        <v>3028.75</v>
       </c>
       <c r="D113" t="s">
         <v>23</v>
@@ -6043,36 +6130,36 @@
         <v>30</v>
       </c>
       <c r="H113">
-        <v>24250</v>
+        <v>24300</v>
       </c>
       <c r="I113" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="J113" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K113" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L113" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M113">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N113" s="2">
-        <v>104.55</v>
+        <v>121.15</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
-        <v>45476</v>
+        <v>45478</v>
       </c>
       <c r="B114" t="s">
         <v>22</v>
       </c>
       <c r="C114" s="2">
-        <v>1412.5</v>
+        <v>9250</v>
       </c>
       <c r="D114" t="s">
         <v>23</v>
@@ -6084,39 +6171,39 @@
         <v>22</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H114">
         <v>24250</v>
       </c>
       <c r="I114" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="J114" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K114" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L114" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M114">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N114" s="2">
-        <v>56.5</v>
+        <v>185</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
-        <v>45476</v>
+        <v>45478</v>
       </c>
       <c r="B115" t="s">
         <v>22</v>
       </c>
       <c r="C115" s="2">
-        <v>3150</v>
+        <v>3028.75</v>
       </c>
       <c r="D115" t="s">
         <v>23</v>
@@ -6131,36 +6218,36 @@
         <v>30</v>
       </c>
       <c r="H115">
-        <v>24250</v>
+        <v>24300</v>
       </c>
       <c r="I115" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="J115" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K115" t="s">
         <v>221</v>
       </c>
       <c r="L115" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M115">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N115" s="2">
-        <v>63</v>
+        <v>121.15</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
-        <v>45476</v>
+        <v>45478</v>
       </c>
       <c r="B116" t="s">
         <v>22</v>
       </c>
       <c r="C116" s="2">
-        <v>1412.5</v>
+        <v>8812.5</v>
       </c>
       <c r="D116" t="s">
         <v>23</v>
@@ -6172,39 +6259,39 @@
         <v>22</v>
       </c>
       <c r="G116" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H116">
-        <v>24250</v>
+        <v>24200</v>
       </c>
       <c r="I116" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="J116" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K116" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="L116" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M116">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N116" s="2">
-        <v>56.5</v>
+        <v>176.25</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
-        <v>45476</v>
+        <v>45478</v>
       </c>
       <c r="B117" t="s">
         <v>22</v>
       </c>
       <c r="C117" s="2">
-        <v>1412.5</v>
+        <v>2978.75</v>
       </c>
       <c r="D117" t="s">
         <v>23</v>
@@ -6219,16 +6306,16 @@
         <v>30</v>
       </c>
       <c r="H117">
-        <v>24250</v>
+        <v>24300</v>
       </c>
       <c r="I117" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="J117" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K117" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="L117" t="s">
         <v>29</v>
@@ -6237,18 +6324,18 @@
         <v>25</v>
       </c>
       <c r="N117" s="2">
-        <v>56.5</v>
+        <v>119.15</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
-        <v>45476</v>
+        <v>45478</v>
       </c>
       <c r="B118" t="s">
         <v>22</v>
       </c>
       <c r="C118" s="2">
-        <v>1412.5</v>
+        <v>6057.5</v>
       </c>
       <c r="D118" t="s">
         <v>23</v>
@@ -6263,36 +6350,36 @@
         <v>30</v>
       </c>
       <c r="H118">
-        <v>24250</v>
+        <v>24300</v>
       </c>
       <c r="I118" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="J118" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="K118" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L118" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M118">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N118" s="2">
-        <v>56.5</v>
+        <v>121.15</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
-        <v>45476</v>
+        <v>45478</v>
       </c>
       <c r="B119" t="s">
         <v>22</v>
       </c>
       <c r="C119" s="2">
-        <v>1412.5</v>
+        <v>8415</v>
       </c>
       <c r="D119" t="s">
         <v>23</v>
@@ -6304,39 +6391,39 @@
         <v>22</v>
       </c>
       <c r="G119" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H119">
-        <v>24250</v>
+        <v>24200</v>
       </c>
       <c r="I119" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="J119" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="K119" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="L119" t="s">
         <v>29</v>
       </c>
       <c r="M119">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N119" s="2">
-        <v>56.5</v>
+        <v>168.3</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
-        <v>45476</v>
+        <v>45478</v>
       </c>
       <c r="B120" t="s">
         <v>22</v>
       </c>
       <c r="C120" s="2">
-        <v>1412.5</v>
+        <v>1258.75</v>
       </c>
       <c r="D120" t="s">
         <v>23</v>
@@ -6351,16 +6438,16 @@
         <v>30</v>
       </c>
       <c r="H120">
-        <v>24250</v>
+        <v>24000</v>
       </c>
       <c r="I120" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="J120" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="K120" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="L120" t="s">
         <v>29</v>
@@ -6369,18 +6456,18 @@
         <v>25</v>
       </c>
       <c r="N120" s="2">
-        <v>56.5</v>
+        <v>50.35</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
-        <v>45475</v>
+        <v>45478</v>
       </c>
       <c r="B121" t="s">
         <v>22</v>
       </c>
       <c r="C121" s="2">
-        <v>5027.5</v>
+        <v>4625</v>
       </c>
       <c r="D121" t="s">
         <v>23</v>
@@ -6395,36 +6482,36 @@
         <v>25</v>
       </c>
       <c r="H121">
-        <v>24000</v>
+        <v>24250</v>
       </c>
       <c r="I121" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="J121" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="K121" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="L121" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M121">
         <v>25</v>
       </c>
       <c r="N121" s="2">
-        <v>201.1</v>
+        <v>185</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
-        <v>45475</v>
+        <v>45478</v>
       </c>
       <c r="B122" t="s">
         <v>22</v>
       </c>
       <c r="C122" s="2">
-        <v>3508.75</v>
+        <v>2978.75</v>
       </c>
       <c r="D122" t="s">
         <v>23</v>
@@ -6439,16 +6526,16 @@
         <v>30</v>
       </c>
       <c r="H122">
-        <v>24150</v>
+        <v>24300</v>
       </c>
       <c r="I122" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="J122" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="K122" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L122" t="s">
         <v>29</v>
@@ -6457,18 +6544,18 @@
         <v>25</v>
       </c>
       <c r="N122" s="2">
-        <v>140.35</v>
+        <v>119.15</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
-        <v>45475</v>
+        <v>45478</v>
       </c>
       <c r="B123" t="s">
         <v>22</v>
       </c>
       <c r="C123" s="2">
-        <v>3125</v>
+        <v>12195</v>
       </c>
       <c r="D123" t="s">
         <v>23</v>
@@ -6480,39 +6567,39 @@
         <v>22</v>
       </c>
       <c r="G123" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H123">
-        <v>24150</v>
+        <v>24250</v>
       </c>
       <c r="I123" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="J123" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="K123" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="L123" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M123">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N123" s="2">
-        <v>125</v>
+        <v>162.6</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
-        <v>45475</v>
+        <v>45478</v>
       </c>
       <c r="B124" t="s">
         <v>22</v>
       </c>
       <c r="C124" s="2">
-        <v>18155</v>
+        <v>1437.5</v>
       </c>
       <c r="D124" t="s">
         <v>23</v>
@@ -6524,39 +6611,39 @@
         <v>22</v>
       </c>
       <c r="G124" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H124">
         <v>24000</v>
       </c>
       <c r="I124" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="J124" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K124" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="L124" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M124">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N124" s="2">
-        <v>181.55</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
-        <v>45475</v>
+        <v>45477</v>
       </c>
       <c r="B125" t="s">
         <v>22</v>
       </c>
       <c r="C125" s="2">
-        <v>5027.5</v>
+        <v>1317.5</v>
       </c>
       <c r="D125" t="s">
         <v>23</v>
@@ -6571,36 +6658,36 @@
         <v>25</v>
       </c>
       <c r="H125">
-        <v>24000</v>
+        <v>24300</v>
       </c>
       <c r="I125" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="J125" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="K125" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="L125" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M125">
         <v>25</v>
       </c>
       <c r="N125" s="2">
-        <v>201.1</v>
+        <v>52.7</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
-        <v>45475</v>
+        <v>45477</v>
       </c>
       <c r="B126" t="s">
         <v>22</v>
       </c>
       <c r="C126" s="2">
-        <v>10052.5</v>
+        <v>1250</v>
       </c>
       <c r="D126" t="s">
         <v>23</v>
@@ -6615,106 +6702,124 @@
         <v>25</v>
       </c>
       <c r="H126">
-        <v>24000</v>
+        <v>24300</v>
       </c>
       <c r="I126" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="J126" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="K126" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="L126" t="s">
         <v>29</v>
       </c>
       <c r="M126">
+        <v>25</v>
+      </c>
+      <c r="N126" s="2">
         <v>50</v>
-      </c>
-      <c r="N126" s="2">
-        <v>201.05</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
-        <v>45475</v>
+        <v>45476</v>
       </c>
       <c r="B127" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C127" s="2">
-        <v>999.89</v>
+        <v>10455</v>
       </c>
       <c r="D127" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E127" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="F127" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="G127" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>24250</v>
+      </c>
+      <c r="I127" t="s">
+        <v>240</v>
+      </c>
+      <c r="J127" t="s">
+        <v>245</v>
+      </c>
+      <c r="K127" t="s">
+        <v>246</v>
       </c>
       <c r="L127" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M127">
-        <v>2.2000000000000002</v>
+        <v>100</v>
       </c>
       <c r="N127" s="2">
-        <v>455.11</v>
+        <v>104.55</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
-        <v>45475</v>
+        <v>45476</v>
       </c>
       <c r="B128" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C128" s="2">
-        <v>999.95</v>
+        <v>1412.5</v>
       </c>
       <c r="D128" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E128" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="F128" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="G128" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>24250</v>
+      </c>
+      <c r="I128" t="s">
+        <v>240</v>
+      </c>
+      <c r="J128" t="s">
+        <v>247</v>
+      </c>
+      <c r="K128" t="s">
+        <v>248</v>
       </c>
       <c r="L128" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M128">
-        <v>19.29</v>
+        <v>25</v>
       </c>
       <c r="N128" s="2">
-        <v>51.84</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
-        <v>45474</v>
+        <v>45476</v>
       </c>
       <c r="B129" t="s">
         <v>22</v>
       </c>
       <c r="C129" s="2">
-        <v>14373.75</v>
+        <v>3150</v>
       </c>
       <c r="D129" t="s">
         <v>23</v>
@@ -6726,39 +6831,39 @@
         <v>22</v>
       </c>
       <c r="G129" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H129">
-        <v>24050</v>
+        <v>24250</v>
       </c>
       <c r="I129" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="J129" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="K129" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="L129" t="s">
         <v>29</v>
       </c>
       <c r="M129">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N129" s="2">
-        <v>191.65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
-        <v>45474</v>
+        <v>45476</v>
       </c>
       <c r="B130" t="s">
         <v>22</v>
       </c>
       <c r="C130" s="2">
-        <v>4792.5</v>
+        <v>1412.5</v>
       </c>
       <c r="D130" t="s">
         <v>23</v>
@@ -6770,39 +6875,39 @@
         <v>22</v>
       </c>
       <c r="G130" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H130">
-        <v>24050</v>
+        <v>24250</v>
       </c>
       <c r="I130" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="J130" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="K130" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="L130" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M130">
         <v>25</v>
       </c>
       <c r="N130" s="2">
-        <v>191.7</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
-        <v>45474</v>
+        <v>45476</v>
       </c>
       <c r="B131" t="s">
         <v>22</v>
       </c>
       <c r="C131" s="2">
-        <v>18285</v>
+        <v>1412.5</v>
       </c>
       <c r="D131" t="s">
         <v>23</v>
@@ -6814,39 +6919,39 @@
         <v>22</v>
       </c>
       <c r="G131" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H131">
-        <v>24050</v>
+        <v>24250</v>
       </c>
       <c r="I131" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="J131" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="K131" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="L131" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M131">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N131" s="2">
-        <v>182.85</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
-        <v>45471</v>
+        <v>45476</v>
       </c>
       <c r="B132" t="s">
         <v>22</v>
       </c>
       <c r="C132" s="2">
-        <v>8500</v>
+        <v>1412.5</v>
       </c>
       <c r="D132" t="s">
         <v>23</v>
@@ -6858,39 +6963,39 @@
         <v>22</v>
       </c>
       <c r="G132" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H132">
-        <v>24100</v>
+        <v>24250</v>
       </c>
       <c r="I132" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="J132" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="K132" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="L132" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M132">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N132" s="2">
-        <v>170</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
-        <v>45471</v>
+        <v>45476</v>
       </c>
       <c r="B133" t="s">
         <v>22</v>
       </c>
       <c r="C133" s="2">
-        <v>8500</v>
+        <v>1412.5</v>
       </c>
       <c r="D133" t="s">
         <v>23</v>
@@ -6902,39 +7007,39 @@
         <v>22</v>
       </c>
       <c r="G133" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H133">
-        <v>24100</v>
+        <v>24250</v>
       </c>
       <c r="I133" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="J133" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="K133" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L133" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M133">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N133" s="2">
-        <v>170</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
-        <v>45471</v>
+        <v>45476</v>
       </c>
       <c r="B134" t="s">
         <v>22</v>
       </c>
       <c r="C134" s="2">
-        <v>7250</v>
+        <v>1412.5</v>
       </c>
       <c r="D134" t="s">
         <v>23</v>
@@ -6946,39 +7051,39 @@
         <v>22</v>
       </c>
       <c r="G134" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H134">
-        <v>24100</v>
+        <v>24250</v>
       </c>
       <c r="I134" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="J134" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="K134" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L134" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M134">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N134" s="2">
-        <v>145</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
-        <v>45471</v>
+        <v>45475</v>
       </c>
       <c r="B135" t="s">
         <v>22</v>
       </c>
       <c r="C135" s="2">
-        <v>8500</v>
+        <v>5027.5</v>
       </c>
       <c r="D135" t="s">
         <v>23</v>
@@ -6993,36 +7098,36 @@
         <v>25</v>
       </c>
       <c r="H135">
-        <v>24100</v>
+        <v>24000</v>
       </c>
       <c r="I135" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="J135" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="K135" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="L135" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M135">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N135" s="2">
-        <v>170</v>
+        <v>201.1</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
-        <v>45470</v>
+        <v>45475</v>
       </c>
       <c r="B136" t="s">
         <v>22</v>
       </c>
       <c r="C136" s="2">
-        <v>8842.5</v>
+        <v>3508.75</v>
       </c>
       <c r="D136" t="s">
         <v>23</v>
@@ -7034,39 +7139,39 @@
         <v>22</v>
       </c>
       <c r="G136" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H136">
-        <v>23800</v>
+        <v>24150</v>
       </c>
       <c r="I136" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="J136" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="K136" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="L136" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M136">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N136" s="2">
-        <v>176.85</v>
+        <v>140.35</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
-        <v>45470</v>
+        <v>45475</v>
       </c>
       <c r="B137" t="s">
         <v>22</v>
       </c>
       <c r="C137" s="2">
-        <v>8750</v>
+        <v>3125</v>
       </c>
       <c r="D137" t="s">
         <v>23</v>
@@ -7078,39 +7183,39 @@
         <v>22</v>
       </c>
       <c r="G137" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H137">
-        <v>23800</v>
+        <v>24150</v>
       </c>
       <c r="I137" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="J137" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="K137" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="L137" t="s">
         <v>29</v>
       </c>
       <c r="M137">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N137" s="2">
-        <v>175</v>
+        <v>125</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
-        <v>45469</v>
+        <v>45475</v>
       </c>
       <c r="B138" t="s">
         <v>22</v>
       </c>
       <c r="C138" s="2">
-        <v>6050</v>
+        <v>18155</v>
       </c>
       <c r="D138" t="s">
         <v>23</v>
@@ -7125,36 +7230,36 @@
         <v>25</v>
       </c>
       <c r="H138">
-        <v>23800</v>
+        <v>24000</v>
       </c>
       <c r="I138" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="J138" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="K138" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="L138" t="s">
         <v>29</v>
       </c>
       <c r="M138">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N138" s="2">
-        <v>121</v>
+        <v>181.55</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
-        <v>45469</v>
+        <v>45475</v>
       </c>
       <c r="B139" t="s">
         <v>22</v>
       </c>
       <c r="C139" s="2">
-        <v>10910</v>
+        <v>5027.5</v>
       </c>
       <c r="D139" t="s">
         <v>23</v>
@@ -7169,36 +7274,36 @@
         <v>25</v>
       </c>
       <c r="H139">
-        <v>23800</v>
+        <v>24000</v>
       </c>
       <c r="I139" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="J139" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="K139" t="s">
         <v>257</v>
       </c>
       <c r="L139" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M139">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N139" s="2">
-        <v>109.1</v>
+        <v>201.1</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
-        <v>45469</v>
+        <v>45475</v>
       </c>
       <c r="B140" t="s">
         <v>22</v>
       </c>
       <c r="C140" s="2">
-        <v>3025</v>
+        <v>10052.5</v>
       </c>
       <c r="D140" t="s">
         <v>23</v>
@@ -7213,124 +7318,106 @@
         <v>25</v>
       </c>
       <c r="H140">
-        <v>23800</v>
+        <v>24000</v>
       </c>
       <c r="I140" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="J140" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="K140" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L140" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M140">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N140" s="2">
-        <v>121</v>
+        <v>201.05</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
-        <v>45469</v>
+        <v>45475</v>
       </c>
       <c r="B141" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="C141" s="2">
-        <v>12100</v>
+        <v>999.89</v>
       </c>
       <c r="D141" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="E141" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="F141" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="G141" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="H141">
-        <v>23800</v>
-      </c>
-      <c r="I141" t="s">
-        <v>249</v>
-      </c>
-      <c r="J141" t="s">
-        <v>259</v>
-      </c>
-      <c r="K141" t="s">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="L141" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M141">
-        <v>100</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N141" s="2">
-        <v>121</v>
+        <v>455.11</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
-        <v>45469</v>
+        <v>45475</v>
       </c>
       <c r="B142" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="C142" s="2">
-        <v>3025</v>
+        <v>999.95</v>
       </c>
       <c r="D142" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="E142" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="F142" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="G142" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="H142">
-        <v>23800</v>
-      </c>
-      <c r="I142" t="s">
-        <v>249</v>
-      </c>
-      <c r="J142" t="s">
-        <v>261</v>
-      </c>
-      <c r="K142" t="s">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="L142" t="s">
         <v>29</v>
       </c>
       <c r="M142">
-        <v>25</v>
+        <v>19.29</v>
       </c>
       <c r="N142" s="2">
-        <v>121</v>
+        <v>51.84</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
-        <v>45468</v>
+        <v>45474</v>
       </c>
       <c r="B143" t="s">
         <v>22</v>
       </c>
       <c r="C143" s="2">
-        <v>12620</v>
+        <v>14373.75</v>
       </c>
       <c r="D143" t="s">
         <v>23</v>
@@ -7345,36 +7432,36 @@
         <v>25</v>
       </c>
       <c r="H143">
-        <v>23550</v>
+        <v>24050</v>
       </c>
       <c r="I143" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="J143" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K143" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L143" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M143">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="N143" s="2">
-        <v>126.2</v>
+        <v>191.65</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
-        <v>45468</v>
+        <v>45474</v>
       </c>
       <c r="B144" t="s">
         <v>22</v>
       </c>
       <c r="C144" s="2">
-        <v>12830</v>
+        <v>4792.5</v>
       </c>
       <c r="D144" t="s">
         <v>23</v>
@@ -7389,36 +7476,36 @@
         <v>25</v>
       </c>
       <c r="H144">
-        <v>23550</v>
+        <v>24050</v>
       </c>
       <c r="I144" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="J144" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="K144" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L144" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M144">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N144" s="2">
-        <v>128.30000000000001</v>
+        <v>191.7</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
-        <v>45467</v>
+        <v>45474</v>
       </c>
       <c r="B145" t="s">
         <v>22</v>
       </c>
       <c r="C145" s="2">
-        <v>3440</v>
+        <v>18285</v>
       </c>
       <c r="D145" t="s">
         <v>23</v>
@@ -7430,39 +7517,39 @@
         <v>22</v>
       </c>
       <c r="G145" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H145">
-        <v>23550</v>
+        <v>24050</v>
       </c>
       <c r="I145" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="J145" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K145" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L145" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M145">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N145" s="2">
-        <v>137.6</v>
+        <v>182.85</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
-        <v>45467</v>
+        <v>45471</v>
       </c>
       <c r="B146" t="s">
         <v>22</v>
       </c>
       <c r="C146" s="2">
-        <v>3442.5</v>
+        <v>8500</v>
       </c>
       <c r="D146" t="s">
         <v>23</v>
@@ -7474,39 +7561,39 @@
         <v>22</v>
       </c>
       <c r="G146" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H146">
-        <v>23550</v>
+        <v>24100</v>
       </c>
       <c r="I146" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="J146" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="K146" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="L146" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M146">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N146" s="2">
-        <v>137.69999999999999</v>
+        <v>170</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
-        <v>45467</v>
+        <v>45471</v>
       </c>
       <c r="B147" t="s">
         <v>22</v>
       </c>
       <c r="C147" s="2">
-        <v>3440</v>
+        <v>8500</v>
       </c>
       <c r="D147" t="s">
         <v>23</v>
@@ -7518,39 +7605,39 @@
         <v>22</v>
       </c>
       <c r="G147" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H147">
-        <v>23550</v>
+        <v>24100</v>
       </c>
       <c r="I147" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="J147" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="K147" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="L147" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M147">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N147" s="2">
-        <v>137.6</v>
+        <v>170</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
-        <v>45467</v>
+        <v>45471</v>
       </c>
       <c r="B148" t="s">
         <v>22</v>
       </c>
       <c r="C148" s="2">
-        <v>14095</v>
+        <v>7250</v>
       </c>
       <c r="D148" t="s">
         <v>23</v>
@@ -7562,39 +7649,39 @@
         <v>22</v>
       </c>
       <c r="G148" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H148">
-        <v>23550</v>
+        <v>24100</v>
       </c>
       <c r="I148" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="J148" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="K148" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="L148" t="s">
         <v>29</v>
       </c>
       <c r="M148">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N148" s="2">
-        <v>140.94999999999999</v>
+        <v>145</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
-        <v>45467</v>
+        <v>45471</v>
       </c>
       <c r="B149" t="s">
         <v>22</v>
       </c>
       <c r="C149" s="2">
-        <v>3440</v>
+        <v>8500</v>
       </c>
       <c r="D149" t="s">
         <v>23</v>
@@ -7606,39 +7693,39 @@
         <v>22</v>
       </c>
       <c r="G149" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H149">
-        <v>23550</v>
+        <v>24100</v>
       </c>
       <c r="I149" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="J149" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="K149" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="L149" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M149">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N149" s="2">
-        <v>137.6</v>
+        <v>170</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
-        <v>45464</v>
+        <v>45470</v>
       </c>
       <c r="B150" t="s">
         <v>22</v>
       </c>
       <c r="C150" s="2">
-        <v>3125</v>
+        <v>8842.5</v>
       </c>
       <c r="D150" t="s">
         <v>23</v>
@@ -7653,36 +7740,36 @@
         <v>25</v>
       </c>
       <c r="H150">
-        <v>23500</v>
+        <v>23800</v>
       </c>
       <c r="I150" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="J150" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="K150" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="L150" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M150">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N150" s="2">
-        <v>125</v>
+        <v>176.85</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
-        <v>45464</v>
+        <v>45470</v>
       </c>
       <c r="B151" t="s">
         <v>22</v>
       </c>
       <c r="C151" s="2">
-        <v>11325</v>
+        <v>8750</v>
       </c>
       <c r="D151" t="s">
         <v>23</v>
@@ -7697,36 +7784,36 @@
         <v>25</v>
       </c>
       <c r="H151">
-        <v>23500</v>
+        <v>23800</v>
       </c>
       <c r="I151" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="J151" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="K151" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="L151" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M151">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N151" s="2">
-        <v>151</v>
+        <v>175</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
-        <v>45464</v>
+        <v>45469</v>
       </c>
       <c r="B152" t="s">
         <v>22</v>
       </c>
       <c r="C152" s="2">
-        <v>3775</v>
+        <v>6050</v>
       </c>
       <c r="D152" t="s">
         <v>23</v>
@@ -7741,36 +7828,36 @@
         <v>25</v>
       </c>
       <c r="H152">
-        <v>23500</v>
+        <v>23800</v>
       </c>
       <c r="I152" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="J152" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="K152" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="L152" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M152">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N152" s="2">
-        <v>151</v>
+        <v>121</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
-        <v>45464</v>
+        <v>45469</v>
       </c>
       <c r="B153" t="s">
         <v>22</v>
       </c>
       <c r="C153" s="2">
-        <v>9375</v>
+        <v>10910</v>
       </c>
       <c r="D153" t="s">
         <v>23</v>
@@ -7785,36 +7872,36 @@
         <v>25</v>
       </c>
       <c r="H153">
-        <v>23500</v>
+        <v>23800</v>
       </c>
       <c r="I153" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="J153" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="K153" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="L153" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M153">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="N153" s="2">
-        <v>125</v>
+        <v>109.1</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
-        <v>45463</v>
+        <v>45469</v>
       </c>
       <c r="B154" t="s">
         <v>22</v>
       </c>
       <c r="C154" s="2">
-        <v>3500</v>
+        <v>3025</v>
       </c>
       <c r="D154" t="s">
         <v>23</v>
@@ -7829,36 +7916,36 @@
         <v>25</v>
       </c>
       <c r="H154">
-        <v>23450</v>
+        <v>23800</v>
       </c>
       <c r="I154" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J154" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="K154" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L154" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M154">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N154" s="2">
-        <v>70</v>
+        <v>121</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
-        <v>45463</v>
+        <v>45469</v>
       </c>
       <c r="B155" t="s">
         <v>22</v>
       </c>
       <c r="C155" s="2">
-        <v>750</v>
+        <v>12100</v>
       </c>
       <c r="D155" t="s">
         <v>23</v>
@@ -7873,36 +7960,36 @@
         <v>25</v>
       </c>
       <c r="H155">
-        <v>23650</v>
+        <v>23800</v>
       </c>
       <c r="I155" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J155" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="K155" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="L155" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M155">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N155" s="2">
-        <v>15</v>
+        <v>121</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
-        <v>45463</v>
+        <v>45469</v>
       </c>
       <c r="B156" t="s">
         <v>22</v>
       </c>
       <c r="C156" s="2">
-        <v>375</v>
+        <v>3025</v>
       </c>
       <c r="D156" t="s">
         <v>23</v>
@@ -7917,36 +8004,36 @@
         <v>25</v>
       </c>
       <c r="H156">
-        <v>23650</v>
+        <v>23800</v>
       </c>
       <c r="I156" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J156" t="s">
+        <v>290</v>
+      </c>
+      <c r="K156" t="s">
         <v>284</v>
       </c>
-      <c r="K156" t="s">
-        <v>285</v>
-      </c>
       <c r="L156" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M156">
         <v>25</v>
       </c>
       <c r="N156" s="2">
-        <v>15</v>
+        <v>121</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
-        <v>45463</v>
+        <v>45468</v>
       </c>
       <c r="B157" t="s">
         <v>22</v>
       </c>
       <c r="C157" s="2">
-        <v>450</v>
+        <v>12620</v>
       </c>
       <c r="D157" t="s">
         <v>23</v>
@@ -7961,36 +8048,36 @@
         <v>25</v>
       </c>
       <c r="H157">
-        <v>23650</v>
+        <v>23550</v>
       </c>
       <c r="I157" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J157" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="K157" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="L157" t="s">
         <v>29</v>
       </c>
       <c r="M157">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="N157" s="2">
-        <v>6</v>
+        <v>126.2</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
-        <v>45463</v>
+        <v>45468</v>
       </c>
       <c r="B158" t="s">
         <v>22</v>
       </c>
       <c r="C158" s="2">
-        <v>1938.75</v>
+        <v>12830</v>
       </c>
       <c r="D158" t="s">
         <v>23</v>
@@ -8005,36 +8092,36 @@
         <v>25</v>
       </c>
       <c r="H158">
-        <v>23450</v>
+        <v>23550</v>
       </c>
       <c r="I158" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J158" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="K158" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="L158" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M158">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N158" s="2">
-        <v>77.55</v>
+        <v>128.30000000000001</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
-        <v>45463</v>
+        <v>45467</v>
       </c>
       <c r="B159" t="s">
         <v>22</v>
       </c>
       <c r="C159" s="2">
-        <v>368.75</v>
+        <v>3440</v>
       </c>
       <c r="D159" t="s">
         <v>23</v>
@@ -8046,39 +8133,39 @@
         <v>22</v>
       </c>
       <c r="G159" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H159">
-        <v>23650</v>
+        <v>23550</v>
       </c>
       <c r="I159" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J159" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="K159" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="L159" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M159">
         <v>25</v>
       </c>
       <c r="N159" s="2">
-        <v>14.75</v>
+        <v>137.6</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
-        <v>45463</v>
+        <v>45467</v>
       </c>
       <c r="B160" t="s">
         <v>22</v>
       </c>
       <c r="C160" s="2">
-        <v>1106.25</v>
+        <v>3442.5</v>
       </c>
       <c r="D160" t="s">
         <v>23</v>
@@ -8090,39 +8177,39 @@
         <v>22</v>
       </c>
       <c r="G160" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H160">
-        <v>23650</v>
+        <v>23550</v>
       </c>
       <c r="I160" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J160" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="K160" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="L160" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M160">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N160" s="2">
-        <v>14.75</v>
+        <v>137.69999999999999</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
-        <v>45463</v>
+        <v>45467</v>
       </c>
       <c r="B161" t="s">
         <v>22</v>
       </c>
       <c r="C161" s="2">
-        <v>627.5</v>
+        <v>3440</v>
       </c>
       <c r="D161" t="s">
         <v>23</v>
@@ -8134,39 +8221,39 @@
         <v>22</v>
       </c>
       <c r="G161" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H161">
-        <v>23650</v>
+        <v>23550</v>
       </c>
       <c r="I161" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J161" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="K161" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L161" t="s">
         <v>29</v>
       </c>
       <c r="M161">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N161" s="2">
-        <v>12.55</v>
+        <v>137.6</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
-        <v>45463</v>
+        <v>45467</v>
       </c>
       <c r="B162" t="s">
         <v>22</v>
       </c>
       <c r="C162" s="2">
-        <v>682.5</v>
+        <v>14095</v>
       </c>
       <c r="D162" t="s">
         <v>23</v>
@@ -8178,39 +8265,39 @@
         <v>22</v>
       </c>
       <c r="G162" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H162">
-        <v>23650</v>
+        <v>23550</v>
       </c>
       <c r="I162" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J162" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K162" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="L162" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M162">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N162" s="2">
-        <v>13.65</v>
+        <v>140.94999999999999</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
-        <v>45463</v>
+        <v>45467</v>
       </c>
       <c r="B163" t="s">
         <v>22</v>
       </c>
       <c r="C163" s="2">
-        <v>1938.75</v>
+        <v>3440</v>
       </c>
       <c r="D163" t="s">
         <v>23</v>
@@ -8222,19 +8309,19 @@
         <v>22</v>
       </c>
       <c r="G163" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H163">
-        <v>23450</v>
+        <v>23550</v>
       </c>
       <c r="I163" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J163" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K163" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="L163" t="s">
         <v>29</v>
@@ -8243,18 +8330,18 @@
         <v>25</v>
       </c>
       <c r="N163" s="2">
-        <v>77.55</v>
+        <v>137.6</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
-        <v>45463</v>
+        <v>45464</v>
       </c>
       <c r="B164" t="s">
         <v>22</v>
       </c>
       <c r="C164" s="2">
-        <v>375</v>
+        <v>3125</v>
       </c>
       <c r="D164" t="s">
         <v>23</v>
@@ -8269,36 +8356,36 @@
         <v>25</v>
       </c>
       <c r="H164">
-        <v>23650</v>
+        <v>23500</v>
       </c>
       <c r="I164" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J164" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K164" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="L164" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M164">
         <v>25</v>
       </c>
       <c r="N164" s="2">
-        <v>15</v>
+        <v>125</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
-        <v>45463</v>
+        <v>45464</v>
       </c>
       <c r="B165" t="s">
         <v>22</v>
       </c>
       <c r="C165" s="2">
-        <v>150</v>
+        <v>11325</v>
       </c>
       <c r="D165" t="s">
         <v>23</v>
@@ -8313,36 +8400,36 @@
         <v>25</v>
       </c>
       <c r="H165">
-        <v>23650</v>
+        <v>23500</v>
       </c>
       <c r="I165" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J165" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="K165" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="L165" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M165">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N165" s="2">
-        <v>6</v>
+        <v>151</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
-        <v>45462</v>
+        <v>45464</v>
       </c>
       <c r="B166" t="s">
         <v>22</v>
       </c>
       <c r="C166" s="2">
-        <v>1875</v>
+        <v>3775</v>
       </c>
       <c r="D166" t="s">
         <v>23</v>
@@ -8354,39 +8441,39 @@
         <v>22</v>
       </c>
       <c r="G166" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H166">
-        <v>23600</v>
+        <v>23500</v>
       </c>
       <c r="I166" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J166" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="K166" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="L166" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M166">
         <v>25</v>
       </c>
       <c r="N166" s="2">
-        <v>75</v>
+        <v>151</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
-        <v>45462</v>
+        <v>45464</v>
       </c>
       <c r="B167" t="s">
         <v>22</v>
       </c>
       <c r="C167" s="2">
-        <v>750</v>
+        <v>9375</v>
       </c>
       <c r="D167" t="s">
         <v>23</v>
@@ -8401,36 +8488,36 @@
         <v>25</v>
       </c>
       <c r="H167">
-        <v>23600</v>
+        <v>23500</v>
       </c>
       <c r="I167" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J167" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="K167" t="s">
         <v>303</v>
       </c>
       <c r="L167" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M167">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N167" s="2">
-        <v>30</v>
+        <v>125</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
-        <v>45462</v>
+        <v>45463</v>
       </c>
       <c r="B168" t="s">
         <v>22</v>
       </c>
       <c r="C168" s="2">
-        <v>2400</v>
+        <v>3500</v>
       </c>
       <c r="D168" t="s">
         <v>23</v>
@@ -8445,16 +8532,16 @@
         <v>25</v>
       </c>
       <c r="H168">
-        <v>23600</v>
+        <v>23450</v>
       </c>
       <c r="I168" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="J168" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K168" t="s">
-        <v>95</v>
+        <v>310</v>
       </c>
       <c r="L168" t="s">
         <v>29</v>
@@ -8463,18 +8550,18 @@
         <v>50</v>
       </c>
       <c r="N168" s="2">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
-        <v>45462</v>
+        <v>45463</v>
       </c>
       <c r="B169" t="s">
         <v>22</v>
       </c>
       <c r="C169" s="2">
-        <v>2500</v>
+        <v>750</v>
       </c>
       <c r="D169" t="s">
         <v>23</v>
@@ -8486,39 +8573,39 @@
         <v>22</v>
       </c>
       <c r="G169" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H169">
-        <v>23600</v>
+        <v>23650</v>
       </c>
       <c r="I169" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="J169" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="K169" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="L169" t="s">
         <v>29</v>
       </c>
       <c r="M169">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N169" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
-        <v>45462</v>
+        <v>45463</v>
       </c>
       <c r="B170" t="s">
         <v>22</v>
       </c>
       <c r="C170" s="2">
-        <v>1248.75</v>
+        <v>375</v>
       </c>
       <c r="D170" t="s">
         <v>23</v>
@@ -8533,36 +8620,36 @@
         <v>25</v>
       </c>
       <c r="H170">
-        <v>23600</v>
+        <v>23650</v>
       </c>
       <c r="I170" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="J170" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="K170" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="L170" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M170">
         <v>25</v>
       </c>
       <c r="N170" s="2">
-        <v>49.95</v>
+        <v>15</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
-        <v>45461</v>
+        <v>45463</v>
       </c>
       <c r="B171" t="s">
         <v>22</v>
       </c>
       <c r="C171" s="2">
-        <v>3000</v>
+        <v>450</v>
       </c>
       <c r="D171" t="s">
         <v>23</v>
@@ -8577,36 +8664,36 @@
         <v>25</v>
       </c>
       <c r="H171">
-        <v>23500</v>
+        <v>23650</v>
       </c>
       <c r="I171" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="J171" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="K171" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="L171" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M171">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N171" s="2">
-        <v>120</v>
+        <v>6</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
-        <v>45461</v>
+        <v>45463</v>
       </c>
       <c r="B172" t="s">
         <v>22</v>
       </c>
       <c r="C172" s="2">
-        <v>3391.25</v>
+        <v>1938.75</v>
       </c>
       <c r="D172" t="s">
         <v>23</v>
@@ -8621,36 +8708,36 @@
         <v>25</v>
       </c>
       <c r="H172">
-        <v>23500</v>
+        <v>23450</v>
       </c>
       <c r="I172" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="J172" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="K172" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="L172" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M172">
         <v>25</v>
       </c>
       <c r="N172" s="2">
-        <v>135.65</v>
+        <v>77.55</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
-        <v>45457</v>
+        <v>45463</v>
       </c>
       <c r="B173" t="s">
         <v>22</v>
       </c>
       <c r="C173" s="2">
-        <v>3117.5</v>
+        <v>368.75</v>
       </c>
       <c r="D173" t="s">
         <v>23</v>
@@ -8662,39 +8749,39 @@
         <v>22</v>
       </c>
       <c r="G173" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H173">
-        <v>23450</v>
+        <v>23650</v>
       </c>
       <c r="I173" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="J173" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="K173" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="L173" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M173">
         <v>25</v>
       </c>
       <c r="N173" s="2">
-        <v>124.7</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
-        <v>45457</v>
+        <v>45463</v>
       </c>
       <c r="B174" t="s">
         <v>22</v>
       </c>
       <c r="C174" s="2">
-        <v>3200</v>
+        <v>1106.25</v>
       </c>
       <c r="D174" t="s">
         <v>23</v>
@@ -8706,54 +8793,57 @@
         <v>22</v>
       </c>
       <c r="G174" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H174">
-        <v>23450</v>
+        <v>23650</v>
       </c>
       <c r="I174" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="J174" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="K174" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L174" t="s">
         <v>29</v>
       </c>
       <c r="M174">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N174" s="2">
-        <v>128</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
-        <v>45456</v>
+        <v>45463</v>
       </c>
       <c r="B175" t="s">
-        <v>317</v>
+        <v>22</v>
       </c>
       <c r="C175" s="2">
-        <v>3000</v>
+        <v>627.5</v>
       </c>
       <c r="D175" t="s">
-        <v>318</v>
+        <v>23</v>
       </c>
       <c r="E175" t="s">
-        <v>319</v>
+        <v>24</v>
       </c>
       <c r="F175" t="s">
-        <v>320</v>
+        <v>22</v>
       </c>
       <c r="G175" t="s">
-        <v>321</v>
+        <v>25</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>23650</v>
+      </c>
+      <c r="I175" t="s">
+        <v>308</v>
       </c>
       <c r="J175" t="s">
         <v>322</v>
@@ -8762,24 +8852,24 @@
         <v>323</v>
       </c>
       <c r="L175" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M175">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="N175" s="2">
-        <v>1500</v>
+        <v>12.55</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
-        <v>45456</v>
+        <v>45463</v>
       </c>
       <c r="B176" t="s">
         <v>22</v>
       </c>
       <c r="C176" s="2">
-        <v>1547.5</v>
+        <v>682.5</v>
       </c>
       <c r="D176" t="s">
         <v>23</v>
@@ -8794,36 +8884,36 @@
         <v>25</v>
       </c>
       <c r="H176">
-        <v>23350</v>
+        <v>23650</v>
       </c>
       <c r="I176" t="s">
+        <v>308</v>
+      </c>
+      <c r="J176" t="s">
         <v>324</v>
       </c>
-      <c r="J176" t="s">
+      <c r="K176" t="s">
         <v>325</v>
       </c>
-      <c r="K176" t="s">
-        <v>326</v>
-      </c>
       <c r="L176" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M176">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N176" s="2">
-        <v>61.9</v>
+        <v>13.65</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
-        <v>45456</v>
+        <v>45463</v>
       </c>
       <c r="B177" t="s">
         <v>22</v>
       </c>
       <c r="C177" s="2">
-        <v>1475</v>
+        <v>1938.75</v>
       </c>
       <c r="D177" t="s">
         <v>23</v>
@@ -8838,159 +8928,772 @@
         <v>25</v>
       </c>
       <c r="H177">
-        <v>23350</v>
+        <v>23450</v>
       </c>
       <c r="I177" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="J177" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K177" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="L177" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M177">
         <v>25</v>
       </c>
       <c r="N177" s="2">
-        <v>59</v>
+        <v>77.55</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
-        <v>45447</v>
+        <v>45463</v>
       </c>
       <c r="B178" t="s">
-        <v>329</v>
+        <v>22</v>
       </c>
       <c r="C178" s="2">
-        <v>2688.6</v>
+        <v>375</v>
       </c>
       <c r="D178" t="s">
-        <v>318</v>
+        <v>23</v>
       </c>
       <c r="E178" t="s">
-        <v>319</v>
+        <v>24</v>
       </c>
       <c r="F178" t="s">
-        <v>330</v>
+        <v>22</v>
       </c>
       <c r="G178" t="s">
-        <v>321</v>
+        <v>25</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>23650</v>
+      </c>
+      <c r="I178" t="s">
+        <v>308</v>
       </c>
       <c r="J178" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K178" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="L178" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M178">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="N178" s="2">
-        <v>896.2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
-        <v>45436</v>
+        <v>45463</v>
       </c>
       <c r="B179" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C179" s="2">
-        <v>999.75</v>
+        <v>150</v>
       </c>
       <c r="D179" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E179" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="F179" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="G179" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>23650</v>
+      </c>
+      <c r="I179" t="s">
+        <v>308</v>
+      </c>
+      <c r="J179" t="s">
+        <v>328</v>
+      </c>
+      <c r="K179" t="s">
+        <v>316</v>
       </c>
       <c r="L179" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M179">
-        <v>2.33</v>
+        <v>25</v>
       </c>
       <c r="N179" s="2">
-        <v>428.89</v>
+        <v>6</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
+        <v>45462</v>
+      </c>
+      <c r="B180" t="s">
+        <v>22</v>
+      </c>
+      <c r="C180" s="2">
+        <v>1875</v>
+      </c>
+      <c r="D180" t="s">
+        <v>23</v>
+      </c>
+      <c r="E180" t="s">
+        <v>24</v>
+      </c>
+      <c r="F180" t="s">
+        <v>22</v>
+      </c>
+      <c r="G180" t="s">
+        <v>30</v>
+      </c>
+      <c r="H180">
+        <v>23600</v>
+      </c>
+      <c r="I180" t="s">
+        <v>308</v>
+      </c>
+      <c r="J180" t="s">
+        <v>329</v>
+      </c>
+      <c r="K180" t="s">
+        <v>330</v>
+      </c>
+      <c r="L180" t="s">
+        <v>29</v>
+      </c>
+      <c r="M180">
+        <v>25</v>
+      </c>
+      <c r="N180" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A181" s="1">
+        <v>45462</v>
+      </c>
+      <c r="B181" t="s">
+        <v>22</v>
+      </c>
+      <c r="C181" s="2">
+        <v>750</v>
+      </c>
+      <c r="D181" t="s">
+        <v>23</v>
+      </c>
+      <c r="E181" t="s">
+        <v>24</v>
+      </c>
+      <c r="F181" t="s">
+        <v>22</v>
+      </c>
+      <c r="G181" t="s">
+        <v>25</v>
+      </c>
+      <c r="H181">
+        <v>23600</v>
+      </c>
+      <c r="I181" t="s">
+        <v>308</v>
+      </c>
+      <c r="J181" t="s">
+        <v>331</v>
+      </c>
+      <c r="K181" t="s">
+        <v>332</v>
+      </c>
+      <c r="L181" t="s">
+        <v>29</v>
+      </c>
+      <c r="M181">
+        <v>25</v>
+      </c>
+      <c r="N181" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A182" s="1">
+        <v>45462</v>
+      </c>
+      <c r="B182" t="s">
+        <v>22</v>
+      </c>
+      <c r="C182" s="2">
+        <v>2400</v>
+      </c>
+      <c r="D182" t="s">
+        <v>23</v>
+      </c>
+      <c r="E182" t="s">
+        <v>24</v>
+      </c>
+      <c r="F182" t="s">
+        <v>22</v>
+      </c>
+      <c r="G182" t="s">
+        <v>25</v>
+      </c>
+      <c r="H182">
+        <v>23600</v>
+      </c>
+      <c r="I182" t="s">
+        <v>308</v>
+      </c>
+      <c r="J182" t="s">
+        <v>333</v>
+      </c>
+      <c r="K182" t="s">
+        <v>124</v>
+      </c>
+      <c r="L182" t="s">
+        <v>34</v>
+      </c>
+      <c r="M182">
+        <v>50</v>
+      </c>
+      <c r="N182" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A183" s="1">
+        <v>45462</v>
+      </c>
+      <c r="B183" t="s">
+        <v>22</v>
+      </c>
+      <c r="C183" s="2">
+        <v>2500</v>
+      </c>
+      <c r="D183" t="s">
+        <v>23</v>
+      </c>
+      <c r="E183" t="s">
+        <v>24</v>
+      </c>
+      <c r="F183" t="s">
+        <v>22</v>
+      </c>
+      <c r="G183" t="s">
+        <v>30</v>
+      </c>
+      <c r="H183">
+        <v>23600</v>
+      </c>
+      <c r="I183" t="s">
+        <v>308</v>
+      </c>
+      <c r="J183" t="s">
+        <v>334</v>
+      </c>
+      <c r="K183" t="s">
+        <v>335</v>
+      </c>
+      <c r="L183" t="s">
+        <v>34</v>
+      </c>
+      <c r="M183">
+        <v>25</v>
+      </c>
+      <c r="N183" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A184" s="1">
+        <v>45462</v>
+      </c>
+      <c r="B184" t="s">
+        <v>22</v>
+      </c>
+      <c r="C184" s="2">
+        <v>1248.75</v>
+      </c>
+      <c r="D184" t="s">
+        <v>23</v>
+      </c>
+      <c r="E184" t="s">
+        <v>24</v>
+      </c>
+      <c r="F184" t="s">
+        <v>22</v>
+      </c>
+      <c r="G184" t="s">
+        <v>25</v>
+      </c>
+      <c r="H184">
+        <v>23600</v>
+      </c>
+      <c r="I184" t="s">
+        <v>308</v>
+      </c>
+      <c r="J184" t="s">
+        <v>336</v>
+      </c>
+      <c r="K184" t="s">
+        <v>337</v>
+      </c>
+      <c r="L184" t="s">
+        <v>29</v>
+      </c>
+      <c r="M184">
+        <v>25</v>
+      </c>
+      <c r="N184" s="2">
+        <v>49.95</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A185" s="1">
+        <v>45461</v>
+      </c>
+      <c r="B185" t="s">
+        <v>22</v>
+      </c>
+      <c r="C185" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D185" t="s">
+        <v>23</v>
+      </c>
+      <c r="E185" t="s">
+        <v>24</v>
+      </c>
+      <c r="F185" t="s">
+        <v>22</v>
+      </c>
+      <c r="G185" t="s">
+        <v>25</v>
+      </c>
+      <c r="H185">
+        <v>23500</v>
+      </c>
+      <c r="I185" t="s">
+        <v>308</v>
+      </c>
+      <c r="J185" t="s">
+        <v>338</v>
+      </c>
+      <c r="K185" t="s">
+        <v>339</v>
+      </c>
+      <c r="L185" t="s">
+        <v>29</v>
+      </c>
+      <c r="M185">
+        <v>25</v>
+      </c>
+      <c r="N185" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A186" s="1">
+        <v>45461</v>
+      </c>
+      <c r="B186" t="s">
+        <v>22</v>
+      </c>
+      <c r="C186" s="2">
+        <v>3391.25</v>
+      </c>
+      <c r="D186" t="s">
+        <v>23</v>
+      </c>
+      <c r="E186" t="s">
+        <v>24</v>
+      </c>
+      <c r="F186" t="s">
+        <v>22</v>
+      </c>
+      <c r="G186" t="s">
+        <v>25</v>
+      </c>
+      <c r="H186">
+        <v>23500</v>
+      </c>
+      <c r="I186" t="s">
+        <v>308</v>
+      </c>
+      <c r="J186" t="s">
+        <v>340</v>
+      </c>
+      <c r="K186" t="s">
+        <v>341</v>
+      </c>
+      <c r="L186" t="s">
+        <v>34</v>
+      </c>
+      <c r="M186">
+        <v>25</v>
+      </c>
+      <c r="N186" s="2">
+        <v>135.65</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A187" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B187" t="s">
+        <v>22</v>
+      </c>
+      <c r="C187" s="2">
+        <v>3117.5</v>
+      </c>
+      <c r="D187" t="s">
+        <v>23</v>
+      </c>
+      <c r="E187" t="s">
+        <v>24</v>
+      </c>
+      <c r="F187" t="s">
+        <v>22</v>
+      </c>
+      <c r="G187" t="s">
+        <v>30</v>
+      </c>
+      <c r="H187">
+        <v>23450</v>
+      </c>
+      <c r="I187" t="s">
+        <v>308</v>
+      </c>
+      <c r="J187" t="s">
+        <v>342</v>
+      </c>
+      <c r="K187" t="s">
+        <v>343</v>
+      </c>
+      <c r="L187" t="s">
+        <v>29</v>
+      </c>
+      <c r="M187">
+        <v>25</v>
+      </c>
+      <c r="N187" s="2">
+        <v>124.7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A188" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B188" t="s">
+        <v>22</v>
+      </c>
+      <c r="C188" s="2">
+        <v>3200</v>
+      </c>
+      <c r="D188" t="s">
+        <v>23</v>
+      </c>
+      <c r="E188" t="s">
+        <v>24</v>
+      </c>
+      <c r="F188" t="s">
+        <v>22</v>
+      </c>
+      <c r="G188" t="s">
+        <v>30</v>
+      </c>
+      <c r="H188">
+        <v>23450</v>
+      </c>
+      <c r="I188" t="s">
+        <v>308</v>
+      </c>
+      <c r="J188" t="s">
+        <v>344</v>
+      </c>
+      <c r="K188" t="s">
+        <v>345</v>
+      </c>
+      <c r="L188" t="s">
+        <v>34</v>
+      </c>
+      <c r="M188">
+        <v>25</v>
+      </c>
+      <c r="N188" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A189" s="1">
+        <v>45456</v>
+      </c>
+      <c r="B189" t="s">
+        <v>346</v>
+      </c>
+      <c r="C189" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D189" t="s">
+        <v>347</v>
+      </c>
+      <c r="E189" t="s">
+        <v>348</v>
+      </c>
+      <c r="F189" t="s">
+        <v>349</v>
+      </c>
+      <c r="G189" t="s">
+        <v>350</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="J189" t="s">
+        <v>351</v>
+      </c>
+      <c r="K189" t="s">
+        <v>352</v>
+      </c>
+      <c r="L189" t="s">
+        <v>29</v>
+      </c>
+      <c r="M189">
+        <v>2</v>
+      </c>
+      <c r="N189" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A190" s="1">
+        <v>45456</v>
+      </c>
+      <c r="B190" t="s">
+        <v>22</v>
+      </c>
+      <c r="C190" s="2">
+        <v>1547.5</v>
+      </c>
+      <c r="D190" t="s">
+        <v>23</v>
+      </c>
+      <c r="E190" t="s">
+        <v>24</v>
+      </c>
+      <c r="F190" t="s">
+        <v>22</v>
+      </c>
+      <c r="G190" t="s">
+        <v>25</v>
+      </c>
+      <c r="H190">
+        <v>23350</v>
+      </c>
+      <c r="I190" t="s">
+        <v>353</v>
+      </c>
+      <c r="J190" t="s">
+        <v>354</v>
+      </c>
+      <c r="K190" t="s">
+        <v>355</v>
+      </c>
+      <c r="L190" t="s">
+        <v>34</v>
+      </c>
+      <c r="M190">
+        <v>25</v>
+      </c>
+      <c r="N190" s="2">
+        <v>61.9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A191" s="1">
+        <v>45456</v>
+      </c>
+      <c r="B191" t="s">
+        <v>22</v>
+      </c>
+      <c r="C191" s="2">
+        <v>1475</v>
+      </c>
+      <c r="D191" t="s">
+        <v>23</v>
+      </c>
+      <c r="E191" t="s">
+        <v>24</v>
+      </c>
+      <c r="F191" t="s">
+        <v>22</v>
+      </c>
+      <c r="G191" t="s">
+        <v>25</v>
+      </c>
+      <c r="H191">
+        <v>23350</v>
+      </c>
+      <c r="I191" t="s">
+        <v>353</v>
+      </c>
+      <c r="J191" t="s">
+        <v>356</v>
+      </c>
+      <c r="K191" t="s">
+        <v>357</v>
+      </c>
+      <c r="L191" t="s">
+        <v>29</v>
+      </c>
+      <c r="M191">
+        <v>25</v>
+      </c>
+      <c r="N191" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A192" s="1">
+        <v>45447</v>
+      </c>
+      <c r="B192" t="s">
+        <v>358</v>
+      </c>
+      <c r="C192" s="2">
+        <v>2688.6</v>
+      </c>
+      <c r="D192" t="s">
+        <v>347</v>
+      </c>
+      <c r="E192" t="s">
+        <v>348</v>
+      </c>
+      <c r="F192" t="s">
+        <v>359</v>
+      </c>
+      <c r="G192" t="s">
+        <v>350</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="J192" t="s">
+        <v>360</v>
+      </c>
+      <c r="K192" t="s">
+        <v>361</v>
+      </c>
+      <c r="L192" t="s">
+        <v>29</v>
+      </c>
+      <c r="M192">
+        <v>3</v>
+      </c>
+      <c r="N192" s="2">
+        <v>896.2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A193" s="1">
         <v>45436</v>
       </c>
-      <c r="B180" t="s">
-        <v>46</v>
-      </c>
-      <c r="C180" s="2">
+      <c r="B193" t="s">
+        <v>71</v>
+      </c>
+      <c r="C193" s="2">
+        <v>999.75</v>
+      </c>
+      <c r="D193" t="s">
+        <v>72</v>
+      </c>
+      <c r="E193" t="s">
+        <v>73</v>
+      </c>
+      <c r="F193" t="s">
+        <v>74</v>
+      </c>
+      <c r="G193" t="s">
+        <v>73</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="L193" t="s">
+        <v>29</v>
+      </c>
+      <c r="M193">
+        <v>2.33</v>
+      </c>
+      <c r="N193" s="2">
+        <v>428.89</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A194" s="1">
+        <v>45436</v>
+      </c>
+      <c r="B194" t="s">
+        <v>75</v>
+      </c>
+      <c r="C194" s="2">
         <v>999.95</v>
       </c>
-      <c r="D180" t="s">
-        <v>43</v>
-      </c>
-      <c r="E180" t="s">
-        <v>44</v>
-      </c>
-      <c r="F180" t="s">
-        <v>47</v>
-      </c>
-      <c r="G180" t="s">
-        <v>44</v>
-      </c>
-      <c r="H180">
+      <c r="D194" t="s">
+        <v>72</v>
+      </c>
+      <c r="E194" t="s">
+        <v>73</v>
+      </c>
+      <c r="F194" t="s">
+        <v>76</v>
+      </c>
+      <c r="G194" t="s">
+        <v>73</v>
+      </c>
+      <c r="H194">
         <v>0</v>
       </c>
-      <c r="L180" t="s">
-        <v>33</v>
-      </c>
-      <c r="M180">
+      <c r="L194" t="s">
+        <v>29</v>
+      </c>
+      <c r="M194">
         <v>20.51</v>
       </c>
-      <c r="N180" s="2">
+      <c r="N194" s="2">
         <v>48.77</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A186" s="3"/>
-      <c r="B186" s="3"/>
-      <c r="C186" s="3"/>
-      <c r="D186" s="3"/>
-      <c r="E186" s="3"/>
-      <c r="F186" s="3"/>
-      <c r="G186" s="3"/>
-      <c r="H186" s="3"/>
-      <c r="I186" s="3"/>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
-        <v>333</v>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A200" s="3"/>
+      <c r="B200" s="3"/>
+      <c r="C200" s="3"/>
+      <c r="D200" s="3"/>
+      <c r="E200" s="3"/>
+      <c r="F200" s="3"/>
+      <c r="G200" s="3"/>
+      <c r="H200" s="3"/>
+      <c r="I200" s="3"/>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>362</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A186:I186"/>
+    <mergeCell ref="A200:I200"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DATA/SOURCE/TradeHistory/trade_2425.xlsx
+++ b/DATA/SOURCE/TradeHistory/trade_2425.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prashant.tripathi\Code\Upstox\DATA\SOURCE\TradeHistory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prashant.tripathi\Code\PortfolioTracker\DATA\SOURCE\TradeHistory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C43143-2C34-42F2-92EA-3F93C79558A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945E7F83-4D7C-490C-833A-95970957D233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="379">
   <si>
     <t>UPSTOX SECURITIES PRIVATE LIMITED</t>
   </si>
@@ -97,10 +97,67 @@
     <t>FO</t>
   </si>
   <si>
+    <t>European Put</t>
+  </si>
+  <si>
+    <t>14-08-2024</t>
+  </si>
+  <si>
+    <t>815482898</t>
+  </si>
+  <si>
+    <t>11:42:26</t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
+    <t>814680371</t>
+  </si>
+  <si>
+    <t>11:07:42</t>
+  </si>
+  <si>
+    <t>816897194</t>
+  </si>
+  <si>
+    <t>12:50:40</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>731545153</t>
+  </si>
+  <si>
+    <t>09:30:02</t>
+  </si>
+  <si>
+    <t>736112360</t>
+  </si>
+  <si>
+    <t>10:30:34</t>
+  </si>
+  <si>
     <t>European Call</t>
   </si>
   <si>
-    <t>14-08-2024</t>
+    <t>80920511</t>
+  </si>
+  <si>
+    <t>09:43:40</t>
+  </si>
+  <si>
+    <t>84262186</t>
+  </si>
+  <si>
+    <t>14:47:44</t>
+  </si>
+  <si>
+    <t>1519988</t>
+  </si>
+  <si>
+    <t>10:01:35</t>
   </si>
   <si>
     <t>155765668</t>
@@ -109,12 +166,6 @@
     <t>15:28:33</t>
   </si>
   <si>
-    <t>Buy</t>
-  </si>
-  <si>
-    <t>European Put</t>
-  </si>
-  <si>
     <t>08-08-2024</t>
   </si>
   <si>
@@ -122,9 +173,6 @@
   </si>
   <si>
     <t>10:43:59</t>
-  </si>
-  <si>
-    <t>Sell</t>
   </si>
   <si>
     <t>737361400</t>
@@ -1487,10 +1535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N201"/>
+  <dimension ref="A1:N209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1595,13 +1643,13 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>45512</v>
+        <v>45518</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="2">
-        <v>500</v>
+        <v>412.5</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1616,7 +1664,7 @@
         <v>25</v>
       </c>
       <c r="H10">
-        <v>25000</v>
+        <v>24100</v>
       </c>
       <c r="I10" t="s">
         <v>26</v>
@@ -1631,21 +1679,21 @@
         <v>29</v>
       </c>
       <c r="M10">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N10" s="2">
-        <v>5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>45512</v>
+        <v>45518</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="2">
-        <v>1875</v>
+        <v>597.5</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1657,39 +1705,39 @@
         <v>22</v>
       </c>
       <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11">
+        <v>24100</v>
+      </c>
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" t="s">
         <v>30</v>
       </c>
-      <c r="H11">
-        <v>24000</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>31</v>
       </c>
-      <c r="J11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" t="s">
-        <v>33</v>
-      </c>
       <c r="L11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N11" s="2">
-        <v>25</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="2">
-        <v>1125</v>
+        <v>370</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
@@ -1701,39 +1749,39 @@
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H12">
-        <v>24000</v>
+        <v>24100</v>
       </c>
       <c r="I12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L12" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M12">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N12" s="2">
-        <v>15</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>45511</v>
+        <v>45517</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="2">
-        <v>1561.25</v>
+        <v>1750</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
@@ -1748,36 +1796,36 @@
         <v>25</v>
       </c>
       <c r="H13">
-        <v>24350</v>
+        <v>24250</v>
       </c>
       <c r="I13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M13">
         <v>25</v>
       </c>
       <c r="N13" s="2">
-        <v>62.45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>45511</v>
+        <v>45517</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="2">
-        <v>47.5</v>
+        <v>2000</v>
       </c>
       <c r="D14" t="s">
         <v>23</v>
@@ -1792,36 +1840,36 @@
         <v>25</v>
       </c>
       <c r="H14">
-        <v>25000</v>
+        <v>24250</v>
       </c>
       <c r="I14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M14">
         <v>25</v>
       </c>
       <c r="N14" s="2">
-        <v>1.9</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="2">
-        <v>2460</v>
+        <v>1257.5</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -1833,39 +1881,39 @@
         <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H15">
-        <v>24350</v>
+        <v>24500</v>
       </c>
       <c r="I15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" t="s">
         <v>41</v>
       </c>
-      <c r="K15" t="s">
-        <v>42</v>
-      </c>
       <c r="L15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M15">
         <v>25</v>
       </c>
       <c r="N15" s="2">
-        <v>98.4</v>
+        <v>50.3</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>45510</v>
+        <v>45513</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="2">
-        <v>2800</v>
+        <v>2237.5</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
@@ -1877,19 +1925,19 @@
         <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H16">
-        <v>24200</v>
+        <v>24500</v>
       </c>
       <c r="I16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J16" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" t="s">
         <v>43</v>
-      </c>
-      <c r="K16" t="s">
-        <v>44</v>
       </c>
       <c r="L16" t="s">
         <v>29</v>
@@ -1898,18 +1946,18 @@
         <v>25</v>
       </c>
       <c r="N16" s="2">
-        <v>112</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>45510</v>
+        <v>45513</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="2">
-        <v>3250</v>
+        <v>830</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1921,39 +1969,39 @@
         <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H17">
-        <v>24150</v>
+        <v>25000</v>
       </c>
       <c r="I17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" t="s">
         <v>45</v>
       </c>
-      <c r="K17" t="s">
-        <v>46</v>
-      </c>
       <c r="L17" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M17">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N17" s="2">
-        <v>130</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>45510</v>
+        <v>45512</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="2">
-        <v>2257.5</v>
+        <v>500</v>
       </c>
       <c r="D18" t="s">
         <v>23</v>
@@ -1965,39 +2013,39 @@
         <v>22</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H18">
-        <v>24150</v>
+        <v>25000</v>
       </c>
       <c r="I18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" t="s">
         <v>47</v>
       </c>
-      <c r="K18" t="s">
-        <v>48</v>
-      </c>
       <c r="L18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M18">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N18" s="2">
-        <v>90.3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>45510</v>
+        <v>45512</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="2">
-        <v>2500</v>
+        <v>1875</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
@@ -2012,10 +2060,10 @@
         <v>25</v>
       </c>
       <c r="H19">
-        <v>24300</v>
+        <v>24000</v>
       </c>
       <c r="I19" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="J19" t="s">
         <v>49</v>
@@ -2024,24 +2072,24 @@
         <v>50</v>
       </c>
       <c r="L19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N19" s="2">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>45510</v>
+        <v>45511</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="2">
-        <v>3167.5</v>
+        <v>1125</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -2053,13 +2101,13 @@
         <v>22</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H20">
-        <v>24200</v>
+        <v>24000</v>
       </c>
       <c r="I20" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="J20" t="s">
         <v>51</v>
@@ -2068,24 +2116,24 @@
         <v>52</v>
       </c>
       <c r="L20" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N20" s="2">
-        <v>126.7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>45510</v>
+        <v>45511</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="2">
-        <v>2971.25</v>
+        <v>1561.25</v>
       </c>
       <c r="D21" t="s">
         <v>23</v>
@@ -2097,13 +2145,13 @@
         <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H21">
-        <v>24150</v>
+        <v>24350</v>
       </c>
       <c r="I21" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="J21" t="s">
         <v>53</v>
@@ -2118,18 +2166,18 @@
         <v>25</v>
       </c>
       <c r="N21" s="2">
-        <v>118.85</v>
+        <v>62.45</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>45510</v>
+        <v>45511</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="2">
-        <v>2337.5</v>
+        <v>47.5</v>
       </c>
       <c r="D22" t="s">
         <v>23</v>
@@ -2141,13 +2189,13 @@
         <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H22">
-        <v>24300</v>
+        <v>25000</v>
       </c>
       <c r="I22" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="J22" t="s">
         <v>55</v>
@@ -2156,24 +2204,24 @@
         <v>56</v>
       </c>
       <c r="L22" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M22">
         <v>25</v>
       </c>
       <c r="N22" s="2">
-        <v>93.5</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>45510</v>
+        <v>45511</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="2">
-        <v>2843.75</v>
+        <v>2460</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -2185,13 +2233,13 @@
         <v>22</v>
       </c>
       <c r="G23" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H23">
-        <v>24150</v>
+        <v>24350</v>
       </c>
       <c r="I23" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="J23" t="s">
         <v>57</v>
@@ -2206,18 +2254,18 @@
         <v>25</v>
       </c>
       <c r="N23" s="2">
-        <v>113.75</v>
+        <v>98.4</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>45509</v>
+        <v>45510</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="2">
-        <v>750</v>
+        <v>2800</v>
       </c>
       <c r="D24" t="s">
         <v>23</v>
@@ -2232,10 +2280,10 @@
         <v>25</v>
       </c>
       <c r="H24">
-        <v>24700</v>
+        <v>24200</v>
       </c>
       <c r="I24" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="J24" t="s">
         <v>59</v>
@@ -2244,24 +2292,24 @@
         <v>60</v>
       </c>
       <c r="L24" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M24">
         <v>25</v>
       </c>
       <c r="N24" s="2">
-        <v>30</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>45506</v>
+        <v>45510</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="2">
-        <v>4000</v>
+        <v>3250</v>
       </c>
       <c r="D25" t="s">
         <v>23</v>
@@ -2273,13 +2321,13 @@
         <v>22</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H25">
-        <v>24800</v>
+        <v>24150</v>
       </c>
       <c r="I25" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="J25" t="s">
         <v>61</v>
@@ -2294,18 +2342,18 @@
         <v>25</v>
       </c>
       <c r="N25" s="2">
-        <v>160</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>45506</v>
+        <v>45510</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="2">
-        <v>4150</v>
+        <v>2257.5</v>
       </c>
       <c r="D26" t="s">
         <v>23</v>
@@ -2317,13 +2365,13 @@
         <v>22</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H26">
-        <v>24800</v>
+        <v>24150</v>
       </c>
       <c r="I26" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="J26" t="s">
         <v>63</v>
@@ -2332,24 +2380,24 @@
         <v>64</v>
       </c>
       <c r="L26" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M26">
         <v>25</v>
       </c>
       <c r="N26" s="2">
-        <v>166</v>
+        <v>90.3</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>45506</v>
+        <v>45510</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="2">
-        <v>4196.25</v>
+        <v>2500</v>
       </c>
       <c r="D27" t="s">
         <v>23</v>
@@ -2361,13 +2409,13 @@
         <v>22</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H27">
-        <v>24800</v>
+        <v>24300</v>
       </c>
       <c r="I27" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="J27" t="s">
         <v>65</v>
@@ -2376,24 +2424,24 @@
         <v>66</v>
       </c>
       <c r="L27" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M27">
         <v>25</v>
       </c>
       <c r="N27" s="2">
-        <v>167.85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>45506</v>
+        <v>45510</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="2">
-        <v>3500</v>
+        <v>3167.5</v>
       </c>
       <c r="D28" t="s">
         <v>23</v>
@@ -2408,10 +2456,10 @@
         <v>25</v>
       </c>
       <c r="H28">
-        <v>24700</v>
+        <v>24200</v>
       </c>
       <c r="I28" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="J28" t="s">
         <v>67</v>
@@ -2420,24 +2468,24 @@
         <v>68</v>
       </c>
       <c r="L28" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M28">
         <v>25</v>
       </c>
       <c r="N28" s="2">
-        <v>140</v>
+        <v>126.7</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>45506</v>
+        <v>45510</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="2">
-        <v>4443.75</v>
+        <v>2971.25</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
@@ -2449,13 +2497,13 @@
         <v>22</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H29">
-        <v>24800</v>
+        <v>24150</v>
       </c>
       <c r="I29" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="J29" t="s">
         <v>69</v>
@@ -2470,88 +2518,106 @@
         <v>25</v>
       </c>
       <c r="N29" s="2">
-        <v>177.75</v>
+        <v>118.85</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>45506</v>
+        <v>45510</v>
       </c>
       <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2337.5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30">
+        <v>24300</v>
+      </c>
+      <c r="I30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="2">
-        <v>999.86</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="K30" t="s">
         <v>72</v>
       </c>
-      <c r="E30" t="s">
-        <v>73</v>
-      </c>
-      <c r="F30" t="s">
-        <v>74</v>
-      </c>
-      <c r="G30" t="s">
-        <v>73</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
       <c r="L30" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M30">
-        <v>2.11</v>
+        <v>25</v>
       </c>
       <c r="N30" s="2">
-        <v>474.32</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>45506</v>
+        <v>45510</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="C31" s="2">
-        <v>999.94</v>
+        <v>2843.75</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="E31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31">
+        <v>24150</v>
+      </c>
+      <c r="I31" t="s">
+        <v>48</v>
+      </c>
+      <c r="J31" t="s">
         <v>73</v>
       </c>
-      <c r="F31" t="s">
-        <v>76</v>
-      </c>
-      <c r="G31" t="s">
-        <v>73</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
+      <c r="K31" t="s">
+        <v>74</v>
       </c>
       <c r="L31" t="s">
         <v>29</v>
       </c>
       <c r="M31">
-        <v>18.61</v>
+        <v>25</v>
       </c>
       <c r="N31" s="2">
-        <v>53.74</v>
+        <v>113.75</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>45505</v>
+        <v>45509</v>
       </c>
       <c r="B32" t="s">
         <v>22</v>
       </c>
       <c r="C32" s="2">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="D32" t="s">
         <v>23</v>
@@ -2563,39 +2629,39 @@
         <v>22</v>
       </c>
       <c r="G32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32">
+        <v>24700</v>
+      </c>
+      <c r="I32" t="s">
+        <v>48</v>
+      </c>
+      <c r="J32" t="s">
+        <v>75</v>
+      </c>
+      <c r="K32" t="s">
+        <v>76</v>
+      </c>
+      <c r="L32" t="s">
+        <v>34</v>
+      </c>
+      <c r="M32">
+        <v>25</v>
+      </c>
+      <c r="N32" s="2">
         <v>30</v>
-      </c>
-      <c r="H32">
-        <v>24950</v>
-      </c>
-      <c r="I32" t="s">
-        <v>77</v>
-      </c>
-      <c r="J32" t="s">
-        <v>78</v>
-      </c>
-      <c r="K32" t="s">
-        <v>79</v>
-      </c>
-      <c r="L32" t="s">
-        <v>29</v>
-      </c>
-      <c r="M32">
-        <v>125</v>
-      </c>
-      <c r="N32" s="2">
-        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>45505</v>
+        <v>45506</v>
       </c>
       <c r="B33" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="2">
-        <v>320</v>
+        <v>4000</v>
       </c>
       <c r="D33" t="s">
         <v>23</v>
@@ -2610,36 +2676,36 @@
         <v>25</v>
       </c>
       <c r="H33">
-        <v>25000</v>
+        <v>24800</v>
       </c>
       <c r="I33" t="s">
+        <v>48</v>
+      </c>
+      <c r="J33" t="s">
         <v>77</v>
       </c>
-      <c r="J33" t="s">
-        <v>80</v>
-      </c>
       <c r="K33" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L33" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M33">
         <v>25</v>
       </c>
       <c r="N33" s="2">
-        <v>12.8</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>45505</v>
+        <v>45506</v>
       </c>
       <c r="B34" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="2">
-        <v>960</v>
+        <v>4150</v>
       </c>
       <c r="D34" t="s">
         <v>23</v>
@@ -2654,36 +2720,36 @@
         <v>25</v>
       </c>
       <c r="H34">
-        <v>25000</v>
+        <v>24800</v>
       </c>
       <c r="I34" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="J34" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L34" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M34">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N34" s="2">
-        <v>12.8</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>45505</v>
+        <v>45506</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
       </c>
       <c r="C35" s="2">
-        <v>875</v>
+        <v>4196.25</v>
       </c>
       <c r="D35" t="s">
         <v>23</v>
@@ -2698,36 +2764,36 @@
         <v>25</v>
       </c>
       <c r="H35">
-        <v>25000</v>
+        <v>24800</v>
       </c>
       <c r="I35" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="J35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L35" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M35">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="N35" s="2">
-        <v>7</v>
+        <v>167.85</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>45505</v>
+        <v>45506</v>
       </c>
       <c r="B36" t="s">
         <v>22</v>
       </c>
       <c r="C36" s="2">
-        <v>6.25</v>
+        <v>3500</v>
       </c>
       <c r="D36" t="s">
         <v>23</v>
@@ -2739,39 +2805,39 @@
         <v>22</v>
       </c>
       <c r="G36" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H36">
-        <v>24950</v>
+        <v>24700</v>
       </c>
       <c r="I36" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="J36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K36" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L36" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M36">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="N36" s="2">
-        <v>0.05</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>45505</v>
+        <v>45506</v>
       </c>
       <c r="B37" t="s">
         <v>22</v>
       </c>
       <c r="C37" s="2">
-        <v>320</v>
+        <v>4443.75</v>
       </c>
       <c r="D37" t="s">
         <v>23</v>
@@ -2786,16 +2852,16 @@
         <v>25</v>
       </c>
       <c r="H37">
-        <v>25000</v>
+        <v>24800</v>
       </c>
       <c r="I37" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="J37" t="s">
+        <v>85</v>
+      </c>
+      <c r="K37" t="s">
         <v>86</v>
-      </c>
-      <c r="K37" t="s">
-        <v>81</v>
       </c>
       <c r="L37" t="s">
         <v>34</v>
@@ -2804,106 +2870,88 @@
         <v>25</v>
       </c>
       <c r="N37" s="2">
-        <v>12.8</v>
+        <v>177.75</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>45504</v>
+        <v>45506</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="C38" s="2">
-        <v>2471.25</v>
+        <v>999.86</v>
       </c>
       <c r="D38" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="E38" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="H38">
-        <v>24950</v>
-      </c>
-      <c r="I38" t="s">
-        <v>77</v>
-      </c>
-      <c r="J38" t="s">
-        <v>87</v>
-      </c>
-      <c r="K38" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="L38" t="s">
         <v>29</v>
       </c>
       <c r="M38">
-        <v>25</v>
+        <v>2.11</v>
       </c>
       <c r="N38" s="2">
-        <v>98.85</v>
+        <v>474.32</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>45504</v>
+        <v>45506</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="C39" s="2">
-        <v>2436.25</v>
+        <v>999.94</v>
       </c>
       <c r="D39" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="E39" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="H39">
-        <v>25000</v>
-      </c>
-      <c r="I39" t="s">
-        <v>77</v>
-      </c>
-      <c r="J39" t="s">
-        <v>89</v>
-      </c>
-      <c r="K39" t="s">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="L39" t="s">
         <v>29</v>
       </c>
       <c r="M39">
-        <v>25</v>
+        <v>18.61</v>
       </c>
       <c r="N39" s="2">
-        <v>97.45</v>
+        <v>53.74</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>45504</v>
+        <v>45505</v>
       </c>
       <c r="B40" t="s">
         <v>22</v>
       </c>
       <c r="C40" s="2">
-        <v>2136.25</v>
+        <v>875</v>
       </c>
       <c r="D40" t="s">
         <v>23</v>
@@ -2915,39 +2963,39 @@
         <v>22</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H40">
         <v>24950</v>
       </c>
       <c r="I40" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="J40" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K40" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L40" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M40">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="N40" s="2">
-        <v>85.45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>45504</v>
+        <v>45505</v>
       </c>
       <c r="B41" t="s">
         <v>22</v>
       </c>
       <c r="C41" s="2">
-        <v>2613.75</v>
+        <v>320</v>
       </c>
       <c r="D41" t="s">
         <v>23</v>
@@ -2959,19 +3007,19 @@
         <v>22</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H41">
         <v>25000</v>
       </c>
       <c r="I41" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="J41" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K41" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L41" t="s">
         <v>34</v>
@@ -2980,18 +3028,18 @@
         <v>25</v>
       </c>
       <c r="N41" s="2">
-        <v>104.55</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>45503</v>
+        <v>45505</v>
       </c>
       <c r="B42" t="s">
         <v>22</v>
       </c>
       <c r="C42" s="2">
-        <v>2568.75</v>
+        <v>960</v>
       </c>
       <c r="D42" t="s">
         <v>23</v>
@@ -3003,39 +3051,39 @@
         <v>22</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H42">
-        <v>24900</v>
+        <v>25000</v>
       </c>
       <c r="I42" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="J42" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K42" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L42" t="s">
         <v>34</v>
       </c>
       <c r="M42">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N42" s="2">
-        <v>102.75</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>45503</v>
+        <v>45505</v>
       </c>
       <c r="B43" t="s">
         <v>22</v>
       </c>
       <c r="C43" s="2">
-        <v>2568.75</v>
+        <v>875</v>
       </c>
       <c r="D43" t="s">
         <v>23</v>
@@ -3047,39 +3095,39 @@
         <v>22</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H43">
-        <v>24900</v>
+        <v>25000</v>
       </c>
       <c r="I43" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="J43" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K43" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L43" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M43">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="N43" s="2">
-        <v>102.75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>45503</v>
+        <v>45505</v>
       </c>
       <c r="B44" t="s">
         <v>22</v>
       </c>
       <c r="C44" s="2">
-        <v>4250</v>
+        <v>6.25</v>
       </c>
       <c r="D44" t="s">
         <v>23</v>
@@ -3097,33 +3145,33 @@
         <v>24950</v>
       </c>
       <c r="I44" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="J44" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K44" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L44" t="s">
         <v>34</v>
       </c>
       <c r="M44">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="N44" s="2">
-        <v>85</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>45503</v>
+        <v>45505</v>
       </c>
       <c r="B45" t="s">
         <v>22</v>
       </c>
       <c r="C45" s="2">
-        <v>1400</v>
+        <v>320</v>
       </c>
       <c r="D45" t="s">
         <v>23</v>
@@ -3135,39 +3183,39 @@
         <v>22</v>
       </c>
       <c r="G45" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H45">
-        <v>25150</v>
+        <v>25000</v>
       </c>
       <c r="I45" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="J45" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K45" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L45" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M45">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N45" s="2">
-        <v>28</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>45503</v>
+        <v>45504</v>
       </c>
       <c r="B46" t="s">
         <v>22</v>
       </c>
       <c r="C46" s="2">
-        <v>2625</v>
+        <v>2471.25</v>
       </c>
       <c r="D46" t="s">
         <v>23</v>
@@ -3185,13 +3233,13 @@
         <v>24950</v>
       </c>
       <c r="I46" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="J46" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K46" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L46" t="s">
         <v>29</v>
@@ -3200,18 +3248,18 @@
         <v>25</v>
       </c>
       <c r="N46" s="2">
-        <v>105</v>
+        <v>98.85</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>45503</v>
+        <v>45504</v>
       </c>
       <c r="B47" t="s">
         <v>22</v>
       </c>
       <c r="C47" s="2">
-        <v>2625</v>
+        <v>2436.25</v>
       </c>
       <c r="D47" t="s">
         <v>23</v>
@@ -3226,16 +3274,16 @@
         <v>25</v>
       </c>
       <c r="H47">
-        <v>24950</v>
+        <v>25000</v>
       </c>
       <c r="I47" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="J47" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K47" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L47" t="s">
         <v>29</v>
@@ -3244,18 +3292,18 @@
         <v>25</v>
       </c>
       <c r="N47" s="2">
-        <v>105</v>
+        <v>97.45</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>45503</v>
+        <v>45504</v>
       </c>
       <c r="B48" t="s">
         <v>22</v>
       </c>
       <c r="C48" s="2">
-        <v>1435</v>
+        <v>2136.25</v>
       </c>
       <c r="D48" t="s">
         <v>23</v>
@@ -3270,36 +3318,36 @@
         <v>25</v>
       </c>
       <c r="H48">
-        <v>25150</v>
+        <v>24950</v>
       </c>
       <c r="I48" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="J48" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K48" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L48" t="s">
         <v>34</v>
       </c>
       <c r="M48">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N48" s="2">
-        <v>28.7</v>
+        <v>85.45</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>45503</v>
+        <v>45504</v>
       </c>
       <c r="B49" t="s">
         <v>22</v>
       </c>
       <c r="C49" s="2">
-        <v>5097.5</v>
+        <v>2613.75</v>
       </c>
       <c r="D49" t="s">
         <v>23</v>
@@ -3311,39 +3359,39 @@
         <v>22</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H49">
-        <v>24900</v>
+        <v>25000</v>
       </c>
       <c r="I49" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="J49" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K49" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L49" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M49">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N49" s="2">
-        <v>101.95</v>
+        <v>104.55</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>45502</v>
+        <v>45503</v>
       </c>
       <c r="B50" t="s">
         <v>22</v>
       </c>
       <c r="C50" s="2">
-        <v>4950</v>
+        <v>2568.75</v>
       </c>
       <c r="D50" t="s">
         <v>23</v>
@@ -3358,36 +3406,36 @@
         <v>25</v>
       </c>
       <c r="H50">
-        <v>25000</v>
+        <v>24900</v>
       </c>
       <c r="I50" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="J50" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K50" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L50" t="s">
         <v>34</v>
       </c>
       <c r="M50">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N50" s="2">
-        <v>66</v>
+        <v>102.75</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>45502</v>
+        <v>45503</v>
       </c>
       <c r="B51" t="s">
         <v>22</v>
       </c>
       <c r="C51" s="2">
-        <v>600</v>
+        <v>2568.75</v>
       </c>
       <c r="D51" t="s">
         <v>23</v>
@@ -3399,39 +3447,39 @@
         <v>22</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H51">
-        <v>24450</v>
+        <v>24900</v>
       </c>
       <c r="I51" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="J51" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K51" t="s">
         <v>112</v>
       </c>
       <c r="L51" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M51">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N51" s="2">
-        <v>12</v>
+        <v>102.75</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>45502</v>
+        <v>45503</v>
       </c>
       <c r="B52" t="s">
         <v>22</v>
       </c>
       <c r="C52" s="2">
-        <v>4192.5</v>
+        <v>4250</v>
       </c>
       <c r="D52" t="s">
         <v>23</v>
@@ -3443,19 +3491,19 @@
         <v>22</v>
       </c>
       <c r="G52" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H52">
-        <v>24900</v>
+        <v>24950</v>
       </c>
       <c r="I52" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="J52" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K52" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L52" t="s">
         <v>34</v>
@@ -3464,18 +3512,18 @@
         <v>50</v>
       </c>
       <c r="N52" s="2">
-        <v>83.85</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>45502</v>
+        <v>45503</v>
       </c>
       <c r="B53" t="s">
         <v>22</v>
       </c>
       <c r="C53" s="2">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="D53" t="s">
         <v>23</v>
@@ -3487,39 +3535,39 @@
         <v>22</v>
       </c>
       <c r="G53" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H53">
-        <v>25400</v>
+        <v>25150</v>
       </c>
       <c r="I53" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="J53" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K53" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L53" t="s">
         <v>29</v>
       </c>
       <c r="M53">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N53" s="2">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>45502</v>
+        <v>45503</v>
       </c>
       <c r="B54" t="s">
         <v>22</v>
       </c>
       <c r="C54" s="2">
-        <v>300</v>
+        <v>2625</v>
       </c>
       <c r="D54" t="s">
         <v>23</v>
@@ -3531,19 +3579,19 @@
         <v>22</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H54">
-        <v>24450</v>
+        <v>24950</v>
       </c>
       <c r="I54" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="J54" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K54" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="L54" t="s">
         <v>29</v>
@@ -3552,18 +3600,18 @@
         <v>25</v>
       </c>
       <c r="N54" s="2">
-        <v>12</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>45502</v>
+        <v>45503</v>
       </c>
       <c r="B55" t="s">
         <v>22</v>
       </c>
       <c r="C55" s="2">
-        <v>9375</v>
+        <v>2625</v>
       </c>
       <c r="D55" t="s">
         <v>23</v>
@@ -3575,16 +3623,16 @@
         <v>22</v>
       </c>
       <c r="G55" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H55">
-        <v>24900</v>
+        <v>24950</v>
       </c>
       <c r="I55" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="J55" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K55" t="s">
         <v>119</v>
@@ -3593,21 +3641,21 @@
         <v>29</v>
       </c>
       <c r="M55">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N55" s="2">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>45502</v>
+        <v>45503</v>
       </c>
       <c r="B56" t="s">
         <v>22</v>
       </c>
       <c r="C56" s="2">
-        <v>7500</v>
+        <v>1435</v>
       </c>
       <c r="D56" t="s">
         <v>23</v>
@@ -3619,39 +3667,39 @@
         <v>22</v>
       </c>
       <c r="G56" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H56">
-        <v>25000</v>
+        <v>25150</v>
       </c>
       <c r="I56" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="J56" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K56" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L56" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M56">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N56" s="2">
-        <v>100</v>
+        <v>28.7</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>45502</v>
+        <v>45503</v>
       </c>
       <c r="B57" t="s">
         <v>22</v>
       </c>
       <c r="C57" s="2">
-        <v>2097.5</v>
+        <v>5097.5</v>
       </c>
       <c r="D57" t="s">
         <v>23</v>
@@ -3663,28 +3711,28 @@
         <v>22</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H57">
         <v>24900</v>
       </c>
       <c r="I57" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="J57" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K57" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="L57" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M57">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N57" s="2">
-        <v>83.9</v>
+        <v>101.95</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
@@ -3695,7 +3743,7 @@
         <v>22</v>
       </c>
       <c r="C58" s="2">
-        <v>783.75</v>
+        <v>4950</v>
       </c>
       <c r="D58" t="s">
         <v>23</v>
@@ -3707,19 +3755,19 @@
         <v>22</v>
       </c>
       <c r="G58" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H58">
-        <v>24450</v>
+        <v>25000</v>
       </c>
       <c r="I58" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="J58" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K58" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L58" t="s">
         <v>34</v>
@@ -3728,7 +3776,7 @@
         <v>75</v>
       </c>
       <c r="N58" s="2">
-        <v>10.45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
@@ -3739,7 +3787,7 @@
         <v>22</v>
       </c>
       <c r="C59" s="2">
-        <v>1035</v>
+        <v>600</v>
       </c>
       <c r="D59" t="s">
         <v>23</v>
@@ -3754,36 +3802,36 @@
         <v>25</v>
       </c>
       <c r="H59">
-        <v>25400</v>
+        <v>24450</v>
       </c>
       <c r="I59" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="J59" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K59" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L59" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M59">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N59" s="2">
-        <v>10.35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>45499</v>
+        <v>45502</v>
       </c>
       <c r="B60" t="s">
         <v>22</v>
       </c>
       <c r="C60" s="2">
-        <v>7125</v>
+        <v>4192.5</v>
       </c>
       <c r="D60" t="s">
         <v>23</v>
@@ -3798,36 +3846,36 @@
         <v>25</v>
       </c>
       <c r="H60">
-        <v>24600</v>
+        <v>24900</v>
       </c>
       <c r="I60" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="J60" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K60" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L60" t="s">
         <v>34</v>
       </c>
       <c r="M60">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N60" s="2">
-        <v>285</v>
+        <v>83.85</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>45499</v>
+        <v>45502</v>
       </c>
       <c r="B61" t="s">
         <v>22</v>
       </c>
       <c r="C61" s="2">
-        <v>2653.75</v>
+        <v>900</v>
       </c>
       <c r="D61" t="s">
         <v>23</v>
@@ -3839,39 +3887,39 @@
         <v>22</v>
       </c>
       <c r="G61" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H61">
-        <v>24650</v>
+        <v>25400</v>
       </c>
       <c r="I61" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="J61" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K61" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L61" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M61">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N61" s="2">
-        <v>106.15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>45499</v>
+        <v>45502</v>
       </c>
       <c r="B62" t="s">
         <v>22</v>
       </c>
       <c r="C62" s="2">
-        <v>4767.5</v>
+        <v>300</v>
       </c>
       <c r="D62" t="s">
         <v>23</v>
@@ -3886,16 +3934,16 @@
         <v>25</v>
       </c>
       <c r="H62">
-        <v>24600</v>
+        <v>24450</v>
       </c>
       <c r="I62" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="J62" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K62" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L62" t="s">
         <v>29</v>
@@ -3904,18 +3952,18 @@
         <v>25</v>
       </c>
       <c r="N62" s="2">
-        <v>190.7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>45499</v>
+        <v>45502</v>
       </c>
       <c r="B63" t="s">
         <v>22</v>
       </c>
       <c r="C63" s="2">
-        <v>3450</v>
+        <v>9375</v>
       </c>
       <c r="D63" t="s">
         <v>23</v>
@@ -3927,39 +3975,39 @@
         <v>22</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H63">
-        <v>24650</v>
+        <v>24900</v>
       </c>
       <c r="I63" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="J63" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K63" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L63" t="s">
         <v>29</v>
       </c>
       <c r="M63">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N63" s="2">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>45496</v>
+        <v>45502</v>
       </c>
       <c r="B64" t="s">
         <v>22</v>
       </c>
       <c r="C64" s="2">
-        <v>5445</v>
+        <v>7500</v>
       </c>
       <c r="D64" t="s">
         <v>23</v>
@@ -3971,13 +4019,13 @@
         <v>22</v>
       </c>
       <c r="G64" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H64">
-        <v>24500</v>
+        <v>25000</v>
       </c>
       <c r="I64" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="J64" t="s">
         <v>136</v>
@@ -3986,24 +4034,24 @@
         <v>137</v>
       </c>
       <c r="L64" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M64">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N64" s="2">
-        <v>108.9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>45496</v>
+        <v>45502</v>
       </c>
       <c r="B65" t="s">
         <v>22</v>
       </c>
       <c r="C65" s="2">
-        <v>2722.5</v>
+        <v>2097.5</v>
       </c>
       <c r="D65" t="s">
         <v>23</v>
@@ -4018,16 +4066,16 @@
         <v>25</v>
       </c>
       <c r="H65">
-        <v>24500</v>
+        <v>24900</v>
       </c>
       <c r="I65" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="J65" t="s">
         <v>138</v>
       </c>
       <c r="K65" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="L65" t="s">
         <v>34</v>
@@ -4036,18 +4084,18 @@
         <v>25</v>
       </c>
       <c r="N65" s="2">
-        <v>108.9</v>
+        <v>83.9</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>45496</v>
+        <v>45502</v>
       </c>
       <c r="B66" t="s">
         <v>22</v>
       </c>
       <c r="C66" s="2">
-        <v>10265</v>
+        <v>783.75</v>
       </c>
       <c r="D66" t="s">
         <v>23</v>
@@ -4062,10 +4110,10 @@
         <v>25</v>
       </c>
       <c r="H66">
-        <v>24500</v>
+        <v>24450</v>
       </c>
       <c r="I66" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="J66" t="s">
         <v>139</v>
@@ -4074,24 +4122,24 @@
         <v>140</v>
       </c>
       <c r="L66" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M66">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N66" s="2">
-        <v>205.3</v>
+        <v>10.45</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>45496</v>
+        <v>45502</v>
       </c>
       <c r="B67" t="s">
         <v>22</v>
       </c>
       <c r="C67" s="2">
-        <v>2723.75</v>
+        <v>1035</v>
       </c>
       <c r="D67" t="s">
         <v>23</v>
@@ -4103,39 +4151,39 @@
         <v>22</v>
       </c>
       <c r="G67" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H67">
-        <v>24500</v>
+        <v>25400</v>
       </c>
       <c r="I67" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="J67" t="s">
         <v>141</v>
       </c>
       <c r="K67" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="L67" t="s">
         <v>34</v>
       </c>
       <c r="M67">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N67" s="2">
-        <v>108.95</v>
+        <v>10.35</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>45496</v>
+        <v>45499</v>
       </c>
       <c r="B68" t="s">
         <v>22</v>
       </c>
       <c r="C68" s="2">
-        <v>10267.5</v>
+        <v>7125</v>
       </c>
       <c r="D68" t="s">
         <v>23</v>
@@ -4147,39 +4195,39 @@
         <v>22</v>
       </c>
       <c r="G68" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H68">
-        <v>24500</v>
+        <v>24600</v>
       </c>
       <c r="I68" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="J68" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K68" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L68" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M68">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N68" s="2">
-        <v>205.35</v>
+        <v>285</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>45495</v>
+        <v>45499</v>
       </c>
       <c r="B69" t="s">
         <v>22</v>
       </c>
       <c r="C69" s="2">
-        <v>19020</v>
+        <v>2653.75</v>
       </c>
       <c r="D69" t="s">
         <v>23</v>
@@ -4191,39 +4239,39 @@
         <v>22</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H69">
-        <v>24600</v>
+        <v>24650</v>
       </c>
       <c r="I69" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="J69" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K69" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L69" t="s">
         <v>34</v>
       </c>
       <c r="M69">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N69" s="2">
-        <v>253.6</v>
+        <v>106.15</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>45495</v>
+        <v>45499</v>
       </c>
       <c r="B70" t="s">
         <v>22</v>
       </c>
       <c r="C70" s="2">
-        <v>18911.25</v>
+        <v>4767.5</v>
       </c>
       <c r="D70" t="s">
         <v>23</v>
@@ -4235,39 +4283,39 @@
         <v>22</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H70">
         <v>24600</v>
       </c>
       <c r="I70" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="J70" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K70" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L70" t="s">
         <v>29</v>
       </c>
       <c r="M70">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N70" s="2">
-        <v>252.15</v>
+        <v>190.7</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>45491</v>
+        <v>45499</v>
       </c>
       <c r="B71" t="s">
         <v>22</v>
       </c>
       <c r="C71" s="2">
-        <v>4000</v>
+        <v>3450</v>
       </c>
       <c r="D71" t="s">
         <v>23</v>
@@ -4285,33 +4333,33 @@
         <v>24650</v>
       </c>
       <c r="I71" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="J71" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K71" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L71" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M71">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N71" s="2">
-        <v>40</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>45491</v>
+        <v>45496</v>
       </c>
       <c r="B72" t="s">
         <v>22</v>
       </c>
       <c r="C72" s="2">
-        <v>8710</v>
+        <v>5445</v>
       </c>
       <c r="D72" t="s">
         <v>23</v>
@@ -4323,39 +4371,39 @@
         <v>22</v>
       </c>
       <c r="G72" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H72">
-        <v>24600</v>
+        <v>24500</v>
       </c>
       <c r="I72" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="J72" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K72" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L72" t="s">
         <v>34</v>
       </c>
       <c r="M72">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N72" s="2">
-        <v>87.1</v>
+        <v>108.9</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>45491</v>
+        <v>45496</v>
       </c>
       <c r="B73" t="s">
         <v>22</v>
       </c>
       <c r="C73" s="2">
-        <v>5000</v>
+        <v>2722.5</v>
       </c>
       <c r="D73" t="s">
         <v>23</v>
@@ -4367,39 +4415,39 @@
         <v>22</v>
       </c>
       <c r="G73" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H73">
-        <v>24650</v>
+        <v>24500</v>
       </c>
       <c r="I73" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="J73" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K73" t="s">
         <v>153</v>
       </c>
       <c r="L73" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M73">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N73" s="2">
-        <v>50</v>
+        <v>108.9</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>45491</v>
+        <v>45496</v>
       </c>
       <c r="B74" t="s">
         <v>22</v>
       </c>
       <c r="C74" s="2">
-        <v>300</v>
+        <v>10265</v>
       </c>
       <c r="D74" t="s">
         <v>23</v>
@@ -4411,39 +4459,39 @@
         <v>22</v>
       </c>
       <c r="G74" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H74">
-        <v>24650</v>
+        <v>24500</v>
       </c>
       <c r="I74" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="J74" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K74" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L74" t="s">
         <v>29</v>
       </c>
       <c r="M74">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N74" s="2">
-        <v>3</v>
+        <v>205.3</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>45491</v>
+        <v>45496</v>
       </c>
       <c r="B75" t="s">
         <v>22</v>
       </c>
       <c r="C75" s="2">
-        <v>2822.5</v>
+        <v>2723.75</v>
       </c>
       <c r="D75" t="s">
         <v>23</v>
@@ -4455,39 +4503,39 @@
         <v>22</v>
       </c>
       <c r="G75" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H75">
-        <v>24650</v>
+        <v>24500</v>
       </c>
       <c r="I75" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="J75" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K75" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L75" t="s">
         <v>34</v>
       </c>
       <c r="M75">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N75" s="2">
-        <v>56.45</v>
+        <v>108.95</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>45491</v>
+        <v>45496</v>
       </c>
       <c r="B76" t="s">
         <v>22</v>
       </c>
       <c r="C76" s="2">
-        <v>4965</v>
+        <v>10267.5</v>
       </c>
       <c r="D76" t="s">
         <v>23</v>
@@ -4499,39 +4547,39 @@
         <v>22</v>
       </c>
       <c r="G76" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H76">
-        <v>24600</v>
+        <v>24500</v>
       </c>
       <c r="I76" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="J76" t="s">
         <v>158</v>
       </c>
       <c r="K76" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L76" t="s">
         <v>29</v>
       </c>
       <c r="M76">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N76" s="2">
-        <v>49.65</v>
+        <v>205.35</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>45491</v>
+        <v>45495</v>
       </c>
       <c r="B77" t="s">
         <v>22</v>
       </c>
       <c r="C77" s="2">
-        <v>3512.5</v>
+        <v>19020</v>
       </c>
       <c r="D77" t="s">
         <v>23</v>
@@ -4543,39 +4591,39 @@
         <v>22</v>
       </c>
       <c r="G77" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H77">
-        <v>24650</v>
+        <v>24600</v>
       </c>
       <c r="I77" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="J77" t="s">
+        <v>159</v>
+      </c>
+      <c r="K77" t="s">
         <v>160</v>
-      </c>
-      <c r="K77" t="s">
-        <v>161</v>
       </c>
       <c r="L77" t="s">
         <v>34</v>
       </c>
       <c r="M77">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N77" s="2">
-        <v>70.25</v>
+        <v>253.6</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>45491</v>
+        <v>45495</v>
       </c>
       <c r="B78" t="s">
         <v>22</v>
       </c>
       <c r="C78" s="2">
-        <v>5100</v>
+        <v>18911.25</v>
       </c>
       <c r="D78" t="s">
         <v>23</v>
@@ -4590,25 +4638,25 @@
         <v>25</v>
       </c>
       <c r="H78">
-        <v>24650</v>
+        <v>24600</v>
       </c>
       <c r="I78" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="J78" t="s">
+        <v>161</v>
+      </c>
+      <c r="K78" t="s">
         <v>162</v>
       </c>
-      <c r="K78" t="s">
-        <v>163</v>
-      </c>
       <c r="L78" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M78">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="N78" s="2">
-        <v>51</v>
+        <v>252.15</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.35">
@@ -4619,7 +4667,7 @@
         <v>22</v>
       </c>
       <c r="C79" s="2">
-        <v>1715</v>
+        <v>4000</v>
       </c>
       <c r="D79" t="s">
         <v>23</v>
@@ -4631,13 +4679,13 @@
         <v>22</v>
       </c>
       <c r="G79" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H79">
         <v>24650</v>
       </c>
       <c r="I79" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="J79" t="s">
         <v>164</v>
@@ -4646,24 +4694,24 @@
         <v>165</v>
       </c>
       <c r="L79" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M79">
         <v>100</v>
       </c>
       <c r="N79" s="2">
-        <v>17.149999999999999</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>45489</v>
+        <v>45491</v>
       </c>
       <c r="B80" t="s">
         <v>22</v>
       </c>
       <c r="C80" s="2">
-        <v>1752.5</v>
+        <v>8710</v>
       </c>
       <c r="D80" t="s">
         <v>23</v>
@@ -4675,13 +4723,13 @@
         <v>22</v>
       </c>
       <c r="G80" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H80">
-        <v>24650</v>
+        <v>24600</v>
       </c>
       <c r="I80" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="J80" t="s">
         <v>166</v>
@@ -4690,24 +4738,24 @@
         <v>167</v>
       </c>
       <c r="L80" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M80">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N80" s="2">
-        <v>70.099999999999994</v>
+        <v>87.1</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>45489</v>
+        <v>45491</v>
       </c>
       <c r="B81" t="s">
         <v>22</v>
       </c>
       <c r="C81" s="2">
-        <v>1941.25</v>
+        <v>5000</v>
       </c>
       <c r="D81" t="s">
         <v>23</v>
@@ -4719,39 +4767,39 @@
         <v>22</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H81">
         <v>24650</v>
       </c>
       <c r="I81" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="J81" t="s">
         <v>168</v>
       </c>
       <c r="K81" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L81" t="s">
         <v>29</v>
       </c>
       <c r="M81">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N81" s="2">
-        <v>77.650000000000006</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>45489</v>
+        <v>45491</v>
       </c>
       <c r="B82" t="s">
         <v>22</v>
       </c>
       <c r="C82" s="2">
-        <v>1942.5</v>
+        <v>300</v>
       </c>
       <c r="D82" t="s">
         <v>23</v>
@@ -4763,39 +4811,39 @@
         <v>22</v>
       </c>
       <c r="G82" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H82">
         <v>24650</v>
       </c>
       <c r="I82" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="J82" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K82" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L82" t="s">
         <v>29</v>
       </c>
       <c r="M82">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N82" s="2">
-        <v>77.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>45489</v>
+        <v>45491</v>
       </c>
       <c r="B83" t="s">
         <v>22</v>
       </c>
       <c r="C83" s="2">
-        <v>1751.25</v>
+        <v>2822.5</v>
       </c>
       <c r="D83" t="s">
         <v>23</v>
@@ -4807,39 +4855,39 @@
         <v>22</v>
       </c>
       <c r="G83" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H83">
         <v>24650</v>
       </c>
       <c r="I83" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="J83" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K83" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="L83" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M83">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N83" s="2">
-        <v>70.05</v>
+        <v>56.45</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>45488</v>
+        <v>45491</v>
       </c>
       <c r="B84" t="s">
         <v>22</v>
       </c>
       <c r="C84" s="2">
-        <v>5787.5</v>
+        <v>4965</v>
       </c>
       <c r="D84" t="s">
         <v>23</v>
@@ -4851,39 +4899,39 @@
         <v>22</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H84">
-        <v>24650</v>
+        <v>24600</v>
       </c>
       <c r="I84" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="J84" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K84" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L84" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M84">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N84" s="2">
-        <v>115.75</v>
+        <v>49.65</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>45488</v>
+        <v>45491</v>
       </c>
       <c r="B85" t="s">
         <v>22</v>
       </c>
       <c r="C85" s="2">
-        <v>5762.5</v>
+        <v>3512.5</v>
       </c>
       <c r="D85" t="s">
         <v>23</v>
@@ -4895,39 +4943,39 @@
         <v>22</v>
       </c>
       <c r="G85" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H85">
         <v>24650</v>
       </c>
       <c r="I85" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="J85" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K85" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L85" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M85">
         <v>50</v>
       </c>
       <c r="N85" s="2">
-        <v>115.25</v>
+        <v>70.25</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>45484</v>
+        <v>45491</v>
       </c>
       <c r="B86" t="s">
         <v>22</v>
       </c>
       <c r="C86" s="2">
-        <v>1601.25</v>
+        <v>5100</v>
       </c>
       <c r="D86" t="s">
         <v>23</v>
@@ -4939,39 +4987,39 @@
         <v>22</v>
       </c>
       <c r="G86" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H86">
-        <v>24350</v>
+        <v>24650</v>
       </c>
       <c r="I86" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="J86" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K86" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L86" t="s">
         <v>34</v>
       </c>
       <c r="M86">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="N86" s="2">
-        <v>21.35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>45484</v>
+        <v>45491</v>
       </c>
       <c r="B87" t="s">
         <v>22</v>
       </c>
       <c r="C87" s="2">
-        <v>4000</v>
+        <v>1715</v>
       </c>
       <c r="D87" t="s">
         <v>23</v>
@@ -4983,19 +5031,19 @@
         <v>22</v>
       </c>
       <c r="G87" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H87">
-        <v>24350</v>
+        <v>24650</v>
       </c>
       <c r="I87" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="J87" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K87" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L87" t="s">
         <v>29</v>
@@ -5004,18 +5052,18 @@
         <v>100</v>
       </c>
       <c r="N87" s="2">
-        <v>40</v>
+        <v>17.149999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>45484</v>
+        <v>45489</v>
       </c>
       <c r="B88" t="s">
         <v>22</v>
       </c>
       <c r="C88" s="2">
-        <v>107.5</v>
+        <v>1752.5</v>
       </c>
       <c r="D88" t="s">
         <v>23</v>
@@ -5027,39 +5075,39 @@
         <v>22</v>
       </c>
       <c r="G88" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H88">
-        <v>24400</v>
+        <v>24650</v>
       </c>
       <c r="I88" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="J88" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K88" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L88" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M88">
         <v>25</v>
       </c>
       <c r="N88" s="2">
-        <v>4.3</v>
+        <v>70.099999999999994</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>45484</v>
+        <v>45489</v>
       </c>
       <c r="B89" t="s">
         <v>22</v>
       </c>
       <c r="C89" s="2">
-        <v>351.25</v>
+        <v>1941.25</v>
       </c>
       <c r="D89" t="s">
         <v>23</v>
@@ -5074,16 +5122,16 @@
         <v>25</v>
       </c>
       <c r="H89">
-        <v>24300</v>
+        <v>24650</v>
       </c>
       <c r="I89" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="J89" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K89" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L89" t="s">
         <v>29</v>
@@ -5092,18 +5140,18 @@
         <v>25</v>
       </c>
       <c r="N89" s="2">
-        <v>14.05</v>
+        <v>77.650000000000006</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>45484</v>
+        <v>45489</v>
       </c>
       <c r="B90" t="s">
         <v>22</v>
       </c>
       <c r="C90" s="2">
-        <v>62.5</v>
+        <v>1942.5</v>
       </c>
       <c r="D90" t="s">
         <v>23</v>
@@ -5118,16 +5166,16 @@
         <v>25</v>
       </c>
       <c r="H90">
-        <v>24400</v>
+        <v>24650</v>
       </c>
       <c r="I90" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="J90" t="s">
+        <v>185</v>
+      </c>
+      <c r="K90" t="s">
         <v>183</v>
-      </c>
-      <c r="K90" t="s">
-        <v>184</v>
       </c>
       <c r="L90" t="s">
         <v>29</v>
@@ -5136,18 +5184,18 @@
         <v>25</v>
       </c>
       <c r="N90" s="2">
-        <v>2.5</v>
+        <v>77.7</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>45484</v>
+        <v>45489</v>
       </c>
       <c r="B91" t="s">
         <v>22</v>
       </c>
       <c r="C91" s="2">
-        <v>2668.75</v>
+        <v>1751.25</v>
       </c>
       <c r="D91" t="s">
         <v>23</v>
@@ -5159,39 +5207,39 @@
         <v>22</v>
       </c>
       <c r="G91" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H91">
-        <v>24350</v>
+        <v>24650</v>
       </c>
       <c r="I91" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="J91" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K91" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="L91" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M91">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="N91" s="2">
-        <v>21.35</v>
+        <v>70.05</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>45484</v>
+        <v>45488</v>
       </c>
       <c r="B92" t="s">
         <v>22</v>
       </c>
       <c r="C92" s="2">
-        <v>498.75</v>
+        <v>5787.5</v>
       </c>
       <c r="D92" t="s">
         <v>23</v>
@@ -5206,36 +5254,36 @@
         <v>25</v>
       </c>
       <c r="H92">
-        <v>24300</v>
+        <v>24650</v>
       </c>
       <c r="I92" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="J92" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K92" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L92" t="s">
         <v>34</v>
       </c>
       <c r="M92">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N92" s="2">
-        <v>19.95</v>
+        <v>115.75</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>45484</v>
+        <v>45488</v>
       </c>
       <c r="B93" t="s">
         <v>22</v>
       </c>
       <c r="C93" s="2">
-        <v>1493.75</v>
+        <v>5762.5</v>
       </c>
       <c r="D93" t="s">
         <v>23</v>
@@ -5250,25 +5298,25 @@
         <v>25</v>
       </c>
       <c r="H93">
-        <v>24350</v>
+        <v>24650</v>
       </c>
       <c r="I93" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="J93" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K93" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L93" t="s">
         <v>29</v>
       </c>
       <c r="M93">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N93" s="2">
-        <v>59.75</v>
+        <v>115.25</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.35">
@@ -5279,7 +5327,7 @@
         <v>22</v>
       </c>
       <c r="C94" s="2">
-        <v>2987.5</v>
+        <v>1601.25</v>
       </c>
       <c r="D94" t="s">
         <v>23</v>
@@ -5291,28 +5339,28 @@
         <v>22</v>
       </c>
       <c r="G94" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H94">
         <v>24350</v>
       </c>
       <c r="I94" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J94" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K94" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L94" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M94">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N94" s="2">
-        <v>59.75</v>
+        <v>21.35</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.35">
@@ -5323,7 +5371,7 @@
         <v>22</v>
       </c>
       <c r="C95" s="2">
-        <v>1493.75</v>
+        <v>4000</v>
       </c>
       <c r="D95" t="s">
         <v>23</v>
@@ -5335,39 +5383,39 @@
         <v>22</v>
       </c>
       <c r="G95" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H95">
         <v>24350</v>
       </c>
       <c r="I95" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J95" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K95" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="L95" t="s">
         <v>29</v>
       </c>
       <c r="M95">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N95" s="2">
-        <v>59.75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>45483</v>
+        <v>45484</v>
       </c>
       <c r="B96" t="s">
         <v>22</v>
       </c>
       <c r="C96" s="2">
-        <v>13792.5</v>
+        <v>107.5</v>
       </c>
       <c r="D96" t="s">
         <v>23</v>
@@ -5379,39 +5427,39 @@
         <v>22</v>
       </c>
       <c r="G96" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H96">
-        <v>24100</v>
+        <v>24400</v>
       </c>
       <c r="I96" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J96" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K96" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L96" t="s">
         <v>34</v>
       </c>
       <c r="M96">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N96" s="2">
-        <v>183.9</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>45483</v>
+        <v>45484</v>
       </c>
       <c r="B97" t="s">
         <v>22</v>
       </c>
       <c r="C97" s="2">
-        <v>16700</v>
+        <v>351.25</v>
       </c>
       <c r="D97" t="s">
         <v>23</v>
@@ -5423,39 +5471,39 @@
         <v>22</v>
       </c>
       <c r="G97" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H97">
-        <v>24100</v>
+        <v>24300</v>
       </c>
       <c r="I97" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J97" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K97" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L97" t="s">
         <v>29</v>
       </c>
       <c r="M97">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N97" s="2">
-        <v>167</v>
+        <v>14.05</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>45483</v>
+        <v>45484</v>
       </c>
       <c r="B98" t="s">
         <v>22</v>
       </c>
       <c r="C98" s="2">
-        <v>4596.25</v>
+        <v>62.5</v>
       </c>
       <c r="D98" t="s">
         <v>23</v>
@@ -5467,39 +5515,39 @@
         <v>22</v>
       </c>
       <c r="G98" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H98">
-        <v>24100</v>
+        <v>24400</v>
       </c>
       <c r="I98" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J98" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K98" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="L98" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M98">
         <v>25</v>
       </c>
       <c r="N98" s="2">
-        <v>183.85</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>45482</v>
+        <v>45484</v>
       </c>
       <c r="B99" t="s">
         <v>22</v>
       </c>
       <c r="C99" s="2">
-        <v>6041.25</v>
+        <v>2668.75</v>
       </c>
       <c r="D99" t="s">
         <v>23</v>
@@ -5511,39 +5559,39 @@
         <v>22</v>
       </c>
       <c r="G99" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H99">
         <v>24350</v>
       </c>
       <c r="I99" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J99" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K99" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="L99" t="s">
         <v>34</v>
       </c>
       <c r="M99">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="N99" s="2">
-        <v>80.55</v>
+        <v>21.35</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>45482</v>
+        <v>45484</v>
       </c>
       <c r="B100" t="s">
         <v>22</v>
       </c>
       <c r="C100" s="2">
-        <v>3437.5</v>
+        <v>498.75</v>
       </c>
       <c r="D100" t="s">
         <v>23</v>
@@ -5555,19 +5603,19 @@
         <v>22</v>
       </c>
       <c r="G100" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H100">
         <v>24300</v>
       </c>
       <c r="I100" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J100" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K100" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L100" t="s">
         <v>34</v>
@@ -5576,18 +5624,18 @@
         <v>25</v>
       </c>
       <c r="N100" s="2">
-        <v>137.5</v>
+        <v>19.95</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <v>45482</v>
+        <v>45484</v>
       </c>
       <c r="B101" t="s">
         <v>22</v>
       </c>
       <c r="C101" s="2">
-        <v>5855</v>
+        <v>1493.75</v>
       </c>
       <c r="D101" t="s">
         <v>23</v>
@@ -5599,39 +5647,39 @@
         <v>22</v>
       </c>
       <c r="G101" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H101">
-        <v>24400</v>
+        <v>24350</v>
       </c>
       <c r="I101" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J101" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K101" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L101" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M101">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N101" s="2">
-        <v>117.1</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
-        <v>45482</v>
+        <v>45484</v>
       </c>
       <c r="B102" t="s">
         <v>22</v>
       </c>
       <c r="C102" s="2">
-        <v>2225</v>
+        <v>2987.5</v>
       </c>
       <c r="D102" t="s">
         <v>23</v>
@@ -5643,39 +5691,39 @@
         <v>22</v>
       </c>
       <c r="G102" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H102">
-        <v>24400</v>
+        <v>24350</v>
       </c>
       <c r="I102" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J102" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K102" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L102" t="s">
         <v>29</v>
       </c>
       <c r="M102">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N102" s="2">
-        <v>89</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <v>45482</v>
+        <v>45484</v>
       </c>
       <c r="B103" t="s">
         <v>22</v>
       </c>
       <c r="C103" s="2">
-        <v>8030</v>
+        <v>1493.75</v>
       </c>
       <c r="D103" t="s">
         <v>23</v>
@@ -5687,39 +5735,39 @@
         <v>22</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H103">
         <v>24350</v>
       </c>
       <c r="I103" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J103" t="s">
+        <v>207</v>
+      </c>
+      <c r="K103" t="s">
         <v>205</v>
-      </c>
-      <c r="K103" t="s">
-        <v>206</v>
       </c>
       <c r="L103" t="s">
         <v>29</v>
       </c>
       <c r="M103">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N103" s="2">
-        <v>80.3</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
-        <v>45482</v>
+        <v>45483</v>
       </c>
       <c r="B104" t="s">
         <v>22</v>
       </c>
       <c r="C104" s="2">
-        <v>2013.75</v>
+        <v>13792.5</v>
       </c>
       <c r="D104" t="s">
         <v>23</v>
@@ -5731,39 +5779,39 @@
         <v>22</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H104">
-        <v>24350</v>
+        <v>24100</v>
       </c>
       <c r="I104" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J104" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K104" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="L104" t="s">
         <v>34</v>
       </c>
       <c r="M104">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N104" s="2">
-        <v>80.55</v>
+        <v>183.9</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
-        <v>45482</v>
+        <v>45483</v>
       </c>
       <c r="B105" t="s">
         <v>22</v>
       </c>
       <c r="C105" s="2">
-        <v>14545</v>
+        <v>16700</v>
       </c>
       <c r="D105" t="s">
         <v>23</v>
@@ -5775,39 +5823,39 @@
         <v>22</v>
       </c>
       <c r="G105" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H105">
-        <v>24300</v>
+        <v>24100</v>
       </c>
       <c r="I105" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J105" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K105" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L105" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M105">
         <v>100</v>
       </c>
       <c r="N105" s="2">
-        <v>145.44999999999999</v>
+        <v>167</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
-        <v>45482</v>
+        <v>45483</v>
       </c>
       <c r="B106" t="s">
         <v>22</v>
       </c>
       <c r="C106" s="2">
-        <v>3436.25</v>
+        <v>4596.25</v>
       </c>
       <c r="D106" t="s">
         <v>23</v>
@@ -5819,19 +5867,19 @@
         <v>22</v>
       </c>
       <c r="G106" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H106">
-        <v>24300</v>
+        <v>24100</v>
       </c>
       <c r="I106" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J106" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K106" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="L106" t="s">
         <v>34</v>
@@ -5840,7 +5888,7 @@
         <v>25</v>
       </c>
       <c r="N106" s="2">
-        <v>137.44999999999999</v>
+        <v>183.85</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.35">
@@ -5851,7 +5899,7 @@
         <v>22</v>
       </c>
       <c r="C107" s="2">
-        <v>11710</v>
+        <v>6041.25</v>
       </c>
       <c r="D107" t="s">
         <v>23</v>
@@ -5866,25 +5914,25 @@
         <v>25</v>
       </c>
       <c r="H107">
-        <v>24400</v>
+        <v>24350</v>
       </c>
       <c r="I107" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J107" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K107" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="L107" t="s">
         <v>34</v>
       </c>
       <c r="M107">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="N107" s="2">
-        <v>117.1</v>
+        <v>80.55</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.35">
@@ -5895,7 +5943,7 @@
         <v>22</v>
       </c>
       <c r="C108" s="2">
-        <v>14000</v>
+        <v>3437.5</v>
       </c>
       <c r="D108" t="s">
         <v>23</v>
@@ -5907,28 +5955,28 @@
         <v>22</v>
       </c>
       <c r="G108" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H108">
         <v>24300</v>
       </c>
       <c r="I108" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J108" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K108" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L108" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M108">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N108" s="2">
-        <v>140</v>
+        <v>137.5</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.35">
@@ -5939,7 +5987,7 @@
         <v>22</v>
       </c>
       <c r="C109" s="2">
-        <v>11125</v>
+        <v>5855</v>
       </c>
       <c r="D109" t="s">
         <v>23</v>
@@ -5951,28 +5999,28 @@
         <v>22</v>
       </c>
       <c r="G109" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H109">
         <v>24400</v>
       </c>
       <c r="I109" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J109" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="K109" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="L109" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M109">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="N109" s="2">
-        <v>89</v>
+        <v>117.1</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.35">
@@ -5983,7 +6031,7 @@
         <v>22</v>
       </c>
       <c r="C110" s="2">
-        <v>6877.5</v>
+        <v>2225</v>
       </c>
       <c r="D110" t="s">
         <v>23</v>
@@ -5995,39 +6043,39 @@
         <v>22</v>
       </c>
       <c r="G110" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H110">
-        <v>24300</v>
+        <v>24400</v>
       </c>
       <c r="I110" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J110" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K110" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="L110" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M110">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N110" s="2">
-        <v>137.55000000000001</v>
+        <v>89</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
-        <v>45481</v>
+        <v>45482</v>
       </c>
       <c r="B111" t="s">
         <v>22</v>
       </c>
       <c r="C111" s="2">
-        <v>12000</v>
+        <v>8030</v>
       </c>
       <c r="D111" t="s">
         <v>23</v>
@@ -6042,16 +6090,16 @@
         <v>25</v>
       </c>
       <c r="H111">
-        <v>24300</v>
+        <v>24350</v>
       </c>
       <c r="I111" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J111" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="K111" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="L111" t="s">
         <v>29</v>
@@ -6060,18 +6108,18 @@
         <v>100</v>
       </c>
       <c r="N111" s="2">
-        <v>120</v>
+        <v>80.3</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
-        <v>45478</v>
+        <v>45482</v>
       </c>
       <c r="B112" t="s">
         <v>22</v>
       </c>
       <c r="C112" s="2">
-        <v>6000</v>
+        <v>2013.75</v>
       </c>
       <c r="D112" t="s">
         <v>23</v>
@@ -6083,39 +6131,39 @@
         <v>22</v>
       </c>
       <c r="G112" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H112">
-        <v>24300</v>
+        <v>24350</v>
       </c>
       <c r="I112" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J112" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="K112" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L112" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M112">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N112" s="2">
-        <v>120</v>
+        <v>80.55</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
-        <v>45478</v>
+        <v>45482</v>
       </c>
       <c r="B113" t="s">
         <v>22</v>
       </c>
       <c r="C113" s="2">
-        <v>3028.75</v>
+        <v>14545</v>
       </c>
       <c r="D113" t="s">
         <v>23</v>
@@ -6127,39 +6175,39 @@
         <v>22</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H113">
         <v>24300</v>
       </c>
       <c r="I113" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J113" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K113" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L113" t="s">
         <v>34</v>
       </c>
       <c r="M113">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N113" s="2">
-        <v>121.15</v>
+        <v>145.44999999999999</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
-        <v>45478</v>
+        <v>45482</v>
       </c>
       <c r="B114" t="s">
         <v>22</v>
       </c>
       <c r="C114" s="2">
-        <v>9250</v>
+        <v>3436.25</v>
       </c>
       <c r="D114" t="s">
         <v>23</v>
@@ -6171,39 +6219,39 @@
         <v>22</v>
       </c>
       <c r="G114" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H114">
-        <v>24250</v>
+        <v>24300</v>
       </c>
       <c r="I114" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J114" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K114" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="L114" t="s">
         <v>34</v>
       </c>
       <c r="M114">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N114" s="2">
-        <v>185</v>
+        <v>137.44999999999999</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
-        <v>45478</v>
+        <v>45482</v>
       </c>
       <c r="B115" t="s">
         <v>22</v>
       </c>
       <c r="C115" s="2">
-        <v>3028.75</v>
+        <v>11710</v>
       </c>
       <c r="D115" t="s">
         <v>23</v>
@@ -6215,39 +6263,39 @@
         <v>22</v>
       </c>
       <c r="G115" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H115">
-        <v>24300</v>
+        <v>24400</v>
       </c>
       <c r="I115" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J115" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K115" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L115" t="s">
         <v>34</v>
       </c>
       <c r="M115">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N115" s="2">
-        <v>121.15</v>
+        <v>117.1</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
-        <v>45478</v>
+        <v>45482</v>
       </c>
       <c r="B116" t="s">
         <v>22</v>
       </c>
       <c r="C116" s="2">
-        <v>8812.5</v>
+        <v>14000</v>
       </c>
       <c r="D116" t="s">
         <v>23</v>
@@ -6259,39 +6307,39 @@
         <v>22</v>
       </c>
       <c r="G116" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H116">
-        <v>24200</v>
+        <v>24300</v>
       </c>
       <c r="I116" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J116" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K116" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L116" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M116">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N116" s="2">
-        <v>176.25</v>
+        <v>140</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
-        <v>45478</v>
+        <v>45482</v>
       </c>
       <c r="B117" t="s">
         <v>22</v>
       </c>
       <c r="C117" s="2">
-        <v>2978.75</v>
+        <v>11125</v>
       </c>
       <c r="D117" t="s">
         <v>23</v>
@@ -6303,39 +6351,39 @@
         <v>22</v>
       </c>
       <c r="G117" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H117">
-        <v>24300</v>
+        <v>24400</v>
       </c>
       <c r="I117" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J117" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K117" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="L117" t="s">
         <v>29</v>
       </c>
       <c r="M117">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="N117" s="2">
-        <v>119.15</v>
+        <v>89</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
-        <v>45478</v>
+        <v>45482</v>
       </c>
       <c r="B118" t="s">
         <v>22</v>
       </c>
       <c r="C118" s="2">
-        <v>6057.5</v>
+        <v>6877.5</v>
       </c>
       <c r="D118" t="s">
         <v>23</v>
@@ -6347,19 +6395,19 @@
         <v>22</v>
       </c>
       <c r="G118" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H118">
         <v>24300</v>
       </c>
       <c r="I118" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J118" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K118" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="L118" t="s">
         <v>34</v>
@@ -6368,18 +6416,18 @@
         <v>50</v>
       </c>
       <c r="N118" s="2">
-        <v>121.15</v>
+        <v>137.55000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
-        <v>45478</v>
+        <v>45481</v>
       </c>
       <c r="B119" t="s">
         <v>22</v>
       </c>
       <c r="C119" s="2">
-        <v>8415</v>
+        <v>12000</v>
       </c>
       <c r="D119" t="s">
         <v>23</v>
@@ -6391,28 +6439,28 @@
         <v>22</v>
       </c>
       <c r="G119" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H119">
-        <v>24200</v>
+        <v>24300</v>
       </c>
       <c r="I119" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J119" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K119" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L119" t="s">
         <v>29</v>
       </c>
       <c r="M119">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N119" s="2">
-        <v>168.3</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.35">
@@ -6423,7 +6471,7 @@
         <v>22</v>
       </c>
       <c r="C120" s="2">
-        <v>1258.75</v>
+        <v>6000</v>
       </c>
       <c r="D120" t="s">
         <v>23</v>
@@ -6435,28 +6483,28 @@
         <v>22</v>
       </c>
       <c r="G120" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H120">
-        <v>24000</v>
+        <v>24300</v>
       </c>
       <c r="I120" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J120" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K120" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L120" t="s">
         <v>29</v>
       </c>
       <c r="M120">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N120" s="2">
-        <v>50.35</v>
+        <v>120</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.35">
@@ -6467,7 +6515,7 @@
         <v>22</v>
       </c>
       <c r="C121" s="2">
-        <v>4625</v>
+        <v>3028.75</v>
       </c>
       <c r="D121" t="s">
         <v>23</v>
@@ -6482,16 +6530,16 @@
         <v>25</v>
       </c>
       <c r="H121">
-        <v>24250</v>
+        <v>24300</v>
       </c>
       <c r="I121" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J121" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K121" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="L121" t="s">
         <v>34</v>
@@ -6500,7 +6548,7 @@
         <v>25</v>
       </c>
       <c r="N121" s="2">
-        <v>185</v>
+        <v>121.15</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.35">
@@ -6511,7 +6559,7 @@
         <v>22</v>
       </c>
       <c r="C122" s="2">
-        <v>2978.75</v>
+        <v>9250</v>
       </c>
       <c r="D122" t="s">
         <v>23</v>
@@ -6523,28 +6571,28 @@
         <v>22</v>
       </c>
       <c r="G122" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H122">
-        <v>24300</v>
+        <v>24250</v>
       </c>
       <c r="I122" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J122" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K122" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="L122" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M122">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N122" s="2">
-        <v>119.15</v>
+        <v>185</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.35">
@@ -6555,7 +6603,7 @@
         <v>22</v>
       </c>
       <c r="C123" s="2">
-        <v>12195</v>
+        <v>3028.75</v>
       </c>
       <c r="D123" t="s">
         <v>23</v>
@@ -6570,25 +6618,25 @@
         <v>25</v>
       </c>
       <c r="H123">
-        <v>24250</v>
+        <v>24300</v>
       </c>
       <c r="I123" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J123" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K123" t="s">
         <v>237</v>
       </c>
       <c r="L123" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M123">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N123" s="2">
-        <v>162.6</v>
+        <v>121.15</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.35">
@@ -6599,7 +6647,7 @@
         <v>22</v>
       </c>
       <c r="C124" s="2">
-        <v>1437.5</v>
+        <v>8812.5</v>
       </c>
       <c r="D124" t="s">
         <v>23</v>
@@ -6611,39 +6659,39 @@
         <v>22</v>
       </c>
       <c r="G124" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H124">
-        <v>24000</v>
+        <v>24200</v>
       </c>
       <c r="I124" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J124" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="K124" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L124" t="s">
         <v>34</v>
       </c>
       <c r="M124">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N124" s="2">
-        <v>57.5</v>
+        <v>176.25</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
-        <v>45477</v>
+        <v>45478</v>
       </c>
       <c r="B125" t="s">
         <v>22</v>
       </c>
       <c r="C125" s="2">
-        <v>1317.5</v>
+        <v>2978.75</v>
       </c>
       <c r="D125" t="s">
         <v>23</v>
@@ -6661,33 +6709,33 @@
         <v>24300</v>
       </c>
       <c r="I125" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="J125" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K125" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L125" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M125">
         <v>25</v>
       </c>
       <c r="N125" s="2">
-        <v>52.7</v>
+        <v>119.15</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
-        <v>45477</v>
+        <v>45478</v>
       </c>
       <c r="B126" t="s">
         <v>22</v>
       </c>
       <c r="C126" s="2">
-        <v>1250</v>
+        <v>6057.5</v>
       </c>
       <c r="D126" t="s">
         <v>23</v>
@@ -6705,33 +6753,33 @@
         <v>24300</v>
       </c>
       <c r="I126" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="J126" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K126" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="L126" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M126">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N126" s="2">
-        <v>50</v>
+        <v>121.15</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
-        <v>45476</v>
+        <v>45478</v>
       </c>
       <c r="B127" t="s">
         <v>22</v>
       </c>
       <c r="C127" s="2">
-        <v>10455</v>
+        <v>8415</v>
       </c>
       <c r="D127" t="s">
         <v>23</v>
@@ -6743,39 +6791,39 @@
         <v>22</v>
       </c>
       <c r="G127" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H127">
-        <v>24250</v>
+        <v>24200</v>
       </c>
       <c r="I127" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="J127" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K127" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L127" t="s">
         <v>29</v>
       </c>
       <c r="M127">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N127" s="2">
-        <v>104.55</v>
+        <v>168.3</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
-        <v>45476</v>
+        <v>45478</v>
       </c>
       <c r="B128" t="s">
         <v>22</v>
       </c>
       <c r="C128" s="2">
-        <v>1412.5</v>
+        <v>1258.75</v>
       </c>
       <c r="D128" t="s">
         <v>23</v>
@@ -6787,39 +6835,39 @@
         <v>22</v>
       </c>
       <c r="G128" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H128">
-        <v>24250</v>
+        <v>24000</v>
       </c>
       <c r="I128" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="J128" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K128" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L128" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M128">
         <v>25</v>
       </c>
       <c r="N128" s="2">
-        <v>56.5</v>
+        <v>50.35</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
-        <v>45476</v>
+        <v>45478</v>
       </c>
       <c r="B129" t="s">
         <v>22</v>
       </c>
       <c r="C129" s="2">
-        <v>3150</v>
+        <v>4625</v>
       </c>
       <c r="D129" t="s">
         <v>23</v>
@@ -6831,39 +6879,39 @@
         <v>22</v>
       </c>
       <c r="G129" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H129">
         <v>24250</v>
       </c>
       <c r="I129" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="J129" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K129" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="L129" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M129">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N129" s="2">
-        <v>63</v>
+        <v>185</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
-        <v>45476</v>
+        <v>45478</v>
       </c>
       <c r="B130" t="s">
         <v>22</v>
       </c>
       <c r="C130" s="2">
-        <v>1412.5</v>
+        <v>2978.75</v>
       </c>
       <c r="D130" t="s">
         <v>23</v>
@@ -6875,39 +6923,39 @@
         <v>22</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H130">
-        <v>24250</v>
+        <v>24300</v>
       </c>
       <c r="I130" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="J130" t="s">
         <v>251</v>
       </c>
       <c r="K130" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L130" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M130">
         <v>25</v>
       </c>
       <c r="N130" s="2">
-        <v>56.5</v>
+        <v>119.15</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
-        <v>45476</v>
+        <v>45478</v>
       </c>
       <c r="B131" t="s">
         <v>22</v>
       </c>
       <c r="C131" s="2">
-        <v>1412.5</v>
+        <v>12195</v>
       </c>
       <c r="D131" t="s">
         <v>23</v>
@@ -6919,39 +6967,39 @@
         <v>22</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H131">
         <v>24250</v>
       </c>
       <c r="I131" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="J131" t="s">
         <v>252</v>
       </c>
       <c r="K131" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="L131" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M131">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N131" s="2">
-        <v>56.5</v>
+        <v>162.6</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
-        <v>45476</v>
+        <v>45478</v>
       </c>
       <c r="B132" t="s">
         <v>22</v>
       </c>
       <c r="C132" s="2">
-        <v>1412.5</v>
+        <v>1437.5</v>
       </c>
       <c r="D132" t="s">
         <v>23</v>
@@ -6963,19 +7011,19 @@
         <v>22</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H132">
-        <v>24250</v>
+        <v>24000</v>
       </c>
       <c r="I132" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="J132" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K132" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="L132" t="s">
         <v>34</v>
@@ -6984,18 +7032,18 @@
         <v>25</v>
       </c>
       <c r="N132" s="2">
-        <v>56.5</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
-        <v>45476</v>
+        <v>45477</v>
       </c>
       <c r="B133" t="s">
         <v>22</v>
       </c>
       <c r="C133" s="2">
-        <v>1412.5</v>
+        <v>1317.5</v>
       </c>
       <c r="D133" t="s">
         <v>23</v>
@@ -7007,19 +7055,19 @@
         <v>22</v>
       </c>
       <c r="G133" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H133">
-        <v>24250</v>
+        <v>24300</v>
       </c>
       <c r="I133" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="J133" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="K133" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="L133" t="s">
         <v>34</v>
@@ -7028,18 +7076,18 @@
         <v>25</v>
       </c>
       <c r="N133" s="2">
-        <v>56.5</v>
+        <v>52.7</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
-        <v>45476</v>
+        <v>45477</v>
       </c>
       <c r="B134" t="s">
         <v>22</v>
       </c>
       <c r="C134" s="2">
-        <v>1412.5</v>
+        <v>1250</v>
       </c>
       <c r="D134" t="s">
         <v>23</v>
@@ -7051,39 +7099,39 @@
         <v>22</v>
       </c>
       <c r="G134" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H134">
-        <v>24250</v>
+        <v>24300</v>
       </c>
       <c r="I134" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="J134" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="K134" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="L134" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M134">
         <v>25</v>
       </c>
       <c r="N134" s="2">
-        <v>56.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
-        <v>45475</v>
+        <v>45476</v>
       </c>
       <c r="B135" t="s">
         <v>22</v>
       </c>
       <c r="C135" s="2">
-        <v>5027.5</v>
+        <v>10455</v>
       </c>
       <c r="D135" t="s">
         <v>23</v>
@@ -7098,36 +7146,36 @@
         <v>25</v>
       </c>
       <c r="H135">
-        <v>24000</v>
+        <v>24250</v>
       </c>
       <c r="I135" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="J135" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="K135" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="L135" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M135">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N135" s="2">
-        <v>201.1</v>
+        <v>104.55</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
-        <v>45475</v>
+        <v>45476</v>
       </c>
       <c r="B136" t="s">
         <v>22</v>
       </c>
       <c r="C136" s="2">
-        <v>3508.75</v>
+        <v>1412.5</v>
       </c>
       <c r="D136" t="s">
         <v>23</v>
@@ -7139,19 +7187,19 @@
         <v>22</v>
       </c>
       <c r="G136" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H136">
-        <v>24150</v>
+        <v>24250</v>
       </c>
       <c r="I136" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="J136" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K136" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="L136" t="s">
         <v>34</v>
@@ -7160,18 +7208,18 @@
         <v>25</v>
       </c>
       <c r="N136" s="2">
-        <v>140.35</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
-        <v>45475</v>
+        <v>45476</v>
       </c>
       <c r="B137" t="s">
         <v>22</v>
       </c>
       <c r="C137" s="2">
-        <v>3125</v>
+        <v>3150</v>
       </c>
       <c r="D137" t="s">
         <v>23</v>
@@ -7183,39 +7231,39 @@
         <v>22</v>
       </c>
       <c r="G137" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H137">
-        <v>24150</v>
+        <v>24250</v>
       </c>
       <c r="I137" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="J137" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="K137" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="L137" t="s">
         <v>29</v>
       </c>
       <c r="M137">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N137" s="2">
-        <v>125</v>
+        <v>63</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
-        <v>45475</v>
+        <v>45476</v>
       </c>
       <c r="B138" t="s">
         <v>22</v>
       </c>
       <c r="C138" s="2">
-        <v>18155</v>
+        <v>1412.5</v>
       </c>
       <c r="D138" t="s">
         <v>23</v>
@@ -7230,36 +7278,36 @@
         <v>25</v>
       </c>
       <c r="H138">
-        <v>24000</v>
+        <v>24250</v>
       </c>
       <c r="I138" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="J138" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="K138" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L138" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M138">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N138" s="2">
-        <v>181.55</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
-        <v>45475</v>
+        <v>45476</v>
       </c>
       <c r="B139" t="s">
         <v>22</v>
       </c>
       <c r="C139" s="2">
-        <v>5027.5</v>
+        <v>1412.5</v>
       </c>
       <c r="D139" t="s">
         <v>23</v>
@@ -7274,16 +7322,16 @@
         <v>25</v>
       </c>
       <c r="H139">
-        <v>24000</v>
+        <v>24250</v>
       </c>
       <c r="I139" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="J139" t="s">
+        <v>268</v>
+      </c>
+      <c r="K139" t="s">
         <v>264</v>
-      </c>
-      <c r="K139" t="s">
-        <v>257</v>
       </c>
       <c r="L139" t="s">
         <v>34</v>
@@ -7292,18 +7340,18 @@
         <v>25</v>
       </c>
       <c r="N139" s="2">
-        <v>201.1</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
-        <v>45475</v>
+        <v>45476</v>
       </c>
       <c r="B140" t="s">
         <v>22</v>
       </c>
       <c r="C140" s="2">
-        <v>10052.5</v>
+        <v>1412.5</v>
       </c>
       <c r="D140" t="s">
         <v>23</v>
@@ -7318,106 +7366,124 @@
         <v>25</v>
       </c>
       <c r="H140">
-        <v>24000</v>
+        <v>24250</v>
       </c>
       <c r="I140" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="J140" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K140" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="L140" t="s">
         <v>34</v>
       </c>
       <c r="M140">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N140" s="2">
-        <v>201.05</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
-        <v>45475</v>
+        <v>45476</v>
       </c>
       <c r="B141" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="C141" s="2">
-        <v>999.89</v>
+        <v>1412.5</v>
       </c>
       <c r="D141" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="E141" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="F141" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="G141" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>24250</v>
+      </c>
+      <c r="I141" t="s">
+        <v>256</v>
+      </c>
+      <c r="J141" t="s">
+        <v>270</v>
+      </c>
+      <c r="K141" t="s">
+        <v>264</v>
       </c>
       <c r="L141" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M141">
-        <v>2.2000000000000002</v>
+        <v>25</v>
       </c>
       <c r="N141" s="2">
-        <v>455.11</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
-        <v>45475</v>
+        <v>45476</v>
       </c>
       <c r="B142" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="C142" s="2">
-        <v>999.95</v>
+        <v>1412.5</v>
       </c>
       <c r="D142" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="E142" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="F142" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="G142" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>24250</v>
+      </c>
+      <c r="I142" t="s">
+        <v>256</v>
+      </c>
+      <c r="J142" t="s">
+        <v>271</v>
+      </c>
+      <c r="K142" t="s">
+        <v>264</v>
       </c>
       <c r="L142" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M142">
-        <v>19.29</v>
+        <v>25</v>
       </c>
       <c r="N142" s="2">
-        <v>51.84</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
-        <v>45474</v>
+        <v>45475</v>
       </c>
       <c r="B143" t="s">
         <v>22</v>
       </c>
       <c r="C143" s="2">
-        <v>14373.75</v>
+        <v>5027.5</v>
       </c>
       <c r="D143" t="s">
         <v>23</v>
@@ -7429,39 +7495,39 @@
         <v>22</v>
       </c>
       <c r="G143" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H143">
-        <v>24050</v>
+        <v>24000</v>
       </c>
       <c r="I143" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="J143" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="K143" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="L143" t="s">
         <v>34</v>
       </c>
       <c r="M143">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N143" s="2">
-        <v>191.65</v>
+        <v>201.1</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
-        <v>45474</v>
+        <v>45475</v>
       </c>
       <c r="B144" t="s">
         <v>22</v>
       </c>
       <c r="C144" s="2">
-        <v>4792.5</v>
+        <v>3508.75</v>
       </c>
       <c r="D144" t="s">
         <v>23</v>
@@ -7476,16 +7542,16 @@
         <v>25</v>
       </c>
       <c r="H144">
-        <v>24050</v>
+        <v>24150</v>
       </c>
       <c r="I144" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="J144" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="K144" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="L144" t="s">
         <v>34</v>
@@ -7494,18 +7560,18 @@
         <v>25</v>
       </c>
       <c r="N144" s="2">
-        <v>191.7</v>
+        <v>140.35</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
-        <v>45474</v>
+        <v>45475</v>
       </c>
       <c r="B145" t="s">
         <v>22</v>
       </c>
       <c r="C145" s="2">
-        <v>18285</v>
+        <v>3125</v>
       </c>
       <c r="D145" t="s">
         <v>23</v>
@@ -7520,36 +7586,36 @@
         <v>25</v>
       </c>
       <c r="H145">
-        <v>24050</v>
+        <v>24150</v>
       </c>
       <c r="I145" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="J145" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="K145" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="L145" t="s">
         <v>29</v>
       </c>
       <c r="M145">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N145" s="2">
-        <v>182.85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
-        <v>45471</v>
+        <v>45475</v>
       </c>
       <c r="B146" t="s">
         <v>22</v>
       </c>
       <c r="C146" s="2">
-        <v>8500</v>
+        <v>18155</v>
       </c>
       <c r="D146" t="s">
         <v>23</v>
@@ -7561,39 +7627,39 @@
         <v>22</v>
       </c>
       <c r="G146" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H146">
-        <v>24100</v>
+        <v>24000</v>
       </c>
       <c r="I146" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="J146" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="K146" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="L146" t="s">
         <v>29</v>
       </c>
       <c r="M146">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N146" s="2">
-        <v>170</v>
+        <v>181.55</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
-        <v>45471</v>
+        <v>45475</v>
       </c>
       <c r="B147" t="s">
         <v>22</v>
       </c>
       <c r="C147" s="2">
-        <v>8500</v>
+        <v>5027.5</v>
       </c>
       <c r="D147" t="s">
         <v>23</v>
@@ -7605,39 +7671,39 @@
         <v>22</v>
       </c>
       <c r="G147" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H147">
-        <v>24100</v>
+        <v>24000</v>
       </c>
       <c r="I147" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="J147" t="s">
+        <v>280</v>
+      </c>
+      <c r="K147" t="s">
         <v>273</v>
-      </c>
-      <c r="K147" t="s">
-        <v>274</v>
       </c>
       <c r="L147" t="s">
         <v>34</v>
       </c>
       <c r="M147">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N147" s="2">
-        <v>170</v>
+        <v>201.1</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
-        <v>45471</v>
+        <v>45475</v>
       </c>
       <c r="B148" t="s">
         <v>22</v>
       </c>
       <c r="C148" s="2">
-        <v>7250</v>
+        <v>10052.5</v>
       </c>
       <c r="D148" t="s">
         <v>23</v>
@@ -7649,127 +7715,109 @@
         <v>22</v>
       </c>
       <c r="G148" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H148">
-        <v>24100</v>
+        <v>24000</v>
       </c>
       <c r="I148" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="J148" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="K148" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L148" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M148">
         <v>50</v>
       </c>
       <c r="N148" s="2">
-        <v>145</v>
+        <v>201.05</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
-        <v>45471</v>
+        <v>45475</v>
       </c>
       <c r="B149" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="C149" s="2">
-        <v>8500</v>
+        <v>999.89</v>
       </c>
       <c r="D149" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="E149" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="F149" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="G149" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="H149">
-        <v>24100</v>
-      </c>
-      <c r="I149" t="s">
-        <v>240</v>
-      </c>
-      <c r="J149" t="s">
-        <v>277</v>
-      </c>
-      <c r="K149" t="s">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="L149" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M149">
-        <v>50</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N149" s="2">
-        <v>170</v>
+        <v>455.11</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
-        <v>45470</v>
+        <v>45475</v>
       </c>
       <c r="B150" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="C150" s="2">
-        <v>8842.5</v>
+        <v>999.95</v>
       </c>
       <c r="D150" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="E150" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="F150" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="G150" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="H150">
-        <v>23800</v>
-      </c>
-      <c r="I150" t="s">
-        <v>278</v>
-      </c>
-      <c r="J150" t="s">
-        <v>279</v>
-      </c>
-      <c r="K150" t="s">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="L150" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M150">
-        <v>50</v>
+        <v>19.29</v>
       </c>
       <c r="N150" s="2">
-        <v>176.85</v>
+        <v>51.84</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
-        <v>45470</v>
+        <v>45474</v>
       </c>
       <c r="B151" t="s">
         <v>22</v>
       </c>
       <c r="C151" s="2">
-        <v>8750</v>
+        <v>14373.75</v>
       </c>
       <c r="D151" t="s">
         <v>23</v>
@@ -7781,39 +7829,39 @@
         <v>22</v>
       </c>
       <c r="G151" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H151">
-        <v>23800</v>
+        <v>24050</v>
       </c>
       <c r="I151" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="J151" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K151" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L151" t="s">
         <v>34</v>
       </c>
       <c r="M151">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N151" s="2">
-        <v>175</v>
+        <v>191.65</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
-        <v>45469</v>
+        <v>45474</v>
       </c>
       <c r="B152" t="s">
         <v>22</v>
       </c>
       <c r="C152" s="2">
-        <v>6050</v>
+        <v>4792.5</v>
       </c>
       <c r="D152" t="s">
         <v>23</v>
@@ -7825,39 +7873,39 @@
         <v>22</v>
       </c>
       <c r="G152" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H152">
-        <v>23800</v>
+        <v>24050</v>
       </c>
       <c r="I152" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="J152" t="s">
+        <v>284</v>
+      </c>
+      <c r="K152" t="s">
         <v>283</v>
-      </c>
-      <c r="K152" t="s">
-        <v>284</v>
       </c>
       <c r="L152" t="s">
         <v>34</v>
       </c>
       <c r="M152">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N152" s="2">
-        <v>121</v>
+        <v>191.7</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
-        <v>45469</v>
+        <v>45474</v>
       </c>
       <c r="B153" t="s">
         <v>22</v>
       </c>
       <c r="C153" s="2">
-        <v>10910</v>
+        <v>18285</v>
       </c>
       <c r="D153" t="s">
         <v>23</v>
@@ -7869,13 +7917,13 @@
         <v>22</v>
       </c>
       <c r="G153" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H153">
-        <v>23800</v>
+        <v>24050</v>
       </c>
       <c r="I153" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="J153" t="s">
         <v>285</v>
@@ -7890,18 +7938,18 @@
         <v>100</v>
       </c>
       <c r="N153" s="2">
-        <v>109.1</v>
+        <v>182.85</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
-        <v>45469</v>
+        <v>45471</v>
       </c>
       <c r="B154" t="s">
         <v>22</v>
       </c>
       <c r="C154" s="2">
-        <v>3025</v>
+        <v>8500</v>
       </c>
       <c r="D154" t="s">
         <v>23</v>
@@ -7913,39 +7961,39 @@
         <v>22</v>
       </c>
       <c r="G154" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H154">
-        <v>23800</v>
+        <v>24100</v>
       </c>
       <c r="I154" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="J154" t="s">
         <v>287</v>
       </c>
       <c r="K154" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L154" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M154">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N154" s="2">
-        <v>121</v>
+        <v>170</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
-        <v>45469</v>
+        <v>45471</v>
       </c>
       <c r="B155" t="s">
         <v>22</v>
       </c>
       <c r="C155" s="2">
-        <v>12100</v>
+        <v>8500</v>
       </c>
       <c r="D155" t="s">
         <v>23</v>
@@ -7957,39 +8005,39 @@
         <v>22</v>
       </c>
       <c r="G155" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H155">
-        <v>23800</v>
+        <v>24100</v>
       </c>
       <c r="I155" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="J155" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K155" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L155" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M155">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N155" s="2">
-        <v>121</v>
+        <v>170</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
-        <v>45469</v>
+        <v>45471</v>
       </c>
       <c r="B156" t="s">
         <v>22</v>
       </c>
       <c r="C156" s="2">
-        <v>3025</v>
+        <v>7250</v>
       </c>
       <c r="D156" t="s">
         <v>23</v>
@@ -8001,39 +8049,39 @@
         <v>22</v>
       </c>
       <c r="G156" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H156">
-        <v>23800</v>
+        <v>24100</v>
       </c>
       <c r="I156" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="J156" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K156" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="L156" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M156">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N156" s="2">
-        <v>121</v>
+        <v>145</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
-        <v>45468</v>
+        <v>45471</v>
       </c>
       <c r="B157" t="s">
         <v>22</v>
       </c>
       <c r="C157" s="2">
-        <v>12620</v>
+        <v>8500</v>
       </c>
       <c r="D157" t="s">
         <v>23</v>
@@ -8045,39 +8093,39 @@
         <v>22</v>
       </c>
       <c r="G157" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H157">
-        <v>23550</v>
+        <v>24100</v>
       </c>
       <c r="I157" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="J157" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K157" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="L157" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M157">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N157" s="2">
-        <v>126.2</v>
+        <v>170</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
-        <v>45468</v>
+        <v>45470</v>
       </c>
       <c r="B158" t="s">
         <v>22</v>
       </c>
       <c r="C158" s="2">
-        <v>12830</v>
+        <v>8842.5</v>
       </c>
       <c r="D158" t="s">
         <v>23</v>
@@ -8089,39 +8137,39 @@
         <v>22</v>
       </c>
       <c r="G158" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H158">
-        <v>23550</v>
+        <v>23800</v>
       </c>
       <c r="I158" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="J158" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K158" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L158" t="s">
         <v>34</v>
       </c>
       <c r="M158">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N158" s="2">
-        <v>128.30000000000001</v>
+        <v>176.85</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
-        <v>45467</v>
+        <v>45470</v>
       </c>
       <c r="B159" t="s">
         <v>22</v>
       </c>
       <c r="C159" s="2">
-        <v>3440</v>
+        <v>8750</v>
       </c>
       <c r="D159" t="s">
         <v>23</v>
@@ -8133,39 +8181,39 @@
         <v>22</v>
       </c>
       <c r="G159" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H159">
-        <v>23550</v>
+        <v>23800</v>
       </c>
       <c r="I159" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="J159" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K159" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L159" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M159">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N159" s="2">
-        <v>137.6</v>
+        <v>175</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
-        <v>45467</v>
+        <v>45469</v>
       </c>
       <c r="B160" t="s">
         <v>22</v>
       </c>
       <c r="C160" s="2">
-        <v>3442.5</v>
+        <v>6050</v>
       </c>
       <c r="D160" t="s">
         <v>23</v>
@@ -8177,39 +8225,39 @@
         <v>22</v>
       </c>
       <c r="G160" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H160">
-        <v>23550</v>
+        <v>23800</v>
       </c>
       <c r="I160" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="J160" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K160" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="L160" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M160">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N160" s="2">
-        <v>137.69999999999999</v>
+        <v>121</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
-        <v>45467</v>
+        <v>45469</v>
       </c>
       <c r="B161" t="s">
         <v>22</v>
       </c>
       <c r="C161" s="2">
-        <v>3440</v>
+        <v>10910</v>
       </c>
       <c r="D161" t="s">
         <v>23</v>
@@ -8221,39 +8269,39 @@
         <v>22</v>
       </c>
       <c r="G161" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H161">
-        <v>23550</v>
+        <v>23800</v>
       </c>
       <c r="I161" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="J161" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="K161" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="L161" t="s">
         <v>29</v>
       </c>
       <c r="M161">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N161" s="2">
-        <v>137.6</v>
+        <v>109.1</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
-        <v>45467</v>
+        <v>45469</v>
       </c>
       <c r="B162" t="s">
         <v>22</v>
       </c>
       <c r="C162" s="2">
-        <v>14095</v>
+        <v>3025</v>
       </c>
       <c r="D162" t="s">
         <v>23</v>
@@ -8265,16 +8313,16 @@
         <v>22</v>
       </c>
       <c r="G162" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H162">
-        <v>23550</v>
+        <v>23800</v>
       </c>
       <c r="I162" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="J162" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="K162" t="s">
         <v>300</v>
@@ -8283,21 +8331,21 @@
         <v>34</v>
       </c>
       <c r="M162">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N162" s="2">
-        <v>140.94999999999999</v>
+        <v>121</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
-        <v>45467</v>
+        <v>45469</v>
       </c>
       <c r="B163" t="s">
         <v>22</v>
       </c>
       <c r="C163" s="2">
-        <v>3440</v>
+        <v>12100</v>
       </c>
       <c r="D163" t="s">
         <v>23</v>
@@ -8309,39 +8357,39 @@
         <v>22</v>
       </c>
       <c r="G163" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H163">
-        <v>23550</v>
+        <v>23800</v>
       </c>
       <c r="I163" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="J163" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K163" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="L163" t="s">
         <v>29</v>
       </c>
       <c r="M163">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N163" s="2">
-        <v>137.6</v>
+        <v>121</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
-        <v>45464</v>
+        <v>45469</v>
       </c>
       <c r="B164" t="s">
         <v>22</v>
       </c>
       <c r="C164" s="2">
-        <v>3125</v>
+        <v>3025</v>
       </c>
       <c r="D164" t="s">
         <v>23</v>
@@ -8353,39 +8401,39 @@
         <v>22</v>
       </c>
       <c r="G164" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H164">
-        <v>23500</v>
+        <v>23800</v>
       </c>
       <c r="I164" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="J164" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K164" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L164" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M164">
         <v>25</v>
       </c>
       <c r="N164" s="2">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
-        <v>45464</v>
+        <v>45468</v>
       </c>
       <c r="B165" t="s">
         <v>22</v>
       </c>
       <c r="C165" s="2">
-        <v>11325</v>
+        <v>12620</v>
       </c>
       <c r="D165" t="s">
         <v>23</v>
@@ -8397,39 +8445,39 @@
         <v>22</v>
       </c>
       <c r="G165" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H165">
-        <v>23500</v>
+        <v>23550</v>
       </c>
       <c r="I165" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="J165" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K165" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="L165" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M165">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="N165" s="2">
-        <v>151</v>
+        <v>126.2</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
-        <v>45464</v>
+        <v>45468</v>
       </c>
       <c r="B166" t="s">
         <v>22</v>
       </c>
       <c r="C166" s="2">
-        <v>3775</v>
+        <v>12830</v>
       </c>
       <c r="D166" t="s">
         <v>23</v>
@@ -8441,39 +8489,39 @@
         <v>22</v>
       </c>
       <c r="G166" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H166">
-        <v>23500</v>
+        <v>23550</v>
       </c>
       <c r="I166" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="J166" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K166" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="L166" t="s">
         <v>34</v>
       </c>
       <c r="M166">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N166" s="2">
-        <v>151</v>
+        <v>128.30000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
-        <v>45464</v>
+        <v>45467</v>
       </c>
       <c r="B167" t="s">
         <v>22</v>
       </c>
       <c r="C167" s="2">
-        <v>9375</v>
+        <v>3440</v>
       </c>
       <c r="D167" t="s">
         <v>23</v>
@@ -8488,36 +8536,36 @@
         <v>25</v>
       </c>
       <c r="H167">
-        <v>23500</v>
+        <v>23550</v>
       </c>
       <c r="I167" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="J167" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="K167" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="L167" t="s">
         <v>29</v>
       </c>
       <c r="M167">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N167" s="2">
-        <v>125</v>
+        <v>137.6</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
-        <v>45463</v>
+        <v>45467</v>
       </c>
       <c r="B168" t="s">
         <v>22</v>
       </c>
       <c r="C168" s="2">
-        <v>3500</v>
+        <v>3442.5</v>
       </c>
       <c r="D168" t="s">
         <v>23</v>
@@ -8532,36 +8580,36 @@
         <v>25</v>
       </c>
       <c r="H168">
-        <v>23450</v>
+        <v>23550</v>
       </c>
       <c r="I168" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="J168" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K168" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L168" t="s">
         <v>29</v>
       </c>
       <c r="M168">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N168" s="2">
-        <v>70</v>
+        <v>137.69999999999999</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
-        <v>45463</v>
+        <v>45467</v>
       </c>
       <c r="B169" t="s">
         <v>22</v>
       </c>
       <c r="C169" s="2">
-        <v>750</v>
+        <v>3440</v>
       </c>
       <c r="D169" t="s">
         <v>23</v>
@@ -8576,13 +8624,13 @@
         <v>25</v>
       </c>
       <c r="H169">
-        <v>23650</v>
+        <v>23550</v>
       </c>
       <c r="I169" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="J169" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K169" t="s">
         <v>312</v>
@@ -8591,21 +8639,21 @@
         <v>29</v>
       </c>
       <c r="M169">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N169" s="2">
-        <v>15</v>
+        <v>137.6</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
-        <v>45463</v>
+        <v>45467</v>
       </c>
       <c r="B170" t="s">
         <v>22</v>
       </c>
       <c r="C170" s="2">
-        <v>375</v>
+        <v>14095</v>
       </c>
       <c r="D170" t="s">
         <v>23</v>
@@ -8620,36 +8668,36 @@
         <v>25</v>
       </c>
       <c r="H170">
-        <v>23650</v>
+        <v>23550</v>
       </c>
       <c r="I170" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="J170" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K170" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L170" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M170">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N170" s="2">
-        <v>15</v>
+        <v>140.94999999999999</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
-        <v>45463</v>
+        <v>45467</v>
       </c>
       <c r="B171" t="s">
         <v>22</v>
       </c>
       <c r="C171" s="2">
-        <v>450</v>
+        <v>3440</v>
       </c>
       <c r="D171" t="s">
         <v>23</v>
@@ -8664,36 +8712,36 @@
         <v>25</v>
       </c>
       <c r="H171">
-        <v>23650</v>
+        <v>23550</v>
       </c>
       <c r="I171" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="J171" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K171" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="L171" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M171">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N171" s="2">
-        <v>6</v>
+        <v>137.6</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
-        <v>45463</v>
+        <v>45464</v>
       </c>
       <c r="B172" t="s">
         <v>22</v>
       </c>
       <c r="C172" s="2">
-        <v>1938.75</v>
+        <v>3125</v>
       </c>
       <c r="D172" t="s">
         <v>23</v>
@@ -8705,39 +8753,39 @@
         <v>22</v>
       </c>
       <c r="G172" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H172">
-        <v>23450</v>
+        <v>23500</v>
       </c>
       <c r="I172" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="J172" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K172" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L172" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M172">
         <v>25</v>
       </c>
       <c r="N172" s="2">
-        <v>77.55</v>
+        <v>125</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
-        <v>45463</v>
+        <v>45464</v>
       </c>
       <c r="B173" t="s">
         <v>22</v>
       </c>
       <c r="C173" s="2">
-        <v>368.75</v>
+        <v>11325</v>
       </c>
       <c r="D173" t="s">
         <v>23</v>
@@ -8749,39 +8797,39 @@
         <v>22</v>
       </c>
       <c r="G173" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H173">
-        <v>23650</v>
+        <v>23500</v>
       </c>
       <c r="I173" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="J173" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K173" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L173" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M173">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N173" s="2">
-        <v>14.75</v>
+        <v>151</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
-        <v>45463</v>
+        <v>45464</v>
       </c>
       <c r="B174" t="s">
         <v>22</v>
       </c>
       <c r="C174" s="2">
-        <v>1106.25</v>
+        <v>3775</v>
       </c>
       <c r="D174" t="s">
         <v>23</v>
@@ -8793,39 +8841,39 @@
         <v>22</v>
       </c>
       <c r="G174" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H174">
-        <v>23650</v>
+        <v>23500</v>
       </c>
       <c r="I174" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="J174" t="s">
+        <v>322</v>
+      </c>
+      <c r="K174" t="s">
         <v>321</v>
       </c>
-      <c r="K174" t="s">
-        <v>320</v>
-      </c>
       <c r="L174" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M174">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N174" s="2">
-        <v>14.75</v>
+        <v>151</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
-        <v>45463</v>
+        <v>45464</v>
       </c>
       <c r="B175" t="s">
         <v>22</v>
       </c>
       <c r="C175" s="2">
-        <v>627.5</v>
+        <v>9375</v>
       </c>
       <c r="D175" t="s">
         <v>23</v>
@@ -8837,28 +8885,28 @@
         <v>22</v>
       </c>
       <c r="G175" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H175">
-        <v>23650</v>
+        <v>23500</v>
       </c>
       <c r="I175" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="J175" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K175" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="L175" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M175">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N175" s="2">
-        <v>12.55</v>
+        <v>125</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.35">
@@ -8869,7 +8917,7 @@
         <v>22</v>
       </c>
       <c r="C176" s="2">
-        <v>682.5</v>
+        <v>3500</v>
       </c>
       <c r="D176" t="s">
         <v>23</v>
@@ -8881,28 +8929,28 @@
         <v>22</v>
       </c>
       <c r="G176" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H176">
-        <v>23650</v>
+        <v>23450</v>
       </c>
       <c r="I176" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="J176" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K176" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L176" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M176">
         <v>50</v>
       </c>
       <c r="N176" s="2">
-        <v>13.65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.35">
@@ -8913,7 +8961,7 @@
         <v>22</v>
       </c>
       <c r="C177" s="2">
-        <v>1938.75</v>
+        <v>750</v>
       </c>
       <c r="D177" t="s">
         <v>23</v>
@@ -8925,28 +8973,28 @@
         <v>22</v>
       </c>
       <c r="G177" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H177">
-        <v>23450</v>
+        <v>23650</v>
       </c>
       <c r="I177" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="J177" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K177" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="L177" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M177">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N177" s="2">
-        <v>77.55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.35">
@@ -8969,19 +9017,19 @@
         <v>22</v>
       </c>
       <c r="G178" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H178">
         <v>23650</v>
       </c>
       <c r="I178" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="J178" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K178" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="L178" t="s">
         <v>29</v>
@@ -9001,7 +9049,7 @@
         <v>22</v>
       </c>
       <c r="C179" s="2">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="D179" t="s">
         <v>23</v>
@@ -9013,25 +9061,25 @@
         <v>22</v>
       </c>
       <c r="G179" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H179">
         <v>23650</v>
       </c>
       <c r="I179" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="J179" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K179" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="L179" t="s">
         <v>34</v>
       </c>
       <c r="M179">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N179" s="2">
         <v>6</v>
@@ -9039,13 +9087,13 @@
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
-        <v>45462</v>
+        <v>45463</v>
       </c>
       <c r="B180" t="s">
         <v>22</v>
       </c>
       <c r="C180" s="2">
-        <v>1875</v>
+        <v>1938.75</v>
       </c>
       <c r="D180" t="s">
         <v>23</v>
@@ -9057,39 +9105,39 @@
         <v>22</v>
       </c>
       <c r="G180" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H180">
-        <v>23600</v>
+        <v>23450</v>
       </c>
       <c r="I180" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="J180" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="K180" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="L180" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M180">
         <v>25</v>
       </c>
       <c r="N180" s="2">
-        <v>75</v>
+        <v>77.55</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
-        <v>45462</v>
+        <v>45463</v>
       </c>
       <c r="B181" t="s">
         <v>22</v>
       </c>
       <c r="C181" s="2">
-        <v>750</v>
+        <v>368.75</v>
       </c>
       <c r="D181" t="s">
         <v>23</v>
@@ -9101,19 +9149,19 @@
         <v>22</v>
       </c>
       <c r="G181" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H181">
-        <v>23600</v>
+        <v>23650</v>
       </c>
       <c r="I181" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="J181" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K181" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="L181" t="s">
         <v>29</v>
@@ -9122,18 +9170,18 @@
         <v>25</v>
       </c>
       <c r="N181" s="2">
-        <v>30</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
-        <v>45462</v>
+        <v>45463</v>
       </c>
       <c r="B182" t="s">
         <v>22</v>
       </c>
       <c r="C182" s="2">
-        <v>2400</v>
+        <v>1106.25</v>
       </c>
       <c r="D182" t="s">
         <v>23</v>
@@ -9145,39 +9193,39 @@
         <v>22</v>
       </c>
       <c r="G182" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H182">
-        <v>23600</v>
+        <v>23650</v>
       </c>
       <c r="I182" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="J182" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K182" t="s">
-        <v>124</v>
+        <v>336</v>
       </c>
       <c r="L182" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M182">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N182" s="2">
-        <v>48</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
-        <v>45462</v>
+        <v>45463</v>
       </c>
       <c r="B183" t="s">
         <v>22</v>
       </c>
       <c r="C183" s="2">
-        <v>2500</v>
+        <v>627.5</v>
       </c>
       <c r="D183" t="s">
         <v>23</v>
@@ -9189,39 +9237,39 @@
         <v>22</v>
       </c>
       <c r="G183" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H183">
-        <v>23600</v>
+        <v>23650</v>
       </c>
       <c r="I183" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="J183" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="K183" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="L183" t="s">
         <v>34</v>
       </c>
       <c r="M183">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N183" s="2">
-        <v>100</v>
+        <v>12.55</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
-        <v>45462</v>
+        <v>45463</v>
       </c>
       <c r="B184" t="s">
         <v>22</v>
       </c>
       <c r="C184" s="2">
-        <v>1248.75</v>
+        <v>682.5</v>
       </c>
       <c r="D184" t="s">
         <v>23</v>
@@ -9233,39 +9281,39 @@
         <v>22</v>
       </c>
       <c r="G184" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H184">
-        <v>23600</v>
+        <v>23650</v>
       </c>
       <c r="I184" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="J184" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="K184" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="L184" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M184">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N184" s="2">
-        <v>49.95</v>
+        <v>13.65</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
-        <v>45461</v>
+        <v>45463</v>
       </c>
       <c r="B185" t="s">
         <v>22</v>
       </c>
       <c r="C185" s="2">
-        <v>3000</v>
+        <v>1938.75</v>
       </c>
       <c r="D185" t="s">
         <v>23</v>
@@ -9277,39 +9325,39 @@
         <v>22</v>
       </c>
       <c r="G185" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H185">
-        <v>23500</v>
+        <v>23450</v>
       </c>
       <c r="I185" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="J185" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K185" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="L185" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M185">
         <v>25</v>
       </c>
       <c r="N185" s="2">
-        <v>120</v>
+        <v>77.55</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
-        <v>45461</v>
+        <v>45463</v>
       </c>
       <c r="B186" t="s">
         <v>22</v>
       </c>
       <c r="C186" s="2">
-        <v>3391.25</v>
+        <v>375</v>
       </c>
       <c r="D186" t="s">
         <v>23</v>
@@ -9321,39 +9369,39 @@
         <v>22</v>
       </c>
       <c r="G186" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H186">
-        <v>23500</v>
+        <v>23650</v>
       </c>
       <c r="I186" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="J186" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K186" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="L186" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M186">
         <v>25</v>
       </c>
       <c r="N186" s="2">
-        <v>135.65</v>
+        <v>15</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
-        <v>45457</v>
+        <v>45463</v>
       </c>
       <c r="B187" t="s">
         <v>22</v>
       </c>
       <c r="C187" s="2">
-        <v>3117.5</v>
+        <v>150</v>
       </c>
       <c r="D187" t="s">
         <v>23</v>
@@ -9365,39 +9413,39 @@
         <v>22</v>
       </c>
       <c r="G187" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H187">
-        <v>23450</v>
+        <v>23650</v>
       </c>
       <c r="I187" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="J187" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K187" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="L187" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M187">
         <v>25</v>
       </c>
       <c r="N187" s="2">
-        <v>124.7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
-        <v>45457</v>
+        <v>45462</v>
       </c>
       <c r="B188" t="s">
         <v>22</v>
       </c>
       <c r="C188" s="2">
-        <v>3200</v>
+        <v>1875</v>
       </c>
       <c r="D188" t="s">
         <v>23</v>
@@ -9409,80 +9457,83 @@
         <v>22</v>
       </c>
       <c r="G188" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H188">
-        <v>23450</v>
+        <v>23600</v>
       </c>
       <c r="I188" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="J188" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K188" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L188" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M188">
         <v>25</v>
       </c>
       <c r="N188" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
-        <v>45456</v>
+        <v>45462</v>
       </c>
       <c r="B189" t="s">
-        <v>346</v>
+        <v>22</v>
       </c>
       <c r="C189" s="2">
-        <v>3000</v>
+        <v>750</v>
       </c>
       <c r="D189" t="s">
+        <v>23</v>
+      </c>
+      <c r="E189" t="s">
+        <v>24</v>
+      </c>
+      <c r="F189" t="s">
+        <v>22</v>
+      </c>
+      <c r="G189" t="s">
+        <v>39</v>
+      </c>
+      <c r="H189">
+        <v>23600</v>
+      </c>
+      <c r="I189" t="s">
+        <v>324</v>
+      </c>
+      <c r="J189" t="s">
         <v>347</v>
       </c>
-      <c r="E189" t="s">
+      <c r="K189" t="s">
         <v>348</v>
-      </c>
-      <c r="F189" t="s">
-        <v>349</v>
-      </c>
-      <c r="G189" t="s">
-        <v>350</v>
-      </c>
-      <c r="H189">
-        <v>0</v>
-      </c>
-      <c r="J189" t="s">
-        <v>351</v>
-      </c>
-      <c r="K189" t="s">
-        <v>352</v>
       </c>
       <c r="L189" t="s">
         <v>29</v>
       </c>
       <c r="M189">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="N189" s="2">
-        <v>1500</v>
+        <v>30</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
-        <v>45456</v>
+        <v>45462</v>
       </c>
       <c r="B190" t="s">
         <v>22</v>
       </c>
       <c r="C190" s="2">
-        <v>1547.5</v>
+        <v>2400</v>
       </c>
       <c r="D190" t="s">
         <v>23</v>
@@ -9494,39 +9545,39 @@
         <v>22</v>
       </c>
       <c r="G190" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H190">
-        <v>23350</v>
+        <v>23600</v>
       </c>
       <c r="I190" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="J190" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="K190" t="s">
-        <v>355</v>
+        <v>140</v>
       </c>
       <c r="L190" t="s">
         <v>34</v>
       </c>
       <c r="M190">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N190" s="2">
-        <v>61.9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
-        <v>45456</v>
+        <v>45462</v>
       </c>
       <c r="B191" t="s">
         <v>22</v>
       </c>
       <c r="C191" s="2">
-        <v>1475</v>
+        <v>2500</v>
       </c>
       <c r="D191" t="s">
         <v>23</v>
@@ -9541,159 +9592,508 @@
         <v>25</v>
       </c>
       <c r="H191">
-        <v>23350</v>
+        <v>23600</v>
       </c>
       <c r="I191" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="J191" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="K191" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="L191" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M191">
         <v>25</v>
       </c>
       <c r="N191" s="2">
-        <v>59</v>
+        <v>100</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
-        <v>45447</v>
+        <v>45462</v>
       </c>
       <c r="B192" t="s">
-        <v>358</v>
+        <v>22</v>
       </c>
       <c r="C192" s="2">
-        <v>2688.6</v>
+        <v>1248.75</v>
       </c>
       <c r="D192" t="s">
-        <v>347</v>
+        <v>23</v>
       </c>
       <c r="E192" t="s">
-        <v>348</v>
+        <v>24</v>
       </c>
       <c r="F192" t="s">
-        <v>359</v>
+        <v>22</v>
       </c>
       <c r="G192" t="s">
-        <v>350</v>
+        <v>39</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>23600</v>
+      </c>
+      <c r="I192" t="s">
+        <v>324</v>
       </c>
       <c r="J192" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="K192" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="L192" t="s">
         <v>29</v>
       </c>
       <c r="M192">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="N192" s="2">
-        <v>896.2</v>
+        <v>49.95</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B193" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="C193" s="2">
-        <v>999.75</v>
+        <v>3000</v>
       </c>
       <c r="D193" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="E193" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="F193" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="G193" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>23500</v>
+      </c>
+      <c r="I193" t="s">
+        <v>324</v>
+      </c>
+      <c r="J193" t="s">
+        <v>354</v>
+      </c>
+      <c r="K193" t="s">
+        <v>355</v>
       </c>
       <c r="L193" t="s">
         <v>29</v>
       </c>
       <c r="M193">
-        <v>2.33</v>
+        <v>25</v>
       </c>
       <c r="N193" s="2">
-        <v>428.89</v>
+        <v>120</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
+        <v>45461</v>
+      </c>
+      <c r="B194" t="s">
+        <v>22</v>
+      </c>
+      <c r="C194" s="2">
+        <v>3391.25</v>
+      </c>
+      <c r="D194" t="s">
+        <v>23</v>
+      </c>
+      <c r="E194" t="s">
+        <v>24</v>
+      </c>
+      <c r="F194" t="s">
+        <v>22</v>
+      </c>
+      <c r="G194" t="s">
+        <v>39</v>
+      </c>
+      <c r="H194">
+        <v>23500</v>
+      </c>
+      <c r="I194" t="s">
+        <v>324</v>
+      </c>
+      <c r="J194" t="s">
+        <v>356</v>
+      </c>
+      <c r="K194" t="s">
+        <v>357</v>
+      </c>
+      <c r="L194" t="s">
+        <v>34</v>
+      </c>
+      <c r="M194">
+        <v>25</v>
+      </c>
+      <c r="N194" s="2">
+        <v>135.65</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A195" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B195" t="s">
+        <v>22</v>
+      </c>
+      <c r="C195" s="2">
+        <v>3117.5</v>
+      </c>
+      <c r="D195" t="s">
+        <v>23</v>
+      </c>
+      <c r="E195" t="s">
+        <v>24</v>
+      </c>
+      <c r="F195" t="s">
+        <v>22</v>
+      </c>
+      <c r="G195" t="s">
+        <v>25</v>
+      </c>
+      <c r="H195">
+        <v>23450</v>
+      </c>
+      <c r="I195" t="s">
+        <v>324</v>
+      </c>
+      <c r="J195" t="s">
+        <v>358</v>
+      </c>
+      <c r="K195" t="s">
+        <v>359</v>
+      </c>
+      <c r="L195" t="s">
+        <v>29</v>
+      </c>
+      <c r="M195">
+        <v>25</v>
+      </c>
+      <c r="N195" s="2">
+        <v>124.7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A196" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B196" t="s">
+        <v>22</v>
+      </c>
+      <c r="C196" s="2">
+        <v>3200</v>
+      </c>
+      <c r="D196" t="s">
+        <v>23</v>
+      </c>
+      <c r="E196" t="s">
+        <v>24</v>
+      </c>
+      <c r="F196" t="s">
+        <v>22</v>
+      </c>
+      <c r="G196" t="s">
+        <v>25</v>
+      </c>
+      <c r="H196">
+        <v>23450</v>
+      </c>
+      <c r="I196" t="s">
+        <v>324</v>
+      </c>
+      <c r="J196" t="s">
+        <v>360</v>
+      </c>
+      <c r="K196" t="s">
+        <v>361</v>
+      </c>
+      <c r="L196" t="s">
+        <v>34</v>
+      </c>
+      <c r="M196">
+        <v>25</v>
+      </c>
+      <c r="N196" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A197" s="1">
+        <v>45456</v>
+      </c>
+      <c r="B197" t="s">
+        <v>362</v>
+      </c>
+      <c r="C197" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D197" t="s">
+        <v>363</v>
+      </c>
+      <c r="E197" t="s">
+        <v>364</v>
+      </c>
+      <c r="F197" t="s">
+        <v>365</v>
+      </c>
+      <c r="G197" t="s">
+        <v>366</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="J197" t="s">
+        <v>367</v>
+      </c>
+      <c r="K197" t="s">
+        <v>368</v>
+      </c>
+      <c r="L197" t="s">
+        <v>29</v>
+      </c>
+      <c r="M197">
+        <v>2</v>
+      </c>
+      <c r="N197" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A198" s="1">
+        <v>45456</v>
+      </c>
+      <c r="B198" t="s">
+        <v>22</v>
+      </c>
+      <c r="C198" s="2">
+        <v>1547.5</v>
+      </c>
+      <c r="D198" t="s">
+        <v>23</v>
+      </c>
+      <c r="E198" t="s">
+        <v>24</v>
+      </c>
+      <c r="F198" t="s">
+        <v>22</v>
+      </c>
+      <c r="G198" t="s">
+        <v>39</v>
+      </c>
+      <c r="H198">
+        <v>23350</v>
+      </c>
+      <c r="I198" t="s">
+        <v>369</v>
+      </c>
+      <c r="J198" t="s">
+        <v>370</v>
+      </c>
+      <c r="K198" t="s">
+        <v>371</v>
+      </c>
+      <c r="L198" t="s">
+        <v>34</v>
+      </c>
+      <c r="M198">
+        <v>25</v>
+      </c>
+      <c r="N198" s="2">
+        <v>61.9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A199" s="1">
+        <v>45456</v>
+      </c>
+      <c r="B199" t="s">
+        <v>22</v>
+      </c>
+      <c r="C199" s="2">
+        <v>1475</v>
+      </c>
+      <c r="D199" t="s">
+        <v>23</v>
+      </c>
+      <c r="E199" t="s">
+        <v>24</v>
+      </c>
+      <c r="F199" t="s">
+        <v>22</v>
+      </c>
+      <c r="G199" t="s">
+        <v>39</v>
+      </c>
+      <c r="H199">
+        <v>23350</v>
+      </c>
+      <c r="I199" t="s">
+        <v>369</v>
+      </c>
+      <c r="J199" t="s">
+        <v>372</v>
+      </c>
+      <c r="K199" t="s">
+        <v>373</v>
+      </c>
+      <c r="L199" t="s">
+        <v>29</v>
+      </c>
+      <c r="M199">
+        <v>25</v>
+      </c>
+      <c r="N199" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A200" s="1">
+        <v>45447</v>
+      </c>
+      <c r="B200" t="s">
+        <v>374</v>
+      </c>
+      <c r="C200" s="2">
+        <v>2688.6</v>
+      </c>
+      <c r="D200" t="s">
+        <v>363</v>
+      </c>
+      <c r="E200" t="s">
+        <v>364</v>
+      </c>
+      <c r="F200" t="s">
+        <v>375</v>
+      </c>
+      <c r="G200" t="s">
+        <v>366</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="J200" t="s">
+        <v>376</v>
+      </c>
+      <c r="K200" t="s">
+        <v>377</v>
+      </c>
+      <c r="L200" t="s">
+        <v>29</v>
+      </c>
+      <c r="M200">
+        <v>3</v>
+      </c>
+      <c r="N200" s="2">
+        <v>896.2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A201" s="1">
         <v>45436</v>
       </c>
-      <c r="B194" t="s">
-        <v>75</v>
-      </c>
-      <c r="C194" s="2">
+      <c r="B201" t="s">
+        <v>87</v>
+      </c>
+      <c r="C201" s="2">
+        <v>999.75</v>
+      </c>
+      <c r="D201" t="s">
+        <v>88</v>
+      </c>
+      <c r="E201" t="s">
+        <v>89</v>
+      </c>
+      <c r="F201" t="s">
+        <v>90</v>
+      </c>
+      <c r="G201" t="s">
+        <v>89</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="L201" t="s">
+        <v>29</v>
+      </c>
+      <c r="M201">
+        <v>2.33</v>
+      </c>
+      <c r="N201" s="2">
+        <v>428.89</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A202" s="1">
+        <v>45436</v>
+      </c>
+      <c r="B202" t="s">
+        <v>91</v>
+      </c>
+      <c r="C202" s="2">
         <v>999.95</v>
       </c>
-      <c r="D194" t="s">
-        <v>72</v>
-      </c>
-      <c r="E194" t="s">
-        <v>73</v>
-      </c>
-      <c r="F194" t="s">
-        <v>76</v>
-      </c>
-      <c r="G194" t="s">
-        <v>73</v>
-      </c>
-      <c r="H194">
+      <c r="D202" t="s">
+        <v>88</v>
+      </c>
+      <c r="E202" t="s">
+        <v>89</v>
+      </c>
+      <c r="F202" t="s">
+        <v>92</v>
+      </c>
+      <c r="G202" t="s">
+        <v>89</v>
+      </c>
+      <c r="H202">
         <v>0</v>
       </c>
-      <c r="L194" t="s">
+      <c r="L202" t="s">
         <v>29</v>
       </c>
-      <c r="M194">
+      <c r="M202">
         <v>20.51</v>
       </c>
-      <c r="N194" s="2">
+      <c r="N202" s="2">
         <v>48.77</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A200" s="3"/>
-      <c r="B200" s="3"/>
-      <c r="C200" s="3"/>
-      <c r="D200" s="3"/>
-      <c r="E200" s="3"/>
-      <c r="F200" s="3"/>
-      <c r="G200" s="3"/>
-      <c r="H200" s="3"/>
-      <c r="I200" s="3"/>
-    </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
-        <v>362</v>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A208" s="3"/>
+      <c r="B208" s="3"/>
+      <c r="C208" s="3"/>
+      <c r="D208" s="3"/>
+      <c r="E208" s="3"/>
+      <c r="F208" s="3"/>
+      <c r="G208" s="3"/>
+      <c r="H208" s="3"/>
+      <c r="I208" s="3"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A200:I200"/>
+    <mergeCell ref="A208:I208"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DATA/SOURCE/TradeHistory/trade_2425.xlsx
+++ b/DATA/SOURCE/TradeHistory/trade_2425.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prashant.tripathi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prashant.tripathi\Code\PortfolioTracker\DATA\SOURCE\TradeHistory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267DB8E2-469A-4AEB-88EA-A607EBB80B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945E7F83-4D7C-490C-833A-95970957D233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="379">
   <si>
     <t>UPSTOX SECURITIES PRIVATE LIMITED</t>
   </si>
@@ -97,31 +97,166 @@
     <t>FO</t>
   </si>
   <si>
+    <t>European Put</t>
+  </si>
+  <si>
+    <t>14-08-2024</t>
+  </si>
+  <si>
+    <t>815482898</t>
+  </si>
+  <si>
+    <t>11:42:26</t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
+    <t>814680371</t>
+  </si>
+  <si>
+    <t>11:07:42</t>
+  </si>
+  <si>
+    <t>816897194</t>
+  </si>
+  <si>
+    <t>12:50:40</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>731545153</t>
+  </si>
+  <si>
+    <t>09:30:02</t>
+  </si>
+  <si>
+    <t>736112360</t>
+  </si>
+  <si>
+    <t>10:30:34</t>
+  </si>
+  <si>
     <t>European Call</t>
   </si>
   <si>
+    <t>80920511</t>
+  </si>
+  <si>
+    <t>09:43:40</t>
+  </si>
+  <si>
+    <t>84262186</t>
+  </si>
+  <si>
+    <t>14:47:44</t>
+  </si>
+  <si>
+    <t>1519988</t>
+  </si>
+  <si>
+    <t>10:01:35</t>
+  </si>
+  <si>
+    <t>155765668</t>
+  </si>
+  <si>
+    <t>15:28:33</t>
+  </si>
+  <si>
     <t>08-08-2024</t>
   </si>
   <si>
+    <t>737479472</t>
+  </si>
+  <si>
+    <t>10:43:59</t>
+  </si>
+  <si>
+    <t>737361400</t>
+  </si>
+  <si>
+    <t>15:08:24</t>
+  </si>
+  <si>
+    <t>86008345</t>
+  </si>
+  <si>
+    <t>14:32:12</t>
+  </si>
+  <si>
+    <t>2827494</t>
+  </si>
+  <si>
+    <t>10:40:30</t>
+  </si>
+  <si>
+    <t>82871869</t>
+  </si>
+  <si>
+    <t>10:45:11</t>
+  </si>
+  <si>
+    <t>736248185</t>
+  </si>
+  <si>
+    <t>10:23:59</t>
+  </si>
+  <si>
+    <t>824446017</t>
+  </si>
+  <si>
+    <t>12:35:05</t>
+  </si>
+  <si>
+    <t>98687106</t>
+  </si>
+  <si>
+    <t>14:10:58</t>
+  </si>
+  <si>
+    <t>91383965</t>
+  </si>
+  <si>
+    <t>11:53:31</t>
+  </si>
+  <si>
+    <t>736467937</t>
+  </si>
+  <si>
+    <t>10:25:48</t>
+  </si>
+  <si>
+    <t>825300332</t>
+  </si>
+  <si>
+    <t>12:53:33</t>
+  </si>
+  <si>
+    <t>92572051</t>
+  </si>
+  <si>
+    <t>12:26:04</t>
+  </si>
+  <si>
+    <t>98172057</t>
+  </si>
+  <si>
+    <t>14:00:50</t>
+  </si>
+  <si>
     <t>81049361</t>
   </si>
   <si>
     <t>09:32:11</t>
   </si>
   <si>
-    <t>Sell</t>
-  </si>
-  <si>
-    <t>European Put</t>
-  </si>
-  <si>
     <t>722796247</t>
   </si>
   <si>
     <t>12:21:59</t>
-  </si>
-  <si>
-    <t>Buy</t>
   </si>
   <si>
     <t>723739017</t>
@@ -1400,10 +1535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N187"/>
+  <dimension ref="A1:N209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E184" sqref="E184"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1508,13 +1643,13 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>45509</v>
+        <v>45518</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="2">
-        <v>750</v>
+        <v>412.5</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1529,7 +1664,7 @@
         <v>25</v>
       </c>
       <c r="H10">
-        <v>24700</v>
+        <v>24100</v>
       </c>
       <c r="I10" t="s">
         <v>26</v>
@@ -1547,18 +1682,18 @@
         <v>25</v>
       </c>
       <c r="N10" s="2">
-        <v>30</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>45506</v>
+        <v>45518</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="2">
-        <v>4000</v>
+        <v>597.5</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1570,39 +1705,39 @@
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H11">
-        <v>24800</v>
+        <v>24100</v>
       </c>
       <c r="I11" t="s">
         <v>26</v>
       </c>
       <c r="J11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" t="s">
         <v>31</v>
       </c>
-      <c r="K11" t="s">
-        <v>32</v>
-      </c>
       <c r="L11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M11">
         <v>25</v>
       </c>
       <c r="N11" s="2">
-        <v>160</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>45506</v>
+        <v>45518</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="2">
-        <v>4150</v>
+        <v>370</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
@@ -1614,39 +1749,39 @@
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H12">
-        <v>24800</v>
+        <v>24100</v>
       </c>
       <c r="I12" t="s">
         <v>26</v>
       </c>
       <c r="J12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" t="s">
         <v>34</v>
       </c>
-      <c r="K12" t="s">
-        <v>35</v>
-      </c>
-      <c r="L12" t="s">
-        <v>33</v>
-      </c>
       <c r="M12">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N12" s="2">
-        <v>166</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>45506</v>
+        <v>45517</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="2">
-        <v>4196.25</v>
+        <v>1750</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
@@ -1658,19 +1793,19 @@
         <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H13">
-        <v>24800</v>
+        <v>24250</v>
       </c>
       <c r="I13" t="s">
         <v>26</v>
       </c>
       <c r="J13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" t="s">
         <v>36</v>
-      </c>
-      <c r="K13" t="s">
-        <v>37</v>
       </c>
       <c r="L13" t="s">
         <v>29</v>
@@ -1679,18 +1814,18 @@
         <v>25</v>
       </c>
       <c r="N13" s="2">
-        <v>167.85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>45506</v>
+        <v>45517</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="2">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="D14" t="s">
         <v>23</v>
@@ -1705,36 +1840,36 @@
         <v>25</v>
       </c>
       <c r="H14">
-        <v>24700</v>
+        <v>24250</v>
       </c>
       <c r="I14" t="s">
         <v>26</v>
       </c>
       <c r="J14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" t="s">
         <v>38</v>
       </c>
-      <c r="K14" t="s">
-        <v>39</v>
-      </c>
       <c r="L14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M14">
         <v>25</v>
       </c>
       <c r="N14" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>45506</v>
+        <v>45516</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="2">
-        <v>4443.75</v>
+        <v>1257.5</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -1746,10 +1881,10 @@
         <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H15">
-        <v>24800</v>
+        <v>24500</v>
       </c>
       <c r="I15" t="s">
         <v>26</v>
@@ -1761,94 +1896,112 @@
         <v>41</v>
       </c>
       <c r="L15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M15">
         <v>25</v>
       </c>
       <c r="N15" s="2">
-        <v>177.75</v>
+        <v>50.3</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2237.5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16">
+        <v>24500</v>
+      </c>
+      <c r="I16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="2">
-        <v>999.86</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="K16" t="s">
         <v>43</v>
       </c>
-      <c r="E16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
       <c r="L16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M16">
-        <v>2.11</v>
+        <v>25</v>
       </c>
       <c r="N16" s="2">
-        <v>474.32</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C17" s="2">
-        <v>999.94</v>
+        <v>830</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17">
+        <v>25000</v>
+      </c>
+      <c r="I17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" t="s">
         <v>44</v>
       </c>
-      <c r="F17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+      <c r="K17" t="s">
+        <v>45</v>
       </c>
       <c r="L17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M17">
-        <v>18.61</v>
+        <v>100</v>
       </c>
       <c r="N17" s="2">
-        <v>53.74</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>45505</v>
+        <v>45512</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="2">
-        <v>875</v>
+        <v>500</v>
       </c>
       <c r="D18" t="s">
         <v>23</v>
@@ -1860,39 +2013,39 @@
         <v>22</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H18">
-        <v>24950</v>
+        <v>25000</v>
       </c>
       <c r="I18" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="J18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M18">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="N18" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>45505</v>
+        <v>45512</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="2">
-        <v>320</v>
+        <v>1875</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
@@ -1907,36 +2060,36 @@
         <v>25</v>
       </c>
       <c r="H19">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="I19" t="s">
         <v>48</v>
       </c>
       <c r="J19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N19" s="2">
-        <v>12.8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>45505</v>
+        <v>45511</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="2">
-        <v>960</v>
+        <v>1125</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1951,13 +2104,13 @@
         <v>25</v>
       </c>
       <c r="H20">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="I20" t="s">
         <v>48</v>
       </c>
       <c r="J20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K20" t="s">
         <v>52</v>
@@ -1969,18 +2122,18 @@
         <v>75</v>
       </c>
       <c r="N20" s="2">
-        <v>12.8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>45505</v>
+        <v>45511</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="2">
-        <v>875</v>
+        <v>1561.25</v>
       </c>
       <c r="D21" t="s">
         <v>23</v>
@@ -1992,39 +2145,39 @@
         <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H21">
-        <v>25000</v>
+        <v>24350</v>
       </c>
       <c r="I21" t="s">
         <v>48</v>
       </c>
       <c r="J21" t="s">
+        <v>53</v>
+      </c>
+      <c r="K21" t="s">
         <v>54</v>
       </c>
-      <c r="K21" t="s">
-        <v>55</v>
-      </c>
       <c r="L21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M21">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="N21" s="2">
-        <v>7</v>
+        <v>62.45</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>45505</v>
+        <v>45511</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="2">
-        <v>6.25</v>
+        <v>47.5</v>
       </c>
       <c r="D22" t="s">
         <v>23</v>
@@ -2036,39 +2189,39 @@
         <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H22">
-        <v>24950</v>
+        <v>25000</v>
       </c>
       <c r="I22" t="s">
         <v>48</v>
       </c>
       <c r="J22" t="s">
+        <v>55</v>
+      </c>
+      <c r="K22" t="s">
         <v>56</v>
-      </c>
-      <c r="K22" t="s">
-        <v>52</v>
       </c>
       <c r="L22" t="s">
         <v>29</v>
       </c>
       <c r="M22">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="N22" s="2">
-        <v>0.05</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>45505</v>
+        <v>45511</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="2">
-        <v>320</v>
+        <v>2460</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -2080,10 +2233,10 @@
         <v>22</v>
       </c>
       <c r="G23" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H23">
-        <v>25000</v>
+        <v>24350</v>
       </c>
       <c r="I23" t="s">
         <v>48</v>
@@ -2092,7 +2245,7 @@
         <v>57</v>
       </c>
       <c r="K23" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L23" t="s">
         <v>29</v>
@@ -2101,18 +2254,18 @@
         <v>25</v>
       </c>
       <c r="N23" s="2">
-        <v>12.8</v>
+        <v>98.4</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>45504</v>
+        <v>45510</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="2">
-        <v>2471.25</v>
+        <v>2800</v>
       </c>
       <c r="D24" t="s">
         <v>23</v>
@@ -2124,39 +2277,39 @@
         <v>22</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H24">
-        <v>24950</v>
+        <v>24200</v>
       </c>
       <c r="I24" t="s">
         <v>48</v>
       </c>
       <c r="J24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M24">
         <v>25</v>
       </c>
       <c r="N24" s="2">
-        <v>98.85</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>45504</v>
+        <v>45510</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="2">
-        <v>2436.25</v>
+        <v>3250</v>
       </c>
       <c r="D25" t="s">
         <v>23</v>
@@ -2168,39 +2321,39 @@
         <v>22</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H25">
-        <v>25000</v>
+        <v>24150</v>
       </c>
       <c r="I25" t="s">
         <v>48</v>
       </c>
       <c r="J25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L25" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M25">
         <v>25</v>
       </c>
       <c r="N25" s="2">
-        <v>97.45</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>45504</v>
+        <v>45510</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="2">
-        <v>2136.25</v>
+        <v>2257.5</v>
       </c>
       <c r="D26" t="s">
         <v>23</v>
@@ -2212,39 +2365,39 @@
         <v>22</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H26">
-        <v>24950</v>
+        <v>24150</v>
       </c>
       <c r="I26" t="s">
         <v>48</v>
       </c>
       <c r="J26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L26" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M26">
         <v>25</v>
       </c>
       <c r="N26" s="2">
-        <v>85.45</v>
+        <v>90.3</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>45504</v>
+        <v>45510</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="2">
-        <v>2613.75</v>
+        <v>2500</v>
       </c>
       <c r="D27" t="s">
         <v>23</v>
@@ -2256,19 +2409,19 @@
         <v>22</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H27">
-        <v>25000</v>
+        <v>24300</v>
       </c>
       <c r="I27" t="s">
         <v>48</v>
       </c>
       <c r="J27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L27" t="s">
         <v>29</v>
@@ -2277,18 +2430,18 @@
         <v>25</v>
       </c>
       <c r="N27" s="2">
-        <v>104.55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>45503</v>
+        <v>45510</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="2">
-        <v>2568.75</v>
+        <v>3167.5</v>
       </c>
       <c r="D28" t="s">
         <v>23</v>
@@ -2300,39 +2453,39 @@
         <v>22</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H28">
-        <v>24900</v>
+        <v>24200</v>
       </c>
       <c r="I28" t="s">
         <v>48</v>
       </c>
       <c r="J28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L28" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M28">
         <v>25</v>
       </c>
       <c r="N28" s="2">
-        <v>102.75</v>
+        <v>126.7</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>45503</v>
+        <v>45510</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="2">
-        <v>2568.75</v>
+        <v>2971.25</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
@@ -2344,39 +2497,39 @@
         <v>22</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H29">
-        <v>24900</v>
+        <v>24150</v>
       </c>
       <c r="I29" t="s">
         <v>48</v>
       </c>
       <c r="J29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K29" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L29" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M29">
         <v>25</v>
       </c>
       <c r="N29" s="2">
-        <v>102.75</v>
+        <v>118.85</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>45503</v>
+        <v>45510</v>
       </c>
       <c r="B30" t="s">
         <v>22</v>
       </c>
       <c r="C30" s="2">
-        <v>4250</v>
+        <v>2337.5</v>
       </c>
       <c r="D30" t="s">
         <v>23</v>
@@ -2388,39 +2541,39 @@
         <v>22</v>
       </c>
       <c r="G30" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H30">
-        <v>24950</v>
+        <v>24300</v>
       </c>
       <c r="I30" t="s">
         <v>48</v>
       </c>
       <c r="J30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L30" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M30">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N30" s="2">
-        <v>85</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>45503</v>
+        <v>45510</v>
       </c>
       <c r="B31" t="s">
         <v>22</v>
       </c>
       <c r="C31" s="2">
-        <v>1400</v>
+        <v>2843.75</v>
       </c>
       <c r="D31" t="s">
         <v>23</v>
@@ -2432,39 +2585,39 @@
         <v>22</v>
       </c>
       <c r="G31" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H31">
-        <v>25150</v>
+        <v>24150</v>
       </c>
       <c r="I31" t="s">
         <v>48</v>
       </c>
       <c r="J31" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L31" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N31" s="2">
-        <v>28</v>
+        <v>113.75</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>45503</v>
+        <v>45509</v>
       </c>
       <c r="B32" t="s">
         <v>22</v>
       </c>
       <c r="C32" s="2">
-        <v>2625</v>
+        <v>750</v>
       </c>
       <c r="D32" t="s">
         <v>23</v>
@@ -2476,39 +2629,39 @@
         <v>22</v>
       </c>
       <c r="G32" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H32">
-        <v>24950</v>
+        <v>24700</v>
       </c>
       <c r="I32" t="s">
         <v>48</v>
       </c>
       <c r="J32" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K32" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M32">
         <v>25</v>
       </c>
       <c r="N32" s="2">
-        <v>105</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>45503</v>
+        <v>45506</v>
       </c>
       <c r="B33" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="2">
-        <v>2625</v>
+        <v>4000</v>
       </c>
       <c r="D33" t="s">
         <v>23</v>
@@ -2523,36 +2676,36 @@
         <v>25</v>
       </c>
       <c r="H33">
-        <v>24950</v>
+        <v>24800</v>
       </c>
       <c r="I33" t="s">
         <v>48</v>
       </c>
       <c r="J33" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K33" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L33" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M33">
         <v>25</v>
       </c>
       <c r="N33" s="2">
-        <v>105</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>45503</v>
+        <v>45506</v>
       </c>
       <c r="B34" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="2">
-        <v>1435</v>
+        <v>4150</v>
       </c>
       <c r="D34" t="s">
         <v>23</v>
@@ -2567,36 +2720,36 @@
         <v>25</v>
       </c>
       <c r="H34">
-        <v>25150</v>
+        <v>24800</v>
       </c>
       <c r="I34" t="s">
         <v>48</v>
       </c>
       <c r="J34" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K34" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L34" t="s">
         <v>29</v>
       </c>
       <c r="M34">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N34" s="2">
-        <v>28.7</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>45503</v>
+        <v>45506</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
       </c>
       <c r="C35" s="2">
-        <v>5097.5</v>
+        <v>4196.25</v>
       </c>
       <c r="D35" t="s">
         <v>23</v>
@@ -2608,39 +2761,39 @@
         <v>22</v>
       </c>
       <c r="G35" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H35">
-        <v>24900</v>
+        <v>24800</v>
       </c>
       <c r="I35" t="s">
         <v>48</v>
       </c>
       <c r="J35" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K35" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M35">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N35" s="2">
-        <v>101.95</v>
+        <v>167.85</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>45502</v>
+        <v>45506</v>
       </c>
       <c r="B36" t="s">
         <v>22</v>
       </c>
       <c r="C36" s="2">
-        <v>4950</v>
+        <v>3500</v>
       </c>
       <c r="D36" t="s">
         <v>23</v>
@@ -2652,39 +2805,39 @@
         <v>22</v>
       </c>
       <c r="G36" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H36">
-        <v>25000</v>
+        <v>24700</v>
       </c>
       <c r="I36" t="s">
         <v>48</v>
       </c>
       <c r="J36" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K36" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L36" t="s">
         <v>29</v>
       </c>
       <c r="M36">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N36" s="2">
-        <v>66</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>45502</v>
+        <v>45506</v>
       </c>
       <c r="B37" t="s">
         <v>22</v>
       </c>
       <c r="C37" s="2">
-        <v>600</v>
+        <v>4443.75</v>
       </c>
       <c r="D37" t="s">
         <v>23</v>
@@ -2696,127 +2849,109 @@
         <v>22</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H37">
-        <v>24450</v>
+        <v>24800</v>
       </c>
       <c r="I37" t="s">
         <v>48</v>
       </c>
       <c r="J37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K37" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M37">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N37" s="2">
-        <v>12</v>
+        <v>177.75</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>45502</v>
+        <v>45506</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="C38" s="2">
-        <v>4192.5</v>
+        <v>999.86</v>
       </c>
       <c r="D38" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="E38" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="H38">
-        <v>24900</v>
-      </c>
-      <c r="I38" t="s">
-        <v>48</v>
-      </c>
-      <c r="J38" t="s">
-        <v>84</v>
-      </c>
-      <c r="K38" t="s">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="L38" t="s">
         <v>29</v>
       </c>
       <c r="M38">
-        <v>50</v>
+        <v>2.11</v>
       </c>
       <c r="N38" s="2">
-        <v>83.85</v>
+        <v>474.32</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>45502</v>
+        <v>45506</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="C39" s="2">
-        <v>900</v>
+        <v>999.94</v>
       </c>
       <c r="D39" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="E39" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="G39" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="H39">
-        <v>25400</v>
-      </c>
-      <c r="I39" t="s">
-        <v>48</v>
-      </c>
-      <c r="J39" t="s">
-        <v>86</v>
-      </c>
-      <c r="K39" t="s">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M39">
-        <v>100</v>
+        <v>18.61</v>
       </c>
       <c r="N39" s="2">
-        <v>9</v>
+        <v>53.74</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>45502</v>
+        <v>45505</v>
       </c>
       <c r="B40" t="s">
         <v>22</v>
       </c>
       <c r="C40" s="2">
-        <v>300</v>
+        <v>875</v>
       </c>
       <c r="D40" t="s">
         <v>23</v>
@@ -2828,39 +2963,39 @@
         <v>22</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H40">
-        <v>24450</v>
+        <v>24950</v>
       </c>
       <c r="I40" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="J40" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K40" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="L40" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M40">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="N40" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>45502</v>
+        <v>45505</v>
       </c>
       <c r="B41" t="s">
         <v>22</v>
       </c>
       <c r="C41" s="2">
-        <v>9375</v>
+        <v>320</v>
       </c>
       <c r="D41" t="s">
         <v>23</v>
@@ -2872,39 +3007,39 @@
         <v>22</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H41">
-        <v>24900</v>
+        <v>25000</v>
       </c>
       <c r="I41" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="J41" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K41" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M41">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N41" s="2">
-        <v>125</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>45502</v>
+        <v>45505</v>
       </c>
       <c r="B42" t="s">
         <v>22</v>
       </c>
       <c r="C42" s="2">
-        <v>7500</v>
+        <v>960</v>
       </c>
       <c r="D42" t="s">
         <v>23</v>
@@ -2916,39 +3051,39 @@
         <v>22</v>
       </c>
       <c r="G42" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H42">
         <v>25000</v>
       </c>
       <c r="I42" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="J42" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K42" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="L42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M42">
         <v>75</v>
       </c>
       <c r="N42" s="2">
-        <v>100</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>45502</v>
+        <v>45505</v>
       </c>
       <c r="B43" t="s">
         <v>22</v>
       </c>
       <c r="C43" s="2">
-        <v>2097.5</v>
+        <v>875</v>
       </c>
       <c r="D43" t="s">
         <v>23</v>
@@ -2960,39 +3095,39 @@
         <v>22</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H43">
-        <v>24900</v>
+        <v>25000</v>
       </c>
       <c r="I43" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="J43" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K43" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="L43" t="s">
         <v>29</v>
       </c>
       <c r="M43">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="N43" s="2">
-        <v>83.9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>45502</v>
+        <v>45505</v>
       </c>
       <c r="B44" t="s">
         <v>22</v>
       </c>
       <c r="C44" s="2">
-        <v>783.75</v>
+        <v>6.25</v>
       </c>
       <c r="D44" t="s">
         <v>23</v>
@@ -3004,39 +3139,39 @@
         <v>22</v>
       </c>
       <c r="G44" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H44">
-        <v>24450</v>
+        <v>24950</v>
       </c>
       <c r="I44" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="J44" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K44" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L44" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M44">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="N44" s="2">
-        <v>10.45</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>45502</v>
+        <v>45505</v>
       </c>
       <c r="B45" t="s">
         <v>22</v>
       </c>
       <c r="C45" s="2">
-        <v>1035</v>
+        <v>320</v>
       </c>
       <c r="D45" t="s">
         <v>23</v>
@@ -3048,39 +3183,39 @@
         <v>22</v>
       </c>
       <c r="G45" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H45">
-        <v>25400</v>
+        <v>25000</v>
       </c>
       <c r="I45" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="J45" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K45" t="s">
         <v>97</v>
       </c>
       <c r="L45" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M45">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N45" s="2">
-        <v>10.35</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>45499</v>
+        <v>45504</v>
       </c>
       <c r="B46" t="s">
         <v>22</v>
       </c>
       <c r="C46" s="2">
-        <v>7125</v>
+        <v>2471.25</v>
       </c>
       <c r="D46" t="s">
         <v>23</v>
@@ -3095,16 +3230,16 @@
         <v>25</v>
       </c>
       <c r="H46">
-        <v>24600</v>
+        <v>24950</v>
       </c>
       <c r="I46" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="J46" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K46" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="L46" t="s">
         <v>29</v>
@@ -3113,18 +3248,18 @@
         <v>25</v>
       </c>
       <c r="N46" s="2">
-        <v>285</v>
+        <v>98.85</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>45499</v>
+        <v>45504</v>
       </c>
       <c r="B47" t="s">
         <v>22</v>
       </c>
       <c r="C47" s="2">
-        <v>2653.75</v>
+        <v>2436.25</v>
       </c>
       <c r="D47" t="s">
         <v>23</v>
@@ -3136,19 +3271,19 @@
         <v>22</v>
       </c>
       <c r="G47" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H47">
-        <v>24650</v>
+        <v>25000</v>
       </c>
       <c r="I47" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="J47" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="K47" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="L47" t="s">
         <v>29</v>
@@ -3157,18 +3292,18 @@
         <v>25</v>
       </c>
       <c r="N47" s="2">
-        <v>106.15</v>
+        <v>97.45</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>45499</v>
+        <v>45504</v>
       </c>
       <c r="B48" t="s">
         <v>22</v>
       </c>
       <c r="C48" s="2">
-        <v>4767.5</v>
+        <v>2136.25</v>
       </c>
       <c r="D48" t="s">
         <v>23</v>
@@ -3183,36 +3318,36 @@
         <v>25</v>
       </c>
       <c r="H48">
-        <v>24600</v>
+        <v>24950</v>
       </c>
       <c r="I48" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="J48" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K48" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="L48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M48">
         <v>25</v>
       </c>
       <c r="N48" s="2">
-        <v>190.7</v>
+        <v>85.45</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>45499</v>
+        <v>45504</v>
       </c>
       <c r="B49" t="s">
         <v>22</v>
       </c>
       <c r="C49" s="2">
-        <v>3450</v>
+        <v>2613.75</v>
       </c>
       <c r="D49" t="s">
         <v>23</v>
@@ -3224,39 +3359,39 @@
         <v>22</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H49">
-        <v>24650</v>
+        <v>25000</v>
       </c>
       <c r="I49" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="J49" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="K49" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="L49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M49">
         <v>25</v>
       </c>
       <c r="N49" s="2">
-        <v>138</v>
+        <v>104.55</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>45496</v>
+        <v>45503</v>
       </c>
       <c r="B50" t="s">
         <v>22</v>
       </c>
       <c r="C50" s="2">
-        <v>5445</v>
+        <v>2568.75</v>
       </c>
       <c r="D50" t="s">
         <v>23</v>
@@ -3271,36 +3406,36 @@
         <v>25</v>
       </c>
       <c r="H50">
-        <v>24500</v>
+        <v>24900</v>
       </c>
       <c r="I50" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="J50" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K50" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L50" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M50">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N50" s="2">
-        <v>108.9</v>
+        <v>102.75</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>45496</v>
+        <v>45503</v>
       </c>
       <c r="B51" t="s">
         <v>22</v>
       </c>
       <c r="C51" s="2">
-        <v>2722.5</v>
+        <v>2568.75</v>
       </c>
       <c r="D51" t="s">
         <v>23</v>
@@ -3315,36 +3450,36 @@
         <v>25</v>
       </c>
       <c r="H51">
-        <v>24500</v>
+        <v>24900</v>
       </c>
       <c r="I51" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="J51" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K51" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L51" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M51">
         <v>25</v>
       </c>
       <c r="N51" s="2">
-        <v>108.9</v>
+        <v>102.75</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>45496</v>
+        <v>45503</v>
       </c>
       <c r="B52" t="s">
         <v>22</v>
       </c>
       <c r="C52" s="2">
-        <v>10265</v>
+        <v>4250</v>
       </c>
       <c r="D52" t="s">
         <v>23</v>
@@ -3356,39 +3491,39 @@
         <v>22</v>
       </c>
       <c r="G52" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H52">
-        <v>24500</v>
+        <v>24950</v>
       </c>
       <c r="I52" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="J52" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K52" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M52">
         <v>50</v>
       </c>
       <c r="N52" s="2">
-        <v>205.3</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>45496</v>
+        <v>45503</v>
       </c>
       <c r="B53" t="s">
         <v>22</v>
       </c>
       <c r="C53" s="2">
-        <v>2723.75</v>
+        <v>1400</v>
       </c>
       <c r="D53" t="s">
         <v>23</v>
@@ -3400,39 +3535,39 @@
         <v>22</v>
       </c>
       <c r="G53" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H53">
-        <v>24500</v>
+        <v>25150</v>
       </c>
       <c r="I53" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="J53" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K53" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="L53" t="s">
         <v>29</v>
       </c>
       <c r="M53">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N53" s="2">
-        <v>108.95</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>45496</v>
+        <v>45503</v>
       </c>
       <c r="B54" t="s">
         <v>22</v>
       </c>
       <c r="C54" s="2">
-        <v>10267.5</v>
+        <v>2625</v>
       </c>
       <c r="D54" t="s">
         <v>23</v>
@@ -3444,39 +3579,39 @@
         <v>22</v>
       </c>
       <c r="G54" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H54">
-        <v>24500</v>
+        <v>24950</v>
       </c>
       <c r="I54" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="J54" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K54" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="L54" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M54">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N54" s="2">
-        <v>205.35</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>45495</v>
+        <v>45503</v>
       </c>
       <c r="B55" t="s">
         <v>22</v>
       </c>
       <c r="C55" s="2">
-        <v>19020</v>
+        <v>2625</v>
       </c>
       <c r="D55" t="s">
         <v>23</v>
@@ -3488,39 +3623,39 @@
         <v>22</v>
       </c>
       <c r="G55" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H55">
-        <v>24600</v>
+        <v>24950</v>
       </c>
       <c r="I55" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="J55" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K55" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L55" t="s">
         <v>29</v>
       </c>
       <c r="M55">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N55" s="2">
-        <v>253.6</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>45495</v>
+        <v>45503</v>
       </c>
       <c r="B56" t="s">
         <v>22</v>
       </c>
       <c r="C56" s="2">
-        <v>18911.25</v>
+        <v>1435</v>
       </c>
       <c r="D56" t="s">
         <v>23</v>
@@ -3532,39 +3667,39 @@
         <v>22</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H56">
-        <v>24600</v>
+        <v>25150</v>
       </c>
       <c r="I56" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="J56" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="K56" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="L56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M56">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N56" s="2">
-        <v>252.15</v>
+        <v>28.7</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>45491</v>
+        <v>45503</v>
       </c>
       <c r="B57" t="s">
         <v>22</v>
       </c>
       <c r="C57" s="2">
-        <v>4000</v>
+        <v>5097.5</v>
       </c>
       <c r="D57" t="s">
         <v>23</v>
@@ -3579,36 +3714,36 @@
         <v>25</v>
       </c>
       <c r="H57">
-        <v>24650</v>
+        <v>24900</v>
       </c>
       <c r="I57" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="J57" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K57" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L57" t="s">
         <v>29</v>
       </c>
       <c r="M57">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N57" s="2">
-        <v>40</v>
+        <v>101.95</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>45491</v>
+        <v>45502</v>
       </c>
       <c r="B58" t="s">
         <v>22</v>
       </c>
       <c r="C58" s="2">
-        <v>8710</v>
+        <v>4950</v>
       </c>
       <c r="D58" t="s">
         <v>23</v>
@@ -3620,39 +3755,39 @@
         <v>22</v>
       </c>
       <c r="G58" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H58">
-        <v>24600</v>
+        <v>25000</v>
       </c>
       <c r="I58" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="J58" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K58" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L58" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M58">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="N58" s="2">
-        <v>87.1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>45491</v>
+        <v>45502</v>
       </c>
       <c r="B59" t="s">
         <v>22</v>
       </c>
       <c r="C59" s="2">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="D59" t="s">
         <v>23</v>
@@ -3667,36 +3802,36 @@
         <v>25</v>
       </c>
       <c r="H59">
-        <v>24650</v>
+        <v>24450</v>
       </c>
       <c r="I59" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="J59" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="K59" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="L59" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M59">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N59" s="2">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>45491</v>
+        <v>45502</v>
       </c>
       <c r="B60" t="s">
         <v>22</v>
       </c>
       <c r="C60" s="2">
-        <v>300</v>
+        <v>4192.5</v>
       </c>
       <c r="D60" t="s">
         <v>23</v>
@@ -3708,39 +3843,39 @@
         <v>22</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H60">
-        <v>24650</v>
+        <v>24900</v>
       </c>
       <c r="I60" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="J60" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K60" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M60">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N60" s="2">
-        <v>3</v>
+        <v>83.85</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>45491</v>
+        <v>45502</v>
       </c>
       <c r="B61" t="s">
         <v>22</v>
       </c>
       <c r="C61" s="2">
-        <v>2822.5</v>
+        <v>900</v>
       </c>
       <c r="D61" t="s">
         <v>23</v>
@@ -3752,39 +3887,39 @@
         <v>22</v>
       </c>
       <c r="G61" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H61">
-        <v>24650</v>
+        <v>25400</v>
       </c>
       <c r="I61" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="J61" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K61" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="L61" t="s">
         <v>29</v>
       </c>
       <c r="M61">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N61" s="2">
-        <v>56.45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>45491</v>
+        <v>45502</v>
       </c>
       <c r="B62" t="s">
         <v>22</v>
       </c>
       <c r="C62" s="2">
-        <v>4965</v>
+        <v>300</v>
       </c>
       <c r="D62" t="s">
         <v>23</v>
@@ -3799,36 +3934,36 @@
         <v>25</v>
       </c>
       <c r="H62">
-        <v>24600</v>
+        <v>24450</v>
       </c>
       <c r="I62" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="J62" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K62" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L62" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M62">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N62" s="2">
-        <v>49.65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>45491</v>
+        <v>45502</v>
       </c>
       <c r="B63" t="s">
         <v>22</v>
       </c>
       <c r="C63" s="2">
-        <v>3512.5</v>
+        <v>9375</v>
       </c>
       <c r="D63" t="s">
         <v>23</v>
@@ -3840,39 +3975,39 @@
         <v>22</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H63">
-        <v>24650</v>
+        <v>24900</v>
       </c>
       <c r="I63" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="J63" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K63" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L63" t="s">
         <v>29</v>
       </c>
       <c r="M63">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N63" s="2">
-        <v>70.25</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>45491</v>
+        <v>45502</v>
       </c>
       <c r="B64" t="s">
         <v>22</v>
       </c>
       <c r="C64" s="2">
-        <v>5100</v>
+        <v>7500</v>
       </c>
       <c r="D64" t="s">
         <v>23</v>
@@ -3884,39 +4019,39 @@
         <v>22</v>
       </c>
       <c r="G64" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H64">
-        <v>24650</v>
+        <v>25000</v>
       </c>
       <c r="I64" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="J64" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K64" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L64" t="s">
         <v>29</v>
       </c>
       <c r="M64">
+        <v>75</v>
+      </c>
+      <c r="N64" s="2">
         <v>100</v>
-      </c>
-      <c r="N64" s="2">
-        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>45491</v>
+        <v>45502</v>
       </c>
       <c r="B65" t="s">
         <v>22</v>
       </c>
       <c r="C65" s="2">
-        <v>1715</v>
+        <v>2097.5</v>
       </c>
       <c r="D65" t="s">
         <v>23</v>
@@ -3931,36 +4066,36 @@
         <v>25</v>
       </c>
       <c r="H65">
-        <v>24650</v>
+        <v>24900</v>
       </c>
       <c r="I65" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="J65" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K65" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="L65" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M65">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N65" s="2">
-        <v>17.149999999999999</v>
+        <v>83.9</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>45489</v>
+        <v>45502</v>
       </c>
       <c r="B66" t="s">
         <v>22</v>
       </c>
       <c r="C66" s="2">
-        <v>1752.5</v>
+        <v>783.75</v>
       </c>
       <c r="D66" t="s">
         <v>23</v>
@@ -3975,36 +4110,36 @@
         <v>25</v>
       </c>
       <c r="H66">
-        <v>24650</v>
+        <v>24450</v>
       </c>
       <c r="I66" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="J66" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K66" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L66" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M66">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N66" s="2">
-        <v>70.099999999999994</v>
+        <v>10.45</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>45489</v>
+        <v>45502</v>
       </c>
       <c r="B67" t="s">
         <v>22</v>
       </c>
       <c r="C67" s="2">
-        <v>1941.25</v>
+        <v>1035</v>
       </c>
       <c r="D67" t="s">
         <v>23</v>
@@ -4016,39 +4151,39 @@
         <v>22</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H67">
-        <v>24650</v>
+        <v>25400</v>
       </c>
       <c r="I67" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="J67" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K67" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M67">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N67" s="2">
-        <v>77.650000000000006</v>
+        <v>10.35</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>45489</v>
+        <v>45499</v>
       </c>
       <c r="B68" t="s">
         <v>22</v>
       </c>
       <c r="C68" s="2">
-        <v>1942.5</v>
+        <v>7125</v>
       </c>
       <c r="D68" t="s">
         <v>23</v>
@@ -4060,39 +4195,39 @@
         <v>22</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H68">
-        <v>24650</v>
+        <v>24600</v>
       </c>
       <c r="I68" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="J68" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K68" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="L68" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M68">
         <v>25</v>
       </c>
       <c r="N68" s="2">
-        <v>77.7</v>
+        <v>285</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>45489</v>
+        <v>45499</v>
       </c>
       <c r="B69" t="s">
         <v>22</v>
       </c>
       <c r="C69" s="2">
-        <v>1751.25</v>
+        <v>2653.75</v>
       </c>
       <c r="D69" t="s">
         <v>23</v>
@@ -4110,33 +4245,33 @@
         <v>24650</v>
       </c>
       <c r="I69" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="J69" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K69" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="L69" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M69">
         <v>25</v>
       </c>
       <c r="N69" s="2">
-        <v>70.05</v>
+        <v>106.15</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>45488</v>
+        <v>45499</v>
       </c>
       <c r="B70" t="s">
         <v>22</v>
       </c>
       <c r="C70" s="2">
-        <v>5787.5</v>
+        <v>4767.5</v>
       </c>
       <c r="D70" t="s">
         <v>23</v>
@@ -4148,39 +4283,39 @@
         <v>22</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H70">
-        <v>24650</v>
+        <v>24600</v>
       </c>
       <c r="I70" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="J70" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="K70" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="L70" t="s">
         <v>29</v>
       </c>
       <c r="M70">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N70" s="2">
-        <v>115.75</v>
+        <v>190.7</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>45488</v>
+        <v>45499</v>
       </c>
       <c r="B71" t="s">
         <v>22</v>
       </c>
       <c r="C71" s="2">
-        <v>5762.5</v>
+        <v>3450</v>
       </c>
       <c r="D71" t="s">
         <v>23</v>
@@ -4192,39 +4327,39 @@
         <v>22</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H71">
         <v>24650</v>
       </c>
       <c r="I71" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="J71" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="K71" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="L71" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M71">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N71" s="2">
-        <v>115.25</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>45484</v>
+        <v>45496</v>
       </c>
       <c r="B72" t="s">
         <v>22</v>
       </c>
       <c r="C72" s="2">
-        <v>1601.25</v>
+        <v>5445</v>
       </c>
       <c r="D72" t="s">
         <v>23</v>
@@ -4236,39 +4371,39 @@
         <v>22</v>
       </c>
       <c r="G72" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H72">
-        <v>24350</v>
+        <v>24500</v>
       </c>
       <c r="I72" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="J72" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="K72" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="L72" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M72">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N72" s="2">
-        <v>21.35</v>
+        <v>108.9</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>45484</v>
+        <v>45496</v>
       </c>
       <c r="B73" t="s">
         <v>22</v>
       </c>
       <c r="C73" s="2">
-        <v>4000</v>
+        <v>2722.5</v>
       </c>
       <c r="D73" t="s">
         <v>23</v>
@@ -4280,39 +4415,39 @@
         <v>22</v>
       </c>
       <c r="G73" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H73">
-        <v>24350</v>
+        <v>24500</v>
       </c>
       <c r="I73" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="J73" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="K73" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M73">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N73" s="2">
-        <v>40</v>
+        <v>108.9</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>45484</v>
+        <v>45496</v>
       </c>
       <c r="B74" t="s">
         <v>22</v>
       </c>
       <c r="C74" s="2">
-        <v>107.5</v>
+        <v>10265</v>
       </c>
       <c r="D74" t="s">
         <v>23</v>
@@ -4324,39 +4459,39 @@
         <v>22</v>
       </c>
       <c r="G74" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H74">
-        <v>24400</v>
+        <v>24500</v>
       </c>
       <c r="I74" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="J74" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K74" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L74" t="s">
         <v>29</v>
       </c>
       <c r="M74">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N74" s="2">
-        <v>4.3</v>
+        <v>205.3</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>45484</v>
+        <v>45496</v>
       </c>
       <c r="B75" t="s">
         <v>22</v>
       </c>
       <c r="C75" s="2">
-        <v>351.25</v>
+        <v>2723.75</v>
       </c>
       <c r="D75" t="s">
         <v>23</v>
@@ -4368,39 +4503,39 @@
         <v>22</v>
       </c>
       <c r="G75" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H75">
-        <v>24300</v>
+        <v>24500</v>
       </c>
       <c r="I75" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="J75" t="s">
+        <v>157</v>
+      </c>
+      <c r="K75" t="s">
         <v>153</v>
       </c>
-      <c r="K75" t="s">
-        <v>152</v>
-      </c>
       <c r="L75" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M75">
         <v>25</v>
       </c>
       <c r="N75" s="2">
-        <v>14.05</v>
+        <v>108.95</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>45484</v>
+        <v>45496</v>
       </c>
       <c r="B76" t="s">
         <v>22</v>
       </c>
       <c r="C76" s="2">
-        <v>62.5</v>
+        <v>10267.5</v>
       </c>
       <c r="D76" t="s">
         <v>23</v>
@@ -4412,39 +4547,39 @@
         <v>22</v>
       </c>
       <c r="G76" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H76">
-        <v>24400</v>
+        <v>24500</v>
       </c>
       <c r="I76" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="J76" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K76" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L76" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M76">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N76" s="2">
-        <v>2.5</v>
+        <v>205.35</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>45484</v>
+        <v>45495</v>
       </c>
       <c r="B77" t="s">
         <v>22</v>
       </c>
       <c r="C77" s="2">
-        <v>2668.75</v>
+        <v>19020</v>
       </c>
       <c r="D77" t="s">
         <v>23</v>
@@ -4459,36 +4594,36 @@
         <v>25</v>
       </c>
       <c r="H77">
-        <v>24350</v>
+        <v>24600</v>
       </c>
       <c r="I77" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="J77" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K77" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="L77" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M77">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="N77" s="2">
-        <v>21.35</v>
+        <v>253.6</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>45484</v>
+        <v>45495</v>
       </c>
       <c r="B78" t="s">
         <v>22</v>
       </c>
       <c r="C78" s="2">
-        <v>498.75</v>
+        <v>18911.25</v>
       </c>
       <c r="D78" t="s">
         <v>23</v>
@@ -4503,36 +4638,36 @@
         <v>25</v>
       </c>
       <c r="H78">
-        <v>24300</v>
+        <v>24600</v>
       </c>
       <c r="I78" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="J78" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K78" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L78" t="s">
         <v>29</v>
       </c>
       <c r="M78">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N78" s="2">
-        <v>19.95</v>
+        <v>252.15</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>45484</v>
+        <v>45491</v>
       </c>
       <c r="B79" t="s">
         <v>22</v>
       </c>
       <c r="C79" s="2">
-        <v>1493.75</v>
+        <v>4000</v>
       </c>
       <c r="D79" t="s">
         <v>23</v>
@@ -4544,39 +4679,39 @@
         <v>22</v>
       </c>
       <c r="G79" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H79">
-        <v>24350</v>
+        <v>24650</v>
       </c>
       <c r="I79" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="J79" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="K79" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L79" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M79">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N79" s="2">
-        <v>59.75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>45484</v>
+        <v>45491</v>
       </c>
       <c r="B80" t="s">
         <v>22</v>
       </c>
       <c r="C80" s="2">
-        <v>2987.5</v>
+        <v>8710</v>
       </c>
       <c r="D80" t="s">
         <v>23</v>
@@ -4588,39 +4723,39 @@
         <v>22</v>
       </c>
       <c r="G80" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H80">
-        <v>24350</v>
+        <v>24600</v>
       </c>
       <c r="I80" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="J80" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="K80" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="L80" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M80">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N80" s="2">
-        <v>59.75</v>
+        <v>87.1</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>45484</v>
+        <v>45491</v>
       </c>
       <c r="B81" t="s">
         <v>22</v>
       </c>
       <c r="C81" s="2">
-        <v>1493.75</v>
+        <v>5000</v>
       </c>
       <c r="D81" t="s">
         <v>23</v>
@@ -4632,39 +4767,39 @@
         <v>22</v>
       </c>
       <c r="G81" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H81">
-        <v>24350</v>
+        <v>24650</v>
       </c>
       <c r="I81" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="J81" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="K81" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L81" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M81">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N81" s="2">
-        <v>59.75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>45483</v>
+        <v>45491</v>
       </c>
       <c r="B82" t="s">
         <v>22</v>
       </c>
       <c r="C82" s="2">
-        <v>13792.5</v>
+        <v>300</v>
       </c>
       <c r="D82" t="s">
         <v>23</v>
@@ -4679,36 +4814,36 @@
         <v>25</v>
       </c>
       <c r="H82">
-        <v>24100</v>
+        <v>24650</v>
       </c>
       <c r="I82" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="J82" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="K82" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="L82" t="s">
         <v>29</v>
       </c>
       <c r="M82">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="N82" s="2">
-        <v>183.9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>45483</v>
+        <v>45491</v>
       </c>
       <c r="B83" t="s">
         <v>22</v>
       </c>
       <c r="C83" s="2">
-        <v>16700</v>
+        <v>2822.5</v>
       </c>
       <c r="D83" t="s">
         <v>23</v>
@@ -4720,39 +4855,39 @@
         <v>22</v>
       </c>
       <c r="G83" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H83">
-        <v>24100</v>
+        <v>24650</v>
       </c>
       <c r="I83" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="J83" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="K83" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="L83" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M83">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N83" s="2">
-        <v>167</v>
+        <v>56.45</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>45483</v>
+        <v>45491</v>
       </c>
       <c r="B84" t="s">
         <v>22</v>
       </c>
       <c r="C84" s="2">
-        <v>4596.25</v>
+        <v>4965</v>
       </c>
       <c r="D84" t="s">
         <v>23</v>
@@ -4764,39 +4899,39 @@
         <v>22</v>
       </c>
       <c r="G84" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H84">
-        <v>24100</v>
+        <v>24600</v>
       </c>
       <c r="I84" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="J84" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="K84" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="L84" t="s">
         <v>29</v>
       </c>
       <c r="M84">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N84" s="2">
-        <v>183.85</v>
+        <v>49.65</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>45482</v>
+        <v>45491</v>
       </c>
       <c r="B85" t="s">
         <v>22</v>
       </c>
       <c r="C85" s="2">
-        <v>6041.25</v>
+        <v>3512.5</v>
       </c>
       <c r="D85" t="s">
         <v>23</v>
@@ -4808,39 +4943,39 @@
         <v>22</v>
       </c>
       <c r="G85" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H85">
-        <v>24350</v>
+        <v>24650</v>
       </c>
       <c r="I85" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="J85" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="K85" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="L85" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M85">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N85" s="2">
-        <v>80.55</v>
+        <v>70.25</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>45482</v>
+        <v>45491</v>
       </c>
       <c r="B86" t="s">
         <v>22</v>
       </c>
       <c r="C86" s="2">
-        <v>3437.5</v>
+        <v>5100</v>
       </c>
       <c r="D86" t="s">
         <v>23</v>
@@ -4852,39 +4987,39 @@
         <v>22</v>
       </c>
       <c r="G86" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H86">
-        <v>24300</v>
+        <v>24650</v>
       </c>
       <c r="I86" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="J86" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="K86" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="L86" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M86">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N86" s="2">
-        <v>137.5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>45482</v>
+        <v>45491</v>
       </c>
       <c r="B87" t="s">
         <v>22</v>
       </c>
       <c r="C87" s="2">
-        <v>5855</v>
+        <v>1715</v>
       </c>
       <c r="D87" t="s">
         <v>23</v>
@@ -4896,39 +5031,39 @@
         <v>22</v>
       </c>
       <c r="G87" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H87">
-        <v>24400</v>
+        <v>24650</v>
       </c>
       <c r="I87" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="J87" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="K87" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="L87" t="s">
         <v>29</v>
       </c>
       <c r="M87">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N87" s="2">
-        <v>117.1</v>
+        <v>17.149999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>45482</v>
+        <v>45489</v>
       </c>
       <c r="B88" t="s">
         <v>22</v>
       </c>
       <c r="C88" s="2">
-        <v>2225</v>
+        <v>1752.5</v>
       </c>
       <c r="D88" t="s">
         <v>23</v>
@@ -4940,39 +5075,39 @@
         <v>22</v>
       </c>
       <c r="G88" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H88">
-        <v>24400</v>
+        <v>24650</v>
       </c>
       <c r="I88" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="J88" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="K88" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="L88" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M88">
         <v>25</v>
       </c>
       <c r="N88" s="2">
-        <v>89</v>
+        <v>70.099999999999994</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>45482</v>
+        <v>45489</v>
       </c>
       <c r="B89" t="s">
         <v>22</v>
       </c>
       <c r="C89" s="2">
-        <v>8030</v>
+        <v>1941.25</v>
       </c>
       <c r="D89" t="s">
         <v>23</v>
@@ -4984,39 +5119,39 @@
         <v>22</v>
       </c>
       <c r="G89" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H89">
-        <v>24350</v>
+        <v>24650</v>
       </c>
       <c r="I89" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="J89" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="K89" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="L89" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M89">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N89" s="2">
-        <v>80.3</v>
+        <v>77.650000000000006</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>45482</v>
+        <v>45489</v>
       </c>
       <c r="B90" t="s">
         <v>22</v>
       </c>
       <c r="C90" s="2">
-        <v>2013.75</v>
+        <v>1942.5</v>
       </c>
       <c r="D90" t="s">
         <v>23</v>
@@ -5028,19 +5163,19 @@
         <v>22</v>
       </c>
       <c r="G90" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H90">
-        <v>24350</v>
+        <v>24650</v>
       </c>
       <c r="I90" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="J90" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="K90" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="L90" t="s">
         <v>29</v>
@@ -5049,18 +5184,18 @@
         <v>25</v>
       </c>
       <c r="N90" s="2">
-        <v>80.55</v>
+        <v>77.7</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>45482</v>
+        <v>45489</v>
       </c>
       <c r="B91" t="s">
         <v>22</v>
       </c>
       <c r="C91" s="2">
-        <v>14545</v>
+        <v>1751.25</v>
       </c>
       <c r="D91" t="s">
         <v>23</v>
@@ -5072,39 +5207,39 @@
         <v>22</v>
       </c>
       <c r="G91" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H91">
-        <v>24300</v>
+        <v>24650</v>
       </c>
       <c r="I91" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="J91" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="K91" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L91" t="s">
         <v>29</v>
       </c>
       <c r="M91">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N91" s="2">
-        <v>145.44999999999999</v>
+        <v>70.05</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>45482</v>
+        <v>45488</v>
       </c>
       <c r="B92" t="s">
         <v>22</v>
       </c>
       <c r="C92" s="2">
-        <v>3436.25</v>
+        <v>5787.5</v>
       </c>
       <c r="D92" t="s">
         <v>23</v>
@@ -5119,36 +5254,36 @@
         <v>25</v>
       </c>
       <c r="H92">
-        <v>24300</v>
+        <v>24650</v>
       </c>
       <c r="I92" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="J92" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="K92" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="L92" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M92">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N92" s="2">
-        <v>137.44999999999999</v>
+        <v>115.75</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>45482</v>
+        <v>45488</v>
       </c>
       <c r="B93" t="s">
         <v>22</v>
       </c>
       <c r="C93" s="2">
-        <v>11710</v>
+        <v>5762.5</v>
       </c>
       <c r="D93" t="s">
         <v>23</v>
@@ -5163,36 +5298,36 @@
         <v>25</v>
       </c>
       <c r="H93">
-        <v>24400</v>
+        <v>24650</v>
       </c>
       <c r="I93" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="J93" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="K93" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="L93" t="s">
         <v>29</v>
       </c>
       <c r="M93">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N93" s="2">
-        <v>117.1</v>
+        <v>115.25</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>45482</v>
+        <v>45484</v>
       </c>
       <c r="B94" t="s">
         <v>22</v>
       </c>
       <c r="C94" s="2">
-        <v>14000</v>
+        <v>1601.25</v>
       </c>
       <c r="D94" t="s">
         <v>23</v>
@@ -5204,39 +5339,39 @@
         <v>22</v>
       </c>
       <c r="G94" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H94">
-        <v>24300</v>
+        <v>24350</v>
       </c>
       <c r="I94" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="J94" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="K94" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="L94" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M94">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="N94" s="2">
-        <v>140</v>
+        <v>21.35</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>45482</v>
+        <v>45484</v>
       </c>
       <c r="B95" t="s">
         <v>22</v>
       </c>
       <c r="C95" s="2">
-        <v>11125</v>
+        <v>4000</v>
       </c>
       <c r="D95" t="s">
         <v>23</v>
@@ -5248,39 +5383,39 @@
         <v>22</v>
       </c>
       <c r="G95" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H95">
-        <v>24400</v>
+        <v>24350</v>
       </c>
       <c r="I95" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="J95" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="K95" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="L95" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M95">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="N95" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>45482</v>
+        <v>45484</v>
       </c>
       <c r="B96" t="s">
         <v>22</v>
       </c>
       <c r="C96" s="2">
-        <v>6877.5</v>
+        <v>107.5</v>
       </c>
       <c r="D96" t="s">
         <v>23</v>
@@ -5292,39 +5427,39 @@
         <v>22</v>
       </c>
       <c r="G96" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H96">
-        <v>24300</v>
+        <v>24400</v>
       </c>
       <c r="I96" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="J96" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="K96" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="L96" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M96">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N96" s="2">
-        <v>137.55000000000001</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="B97" t="s">
         <v>22</v>
       </c>
       <c r="C97" s="2">
-        <v>12000</v>
+        <v>351.25</v>
       </c>
       <c r="D97" t="s">
         <v>23</v>
@@ -5336,39 +5471,39 @@
         <v>22</v>
       </c>
       <c r="G97" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H97">
         <v>24300</v>
       </c>
       <c r="I97" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="J97" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="K97" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="L97" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M97">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N97" s="2">
-        <v>120</v>
+        <v>14.05</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>45478</v>
+        <v>45484</v>
       </c>
       <c r="B98" t="s">
         <v>22</v>
       </c>
       <c r="C98" s="2">
-        <v>6000</v>
+        <v>62.5</v>
       </c>
       <c r="D98" t="s">
         <v>23</v>
@@ -5380,39 +5515,39 @@
         <v>22</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H98">
-        <v>24300</v>
+        <v>24400</v>
       </c>
       <c r="I98" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="J98" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="K98" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="L98" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M98">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N98" s="2">
-        <v>120</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>45478</v>
+        <v>45484</v>
       </c>
       <c r="B99" t="s">
         <v>22</v>
       </c>
       <c r="C99" s="2">
-        <v>3028.75</v>
+        <v>2668.75</v>
       </c>
       <c r="D99" t="s">
         <v>23</v>
@@ -5424,39 +5559,39 @@
         <v>22</v>
       </c>
       <c r="G99" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H99">
-        <v>24300</v>
+        <v>24350</v>
       </c>
       <c r="I99" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="J99" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="K99" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L99" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M99">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="N99" s="2">
-        <v>121.15</v>
+        <v>21.35</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>45478</v>
+        <v>45484</v>
       </c>
       <c r="B100" t="s">
         <v>22</v>
       </c>
       <c r="C100" s="2">
-        <v>9250</v>
+        <v>498.75</v>
       </c>
       <c r="D100" t="s">
         <v>23</v>
@@ -5468,39 +5603,39 @@
         <v>22</v>
       </c>
       <c r="G100" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H100">
-        <v>24250</v>
+        <v>24300</v>
       </c>
       <c r="I100" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="J100" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K100" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="L100" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M100">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N100" s="2">
-        <v>185</v>
+        <v>19.95</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <v>45478</v>
+        <v>45484</v>
       </c>
       <c r="B101" t="s">
         <v>22</v>
       </c>
       <c r="C101" s="2">
-        <v>3028.75</v>
+        <v>1493.75</v>
       </c>
       <c r="D101" t="s">
         <v>23</v>
@@ -5512,19 +5647,19 @@
         <v>22</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H101">
-        <v>24300</v>
+        <v>24350</v>
       </c>
       <c r="I101" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="J101" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="K101" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="L101" t="s">
         <v>29</v>
@@ -5533,18 +5668,18 @@
         <v>25</v>
       </c>
       <c r="N101" s="2">
-        <v>121.15</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
-        <v>45478</v>
+        <v>45484</v>
       </c>
       <c r="B102" t="s">
         <v>22</v>
       </c>
       <c r="C102" s="2">
-        <v>8812.5</v>
+        <v>2987.5</v>
       </c>
       <c r="D102" t="s">
         <v>23</v>
@@ -5556,19 +5691,19 @@
         <v>22</v>
       </c>
       <c r="G102" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H102">
-        <v>24200</v>
+        <v>24350</v>
       </c>
       <c r="I102" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="J102" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="K102" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="L102" t="s">
         <v>29</v>
@@ -5577,18 +5712,18 @@
         <v>50</v>
       </c>
       <c r="N102" s="2">
-        <v>176.25</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <v>45478</v>
+        <v>45484</v>
       </c>
       <c r="B103" t="s">
         <v>22</v>
       </c>
       <c r="C103" s="2">
-        <v>2978.75</v>
+        <v>1493.75</v>
       </c>
       <c r="D103" t="s">
         <v>23</v>
@@ -5600,39 +5735,39 @@
         <v>22</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H103">
-        <v>24300</v>
+        <v>24350</v>
       </c>
       <c r="I103" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="J103" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="K103" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="L103" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M103">
         <v>25</v>
       </c>
       <c r="N103" s="2">
-        <v>119.15</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
-        <v>45478</v>
+        <v>45483</v>
       </c>
       <c r="B104" t="s">
         <v>22</v>
       </c>
       <c r="C104" s="2">
-        <v>6057.5</v>
+        <v>13792.5</v>
       </c>
       <c r="D104" t="s">
         <v>23</v>
@@ -5644,39 +5779,39 @@
         <v>22</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H104">
-        <v>24300</v>
+        <v>24100</v>
       </c>
       <c r="I104" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="J104" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="K104" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="L104" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M104">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N104" s="2">
-        <v>121.15</v>
+        <v>183.9</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
-        <v>45478</v>
+        <v>45483</v>
       </c>
       <c r="B105" t="s">
         <v>22</v>
       </c>
       <c r="C105" s="2">
-        <v>8415</v>
+        <v>16700</v>
       </c>
       <c r="D105" t="s">
         <v>23</v>
@@ -5688,39 +5823,39 @@
         <v>22</v>
       </c>
       <c r="G105" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H105">
-        <v>24200</v>
+        <v>24100</v>
       </c>
       <c r="I105" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="J105" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="K105" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="L105" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M105">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N105" s="2">
-        <v>168.3</v>
+        <v>167</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
-        <v>45478</v>
+        <v>45483</v>
       </c>
       <c r="B106" t="s">
         <v>22</v>
       </c>
       <c r="C106" s="2">
-        <v>1258.75</v>
+        <v>4596.25</v>
       </c>
       <c r="D106" t="s">
         <v>23</v>
@@ -5732,39 +5867,39 @@
         <v>22</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H106">
-        <v>24000</v>
+        <v>24100</v>
       </c>
       <c r="I106" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="J106" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="K106" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="L106" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M106">
         <v>25</v>
       </c>
       <c r="N106" s="2">
-        <v>50.35</v>
+        <v>183.85</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
-        <v>45478</v>
+        <v>45482</v>
       </c>
       <c r="B107" t="s">
         <v>22</v>
       </c>
       <c r="C107" s="2">
-        <v>4625</v>
+        <v>6041.25</v>
       </c>
       <c r="D107" t="s">
         <v>23</v>
@@ -5779,36 +5914,36 @@
         <v>25</v>
       </c>
       <c r="H107">
-        <v>24250</v>
+        <v>24350</v>
       </c>
       <c r="I107" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="J107" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="K107" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="L107" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M107">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N107" s="2">
-        <v>185</v>
+        <v>80.55</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
-        <v>45478</v>
+        <v>45482</v>
       </c>
       <c r="B108" t="s">
         <v>22</v>
       </c>
       <c r="C108" s="2">
-        <v>2978.75</v>
+        <v>3437.5</v>
       </c>
       <c r="D108" t="s">
         <v>23</v>
@@ -5820,39 +5955,39 @@
         <v>22</v>
       </c>
       <c r="G108" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H108">
         <v>24300</v>
       </c>
       <c r="I108" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="J108" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="K108" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="L108" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M108">
         <v>25</v>
       </c>
       <c r="N108" s="2">
-        <v>119.15</v>
+        <v>137.5</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
-        <v>45478</v>
+        <v>45482</v>
       </c>
       <c r="B109" t="s">
         <v>22</v>
       </c>
       <c r="C109" s="2">
-        <v>12195</v>
+        <v>5855</v>
       </c>
       <c r="D109" t="s">
         <v>23</v>
@@ -5864,39 +5999,39 @@
         <v>22</v>
       </c>
       <c r="G109" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H109">
-        <v>24250</v>
+        <v>24400</v>
       </c>
       <c r="I109" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="J109" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="K109" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="L109" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M109">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N109" s="2">
-        <v>162.6</v>
+        <v>117.1</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
-        <v>45478</v>
+        <v>45482</v>
       </c>
       <c r="B110" t="s">
         <v>22</v>
       </c>
       <c r="C110" s="2">
-        <v>1437.5</v>
+        <v>2225</v>
       </c>
       <c r="D110" t="s">
         <v>23</v>
@@ -5908,19 +6043,19 @@
         <v>22</v>
       </c>
       <c r="G110" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H110">
-        <v>24000</v>
+        <v>24400</v>
       </c>
       <c r="I110" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="J110" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="K110" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="L110" t="s">
         <v>29</v>
@@ -5929,18 +6064,18 @@
         <v>25</v>
       </c>
       <c r="N110" s="2">
-        <v>57.5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
-        <v>45477</v>
+        <v>45482</v>
       </c>
       <c r="B111" t="s">
         <v>22</v>
       </c>
       <c r="C111" s="2">
-        <v>1317.5</v>
+        <v>8030</v>
       </c>
       <c r="D111" t="s">
         <v>23</v>
@@ -5955,36 +6090,36 @@
         <v>25</v>
       </c>
       <c r="H111">
-        <v>24300</v>
+        <v>24350</v>
       </c>
       <c r="I111" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="J111" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="K111" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="L111" t="s">
         <v>29</v>
       </c>
       <c r="M111">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N111" s="2">
-        <v>52.7</v>
+        <v>80.3</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
-        <v>45477</v>
+        <v>45482</v>
       </c>
       <c r="B112" t="s">
         <v>22</v>
       </c>
       <c r="C112" s="2">
-        <v>1250</v>
+        <v>2013.75</v>
       </c>
       <c r="D112" t="s">
         <v>23</v>
@@ -5999,36 +6134,36 @@
         <v>25</v>
       </c>
       <c r="H112">
-        <v>24300</v>
+        <v>24350</v>
       </c>
       <c r="I112" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="J112" t="s">
+        <v>223</v>
+      </c>
+      <c r="K112" t="s">
         <v>214</v>
       </c>
-      <c r="K112" t="s">
-        <v>215</v>
-      </c>
       <c r="L112" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M112">
         <v>25</v>
       </c>
       <c r="N112" s="2">
-        <v>50</v>
+        <v>80.55</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
-        <v>45476</v>
+        <v>45482</v>
       </c>
       <c r="B113" t="s">
         <v>22</v>
       </c>
       <c r="C113" s="2">
-        <v>10455</v>
+        <v>14545</v>
       </c>
       <c r="D113" t="s">
         <v>23</v>
@@ -6040,39 +6175,39 @@
         <v>22</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H113">
-        <v>24250</v>
+        <v>24300</v>
       </c>
       <c r="I113" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="J113" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="K113" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="L113" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M113">
         <v>100</v>
       </c>
       <c r="N113" s="2">
-        <v>104.55</v>
+        <v>145.44999999999999</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
-        <v>45476</v>
+        <v>45482</v>
       </c>
       <c r="B114" t="s">
         <v>22</v>
       </c>
       <c r="C114" s="2">
-        <v>1412.5</v>
+        <v>3436.25</v>
       </c>
       <c r="D114" t="s">
         <v>23</v>
@@ -6084,39 +6219,39 @@
         <v>22</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H114">
-        <v>24250</v>
+        <v>24300</v>
       </c>
       <c r="I114" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="J114" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="K114" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L114" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M114">
         <v>25</v>
       </c>
       <c r="N114" s="2">
-        <v>56.5</v>
+        <v>137.44999999999999</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
-        <v>45476</v>
+        <v>45482</v>
       </c>
       <c r="B115" t="s">
         <v>22</v>
       </c>
       <c r="C115" s="2">
-        <v>3150</v>
+        <v>11710</v>
       </c>
       <c r="D115" t="s">
         <v>23</v>
@@ -6128,39 +6263,39 @@
         <v>22</v>
       </c>
       <c r="G115" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H115">
-        <v>24250</v>
+        <v>24400</v>
       </c>
       <c r="I115" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="J115" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="K115" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L115" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M115">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N115" s="2">
-        <v>63</v>
+        <v>117.1</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
-        <v>45476</v>
+        <v>45482</v>
       </c>
       <c r="B116" t="s">
         <v>22</v>
       </c>
       <c r="C116" s="2">
-        <v>1412.5</v>
+        <v>14000</v>
       </c>
       <c r="D116" t="s">
         <v>23</v>
@@ -6172,39 +6307,39 @@
         <v>22</v>
       </c>
       <c r="G116" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H116">
-        <v>24250</v>
+        <v>24300</v>
       </c>
       <c r="I116" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="J116" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="K116" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="L116" t="s">
         <v>29</v>
       </c>
       <c r="M116">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N116" s="2">
-        <v>56.5</v>
+        <v>140</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
-        <v>45476</v>
+        <v>45482</v>
       </c>
       <c r="B117" t="s">
         <v>22</v>
       </c>
       <c r="C117" s="2">
-        <v>1412.5</v>
+        <v>11125</v>
       </c>
       <c r="D117" t="s">
         <v>23</v>
@@ -6216,39 +6351,39 @@
         <v>22</v>
       </c>
       <c r="G117" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H117">
-        <v>24250</v>
+        <v>24400</v>
       </c>
       <c r="I117" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="J117" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="K117" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L117" t="s">
         <v>29</v>
       </c>
       <c r="M117">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="N117" s="2">
-        <v>56.5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
-        <v>45476</v>
+        <v>45482</v>
       </c>
       <c r="B118" t="s">
         <v>22</v>
       </c>
       <c r="C118" s="2">
-        <v>1412.5</v>
+        <v>6877.5</v>
       </c>
       <c r="D118" t="s">
         <v>23</v>
@@ -6260,39 +6395,39 @@
         <v>22</v>
       </c>
       <c r="G118" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H118">
-        <v>24250</v>
+        <v>24300</v>
       </c>
       <c r="I118" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="J118" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="K118" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L118" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M118">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N118" s="2">
-        <v>56.5</v>
+        <v>137.55000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
-        <v>45476</v>
+        <v>45481</v>
       </c>
       <c r="B119" t="s">
         <v>22</v>
       </c>
       <c r="C119" s="2">
-        <v>1412.5</v>
+        <v>12000</v>
       </c>
       <c r="D119" t="s">
         <v>23</v>
@@ -6304,39 +6439,39 @@
         <v>22</v>
       </c>
       <c r="G119" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H119">
-        <v>24250</v>
+        <v>24300</v>
       </c>
       <c r="I119" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="J119" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="K119" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="L119" t="s">
         <v>29</v>
       </c>
       <c r="M119">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N119" s="2">
-        <v>56.5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
-        <v>45476</v>
+        <v>45478</v>
       </c>
       <c r="B120" t="s">
         <v>22</v>
       </c>
       <c r="C120" s="2">
-        <v>1412.5</v>
+        <v>6000</v>
       </c>
       <c r="D120" t="s">
         <v>23</v>
@@ -6348,39 +6483,39 @@
         <v>22</v>
       </c>
       <c r="G120" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H120">
-        <v>24250</v>
+        <v>24300</v>
       </c>
       <c r="I120" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="J120" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="K120" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="L120" t="s">
         <v>29</v>
       </c>
       <c r="M120">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N120" s="2">
-        <v>56.5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
-        <v>45475</v>
+        <v>45478</v>
       </c>
       <c r="B121" t="s">
         <v>22</v>
       </c>
       <c r="C121" s="2">
-        <v>5027.5</v>
+        <v>3028.75</v>
       </c>
       <c r="D121" t="s">
         <v>23</v>
@@ -6395,36 +6530,36 @@
         <v>25</v>
       </c>
       <c r="H121">
-        <v>24000</v>
+        <v>24300</v>
       </c>
       <c r="I121" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="J121" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="K121" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="L121" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M121">
         <v>25</v>
       </c>
       <c r="N121" s="2">
-        <v>201.1</v>
+        <v>121.15</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
-        <v>45475</v>
+        <v>45478</v>
       </c>
       <c r="B122" t="s">
         <v>22</v>
       </c>
       <c r="C122" s="2">
-        <v>3508.75</v>
+        <v>9250</v>
       </c>
       <c r="D122" t="s">
         <v>23</v>
@@ -6436,39 +6571,39 @@
         <v>22</v>
       </c>
       <c r="G122" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H122">
-        <v>24150</v>
+        <v>24250</v>
       </c>
       <c r="I122" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="J122" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="K122" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="L122" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M122">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N122" s="2">
-        <v>140.35</v>
+        <v>185</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
-        <v>45475</v>
+        <v>45478</v>
       </c>
       <c r="B123" t="s">
         <v>22</v>
       </c>
       <c r="C123" s="2">
-        <v>3125</v>
+        <v>3028.75</v>
       </c>
       <c r="D123" t="s">
         <v>23</v>
@@ -6480,39 +6615,39 @@
         <v>22</v>
       </c>
       <c r="G123" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H123">
-        <v>24150</v>
+        <v>24300</v>
       </c>
       <c r="I123" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="J123" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="K123" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="L123" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M123">
         <v>25</v>
       </c>
       <c r="N123" s="2">
-        <v>125</v>
+        <v>121.15</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
-        <v>45475</v>
+        <v>45478</v>
       </c>
       <c r="B124" t="s">
         <v>22</v>
       </c>
       <c r="C124" s="2">
-        <v>18155</v>
+        <v>8812.5</v>
       </c>
       <c r="D124" t="s">
         <v>23</v>
@@ -6524,39 +6659,39 @@
         <v>22</v>
       </c>
       <c r="G124" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H124">
-        <v>24000</v>
+        <v>24200</v>
       </c>
       <c r="I124" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="J124" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="K124" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="L124" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M124">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N124" s="2">
-        <v>181.55</v>
+        <v>176.25</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
-        <v>45475</v>
+        <v>45478</v>
       </c>
       <c r="B125" t="s">
         <v>22</v>
       </c>
       <c r="C125" s="2">
-        <v>5027.5</v>
+        <v>2978.75</v>
       </c>
       <c r="D125" t="s">
         <v>23</v>
@@ -6571,16 +6706,16 @@
         <v>25</v>
       </c>
       <c r="H125">
-        <v>24000</v>
+        <v>24300</v>
       </c>
       <c r="I125" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="J125" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="K125" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="L125" t="s">
         <v>29</v>
@@ -6589,18 +6724,18 @@
         <v>25</v>
       </c>
       <c r="N125" s="2">
-        <v>201.1</v>
+        <v>119.15</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
-        <v>45475</v>
+        <v>45478</v>
       </c>
       <c r="B126" t="s">
         <v>22</v>
       </c>
       <c r="C126" s="2">
-        <v>10052.5</v>
+        <v>6057.5</v>
       </c>
       <c r="D126" t="s">
         <v>23</v>
@@ -6615,106 +6750,124 @@
         <v>25</v>
       </c>
       <c r="H126">
-        <v>24000</v>
+        <v>24300</v>
       </c>
       <c r="I126" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="J126" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="K126" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="L126" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M126">
         <v>50</v>
       </c>
       <c r="N126" s="2">
-        <v>201.05</v>
+        <v>121.15</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
-        <v>45475</v>
+        <v>45478</v>
       </c>
       <c r="B127" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C127" s="2">
-        <v>999.89</v>
+        <v>8415</v>
       </c>
       <c r="D127" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E127" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="F127" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="G127" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>24200</v>
+      </c>
+      <c r="I127" t="s">
+        <v>191</v>
+      </c>
+      <c r="J127" t="s">
+        <v>246</v>
+      </c>
+      <c r="K127" t="s">
+        <v>247</v>
       </c>
       <c r="L127" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M127">
-        <v>2.2000000000000002</v>
+        <v>50</v>
       </c>
       <c r="N127" s="2">
-        <v>455.11</v>
+        <v>168.3</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
-        <v>45475</v>
+        <v>45478</v>
       </c>
       <c r="B128" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C128" s="2">
-        <v>999.95</v>
+        <v>1258.75</v>
       </c>
       <c r="D128" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E128" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="F128" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="G128" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>24000</v>
+      </c>
+      <c r="I128" t="s">
+        <v>191</v>
+      </c>
+      <c r="J128" t="s">
+        <v>248</v>
+      </c>
+      <c r="K128" t="s">
+        <v>249</v>
       </c>
       <c r="L128" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M128">
-        <v>19.29</v>
+        <v>25</v>
       </c>
       <c r="N128" s="2">
-        <v>51.84</v>
+        <v>50.35</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
-        <v>45474</v>
+        <v>45478</v>
       </c>
       <c r="B129" t="s">
         <v>22</v>
       </c>
       <c r="C129" s="2">
-        <v>14373.75</v>
+        <v>4625</v>
       </c>
       <c r="D129" t="s">
         <v>23</v>
@@ -6726,39 +6879,39 @@
         <v>22</v>
       </c>
       <c r="G129" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H129">
-        <v>24050</v>
+        <v>24250</v>
       </c>
       <c r="I129" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="J129" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="K129" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L129" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M129">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N129" s="2">
-        <v>191.65</v>
+        <v>185</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
-        <v>45474</v>
+        <v>45478</v>
       </c>
       <c r="B130" t="s">
         <v>22</v>
       </c>
       <c r="C130" s="2">
-        <v>4792.5</v>
+        <v>2978.75</v>
       </c>
       <c r="D130" t="s">
         <v>23</v>
@@ -6773,16 +6926,16 @@
         <v>25</v>
       </c>
       <c r="H130">
-        <v>24050</v>
+        <v>24300</v>
       </c>
       <c r="I130" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="J130" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="K130" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="L130" t="s">
         <v>29</v>
@@ -6791,18 +6944,18 @@
         <v>25</v>
       </c>
       <c r="N130" s="2">
-        <v>191.7</v>
+        <v>119.15</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
-        <v>45474</v>
+        <v>45478</v>
       </c>
       <c r="B131" t="s">
         <v>22</v>
       </c>
       <c r="C131" s="2">
-        <v>18285</v>
+        <v>12195</v>
       </c>
       <c r="D131" t="s">
         <v>23</v>
@@ -6814,39 +6967,39 @@
         <v>22</v>
       </c>
       <c r="G131" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H131">
-        <v>24050</v>
+        <v>24250</v>
       </c>
       <c r="I131" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="J131" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="K131" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="L131" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M131">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="N131" s="2">
-        <v>182.85</v>
+        <v>162.6</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
-        <v>45471</v>
+        <v>45478</v>
       </c>
       <c r="B132" t="s">
         <v>22</v>
       </c>
       <c r="C132" s="2">
-        <v>8500</v>
+        <v>1437.5</v>
       </c>
       <c r="D132" t="s">
         <v>23</v>
@@ -6861,36 +7014,36 @@
         <v>25</v>
       </c>
       <c r="H132">
-        <v>24100</v>
+        <v>24000</v>
       </c>
       <c r="I132" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="J132" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="K132" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="L132" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M132">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N132" s="2">
-        <v>170</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
-        <v>45471</v>
+        <v>45477</v>
       </c>
       <c r="B133" t="s">
         <v>22</v>
       </c>
       <c r="C133" s="2">
-        <v>8500</v>
+        <v>1317.5</v>
       </c>
       <c r="D133" t="s">
         <v>23</v>
@@ -6902,39 +7055,39 @@
         <v>22</v>
       </c>
       <c r="G133" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H133">
-        <v>24100</v>
+        <v>24300</v>
       </c>
       <c r="I133" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="J133" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="K133" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="L133" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M133">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N133" s="2">
-        <v>170</v>
+        <v>52.7</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
-        <v>45471</v>
+        <v>45477</v>
       </c>
       <c r="B134" t="s">
         <v>22</v>
       </c>
       <c r="C134" s="2">
-        <v>7250</v>
+        <v>1250</v>
       </c>
       <c r="D134" t="s">
         <v>23</v>
@@ -6946,39 +7099,39 @@
         <v>22</v>
       </c>
       <c r="G134" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H134">
-        <v>24100</v>
+        <v>24300</v>
       </c>
       <c r="I134" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="J134" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="K134" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="L134" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M134">
+        <v>25</v>
+      </c>
+      <c r="N134" s="2">
         <v>50</v>
-      </c>
-      <c r="N134" s="2">
-        <v>145</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
-        <v>45471</v>
+        <v>45476</v>
       </c>
       <c r="B135" t="s">
         <v>22</v>
       </c>
       <c r="C135" s="2">
-        <v>8500</v>
+        <v>10455</v>
       </c>
       <c r="D135" t="s">
         <v>23</v>
@@ -6993,36 +7146,36 @@
         <v>25</v>
       </c>
       <c r="H135">
-        <v>24100</v>
+        <v>24250</v>
       </c>
       <c r="I135" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="J135" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="K135" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="L135" t="s">
         <v>29</v>
       </c>
       <c r="M135">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N135" s="2">
-        <v>170</v>
+        <v>104.55</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
-        <v>45470</v>
+        <v>45476</v>
       </c>
       <c r="B136" t="s">
         <v>22</v>
       </c>
       <c r="C136" s="2">
-        <v>8842.5</v>
+        <v>1412.5</v>
       </c>
       <c r="D136" t="s">
         <v>23</v>
@@ -7037,36 +7190,36 @@
         <v>25</v>
       </c>
       <c r="H136">
-        <v>23800</v>
+        <v>24250</v>
       </c>
       <c r="I136" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="J136" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="K136" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="L136" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M136">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N136" s="2">
-        <v>176.85</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
-        <v>45470</v>
+        <v>45476</v>
       </c>
       <c r="B137" t="s">
         <v>22</v>
       </c>
       <c r="C137" s="2">
-        <v>8750</v>
+        <v>3150</v>
       </c>
       <c r="D137" t="s">
         <v>23</v>
@@ -7081,16 +7234,16 @@
         <v>25</v>
       </c>
       <c r="H137">
-        <v>23800</v>
+        <v>24250</v>
       </c>
       <c r="I137" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="J137" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="K137" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="L137" t="s">
         <v>29</v>
@@ -7099,18 +7252,18 @@
         <v>50</v>
       </c>
       <c r="N137" s="2">
-        <v>175</v>
+        <v>63</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
-        <v>45469</v>
+        <v>45476</v>
       </c>
       <c r="B138" t="s">
         <v>22</v>
       </c>
       <c r="C138" s="2">
-        <v>6050</v>
+        <v>1412.5</v>
       </c>
       <c r="D138" t="s">
         <v>23</v>
@@ -7125,36 +7278,36 @@
         <v>25</v>
       </c>
       <c r="H138">
-        <v>23800</v>
+        <v>24250</v>
       </c>
       <c r="I138" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="J138" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="K138" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="L138" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M138">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N138" s="2">
-        <v>121</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
-        <v>45469</v>
+        <v>45476</v>
       </c>
       <c r="B139" t="s">
         <v>22</v>
       </c>
       <c r="C139" s="2">
-        <v>10910</v>
+        <v>1412.5</v>
       </c>
       <c r="D139" t="s">
         <v>23</v>
@@ -7169,36 +7322,36 @@
         <v>25</v>
       </c>
       <c r="H139">
-        <v>23800</v>
+        <v>24250</v>
       </c>
       <c r="I139" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="J139" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="K139" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="L139" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M139">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N139" s="2">
-        <v>109.1</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
-        <v>45469</v>
+        <v>45476</v>
       </c>
       <c r="B140" t="s">
         <v>22</v>
       </c>
       <c r="C140" s="2">
-        <v>3025</v>
+        <v>1412.5</v>
       </c>
       <c r="D140" t="s">
         <v>23</v>
@@ -7213,36 +7366,36 @@
         <v>25</v>
       </c>
       <c r="H140">
-        <v>23800</v>
+        <v>24250</v>
       </c>
       <c r="I140" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="J140" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="K140" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="L140" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M140">
         <v>25</v>
       </c>
       <c r="N140" s="2">
-        <v>121</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
-        <v>45469</v>
+        <v>45476</v>
       </c>
       <c r="B141" t="s">
         <v>22</v>
       </c>
       <c r="C141" s="2">
-        <v>12100</v>
+        <v>1412.5</v>
       </c>
       <c r="D141" t="s">
         <v>23</v>
@@ -7257,36 +7410,36 @@
         <v>25</v>
       </c>
       <c r="H141">
-        <v>23800</v>
+        <v>24250</v>
       </c>
       <c r="I141" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="J141" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="K141" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L141" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M141">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N141" s="2">
-        <v>121</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
-        <v>45469</v>
+        <v>45476</v>
       </c>
       <c r="B142" t="s">
         <v>22</v>
       </c>
       <c r="C142" s="2">
-        <v>3025</v>
+        <v>1412.5</v>
       </c>
       <c r="D142" t="s">
         <v>23</v>
@@ -7301,36 +7454,36 @@
         <v>25</v>
       </c>
       <c r="H142">
-        <v>23800</v>
+        <v>24250</v>
       </c>
       <c r="I142" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="J142" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="K142" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="L142" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M142">
         <v>25</v>
       </c>
       <c r="N142" s="2">
-        <v>121</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
-        <v>45468</v>
+        <v>45475</v>
       </c>
       <c r="B143" t="s">
         <v>22</v>
       </c>
       <c r="C143" s="2">
-        <v>12620</v>
+        <v>5027.5</v>
       </c>
       <c r="D143" t="s">
         <v>23</v>
@@ -7342,39 +7495,39 @@
         <v>22</v>
       </c>
       <c r="G143" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H143">
-        <v>23550</v>
+        <v>24000</v>
       </c>
       <c r="I143" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="J143" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="K143" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="L143" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M143">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N143" s="2">
-        <v>126.2</v>
+        <v>201.1</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
-        <v>45468</v>
+        <v>45475</v>
       </c>
       <c r="B144" t="s">
         <v>22</v>
       </c>
       <c r="C144" s="2">
-        <v>12830</v>
+        <v>3508.75</v>
       </c>
       <c r="D144" t="s">
         <v>23</v>
@@ -7389,36 +7542,36 @@
         <v>25</v>
       </c>
       <c r="H144">
-        <v>23550</v>
+        <v>24150</v>
       </c>
       <c r="I144" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="J144" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="K144" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="L144" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M144">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N144" s="2">
-        <v>128.30000000000001</v>
+        <v>140.35</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
-        <v>45467</v>
+        <v>45475</v>
       </c>
       <c r="B145" t="s">
         <v>22</v>
       </c>
       <c r="C145" s="2">
-        <v>3440</v>
+        <v>3125</v>
       </c>
       <c r="D145" t="s">
         <v>23</v>
@@ -7430,39 +7583,39 @@
         <v>22</v>
       </c>
       <c r="G145" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H145">
-        <v>23550</v>
+        <v>24150</v>
       </c>
       <c r="I145" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="J145" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="K145" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="L145" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M145">
         <v>25</v>
       </c>
       <c r="N145" s="2">
-        <v>137.6</v>
+        <v>125</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
-        <v>45467</v>
+        <v>45475</v>
       </c>
       <c r="B146" t="s">
         <v>22</v>
       </c>
       <c r="C146" s="2">
-        <v>3442.5</v>
+        <v>18155</v>
       </c>
       <c r="D146" t="s">
         <v>23</v>
@@ -7474,39 +7627,39 @@
         <v>22</v>
       </c>
       <c r="G146" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H146">
-        <v>23550</v>
+        <v>24000</v>
       </c>
       <c r="I146" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="J146" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K146" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="L146" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M146">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N146" s="2">
-        <v>137.69999999999999</v>
+        <v>181.55</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
-        <v>45467</v>
+        <v>45475</v>
       </c>
       <c r="B147" t="s">
         <v>22</v>
       </c>
       <c r="C147" s="2">
-        <v>3440</v>
+        <v>5027.5</v>
       </c>
       <c r="D147" t="s">
         <v>23</v>
@@ -7518,39 +7671,39 @@
         <v>22</v>
       </c>
       <c r="G147" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H147">
-        <v>23550</v>
+        <v>24000</v>
       </c>
       <c r="I147" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="J147" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="K147" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="L147" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M147">
         <v>25</v>
       </c>
       <c r="N147" s="2">
-        <v>137.6</v>
+        <v>201.1</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
-        <v>45467</v>
+        <v>45475</v>
       </c>
       <c r="B148" t="s">
         <v>22</v>
       </c>
       <c r="C148" s="2">
-        <v>14095</v>
+        <v>10052.5</v>
       </c>
       <c r="D148" t="s">
         <v>23</v>
@@ -7562,127 +7715,109 @@
         <v>22</v>
       </c>
       <c r="G148" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H148">
-        <v>23550</v>
+        <v>24000</v>
       </c>
       <c r="I148" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="J148" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="K148" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L148" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M148">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N148" s="2">
-        <v>140.94999999999999</v>
+        <v>201.05</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
-        <v>45467</v>
+        <v>45475</v>
       </c>
       <c r="B149" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="C149" s="2">
-        <v>3440</v>
+        <v>999.89</v>
       </c>
       <c r="D149" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="E149" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="F149" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="G149" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="H149">
-        <v>23550</v>
-      </c>
-      <c r="I149" t="s">
-        <v>249</v>
-      </c>
-      <c r="J149" t="s">
-        <v>272</v>
-      </c>
-      <c r="K149" t="s">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="L149" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M149">
-        <v>25</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N149" s="2">
-        <v>137.6</v>
+        <v>455.11</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
-        <v>45464</v>
+        <v>45475</v>
       </c>
       <c r="B150" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="C150" s="2">
-        <v>3125</v>
+        <v>999.95</v>
       </c>
       <c r="D150" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="E150" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="F150" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="G150" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="H150">
-        <v>23500</v>
-      </c>
-      <c r="I150" t="s">
-        <v>249</v>
-      </c>
-      <c r="J150" t="s">
-        <v>273</v>
-      </c>
-      <c r="K150" t="s">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="L150" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M150">
-        <v>25</v>
+        <v>19.29</v>
       </c>
       <c r="N150" s="2">
-        <v>125</v>
+        <v>51.84</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
-        <v>45464</v>
+        <v>45474</v>
       </c>
       <c r="B151" t="s">
         <v>22</v>
       </c>
       <c r="C151" s="2">
-        <v>11325</v>
+        <v>14373.75</v>
       </c>
       <c r="D151" t="s">
         <v>23</v>
@@ -7694,39 +7829,39 @@
         <v>22</v>
       </c>
       <c r="G151" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H151">
-        <v>23500</v>
+        <v>24050</v>
       </c>
       <c r="I151" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="J151" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="K151" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="L151" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M151">
         <v>75</v>
       </c>
       <c r="N151" s="2">
-        <v>151</v>
+        <v>191.65</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
-        <v>45464</v>
+        <v>45474</v>
       </c>
       <c r="B152" t="s">
         <v>22</v>
       </c>
       <c r="C152" s="2">
-        <v>3775</v>
+        <v>4792.5</v>
       </c>
       <c r="D152" t="s">
         <v>23</v>
@@ -7738,39 +7873,39 @@
         <v>22</v>
       </c>
       <c r="G152" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H152">
-        <v>23500</v>
+        <v>24050</v>
       </c>
       <c r="I152" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="J152" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="K152" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="L152" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M152">
         <v>25</v>
       </c>
       <c r="N152" s="2">
-        <v>151</v>
+        <v>191.7</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
-        <v>45464</v>
+        <v>45474</v>
       </c>
       <c r="B153" t="s">
         <v>22</v>
       </c>
       <c r="C153" s="2">
-        <v>9375</v>
+        <v>18285</v>
       </c>
       <c r="D153" t="s">
         <v>23</v>
@@ -7782,39 +7917,39 @@
         <v>22</v>
       </c>
       <c r="G153" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H153">
-        <v>23500</v>
+        <v>24050</v>
       </c>
       <c r="I153" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="J153" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="K153" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="L153" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M153">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="N153" s="2">
-        <v>125</v>
+        <v>182.85</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
-        <v>45463</v>
+        <v>45471</v>
       </c>
       <c r="B154" t="s">
         <v>22</v>
       </c>
       <c r="C154" s="2">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="D154" t="s">
         <v>23</v>
@@ -7826,39 +7961,39 @@
         <v>22</v>
       </c>
       <c r="G154" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H154">
-        <v>23450</v>
+        <v>24100</v>
       </c>
       <c r="I154" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="J154" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="K154" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="L154" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M154">
         <v>50</v>
       </c>
       <c r="N154" s="2">
-        <v>70</v>
+        <v>170</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
-        <v>45463</v>
+        <v>45471</v>
       </c>
       <c r="B155" t="s">
         <v>22</v>
       </c>
       <c r="C155" s="2">
-        <v>750</v>
+        <v>8500</v>
       </c>
       <c r="D155" t="s">
         <v>23</v>
@@ -7870,39 +8005,39 @@
         <v>22</v>
       </c>
       <c r="G155" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H155">
-        <v>23650</v>
+        <v>24100</v>
       </c>
       <c r="I155" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="J155" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="K155" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="L155" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M155">
         <v>50</v>
       </c>
       <c r="N155" s="2">
-        <v>15</v>
+        <v>170</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
-        <v>45463</v>
+        <v>45471</v>
       </c>
       <c r="B156" t="s">
         <v>22</v>
       </c>
       <c r="C156" s="2">
-        <v>375</v>
+        <v>7250</v>
       </c>
       <c r="D156" t="s">
         <v>23</v>
@@ -7914,39 +8049,39 @@
         <v>22</v>
       </c>
       <c r="G156" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H156">
-        <v>23650</v>
+        <v>24100</v>
       </c>
       <c r="I156" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="J156" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="K156" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="L156" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M156">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N156" s="2">
-        <v>15</v>
+        <v>145</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
-        <v>45463</v>
+        <v>45471</v>
       </c>
       <c r="B157" t="s">
         <v>22</v>
       </c>
       <c r="C157" s="2">
-        <v>450</v>
+        <v>8500</v>
       </c>
       <c r="D157" t="s">
         <v>23</v>
@@ -7958,39 +8093,39 @@
         <v>22</v>
       </c>
       <c r="G157" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H157">
-        <v>23650</v>
+        <v>24100</v>
       </c>
       <c r="I157" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="J157" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="K157" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L157" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M157">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N157" s="2">
-        <v>6</v>
+        <v>170</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
-        <v>45463</v>
+        <v>45470</v>
       </c>
       <c r="B158" t="s">
         <v>22</v>
       </c>
       <c r="C158" s="2">
-        <v>1938.75</v>
+        <v>8842.5</v>
       </c>
       <c r="D158" t="s">
         <v>23</v>
@@ -8002,39 +8137,39 @@
         <v>22</v>
       </c>
       <c r="G158" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H158">
-        <v>23450</v>
+        <v>23800</v>
       </c>
       <c r="I158" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="J158" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="K158" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="L158" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M158">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N158" s="2">
-        <v>77.55</v>
+        <v>176.85</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
-        <v>45463</v>
+        <v>45470</v>
       </c>
       <c r="B159" t="s">
         <v>22</v>
       </c>
       <c r="C159" s="2">
-        <v>368.75</v>
+        <v>8750</v>
       </c>
       <c r="D159" t="s">
         <v>23</v>
@@ -8046,39 +8181,39 @@
         <v>22</v>
       </c>
       <c r="G159" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H159">
-        <v>23650</v>
+        <v>23800</v>
       </c>
       <c r="I159" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="J159" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="K159" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="L159" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M159">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N159" s="2">
-        <v>14.75</v>
+        <v>175</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
-        <v>45463</v>
+        <v>45469</v>
       </c>
       <c r="B160" t="s">
         <v>22</v>
       </c>
       <c r="C160" s="2">
-        <v>1106.25</v>
+        <v>6050</v>
       </c>
       <c r="D160" t="s">
         <v>23</v>
@@ -8090,39 +8225,39 @@
         <v>22</v>
       </c>
       <c r="G160" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H160">
-        <v>23650</v>
+        <v>23800</v>
       </c>
       <c r="I160" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="J160" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="K160" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="L160" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M160">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N160" s="2">
-        <v>14.75</v>
+        <v>121</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
-        <v>45463</v>
+        <v>45469</v>
       </c>
       <c r="B161" t="s">
         <v>22</v>
       </c>
       <c r="C161" s="2">
-        <v>627.5</v>
+        <v>10910</v>
       </c>
       <c r="D161" t="s">
         <v>23</v>
@@ -8134,39 +8269,39 @@
         <v>22</v>
       </c>
       <c r="G161" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H161">
-        <v>23650</v>
+        <v>23800</v>
       </c>
       <c r="I161" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="J161" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="K161" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="L161" t="s">
         <v>29</v>
       </c>
       <c r="M161">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N161" s="2">
-        <v>12.55</v>
+        <v>109.1</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
-        <v>45463</v>
+        <v>45469</v>
       </c>
       <c r="B162" t="s">
         <v>22</v>
       </c>
       <c r="C162" s="2">
-        <v>682.5</v>
+        <v>3025</v>
       </c>
       <c r="D162" t="s">
         <v>23</v>
@@ -8178,39 +8313,39 @@
         <v>22</v>
       </c>
       <c r="G162" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H162">
-        <v>23650</v>
+        <v>23800</v>
       </c>
       <c r="I162" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="J162" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="K162" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="L162" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M162">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N162" s="2">
-        <v>13.65</v>
+        <v>121</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
-        <v>45463</v>
+        <v>45469</v>
       </c>
       <c r="B163" t="s">
         <v>22</v>
       </c>
       <c r="C163" s="2">
-        <v>1938.75</v>
+        <v>12100</v>
       </c>
       <c r="D163" t="s">
         <v>23</v>
@@ -8222,39 +8357,39 @@
         <v>22</v>
       </c>
       <c r="G163" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H163">
-        <v>23450</v>
+        <v>23800</v>
       </c>
       <c r="I163" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="J163" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="K163" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="L163" t="s">
         <v>29</v>
       </c>
       <c r="M163">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N163" s="2">
-        <v>77.55</v>
+        <v>121</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
-        <v>45463</v>
+        <v>45469</v>
       </c>
       <c r="B164" t="s">
         <v>22</v>
       </c>
       <c r="C164" s="2">
-        <v>375</v>
+        <v>3025</v>
       </c>
       <c r="D164" t="s">
         <v>23</v>
@@ -8266,39 +8401,39 @@
         <v>22</v>
       </c>
       <c r="G164" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H164">
-        <v>23650</v>
+        <v>23800</v>
       </c>
       <c r="I164" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="J164" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="K164" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="L164" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M164">
         <v>25</v>
       </c>
       <c r="N164" s="2">
-        <v>15</v>
+        <v>121</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
-        <v>45463</v>
+        <v>45468</v>
       </c>
       <c r="B165" t="s">
         <v>22</v>
       </c>
       <c r="C165" s="2">
-        <v>150</v>
+        <v>12620</v>
       </c>
       <c r="D165" t="s">
         <v>23</v>
@@ -8310,39 +8445,39 @@
         <v>22</v>
       </c>
       <c r="G165" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H165">
-        <v>23650</v>
+        <v>23550</v>
       </c>
       <c r="I165" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="J165" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="K165" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="L165" t="s">
         <v>29</v>
       </c>
       <c r="M165">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N165" s="2">
-        <v>6</v>
+        <v>126.2</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
-        <v>45462</v>
+        <v>45468</v>
       </c>
       <c r="B166" t="s">
         <v>22</v>
       </c>
       <c r="C166" s="2">
-        <v>1875</v>
+        <v>12830</v>
       </c>
       <c r="D166" t="s">
         <v>23</v>
@@ -8354,39 +8489,39 @@
         <v>22</v>
       </c>
       <c r="G166" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H166">
-        <v>23600</v>
+        <v>23550</v>
       </c>
       <c r="I166" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="J166" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="K166" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="L166" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M166">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N166" s="2">
-        <v>75</v>
+        <v>128.30000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
-        <v>45462</v>
+        <v>45467</v>
       </c>
       <c r="B167" t="s">
         <v>22</v>
       </c>
       <c r="C167" s="2">
-        <v>750</v>
+        <v>3440</v>
       </c>
       <c r="D167" t="s">
         <v>23</v>
@@ -8401,36 +8536,36 @@
         <v>25</v>
       </c>
       <c r="H167">
-        <v>23600</v>
+        <v>23550</v>
       </c>
       <c r="I167" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="J167" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="K167" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="L167" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M167">
         <v>25</v>
       </c>
       <c r="N167" s="2">
-        <v>30</v>
+        <v>137.6</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
-        <v>45462</v>
+        <v>45467</v>
       </c>
       <c r="B168" t="s">
         <v>22</v>
       </c>
       <c r="C168" s="2">
-        <v>2400</v>
+        <v>3442.5</v>
       </c>
       <c r="D168" t="s">
         <v>23</v>
@@ -8445,36 +8580,36 @@
         <v>25</v>
       </c>
       <c r="H168">
-        <v>23600</v>
+        <v>23550</v>
       </c>
       <c r="I168" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="J168" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="K168" t="s">
-        <v>95</v>
+        <v>312</v>
       </c>
       <c r="L168" t="s">
         <v>29</v>
       </c>
       <c r="M168">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N168" s="2">
-        <v>48</v>
+        <v>137.69999999999999</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
-        <v>45462</v>
+        <v>45467</v>
       </c>
       <c r="B169" t="s">
         <v>22</v>
       </c>
       <c r="C169" s="2">
-        <v>2500</v>
+        <v>3440</v>
       </c>
       <c r="D169" t="s">
         <v>23</v>
@@ -8486,19 +8621,19 @@
         <v>22</v>
       </c>
       <c r="G169" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H169">
-        <v>23600</v>
+        <v>23550</v>
       </c>
       <c r="I169" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="J169" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="K169" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="L169" t="s">
         <v>29</v>
@@ -8507,18 +8642,18 @@
         <v>25</v>
       </c>
       <c r="N169" s="2">
-        <v>100</v>
+        <v>137.6</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
-        <v>45462</v>
+        <v>45467</v>
       </c>
       <c r="B170" t="s">
         <v>22</v>
       </c>
       <c r="C170" s="2">
-        <v>1248.75</v>
+        <v>14095</v>
       </c>
       <c r="D170" t="s">
         <v>23</v>
@@ -8533,36 +8668,36 @@
         <v>25</v>
       </c>
       <c r="H170">
-        <v>23600</v>
+        <v>23550</v>
       </c>
       <c r="I170" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="J170" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="K170" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="L170" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M170">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N170" s="2">
-        <v>49.95</v>
+        <v>140.94999999999999</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
-        <v>45461</v>
+        <v>45467</v>
       </c>
       <c r="B171" t="s">
         <v>22</v>
       </c>
       <c r="C171" s="2">
-        <v>3000</v>
+        <v>3440</v>
       </c>
       <c r="D171" t="s">
         <v>23</v>
@@ -8577,36 +8712,36 @@
         <v>25</v>
       </c>
       <c r="H171">
-        <v>23500</v>
+        <v>23550</v>
       </c>
       <c r="I171" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="J171" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="K171" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L171" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M171">
         <v>25</v>
       </c>
       <c r="N171" s="2">
-        <v>120</v>
+        <v>137.6</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
-        <v>45461</v>
+        <v>45464</v>
       </c>
       <c r="B172" t="s">
         <v>22</v>
       </c>
       <c r="C172" s="2">
-        <v>3391.25</v>
+        <v>3125</v>
       </c>
       <c r="D172" t="s">
         <v>23</v>
@@ -8618,19 +8753,19 @@
         <v>22</v>
       </c>
       <c r="G172" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H172">
         <v>23500</v>
       </c>
       <c r="I172" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="J172" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="K172" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="L172" t="s">
         <v>29</v>
@@ -8639,18 +8774,18 @@
         <v>25</v>
       </c>
       <c r="N172" s="2">
-        <v>135.65</v>
+        <v>125</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="B173" t="s">
         <v>22</v>
       </c>
       <c r="C173" s="2">
-        <v>3117.5</v>
+        <v>11325</v>
       </c>
       <c r="D173" t="s">
         <v>23</v>
@@ -8662,39 +8797,39 @@
         <v>22</v>
       </c>
       <c r="G173" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H173">
-        <v>23450</v>
+        <v>23500</v>
       </c>
       <c r="I173" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="J173" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="K173" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="L173" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M173">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N173" s="2">
-        <v>124.7</v>
+        <v>151</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="B174" t="s">
         <v>22</v>
       </c>
       <c r="C174" s="2">
-        <v>3200</v>
+        <v>3775</v>
       </c>
       <c r="D174" t="s">
         <v>23</v>
@@ -8706,80 +8841,83 @@
         <v>22</v>
       </c>
       <c r="G174" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H174">
-        <v>23450</v>
+        <v>23500</v>
       </c>
       <c r="I174" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="J174" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="K174" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="L174" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M174">
         <v>25</v>
       </c>
       <c r="N174" s="2">
-        <v>128</v>
+        <v>151</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
-        <v>45456</v>
+        <v>45464</v>
       </c>
       <c r="B175" t="s">
-        <v>317</v>
+        <v>22</v>
       </c>
       <c r="C175" s="2">
-        <v>3000</v>
+        <v>9375</v>
       </c>
       <c r="D175" t="s">
-        <v>318</v>
+        <v>23</v>
       </c>
       <c r="E175" t="s">
+        <v>24</v>
+      </c>
+      <c r="F175" t="s">
+        <v>22</v>
+      </c>
+      <c r="G175" t="s">
+        <v>39</v>
+      </c>
+      <c r="H175">
+        <v>23500</v>
+      </c>
+      <c r="I175" t="s">
+        <v>294</v>
+      </c>
+      <c r="J175" t="s">
+        <v>323</v>
+      </c>
+      <c r="K175" t="s">
         <v>319</v>
       </c>
-      <c r="F175" t="s">
-        <v>320</v>
-      </c>
-      <c r="G175" t="s">
-        <v>321</v>
-      </c>
-      <c r="H175">
-        <v>0</v>
-      </c>
-      <c r="J175" t="s">
-        <v>322</v>
-      </c>
-      <c r="K175" t="s">
-        <v>323</v>
-      </c>
       <c r="L175" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M175">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="N175" s="2">
-        <v>1500</v>
+        <v>125</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
-        <v>45456</v>
+        <v>45463</v>
       </c>
       <c r="B176" t="s">
         <v>22</v>
       </c>
       <c r="C176" s="2">
-        <v>1547.5</v>
+        <v>3500</v>
       </c>
       <c r="D176" t="s">
         <v>23</v>
@@ -8791,10 +8929,10 @@
         <v>22</v>
       </c>
       <c r="G176" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H176">
-        <v>23350</v>
+        <v>23450</v>
       </c>
       <c r="I176" t="s">
         <v>324</v>
@@ -8809,21 +8947,21 @@
         <v>29</v>
       </c>
       <c r="M176">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N176" s="2">
-        <v>61.9</v>
+        <v>70</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
-        <v>45456</v>
+        <v>45463</v>
       </c>
       <c r="B177" t="s">
         <v>22</v>
       </c>
       <c r="C177" s="2">
-        <v>1475</v>
+        <v>750</v>
       </c>
       <c r="D177" t="s">
         <v>23</v>
@@ -8835,10 +8973,10 @@
         <v>22</v>
       </c>
       <c r="G177" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H177">
-        <v>23350</v>
+        <v>23650</v>
       </c>
       <c r="I177" t="s">
         <v>324</v>
@@ -8850,147 +8988,1112 @@
         <v>328</v>
       </c>
       <c r="L177" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M177">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N177" s="2">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
-        <v>45447</v>
+        <v>45463</v>
       </c>
       <c r="B178" t="s">
+        <v>22</v>
+      </c>
+      <c r="C178" s="2">
+        <v>375</v>
+      </c>
+      <c r="D178" t="s">
+        <v>23</v>
+      </c>
+      <c r="E178" t="s">
+        <v>24</v>
+      </c>
+      <c r="F178" t="s">
+        <v>22</v>
+      </c>
+      <c r="G178" t="s">
+        <v>39</v>
+      </c>
+      <c r="H178">
+        <v>23650</v>
+      </c>
+      <c r="I178" t="s">
+        <v>324</v>
+      </c>
+      <c r="J178" t="s">
         <v>329</v>
       </c>
-      <c r="C178" s="2">
-        <v>2688.6</v>
-      </c>
-      <c r="D178" t="s">
-        <v>318</v>
-      </c>
-      <c r="E178" t="s">
-        <v>319</v>
-      </c>
-      <c r="F178" t="s">
+      <c r="K178" t="s">
         <v>330</v>
       </c>
-      <c r="G178" t="s">
-        <v>321</v>
-      </c>
-      <c r="H178">
-        <v>0</v>
-      </c>
-      <c r="J178" t="s">
-        <v>331</v>
-      </c>
-      <c r="K178" t="s">
-        <v>332</v>
-      </c>
       <c r="L178" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M178">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="N178" s="2">
-        <v>896.2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
-        <v>45436</v>
+        <v>45463</v>
       </c>
       <c r="B179" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C179" s="2">
-        <v>999.75</v>
+        <v>450</v>
       </c>
       <c r="D179" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E179" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="F179" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="G179" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>23650</v>
+      </c>
+      <c r="I179" t="s">
+        <v>324</v>
+      </c>
+      <c r="J179" t="s">
+        <v>331</v>
+      </c>
+      <c r="K179" t="s">
+        <v>332</v>
       </c>
       <c r="L179" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M179">
-        <v>2.33</v>
+        <v>75</v>
       </c>
       <c r="N179" s="2">
-        <v>428.89</v>
+        <v>6</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B180" t="s">
+        <v>22</v>
+      </c>
+      <c r="C180" s="2">
+        <v>1938.75</v>
+      </c>
+      <c r="D180" t="s">
+        <v>23</v>
+      </c>
+      <c r="E180" t="s">
+        <v>24</v>
+      </c>
+      <c r="F180" t="s">
+        <v>22</v>
+      </c>
+      <c r="G180" t="s">
+        <v>39</v>
+      </c>
+      <c r="H180">
+        <v>23450</v>
+      </c>
+      <c r="I180" t="s">
+        <v>324</v>
+      </c>
+      <c r="J180" t="s">
+        <v>333</v>
+      </c>
+      <c r="K180" t="s">
+        <v>334</v>
+      </c>
+      <c r="L180" t="s">
+        <v>34</v>
+      </c>
+      <c r="M180">
+        <v>25</v>
+      </c>
+      <c r="N180" s="2">
+        <v>77.55</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A181" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B181" t="s">
+        <v>22</v>
+      </c>
+      <c r="C181" s="2">
+        <v>368.75</v>
+      </c>
+      <c r="D181" t="s">
+        <v>23</v>
+      </c>
+      <c r="E181" t="s">
+        <v>24</v>
+      </c>
+      <c r="F181" t="s">
+        <v>22</v>
+      </c>
+      <c r="G181" t="s">
+        <v>39</v>
+      </c>
+      <c r="H181">
+        <v>23650</v>
+      </c>
+      <c r="I181" t="s">
+        <v>324</v>
+      </c>
+      <c r="J181" t="s">
+        <v>335</v>
+      </c>
+      <c r="K181" t="s">
+        <v>336</v>
+      </c>
+      <c r="L181" t="s">
+        <v>29</v>
+      </c>
+      <c r="M181">
+        <v>25</v>
+      </c>
+      <c r="N181" s="2">
+        <v>14.75</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A182" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B182" t="s">
+        <v>22</v>
+      </c>
+      <c r="C182" s="2">
+        <v>1106.25</v>
+      </c>
+      <c r="D182" t="s">
+        <v>23</v>
+      </c>
+      <c r="E182" t="s">
+        <v>24</v>
+      </c>
+      <c r="F182" t="s">
+        <v>22</v>
+      </c>
+      <c r="G182" t="s">
+        <v>39</v>
+      </c>
+      <c r="H182">
+        <v>23650</v>
+      </c>
+      <c r="I182" t="s">
+        <v>324</v>
+      </c>
+      <c r="J182" t="s">
+        <v>337</v>
+      </c>
+      <c r="K182" t="s">
+        <v>336</v>
+      </c>
+      <c r="L182" t="s">
+        <v>29</v>
+      </c>
+      <c r="M182">
+        <v>75</v>
+      </c>
+      <c r="N182" s="2">
+        <v>14.75</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A183" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B183" t="s">
+        <v>22</v>
+      </c>
+      <c r="C183" s="2">
+        <v>627.5</v>
+      </c>
+      <c r="D183" t="s">
+        <v>23</v>
+      </c>
+      <c r="E183" t="s">
+        <v>24</v>
+      </c>
+      <c r="F183" t="s">
+        <v>22</v>
+      </c>
+      <c r="G183" t="s">
+        <v>39</v>
+      </c>
+      <c r="H183">
+        <v>23650</v>
+      </c>
+      <c r="I183" t="s">
+        <v>324</v>
+      </c>
+      <c r="J183" t="s">
+        <v>338</v>
+      </c>
+      <c r="K183" t="s">
+        <v>339</v>
+      </c>
+      <c r="L183" t="s">
+        <v>34</v>
+      </c>
+      <c r="M183">
+        <v>50</v>
+      </c>
+      <c r="N183" s="2">
+        <v>12.55</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A184" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B184" t="s">
+        <v>22</v>
+      </c>
+      <c r="C184" s="2">
+        <v>682.5</v>
+      </c>
+      <c r="D184" t="s">
+        <v>23</v>
+      </c>
+      <c r="E184" t="s">
+        <v>24</v>
+      </c>
+      <c r="F184" t="s">
+        <v>22</v>
+      </c>
+      <c r="G184" t="s">
+        <v>39</v>
+      </c>
+      <c r="H184">
+        <v>23650</v>
+      </c>
+      <c r="I184" t="s">
+        <v>324</v>
+      </c>
+      <c r="J184" t="s">
+        <v>340</v>
+      </c>
+      <c r="K184" t="s">
+        <v>341</v>
+      </c>
+      <c r="L184" t="s">
+        <v>34</v>
+      </c>
+      <c r="M184">
+        <v>50</v>
+      </c>
+      <c r="N184" s="2">
+        <v>13.65</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A185" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B185" t="s">
+        <v>22</v>
+      </c>
+      <c r="C185" s="2">
+        <v>1938.75</v>
+      </c>
+      <c r="D185" t="s">
+        <v>23</v>
+      </c>
+      <c r="E185" t="s">
+        <v>24</v>
+      </c>
+      <c r="F185" t="s">
+        <v>22</v>
+      </c>
+      <c r="G185" t="s">
+        <v>39</v>
+      </c>
+      <c r="H185">
+        <v>23450</v>
+      </c>
+      <c r="I185" t="s">
+        <v>324</v>
+      </c>
+      <c r="J185" t="s">
+        <v>342</v>
+      </c>
+      <c r="K185" t="s">
+        <v>334</v>
+      </c>
+      <c r="L185" t="s">
+        <v>34</v>
+      </c>
+      <c r="M185">
+        <v>25</v>
+      </c>
+      <c r="N185" s="2">
+        <v>77.55</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A186" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B186" t="s">
+        <v>22</v>
+      </c>
+      <c r="C186" s="2">
+        <v>375</v>
+      </c>
+      <c r="D186" t="s">
+        <v>23</v>
+      </c>
+      <c r="E186" t="s">
+        <v>24</v>
+      </c>
+      <c r="F186" t="s">
+        <v>22</v>
+      </c>
+      <c r="G186" t="s">
+        <v>39</v>
+      </c>
+      <c r="H186">
+        <v>23650</v>
+      </c>
+      <c r="I186" t="s">
+        <v>324</v>
+      </c>
+      <c r="J186" t="s">
+        <v>343</v>
+      </c>
+      <c r="K186" t="s">
+        <v>330</v>
+      </c>
+      <c r="L186" t="s">
+        <v>29</v>
+      </c>
+      <c r="M186">
+        <v>25</v>
+      </c>
+      <c r="N186" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A187" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B187" t="s">
+        <v>22</v>
+      </c>
+      <c r="C187" s="2">
+        <v>150</v>
+      </c>
+      <c r="D187" t="s">
+        <v>23</v>
+      </c>
+      <c r="E187" t="s">
+        <v>24</v>
+      </c>
+      <c r="F187" t="s">
+        <v>22</v>
+      </c>
+      <c r="G187" t="s">
+        <v>39</v>
+      </c>
+      <c r="H187">
+        <v>23650</v>
+      </c>
+      <c r="I187" t="s">
+        <v>324</v>
+      </c>
+      <c r="J187" t="s">
+        <v>344</v>
+      </c>
+      <c r="K187" t="s">
+        <v>332</v>
+      </c>
+      <c r="L187" t="s">
+        <v>34</v>
+      </c>
+      <c r="M187">
+        <v>25</v>
+      </c>
+      <c r="N187" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A188" s="1">
+        <v>45462</v>
+      </c>
+      <c r="B188" t="s">
+        <v>22</v>
+      </c>
+      <c r="C188" s="2">
+        <v>1875</v>
+      </c>
+      <c r="D188" t="s">
+        <v>23</v>
+      </c>
+      <c r="E188" t="s">
+        <v>24</v>
+      </c>
+      <c r="F188" t="s">
+        <v>22</v>
+      </c>
+      <c r="G188" t="s">
+        <v>25</v>
+      </c>
+      <c r="H188">
+        <v>23600</v>
+      </c>
+      <c r="I188" t="s">
+        <v>324</v>
+      </c>
+      <c r="J188" t="s">
+        <v>345</v>
+      </c>
+      <c r="K188" t="s">
+        <v>346</v>
+      </c>
+      <c r="L188" t="s">
+        <v>29</v>
+      </c>
+      <c r="M188">
+        <v>25</v>
+      </c>
+      <c r="N188" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A189" s="1">
+        <v>45462</v>
+      </c>
+      <c r="B189" t="s">
+        <v>22</v>
+      </c>
+      <c r="C189" s="2">
+        <v>750</v>
+      </c>
+      <c r="D189" t="s">
+        <v>23</v>
+      </c>
+      <c r="E189" t="s">
+        <v>24</v>
+      </c>
+      <c r="F189" t="s">
+        <v>22</v>
+      </c>
+      <c r="G189" t="s">
+        <v>39</v>
+      </c>
+      <c r="H189">
+        <v>23600</v>
+      </c>
+      <c r="I189" t="s">
+        <v>324</v>
+      </c>
+      <c r="J189" t="s">
+        <v>347</v>
+      </c>
+      <c r="K189" t="s">
+        <v>348</v>
+      </c>
+      <c r="L189" t="s">
+        <v>29</v>
+      </c>
+      <c r="M189">
+        <v>25</v>
+      </c>
+      <c r="N189" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A190" s="1">
+        <v>45462</v>
+      </c>
+      <c r="B190" t="s">
+        <v>22</v>
+      </c>
+      <c r="C190" s="2">
+        <v>2400</v>
+      </c>
+      <c r="D190" t="s">
+        <v>23</v>
+      </c>
+      <c r="E190" t="s">
+        <v>24</v>
+      </c>
+      <c r="F190" t="s">
+        <v>22</v>
+      </c>
+      <c r="G190" t="s">
+        <v>39</v>
+      </c>
+      <c r="H190">
+        <v>23600</v>
+      </c>
+      <c r="I190" t="s">
+        <v>324</v>
+      </c>
+      <c r="J190" t="s">
+        <v>349</v>
+      </c>
+      <c r="K190" t="s">
+        <v>140</v>
+      </c>
+      <c r="L190" t="s">
+        <v>34</v>
+      </c>
+      <c r="M190">
+        <v>50</v>
+      </c>
+      <c r="N190" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A191" s="1">
+        <v>45462</v>
+      </c>
+      <c r="B191" t="s">
+        <v>22</v>
+      </c>
+      <c r="C191" s="2">
+        <v>2500</v>
+      </c>
+      <c r="D191" t="s">
+        <v>23</v>
+      </c>
+      <c r="E191" t="s">
+        <v>24</v>
+      </c>
+      <c r="F191" t="s">
+        <v>22</v>
+      </c>
+      <c r="G191" t="s">
+        <v>25</v>
+      </c>
+      <c r="H191">
+        <v>23600</v>
+      </c>
+      <c r="I191" t="s">
+        <v>324</v>
+      </c>
+      <c r="J191" t="s">
+        <v>350</v>
+      </c>
+      <c r="K191" t="s">
+        <v>351</v>
+      </c>
+      <c r="L191" t="s">
+        <v>34</v>
+      </c>
+      <c r="M191">
+        <v>25</v>
+      </c>
+      <c r="N191" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A192" s="1">
+        <v>45462</v>
+      </c>
+      <c r="B192" t="s">
+        <v>22</v>
+      </c>
+      <c r="C192" s="2">
+        <v>1248.75</v>
+      </c>
+      <c r="D192" t="s">
+        <v>23</v>
+      </c>
+      <c r="E192" t="s">
+        <v>24</v>
+      </c>
+      <c r="F192" t="s">
+        <v>22</v>
+      </c>
+      <c r="G192" t="s">
+        <v>39</v>
+      </c>
+      <c r="H192">
+        <v>23600</v>
+      </c>
+      <c r="I192" t="s">
+        <v>324</v>
+      </c>
+      <c r="J192" t="s">
+        <v>352</v>
+      </c>
+      <c r="K192" t="s">
+        <v>353</v>
+      </c>
+      <c r="L192" t="s">
+        <v>29</v>
+      </c>
+      <c r="M192">
+        <v>25</v>
+      </c>
+      <c r="N192" s="2">
+        <v>49.95</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A193" s="1">
+        <v>45461</v>
+      </c>
+      <c r="B193" t="s">
+        <v>22</v>
+      </c>
+      <c r="C193" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D193" t="s">
+        <v>23</v>
+      </c>
+      <c r="E193" t="s">
+        <v>24</v>
+      </c>
+      <c r="F193" t="s">
+        <v>22</v>
+      </c>
+      <c r="G193" t="s">
+        <v>39</v>
+      </c>
+      <c r="H193">
+        <v>23500</v>
+      </c>
+      <c r="I193" t="s">
+        <v>324</v>
+      </c>
+      <c r="J193" t="s">
+        <v>354</v>
+      </c>
+      <c r="K193" t="s">
+        <v>355</v>
+      </c>
+      <c r="L193" t="s">
+        <v>29</v>
+      </c>
+      <c r="M193">
+        <v>25</v>
+      </c>
+      <c r="N193" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A194" s="1">
+        <v>45461</v>
+      </c>
+      <c r="B194" t="s">
+        <v>22</v>
+      </c>
+      <c r="C194" s="2">
+        <v>3391.25</v>
+      </c>
+      <c r="D194" t="s">
+        <v>23</v>
+      </c>
+      <c r="E194" t="s">
+        <v>24</v>
+      </c>
+      <c r="F194" t="s">
+        <v>22</v>
+      </c>
+      <c r="G194" t="s">
+        <v>39</v>
+      </c>
+      <c r="H194">
+        <v>23500</v>
+      </c>
+      <c r="I194" t="s">
+        <v>324</v>
+      </c>
+      <c r="J194" t="s">
+        <v>356</v>
+      </c>
+      <c r="K194" t="s">
+        <v>357</v>
+      </c>
+      <c r="L194" t="s">
+        <v>34</v>
+      </c>
+      <c r="M194">
+        <v>25</v>
+      </c>
+      <c r="N194" s="2">
+        <v>135.65</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A195" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B195" t="s">
+        <v>22</v>
+      </c>
+      <c r="C195" s="2">
+        <v>3117.5</v>
+      </c>
+      <c r="D195" t="s">
+        <v>23</v>
+      </c>
+      <c r="E195" t="s">
+        <v>24</v>
+      </c>
+      <c r="F195" t="s">
+        <v>22</v>
+      </c>
+      <c r="G195" t="s">
+        <v>25</v>
+      </c>
+      <c r="H195">
+        <v>23450</v>
+      </c>
+      <c r="I195" t="s">
+        <v>324</v>
+      </c>
+      <c r="J195" t="s">
+        <v>358</v>
+      </c>
+      <c r="K195" t="s">
+        <v>359</v>
+      </c>
+      <c r="L195" t="s">
+        <v>29</v>
+      </c>
+      <c r="M195">
+        <v>25</v>
+      </c>
+      <c r="N195" s="2">
+        <v>124.7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A196" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B196" t="s">
+        <v>22</v>
+      </c>
+      <c r="C196" s="2">
+        <v>3200</v>
+      </c>
+      <c r="D196" t="s">
+        <v>23</v>
+      </c>
+      <c r="E196" t="s">
+        <v>24</v>
+      </c>
+      <c r="F196" t="s">
+        <v>22</v>
+      </c>
+      <c r="G196" t="s">
+        <v>25</v>
+      </c>
+      <c r="H196">
+        <v>23450</v>
+      </c>
+      <c r="I196" t="s">
+        <v>324</v>
+      </c>
+      <c r="J196" t="s">
+        <v>360</v>
+      </c>
+      <c r="K196" t="s">
+        <v>361</v>
+      </c>
+      <c r="L196" t="s">
+        <v>34</v>
+      </c>
+      <c r="M196">
+        <v>25</v>
+      </c>
+      <c r="N196" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A197" s="1">
+        <v>45456</v>
+      </c>
+      <c r="B197" t="s">
+        <v>362</v>
+      </c>
+      <c r="C197" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D197" t="s">
+        <v>363</v>
+      </c>
+      <c r="E197" t="s">
+        <v>364</v>
+      </c>
+      <c r="F197" t="s">
+        <v>365</v>
+      </c>
+      <c r="G197" t="s">
+        <v>366</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="J197" t="s">
+        <v>367</v>
+      </c>
+      <c r="K197" t="s">
+        <v>368</v>
+      </c>
+      <c r="L197" t="s">
+        <v>29</v>
+      </c>
+      <c r="M197">
+        <v>2</v>
+      </c>
+      <c r="N197" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A198" s="1">
+        <v>45456</v>
+      </c>
+      <c r="B198" t="s">
+        <v>22</v>
+      </c>
+      <c r="C198" s="2">
+        <v>1547.5</v>
+      </c>
+      <c r="D198" t="s">
+        <v>23</v>
+      </c>
+      <c r="E198" t="s">
+        <v>24</v>
+      </c>
+      <c r="F198" t="s">
+        <v>22</v>
+      </c>
+      <c r="G198" t="s">
+        <v>39</v>
+      </c>
+      <c r="H198">
+        <v>23350</v>
+      </c>
+      <c r="I198" t="s">
+        <v>369</v>
+      </c>
+      <c r="J198" t="s">
+        <v>370</v>
+      </c>
+      <c r="K198" t="s">
+        <v>371</v>
+      </c>
+      <c r="L198" t="s">
+        <v>34</v>
+      </c>
+      <c r="M198">
+        <v>25</v>
+      </c>
+      <c r="N198" s="2">
+        <v>61.9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A199" s="1">
+        <v>45456</v>
+      </c>
+      <c r="B199" t="s">
+        <v>22</v>
+      </c>
+      <c r="C199" s="2">
+        <v>1475</v>
+      </c>
+      <c r="D199" t="s">
+        <v>23</v>
+      </c>
+      <c r="E199" t="s">
+        <v>24</v>
+      </c>
+      <c r="F199" t="s">
+        <v>22</v>
+      </c>
+      <c r="G199" t="s">
+        <v>39</v>
+      </c>
+      <c r="H199">
+        <v>23350</v>
+      </c>
+      <c r="I199" t="s">
+        <v>369</v>
+      </c>
+      <c r="J199" t="s">
+        <v>372</v>
+      </c>
+      <c r="K199" t="s">
+        <v>373</v>
+      </c>
+      <c r="L199" t="s">
+        <v>29</v>
+      </c>
+      <c r="M199">
+        <v>25</v>
+      </c>
+      <c r="N199" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A200" s="1">
+        <v>45447</v>
+      </c>
+      <c r="B200" t="s">
+        <v>374</v>
+      </c>
+      <c r="C200" s="2">
+        <v>2688.6</v>
+      </c>
+      <c r="D200" t="s">
+        <v>363</v>
+      </c>
+      <c r="E200" t="s">
+        <v>364</v>
+      </c>
+      <c r="F200" t="s">
+        <v>375</v>
+      </c>
+      <c r="G200" t="s">
+        <v>366</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="J200" t="s">
+        <v>376</v>
+      </c>
+      <c r="K200" t="s">
+        <v>377</v>
+      </c>
+      <c r="L200" t="s">
+        <v>29</v>
+      </c>
+      <c r="M200">
+        <v>3</v>
+      </c>
+      <c r="N200" s="2">
+        <v>896.2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A201" s="1">
         <v>45436</v>
       </c>
-      <c r="B180" t="s">
-        <v>46</v>
-      </c>
-      <c r="C180" s="2">
+      <c r="B201" t="s">
+        <v>87</v>
+      </c>
+      <c r="C201" s="2">
+        <v>999.75</v>
+      </c>
+      <c r="D201" t="s">
+        <v>88</v>
+      </c>
+      <c r="E201" t="s">
+        <v>89</v>
+      </c>
+      <c r="F201" t="s">
+        <v>90</v>
+      </c>
+      <c r="G201" t="s">
+        <v>89</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="L201" t="s">
+        <v>29</v>
+      </c>
+      <c r="M201">
+        <v>2.33</v>
+      </c>
+      <c r="N201" s="2">
+        <v>428.89</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A202" s="1">
+        <v>45436</v>
+      </c>
+      <c r="B202" t="s">
+        <v>91</v>
+      </c>
+      <c r="C202" s="2">
         <v>999.95</v>
       </c>
-      <c r="D180" t="s">
-        <v>43</v>
-      </c>
-      <c r="E180" t="s">
-        <v>44</v>
-      </c>
-      <c r="F180" t="s">
-        <v>47</v>
-      </c>
-      <c r="G180" t="s">
-        <v>44</v>
-      </c>
-      <c r="H180">
+      <c r="D202" t="s">
+        <v>88</v>
+      </c>
+      <c r="E202" t="s">
+        <v>89</v>
+      </c>
+      <c r="F202" t="s">
+        <v>92</v>
+      </c>
+      <c r="G202" t="s">
+        <v>89</v>
+      </c>
+      <c r="H202">
         <v>0</v>
       </c>
-      <c r="L180" t="s">
-        <v>33</v>
-      </c>
-      <c r="M180">
+      <c r="L202" t="s">
+        <v>29</v>
+      </c>
+      <c r="M202">
         <v>20.51</v>
       </c>
-      <c r="N180" s="2">
+      <c r="N202" s="2">
         <v>48.77</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A186" s="3"/>
-      <c r="B186" s="3"/>
-      <c r="C186" s="3"/>
-      <c r="D186" s="3"/>
-      <c r="E186" s="3"/>
-      <c r="F186" s="3"/>
-      <c r="G186" s="3"/>
-      <c r="H186" s="3"/>
-      <c r="I186" s="3"/>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
-        <v>333</v>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A208" s="3"/>
+      <c r="B208" s="3"/>
+      <c r="C208" s="3"/>
+      <c r="D208" s="3"/>
+      <c r="E208" s="3"/>
+      <c r="F208" s="3"/>
+      <c r="G208" s="3"/>
+      <c r="H208" s="3"/>
+      <c r="I208" s="3"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A186:I186"/>
+    <mergeCell ref="A208:I208"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DATA/SOURCE/TradeHistory/trade_2425.xlsx
+++ b/DATA/SOURCE/TradeHistory/trade_2425.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prashant.tripathi\Code\PortfolioTracker\DATA\SOURCE\TradeHistory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945E7F83-4D7C-490C-833A-95970957D233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F9B4A6-BB81-46D2-B058-4D50A6643F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="378">
   <si>
     <t>UPSTOX SECURITIES PRIVATE LIMITED</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>PRASHANT TRIPATHI</t>
   </si>
   <si>
     <t>PAN</t>
@@ -1538,7 +1535,7 @@
   <dimension ref="A1:N209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1588,57 +1585,54 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>13</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>14</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>15</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>16</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>17</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>18</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>19</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>20</v>
-      </c>
-      <c r="N9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -1646,37 +1640,37 @@
         <v>45518</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2">
         <v>412.5</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
         <v>24</v>
-      </c>
-      <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
       </c>
       <c r="H10">
         <v>24100</v>
       </c>
       <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s">
         <v>26</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>27</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>28</v>
-      </c>
-      <c r="L10" t="s">
-        <v>29</v>
       </c>
       <c r="M10">
         <v>25</v>
@@ -1690,37 +1684,37 @@
         <v>45518</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2">
         <v>597.5</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
         <v>24</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
       </c>
       <c r="H11">
         <v>24100</v>
       </c>
       <c r="I11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" t="s">
         <v>30</v>
       </c>
-      <c r="K11" t="s">
-        <v>31</v>
-      </c>
       <c r="L11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M11">
         <v>25</v>
@@ -1734,37 +1728,37 @@
         <v>45518</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2">
         <v>370</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
         <v>24</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="s">
-        <v>25</v>
       </c>
       <c r="H12">
         <v>24100</v>
       </c>
       <c r="I12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" t="s">
         <v>32</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>33</v>
-      </c>
-      <c r="L12" t="s">
-        <v>34</v>
       </c>
       <c r="M12">
         <v>50</v>
@@ -1778,37 +1772,37 @@
         <v>45517</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2">
         <v>1750</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
         <v>24</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
-        <v>25</v>
       </c>
       <c r="H13">
         <v>24250</v>
       </c>
       <c r="I13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" t="s">
         <v>35</v>
       </c>
-      <c r="K13" t="s">
-        <v>36</v>
-      </c>
       <c r="L13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M13">
         <v>25</v>
@@ -1822,37 +1816,37 @@
         <v>45517</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2">
         <v>2000</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
         <v>24</v>
-      </c>
-      <c r="F14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" t="s">
-        <v>25</v>
       </c>
       <c r="H14">
         <v>24250</v>
       </c>
       <c r="I14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" t="s">
         <v>37</v>
       </c>
-      <c r="K14" t="s">
-        <v>38</v>
-      </c>
       <c r="L14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M14">
         <v>25</v>
@@ -1866,37 +1860,37 @@
         <v>45516</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="2">
         <v>1257.5</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15">
         <v>24500</v>
       </c>
       <c r="I15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" t="s">
         <v>40</v>
       </c>
-      <c r="K15" t="s">
-        <v>41</v>
-      </c>
       <c r="L15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M15">
         <v>25</v>
@@ -1910,37 +1904,37 @@
         <v>45513</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="2">
         <v>2237.5</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H16">
         <v>24500</v>
       </c>
       <c r="I16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" t="s">
         <v>42</v>
       </c>
-      <c r="K16" t="s">
-        <v>43</v>
-      </c>
       <c r="L16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M16">
         <v>25</v>
@@ -1954,37 +1948,37 @@
         <v>45513</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="2">
         <v>830</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H17">
         <v>25000</v>
       </c>
       <c r="I17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J17" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" t="s">
         <v>44</v>
       </c>
-      <c r="K17" t="s">
-        <v>45</v>
-      </c>
       <c r="L17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M17">
         <v>100</v>
@@ -1998,37 +1992,37 @@
         <v>45512</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="2">
         <v>500</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H18">
         <v>25000</v>
       </c>
       <c r="I18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" t="s">
         <v>46</v>
       </c>
-      <c r="K18" t="s">
-        <v>47</v>
-      </c>
       <c r="L18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M18">
         <v>100</v>
@@ -2042,37 +2036,37 @@
         <v>45512</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="2">
         <v>1875</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
         <v>24</v>
-      </c>
-      <c r="F19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" t="s">
-        <v>25</v>
       </c>
       <c r="H19">
         <v>24000</v>
       </c>
       <c r="I19" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" t="s">
         <v>48</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>49</v>
       </c>
-      <c r="K19" t="s">
-        <v>50</v>
-      </c>
       <c r="L19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M19">
         <v>75</v>
@@ -2086,37 +2080,37 @@
         <v>45511</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="2">
         <v>1125</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
         <v>24</v>
-      </c>
-      <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" t="s">
-        <v>25</v>
       </c>
       <c r="H20">
         <v>24000</v>
       </c>
       <c r="I20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J20" t="s">
+        <v>50</v>
+      </c>
+      <c r="K20" t="s">
         <v>51</v>
       </c>
-      <c r="K20" t="s">
-        <v>52</v>
-      </c>
       <c r="L20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M20">
         <v>75</v>
@@ -2130,37 +2124,37 @@
         <v>45511</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="2">
         <v>1561.25</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H21">
         <v>24350</v>
       </c>
       <c r="I21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J21" t="s">
+        <v>52</v>
+      </c>
+      <c r="K21" t="s">
         <v>53</v>
       </c>
-      <c r="K21" t="s">
-        <v>54</v>
-      </c>
       <c r="L21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M21">
         <v>25</v>
@@ -2174,37 +2168,37 @@
         <v>45511</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="2">
         <v>47.5</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H22">
         <v>25000</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J22" t="s">
+        <v>54</v>
+      </c>
+      <c r="K22" t="s">
         <v>55</v>
       </c>
-      <c r="K22" t="s">
-        <v>56</v>
-      </c>
       <c r="L22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M22">
         <v>25</v>
@@ -2218,37 +2212,37 @@
         <v>45511</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="2">
         <v>2460</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H23">
         <v>24350</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J23" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" t="s">
         <v>57</v>
       </c>
-      <c r="K23" t="s">
-        <v>58</v>
-      </c>
       <c r="L23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M23">
         <v>25</v>
@@ -2262,37 +2256,37 @@
         <v>45510</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="2">
         <v>2800</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
         <v>24</v>
-      </c>
-      <c r="F24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" t="s">
-        <v>25</v>
       </c>
       <c r="H24">
         <v>24200</v>
       </c>
       <c r="I24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J24" t="s">
+        <v>58</v>
+      </c>
+      <c r="K24" t="s">
         <v>59</v>
       </c>
-      <c r="K24" t="s">
-        <v>60</v>
-      </c>
       <c r="L24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M24">
         <v>25</v>
@@ -2306,37 +2300,37 @@
         <v>45510</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="2">
         <v>3250</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
         <v>24</v>
-      </c>
-      <c r="F25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" t="s">
-        <v>25</v>
       </c>
       <c r="H25">
         <v>24150</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J25" t="s">
+        <v>60</v>
+      </c>
+      <c r="K25" t="s">
         <v>61</v>
       </c>
-      <c r="K25" t="s">
-        <v>62</v>
-      </c>
       <c r="L25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M25">
         <v>25</v>
@@ -2350,37 +2344,37 @@
         <v>45510</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" s="2">
         <v>2257.5</v>
       </c>
       <c r="D26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H26">
         <v>24150</v>
       </c>
       <c r="I26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J26" t="s">
+        <v>62</v>
+      </c>
+      <c r="K26" t="s">
         <v>63</v>
       </c>
-      <c r="K26" t="s">
-        <v>64</v>
-      </c>
       <c r="L26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M26">
         <v>25</v>
@@ -2394,37 +2388,37 @@
         <v>45510</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" s="2">
         <v>2500</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H27">
         <v>24300</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J27" t="s">
+        <v>64</v>
+      </c>
+      <c r="K27" t="s">
         <v>65</v>
       </c>
-      <c r="K27" t="s">
-        <v>66</v>
-      </c>
       <c r="L27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M27">
         <v>25</v>
@@ -2438,37 +2432,37 @@
         <v>45510</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C28" s="2">
         <v>3167.5</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
         <v>24</v>
-      </c>
-      <c r="F28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" t="s">
-        <v>25</v>
       </c>
       <c r="H28">
         <v>24200</v>
       </c>
       <c r="I28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J28" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28" t="s">
         <v>67</v>
       </c>
-      <c r="K28" t="s">
-        <v>68</v>
-      </c>
       <c r="L28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M28">
         <v>25</v>
@@ -2482,37 +2476,37 @@
         <v>45510</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C29" s="2">
         <v>2971.25</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
         <v>24</v>
-      </c>
-      <c r="F29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" t="s">
-        <v>25</v>
       </c>
       <c r="H29">
         <v>24150</v>
       </c>
       <c r="I29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J29" t="s">
+        <v>68</v>
+      </c>
+      <c r="K29" t="s">
         <v>69</v>
       </c>
-      <c r="K29" t="s">
-        <v>70</v>
-      </c>
       <c r="L29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M29">
         <v>25</v>
@@ -2526,37 +2520,37 @@
         <v>45510</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C30" s="2">
         <v>2337.5</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H30">
         <v>24300</v>
       </c>
       <c r="I30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J30" t="s">
+        <v>70</v>
+      </c>
+      <c r="K30" t="s">
         <v>71</v>
       </c>
-      <c r="K30" t="s">
-        <v>72</v>
-      </c>
       <c r="L30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M30">
         <v>25</v>
@@ -2570,37 +2564,37 @@
         <v>45510</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C31" s="2">
         <v>2843.75</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H31">
         <v>24150</v>
       </c>
       <c r="I31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J31" t="s">
+        <v>72</v>
+      </c>
+      <c r="K31" t="s">
         <v>73</v>
       </c>
-      <c r="K31" t="s">
-        <v>74</v>
-      </c>
       <c r="L31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M31">
         <v>25</v>
@@ -2614,37 +2608,37 @@
         <v>45509</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C32" s="2">
         <v>750</v>
       </c>
       <c r="D32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H32">
         <v>24700</v>
       </c>
       <c r="I32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J32" t="s">
+        <v>74</v>
+      </c>
+      <c r="K32" t="s">
         <v>75</v>
       </c>
-      <c r="K32" t="s">
-        <v>76</v>
-      </c>
       <c r="L32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M32">
         <v>25</v>
@@ -2658,37 +2652,37 @@
         <v>45506</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C33" s="2">
         <v>4000</v>
       </c>
       <c r="D33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" t="s">
         <v>24</v>
-      </c>
-      <c r="F33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" t="s">
-        <v>25</v>
       </c>
       <c r="H33">
         <v>24800</v>
       </c>
       <c r="I33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J33" t="s">
+        <v>76</v>
+      </c>
+      <c r="K33" t="s">
         <v>77</v>
       </c>
-      <c r="K33" t="s">
-        <v>78</v>
-      </c>
       <c r="L33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M33">
         <v>25</v>
@@ -2702,37 +2696,37 @@
         <v>45506</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C34" s="2">
         <v>4150</v>
       </c>
       <c r="D34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E34" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
         <v>24</v>
-      </c>
-      <c r="F34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" t="s">
-        <v>25</v>
       </c>
       <c r="H34">
         <v>24800</v>
       </c>
       <c r="I34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J34" t="s">
+        <v>78</v>
+      </c>
+      <c r="K34" t="s">
         <v>79</v>
       </c>
-      <c r="K34" t="s">
-        <v>80</v>
-      </c>
       <c r="L34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M34">
         <v>25</v>
@@ -2746,37 +2740,37 @@
         <v>45506</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C35" s="2">
         <v>4196.25</v>
       </c>
       <c r="D35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
         <v>24</v>
-      </c>
-      <c r="F35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" t="s">
-        <v>25</v>
       </c>
       <c r="H35">
         <v>24800</v>
       </c>
       <c r="I35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J35" t="s">
+        <v>80</v>
+      </c>
+      <c r="K35" t="s">
         <v>81</v>
       </c>
-      <c r="K35" t="s">
-        <v>82</v>
-      </c>
       <c r="L35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M35">
         <v>25</v>
@@ -2790,37 +2784,37 @@
         <v>45506</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C36" s="2">
         <v>3500</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H36">
         <v>24700</v>
       </c>
       <c r="I36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J36" t="s">
+        <v>82</v>
+      </c>
+      <c r="K36" t="s">
         <v>83</v>
       </c>
-      <c r="K36" t="s">
-        <v>84</v>
-      </c>
       <c r="L36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M36">
         <v>25</v>
@@ -2834,37 +2828,37 @@
         <v>45506</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C37" s="2">
         <v>4443.75</v>
       </c>
       <c r="D37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E37" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
         <v>24</v>
-      </c>
-      <c r="F37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" t="s">
-        <v>25</v>
       </c>
       <c r="H37">
         <v>24800</v>
       </c>
       <c r="I37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J37" t="s">
+        <v>84</v>
+      </c>
+      <c r="K37" t="s">
         <v>85</v>
       </c>
-      <c r="K37" t="s">
-        <v>86</v>
-      </c>
       <c r="L37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M37">
         <v>25</v>
@@ -2878,28 +2872,28 @@
         <v>45506</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C38" s="2">
         <v>999.86</v>
       </c>
       <c r="D38" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" t="s">
         <v>88</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>89</v>
       </c>
-      <c r="F38" t="s">
-        <v>90</v>
-      </c>
       <c r="G38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="L38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M38">
         <v>2.11</v>
@@ -2913,28 +2907,28 @@
         <v>45506</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C39" s="2">
         <v>999.94</v>
       </c>
       <c r="D39" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" t="s">
         <v>88</v>
       </c>
-      <c r="E39" t="s">
-        <v>89</v>
-      </c>
       <c r="F39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M39">
         <v>18.61</v>
@@ -2948,37 +2942,37 @@
         <v>45505</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C40" s="2">
         <v>875</v>
       </c>
       <c r="D40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
         <v>24</v>
-      </c>
-      <c r="F40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" t="s">
-        <v>25</v>
       </c>
       <c r="H40">
         <v>24950</v>
       </c>
       <c r="I40" t="s">
+        <v>92</v>
+      </c>
+      <c r="J40" t="s">
         <v>93</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>94</v>
       </c>
-      <c r="K40" t="s">
-        <v>95</v>
-      </c>
       <c r="L40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M40">
         <v>125</v>
@@ -2992,37 +2986,37 @@
         <v>45505</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C41" s="2">
         <v>320</v>
       </c>
       <c r="D41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H41">
         <v>25000</v>
       </c>
       <c r="I41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J41" t="s">
+        <v>95</v>
+      </c>
+      <c r="K41" t="s">
         <v>96</v>
       </c>
-      <c r="K41" t="s">
-        <v>97</v>
-      </c>
       <c r="L41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M41">
         <v>25</v>
@@ -3036,37 +3030,37 @@
         <v>45505</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C42" s="2">
         <v>960</v>
       </c>
       <c r="D42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H42">
         <v>25000</v>
       </c>
       <c r="I42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M42">
         <v>75</v>
@@ -3080,37 +3074,37 @@
         <v>45505</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C43" s="2">
         <v>875</v>
       </c>
       <c r="D43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H43">
         <v>25000</v>
       </c>
       <c r="I43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J43" t="s">
+        <v>98</v>
+      </c>
+      <c r="K43" t="s">
         <v>99</v>
       </c>
-      <c r="K43" t="s">
-        <v>100</v>
-      </c>
       <c r="L43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M43">
         <v>125</v>
@@ -3124,37 +3118,37 @@
         <v>45505</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C44" s="2">
         <v>6.25</v>
       </c>
       <c r="D44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E44" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" t="s">
         <v>24</v>
-      </c>
-      <c r="F44" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" t="s">
-        <v>25</v>
       </c>
       <c r="H44">
         <v>24950</v>
       </c>
       <c r="I44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M44">
         <v>125</v>
@@ -3168,37 +3162,37 @@
         <v>45505</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C45" s="2">
         <v>320</v>
       </c>
       <c r="D45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H45">
         <v>25000</v>
       </c>
       <c r="I45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M45">
         <v>25</v>
@@ -3212,37 +3206,37 @@
         <v>45504</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C46" s="2">
         <v>2471.25</v>
       </c>
       <c r="D46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" t="s">
         <v>24</v>
-      </c>
-      <c r="F46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" t="s">
-        <v>25</v>
       </c>
       <c r="H46">
         <v>24950</v>
       </c>
       <c r="I46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J46" t="s">
+        <v>102</v>
+      </c>
+      <c r="K46" t="s">
         <v>103</v>
       </c>
-      <c r="K46" t="s">
-        <v>104</v>
-      </c>
       <c r="L46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M46">
         <v>25</v>
@@ -3256,37 +3250,37 @@
         <v>45504</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C47" s="2">
         <v>2436.25</v>
       </c>
       <c r="D47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E47" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
         <v>24</v>
-      </c>
-      <c r="F47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" t="s">
-        <v>25</v>
       </c>
       <c r="H47">
         <v>25000</v>
       </c>
       <c r="I47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J47" t="s">
+        <v>104</v>
+      </c>
+      <c r="K47" t="s">
         <v>105</v>
       </c>
-      <c r="K47" t="s">
-        <v>106</v>
-      </c>
       <c r="L47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M47">
         <v>25</v>
@@ -3300,37 +3294,37 @@
         <v>45504</v>
       </c>
       <c r="B48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C48" s="2">
         <v>2136.25</v>
       </c>
       <c r="D48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E48" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
         <v>24</v>
-      </c>
-      <c r="F48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" t="s">
-        <v>25</v>
       </c>
       <c r="H48">
         <v>24950</v>
       </c>
       <c r="I48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J48" t="s">
+        <v>106</v>
+      </c>
+      <c r="K48" t="s">
         <v>107</v>
       </c>
-      <c r="K48" t="s">
-        <v>108</v>
-      </c>
       <c r="L48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M48">
         <v>25</v>
@@ -3344,37 +3338,37 @@
         <v>45504</v>
       </c>
       <c r="B49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C49" s="2">
         <v>2613.75</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E49" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" t="s">
         <v>24</v>
-      </c>
-      <c r="F49" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" t="s">
-        <v>25</v>
       </c>
       <c r="H49">
         <v>25000</v>
       </c>
       <c r="I49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J49" t="s">
+        <v>108</v>
+      </c>
+      <c r="K49" t="s">
         <v>109</v>
       </c>
-      <c r="K49" t="s">
-        <v>110</v>
-      </c>
       <c r="L49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M49">
         <v>25</v>
@@ -3388,37 +3382,37 @@
         <v>45503</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C50" s="2">
         <v>2568.75</v>
       </c>
       <c r="D50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E50" t="s">
+        <v>23</v>
+      </c>
+      <c r="F50" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" t="s">
         <v>24</v>
-      </c>
-      <c r="F50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" t="s">
-        <v>25</v>
       </c>
       <c r="H50">
         <v>24900</v>
       </c>
       <c r="I50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J50" t="s">
+        <v>110</v>
+      </c>
+      <c r="K50" t="s">
         <v>111</v>
       </c>
-      <c r="K50" t="s">
-        <v>112</v>
-      </c>
       <c r="L50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M50">
         <v>25</v>
@@ -3432,37 +3426,37 @@
         <v>45503</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C51" s="2">
         <v>2568.75</v>
       </c>
       <c r="D51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E51" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
         <v>24</v>
-      </c>
-      <c r="F51" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" t="s">
-        <v>25</v>
       </c>
       <c r="H51">
         <v>24900</v>
       </c>
       <c r="I51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K51" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M51">
         <v>25</v>
@@ -3476,37 +3470,37 @@
         <v>45503</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C52" s="2">
         <v>4250</v>
       </c>
       <c r="D52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H52">
         <v>24950</v>
       </c>
       <c r="I52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J52" t="s">
+        <v>113</v>
+      </c>
+      <c r="K52" t="s">
         <v>114</v>
       </c>
-      <c r="K52" t="s">
-        <v>115</v>
-      </c>
       <c r="L52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M52">
         <v>50</v>
@@ -3520,37 +3514,37 @@
         <v>45503</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C53" s="2">
         <v>1400</v>
       </c>
       <c r="D53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H53">
         <v>25150</v>
       </c>
       <c r="I53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J53" t="s">
+        <v>115</v>
+      </c>
+      <c r="K53" t="s">
         <v>116</v>
       </c>
-      <c r="K53" t="s">
-        <v>117</v>
-      </c>
       <c r="L53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M53">
         <v>50</v>
@@ -3564,37 +3558,37 @@
         <v>45503</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C54" s="2">
         <v>2625</v>
       </c>
       <c r="D54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H54">
         <v>24950</v>
       </c>
       <c r="I54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J54" t="s">
+        <v>117</v>
+      </c>
+      <c r="K54" t="s">
         <v>118</v>
       </c>
-      <c r="K54" t="s">
-        <v>119</v>
-      </c>
       <c r="L54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M54">
         <v>25</v>
@@ -3608,37 +3602,37 @@
         <v>45503</v>
       </c>
       <c r="B55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C55" s="2">
         <v>2625</v>
       </c>
       <c r="D55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H55">
         <v>24950</v>
       </c>
       <c r="I55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M55">
         <v>25</v>
@@ -3652,37 +3646,37 @@
         <v>45503</v>
       </c>
       <c r="B56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C56" s="2">
         <v>1435</v>
       </c>
       <c r="D56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H56">
         <v>25150</v>
       </c>
       <c r="I56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J56" t="s">
+        <v>120</v>
+      </c>
+      <c r="K56" t="s">
         <v>121</v>
       </c>
-      <c r="K56" t="s">
-        <v>122</v>
-      </c>
       <c r="L56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M56">
         <v>50</v>
@@ -3696,37 +3690,37 @@
         <v>45503</v>
       </c>
       <c r="B57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C57" s="2">
         <v>5097.5</v>
       </c>
       <c r="D57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E57" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57" t="s">
+        <v>21</v>
+      </c>
+      <c r="G57" t="s">
         <v>24</v>
-      </c>
-      <c r="F57" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" t="s">
-        <v>25</v>
       </c>
       <c r="H57">
         <v>24900</v>
       </c>
       <c r="I57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J57" t="s">
+        <v>122</v>
+      </c>
+      <c r="K57" t="s">
         <v>123</v>
       </c>
-      <c r="K57" t="s">
-        <v>124</v>
-      </c>
       <c r="L57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M57">
         <v>50</v>
@@ -3740,37 +3734,37 @@
         <v>45502</v>
       </c>
       <c r="B58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C58" s="2">
         <v>4950</v>
       </c>
       <c r="D58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H58">
         <v>25000</v>
       </c>
       <c r="I58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J58" t="s">
+        <v>124</v>
+      </c>
+      <c r="K58" t="s">
         <v>125</v>
       </c>
-      <c r="K58" t="s">
-        <v>126</v>
-      </c>
       <c r="L58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M58">
         <v>75</v>
@@ -3784,37 +3778,37 @@
         <v>45502</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C59" s="2">
         <v>600</v>
       </c>
       <c r="D59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E59" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
         <v>24</v>
-      </c>
-      <c r="F59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" t="s">
-        <v>25</v>
       </c>
       <c r="H59">
         <v>24450</v>
       </c>
       <c r="I59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J59" t="s">
+        <v>126</v>
+      </c>
+      <c r="K59" t="s">
         <v>127</v>
       </c>
-      <c r="K59" t="s">
-        <v>128</v>
-      </c>
       <c r="L59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M59">
         <v>50</v>
@@ -3828,37 +3822,37 @@
         <v>45502</v>
       </c>
       <c r="B60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C60" s="2">
         <v>4192.5</v>
       </c>
       <c r="D60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E60" t="s">
+        <v>23</v>
+      </c>
+      <c r="F60" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60" t="s">
         <v>24</v>
-      </c>
-      <c r="F60" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" t="s">
-        <v>25</v>
       </c>
       <c r="H60">
         <v>24900</v>
       </c>
       <c r="I60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J60" t="s">
+        <v>128</v>
+      </c>
+      <c r="K60" t="s">
         <v>129</v>
       </c>
-      <c r="K60" t="s">
-        <v>130</v>
-      </c>
       <c r="L60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M60">
         <v>50</v>
@@ -3872,37 +3866,37 @@
         <v>45502</v>
       </c>
       <c r="B61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C61" s="2">
         <v>900</v>
       </c>
       <c r="D61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H61">
         <v>25400</v>
       </c>
       <c r="I61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J61" t="s">
+        <v>130</v>
+      </c>
+      <c r="K61" t="s">
         <v>131</v>
       </c>
-      <c r="K61" t="s">
-        <v>132</v>
-      </c>
       <c r="L61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M61">
         <v>100</v>
@@ -3916,37 +3910,37 @@
         <v>45502</v>
       </c>
       <c r="B62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C62" s="2">
         <v>300</v>
       </c>
       <c r="D62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E62" t="s">
+        <v>23</v>
+      </c>
+      <c r="F62" t="s">
+        <v>21</v>
+      </c>
+      <c r="G62" t="s">
         <v>24</v>
-      </c>
-      <c r="F62" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" t="s">
-        <v>25</v>
       </c>
       <c r="H62">
         <v>24450</v>
       </c>
       <c r="I62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J62" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M62">
         <v>25</v>
@@ -3960,37 +3954,37 @@
         <v>45502</v>
       </c>
       <c r="B63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C63" s="2">
         <v>9375</v>
       </c>
       <c r="D63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E63" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63" t="s">
+        <v>21</v>
+      </c>
+      <c r="G63" t="s">
         <v>24</v>
-      </c>
-      <c r="F63" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" t="s">
-        <v>25</v>
       </c>
       <c r="H63">
         <v>24900</v>
       </c>
       <c r="I63" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J63" t="s">
+        <v>133</v>
+      </c>
+      <c r="K63" t="s">
         <v>134</v>
       </c>
-      <c r="K63" t="s">
-        <v>135</v>
-      </c>
       <c r="L63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M63">
         <v>75</v>
@@ -4004,37 +3998,37 @@
         <v>45502</v>
       </c>
       <c r="B64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C64" s="2">
         <v>7500</v>
       </c>
       <c r="D64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H64">
         <v>25000</v>
       </c>
       <c r="I64" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J64" t="s">
+        <v>135</v>
+      </c>
+      <c r="K64" t="s">
         <v>136</v>
       </c>
-      <c r="K64" t="s">
-        <v>137</v>
-      </c>
       <c r="L64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M64">
         <v>75</v>
@@ -4048,37 +4042,37 @@
         <v>45502</v>
       </c>
       <c r="B65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C65" s="2">
         <v>2097.5</v>
       </c>
       <c r="D65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" t="s">
+        <v>21</v>
+      </c>
+      <c r="G65" t="s">
         <v>24</v>
-      </c>
-      <c r="F65" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" t="s">
-        <v>25</v>
       </c>
       <c r="H65">
         <v>24900</v>
       </c>
       <c r="I65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J65" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M65">
         <v>25</v>
@@ -4092,37 +4086,37 @@
         <v>45502</v>
       </c>
       <c r="B66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C66" s="2">
         <v>783.75</v>
       </c>
       <c r="D66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E66" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66" t="s">
+        <v>21</v>
+      </c>
+      <c r="G66" t="s">
         <v>24</v>
-      </c>
-      <c r="F66" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" t="s">
-        <v>25</v>
       </c>
       <c r="H66">
         <v>24450</v>
       </c>
       <c r="I66" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J66" t="s">
+        <v>138</v>
+      </c>
+      <c r="K66" t="s">
         <v>139</v>
       </c>
-      <c r="K66" t="s">
-        <v>140</v>
-      </c>
       <c r="L66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M66">
         <v>75</v>
@@ -4136,37 +4130,37 @@
         <v>45502</v>
       </c>
       <c r="B67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C67" s="2">
         <v>1035</v>
       </c>
       <c r="D67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H67">
         <v>25400</v>
       </c>
       <c r="I67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J67" t="s">
+        <v>140</v>
+      </c>
+      <c r="K67" t="s">
         <v>141</v>
       </c>
-      <c r="K67" t="s">
-        <v>142</v>
-      </c>
       <c r="L67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M67">
         <v>100</v>
@@ -4180,37 +4174,37 @@
         <v>45499</v>
       </c>
       <c r="B68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C68" s="2">
         <v>7125</v>
       </c>
       <c r="D68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H68">
         <v>24600</v>
       </c>
       <c r="I68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J68" t="s">
+        <v>142</v>
+      </c>
+      <c r="K68" t="s">
         <v>143</v>
       </c>
-      <c r="K68" t="s">
-        <v>144</v>
-      </c>
       <c r="L68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M68">
         <v>25</v>
@@ -4224,37 +4218,37 @@
         <v>45499</v>
       </c>
       <c r="B69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C69" s="2">
         <v>2653.75</v>
       </c>
       <c r="D69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E69" t="s">
+        <v>23</v>
+      </c>
+      <c r="F69" t="s">
+        <v>21</v>
+      </c>
+      <c r="G69" t="s">
         <v>24</v>
-      </c>
-      <c r="F69" t="s">
-        <v>22</v>
-      </c>
-      <c r="G69" t="s">
-        <v>25</v>
       </c>
       <c r="H69">
         <v>24650</v>
       </c>
       <c r="I69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J69" t="s">
+        <v>144</v>
+      </c>
+      <c r="K69" t="s">
         <v>145</v>
       </c>
-      <c r="K69" t="s">
-        <v>146</v>
-      </c>
       <c r="L69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M69">
         <v>25</v>
@@ -4268,37 +4262,37 @@
         <v>45499</v>
       </c>
       <c r="B70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C70" s="2">
         <v>4767.5</v>
       </c>
       <c r="D70" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H70">
         <v>24600</v>
       </c>
       <c r="I70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J70" t="s">
+        <v>146</v>
+      </c>
+      <c r="K70" t="s">
         <v>147</v>
       </c>
-      <c r="K70" t="s">
-        <v>148</v>
-      </c>
       <c r="L70" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M70">
         <v>25</v>
@@ -4312,37 +4306,37 @@
         <v>45499</v>
       </c>
       <c r="B71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C71" s="2">
         <v>3450</v>
       </c>
       <c r="D71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E71" t="s">
+        <v>23</v>
+      </c>
+      <c r="F71" t="s">
+        <v>21</v>
+      </c>
+      <c r="G71" t="s">
         <v>24</v>
-      </c>
-      <c r="F71" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" t="s">
-        <v>25</v>
       </c>
       <c r="H71">
         <v>24650</v>
       </c>
       <c r="I71" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J71" t="s">
+        <v>148</v>
+      </c>
+      <c r="K71" t="s">
         <v>149</v>
       </c>
-      <c r="K71" t="s">
-        <v>150</v>
-      </c>
       <c r="L71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M71">
         <v>25</v>
@@ -4356,37 +4350,37 @@
         <v>45496</v>
       </c>
       <c r="B72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C72" s="2">
         <v>5445</v>
       </c>
       <c r="D72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H72">
         <v>24500</v>
       </c>
       <c r="I72" t="s">
+        <v>150</v>
+      </c>
+      <c r="J72" t="s">
         <v>151</v>
       </c>
-      <c r="J72" t="s">
+      <c r="K72" t="s">
         <v>152</v>
       </c>
-      <c r="K72" t="s">
-        <v>153</v>
-      </c>
       <c r="L72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M72">
         <v>50</v>
@@ -4400,37 +4394,37 @@
         <v>45496</v>
       </c>
       <c r="B73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C73" s="2">
         <v>2722.5</v>
       </c>
       <c r="D73" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H73">
         <v>24500</v>
       </c>
       <c r="I73" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J73" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K73" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M73">
         <v>25</v>
@@ -4444,37 +4438,37 @@
         <v>45496</v>
       </c>
       <c r="B74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C74" s="2">
         <v>10265</v>
       </c>
       <c r="D74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H74">
         <v>24500</v>
       </c>
       <c r="I74" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J74" t="s">
+        <v>154</v>
+      </c>
+      <c r="K74" t="s">
         <v>155</v>
       </c>
-      <c r="K74" t="s">
-        <v>156</v>
-      </c>
       <c r="L74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M74">
         <v>50</v>
@@ -4488,37 +4482,37 @@
         <v>45496</v>
       </c>
       <c r="B75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C75" s="2">
         <v>2723.75</v>
       </c>
       <c r="D75" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H75">
         <v>24500</v>
       </c>
       <c r="I75" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J75" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K75" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M75">
         <v>25</v>
@@ -4532,37 +4526,37 @@
         <v>45496</v>
       </c>
       <c r="B76" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C76" s="2">
         <v>10267.5</v>
       </c>
       <c r="D76" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F76" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H76">
         <v>24500</v>
       </c>
       <c r="I76" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K76" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M76">
         <v>50</v>
@@ -4576,37 +4570,37 @@
         <v>45495</v>
       </c>
       <c r="B77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C77" s="2">
         <v>19020</v>
       </c>
       <c r="D77" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E77" t="s">
+        <v>23</v>
+      </c>
+      <c r="F77" t="s">
+        <v>21</v>
+      </c>
+      <c r="G77" t="s">
         <v>24</v>
-      </c>
-      <c r="F77" t="s">
-        <v>22</v>
-      </c>
-      <c r="G77" t="s">
-        <v>25</v>
       </c>
       <c r="H77">
         <v>24600</v>
       </c>
       <c r="I77" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J77" t="s">
+        <v>158</v>
+      </c>
+      <c r="K77" t="s">
         <v>159</v>
       </c>
-      <c r="K77" t="s">
-        <v>160</v>
-      </c>
       <c r="L77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M77">
         <v>75</v>
@@ -4620,37 +4614,37 @@
         <v>45495</v>
       </c>
       <c r="B78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C78" s="2">
         <v>18911.25</v>
       </c>
       <c r="D78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E78" t="s">
+        <v>23</v>
+      </c>
+      <c r="F78" t="s">
+        <v>21</v>
+      </c>
+      <c r="G78" t="s">
         <v>24</v>
-      </c>
-      <c r="F78" t="s">
-        <v>22</v>
-      </c>
-      <c r="G78" t="s">
-        <v>25</v>
       </c>
       <c r="H78">
         <v>24600</v>
       </c>
       <c r="I78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J78" t="s">
+        <v>160</v>
+      </c>
+      <c r="K78" t="s">
         <v>161</v>
       </c>
-      <c r="K78" t="s">
-        <v>162</v>
-      </c>
       <c r="L78" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M78">
         <v>75</v>
@@ -4664,37 +4658,37 @@
         <v>45491</v>
       </c>
       <c r="B79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C79" s="2">
         <v>4000</v>
       </c>
       <c r="D79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G79" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H79">
         <v>24650</v>
       </c>
       <c r="I79" t="s">
+        <v>162</v>
+      </c>
+      <c r="J79" t="s">
         <v>163</v>
       </c>
-      <c r="J79" t="s">
+      <c r="K79" t="s">
         <v>164</v>
       </c>
-      <c r="K79" t="s">
-        <v>165</v>
-      </c>
       <c r="L79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M79">
         <v>100</v>
@@ -4708,37 +4702,37 @@
         <v>45491</v>
       </c>
       <c r="B80" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C80" s="2">
         <v>8710</v>
       </c>
       <c r="D80" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F80" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H80">
         <v>24600</v>
       </c>
       <c r="I80" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J80" t="s">
+        <v>165</v>
+      </c>
+      <c r="K80" t="s">
         <v>166</v>
       </c>
-      <c r="K80" t="s">
-        <v>167</v>
-      </c>
       <c r="L80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M80">
         <v>100</v>
@@ -4752,37 +4746,37 @@
         <v>45491</v>
       </c>
       <c r="B81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C81" s="2">
         <v>5000</v>
       </c>
       <c r="D81" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E81" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H81">
         <v>24650</v>
       </c>
       <c r="I81" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J81" t="s">
+        <v>167</v>
+      </c>
+      <c r="K81" t="s">
         <v>168</v>
       </c>
-      <c r="K81" t="s">
-        <v>169</v>
-      </c>
       <c r="L81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M81">
         <v>100</v>
@@ -4796,37 +4790,37 @@
         <v>45491</v>
       </c>
       <c r="B82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C82" s="2">
         <v>300</v>
       </c>
       <c r="D82" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E82" t="s">
+        <v>23</v>
+      </c>
+      <c r="F82" t="s">
+        <v>21</v>
+      </c>
+      <c r="G82" t="s">
         <v>24</v>
-      </c>
-      <c r="F82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G82" t="s">
-        <v>25</v>
       </c>
       <c r="H82">
         <v>24650</v>
       </c>
       <c r="I82" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J82" t="s">
+        <v>169</v>
+      </c>
+      <c r="K82" t="s">
         <v>170</v>
       </c>
-      <c r="K82" t="s">
-        <v>171</v>
-      </c>
       <c r="L82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M82">
         <v>100</v>
@@ -4840,37 +4834,37 @@
         <v>45491</v>
       </c>
       <c r="B83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C83" s="2">
         <v>2822.5</v>
       </c>
       <c r="D83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H83">
         <v>24650</v>
       </c>
       <c r="I83" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K83" t="s">
         <v>172</v>
       </c>
-      <c r="K83" t="s">
-        <v>173</v>
-      </c>
       <c r="L83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M83">
         <v>50</v>
@@ -4884,37 +4878,37 @@
         <v>45491</v>
       </c>
       <c r="B84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C84" s="2">
         <v>4965</v>
       </c>
       <c r="D84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G84" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H84">
         <v>24600</v>
       </c>
       <c r="I84" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J84" t="s">
+        <v>173</v>
+      </c>
+      <c r="K84" t="s">
         <v>174</v>
       </c>
-      <c r="K84" t="s">
-        <v>175</v>
-      </c>
       <c r="L84" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M84">
         <v>100</v>
@@ -4928,37 +4922,37 @@
         <v>45491</v>
       </c>
       <c r="B85" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C85" s="2">
         <v>3512.5</v>
       </c>
       <c r="D85" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E85" t="s">
+        <v>23</v>
+      </c>
+      <c r="F85" t="s">
+        <v>21</v>
+      </c>
+      <c r="G85" t="s">
         <v>24</v>
-      </c>
-      <c r="F85" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" t="s">
-        <v>25</v>
       </c>
       <c r="H85">
         <v>24650</v>
       </c>
       <c r="I85" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J85" t="s">
+        <v>175</v>
+      </c>
+      <c r="K85" t="s">
         <v>176</v>
       </c>
-      <c r="K85" t="s">
-        <v>177</v>
-      </c>
       <c r="L85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M85">
         <v>50</v>
@@ -4972,37 +4966,37 @@
         <v>45491</v>
       </c>
       <c r="B86" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C86" s="2">
         <v>5100</v>
       </c>
       <c r="D86" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E86" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F86" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H86">
         <v>24650</v>
       </c>
       <c r="I86" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J86" t="s">
+        <v>177</v>
+      </c>
+      <c r="K86" t="s">
         <v>178</v>
       </c>
-      <c r="K86" t="s">
-        <v>179</v>
-      </c>
       <c r="L86" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M86">
         <v>100</v>
@@ -5016,37 +5010,37 @@
         <v>45491</v>
       </c>
       <c r="B87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C87" s="2">
         <v>1715</v>
       </c>
       <c r="D87" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E87" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H87">
         <v>24650</v>
       </c>
       <c r="I87" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J87" t="s">
+        <v>179</v>
+      </c>
+      <c r="K87" t="s">
         <v>180</v>
       </c>
-      <c r="K87" t="s">
-        <v>181</v>
-      </c>
       <c r="L87" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M87">
         <v>100</v>
@@ -5060,37 +5054,37 @@
         <v>45489</v>
       </c>
       <c r="B88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C88" s="2">
         <v>1752.5</v>
       </c>
       <c r="D88" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H88">
         <v>24650</v>
       </c>
       <c r="I88" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J88" t="s">
+        <v>181</v>
+      </c>
+      <c r="K88" t="s">
         <v>182</v>
       </c>
-      <c r="K88" t="s">
-        <v>183</v>
-      </c>
       <c r="L88" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M88">
         <v>25</v>
@@ -5104,37 +5098,37 @@
         <v>45489</v>
       </c>
       <c r="B89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C89" s="2">
         <v>1941.25</v>
       </c>
       <c r="D89" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E89" t="s">
+        <v>23</v>
+      </c>
+      <c r="F89" t="s">
+        <v>21</v>
+      </c>
+      <c r="G89" t="s">
         <v>24</v>
-      </c>
-      <c r="F89" t="s">
-        <v>22</v>
-      </c>
-      <c r="G89" t="s">
-        <v>25</v>
       </c>
       <c r="H89">
         <v>24650</v>
       </c>
       <c r="I89" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J89" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K89" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L89" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M89">
         <v>25</v>
@@ -5148,37 +5142,37 @@
         <v>45489</v>
       </c>
       <c r="B90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C90" s="2">
         <v>1942.5</v>
       </c>
       <c r="D90" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E90" t="s">
+        <v>23</v>
+      </c>
+      <c r="F90" t="s">
+        <v>21</v>
+      </c>
+      <c r="G90" t="s">
         <v>24</v>
-      </c>
-      <c r="F90" t="s">
-        <v>22</v>
-      </c>
-      <c r="G90" t="s">
-        <v>25</v>
       </c>
       <c r="H90">
         <v>24650</v>
       </c>
       <c r="I90" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J90" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K90" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L90" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M90">
         <v>25</v>
@@ -5192,37 +5186,37 @@
         <v>45489</v>
       </c>
       <c r="B91" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C91" s="2">
         <v>1751.25</v>
       </c>
       <c r="D91" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E91" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F91" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H91">
         <v>24650</v>
       </c>
       <c r="I91" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J91" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K91" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L91" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M91">
         <v>25</v>
@@ -5236,37 +5230,37 @@
         <v>45488</v>
       </c>
       <c r="B92" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C92" s="2">
         <v>5787.5</v>
       </c>
       <c r="D92" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E92" t="s">
+        <v>23</v>
+      </c>
+      <c r="F92" t="s">
+        <v>21</v>
+      </c>
+      <c r="G92" t="s">
         <v>24</v>
-      </c>
-      <c r="F92" t="s">
-        <v>22</v>
-      </c>
-      <c r="G92" t="s">
-        <v>25</v>
       </c>
       <c r="H92">
         <v>24650</v>
       </c>
       <c r="I92" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J92" t="s">
+        <v>186</v>
+      </c>
+      <c r="K92" t="s">
         <v>187</v>
       </c>
-      <c r="K92" t="s">
-        <v>188</v>
-      </c>
       <c r="L92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M92">
         <v>50</v>
@@ -5280,37 +5274,37 @@
         <v>45488</v>
       </c>
       <c r="B93" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C93" s="2">
         <v>5762.5</v>
       </c>
       <c r="D93" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E93" t="s">
+        <v>23</v>
+      </c>
+      <c r="F93" t="s">
+        <v>21</v>
+      </c>
+      <c r="G93" t="s">
         <v>24</v>
-      </c>
-      <c r="F93" t="s">
-        <v>22</v>
-      </c>
-      <c r="G93" t="s">
-        <v>25</v>
       </c>
       <c r="H93">
         <v>24650</v>
       </c>
       <c r="I93" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J93" t="s">
+        <v>188</v>
+      </c>
+      <c r="K93" t="s">
         <v>189</v>
       </c>
-      <c r="K93" t="s">
-        <v>190</v>
-      </c>
       <c r="L93" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M93">
         <v>50</v>
@@ -5324,37 +5318,37 @@
         <v>45484</v>
       </c>
       <c r="B94" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C94" s="2">
         <v>1601.25</v>
       </c>
       <c r="D94" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E94" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F94" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H94">
         <v>24350</v>
       </c>
       <c r="I94" t="s">
+        <v>190</v>
+      </c>
+      <c r="J94" t="s">
         <v>191</v>
       </c>
-      <c r="J94" t="s">
+      <c r="K94" t="s">
         <v>192</v>
       </c>
-      <c r="K94" t="s">
-        <v>193</v>
-      </c>
       <c r="L94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M94">
         <v>75</v>
@@ -5368,37 +5362,37 @@
         <v>45484</v>
       </c>
       <c r="B95" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C95" s="2">
         <v>4000</v>
       </c>
       <c r="D95" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F95" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G95" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H95">
         <v>24350</v>
       </c>
       <c r="I95" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J95" t="s">
+        <v>193</v>
+      </c>
+      <c r="K95" t="s">
         <v>194</v>
       </c>
-      <c r="K95" t="s">
-        <v>195</v>
-      </c>
       <c r="L95" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M95">
         <v>100</v>
@@ -5412,37 +5406,37 @@
         <v>45484</v>
       </c>
       <c r="B96" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C96" s="2">
         <v>107.5</v>
       </c>
       <c r="D96" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E96" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F96" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H96">
         <v>24400</v>
       </c>
       <c r="I96" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J96" t="s">
+        <v>195</v>
+      </c>
+      <c r="K96" t="s">
         <v>196</v>
       </c>
-      <c r="K96" t="s">
-        <v>197</v>
-      </c>
       <c r="L96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M96">
         <v>25</v>
@@ -5456,37 +5450,37 @@
         <v>45484</v>
       </c>
       <c r="B97" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C97" s="2">
         <v>351.25</v>
       </c>
       <c r="D97" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E97" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F97" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H97">
         <v>24300</v>
       </c>
       <c r="I97" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J97" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K97" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L97" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M97">
         <v>25</v>
@@ -5500,37 +5494,37 @@
         <v>45484</v>
       </c>
       <c r="B98" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C98" s="2">
         <v>62.5</v>
       </c>
       <c r="D98" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F98" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G98" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H98">
         <v>24400</v>
       </c>
       <c r="I98" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J98" t="s">
+        <v>198</v>
+      </c>
+      <c r="K98" t="s">
         <v>199</v>
       </c>
-      <c r="K98" t="s">
-        <v>200</v>
-      </c>
       <c r="L98" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M98">
         <v>25</v>
@@ -5544,37 +5538,37 @@
         <v>45484</v>
       </c>
       <c r="B99" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C99" s="2">
         <v>2668.75</v>
       </c>
       <c r="D99" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E99" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F99" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G99" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H99">
         <v>24350</v>
       </c>
       <c r="I99" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J99" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K99" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M99">
         <v>125</v>
@@ -5588,37 +5582,37 @@
         <v>45484</v>
       </c>
       <c r="B100" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C100" s="2">
         <v>498.75</v>
       </c>
       <c r="D100" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E100" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F100" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H100">
         <v>24300</v>
       </c>
       <c r="I100" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J100" t="s">
+        <v>201</v>
+      </c>
+      <c r="K100" t="s">
         <v>202</v>
       </c>
-      <c r="K100" t="s">
-        <v>203</v>
-      </c>
       <c r="L100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M100">
         <v>25</v>
@@ -5632,37 +5626,37 @@
         <v>45484</v>
       </c>
       <c r="B101" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C101" s="2">
         <v>1493.75</v>
       </c>
       <c r="D101" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E101" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F101" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G101" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H101">
         <v>24350</v>
       </c>
       <c r="I101" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J101" t="s">
+        <v>203</v>
+      </c>
+      <c r="K101" t="s">
         <v>204</v>
       </c>
-      <c r="K101" t="s">
-        <v>205</v>
-      </c>
       <c r="L101" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M101">
         <v>25</v>
@@ -5676,37 +5670,37 @@
         <v>45484</v>
       </c>
       <c r="B102" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C102" s="2">
         <v>2987.5</v>
       </c>
       <c r="D102" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E102" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F102" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G102" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H102">
         <v>24350</v>
       </c>
       <c r="I102" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J102" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K102" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L102" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M102">
         <v>50</v>
@@ -5720,37 +5714,37 @@
         <v>45484</v>
       </c>
       <c r="B103" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C103" s="2">
         <v>1493.75</v>
       </c>
       <c r="D103" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E103" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F103" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G103" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H103">
         <v>24350</v>
       </c>
       <c r="I103" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J103" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K103" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L103" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M103">
         <v>25</v>
@@ -5764,37 +5758,37 @@
         <v>45483</v>
       </c>
       <c r="B104" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C104" s="2">
         <v>13792.5</v>
       </c>
       <c r="D104" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E104" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F104" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H104">
         <v>24100</v>
       </c>
       <c r="I104" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J104" t="s">
+        <v>207</v>
+      </c>
+      <c r="K104" t="s">
         <v>208</v>
       </c>
-      <c r="K104" t="s">
-        <v>209</v>
-      </c>
       <c r="L104" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M104">
         <v>75</v>
@@ -5808,37 +5802,37 @@
         <v>45483</v>
       </c>
       <c r="B105" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C105" s="2">
         <v>16700</v>
       </c>
       <c r="D105" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E105" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F105" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G105" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H105">
         <v>24100</v>
       </c>
       <c r="I105" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J105" t="s">
+        <v>209</v>
+      </c>
+      <c r="K105" t="s">
         <v>210</v>
       </c>
-      <c r="K105" t="s">
-        <v>211</v>
-      </c>
       <c r="L105" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M105">
         <v>100</v>
@@ -5852,37 +5846,37 @@
         <v>45483</v>
       </c>
       <c r="B106" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C106" s="2">
         <v>4596.25</v>
       </c>
       <c r="D106" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E106" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F106" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G106" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H106">
         <v>24100</v>
       </c>
       <c r="I106" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J106" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K106" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L106" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M106">
         <v>25</v>
@@ -5896,37 +5890,37 @@
         <v>45482</v>
       </c>
       <c r="B107" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C107" s="2">
         <v>6041.25</v>
       </c>
       <c r="D107" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E107" t="s">
+        <v>23</v>
+      </c>
+      <c r="F107" t="s">
+        <v>21</v>
+      </c>
+      <c r="G107" t="s">
         <v>24</v>
-      </c>
-      <c r="F107" t="s">
-        <v>22</v>
-      </c>
-      <c r="G107" t="s">
-        <v>25</v>
       </c>
       <c r="H107">
         <v>24350</v>
       </c>
       <c r="I107" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J107" t="s">
+        <v>212</v>
+      </c>
+      <c r="K107" t="s">
         <v>213</v>
       </c>
-      <c r="K107" t="s">
-        <v>214</v>
-      </c>
       <c r="L107" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M107">
         <v>75</v>
@@ -5940,37 +5934,37 @@
         <v>45482</v>
       </c>
       <c r="B108" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C108" s="2">
         <v>3437.5</v>
       </c>
       <c r="D108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E108" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F108" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G108" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H108">
         <v>24300</v>
       </c>
       <c r="I108" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J108" t="s">
+        <v>214</v>
+      </c>
+      <c r="K108" t="s">
         <v>215</v>
       </c>
-      <c r="K108" t="s">
-        <v>216</v>
-      </c>
       <c r="L108" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M108">
         <v>25</v>
@@ -5984,37 +5978,37 @@
         <v>45482</v>
       </c>
       <c r="B109" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C109" s="2">
         <v>5855</v>
       </c>
       <c r="D109" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E109" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F109" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G109" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H109">
         <v>24400</v>
       </c>
       <c r="I109" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J109" t="s">
+        <v>216</v>
+      </c>
+      <c r="K109" t="s">
         <v>217</v>
       </c>
-      <c r="K109" t="s">
-        <v>218</v>
-      </c>
       <c r="L109" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M109">
         <v>50</v>
@@ -6028,37 +6022,37 @@
         <v>45482</v>
       </c>
       <c r="B110" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C110" s="2">
         <v>2225</v>
       </c>
       <c r="D110" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E110" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F110" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G110" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H110">
         <v>24400</v>
       </c>
       <c r="I110" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J110" t="s">
+        <v>218</v>
+      </c>
+      <c r="K110" t="s">
         <v>219</v>
       </c>
-      <c r="K110" t="s">
-        <v>220</v>
-      </c>
       <c r="L110" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M110">
         <v>25</v>
@@ -6072,37 +6066,37 @@
         <v>45482</v>
       </c>
       <c r="B111" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C111" s="2">
         <v>8030</v>
       </c>
       <c r="D111" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E111" t="s">
+        <v>23</v>
+      </c>
+      <c r="F111" t="s">
+        <v>21</v>
+      </c>
+      <c r="G111" t="s">
         <v>24</v>
-      </c>
-      <c r="F111" t="s">
-        <v>22</v>
-      </c>
-      <c r="G111" t="s">
-        <v>25</v>
       </c>
       <c r="H111">
         <v>24350</v>
       </c>
       <c r="I111" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J111" t="s">
+        <v>220</v>
+      </c>
+      <c r="K111" t="s">
         <v>221</v>
       </c>
-      <c r="K111" t="s">
-        <v>222</v>
-      </c>
       <c r="L111" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M111">
         <v>100</v>
@@ -6116,37 +6110,37 @@
         <v>45482</v>
       </c>
       <c r="B112" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C112" s="2">
         <v>2013.75</v>
       </c>
       <c r="D112" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E112" t="s">
+        <v>23</v>
+      </c>
+      <c r="F112" t="s">
+        <v>21</v>
+      </c>
+      <c r="G112" t="s">
         <v>24</v>
-      </c>
-      <c r="F112" t="s">
-        <v>22</v>
-      </c>
-      <c r="G112" t="s">
-        <v>25</v>
       </c>
       <c r="H112">
         <v>24350</v>
       </c>
       <c r="I112" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J112" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K112" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L112" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M112">
         <v>25</v>
@@ -6160,37 +6154,37 @@
         <v>45482</v>
       </c>
       <c r="B113" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C113" s="2">
         <v>14545</v>
       </c>
       <c r="D113" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F113" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H113">
         <v>24300</v>
       </c>
       <c r="I113" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J113" t="s">
+        <v>223</v>
+      </c>
+      <c r="K113" t="s">
         <v>224</v>
       </c>
-      <c r="K113" t="s">
-        <v>225</v>
-      </c>
       <c r="L113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M113">
         <v>100</v>
@@ -6204,37 +6198,37 @@
         <v>45482</v>
       </c>
       <c r="B114" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C114" s="2">
         <v>3436.25</v>
       </c>
       <c r="D114" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E114" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F114" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G114" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H114">
         <v>24300</v>
       </c>
       <c r="I114" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J114" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K114" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L114" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M114">
         <v>25</v>
@@ -6248,37 +6242,37 @@
         <v>45482</v>
       </c>
       <c r="B115" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C115" s="2">
         <v>11710</v>
       </c>
       <c r="D115" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E115" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F115" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G115" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H115">
         <v>24400</v>
       </c>
       <c r="I115" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J115" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K115" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L115" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M115">
         <v>100</v>
@@ -6292,37 +6286,37 @@
         <v>45482</v>
       </c>
       <c r="B116" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C116" s="2">
         <v>14000</v>
       </c>
       <c r="D116" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E116" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F116" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G116" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H116">
         <v>24300</v>
       </c>
       <c r="I116" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J116" t="s">
+        <v>227</v>
+      </c>
+      <c r="K116" t="s">
         <v>228</v>
       </c>
-      <c r="K116" t="s">
-        <v>229</v>
-      </c>
       <c r="L116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M116">
         <v>100</v>
@@ -6336,37 +6330,37 @@
         <v>45482</v>
       </c>
       <c r="B117" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C117" s="2">
         <v>11125</v>
       </c>
       <c r="D117" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F117" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G117" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H117">
         <v>24400</v>
       </c>
       <c r="I117" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J117" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K117" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L117" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M117">
         <v>125</v>
@@ -6380,37 +6374,37 @@
         <v>45482</v>
       </c>
       <c r="B118" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C118" s="2">
         <v>6877.5</v>
       </c>
       <c r="D118" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F118" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G118" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H118">
         <v>24300</v>
       </c>
       <c r="I118" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J118" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K118" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L118" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M118">
         <v>50</v>
@@ -6424,37 +6418,37 @@
         <v>45481</v>
       </c>
       <c r="B119" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C119" s="2">
         <v>12000</v>
       </c>
       <c r="D119" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E119" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F119" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G119" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H119">
         <v>24300</v>
       </c>
       <c r="I119" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J119" t="s">
+        <v>231</v>
+      </c>
+      <c r="K119" t="s">
         <v>232</v>
       </c>
-      <c r="K119" t="s">
-        <v>233</v>
-      </c>
       <c r="L119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M119">
         <v>100</v>
@@ -6468,37 +6462,37 @@
         <v>45478</v>
       </c>
       <c r="B120" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C120" s="2">
         <v>6000</v>
       </c>
       <c r="D120" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E120" t="s">
+        <v>23</v>
+      </c>
+      <c r="F120" t="s">
+        <v>21</v>
+      </c>
+      <c r="G120" t="s">
         <v>24</v>
-      </c>
-      <c r="F120" t="s">
-        <v>22</v>
-      </c>
-      <c r="G120" t="s">
-        <v>25</v>
       </c>
       <c r="H120">
         <v>24300</v>
       </c>
       <c r="I120" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J120" t="s">
+        <v>233</v>
+      </c>
+      <c r="K120" t="s">
         <v>234</v>
       </c>
-      <c r="K120" t="s">
-        <v>235</v>
-      </c>
       <c r="L120" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M120">
         <v>50</v>
@@ -6512,37 +6506,37 @@
         <v>45478</v>
       </c>
       <c r="B121" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C121" s="2">
         <v>3028.75</v>
       </c>
       <c r="D121" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E121" t="s">
+        <v>23</v>
+      </c>
+      <c r="F121" t="s">
+        <v>21</v>
+      </c>
+      <c r="G121" t="s">
         <v>24</v>
-      </c>
-      <c r="F121" t="s">
-        <v>22</v>
-      </c>
-      <c r="G121" t="s">
-        <v>25</v>
       </c>
       <c r="H121">
         <v>24300</v>
       </c>
       <c r="I121" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J121" t="s">
+        <v>235</v>
+      </c>
+      <c r="K121" t="s">
         <v>236</v>
       </c>
-      <c r="K121" t="s">
-        <v>237</v>
-      </c>
       <c r="L121" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M121">
         <v>25</v>
@@ -6556,37 +6550,37 @@
         <v>45478</v>
       </c>
       <c r="B122" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C122" s="2">
         <v>9250</v>
       </c>
       <c r="D122" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E122" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F122" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G122" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H122">
         <v>24250</v>
       </c>
       <c r="I122" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J122" t="s">
+        <v>237</v>
+      </c>
+      <c r="K122" t="s">
         <v>238</v>
       </c>
-      <c r="K122" t="s">
-        <v>239</v>
-      </c>
       <c r="L122" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M122">
         <v>50</v>
@@ -6600,37 +6594,37 @@
         <v>45478</v>
       </c>
       <c r="B123" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C123" s="2">
         <v>3028.75</v>
       </c>
       <c r="D123" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E123" t="s">
+        <v>23</v>
+      </c>
+      <c r="F123" t="s">
+        <v>21</v>
+      </c>
+      <c r="G123" t="s">
         <v>24</v>
-      </c>
-      <c r="F123" t="s">
-        <v>22</v>
-      </c>
-      <c r="G123" t="s">
-        <v>25</v>
       </c>
       <c r="H123">
         <v>24300</v>
       </c>
       <c r="I123" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J123" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K123" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L123" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M123">
         <v>25</v>
@@ -6644,37 +6638,37 @@
         <v>45478</v>
       </c>
       <c r="B124" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C124" s="2">
         <v>8812.5</v>
       </c>
       <c r="D124" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E124" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F124" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G124" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H124">
         <v>24200</v>
       </c>
       <c r="I124" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J124" t="s">
+        <v>240</v>
+      </c>
+      <c r="K124" t="s">
         <v>241</v>
       </c>
-      <c r="K124" t="s">
-        <v>242</v>
-      </c>
       <c r="L124" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M124">
         <v>50</v>
@@ -6688,37 +6682,37 @@
         <v>45478</v>
       </c>
       <c r="B125" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C125" s="2">
         <v>2978.75</v>
       </c>
       <c r="D125" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E125" t="s">
+        <v>23</v>
+      </c>
+      <c r="F125" t="s">
+        <v>21</v>
+      </c>
+      <c r="G125" t="s">
         <v>24</v>
-      </c>
-      <c r="F125" t="s">
-        <v>22</v>
-      </c>
-      <c r="G125" t="s">
-        <v>25</v>
       </c>
       <c r="H125">
         <v>24300</v>
       </c>
       <c r="I125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J125" t="s">
+        <v>242</v>
+      </c>
+      <c r="K125" t="s">
         <v>243</v>
       </c>
-      <c r="K125" t="s">
-        <v>244</v>
-      </c>
       <c r="L125" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M125">
         <v>25</v>
@@ -6732,37 +6726,37 @@
         <v>45478</v>
       </c>
       <c r="B126" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C126" s="2">
         <v>6057.5</v>
       </c>
       <c r="D126" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E126" t="s">
+        <v>23</v>
+      </c>
+      <c r="F126" t="s">
+        <v>21</v>
+      </c>
+      <c r="G126" t="s">
         <v>24</v>
-      </c>
-      <c r="F126" t="s">
-        <v>22</v>
-      </c>
-      <c r="G126" t="s">
-        <v>25</v>
       </c>
       <c r="H126">
         <v>24300</v>
       </c>
       <c r="I126" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J126" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K126" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L126" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M126">
         <v>50</v>
@@ -6776,37 +6770,37 @@
         <v>45478</v>
       </c>
       <c r="B127" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C127" s="2">
         <v>8415</v>
       </c>
       <c r="D127" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E127" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F127" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G127" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H127">
         <v>24200</v>
       </c>
       <c r="I127" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J127" t="s">
+        <v>245</v>
+      </c>
+      <c r="K127" t="s">
         <v>246</v>
       </c>
-      <c r="K127" t="s">
-        <v>247</v>
-      </c>
       <c r="L127" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M127">
         <v>50</v>
@@ -6820,37 +6814,37 @@
         <v>45478</v>
       </c>
       <c r="B128" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C128" s="2">
         <v>1258.75</v>
       </c>
       <c r="D128" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E128" t="s">
+        <v>23</v>
+      </c>
+      <c r="F128" t="s">
+        <v>21</v>
+      </c>
+      <c r="G128" t="s">
         <v>24</v>
-      </c>
-      <c r="F128" t="s">
-        <v>22</v>
-      </c>
-      <c r="G128" t="s">
-        <v>25</v>
       </c>
       <c r="H128">
         <v>24000</v>
       </c>
       <c r="I128" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J128" t="s">
+        <v>247</v>
+      </c>
+      <c r="K128" t="s">
         <v>248</v>
       </c>
-      <c r="K128" t="s">
-        <v>249</v>
-      </c>
       <c r="L128" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M128">
         <v>25</v>
@@ -6864,37 +6858,37 @@
         <v>45478</v>
       </c>
       <c r="B129" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C129" s="2">
         <v>4625</v>
       </c>
       <c r="D129" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E129" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F129" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G129" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H129">
         <v>24250</v>
       </c>
       <c r="I129" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J129" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K129" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L129" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M129">
         <v>25</v>
@@ -6908,37 +6902,37 @@
         <v>45478</v>
       </c>
       <c r="B130" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C130" s="2">
         <v>2978.75</v>
       </c>
       <c r="D130" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E130" t="s">
+        <v>23</v>
+      </c>
+      <c r="F130" t="s">
+        <v>21</v>
+      </c>
+      <c r="G130" t="s">
         <v>24</v>
-      </c>
-      <c r="F130" t="s">
-        <v>22</v>
-      </c>
-      <c r="G130" t="s">
-        <v>25</v>
       </c>
       <c r="H130">
         <v>24300</v>
       </c>
       <c r="I130" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J130" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K130" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L130" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M130">
         <v>25</v>
@@ -6952,37 +6946,37 @@
         <v>45478</v>
       </c>
       <c r="B131" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C131" s="2">
         <v>12195</v>
       </c>
       <c r="D131" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E131" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F131" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G131" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H131">
         <v>24250</v>
       </c>
       <c r="I131" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J131" t="s">
+        <v>251</v>
+      </c>
+      <c r="K131" t="s">
         <v>252</v>
       </c>
-      <c r="K131" t="s">
-        <v>253</v>
-      </c>
       <c r="L131" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M131">
         <v>75</v>
@@ -6996,37 +6990,37 @@
         <v>45478</v>
       </c>
       <c r="B132" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C132" s="2">
         <v>1437.5</v>
       </c>
       <c r="D132" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E132" t="s">
+        <v>23</v>
+      </c>
+      <c r="F132" t="s">
+        <v>21</v>
+      </c>
+      <c r="G132" t="s">
         <v>24</v>
-      </c>
-      <c r="F132" t="s">
-        <v>22</v>
-      </c>
-      <c r="G132" t="s">
-        <v>25</v>
       </c>
       <c r="H132">
         <v>24000</v>
       </c>
       <c r="I132" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J132" t="s">
+        <v>253</v>
+      </c>
+      <c r="K132" t="s">
         <v>254</v>
       </c>
-      <c r="K132" t="s">
-        <v>255</v>
-      </c>
       <c r="L132" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M132">
         <v>25</v>
@@ -7040,37 +7034,37 @@
         <v>45477</v>
       </c>
       <c r="B133" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C133" s="2">
         <v>1317.5</v>
       </c>
       <c r="D133" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E133" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F133" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G133" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H133">
         <v>24300</v>
       </c>
       <c r="I133" t="s">
+        <v>255</v>
+      </c>
+      <c r="J133" t="s">
         <v>256</v>
       </c>
-      <c r="J133" t="s">
+      <c r="K133" t="s">
         <v>257</v>
       </c>
-      <c r="K133" t="s">
-        <v>258</v>
-      </c>
       <c r="L133" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M133">
         <v>25</v>
@@ -7084,37 +7078,37 @@
         <v>45477</v>
       </c>
       <c r="B134" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C134" s="2">
         <v>1250</v>
       </c>
       <c r="D134" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E134" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F134" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G134" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H134">
         <v>24300</v>
       </c>
       <c r="I134" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J134" t="s">
+        <v>258</v>
+      </c>
+      <c r="K134" t="s">
         <v>259</v>
       </c>
-      <c r="K134" t="s">
-        <v>260</v>
-      </c>
       <c r="L134" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M134">
         <v>25</v>
@@ -7128,37 +7122,37 @@
         <v>45476</v>
       </c>
       <c r="B135" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C135" s="2">
         <v>10455</v>
       </c>
       <c r="D135" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E135" t="s">
+        <v>23</v>
+      </c>
+      <c r="F135" t="s">
+        <v>21</v>
+      </c>
+      <c r="G135" t="s">
         <v>24</v>
-      </c>
-      <c r="F135" t="s">
-        <v>22</v>
-      </c>
-      <c r="G135" t="s">
-        <v>25</v>
       </c>
       <c r="H135">
         <v>24250</v>
       </c>
       <c r="I135" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J135" t="s">
+        <v>260</v>
+      </c>
+      <c r="K135" t="s">
         <v>261</v>
       </c>
-      <c r="K135" t="s">
-        <v>262</v>
-      </c>
       <c r="L135" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M135">
         <v>100</v>
@@ -7172,37 +7166,37 @@
         <v>45476</v>
       </c>
       <c r="B136" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C136" s="2">
         <v>1412.5</v>
       </c>
       <c r="D136" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E136" t="s">
+        <v>23</v>
+      </c>
+      <c r="F136" t="s">
+        <v>21</v>
+      </c>
+      <c r="G136" t="s">
         <v>24</v>
-      </c>
-      <c r="F136" t="s">
-        <v>22</v>
-      </c>
-      <c r="G136" t="s">
-        <v>25</v>
       </c>
       <c r="H136">
         <v>24250</v>
       </c>
       <c r="I136" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J136" t="s">
+        <v>262</v>
+      </c>
+      <c r="K136" t="s">
         <v>263</v>
       </c>
-      <c r="K136" t="s">
-        <v>264</v>
-      </c>
       <c r="L136" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M136">
         <v>25</v>
@@ -7216,37 +7210,37 @@
         <v>45476</v>
       </c>
       <c r="B137" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C137" s="2">
         <v>3150</v>
       </c>
       <c r="D137" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E137" t="s">
+        <v>23</v>
+      </c>
+      <c r="F137" t="s">
+        <v>21</v>
+      </c>
+      <c r="G137" t="s">
         <v>24</v>
-      </c>
-      <c r="F137" t="s">
-        <v>22</v>
-      </c>
-      <c r="G137" t="s">
-        <v>25</v>
       </c>
       <c r="H137">
         <v>24250</v>
       </c>
       <c r="I137" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J137" t="s">
+        <v>264</v>
+      </c>
+      <c r="K137" t="s">
         <v>265</v>
       </c>
-      <c r="K137" t="s">
-        <v>266</v>
-      </c>
       <c r="L137" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M137">
         <v>50</v>
@@ -7260,37 +7254,37 @@
         <v>45476</v>
       </c>
       <c r="B138" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C138" s="2">
         <v>1412.5</v>
       </c>
       <c r="D138" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E138" t="s">
+        <v>23</v>
+      </c>
+      <c r="F138" t="s">
+        <v>21</v>
+      </c>
+      <c r="G138" t="s">
         <v>24</v>
-      </c>
-      <c r="F138" t="s">
-        <v>22</v>
-      </c>
-      <c r="G138" t="s">
-        <v>25</v>
       </c>
       <c r="H138">
         <v>24250</v>
       </c>
       <c r="I138" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J138" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K138" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L138" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M138">
         <v>25</v>
@@ -7304,37 +7298,37 @@
         <v>45476</v>
       </c>
       <c r="B139" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C139" s="2">
         <v>1412.5</v>
       </c>
       <c r="D139" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E139" t="s">
+        <v>23</v>
+      </c>
+      <c r="F139" t="s">
+        <v>21</v>
+      </c>
+      <c r="G139" t="s">
         <v>24</v>
-      </c>
-      <c r="F139" t="s">
-        <v>22</v>
-      </c>
-      <c r="G139" t="s">
-        <v>25</v>
       </c>
       <c r="H139">
         <v>24250</v>
       </c>
       <c r="I139" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J139" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K139" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L139" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M139">
         <v>25</v>
@@ -7348,37 +7342,37 @@
         <v>45476</v>
       </c>
       <c r="B140" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C140" s="2">
         <v>1412.5</v>
       </c>
       <c r="D140" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E140" t="s">
+        <v>23</v>
+      </c>
+      <c r="F140" t="s">
+        <v>21</v>
+      </c>
+      <c r="G140" t="s">
         <v>24</v>
-      </c>
-      <c r="F140" t="s">
-        <v>22</v>
-      </c>
-      <c r="G140" t="s">
-        <v>25</v>
       </c>
       <c r="H140">
         <v>24250</v>
       </c>
       <c r="I140" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J140" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K140" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L140" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M140">
         <v>25</v>
@@ -7392,37 +7386,37 @@
         <v>45476</v>
       </c>
       <c r="B141" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C141" s="2">
         <v>1412.5</v>
       </c>
       <c r="D141" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E141" t="s">
+        <v>23</v>
+      </c>
+      <c r="F141" t="s">
+        <v>21</v>
+      </c>
+      <c r="G141" t="s">
         <v>24</v>
-      </c>
-      <c r="F141" t="s">
-        <v>22</v>
-      </c>
-      <c r="G141" t="s">
-        <v>25</v>
       </c>
       <c r="H141">
         <v>24250</v>
       </c>
       <c r="I141" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J141" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K141" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M141">
         <v>25</v>
@@ -7436,37 +7430,37 @@
         <v>45476</v>
       </c>
       <c r="B142" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C142" s="2">
         <v>1412.5</v>
       </c>
       <c r="D142" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E142" t="s">
+        <v>23</v>
+      </c>
+      <c r="F142" t="s">
+        <v>21</v>
+      </c>
+      <c r="G142" t="s">
         <v>24</v>
-      </c>
-      <c r="F142" t="s">
-        <v>22</v>
-      </c>
-      <c r="G142" t="s">
-        <v>25</v>
       </c>
       <c r="H142">
         <v>24250</v>
       </c>
       <c r="I142" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J142" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K142" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L142" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M142">
         <v>25</v>
@@ -7480,37 +7474,37 @@
         <v>45475</v>
       </c>
       <c r="B143" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C143" s="2">
         <v>5027.5</v>
       </c>
       <c r="D143" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E143" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F143" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G143" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H143">
         <v>24000</v>
       </c>
       <c r="I143" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J143" t="s">
+        <v>271</v>
+      </c>
+      <c r="K143" t="s">
         <v>272</v>
       </c>
-      <c r="K143" t="s">
-        <v>273</v>
-      </c>
       <c r="L143" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M143">
         <v>25</v>
@@ -7524,37 +7518,37 @@
         <v>45475</v>
       </c>
       <c r="B144" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C144" s="2">
         <v>3508.75</v>
       </c>
       <c r="D144" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E144" t="s">
+        <v>23</v>
+      </c>
+      <c r="F144" t="s">
+        <v>21</v>
+      </c>
+      <c r="G144" t="s">
         <v>24</v>
-      </c>
-      <c r="F144" t="s">
-        <v>22</v>
-      </c>
-      <c r="G144" t="s">
-        <v>25</v>
       </c>
       <c r="H144">
         <v>24150</v>
       </c>
       <c r="I144" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J144" t="s">
+        <v>273</v>
+      </c>
+      <c r="K144" t="s">
         <v>274</v>
       </c>
-      <c r="K144" t="s">
-        <v>275</v>
-      </c>
       <c r="L144" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M144">
         <v>25</v>
@@ -7568,37 +7562,37 @@
         <v>45475</v>
       </c>
       <c r="B145" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C145" s="2">
         <v>3125</v>
       </c>
       <c r="D145" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E145" t="s">
+        <v>23</v>
+      </c>
+      <c r="F145" t="s">
+        <v>21</v>
+      </c>
+      <c r="G145" t="s">
         <v>24</v>
-      </c>
-      <c r="F145" t="s">
-        <v>22</v>
-      </c>
-      <c r="G145" t="s">
-        <v>25</v>
       </c>
       <c r="H145">
         <v>24150</v>
       </c>
       <c r="I145" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J145" t="s">
+        <v>275</v>
+      </c>
+      <c r="K145" t="s">
         <v>276</v>
       </c>
-      <c r="K145" t="s">
-        <v>277</v>
-      </c>
       <c r="L145" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M145">
         <v>25</v>
@@ -7612,37 +7606,37 @@
         <v>45475</v>
       </c>
       <c r="B146" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C146" s="2">
         <v>18155</v>
       </c>
       <c r="D146" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E146" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F146" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G146" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H146">
         <v>24000</v>
       </c>
       <c r="I146" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J146" t="s">
+        <v>277</v>
+      </c>
+      <c r="K146" t="s">
         <v>278</v>
       </c>
-      <c r="K146" t="s">
-        <v>279</v>
-      </c>
       <c r="L146" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M146">
         <v>100</v>
@@ -7656,37 +7650,37 @@
         <v>45475</v>
       </c>
       <c r="B147" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C147" s="2">
         <v>5027.5</v>
       </c>
       <c r="D147" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E147" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F147" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G147" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H147">
         <v>24000</v>
       </c>
       <c r="I147" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J147" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K147" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L147" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M147">
         <v>25</v>
@@ -7700,37 +7694,37 @@
         <v>45475</v>
       </c>
       <c r="B148" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C148" s="2">
         <v>10052.5</v>
       </c>
       <c r="D148" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E148" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F148" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G148" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H148">
         <v>24000</v>
       </c>
       <c r="I148" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J148" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K148" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L148" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M148">
         <v>50</v>
@@ -7744,28 +7738,28 @@
         <v>45475</v>
       </c>
       <c r="B149" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C149" s="2">
         <v>999.89</v>
       </c>
       <c r="D149" t="s">
+        <v>87</v>
+      </c>
+      <c r="E149" t="s">
         <v>88</v>
       </c>
-      <c r="E149" t="s">
+      <c r="F149" t="s">
         <v>89</v>
       </c>
-      <c r="F149" t="s">
-        <v>90</v>
-      </c>
       <c r="G149" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H149">
         <v>0</v>
       </c>
       <c r="L149" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M149">
         <v>2.2000000000000002</v>
@@ -7779,28 +7773,28 @@
         <v>45475</v>
       </c>
       <c r="B150" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C150" s="2">
         <v>999.95</v>
       </c>
       <c r="D150" t="s">
+        <v>87</v>
+      </c>
+      <c r="E150" t="s">
         <v>88</v>
       </c>
-      <c r="E150" t="s">
-        <v>89</v>
-      </c>
       <c r="F150" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G150" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H150">
         <v>0</v>
       </c>
       <c r="L150" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M150">
         <v>19.29</v>
@@ -7814,37 +7808,37 @@
         <v>45474</v>
       </c>
       <c r="B151" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C151" s="2">
         <v>14373.75</v>
       </c>
       <c r="D151" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E151" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F151" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G151" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H151">
         <v>24050</v>
       </c>
       <c r="I151" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J151" t="s">
+        <v>281</v>
+      </c>
+      <c r="K151" t="s">
         <v>282</v>
       </c>
-      <c r="K151" t="s">
-        <v>283</v>
-      </c>
       <c r="L151" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M151">
         <v>75</v>
@@ -7858,37 +7852,37 @@
         <v>45474</v>
       </c>
       <c r="B152" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C152" s="2">
         <v>4792.5</v>
       </c>
       <c r="D152" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E152" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F152" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G152" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H152">
         <v>24050</v>
       </c>
       <c r="I152" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J152" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K152" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L152" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M152">
         <v>25</v>
@@ -7902,37 +7896,37 @@
         <v>45474</v>
       </c>
       <c r="B153" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C153" s="2">
         <v>18285</v>
       </c>
       <c r="D153" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E153" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F153" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G153" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H153">
         <v>24050</v>
       </c>
       <c r="I153" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J153" t="s">
+        <v>284</v>
+      </c>
+      <c r="K153" t="s">
         <v>285</v>
       </c>
-      <c r="K153" t="s">
-        <v>286</v>
-      </c>
       <c r="L153" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M153">
         <v>100</v>
@@ -7946,37 +7940,37 @@
         <v>45471</v>
       </c>
       <c r="B154" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C154" s="2">
         <v>8500</v>
       </c>
       <c r="D154" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E154" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F154" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G154" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H154">
         <v>24100</v>
       </c>
       <c r="I154" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J154" t="s">
+        <v>286</v>
+      </c>
+      <c r="K154" t="s">
         <v>287</v>
       </c>
-      <c r="K154" t="s">
-        <v>288</v>
-      </c>
       <c r="L154" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M154">
         <v>50</v>
@@ -7990,37 +7984,37 @@
         <v>45471</v>
       </c>
       <c r="B155" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C155" s="2">
         <v>8500</v>
       </c>
       <c r="D155" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E155" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F155" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G155" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H155">
         <v>24100</v>
       </c>
       <c r="I155" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J155" t="s">
+        <v>288</v>
+      </c>
+      <c r="K155" t="s">
         <v>289</v>
       </c>
-      <c r="K155" t="s">
-        <v>290</v>
-      </c>
       <c r="L155" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M155">
         <v>50</v>
@@ -8034,37 +8028,37 @@
         <v>45471</v>
       </c>
       <c r="B156" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C156" s="2">
         <v>7250</v>
       </c>
       <c r="D156" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E156" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F156" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G156" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H156">
         <v>24100</v>
       </c>
       <c r="I156" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J156" t="s">
+        <v>290</v>
+      </c>
+      <c r="K156" t="s">
         <v>291</v>
       </c>
-      <c r="K156" t="s">
-        <v>292</v>
-      </c>
       <c r="L156" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M156">
         <v>50</v>
@@ -8078,37 +8072,37 @@
         <v>45471</v>
       </c>
       <c r="B157" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C157" s="2">
         <v>8500</v>
       </c>
       <c r="D157" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E157" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F157" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G157" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H157">
         <v>24100</v>
       </c>
       <c r="I157" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J157" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K157" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L157" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M157">
         <v>50</v>
@@ -8122,37 +8116,37 @@
         <v>45470</v>
       </c>
       <c r="B158" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C158" s="2">
         <v>8842.5</v>
       </c>
       <c r="D158" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E158" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F158" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G158" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H158">
         <v>23800</v>
       </c>
       <c r="I158" t="s">
+        <v>293</v>
+      </c>
+      <c r="J158" t="s">
         <v>294</v>
       </c>
-      <c r="J158" t="s">
+      <c r="K158" t="s">
         <v>295</v>
       </c>
-      <c r="K158" t="s">
-        <v>296</v>
-      </c>
       <c r="L158" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M158">
         <v>50</v>
@@ -8166,37 +8160,37 @@
         <v>45470</v>
       </c>
       <c r="B159" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C159" s="2">
         <v>8750</v>
       </c>
       <c r="D159" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E159" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F159" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G159" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H159">
         <v>23800</v>
       </c>
       <c r="I159" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J159" t="s">
+        <v>296</v>
+      </c>
+      <c r="K159" t="s">
         <v>297</v>
       </c>
-      <c r="K159" t="s">
-        <v>298</v>
-      </c>
       <c r="L159" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M159">
         <v>50</v>
@@ -8210,37 +8204,37 @@
         <v>45469</v>
       </c>
       <c r="B160" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C160" s="2">
         <v>6050</v>
       </c>
       <c r="D160" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E160" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F160" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G160" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H160">
         <v>23800</v>
       </c>
       <c r="I160" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J160" t="s">
+        <v>298</v>
+      </c>
+      <c r="K160" t="s">
         <v>299</v>
       </c>
-      <c r="K160" t="s">
-        <v>300</v>
-      </c>
       <c r="L160" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M160">
         <v>50</v>
@@ -8254,37 +8248,37 @@
         <v>45469</v>
       </c>
       <c r="B161" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C161" s="2">
         <v>10910</v>
       </c>
       <c r="D161" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E161" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F161" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G161" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H161">
         <v>23800</v>
       </c>
       <c r="I161" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J161" t="s">
+        <v>300</v>
+      </c>
+      <c r="K161" t="s">
         <v>301</v>
       </c>
-      <c r="K161" t="s">
-        <v>302</v>
-      </c>
       <c r="L161" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M161">
         <v>100</v>
@@ -8298,37 +8292,37 @@
         <v>45469</v>
       </c>
       <c r="B162" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C162" s="2">
         <v>3025</v>
       </c>
       <c r="D162" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E162" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F162" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G162" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H162">
         <v>23800</v>
       </c>
       <c r="I162" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J162" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K162" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L162" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M162">
         <v>25</v>
@@ -8342,37 +8336,37 @@
         <v>45469</v>
       </c>
       <c r="B163" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C163" s="2">
         <v>12100</v>
       </c>
       <c r="D163" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E163" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F163" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G163" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H163">
         <v>23800</v>
       </c>
       <c r="I163" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J163" t="s">
+        <v>303</v>
+      </c>
+      <c r="K163" t="s">
         <v>304</v>
       </c>
-      <c r="K163" t="s">
-        <v>305</v>
-      </c>
       <c r="L163" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M163">
         <v>100</v>
@@ -8386,37 +8380,37 @@
         <v>45469</v>
       </c>
       <c r="B164" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C164" s="2">
         <v>3025</v>
       </c>
       <c r="D164" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E164" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F164" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G164" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H164">
         <v>23800</v>
       </c>
       <c r="I164" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J164" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K164" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L164" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M164">
         <v>25</v>
@@ -8430,37 +8424,37 @@
         <v>45468</v>
       </c>
       <c r="B165" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C165" s="2">
         <v>12620</v>
       </c>
       <c r="D165" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E165" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F165" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G165" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H165">
         <v>23550</v>
       </c>
       <c r="I165" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J165" t="s">
+        <v>306</v>
+      </c>
+      <c r="K165" t="s">
         <v>307</v>
       </c>
-      <c r="K165" t="s">
-        <v>308</v>
-      </c>
       <c r="L165" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M165">
         <v>100</v>
@@ -8474,37 +8468,37 @@
         <v>45468</v>
       </c>
       <c r="B166" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C166" s="2">
         <v>12830</v>
       </c>
       <c r="D166" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E166" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F166" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G166" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H166">
         <v>23550</v>
       </c>
       <c r="I166" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J166" t="s">
+        <v>308</v>
+      </c>
+      <c r="K166" t="s">
         <v>309</v>
       </c>
-      <c r="K166" t="s">
-        <v>310</v>
-      </c>
       <c r="L166" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M166">
         <v>100</v>
@@ -8518,37 +8512,37 @@
         <v>45467</v>
       </c>
       <c r="B167" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C167" s="2">
         <v>3440</v>
       </c>
       <c r="D167" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E167" t="s">
+        <v>23</v>
+      </c>
+      <c r="F167" t="s">
+        <v>21</v>
+      </c>
+      <c r="G167" t="s">
         <v>24</v>
-      </c>
-      <c r="F167" t="s">
-        <v>22</v>
-      </c>
-      <c r="G167" t="s">
-        <v>25</v>
       </c>
       <c r="H167">
         <v>23550</v>
       </c>
       <c r="I167" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J167" t="s">
+        <v>310</v>
+      </c>
+      <c r="K167" t="s">
         <v>311</v>
       </c>
-      <c r="K167" t="s">
-        <v>312</v>
-      </c>
       <c r="L167" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M167">
         <v>25</v>
@@ -8562,37 +8556,37 @@
         <v>45467</v>
       </c>
       <c r="B168" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C168" s="2">
         <v>3442.5</v>
       </c>
       <c r="D168" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E168" t="s">
+        <v>23</v>
+      </c>
+      <c r="F168" t="s">
+        <v>21</v>
+      </c>
+      <c r="G168" t="s">
         <v>24</v>
-      </c>
-      <c r="F168" t="s">
-        <v>22</v>
-      </c>
-      <c r="G168" t="s">
-        <v>25</v>
       </c>
       <c r="H168">
         <v>23550</v>
       </c>
       <c r="I168" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J168" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K168" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L168" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M168">
         <v>25</v>
@@ -8606,37 +8600,37 @@
         <v>45467</v>
       </c>
       <c r="B169" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C169" s="2">
         <v>3440</v>
       </c>
       <c r="D169" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E169" t="s">
+        <v>23</v>
+      </c>
+      <c r="F169" t="s">
+        <v>21</v>
+      </c>
+      <c r="G169" t="s">
         <v>24</v>
-      </c>
-      <c r="F169" t="s">
-        <v>22</v>
-      </c>
-      <c r="G169" t="s">
-        <v>25</v>
       </c>
       <c r="H169">
         <v>23550</v>
       </c>
       <c r="I169" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J169" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K169" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L169" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M169">
         <v>25</v>
@@ -8650,37 +8644,37 @@
         <v>45467</v>
       </c>
       <c r="B170" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C170" s="2">
         <v>14095</v>
       </c>
       <c r="D170" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E170" t="s">
+        <v>23</v>
+      </c>
+      <c r="F170" t="s">
+        <v>21</v>
+      </c>
+      <c r="G170" t="s">
         <v>24</v>
-      </c>
-      <c r="F170" t="s">
-        <v>22</v>
-      </c>
-      <c r="G170" t="s">
-        <v>25</v>
       </c>
       <c r="H170">
         <v>23550</v>
       </c>
       <c r="I170" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J170" t="s">
+        <v>314</v>
+      </c>
+      <c r="K170" t="s">
         <v>315</v>
       </c>
-      <c r="K170" t="s">
-        <v>316</v>
-      </c>
       <c r="L170" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M170">
         <v>100</v>
@@ -8694,37 +8688,37 @@
         <v>45467</v>
       </c>
       <c r="B171" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C171" s="2">
         <v>3440</v>
       </c>
       <c r="D171" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E171" t="s">
+        <v>23</v>
+      </c>
+      <c r="F171" t="s">
+        <v>21</v>
+      </c>
+      <c r="G171" t="s">
         <v>24</v>
-      </c>
-      <c r="F171" t="s">
-        <v>22</v>
-      </c>
-      <c r="G171" t="s">
-        <v>25</v>
       </c>
       <c r="H171">
         <v>23550</v>
       </c>
       <c r="I171" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J171" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K171" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L171" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M171">
         <v>25</v>
@@ -8738,37 +8732,37 @@
         <v>45464</v>
       </c>
       <c r="B172" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C172" s="2">
         <v>3125</v>
       </c>
       <c r="D172" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E172" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F172" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G172" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H172">
         <v>23500</v>
       </c>
       <c r="I172" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J172" t="s">
+        <v>317</v>
+      </c>
+      <c r="K172" t="s">
         <v>318</v>
       </c>
-      <c r="K172" t="s">
-        <v>319</v>
-      </c>
       <c r="L172" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M172">
         <v>25</v>
@@ -8782,37 +8776,37 @@
         <v>45464</v>
       </c>
       <c r="B173" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C173" s="2">
         <v>11325</v>
       </c>
       <c r="D173" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E173" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F173" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G173" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H173">
         <v>23500</v>
       </c>
       <c r="I173" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J173" t="s">
+        <v>319</v>
+      </c>
+      <c r="K173" t="s">
         <v>320</v>
       </c>
-      <c r="K173" t="s">
-        <v>321</v>
-      </c>
       <c r="L173" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M173">
         <v>75</v>
@@ -8826,37 +8820,37 @@
         <v>45464</v>
       </c>
       <c r="B174" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C174" s="2">
         <v>3775</v>
       </c>
       <c r="D174" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E174" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F174" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G174" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H174">
         <v>23500</v>
       </c>
       <c r="I174" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J174" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K174" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L174" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M174">
         <v>25</v>
@@ -8870,37 +8864,37 @@
         <v>45464</v>
       </c>
       <c r="B175" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C175" s="2">
         <v>9375</v>
       </c>
       <c r="D175" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E175" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F175" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G175" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H175">
         <v>23500</v>
       </c>
       <c r="I175" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J175" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K175" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L175" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M175">
         <v>75</v>
@@ -8914,37 +8908,37 @@
         <v>45463</v>
       </c>
       <c r="B176" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C176" s="2">
         <v>3500</v>
       </c>
       <c r="D176" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E176" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F176" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G176" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H176">
         <v>23450</v>
       </c>
       <c r="I176" t="s">
+        <v>323</v>
+      </c>
+      <c r="J176" t="s">
         <v>324</v>
       </c>
-      <c r="J176" t="s">
+      <c r="K176" t="s">
         <v>325</v>
       </c>
-      <c r="K176" t="s">
-        <v>326</v>
-      </c>
       <c r="L176" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M176">
         <v>50</v>
@@ -8958,37 +8952,37 @@
         <v>45463</v>
       </c>
       <c r="B177" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C177" s="2">
         <v>750</v>
       </c>
       <c r="D177" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E177" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F177" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G177" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H177">
         <v>23650</v>
       </c>
       <c r="I177" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J177" t="s">
+        <v>326</v>
+      </c>
+      <c r="K177" t="s">
         <v>327</v>
       </c>
-      <c r="K177" t="s">
-        <v>328</v>
-      </c>
       <c r="L177" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M177">
         <v>50</v>
@@ -9002,37 +8996,37 @@
         <v>45463</v>
       </c>
       <c r="B178" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C178" s="2">
         <v>375</v>
       </c>
       <c r="D178" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E178" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F178" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G178" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H178">
         <v>23650</v>
       </c>
       <c r="I178" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J178" t="s">
+        <v>328</v>
+      </c>
+      <c r="K178" t="s">
         <v>329</v>
       </c>
-      <c r="K178" t="s">
-        <v>330</v>
-      </c>
       <c r="L178" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M178">
         <v>25</v>
@@ -9046,37 +9040,37 @@
         <v>45463</v>
       </c>
       <c r="B179" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C179" s="2">
         <v>450</v>
       </c>
       <c r="D179" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E179" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F179" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G179" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H179">
         <v>23650</v>
       </c>
       <c r="I179" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J179" t="s">
+        <v>330</v>
+      </c>
+      <c r="K179" t="s">
         <v>331</v>
       </c>
-      <c r="K179" t="s">
-        <v>332</v>
-      </c>
       <c r="L179" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M179">
         <v>75</v>
@@ -9090,37 +9084,37 @@
         <v>45463</v>
       </c>
       <c r="B180" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C180" s="2">
         <v>1938.75</v>
       </c>
       <c r="D180" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E180" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F180" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G180" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H180">
         <v>23450</v>
       </c>
       <c r="I180" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J180" t="s">
+        <v>332</v>
+      </c>
+      <c r="K180" t="s">
         <v>333</v>
       </c>
-      <c r="K180" t="s">
-        <v>334</v>
-      </c>
       <c r="L180" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M180">
         <v>25</v>
@@ -9134,37 +9128,37 @@
         <v>45463</v>
       </c>
       <c r="B181" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C181" s="2">
         <v>368.75</v>
       </c>
       <c r="D181" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E181" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F181" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G181" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H181">
         <v>23650</v>
       </c>
       <c r="I181" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J181" t="s">
+        <v>334</v>
+      </c>
+      <c r="K181" t="s">
         <v>335</v>
       </c>
-      <c r="K181" t="s">
-        <v>336</v>
-      </c>
       <c r="L181" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M181">
         <v>25</v>
@@ -9178,37 +9172,37 @@
         <v>45463</v>
       </c>
       <c r="B182" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C182" s="2">
         <v>1106.25</v>
       </c>
       <c r="D182" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E182" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F182" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G182" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H182">
         <v>23650</v>
       </c>
       <c r="I182" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J182" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K182" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L182" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M182">
         <v>75</v>
@@ -9222,37 +9216,37 @@
         <v>45463</v>
       </c>
       <c r="B183" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C183" s="2">
         <v>627.5</v>
       </c>
       <c r="D183" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E183" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F183" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G183" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H183">
         <v>23650</v>
       </c>
       <c r="I183" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J183" t="s">
+        <v>337</v>
+      </c>
+      <c r="K183" t="s">
         <v>338</v>
       </c>
-      <c r="K183" t="s">
-        <v>339</v>
-      </c>
       <c r="L183" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M183">
         <v>50</v>
@@ -9266,37 +9260,37 @@
         <v>45463</v>
       </c>
       <c r="B184" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C184" s="2">
         <v>682.5</v>
       </c>
       <c r="D184" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E184" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F184" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G184" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H184">
         <v>23650</v>
       </c>
       <c r="I184" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J184" t="s">
+        <v>339</v>
+      </c>
+      <c r="K184" t="s">
         <v>340</v>
       </c>
-      <c r="K184" t="s">
-        <v>341</v>
-      </c>
       <c r="L184" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M184">
         <v>50</v>
@@ -9310,37 +9304,37 @@
         <v>45463</v>
       </c>
       <c r="B185" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C185" s="2">
         <v>1938.75</v>
       </c>
       <c r="D185" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E185" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F185" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G185" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H185">
         <v>23450</v>
       </c>
       <c r="I185" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J185" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K185" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L185" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M185">
         <v>25</v>
@@ -9354,37 +9348,37 @@
         <v>45463</v>
       </c>
       <c r="B186" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C186" s="2">
         <v>375</v>
       </c>
       <c r="D186" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E186" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F186" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G186" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H186">
         <v>23650</v>
       </c>
       <c r="I186" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J186" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K186" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L186" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M186">
         <v>25</v>
@@ -9398,37 +9392,37 @@
         <v>45463</v>
       </c>
       <c r="B187" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C187" s="2">
         <v>150</v>
       </c>
       <c r="D187" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E187" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F187" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G187" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H187">
         <v>23650</v>
       </c>
       <c r="I187" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J187" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K187" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L187" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M187">
         <v>25</v>
@@ -9442,37 +9436,37 @@
         <v>45462</v>
       </c>
       <c r="B188" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C188" s="2">
         <v>1875</v>
       </c>
       <c r="D188" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E188" t="s">
+        <v>23</v>
+      </c>
+      <c r="F188" t="s">
+        <v>21</v>
+      </c>
+      <c r="G188" t="s">
         <v>24</v>
-      </c>
-      <c r="F188" t="s">
-        <v>22</v>
-      </c>
-      <c r="G188" t="s">
-        <v>25</v>
       </c>
       <c r="H188">
         <v>23600</v>
       </c>
       <c r="I188" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J188" t="s">
+        <v>344</v>
+      </c>
+      <c r="K188" t="s">
         <v>345</v>
       </c>
-      <c r="K188" t="s">
-        <v>346</v>
-      </c>
       <c r="L188" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M188">
         <v>25</v>
@@ -9486,37 +9480,37 @@
         <v>45462</v>
       </c>
       <c r="B189" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C189" s="2">
         <v>750</v>
       </c>
       <c r="D189" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E189" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F189" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G189" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H189">
         <v>23600</v>
       </c>
       <c r="I189" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J189" t="s">
+        <v>346</v>
+      </c>
+      <c r="K189" t="s">
         <v>347</v>
       </c>
-      <c r="K189" t="s">
-        <v>348</v>
-      </c>
       <c r="L189" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M189">
         <v>25</v>
@@ -9530,37 +9524,37 @@
         <v>45462</v>
       </c>
       <c r="B190" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C190" s="2">
         <v>2400</v>
       </c>
       <c r="D190" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E190" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F190" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G190" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H190">
         <v>23600</v>
       </c>
       <c r="I190" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J190" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K190" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L190" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M190">
         <v>50</v>
@@ -9574,37 +9568,37 @@
         <v>45462</v>
       </c>
       <c r="B191" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C191" s="2">
         <v>2500</v>
       </c>
       <c r="D191" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E191" t="s">
+        <v>23</v>
+      </c>
+      <c r="F191" t="s">
+        <v>21</v>
+      </c>
+      <c r="G191" t="s">
         <v>24</v>
-      </c>
-      <c r="F191" t="s">
-        <v>22</v>
-      </c>
-      <c r="G191" t="s">
-        <v>25</v>
       </c>
       <c r="H191">
         <v>23600</v>
       </c>
       <c r="I191" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J191" t="s">
+        <v>349</v>
+      </c>
+      <c r="K191" t="s">
         <v>350</v>
       </c>
-      <c r="K191" t="s">
-        <v>351</v>
-      </c>
       <c r="L191" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M191">
         <v>25</v>
@@ -9618,37 +9612,37 @@
         <v>45462</v>
       </c>
       <c r="B192" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C192" s="2">
         <v>1248.75</v>
       </c>
       <c r="D192" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E192" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F192" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G192" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H192">
         <v>23600</v>
       </c>
       <c r="I192" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J192" t="s">
+        <v>351</v>
+      </c>
+      <c r="K192" t="s">
         <v>352</v>
       </c>
-      <c r="K192" t="s">
-        <v>353</v>
-      </c>
       <c r="L192" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M192">
         <v>25</v>
@@ -9662,37 +9656,37 @@
         <v>45461</v>
       </c>
       <c r="B193" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C193" s="2">
         <v>3000</v>
       </c>
       <c r="D193" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E193" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F193" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G193" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H193">
         <v>23500</v>
       </c>
       <c r="I193" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J193" t="s">
+        <v>353</v>
+      </c>
+      <c r="K193" t="s">
         <v>354</v>
       </c>
-      <c r="K193" t="s">
-        <v>355</v>
-      </c>
       <c r="L193" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M193">
         <v>25</v>
@@ -9706,37 +9700,37 @@
         <v>45461</v>
       </c>
       <c r="B194" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C194" s="2">
         <v>3391.25</v>
       </c>
       <c r="D194" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E194" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F194" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G194" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H194">
         <v>23500</v>
       </c>
       <c r="I194" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J194" t="s">
+        <v>355</v>
+      </c>
+      <c r="K194" t="s">
         <v>356</v>
       </c>
-      <c r="K194" t="s">
-        <v>357</v>
-      </c>
       <c r="L194" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M194">
         <v>25</v>
@@ -9750,37 +9744,37 @@
         <v>45457</v>
       </c>
       <c r="B195" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C195" s="2">
         <v>3117.5</v>
       </c>
       <c r="D195" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E195" t="s">
+        <v>23</v>
+      </c>
+      <c r="F195" t="s">
+        <v>21</v>
+      </c>
+      <c r="G195" t="s">
         <v>24</v>
-      </c>
-      <c r="F195" t="s">
-        <v>22</v>
-      </c>
-      <c r="G195" t="s">
-        <v>25</v>
       </c>
       <c r="H195">
         <v>23450</v>
       </c>
       <c r="I195" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J195" t="s">
+        <v>357</v>
+      </c>
+      <c r="K195" t="s">
         <v>358</v>
       </c>
-      <c r="K195" t="s">
-        <v>359</v>
-      </c>
       <c r="L195" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M195">
         <v>25</v>
@@ -9794,37 +9788,37 @@
         <v>45457</v>
       </c>
       <c r="B196" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C196" s="2">
         <v>3200</v>
       </c>
       <c r="D196" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E196" t="s">
+        <v>23</v>
+      </c>
+      <c r="F196" t="s">
+        <v>21</v>
+      </c>
+      <c r="G196" t="s">
         <v>24</v>
-      </c>
-      <c r="F196" t="s">
-        <v>22</v>
-      </c>
-      <c r="G196" t="s">
-        <v>25</v>
       </c>
       <c r="H196">
         <v>23450</v>
       </c>
       <c r="I196" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J196" t="s">
+        <v>359</v>
+      </c>
+      <c r="K196" t="s">
         <v>360</v>
       </c>
-      <c r="K196" t="s">
-        <v>361</v>
-      </c>
       <c r="L196" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M196">
         <v>25</v>
@@ -9838,34 +9832,34 @@
         <v>45456</v>
       </c>
       <c r="B197" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C197" s="2">
         <v>3000</v>
       </c>
       <c r="D197" t="s">
+        <v>362</v>
+      </c>
+      <c r="E197" t="s">
         <v>363</v>
       </c>
-      <c r="E197" t="s">
+      <c r="F197" t="s">
         <v>364</v>
       </c>
-      <c r="F197" t="s">
+      <c r="G197" t="s">
         <v>365</v>
-      </c>
-      <c r="G197" t="s">
-        <v>366</v>
       </c>
       <c r="H197">
         <v>0</v>
       </c>
       <c r="J197" t="s">
+        <v>366</v>
+      </c>
+      <c r="K197" t="s">
         <v>367</v>
       </c>
-      <c r="K197" t="s">
-        <v>368</v>
-      </c>
       <c r="L197" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M197">
         <v>2</v>
@@ -9879,37 +9873,37 @@
         <v>45456</v>
       </c>
       <c r="B198" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C198" s="2">
         <v>1547.5</v>
       </c>
       <c r="D198" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E198" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F198" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G198" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H198">
         <v>23350</v>
       </c>
       <c r="I198" t="s">
+        <v>368</v>
+      </c>
+      <c r="J198" t="s">
         <v>369</v>
       </c>
-      <c r="J198" t="s">
+      <c r="K198" t="s">
         <v>370</v>
       </c>
-      <c r="K198" t="s">
-        <v>371</v>
-      </c>
       <c r="L198" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M198">
         <v>25</v>
@@ -9923,37 +9917,37 @@
         <v>45456</v>
       </c>
       <c r="B199" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C199" s="2">
         <v>1475</v>
       </c>
       <c r="D199" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E199" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F199" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G199" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H199">
         <v>23350</v>
       </c>
       <c r="I199" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J199" t="s">
+        <v>371</v>
+      </c>
+      <c r="K199" t="s">
         <v>372</v>
       </c>
-      <c r="K199" t="s">
-        <v>373</v>
-      </c>
       <c r="L199" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M199">
         <v>25</v>
@@ -9967,34 +9961,34 @@
         <v>45447</v>
       </c>
       <c r="B200" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C200" s="2">
         <v>2688.6</v>
       </c>
       <c r="D200" t="s">
+        <v>362</v>
+      </c>
+      <c r="E200" t="s">
         <v>363</v>
       </c>
-      <c r="E200" t="s">
-        <v>364</v>
-      </c>
       <c r="F200" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G200" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H200">
         <v>0</v>
       </c>
       <c r="J200" t="s">
+        <v>375</v>
+      </c>
+      <c r="K200" t="s">
         <v>376</v>
       </c>
-      <c r="K200" t="s">
-        <v>377</v>
-      </c>
       <c r="L200" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M200">
         <v>3</v>
@@ -10008,28 +10002,28 @@
         <v>45436</v>
       </c>
       <c r="B201" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C201" s="2">
         <v>999.75</v>
       </c>
       <c r="D201" t="s">
+        <v>87</v>
+      </c>
+      <c r="E201" t="s">
         <v>88</v>
       </c>
-      <c r="E201" t="s">
+      <c r="F201" t="s">
         <v>89</v>
       </c>
-      <c r="F201" t="s">
-        <v>90</v>
-      </c>
       <c r="G201" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H201">
         <v>0</v>
       </c>
       <c r="L201" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M201">
         <v>2.33</v>
@@ -10043,28 +10037,28 @@
         <v>45436</v>
       </c>
       <c r="B202" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C202" s="2">
         <v>999.95</v>
       </c>
       <c r="D202" t="s">
+        <v>87</v>
+      </c>
+      <c r="E202" t="s">
         <v>88</v>
       </c>
-      <c r="E202" t="s">
-        <v>89</v>
-      </c>
       <c r="F202" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G202" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H202">
         <v>0</v>
       </c>
       <c r="L202" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M202">
         <v>20.51</v>
@@ -10086,7 +10080,7 @@
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
